--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7BDD44-F8AE-4858-8D98-3C9CEB239FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC6B38D-AC67-49BC-ACA7-3EA77E01D297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="390" windowWidth="24240" windowHeight="14565" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="-120" yWindow="720" windowWidth="26400" windowHeight="14565" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>B</t>
     <phoneticPr fontId="1"/>
@@ -164,15 +164,26 @@
     <t>xi[eV]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>pair_style smatb # R0(A)   p       q     A(eV)   xi(eV)  Rcs(A)   Rc(A)</t>
+  </si>
+  <si>
+    <t>pair_coeff 1 1</t>
+  </si>
+  <si>
+    <t>Lammps, metal units</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -251,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +300,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10959,10 +10976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91554249-A5BE-4766-B07A-5FB6151E4416}">
-  <dimension ref="A2:M466"/>
+  <dimension ref="A2:U466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10974,7 +10991,7 @@
     <col min="11" max="11" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -10993,8 +11010,11 @@
       <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N2" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -11017,8 +11037,11 @@
       <c r="L3" s="4">
         <v>0.29749999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -11037,8 +11060,37 @@
       <c r="L4" s="4">
         <v>2.6949999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="10">
+        <f>L8</f>
+        <v>2.5074974925646565</v>
+      </c>
+      <c r="P4" s="10">
+        <f>L5</f>
+        <v>10.612</v>
+      </c>
+      <c r="Q4" s="10">
+        <f>L6</f>
+        <v>4.0039999999999996</v>
+      </c>
+      <c r="R4" s="10">
+        <f>L3</f>
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="S4" s="10">
+        <f>L4</f>
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="T4" s="13">
+        <v>5</v>
+      </c>
+      <c r="U4" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -11061,7 +11113,7 @@
         <v>10.612</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -11075,7 +11127,7 @@
         <v>4.0039999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
@@ -11090,7 +11142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -11104,7 +11156,7 @@
       <c r="K8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f>B9</f>
         <v>2.5074974925646565</v>
       </c>
@@ -11112,7 +11164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -11128,7 +11180,7 @@
         <v>5.8306444248007452</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -11140,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
@@ -11149,7 +11201,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
@@ -11158,7 +11210,7 @@
         <v>-6.0519999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
@@ -11167,12 +11219,12 @@
         <v>-72.623999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D15" s="9" t="s">
         <v>11</v>
       </c>
@@ -11192,7 +11244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D16" s="6">
         <v>-1</v>
       </c>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F425839A-5BE1-4AA2-B73E-F7378EB59C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086B736-8E2D-4949-8277-F09BF85A2EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="255" windowWidth="26415" windowHeight="14475" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="555" yWindow="225" windowWidth="20445" windowHeight="15030" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="FCC" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>B</t>
     <phoneticPr fontId="1"/>
@@ -310,6 +310,10 @@
   </si>
   <si>
     <t>(for p)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note: Because the Schrödinger equation is a second-order partial differential equation, it is sometimes thought that there may have been a basis for obtaining a universal curve as a universal solution.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13925,8 +13929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC96F8-554A-49E8-A62F-FFDB865EC586}">
   <dimension ref="A2:X469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14784,6 +14788,9 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
       <c r="D30" s="6">
         <v>-0.78</v>
       </c>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086B736-8E2D-4949-8277-F09BF85A2EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F360B9D3-6F3C-4A05-9497-F2D381CB2024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="225" windowWidth="20445" windowHeight="15030" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="225" yWindow="255" windowWidth="28155" windowHeight="15030" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="FCC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">FCC!$O$5:$O$7</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">FCC!$O$4:$O$5</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">FCC!$O$6</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">FCC!$O$4</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">FCC!$O$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">FCC!$O$7</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>B</t>
     <phoneticPr fontId="1"/>
@@ -297,14 +297,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Constrains for fit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2. 2nd Derivative, Eu'' = Ec at re: Z*A*(p/re)^2 - sqrt(Z)*xi*(q/re)^2 = Ec</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(for A)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -314,6 +306,26 @@
   </si>
   <si>
     <t>Note: Because the Schrödinger equation is a second-order partial differential equation, it is sometimes thought that there may have been a basis for obtaining a universal curve as a universal solution.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. 2nd derivative, Eu'' = Ec at re: Z*A*(p/re)^2 - sqrt(Z)*xi*(q/re)^2 = Ec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(for p/q)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Constraints (1 &amp; 2) for fit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Constraints for fit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 3rd derivative and d=0.05 at re: p/q = 2.95</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10692,1357 +10704,1357 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="451"/>
                 <c:pt idx="0">
-                  <c:v>7.4121579493285275</c:v>
+                  <c:v>2.7270493372080615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3798764603828424</c:v>
+                  <c:v>2.0605809913451836</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.402939652080974</c:v>
+                  <c:v>1.4245244379859727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4786793397962974</c:v>
+                  <c:v>0.81772332913624624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6045533453961944</c:v>
+                  <c:v>0.23906312008523756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7781395721880813</c:v>
+                  <c:v>-0.31253041752949429</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9971303582168609</c:v>
+                  <c:v>-0.8380926300535485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2593270948388025</c:v>
+                  <c:v>-1.3386213654019166</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56263509811204671</c:v>
+                  <c:v>-1.815078307691568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.494127887034054E-2</c:v>
+                  <c:v>-2.2683902646489855</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.71530330402266173</c:v>
+                  <c:v>-2.6994504094607272</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.3002623054687064</c:v>
+                  <c:v>-3.1091194786752752</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.8515439021836411</c:v>
+                  <c:v>-3.4982269277090374</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.370792035870446</c:v>
+                  <c:v>-3.8675720454527713</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.8595728134084073</c:v>
+                  <c:v>-4.2179250294239559</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.3193781687699406</c:v>
+                  <c:v>-4.5500280228578216</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.7516293528858782</c:v>
+                  <c:v>-4.8645961150814969</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.1576802595408022</c:v>
+                  <c:v>-5.162318306468487</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.5388205949997822</c:v>
+                  <c:v>-5.4438584392241154</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4.8962788987066777</c:v>
+                  <c:v>-5.7098560952090587</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5.2312254220496026</c:v>
+                  <c:v>-5.9609274619654133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.5447748718598966</c:v>
+                  <c:v>-6.1976661680682739</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5.8379890249985049</c:v>
+                  <c:v>-6.4206440888866769</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-6.111879220085001</c:v>
+                  <c:v>-6.6304121237991662</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6.367408732139852</c:v>
+                  <c:v>-6.8275009458723925</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-6.6054950356398683</c:v>
+                  <c:v>-7.0124217249756597</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-6.8270119612282736</c:v>
+                  <c:v>-7.1856668252699354</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7.032791751074682</c:v>
+                  <c:v>-7.3477104779768361</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-7.2236270176456046</c:v>
+                  <c:v>-7.4990094303008181</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-7.4002726104225403</c:v>
+                  <c:v>-7.6400035713473589</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-7.5634473948916874</c:v>
+                  <c:v>-7.7711165358499805</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-7.713835947926051</c:v>
+                  <c:v>-7.8927562864902043</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-7.8520901734874338</c:v>
+                  <c:v>-8.0053156755670933</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7.9788308423909244</c:v>
+                  <c:v>-8.1091729867460138</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-8.0946490596992469</c:v>
+                  <c:v>-8.2046924575907703</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-8.2001076631462553</c:v>
+                  <c:v>-8.2922247835582894</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-8.2957425558295732</c:v>
+                  <c:v>-8.3721076041109654</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-8.3820639762600742</c:v>
+                  <c:v>-8.4446659715789067</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-8.4595577087107152</c:v>
+                  <c:v>-8.5102128033816822</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-8.5286862366694116</c:v>
+                  <c:v>-8.569049318197969</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-8.5898898420684642</c:v>
+                  <c:v>-8.6214654566504425</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-8.6435876528378586</c:v>
+                  <c:v>-8.6677402870534159</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-8.6901786412099824</c:v>
+                  <c:v>-8.7081423967513913</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-8.7300425750892359</c:v>
+                  <c:v>-8.7429302695578457</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-8.7635409246914762</c:v>
+                  <c:v>-8.7723526497859474</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-8.7910177265545908</c:v>
+                  <c:v>-8.796648893345095</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-8.8128004069227757</c:v>
+                  <c:v>-8.8160493063608971</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-8.829200566413137</c:v>
+                  <c:v>-8.8307754717596723</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-8.8405147277834502</c:v>
+                  <c:v>-8.8410405642432046</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-8.8470250485346504</c:v>
+                  <c:v>-8.8470496540644206</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-8.8490000000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-8.846695014495495</c:v>
+                  <c:v>-8.8470813319022525</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-8.8403531020319495</c:v>
+                  <c:v>-8.8414761231987224</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-8.83020543801881</c:v>
+                  <c:v>-8.8323598536953014</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-8.8164719233225846</c:v>
+                  <c:v>-8.8199012630258586</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-8.7993617179786874</c:v>
+                  <c:v>-8.8042625950793703</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-8.7790737497945806</c:v>
+                  <c:v>-8.7855998337238148</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-8.7557971990238972</c:v>
+                  <c:v>-8.76406293013485</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-8.7297119602358109</c:v>
+                  <c:v>-8.7397960220263933</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-8.7009890824511764</c:v>
+                  <c:v>-8.712937645069692</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-8.6697911885665615</c:v>
+                  <c:v>-8.683620936777487</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-8.6362728750393565</c:v>
+                  <c:v>-8.651973833119893</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-8.6005810927614501</c:v>
+                  <c:v>-8.6181192581294166</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-8.5628555100053649</c:v>
+                  <c:v>-8.5821753067432649</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-8.5232288582852753</c:v>
+                  <c:v>-8.5442554211224717</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-8.4818272619356954</c:v>
+                  <c:v>-8.5044685606788057</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-8.438770552172965</c:v>
+                  <c:v>-8.4629193660323256</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-8.3941725663687272</c:v>
+                  <c:v>-8.4197083171145319</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-8.3481414332302801</c:v>
+                  <c:v>-8.3749318856245338</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-8.3007798445501209</c:v>
+                  <c:v>-8.3286826820382309</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-8.2521853141558541</c:v>
+                  <c:v>-8.2810495973635661</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-8.2024504246619578</c:v>
+                  <c:v>-8.232117939827944</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-8.1516630625966897</c:v>
+                  <c:v>-8.1819695666774379</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-8.0999066424505219</c:v>
+                  <c:v>-8.1306830112610449</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-8.0472603201666786</c:v>
+                  <c:v>-8.0783336055670887</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-7.9937991965701212</c:v>
+                  <c:v>-8.0249935983729959</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-7.9395945112077886</c:v>
+                  <c:v>-7.9707322691639764</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-7.884713827050831</c:v>
+                  <c:v>-7.9156160379705955</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-7.8292212064883717</c:v>
+                  <c:v>-7.8597085712700387</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-7.7731773790221084</c:v>
+                  <c:v>-7.8030708840905731</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-7.7166399010519369</c:v>
+                  <c:v>-7.745761438453993</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-7.6596633081242818</c:v>
+                  <c:v>-7.6878362382858727</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-7.6022992599975883</c:v>
+                  <c:v>-7.6293489209189946</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-7.5445966788625558</c:v>
+                  <c:v>-7.570350845310859</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-7.4866018810389763</c:v>
+                  <c:v>-7.5108911770918292</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-7.4283587024558955</c:v>
+                  <c:v>-7.4510169705565179</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-7.3699086182073454</c:v>
+                  <c:v>-7.3907732477068206</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-7.311290856462235</c:v>
+                  <c:v>-7.330203074451366</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-7.2525425069938896</c:v>
+                  <c:v>-7.2693476340623135</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-7.193698624582181</c:v>
+                  <c:v>-7.2082462979869337</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-7.1347923275294791</c:v>
+                  <c:v>-7.1469366941079535</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-7.0758548915200787</c:v>
+                  <c:v>-7.0854547725432813</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-7.0169158390422028</c:v>
+                  <c:v>-7.0238348690725534</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-6.958003024581247</c:v>
+                  <c:v>-6.9621097662748852</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-6.8991427157831371</c:v>
+                  <c:v>-6.9003107524591352</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-6.8403596707774472</c:v>
+                  <c:v>-6.8384676784652454</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-6.7816772118408064</c:v>
+                  <c:v>-6.7766090124122709</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-6.7231172955728713</c:v>
+                  <c:v>-6.7147618924662229</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-6.6647005797488621</c:v>
+                  <c:v>-6.6529521776981069</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-6.6064464870050443</c:v>
+                  <c:v>-6.5912044971001427</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-6.5483732655062319</c:v>
+                  <c:v>-6.5295422968257357</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-6.4904980467372271</c:v>
+                  <c:v>-6.4679878857163802</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-6.4328369005536334</c:v>
+                  <c:v>-6.4065624791765279</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-6.3754048876209772</c:v>
+                  <c:v>-6.3452862414552591</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-6.3182161093650588</c:v>
+                  <c:v>-6.284178326391471</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-6.2612837555507426</c:v>
+                  <c:v>-6.2232569166774043</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-6.2046201496007276</c:v>
+                  <c:v>-6.1625392616932135</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-6.148236791760799</c:v>
+                  <c:v>-6.1020417139636063</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-6.0921444002128915</c:v>
+                  <c:v>-6.0417797642856508</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-6.036352950232601</c:v>
+                  <c:v>-5.9817680755751166</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-5.9808717114833074</c:v>
+                  <c:v>-5.9220205154771479</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-5.9257092835345597</c:v>
+                  <c:v>-5.8625501877852741</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-5.8708736296884645</c:v>
+                  <c:v>-5.8033694627113457</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-5.8163721091937131</c:v>
+                  <c:v>-5.7444900060474247</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-5.7622115079232623</c:v>
+                  <c:v>-5.6859228072591659</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-5.708398067588047</c:v>
+                  <c:v>-5.6276782065489384</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-5.6549375135556845</c:v>
+                  <c:v>-5.5697659209254153</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-5.6018350813399609</c:v>
+                  <c:v>-5.5121950693152231</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-5.54909554182374</c:v>
+                  <c:v>-5.4549741967508689</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-5.4967232252749891</c:v>
+                  <c:v>-5.3981112976679917</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-5.4447220442128641</c:v>
+                  <c:v>-5.3416138383438572</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-5.3930955151780617</c:v>
+                  <c:v>-5.2854887785077533</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-5.3418467794591065</c:v>
+                  <c:v>-5.229742592153019</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-5.2909786228238653</c:v>
+                  <c:v>-5.1743812875792683</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-5.2404934943031778</c:v>
+                  <c:v>-5.1194104266923901</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-5.1903935240713821</c:v>
+                  <c:v>-5.0648351435889811</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-5.1406805404663212</c:v>
+                  <c:v>-5.010660162450808</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-5.0913560861894736</c:v>
+                  <c:v>-4.9568898147741063</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-5.0424214337249147</c:v>
+                  <c:v>-4.9035280559575742</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-4.9938776000140059</c:v>
+                  <c:v>-4.8505784812720698</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-4.9457253604209734</c:v>
+                  <c:v>-4.7980443412342852</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-4.8979652620228622</c:v>
+                  <c:v>-4.7459285564057332</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-4.8505976362558139</c:v>
+                  <c:v>-4.6942337316377873</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-4.803622610948092</c:v>
+                  <c:v>-4.6429621697826553</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-4.7570401217688323</c:v>
+                  <c:v>-4.5921158848895258</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-4.7108499231201888</c:v>
+                  <c:v>-4.5416966149044402</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-4.6650515984991667</c:v>
+                  <c:v>-4.4917058338917348</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-4.6196445703542643</c:v>
+                  <c:v>-4.4421447637943272</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-4.5746281094608241</c:v>
+                  <c:v>-4.3930143857494723</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-4.5300013438378759</c:v>
+                  <c:v>-4.344315450976012</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-4.4857632672282293</c:v>
+                  <c:v>-4.2960484912486328</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-4.4419127471624442</c:v>
+                  <c:v>-4.2482138289739861</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-4.3984485326264524</c:v>
+                  <c:v>-4.2008115868831277</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-4.3553692613516066</c:v>
+                  <c:v>-4.1538416973541015</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-4.3126734667450499</c:v>
+                  <c:v>-4.1073039113780903</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-4.27035958447751</c:v>
+                  <c:v>-4.0611978071820216</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-4.2284259587447357</c:v>
+                  <c:v>-4.0155227985200845</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-4.186870848218101</c:v>
+                  <c:v>-3.9702781426461522</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-4.1456924316991381</c:v>
+                  <c:v>-3.9254629479787049</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-4.104888813492062</c:v>
+                  <c:v>-3.8810761814694072</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-4.0644580285077145</c:v>
+                  <c:v>-3.8371166756861212</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-4.0243980471116885</c:v>
+                  <c:v>-3.7935831356207133</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-3.9847067797288105</c:v>
+                  <c:v>-3.7504741452317005</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-3.9453820812156017</c:v>
+                  <c:v>-3.7077881737313758</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-3.9064217550117388</c:v>
+                  <c:v>-3.6655235816267129</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-3.867823557081103</c:v>
+                  <c:v>-3.6236786265230831</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-3.8295851996523944</c:v>
+                  <c:v>-3.5822514686993729</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-3.7917043547689273</c:v>
+                  <c:v>-3.5412401764629085</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-3.7541786576566936</c:v>
+                  <c:v>-3.5006427312922153</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-3.7170057099193867</c:v>
+                  <c:v>-3.4604570327753823</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-3.6801830825686781</c:v>
+                  <c:v>-3.4206809033515375</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-3.6437083188975947</c:v>
+                  <c:v>-3.3813120928626188</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-3.6075789372045595</c:v>
+                  <c:v>-3.3423482829224347</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-3.5717924333752067</c:v>
+                  <c:v>-3.3037870911097205</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-3.5363462833288266</c:v>
+                  <c:v>-3.265626074991649</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-3.5012379453359377</c:v>
+                  <c:v>-3.2278627359840688</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-3.466464862213158</c:v>
+                  <c:v>-3.1904945230544555</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-3.4320244634012966</c:v>
+                  <c:v>-3.1535188362733981</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-3.3979141669322788</c:v>
+                  <c:v>-3.1169330302202209</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-3.3641313812902638</c:v>
+                  <c:v>-3.0807344172481006</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-3.3306735071720688</c:v>
+                  <c:v>-3.0449202706139502</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-3.2975379391517405</c:v>
+                  <c:v>-3.009487827478003</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-3.2647220672539303</c:v>
+                  <c:v>-2.9744342917779898</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-3.2322232784404705</c:v>
+                  <c:v>-2.9397568369825509</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-3.2000389580143609</c:v>
+                  <c:v>-2.9054526087283681</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-3.1681664909451959</c:v>
+                  <c:v>-2.8715187273453822</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-3.1366032631198038</c:v>
+                  <c:v>-2.8379522902742331</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-3.1053466625217725</c:v>
+                  <c:v>-2.804750374379974</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-3.0743940803433292</c:v>
+                  <c:v>-2.7719100381659501</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-3.043742912032815</c:v>
+                  <c:v>-2.7394283238915382</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-3.0133905582810052</c:v>
+                  <c:v>-2.7073022595974363</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-2.9833344259491699</c:v>
+                  <c:v>-2.6755288610419048</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-2.9535719289417726</c:v>
+                  <c:v>-2.6441051335513408</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-2.9241004890265199</c:v>
+                  <c:v>-2.6130280737884157</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-2.8949175366043893</c:v>
+                  <c:v>-2.5822946714409394</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-2.8660205114320014</c:v>
+                  <c:v>-2.551901910834331</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-2.8374068632988116</c:v>
+                  <c:v>-2.5218467724707447</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-2.8090740526612685</c:v>
+                  <c:v>-2.4921262344975275</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-2.7810195512361031</c:v>
+                  <c:v>-2.4627372741077331</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-2.7532408425547703</c:v>
+                  <c:v>-2.4336768688752928</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-2.7257354224810251</c:v>
+                  <c:v>-2.4049419980273634</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-2.6985007996933823</c:v>
+                  <c:v>-2.3765296436561902</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-2.6715344961342886</c:v>
+                  <c:v>-2.3484367918728539</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-2.644834047427687</c:v>
+                  <c:v>-2.3206604339051853</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-2.6183970032664727</c:v>
+                  <c:v>-2.2931975671418621</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-2.5922209277714781</c:v>
+                  <c:v>-2.2660451961249275</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-2.5663033998233384</c:v>
+                  <c:v>-2.239200333492616</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-2.5406420133686538</c:v>
+                  <c:v>-2.2126600008744708</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-2.5152343777017525</c:v>
+                  <c:v>-2.1864212297405921</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-2.490078117723288</c:v>
+                  <c:v>-2.1604810622068085</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-2.4651708741768812</c:v>
+                  <c:v>-2.1348365517975116</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-2.4405103038649107</c:v>
+                  <c:v>-2.1094847641677914</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-2.4160940798445574</c:v>
+                  <c:v>-2.0844227777865019</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-2.391919891605077</c:v>
+                  <c:v>-2.0596476845817593</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-2.3679854452273594</c:v>
+                  <c:v>-2.0351565905504301</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-2.3442884635266257</c:v>
+                  <c:v>-2.010946616332967</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-2.3208266861791564</c:v>
+                  <c:v>-1.9870148977549973</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-2.297597869833969</c:v>
+                  <c:v>-1.9633585863370346</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-2.2745997882101414</c:v>
+                  <c:v>-1.9399748497735387</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-2.2518302321805979</c:v>
+                  <c:v>-1.9168608723825573</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-2.229287009843115</c:v>
+                  <c:v>-1.8940138555272192</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-2.2069679465791512</c:v>
+                  <c:v>-1.8714310180100935</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-2.1848708851012439</c:v>
+                  <c:v>-1.8491095964416391</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-2.1629936854895511</c:v>
+                  <c:v>-1.8270468455837301</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-2.1413342252181438</c:v>
+                  <c:v>-1.8052400386693075</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-2.1198903991716307</c:v>
+                  <c:v>-1.7836864676991411</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-2.0986601196526276</c:v>
+                  <c:v>-1.7623834437166486</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-2.0776413163806069</c:v>
+                  <c:v>-1.7413282970616659</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-2.0568319364826166</c:v>
+                  <c:v>-1.7205183776040998</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-2.0362299444763003</c:v>
+                  <c:v>-1.6999510549582308</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-2.015833322245713</c:v>
+                  <c:v>-1.6796237186785603</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-1.9956400690103042</c:v>
+                  <c:v>-1.6595337784379345</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-1.9756482012874954</c:v>
+                  <c:v>-1.6396786641887153</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-1.95585575284923</c:v>
+                  <c:v>-1.6200558263077423</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-1.9362607746728322</c:v>
+                  <c:v>-1.6006627357257441</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-1.9168613348865653</c:v>
+                  <c:v>-1.5814968840419286</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-1.8976555187101773</c:v>
+                  <c:v>-1.5625557836243549</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-1.8786414283907364</c:v>
+                  <c:v>-1.5438369676967176</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-1.8598171831341115</c:v>
+                  <c:v>-1.5253379904121755</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-1.8411809190323085</c:v>
+                  <c:v>-1.5070564269147702</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-1.8227307889869673</c:v>
+                  <c:v>-1.488989873388991</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-1.8044649626292601</c:v>
+                  <c:v>-1.4711359470980365</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-1.7863816262364587</c:v>
+                  <c:v>-1.4534922864113018</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-1.7684789826453466</c:v>
+                  <c:v>-1.4360565508215288</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-1.7507552511627418</c:v>
+                  <c:v>-1.4188264209521608</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-1.7332086674733238</c:v>
+                  <c:v>-1.4017995985553289</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-1.7158374835449393</c:v>
+                  <c:v>-1.3849738065008981</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-1.6986399675316062</c:v>
+                  <c:v>-1.3683467887570333</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-1.681614403674369</c:v>
+                  <c:v>-1.3519163103626555</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-1.6647590922001756</c:v>
+                  <c:v>-1.3356801573922044</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-1.648072349218954</c:v>
+                  <c:v>-1.319636136913076</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-1.6315525066190109</c:v>
+                  <c:v>-1.3037820769360935</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-1.6151979119609146</c:v>
+                  <c:v>-1.2881158263593619</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-1.5990069283700055</c:v>
+                  <c:v>-1.2726352549058553</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-1.5829779344276265</c:v>
+                  <c:v>-1.2573382530550223</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-1.5671093240612468</c:v>
+                  <c:v>-1.2422227319687658</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-1.5513995064335493</c:v>
+                  <c:v>-1.2272866234120499</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-1.5358469058306261</c:v>
+                  <c:v>-1.2125278796684598</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-1.5204499615493461</c:v>
+                  <c:v>-1.1979444734509361</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-1.5052071277840526</c:v>
+                  <c:v>-1.1835343978080195</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-1.4901168735126176</c:v>
+                  <c:v>-1.1692956660257847</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-1.4751776823819835</c:v>
+                  <c:v>-1.1552263115257464</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-1.4603880525932733</c:v>
+                  <c:v>-1.1413243877589814</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-1.4457464967865306</c:v>
+                  <c:v>-1.1275879680966481</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-1.4312515419251637</c:v>
+                  <c:v>-1.1140151457171485</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-1.4169017291802064</c:v>
+                  <c:v>-1.1006040334901539</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>-1.4026956138143836</c:v>
+                  <c:v>-1.087352763857633</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>-1.3886317650661355</c:v>
+                  <c:v>-1.0742594887121426</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>-1.3747087660335835</c:v>
+                  <c:v>-1.0613223792725168</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>-1.3609252135585335</c:v>
+                  <c:v>-1.0485396259571325</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>-1.3472797181106047</c:v>
+                  <c:v>-1.0359094382549776</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>-1.3337709036713761</c:v>
+                  <c:v>-1.0234300445945297</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>-1.3203974076188598</c:v>
+                  <c:v>-1.0110996922108311</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>-1.3071578806120916</c:v>
+                  <c:v>-0.99891664701068894</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>-1.2940509864760472</c:v>
+                  <c:v>-0.98687919343628205</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>-1.2810754020867963</c:v>
+                  <c:v>-0.97498563432720342</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>-1.2682298172570781</c:v>
+                  <c:v>-0.96323429078119316</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>-1.2555129346221983</c:v>
+                  <c:v>-0.95162350201357404</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>-1.242923469526378</c:v>
+                  <c:v>-0.9401516252155826</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>-1.2304601499094547</c:v>
+                  <c:v>-0.92881703541160976</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>-1.21812171619418</c:v>
+                  <c:v>-0.9176181253156378</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>-1.2059069211738989</c:v>
+                  <c:v>-0.90655330518677568</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>-1.1938145299008285</c:v>
+                  <c:v>-0.89562100268414757</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>-1.1818433195747937</c:v>
+                  <c:v>-0.88481966272110013</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>-1.1699920794326255</c:v>
+                  <c:v>-0.87414774731897449</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>-1.1582596106380665</c:v>
+                  <c:v>-0.8636037354603664</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>-1.1466447261723398</c:v>
+                  <c:v>-0.85318612294209795</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>-1.1351462507252523</c:v>
+                  <c:v>-0.84289342222783281</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>-1.1237630205870479</c:v>
+                  <c:v>-0.83272416230059465</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>-1.112493883540818</c:v>
+                  <c:v>-0.8226768885150807</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>-1.1013376987556509</c:v>
+                  <c:v>-0.81275016244998088</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>-1.0902933366803671</c:v>
+                  <c:v>-0.80294256176022438</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>-1.0793596789380513</c:v>
+                  <c:v>-0.79325268002939531</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>-1.068535618221226</c:v>
+                  <c:v>-0.78367912662222405</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>-1.057820058187724</c:v>
+                  <c:v>-0.77422052653726081</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>-1.0472119133573219</c:v>
+                  <c:v>-0.76487552025982675</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>-1.0367101090090505</c:v>
+                  <c:v>-0.75564276361521143</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>-1.026313581079326</c:v>
+                  <c:v>-0.74652092762229549</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>-1.0160212760607066</c:v>
+                  <c:v>-0.73750869834745547</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>-1.0058321509014918</c:v>
+                  <c:v>-0.72860477675898705</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>-0.99574517290600661</c:v>
+                  <c:v>-0.71980787858194639</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>-0.98575931963572261</c:v>
+                  <c:v>-0.71111673415357479</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>-0.97587357881103876</c:v>
+                  <c:v>-0.7025300882791895</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>-0.9660869482139095</c:v>
+                  <c:v>-0.69404670008873193</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>-0.95639843559117621</c:v>
+                  <c:v>-0.68566534289388681</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>-0.94680705855874359</c:v>
+                  <c:v>-0.67738480404592016</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>-0.93731184450643767</c:v>
+                  <c:v>-0.66920388479412019</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>-0.92791183050369996</c:v>
+                  <c:v>-0.6611214001450112</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>-0.9186060632060129</c:v>
+                  <c:v>-0.65313617872226604</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>-0.90939359876215264</c:v>
+                  <c:v>-0.64524706262743248</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>-0.90027350272214257</c:v>
+                  <c:v>-0.63745290730138204</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>-0.89124484994603825</c:v>
+                  <c:v>-0.6297525813866206</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>-0.88230672451343395</c:v>
+                  <c:v>-0.62214496659038543</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>-0.87345821963381709</c:v>
+                  <c:v>-0.61462895754865787</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>-0.86469843755759557</c:v>
+                  <c:v>-0.60720346169096084</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>-0.85602648948796434</c:v>
+                  <c:v>-0.59986739910610454</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>-0.84744149549348979</c:v>
+                  <c:v>-0.5926197024087867</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>-0.83894258442152647</c:v>
+                  <c:v>-0.58545931660716999</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>-0.83052889381230466</c:v>
+                  <c:v>-0.57838519897131335</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>-0.82219956981384323</c:v>
+                  <c:v>-0.57139631890259235</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>-0.81395376709760092</c:v>
+                  <c:v>-0.5644916578040684</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>-0.8057906487748675</c:v>
+                  <c:v>-0.55767020895180175</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>-0.7977093863139243</c:v>
+                  <c:v>-0.55093097736715746</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>-0.78970915945793441</c:v>
+                  <c:v>-0.54427297969008082</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>-0.7817891561435889</c:v>
+                  <c:v>-0.53769524405336822</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>-0.77394857242048487</c:v>
+                  <c:v>-0.53119680995793706</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>-0.76618661237124064</c:v>
+                  <c:v>-0.52477672814909071</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>-0.75850248803234255</c:v>
+                  <c:v>-0.51843406049380247</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>-0.75089541931572223</c:v>
+                  <c:v>-0.5121678798590088</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>-0.74336463393105012</c:v>
+                  <c:v>-0.50597726999091985</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>-0.73590936730875611</c:v>
+                  <c:v>-0.49986132539535644</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>-0.72852886252376015</c:v>
+                  <c:v>-0.4938191512191103</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>-0.72122237021991065</c:v>
+                  <c:v>-0.48784986313232892</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>-0.71398914853513995</c:v>
+                  <c:v>-0.48195258721194034</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>-0.70682846302730118</c:v>
+                  <c:v>-0.47612645982609247</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>-0.69973958660072388</c:v>
+                  <c:v>-0.47037062751964376</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>-0.69272179943344347</c:v>
+                  <c:v>-0.46468424690067217</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>-0.6857743889051241</c:v>
+                  <c:v>-0.4590664845280199</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>-0.67889664952566819</c:v>
+                  <c:v>-0.45351651679987737</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>-0.67208788286449594</c:v>
+                  <c:v>-0.44803352984338962</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>-0.66534739748049276</c:v>
+                  <c:v>-0.4426167194052924</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>-0.65867450885264078</c:v>
+                  <c:v>-0.43726529074358689</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>-0.65206853931129527</c:v>
+                  <c:v>-0.4319784585202292</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>-0.64552881797012363</c:v>
+                  <c:v>-0.42675544669484777</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>-0.63905468065869819</c:v>
+                  <c:v>-0.4215954884194828</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>-0.63264546985573744</c:v>
+                  <c:v>-0.41649782593434531</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>-0.62630053462297997</c:v>
+                  <c:v>-0.41146171046458474</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>-0.62001923053970542</c:v>
+                  <c:v>-0.40648640211807419</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>-0.61380091963788164</c:v>
+                  <c:v>-0.40157116978420171</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>-0.60764497033793718</c:v>
+                  <c:v>-0.3967152910336606</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>-0.60155075738515673</c:v>
+                  <c:v>-0.39191805201924373</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>-0.5955176617866943</c:v>
+                  <c:v>-0.38717874737763075</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>-0.58954507074919515</c:v>
+                  <c:v>-0.38249668013216526</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>-0.58363237761701703</c:v>
+                  <c:v>-0.37787116159661055</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>-0.57777898181106835</c:v>
+                  <c:v>-0.37330151127989764</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>-0.57198428876822571</c:v>
+                  <c:v>-0.36878705679183665</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>-0.56624770988134798</c:v>
+                  <c:v>-0.36432713374979903</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>-0.5605686624398758</c:v>
+                  <c:v>-0.35992108568636516</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>-0.55494656957101363</c:v>
+                  <c:v>-0.35556826395793079</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>-0.54938086018147847</c:v>
+                  <c:v>-0.35126802765425746</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>-0.54387096889982978</c:v>
+                  <c:v>-0.3470197435089778</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>-0.53841633601935268</c:v>
+                  <c:v>-0.34282278581103059</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>-0.53301640744151235</c:v>
+                  <c:v>-0.33867653631703737</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>-0.52767063461995256</c:v>
+                  <c:v>-0.33458038416459773</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>-0.52237847450505204</c:v>
+                  <c:v>-0.33053372578650969</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>-0.51713938948902405</c:v>
+                  <c:v>-0.32653596482590269</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>-0.51195284735155067</c:v>
+                  <c:v>-0.32258651205227434</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>-0.50681832120595915</c:v>
+                  <c:v>-0.31868478527842992</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>-0.50173528944592594</c:v>
+                  <c:v>-0.31483020927831573</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>-0.49670323569270441</c:v>
+                  <c:v>-0.31102221570573618</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>-0.49172164874287305</c:v>
+                  <c:v>-0.30726024301395077</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>-0.48679002251660158</c:v>
+                  <c:v>-0.30354373637614501</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>-0.48190785600642877</c:v>
+                  <c:v>-0.29987214760676711</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>-0.47707465322654047</c:v>
+                  <c:v>-0.29624493508371996</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>-0.47228992316255564</c:v>
+                  <c:v>-0.29266156367140689</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>-0.46755317972180643</c:v>
+                  <c:v>-0.2891215046446225</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>-0.4628639416841091</c:v>
+                  <c:v>-0.28562423561327699</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>-0.45822173265302379</c:v>
+                  <c:v>-0.28216924044795305</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>-0.45362608100759844</c:v>
+                  <c:v>-0.27875600920628607</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>-0.44907651985458957</c:v>
+                  <c:v>-0.27538403806015765</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>-0.44457258698115182</c:v>
+                  <c:v>-0.27205282922369622</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>-0.44011382480800937</c:v>
+                  <c:v>-0.26876189088208463</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>-0.43569978034307999</c:v>
+                  <c:v>-0.26551073712115553</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>-0.43133000513556369</c:v>
+                  <c:v>-0.26229888785777494</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>-0.42700405523048846</c:v>
+                  <c:v>-0.25912586877100668</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>-0.42272149112370877</c:v>
+                  <c:v>-0.25599121123404928</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>-0.41848187771734557</c:v>
+                  <c:v>-0.25289445224693397</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>-0.41428478427567544</c:v>
+                  <c:v>-0.24983513436998511</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>-0.4101297843814562</c:v>
+                  <c:v>-0.24681280565802982</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>-0.40601645589268726</c:v>
+                  <c:v>-0.24382701959534978</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>-0.40194438089979545</c:v>
+                  <c:v>-0.24087733503136827</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>-0.3979131456832582</c:v>
+                  <c:v>-0.23796331611707228</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>-0.39392234067163845</c:v>
+                  <c:v>-0.23508453224215048</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>-0.38997156040004016</c:v>
+                  <c:v>-0.23224055797284854</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>-0.38606040346897985</c:v>
+                  <c:v>-0.22943097299053219</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>-0.3821884725036685</c:v>
+                  <c:v>-0.22665536203095346</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>-0.37835537411369352</c:v>
+                  <c:v>-0.22391331482420695</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>-0.37456071885311037</c:v>
+                  <c:v>-0.22120442603537549</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>-0.37080412118092682</c:v>
+                  <c:v>-0.21852829520585729</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>-0.36708519942198348</c:v>
+                  <c:v>-0.21588452669536271</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>-0.36340357572822279</c:v>
+                  <c:v>-0.21327272962457972</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>-0.35975887604034873</c:v>
+                  <c:v>-0.21069251781849974</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>-0.35615073004986408</c:v>
+                  <c:v>-0.20814350975039547</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>-0.35257877116148756</c:v>
+                  <c:v>-0.2056253284864405</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>-0.34904263645595113</c:v>
+                  <c:v>-0.20313760163097758</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>-0.34554196665316289</c:v>
+                  <c:v>-0.20067996127241194</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>-0.34207640607573914</c:v>
+                  <c:v>-0.19825204392973186</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>-0.338645602612903</c:v>
+                  <c:v>-0.19585349049965109</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>-0.33524920768474326</c:v>
+                  <c:v>-0.19348394620436493</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>-0.33188687620682628</c:v>
+                  <c:v>-0.19114306053990746</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>-0.32855826655516862</c:v>
+                  <c:v>-0.18883048722511586</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>-0.32526304053155169</c:v>
+                  <c:v>-0.18654588415118301</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>-0.3220008633291912</c:v>
+                  <c:v>-0.18428891333180092</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>-0.31877140349874233</c:v>
+                  <c:v>-0.18205924085388245</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>-0.31557433291464965</c:v>
+                  <c:v>-0.17985653682886049</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>-0.31240932674183391</c:v>
+                  <c:v>-0.17768047534455469</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>-0.30927606340270669</c:v>
+                  <c:v>-0.17553073441759912</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>-0.30617422454452081</c:v>
+                  <c:v>-0.17340699594642905</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>-0.30310349500704481</c:v>
+                  <c:v>-0.17130894566481669</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>-0.30006356279056096</c:v>
+                  <c:v>-0.16923627309595105</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>-0.29705411902418188</c:v>
+                  <c:v>-0.16718867150705569</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>-0.29407485793448707</c:v>
+                  <c:v>-0.16516583786454084</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>-0.29112547681447304</c:v>
+                  <c:v>-0.163167472789681</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>-0.28820567599281033</c:v>
+                  <c:v>-0.16119328051481194</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>-0.28531515880341285</c:v>
+                  <c:v>-0.15924296884004552</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>-0.28245363155530973</c:v>
+                  <c:v>-0.15731624909049233</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>-0.2796208035028182</c:v>
+                  <c:v>-0.15541283607398707</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>-0.27681638681601556</c:v>
+                  <c:v>-0.15353244803931421</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>-0.27404009655150852</c:v>
+                  <c:v>-0.15167480663492483</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>-0.27129165062349259</c:v>
+                  <c:v>-0.14983963686814097</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>-0.26857076977510014</c:v>
+                  <c:v>-0.14802666706483977</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>-0.26587717755004159</c:v>
+                  <c:v>-0.14623562882961785</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>-0.26321060026452409</c:v>
+                  <c:v>-0.14446625700642257</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>-0.26057076697945325</c:v>
+                  <c:v>-0.14271828963964994</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>-0.25795740947291451</c:v>
+                  <c:v>-0.14099146793570402</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>-0.25537026221293063</c:v>
+                  <c:v>-0.13928553622501064</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>-0.25280906233048833</c:v>
+                  <c:v>-0.13760024192447962</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>-0.25027354959283893</c:v>
+                  <c:v>-0.13593533550041462</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>-0.2477634663770657</c:v>
+                  <c:v>-0.13429057043186057</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>-0.24527855764391499</c:v>
+                  <c:v>-0.132665703174387</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>-0.24281857091188744</c:v>
+                  <c:v>-0.13106049312429924</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>-0.24038325623159548</c:v>
+                  <c:v>-0.12947470258327851</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>-0.23797236616037071</c:v>
+                  <c:v>-0.12790809672343789</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>-0.23558565573712859</c:v>
+                  <c:v>-0.1263604435527958</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>-0.23322288245748504</c:v>
+                  <c:v>-0.12483151388115887</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>-0.23088380624912341</c:v>
+                  <c:v>-0.1233210812864125</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>-0.22856818944740487</c:v>
+                  <c:v>-0.12182892208121002</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>-0.22627579677122647</c:v>
+                  <c:v>-0.1203548152800596</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>-0.22400639529912073</c:v>
+                  <c:v>-0.11889854256680413</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>-0.22175975444559251</c:v>
+                  <c:v>-0.11745988826248636</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>-0.21953564593769484</c:v>
+                  <c:v>-0.11603863929359826</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>-0.21733384379184026</c:v>
+                  <c:v>-0.11463458516070936</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>-0.21515412429084263</c:v>
+                  <c:v>-0.11324751790746847</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>-0.21299626596118867</c:v>
+                  <c:v>-0.11187723208997406</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>-0.21086004955054116</c:v>
+                  <c:v>-0.11052352474651347</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>-0.20874525800546323</c:v>
+                  <c:v>-0.10918619536766026</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>-0.20665167644936733</c:v>
+                  <c:v>-0.10786504586672982</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>-0.20457909216068629</c:v>
+                  <c:v>-0.10655988055058763</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>-0.20252729455126298</c:v>
+                  <c:v>-0.10527050609080756</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>-0.20049607514495429</c:v>
+                  <c:v>-0.10399673149517279</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>-0.19848522755645326</c:v>
+                  <c:v>-0.10273836807951957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13929,8 +13941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC96F8-554A-49E8-A62F-FFDB865EC586}">
   <dimension ref="A2:X469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14025,12 +14037,14 @@
       <c r="L4" s="4">
         <v>0.11559999999999999</v>
       </c>
-      <c r="N4" s="18" t="s">
-        <v>29</v>
+      <c r="N4" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="O4" s="4">
-        <f>B4/L9+O5/SQRT(L9)</f>
-        <v>0.19502498271348778</v>
+        <v>3.8642947700294621</v>
+      </c>
+      <c r="P4" t="s">
+        <v>57</v>
       </c>
       <c r="Q4" t="s">
         <v>31</v>
@@ -14056,10 +14070,10 @@
         <v>2.2890000000000001</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O5" s="4">
-        <v>3.2300726236395048</v>
+        <v>3.358854489200453</v>
       </c>
       <c r="P5" t="s">
         <v>58</v>
@@ -14116,14 +14130,8 @@
       <c r="L6" s="4">
         <v>16.98</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="4">
-        <v>13.27204745818883</v>
-      </c>
-      <c r="P6" t="s">
-        <v>58</v>
+      <c r="N6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
@@ -14148,14 +14156,12 @@
       <c r="L7" s="4">
         <v>2.6909999999999998</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>26</v>
+      <c r="N7" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="O7" s="4">
-        <v>2.7810097070449542</v>
-      </c>
-      <c r="P7" t="s">
-        <v>57</v>
+        <f>B4/L9+O4/SQRT(L9)</f>
+        <v>0.37810914618561975</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>46</v>
@@ -14172,6 +14178,13 @@
       <c r="F8" t="s">
         <v>41</v>
       </c>
+      <c r="N8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="4">
+        <f>2.95*O5</f>
+        <v>9.9086207431413378</v>
+      </c>
       <c r="Q8" t="s">
         <v>31</v>
       </c>
@@ -14197,20 +14210,20 @@
         <v>2.7435888403466735</v>
       </c>
       <c r="S9" s="10">
-        <f>O6</f>
-        <v>13.27204745818883</v>
+        <f>O8</f>
+        <v>9.9086207431413378</v>
       </c>
       <c r="T9" s="10">
+        <f>O5</f>
+        <v>3.358854489200453</v>
+      </c>
+      <c r="U9" s="10">
         <f>O7</f>
-        <v>2.7810097070449542</v>
-      </c>
-      <c r="U9" s="10">
+        <v>0.37810914618561975</v>
+      </c>
+      <c r="V9" s="10">
         <f>O4</f>
-        <v>0.19502498271348778</v>
-      </c>
-      <c r="V9" s="10">
-        <f>O5</f>
-        <v>3.2300726236395048</v>
+        <v>3.8642947700294621</v>
       </c>
       <c r="W9" s="12">
         <v>5</v>
@@ -14327,7 +14340,7 @@
         <v>-106.188</v>
       </c>
       <c r="Q16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.4">
@@ -14338,11 +14351,11 @@
         <v>59</v>
       </c>
       <c r="R17">
-        <f>B4/L9+O5/SQRT(L9)</f>
-        <v>0.19502498271348778</v>
+        <f>B4/L9+O4/SQRT(L9)</f>
+        <v>0.37810914618561975</v>
       </c>
       <c r="S17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
@@ -14377,14 +14390,13 @@
         <v>47</v>
       </c>
       <c r="Q18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="R18">
-        <f>SQRT((-B4*L10^2+SQRT(L9)*O5*O7^2)/(L9*O4))</f>
-        <v>8.0894436979515199</v>
+        <v>2.95</v>
       </c>
       <c r="S18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
@@ -14412,19 +14424,29 @@
         <v>17.18768343387233</v>
       </c>
       <c r="M19">
-        <f>$L$9*$O$4*EXP(-$O$6*(G19/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G19/$L$10-1))</f>
-        <v>7.4121579493285275</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G19/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G19/$L$10-1))</f>
+        <v>2.7270493372080615</v>
       </c>
       <c r="N19" s="15">
         <f>(M19-H19)*O19</f>
-        <v>7.4121579493285275</v>
+        <v>2.7270493372080615</v>
       </c>
       <c r="O19" s="15">
         <v>1</v>
       </c>
       <c r="P19" s="17">
         <f>SUMSQ(N26:N295)</f>
-        <v>267.69427660143043</v>
+        <v>52.721119880417007</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>63</v>
+      </c>
+      <c r="R19">
+        <f>SQRT((-B4*L10^2+SQRT(L9)*O4*O5^2)/(L9*O7))</f>
+        <v>6.9256751202345415</v>
+      </c>
+      <c r="S19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
@@ -14452,12 +14474,12 @@
         <v>15.516305689009881</v>
       </c>
       <c r="M20">
-        <f>$L$9*$O$4*EXP(-$O$6*(G20/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G20/$L$10-1))</f>
-        <v>6.3798764603828424</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G20/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G20/$L$10-1))</f>
+        <v>2.0605809913451836</v>
       </c>
       <c r="N20" s="15">
         <f t="shared" ref="N20:N83" si="4">(M20-H20)*O20</f>
-        <v>6.8514319260795107</v>
+        <v>2.5321364570418523</v>
       </c>
       <c r="O20" s="15">
         <v>1</v>
@@ -14488,12 +14510,12 @@
         <v>13.950956993808909</v>
       </c>
       <c r="M21">
-        <f>$L$9*$O$4*EXP(-$O$6*(G21/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G21/$L$10-1))</f>
-        <v>5.402939652080974</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G21/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G21/$L$10-1))</f>
+        <v>1.4245244379859727</v>
       </c>
       <c r="N21" s="15">
         <f t="shared" si="4"/>
-        <v>6.3273757358138214</v>
+        <v>2.3489605217188205</v>
       </c>
       <c r="O21" s="15">
         <v>1</v>
@@ -14524,12 +14546,12 @@
         <v>12.485247692279929</v>
       </c>
       <c r="M22">
-        <f>$L$9*$O$4*EXP(-$O$6*(G22/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G22/$L$10-1))</f>
-        <v>4.4786793397962974</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G22/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G22/$L$10-1))</f>
+        <v>0.81772332913624624</v>
       </c>
       <c r="N22" s="15">
         <f t="shared" si="4"/>
-        <v>5.837875874044042</v>
+        <v>2.1769198633839908</v>
       </c>
       <c r="O22" s="15">
         <v>1</v>
@@ -14560,12 +14582,12 @@
         <v>11.113170115571378</v>
       </c>
       <c r="M23">
-        <f>$L$9*$O$4*EXP(-$O$6*(G23/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G23/$L$10-1))</f>
-        <v>3.6045533453961944</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G23/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G23/$L$10-1))</f>
+        <v>0.23906312008523756</v>
       </c>
       <c r="N23" s="15">
         <f t="shared" si="4"/>
-        <v>5.3809301982398976</v>
+        <v>2.0154399729289407</v>
       </c>
       <c r="O23" s="15">
         <v>1</v>
@@ -14596,12 +14618,12 @@
         <v>9.829075775527329</v>
       </c>
       <c r="M24">
-        <f>$L$9*$O$4*EXP(-$O$6*(G24/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G24/$L$10-1))</f>
-        <v>2.7781395721880813</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G24/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G24/$L$10-1))</f>
+        <v>-0.31253041752949429</v>
       </c>
       <c r="N24" s="15">
         <f t="shared" si="4"/>
-        <v>4.9546423652508658</v>
+        <v>1.8639723755332902</v>
       </c>
       <c r="O24" s="15">
         <v>1</v>
@@ -14632,12 +14654,12 @@
         <v>8.6276539196124862</v>
       </c>
       <c r="M25">
-        <f>$L$9*$O$4*EXP(-$O$6*(G25/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G25/$L$10-1))</f>
-        <v>1.9971303582168609</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G25/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G25/$L$10-1))</f>
+        <v>-0.8380926300535485</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="4"/>
-        <v>4.5572165384671672</v>
+        <v>1.7219935501967578</v>
       </c>
       <c r="O25" s="15">
         <v>1</v>
@@ -14668,12 +14690,12 @@
         <v>7.5039113659426224</v>
       </c>
       <c r="M26">
-        <f>$L$9*$O$4*EXP(-$O$6*(G26/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G26/$L$10-1))</f>
-        <v>1.2593270948388025</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G26/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G26/$L$10-1))</f>
+        <v>-1.3386213654019166</v>
       </c>
       <c r="N26" s="15">
         <f t="shared" si="4"/>
-        <v>4.1869523518431633</v>
+        <v>1.5890038916024443</v>
       </c>
       <c r="O26" s="15">
         <v>1</v>
@@ -14704,12 +14726,12 @@
         <v>6.4531535420113784</v>
       </c>
       <c r="M27">
-        <f>$L$9*$O$4*EXP(-$O$6*(G27/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G27/$L$10-1))</f>
-        <v>0.56263509811204671</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G27/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G27/$L$10-1))</f>
+        <v>-1.815078307691568</v>
       </c>
       <c r="N27" s="15">
         <f t="shared" si="4"/>
-        <v>3.8422401185177879</v>
+        <v>1.4645267127141732</v>
       </c>
       <c r="O27" s="15">
         <v>1</v>
@@ -14740,12 +14762,12 @@
         <v>5.4709666552647658</v>
       </c>
       <c r="M28">
-        <f>$L$9*$O$4*EXP(-$O$6*(G28/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G28/$L$10-1))</f>
-        <v>-9.494127887034054E-2</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G28/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G28/$L$10-1))</f>
+        <v>-2.2683902646489855</v>
       </c>
       <c r="N28" s="15">
         <f t="shared" si="4"/>
-        <v>3.5215562723480272</v>
+        <v>1.3481072865693822</v>
       </c>
       <c r="O28" s="15">
         <v>1</v>
@@ -14776,12 +14798,12 @@
         <v>4.5532009279625107</v>
       </c>
       <c r="M29">
-        <f>$L$9*$O$4*EXP(-$O$6*(G29/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G29/$L$10-1))</f>
-        <v>-0.71530330402266173</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G29/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G29/$L$10-1))</f>
+        <v>-2.6994504094607272</v>
       </c>
       <c r="N29" s="15">
         <f t="shared" si="4"/>
-        <v>3.2234590312233071</v>
+        <v>1.2393119257852416</v>
       </c>
       <c r="O29" s="15">
         <v>1</v>
@@ -14789,7 +14811,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="6">
         <v>-0.78</v>
@@ -14815,12 +14837,12 @@
         <v>3.6959548327996377</v>
       </c>
       <c r="M30">
-        <f>$L$9*$O$4*EXP(-$O$6*(G30/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G30/$L$10-1))</f>
-        <v>-1.3002623054687064</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G30/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G30/$L$10-1))</f>
+        <v>-3.1091194786752752</v>
       </c>
       <c r="N30" s="15">
         <f t="shared" si="4"/>
-        <v>2.9465842715578807</v>
+        <v>1.1377270983513119</v>
       </c>
       <c r="O30" s="15">
         <v>1</v>
@@ -14851,12 +14873,12 @@
         <v>2.8955602695513498</v>
       </c>
       <c r="M31">
-        <f>$L$9*$O$4*EXP(-$O$6*(G31/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G31/$L$10-1))</f>
-        <v>-1.8515439021836411</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G31/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G31/$L$10-1))</f>
+        <v>-3.4982269277090374</v>
       </c>
       <c r="N31" s="15">
         <f t="shared" si="4"/>
-        <v>2.6896416038586821</v>
+        <v>1.0429585783332858</v>
       </c>
       <c r="O31" s="15">
         <v>1</v>
@@ -14887,12 +14909,12 @@
         <v>2.1485686265730877</v>
       </c>
       <c r="M32">
-        <f>$L$9*$O$4*EXP(-$O$6*(G32/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G32/$L$10-1))</f>
-        <v>-2.370792035870446</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G32/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G32/$L$10-1))</f>
+        <v>-3.8675720454527713</v>
       </c>
       <c r="N32" s="15">
         <f t="shared" si="4"/>
-        <v>2.4514106397473183</v>
+        <v>0.95463063016499294</v>
       </c>
       <c r="O32" s="15">
         <v>1</v>
@@ -14923,12 +14945,12 @@
         <v>1.4517376743364192</v>
       </c>
       <c r="M33">
-        <f>$L$9*$O$4*EXP(-$O$6*(G33/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G33/$L$10-1))</f>
-        <v>-2.8595728134084073</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G33/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G33/$L$10-1))</f>
+        <v>-4.2179250294239559</v>
       </c>
       <c r="N33" s="15">
         <f t="shared" si="4"/>
-        <v>2.2307374412681664</v>
+        <v>0.87238522525261786</v>
       </c>
       <c r="O33" s="15">
         <v>1</v>
@@ -14959,12 +14981,12 @@
         <v>0.80201924133787728</v>
       </c>
       <c r="M34">
-        <f>$L$9*$O$4*EXP(-$O$6*(G34/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G34/$L$10-1))</f>
-        <v>-3.3193781687699406</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G34/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G34/$L$10-1))</f>
+        <v>-4.5500280228578216</v>
       </c>
       <c r="N34" s="15">
         <f t="shared" si="4"/>
-        <v>2.0265311437519351</v>
+        <v>0.79588128966405414</v>
       </c>
       <c r="O34" s="15">
         <v>1</v>
@@ -14995,12 +15017,12 @@
         <v>0.19654762568007911</v>
       </c>
       <c r="M35">
-        <f>$L$9*$O$4*EXP(-$O$6*(G35/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G35/$L$10-1))</f>
-        <v>-3.7516293528858782</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G35/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G35/$L$10-1))</f>
+        <v>-4.8645961150814969</v>
       </c>
       <c r="N35" s="15">
         <f t="shared" si="4"/>
-        <v>1.8377607439164354</v>
+        <v>0.72479398172081666</v>
       </c>
       <c r="O35" s="15">
         <v>1</v>
@@ -15031,12 +15053,12 @@
         <v>-0.36737130158793363</v>
       </c>
       <c r="M36">
-        <f>$L$9*$O$4*EXP(-$O$6*(G36/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G36/$L$10-1))</f>
-        <v>-4.1576802595408022</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G36/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G36/$L$10-1))</f>
+        <v>-5.162318306468487</v>
       </c>
       <c r="N36" s="15">
         <f t="shared" si="4"/>
-        <v>1.6634520452812138</v>
+        <v>0.65881399835352905</v>
       </c>
       <c r="O36" s="15">
         <v>1</v>
@@ -15067,12 +15089,12 @@
         <v>-0.89227034266182237</v>
       </c>
       <c r="M37">
-        <f>$L$9*$O$4*EXP(-$O$6*(G37/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G37/$L$10-1))</f>
-        <v>-4.5388205949997822</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G37/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G37/$L$10-1))</f>
+        <v>-5.4438584392241154</v>
       </c>
       <c r="N37" s="15">
         <f t="shared" si="4"/>
-        <v>1.5026847533492429</v>
+        <v>0.5976469091249097</v>
       </c>
       <c r="O37" s="15">
         <v>1</v>
@@ -15103,12 +15125,12 @@
         <v>-1.3805306075315755</v>
       </c>
       <c r="M38">
-        <f>$L$9*$O$4*EXP(-$O$6*(G38/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G38/$L$10-1))</f>
-        <v>-4.8962788987066777</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G38/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G38/$L$10-1))</f>
+        <v>-5.7098560952090587</v>
       </c>
       <c r="N38" s="15">
         <f t="shared" si="4"/>
-        <v>1.3545897133666696</v>
+        <v>0.54101251686428853</v>
       </c>
       <c r="O38" s="15">
         <v>1</v>
@@ -15139,12 +15161,12 @@
         <v>-1.8343905733991015</v>
       </c>
       <c r="M39">
-        <f>$L$9*$O$4*EXP(-$O$6*(G39/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G39/$L$10-1))</f>
-        <v>-5.2312254220496026</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G39/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G39/$L$10-1))</f>
+        <v>-5.9609274619654133</v>
       </c>
       <c r="N39" s="15">
         <f t="shared" si="4"/>
-        <v>1.2183462838126431</v>
+        <v>0.48864424389683236</v>
       </c>
       <c r="O39" s="15">
         <v>1</v>
@@ -15175,12 +15197,12 @@
         <v>-2.2559546032932953</v>
       </c>
       <c r="M40">
-        <f>$L$9*$O$4*EXP(-$O$6*(G40/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G40/$L$10-1))</f>
-        <v>-5.5447748718598966</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G40/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G40/$L$10-1))</f>
+        <v>-6.1976661680682739</v>
       </c>
       <c r="N40" s="15">
         <f t="shared" si="4"/>
-        <v>1.0931798390972123</v>
+        <v>0.44028854288883501</v>
       </c>
       <c r="O40" s="15">
         <v>1</v>
@@ -15211,12 +15233,12 @@
         <v>-2.6472009561636813</v>
       </c>
       <c r="M41">
-        <f>$L$9*$O$4*EXP(-$O$6*(G41/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G41/$L$10-1))</f>
-        <v>-5.8379890249985049</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G41/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G41/$L$10-1))</f>
+        <v>-6.4206440888866769</v>
       </c>
       <c r="N41" s="15">
         <f t="shared" si="4"/>
-        <v>0.97835939525438231</v>
+        <v>0.3957043313662103</v>
       </c>
       <c r="O41" s="15">
         <v>1</v>
@@ -15247,12 +15269,12 @@
         <v>-3.0099893188066709</v>
       </c>
       <c r="M42">
-        <f>$L$9*$O$4*EXP(-$O$6*(G42/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G42/$L$10-1))</f>
-        <v>-6.111879220085001</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G42/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G42/$L$10-1))</f>
+        <v>-6.6304121237991662</v>
       </c>
       <c r="N42" s="15">
         <f t="shared" si="4"/>
-        <v>0.87319535271295212</v>
+        <v>0.35466244899878685</v>
       </c>
       <c r="O42" s="15">
         <v>1</v>
@@ -15283,12 +15305,12 @@
         <v>-3.3460678881662984</v>
       </c>
       <c r="M43">
-        <f>$L$9*$O$4*EXP(-$O$6*(G43/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G43/$L$10-1))</f>
-        <v>-6.367408732139852</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G43/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G43/$L$10-1))</f>
+        <v>-6.8275009458723925</v>
       </c>
       <c r="N43" s="15">
         <f t="shared" si="4"/>
-        <v>0.77703735050916123</v>
+        <v>0.31694513677662073</v>
       </c>
       <c r="O43" s="15">
         <v>1</v>
@@ -15319,12 +15341,12 @@
         <v>-3.6570800308481104</v>
       </c>
       <c r="M44">
-        <f>$L$9*$O$4*EXP(-$O$6*(G44/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G44/$L$10-1))</f>
-        <v>-6.6054950356398683</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G44/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G44/$L$10-1))</f>
+        <v>-7.0124217249756597</v>
       </c>
       <c r="N44" s="15">
         <f t="shared" si="4"/>
-        <v>0.68927222657284926</v>
+        <v>0.2823455372370578</v>
       </c>
       <c r="O44" s="15">
         <v>1</v>
@@ -15355,12 +15377,12 @@
         <v>-3.9445705450826534</v>
       </c>
       <c r="M45">
-        <f>$L$9*$O$4*EXP(-$O$6*(G45/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G45/$L$10-1))</f>
-        <v>-6.8270119612282736</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G45/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G45/$L$10-1))</f>
+        <v>-7.1856668252699354</v>
       </c>
       <c r="N45" s="15">
         <f t="shared" si="4"/>
-        <v>0.60932207897428281</v>
+        <v>0.25066721493262101</v>
       </c>
       <c r="O45" s="15">
         <v>1</v>
@@ -15391,12 +15413,12 @@
         <v>-4.2099915488687598</v>
       </c>
       <c r="M46">
-        <f>$L$9*$O$4*EXP(-$O$6*(G46/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G46/$L$10-1))</f>
-        <v>-7.032791751074682</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G46/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G46/$L$10-1))</f>
+        <v>-7.3477104779768361</v>
       </c>
       <c r="N46" s="15">
         <f t="shared" si="4"/>
-        <v>0.53664242326205081</v>
+        <v>0.22172369635989675</v>
       </c>
       <c r="O46" s="15">
         <v>1</v>
@@ -15427,12 +15449,12 @@
         <v>-4.4547080166101782</v>
       </c>
       <c r="M47">
-        <f>$L$9*$O$4*EXP(-$O$6*(G47/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G47/$L$10-1))</f>
-        <v>-7.2236270176456046</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G47/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G47/$L$10-1))</f>
+        <v>-7.4990094303008181</v>
       </c>
       <c r="N47" s="15">
         <f t="shared" si="4"/>
-        <v>0.47072044125421098</v>
+        <v>0.1953380285989974</v>
       </c>
       <c r="O47" s="15">
         <v>1</v>
@@ -15463,12 +15485,12 @@
         <v>-4.6800029852273042</v>
       </c>
       <c r="M48">
-        <f>$L$9*$O$4*EXP(-$O$6*(G48/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G48/$L$10-1))</f>
-        <v>-7.4002726104225403</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G48/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G48/$L$10-1))</f>
+        <v>-7.6400035713473589</v>
       </c>
       <c r="N48" s="15">
         <f t="shared" si="4"/>
-        <v>0.41107331686565374</v>
+        <v>0.17134235594083513</v>
       </c>
       <c r="O48" s="15">
         <v>1</v>
@@ -15499,12 +15521,12 @@
         <v>-4.8870824494735992</v>
       </c>
       <c r="M49">
-        <f>$L$9*$O$4*EXP(-$O$6*(G49/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G49/$L$10-1))</f>
-        <v>-7.5634473948916874</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G49/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G49/$L$10-1))</f>
+        <v>-7.7711165358499805</v>
       </c>
       <c r="N49" s="15">
         <f t="shared" si="4"/>
-        <v>0.35724665476487871</v>
+        <v>0.14957751380658557</v>
       </c>
       <c r="O49" s="15">
         <v>1</v>
@@ -15535,12 +15557,12 @@
         <v>-5.0770799650081262</v>
       </c>
       <c r="M50">
-        <f>$L$9*$O$4*EXP(-$O$6*(G50/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G50/$L$10-1))</f>
-        <v>-7.713835947926051</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G50/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G50/$L$10-1))</f>
+        <v>-7.8927562864902043</v>
       </c>
       <c r="N50" s="15">
         <f t="shared" si="4"/>
-        <v>0.30881297785409512</v>
+        <v>0.12989263928994177</v>
       </c>
       <c r="O50" s="15">
         <v>1</v>
@@ -15571,12 +15593,12 @@
         <v>-5.2510609766688994</v>
       </c>
       <c r="M51">
-        <f>$L$9*$O$4*EXP(-$O$6*(G51/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G51/$L$10-1))</f>
-        <v>-7.8520901734874338</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G51/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G51/$L$10-1))</f>
+        <v>-8.0053156755670933</v>
       </c>
       <c r="N51" s="15">
         <f t="shared" si="4"/>
-        <v>0.26537029975701909</v>
+        <v>0.11214479767735952</v>
       </c>
       <c r="O51" s="15">
         <v>1</v>
@@ -15607,12 +15629,12 @@
         <v>-5.4100268883498277</v>
       </c>
       <c r="M52">
-        <f>$L$9*$O$4*EXP(-$O$6*(G52/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G52/$L$10-1))</f>
-        <v>-7.9788308423909244</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G52/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G52/$L$10-1))</f>
+        <v>-8.1091729867460138</v>
       </c>
       <c r="N52" s="15">
         <f t="shared" si="4"/>
-        <v>0.22654076868125994</v>
+        <v>9.6198624326170545E-2</v>
       </c>
       <c r="O52" s="15">
         <v>1</v>
@@ -15643,12 +15665,12 @@
         <v>-5.5549188899055633</v>
       </c>
       <c r="M53">
-        <f>$L$9*$O$4*EXP(-$O$6*(G53/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G53/$L$10-1))</f>
-        <v>-8.0946490596992469</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G53/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G53/$L$10-1))</f>
+        <v>-8.2046924575907703</v>
       </c>
       <c r="N53" s="15">
         <f t="shared" si="4"/>
-        <v>0.19196937919479851</v>
+        <v>8.1925981303275108E-2</v>
       </c>
       <c r="O53" s="15">
         <v>1</v>
@@ -15679,12 +15701,12 @@
         <v>-5.6866215555874362</v>
       </c>
       <c r="M54">
-        <f>$L$9*$O$4*EXP(-$O$6*(G54/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G54/$L$10-1))</f>
-        <v>-8.2001076631462553</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G54/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G54/$L$10-1))</f>
+        <v>-8.2922247835582894</v>
       </c>
       <c r="N54" s="15">
         <f t="shared" si="4"/>
-        <v>0.16132274862178697</v>
+        <v>6.9205628209752845E-2</v>
       </c>
       <c r="O54" s="15">
         <v>1</v>
@@ -15715,12 +15737,12 @@
         <v>-5.8059662276481969</v>
       </c>
       <c r="M55">
-        <f>$L$9*$O$4*EXP(-$O$6*(G55/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G55/$L$10-1))</f>
-        <v>-8.2957425558295732</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G55/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G55/$L$10-1))</f>
+        <v>-8.3721076041109654</v>
       </c>
       <c r="N55" s="15">
         <f t="shared" si="4"/>
-        <v>0.13428795491969403</v>
+        <v>5.7922906638301797E-2</v>
       </c>
       <c r="O55" s="15">
         <v>1</v>
@@ -15751,12 +15773,12 @@
         <v>-5.9137341979392168</v>
       </c>
       <c r="M56">
-        <f>$L$9*$O$4*EXP(-$O$6*(G56/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G56/$L$10-1))</f>
-        <v>-8.3820639762600742</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G56/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G56/$L$10-1))</f>
+        <v>-8.4446659715789067</v>
       </c>
       <c r="N56" s="15">
         <f t="shared" si="4"/>
-        <v>0.11057143304993566</v>
+        <v>4.7969437731103071E-2</v>
       </c>
       <c r="O56" s="15">
         <v>1</v>
@@ -15787,12 +15809,12 @@
         <v>-6.0106596995581825</v>
       </c>
       <c r="M57">
-        <f>$L$9*$O$4*EXP(-$O$6*(G57/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G57/$L$10-1))</f>
-        <v>-8.4595577087107152</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G57/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G57/$L$10-1))</f>
+        <v>-8.5102128033816822</v>
       </c>
       <c r="N57" s="15">
         <f t="shared" si="4"/>
-        <v>8.9897926996812316E-2</v>
+        <v>3.9242832325845356E-2</v>
       </c>
       <c r="O57" s="15">
         <v>1</v>
@@ -15823,12 +15845,12 @@
         <v>-6.0974327198859513</v>
       </c>
       <c r="M58">
-        <f>$L$9*$O$4*EXP(-$O$6*(G58/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G58/$L$10-1))</f>
-        <v>-8.5286862366694116</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G58/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G58/$L$10-1))</f>
+        <v>-8.569049318197969</v>
       </c>
       <c r="N58" s="15">
         <f t="shared" si="4"/>
-        <v>7.2009494725424616E-2</v>
+        <v>3.1646413196867229E-2</v>
       </c>
       <c r="O58" s="15">
         <v>1</v>
@@ -15859,12 +15881,12 @@
         <v>-6.1747016456739408</v>
       </c>
       <c r="M59">
-        <f>$L$9*$O$4*EXP(-$O$6*(G59/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G59/$L$10-1))</f>
-        <v>-8.5898898420684642</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G59/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G59/$L$10-1))</f>
+        <v>-8.6214654566504425</v>
       </c>
       <c r="N59" s="15">
         <f t="shared" si="4"/>
-        <v>5.6664563499010612E-2</v>
+        <v>2.5088948917032283E-2</v>
       </c>
       <c r="O59" s="15">
         <v>1</v>
@@ -15895,12 +15917,12 @@
         <v>-6.2430757502074652</v>
       </c>
       <c r="M60">
-        <f>$L$9*$O$4*EXP(-$O$6*(G60/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G60/$L$10-1))</f>
-        <v>-8.6435876528378586</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G60/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G60/$L$10-1))</f>
+        <v>-8.6677402870534159</v>
       </c>
       <c r="N60" s="15">
         <f t="shared" si="4"/>
-        <v>4.3637033099360067E-2</v>
+        <v>1.9484398883802712E-2</v>
       </c>
       <c r="O60" s="15">
         <v>1</v>
@@ -15931,12 +15953,12 @@
         <v>-6.3031275319718336</v>
       </c>
       <c r="M61">
-        <f>$L$9*$O$4*EXP(-$O$6*(G61/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G61/$L$10-1))</f>
-        <v>-8.6901786412099824</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G61/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G61/$L$10-1))</f>
+        <v>-8.7081423967513913</v>
       </c>
       <c r="N61" s="15">
         <f t="shared" si="4"/>
-        <v>3.2715424611504673E-2</v>
+        <v>1.475166907009573E-2</v>
       </c>
       <c r="O61" s="15">
         <v>1</v>
@@ -15967,12 +15989,12 @@
         <v>-6.3553949136852301</v>
       </c>
       <c r="M62">
-        <f>$L$9*$O$4*EXP(-$O$6*(G62/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G62/$L$10-1))</f>
-        <v>-8.7300425750892359</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G62/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G62/$L$10-1))</f>
+        <v>-8.7429302695578457</v>
       </c>
       <c r="N62" s="15">
         <f t="shared" si="4"/>
-        <v>2.3702072546104347E-2</v>
+        <v>1.0814378077494524E-2</v>
       </c>
       <c r="O62" s="15">
         <v>1</v>
@@ -16003,12 +16025,12 @@
         <v>-6.4003833100336012</v>
       </c>
       <c r="M63">
-        <f>$L$9*$O$4*EXP(-$O$6*(G63/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G63/$L$10-1))</f>
-        <v>-8.7635409246914762</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G63/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G63/$L$10-1))</f>
+        <v>-8.7723526497859474</v>
       </c>
       <c r="N63" s="15">
         <f t="shared" si="4"/>
-        <v>1.6412358179312747E-2</v>
+        <v>7.6006330848414905E-3</v>
       </c>
       <c r="O63" s="15">
         <v>1</v>
@@ -16039,12 +16061,12 @@
         <v>-6.4385675719449154</v>
       </c>
       <c r="M64">
-        <f>$L$9*$O$4*EXP(-$O$6*(G64/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G64/$L$10-1))</f>
-        <v>-8.7910177265545908</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G64/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G64/$L$10-1))</f>
+        <v>-8.796648893345095</v>
       </c>
       <c r="N64" s="15">
         <f t="shared" si="4"/>
-        <v>1.0673982091676137E-2</v>
+        <v>5.042815301171899E-3</v>
       </c>
       <c r="O64" s="15">
         <v>1</v>
@@ -16075,12 +16097,12 @@
         <v>-6.4703938147725673</v>
       </c>
       <c r="M65">
-        <f>$L$9*$O$4*EXP(-$O$6*(G65/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G65/$L$10-1))</f>
-        <v>-8.8128004069227757</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G65/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G65/$L$10-1))</f>
+        <v>-8.8160493063608971</v>
       </c>
       <c r="N65" s="15">
         <f t="shared" si="4"/>
-        <v>6.3262739844773819E-3</v>
+        <v>3.0773745463559266E-3</v>
       </c>
       <c r="O65" s="15">
         <v>1</v>
@@ -16111,12 +16133,12 @@
         <v>-6.4962811373177436</v>
       </c>
       <c r="M66">
-        <f>$L$9*$O$4*EXP(-$O$6*(G66/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G66/$L$10-1))</f>
-        <v>-8.829200566413137</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G66/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G66/$L$10-1))</f>
+        <v>-8.8307754717596723</v>
       </c>
       <c r="N66" s="15">
         <f t="shared" si="4"/>
-        <v>3.2195379439574623E-3</v>
+        <v>1.644632597422202E-3</v>
       </c>
       <c r="O66" s="15">
         <v>1</v>
@@ -16147,12 +16169,12 @@
         <v>-6.5166232382068197</v>
       </c>
       <c r="M67">
-        <f>$L$9*$O$4*EXP(-$O$6*(G67/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G67/$L$10-1))</f>
-        <v>-8.8405147277834502</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G67/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G67/$L$10-1))</f>
+        <v>-8.8410405642432046</v>
       </c>
       <c r="N67" s="15">
         <f t="shared" si="4"/>
-        <v>1.2144314118547328E-3</v>
+        <v>6.8859495210027433E-4</v>
       </c>
       <c r="O67" s="15">
         <v>1</v>
@@ -16183,12 +16205,12 @@
         <v>-6.5317899357511031</v>
       </c>
       <c r="M68">
-        <f>$L$9*$O$4*EXP(-$O$6*(G68/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G68/$L$10-1))</f>
-        <v>-8.8470250485346504</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G68/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G68/$L$10-1))</f>
+        <v>-8.8470496540644206</v>
       </c>
       <c r="N68" s="15">
         <f t="shared" si="4"/>
-        <v>1.8137620417668643</v>
+        <v>1.567706744065589</v>
       </c>
       <c r="O68" s="15">
         <v>10000</v>
@@ -16222,7 +16244,7 @@
         <v>-6.5421285970503202</v>
       </c>
       <c r="M69">
-        <f>$L$9*$O$4*EXP(-$O$6*(G69/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G69/$L$10-1))</f>
+        <f>$L$9*$O$7*EXP(-$O$8*(G69/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G69/$L$10-1))</f>
         <v>-8.8490000000000002</v>
       </c>
       <c r="N69" s="15">
@@ -16261,12 +16283,12 @@
         <v>-6.5479654817574318</v>
       </c>
       <c r="M70">
-        <f>$L$9*$O$4*EXP(-$O$6*(G70/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G70/$L$10-1))</f>
-        <v>-8.846695014495495</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G70/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G70/$L$10-1))</f>
+        <v>-8.8470813319022525</v>
       </c>
       <c r="N70" s="15">
         <f t="shared" si="4"/>
-        <v>5.5860679781183364</v>
+        <v>1.722893910542922</v>
       </c>
       <c r="O70" s="15">
         <v>10000</v>
@@ -16297,12 +16319,12 @@
         <v>-6.5496070055989826</v>
       </c>
       <c r="M71">
-        <f>$L$9*$O$4*EXP(-$O$6*(G71/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G71/$L$10-1))</f>
-        <v>-8.8403531020319495</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G71/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G71/$L$10-1))</f>
+        <v>-8.8414761231987224</v>
       </c>
       <c r="N71" s="15">
         <f t="shared" si="4"/>
-        <v>1.753674909314995E-3</v>
+        <v>6.306537425420089E-4</v>
       </c>
       <c r="O71" s="15">
         <v>1</v>
@@ -16333,12 +16355,12 @@
         <v>-6.5473409284410939</v>
       </c>
       <c r="M72">
-        <f>$L$9*$O$4*EXP(-$O$6*(G72/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G72/$L$10-1))</f>
-        <v>-8.83020543801881</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G72/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G72/$L$10-1))</f>
+        <v>-8.8323598536953014</v>
       </c>
       <c r="N72" s="15">
         <f t="shared" si="4"/>
-        <v>3.4893811294285371E-3</v>
+        <v>1.334965452937098E-3</v>
       </c>
       <c r="O72" s="15">
         <v>1</v>
@@ -16369,12 +16391,12 @@
         <v>-6.5414374714052732</v>
       </c>
       <c r="M73">
-        <f>$L$9*$O$4*EXP(-$O$6*(G73/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G73/$L$10-1))</f>
-        <v>-8.8164719233225846</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G73/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G73/$L$10-1))</f>
+        <v>-8.8199012630258586</v>
       </c>
       <c r="N73" s="15">
         <f t="shared" si="4"/>
-        <v>5.677149786782465E-3</v>
+        <v>2.2478100835083836E-3</v>
       </c>
       <c r="O73" s="15">
         <v>1</v>
@@ -16405,12 +16427,12 @@
         <v>-6.5321503672694066</v>
       </c>
       <c r="M74">
-        <f>$L$9*$O$4*EXP(-$O$6*(G74/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G74/$L$10-1))</f>
-        <v>-8.7993617179786874</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G74/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G74/$L$10-1))</f>
+        <v>-8.8042625950793703</v>
       </c>
       <c r="N74" s="15">
         <f t="shared" si="4"/>
-        <v>8.2352254415383186E-3</v>
+        <v>3.334348340855442E-3</v>
       </c>
       <c r="O74" s="15">
         <v>1</v>
@@ -16441,12 +16463,12 @@
         <v>-6.5197178481364428</v>
       </c>
       <c r="M75">
-        <f>$L$9*$O$4*EXP(-$O$6*(G75/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G75/$L$10-1))</f>
-        <v>-8.7790737497945806</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G75/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G75/$L$10-1))</f>
+        <v>-8.7855998337238148</v>
       </c>
       <c r="N75" s="15">
         <f t="shared" si="4"/>
-        <v>1.1088268056761663E-2</v>
+        <v>4.5621841275274022E-3</v>
       </c>
       <c r="O75" s="15">
         <v>1</v>
@@ -16477,12 +16499,12 @@
         <v>-6.5043635741155672</v>
       </c>
       <c r="M76">
-        <f>$L$9*$O$4*EXP(-$O$6*(G76/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G76/$L$10-1))</f>
-        <v>-8.7557971990238972</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G76/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G76/$L$10-1))</f>
+        <v>-8.76406293013485</v>
       </c>
       <c r="N76" s="15">
         <f t="shared" si="4"/>
-        <v>1.4166969526300477E-2</v>
+        <v>5.9012384153476205E-3</v>
       </c>
       <c r="O76" s="15">
         <v>1</v>
@@ -16513,12 +16535,12 @@
         <v>-6.4862975065371629</v>
       </c>
       <c r="M77">
-        <f>$L$9*$O$4*EXP(-$O$6*(G77/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G77/$L$10-1))</f>
-        <v>-8.7297119602358109</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G77/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G77/$L$10-1))</f>
+        <v>-8.7397960220263933</v>
       </c>
       <c r="N77" s="15">
         <f t="shared" si="4"/>
-        <v>1.7407690496114014E-2</v>
+        <v>7.3236287055316041E-3</v>
       </c>
       <c r="O77" s="15">
         <v>1</v>
@@ -16549,12 +16571,12 @@
         <v>-6.4657167290126276</v>
       </c>
       <c r="M78">
-        <f>$L$9*$O$4*EXP(-$O$6*(G78/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G78/$L$10-1))</f>
-        <v>-8.7009890824511764</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G78/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G78/$L$10-1))</f>
+        <v>-8.712937645069692</v>
       </c>
       <c r="N78" s="15">
         <f t="shared" si="4"/>
-        <v>2.0752116467271264E-2</v>
+        <v>8.8035538487556408E-3</v>
       </c>
       <c r="O78" s="15">
         <v>1</v>
@@ -16585,12 +16607,12 @@
         <v>-6.4428062194525211</v>
       </c>
       <c r="M79">
-        <f>$L$9*$O$4*EXP(-$O$6*(G79/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G79/$L$10-1))</f>
-        <v>-8.6697911885665615</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G79/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G79/$L$10-1))</f>
+        <v>-8.683620936777487</v>
       </c>
       <c r="N79" s="15">
         <f t="shared" si="4"/>
-        <v>2.4146932217911754E-2</v>
+        <v>1.0317184006986224E-2</v>
       </c>
       <c r="O79" s="15">
         <v>1</v>
@@ -16621,12 +16643,12 @@
         <v>-6.41773957597061</v>
       </c>
       <c r="M80">
-        <f>$L$9*$O$4*EXP(-$O$6*(G80/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G80/$L$10-1))</f>
-        <v>-8.6362728750393565</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G80/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G80/$L$10-1))</f>
+        <v>-8.651973833119893</v>
       </c>
       <c r="N80" s="15">
         <f t="shared" si="4"/>
-        <v>2.7543513628010885E-2</v>
+        <v>1.1842555547474376E-2</v>
       </c>
       <c r="O80" s="15">
         <v>1</v>
@@ -16657,12 +16679,12 @@
         <v>-6.3906796994267019</v>
       </c>
       <c r="M81">
-        <f>$L$9*$O$4*EXP(-$O$6*(G81/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G81/$L$10-1))</f>
-        <v>-8.6005810927614501</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G81/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G81/$L$10-1))</f>
+        <v>-8.6181192581294166</v>
       </c>
       <c r="N81" s="15">
         <f t="shared" si="4"/>
-        <v>3.0897636035186693E-2</v>
+        <v>1.3359470667220208E-2</v>
       </c>
       <c r="O81" s="15">
         <v>1</v>
@@ -16693,12 +16715,12 @@
         <v>-6.3617794351967705</v>
       </c>
       <c r="M82">
-        <f>$L$9*$O$4*EXP(-$O$6*(G82/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G82/$L$10-1))</f>
-        <v>-8.5628555100053649</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G82/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G82/$L$10-1))</f>
+        <v>-8.5821753067432649</v>
       </c>
       <c r="N82" s="15">
         <f t="shared" si="4"/>
-        <v>3.4169198292088865E-2</v>
+        <v>1.4849401554188901E-2</v>
       </c>
       <c r="O82" s="15">
         <v>1</v>
@@ -16729,12 +16751,12 @@
         <v>-6.3311821766044121</v>
       </c>
       <c r="M83">
-        <f>$L$9*$O$4*EXP(-$O$6*(G83/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G83/$L$10-1))</f>
-        <v>-8.5232288582852753</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G83/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G83/$L$10-1))</f>
+        <v>-8.5442554211224717</v>
       </c>
       <c r="N83" s="15">
         <f t="shared" si="4"/>
-        <v>3.7321961736118681E-2</v>
+        <v>1.6295398898922286E-2</v>
       </c>
       <c r="O83" s="15">
         <v>1</v>
@@ -16765,12 +16787,12 @@
         <v>-6.2990224323023689</v>
       </c>
       <c r="M84">
-        <f>$L$9*$O$4*EXP(-$O$6*(G84/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G84/$L$10-1))</f>
-        <v>-8.4818272619356954</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G84/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G84/$L$10-1))</f>
+        <v>-8.5044685606788057</v>
       </c>
       <c r="N84" s="15">
         <f t="shared" ref="N84:N147" si="10">(M84-H84)*O84</f>
-        <v>4.0323303320583648E-2</v>
+        <v>1.7682004577473265E-2</v>
       </c>
       <c r="O84" s="15">
         <v>1</v>
@@ -16801,12 +16823,12 @@
         <v>-6.265426359756205</v>
       </c>
       <c r="M85">
-        <f>$L$9*$O$4*EXP(-$O$6*(G85/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G85/$L$10-1))</f>
-        <v>-8.438770552172965</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G85/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G85/$L$10-1))</f>
+        <v>-8.4629193660323256</v>
       </c>
       <c r="N85" s="15">
         <f t="shared" si="10"/>
-        <v>4.3143982192955121E-2</v>
+        <v>1.8995168333594492E-2</v>
       </c>
       <c r="O85" s="15">
         <v>1</v>
@@ -16837,12 +16859,12 @@
         <v>-6.2305122668538253</v>
       </c>
       <c r="M86">
-        <f>$L$9*$O$4*EXP(-$O$6*(G86/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G86/$L$10-1))</f>
-        <v>-8.3941725663687272</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G86/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G86/$L$10-1))</f>
+        <v>-8.4197083171145319</v>
       </c>
       <c r="N86" s="15">
         <f t="shared" si="10"/>
-        <v>4.5757919040559258E-2</v>
+        <v>2.0222168294754539E-2</v>
       </c>
       <c r="O86" s="15">
         <v>1</v>
@@ -16873,12 +16895,12 @@
         <v>-6.1943910835436737</v>
       </c>
       <c r="M87">
-        <f>$L$9*$O$4*EXP(-$O$6*(G87/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G87/$L$10-1))</f>
-        <v>-8.3481414332302801</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G87/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G87/$L$10-1))</f>
+        <v>-8.3749318856245338</v>
       </c>
       <c r="N87" s="15">
         <f t="shared" si="10"/>
-        <v>4.8141987557192678E-2</v>
+        <v>2.1351535162938973E-2</v>
       </c>
       <c r="O87" s="15">
         <v>1</v>
@@ -16909,12 +16931,12 @@
         <v>-6.1571668052908839</v>
       </c>
       <c r="M88">
-        <f>$L$9*$O$4*EXP(-$O$6*(G88/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G88/$L$10-1))</f>
-        <v>-8.3007798445501209</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G88/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G88/$L$10-1))</f>
+        <v>-8.3286826820382309</v>
       </c>
       <c r="N88" s="15">
         <f t="shared" si="10"/>
-        <v>5.0275817415668556E-2</v>
+        <v>2.237297992755849E-2</v>
       </c>
       <c r="O88" s="15">
         <v>1</v>
@@ -16945,12 +16967,12 @@
         <v>-6.1189369100338764</v>
       </c>
       <c r="M89">
-        <f>$L$9*$O$4*EXP(-$O$6*(G89/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G89/$L$10-1))</f>
-        <v>-8.2521853141558541</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G89/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G89/$L$10-1))</f>
+        <v>-8.2810495973635661</v>
       </c>
       <c r="N89" s="15">
         <f t="shared" si="10"/>
-        <v>5.2141608161267783E-2</v>
+        <v>2.3277324953555834E-2</v>
       </c>
       <c r="O89" s="15">
         <v>1</v>
@@ -16981,12 +17003,12 @@
         <v>-6.0797927502234117</v>
       </c>
       <c r="M90">
-        <f>$L$9*$O$4*EXP(-$O$6*(G90/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G90/$L$10-1))</f>
-        <v>-8.2024504246619578</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G90/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G90/$L$10-1))</f>
+        <v>-8.232117939827944</v>
       </c>
       <c r="N90" s="15">
         <f t="shared" si="10"/>
-        <v>5.3723953469722474E-2</v>
+        <v>2.4056438303736272E-2</v>
       </c>
       <c r="O90" s="15">
         <v>1</v>
@@ -17017,12 +17039,12 @@
         <v>-6.0398199214317279</v>
       </c>
       <c r="M91">
-        <f>$L$9*$O$4*EXP(-$O$6*(G91/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G91/$L$10-1))</f>
-        <v>-8.1516630625966897</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G91/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G91/$L$10-1))</f>
+        <v>-8.1819695666774379</v>
       </c>
       <c r="N91" s="15">
         <f t="shared" si="10"/>
-        <v>5.5009675240503597E-2</v>
+        <v>2.4703171159755399E-2</v>
       </c>
       <c r="O91" s="15">
         <v>1</v>
@@ -17053,12 +17075,12 @@
         <v>-5.9990986089305718</v>
       </c>
       <c r="M92">
-        <f>$L$9*$O$4*EXP(-$O$6*(G92/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G92/$L$10-1))</f>
-        <v>-8.0999066424505219</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G92/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G92/$L$10-1))</f>
+        <v>-8.1306830112610449</v>
       </c>
       <c r="N92" s="15">
         <f t="shared" si="10"/>
-        <v>5.5987667022028731E-2</v>
+        <v>2.5211298211505806E-2</v>
       </c>
       <c r="O92" s="15">
         <v>1</v>
@@ -17089,12 +17111,12 @@
         <v>-5.9577039135534164</v>
       </c>
       <c r="M93">
-        <f>$L$9*$O$4*EXP(-$O$6*(G93/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G93/$L$10-1))</f>
-        <v>-8.0472603201666786</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G93/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G93/$L$10-1))</f>
+        <v>-8.0783336055670887</v>
       </c>
       <c r="N93" s="15">
         <f t="shared" si="10"/>
-        <v>5.6648746290280272E-2</v>
+        <v>2.5575460889870172E-2</v>
       </c>
       <c r="O93" s="15">
         <v>1</v>
@@ -17125,12 +17147,12 @@
         <v>-5.9157061580786952</v>
       </c>
       <c r="M94">
-        <f>$L$9*$O$4*EXP(-$O$6*(G94/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G94/$L$10-1))</f>
-        <v>-7.9937991965701212</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G94/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G94/$L$10-1))</f>
+        <v>-8.0249935983729959</v>
       </c>
       <c r="N94" s="15">
         <f t="shared" si="10"/>
-        <v>5.6985515125518305E-2</v>
+        <v>2.5791113322643611E-2</v>
       </c>
       <c r="O94" s="15">
         <v>1</v>
@@ -17161,12 +17183,12 @@
         <v>-5.8731711752969966</v>
       </c>
       <c r="M95">
-        <f>$L$9*$O$4*EXP(-$O$6*(G95/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G95/$L$10-1))</f>
-        <v>-7.9395945112077886</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G95/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G95/$L$10-1))</f>
+        <v>-7.9707322691639764</v>
       </c>
       <c r="N95" s="15">
         <f t="shared" si="10"/>
-        <v>5.6992228854351623E-2</v>
+        <v>2.5854470898163839E-2</v>
       </c>
       <c r="O95" s="15">
         <v>1</v>
@@ -17197,12 +17219,12 @@
         <v>-5.8301605788557822</v>
       </c>
       <c r="M96">
-        <f>$L$9*$O$4*EXP(-$O$6*(G96/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G96/$L$10-1))</f>
-        <v>-7.884713827050831</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G96/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G96/$L$10-1))</f>
+        <v>-7.9156160379705955</v>
       </c>
       <c r="N96" s="15">
         <f t="shared" si="10"/>
-        <v>5.6664672245618775E-2</v>
+        <v>2.5762461325854247E-2</v>
       </c>
       <c r="O96" s="15">
         <v>1</v>
@@ -17233,12 +17255,12 @@
         <v>-5.7867320179099018</v>
       </c>
       <c r="M97">
-        <f>$L$9*$O$4*EXP(-$O$6*(G97/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G97/$L$10-1))</f>
-        <v>-7.8292212064883717</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G97/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G97/$L$10-1))</f>
+        <v>-7.8597085712700387</v>
       </c>
       <c r="N97" s="15">
         <f t="shared" si="10"/>
-        <v>5.6000042868762812E-2</v>
+        <v>2.5512678087095786E-2</v>
       </c>
       <c r="O97" s="15">
         <v>1</v>
@@ -17269,12 +17291,12 @@
         <v>-5.7429394165448011</v>
       </c>
       <c r="M98">
-        <f>$L$9*$O$4*EXP(-$O$6*(G98/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G98/$L$10-1))</f>
-        <v>-7.7731773790221084</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G98/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G98/$L$10-1))</f>
+        <v>-7.8030708840905731</v>
       </c>
       <c r="N98" s="15">
         <f t="shared" si="10"/>
-        <v>5.4996841242735961E-2</v>
+        <v>2.5103336174271185E-2</v>
       </c>
       <c r="O98" s="15">
         <v>1</v>
@@ -17305,12 +17327,12 @@
         <v>-5.698833198881613</v>
       </c>
       <c r="M99">
-        <f>$L$9*$O$4*EXP(-$O$6*(G99/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G99/$L$10-1))</f>
-        <v>-7.7166399010519369</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G99/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G99/$L$10-1))</f>
+        <v>-7.745761438453993</v>
       </c>
       <c r="N99" s="15">
         <f t="shared" si="10"/>
-        <v>5.3654767421726923E-2</v>
+        <v>2.4533230019670782E-2</v>
       </c>
       <c r="O99" s="15">
         <v>1</v>
@@ -17341,12 +17363,12 @@
         <v>-5.6544605007190079</v>
       </c>
       <c r="M100">
-        <f>$L$9*$O$4*EXP(-$O$6*(G100/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G100/$L$10-1))</f>
-        <v>-7.6596633081242818</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G100/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G100/$L$10-1))</f>
+        <v>-7.6878362382858727</v>
       </c>
       <c r="N100" s="15">
         <f t="shared" si="10"/>
-        <v>5.1974623681663168E-2</v>
+        <v>2.380169352007222E-2</v>
       </c>
       <c r="O100" s="15">
         <v>1</v>
@@ -17377,12 +17399,12 @@
         <v>-5.6098653685157176</v>
       </c>
       <c r="M101">
-        <f>$L$9*$O$4*EXP(-$O$6*(G101/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G101/$L$10-1))</f>
-        <v>-7.6022992599975883</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G101/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G101/$L$10-1))</f>
+        <v>-7.6293489209189946</v>
       </c>
       <c r="N101" s="15">
         <f t="shared" si="10"/>
-        <v>4.9958222987788403E-2</v>
+        <v>2.2908562066382032E-2</v>
       </c>
       <c r="O101" s="15">
         <v>1</v>
@@ -17413,12 +17435,12 @@
         <v>-5.5650889464695927</v>
       </c>
       <c r="M102">
-        <f>$L$9*$O$4*EXP(-$O$6*(G102/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G102/$L$10-1))</f>
-        <v>-7.5445966788625558</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G102/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G102/$L$10-1))</f>
+        <v>-7.570350845310859</v>
       </c>
       <c r="N102" s="15">
         <f t="shared" si="10"/>
-        <v>4.7608302939741165E-2</v>
+        <v>2.185413649143797E-2</v>
       </c>
       <c r="O102" s="15">
         <v>1</v>
@@ -17449,12 +17471,12 @@
         <v>-5.5201696524039718</v>
       </c>
       <c r="M103">
-        <f>$L$9*$O$4*EXP(-$O$6*(G103/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G103/$L$10-1))</f>
-        <v>-7.4866018810389763</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G103/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G103/$L$10-1))</f>
+        <v>-7.5108911770918292</v>
       </c>
       <c r="N103" s="15">
         <f t="shared" si="10"/>
-        <v>4.4928444905435683E-2</v>
+        <v>2.0639148852582778E-2</v>
       </c>
       <c r="O103" s="15">
         <v>1</v>
@@ -17485,12 +17507,12 @@
         <v>-5.4751433431297301</v>
       </c>
       <c r="M104">
-        <f>$L$9*$O$4*EXP(-$O$6*(G104/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G104/$L$10-1))</f>
-        <v>-7.4283587024558955</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G104/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G104/$L$10-1))</f>
+        <v>-7.4510169705565179</v>
       </c>
       <c r="N104" s="15">
         <f t="shared" si="10"/>
-        <v>4.1922998069416018E-2</v>
+        <v>1.9264729968793581E-2</v>
       </c>
       <c r="O104" s="15">
         <v>1</v>
@@ -17521,12 +17543,12 @@
         <v>-5.4300434699113929</v>
       </c>
       <c r="M105">
-        <f>$L$9*$O$4*EXP(-$O$6*(G105/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G105/$L$10-1))</f>
-        <v>-7.3699086182073454</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G105/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G105/$L$10-1))</f>
+        <v>-7.3907732477068206</v>
       </c>
       <c r="N105" s="15">
         <f t="shared" si="10"/>
-        <v>3.8597008135092814E-2</v>
+        <v>1.7732378635617607E-2</v>
       </c>
       <c r="O105" s="15">
         <v>1</v>
@@ -17557,12 +17579,12 @@
         <v>-5.3849012246283028</v>
       </c>
       <c r="M106">
-        <f>$L$9*$O$4*EXP(-$O$6*(G106/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G106/$L$10-1))</f>
-        <v>-7.311290856462235</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G106/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G106/$L$10-1))</f>
+        <v>-7.330203074451366</v>
       </c>
       <c r="N106" s="15">
         <f t="shared" si="10"/>
-        <v>3.4956150433167466E-2</v>
+        <v>1.6043932444036457E-2</v>
       </c>
       <c r="O106" s="15">
         <v>1</v>
@@ -17593,12 +17615,12 @@
         <v>-5.3397456771864773</v>
       </c>
       <c r="M107">
-        <f>$L$9*$O$4*EXP(-$O$6*(G107/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G107/$L$10-1))</f>
-        <v>-7.2525425069938896</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G107/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G107/$L$10-1))</f>
+        <v>-7.2693476340623135</v>
       </c>
       <c r="N107" s="15">
         <f t="shared" si="10"/>
-        <v>3.1006667200919047E-2</v>
+        <v>1.4201540132495083E-2</v>
       </c>
       <c r="O107" s="15">
         <v>1</v>
@@ -17629,12 +17651,12 @@
         <v>-5.2946039047036084</v>
       </c>
       <c r="M108">
-        <f>$L$9*$O$4*EXP(-$O$6*(G108/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G108/$L$10-1))</f>
-        <v>-7.193698624582181</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G108/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G108/$L$10-1))</f>
+        <v>-7.2082462979869337</v>
       </c>
       <c r="N108" s="15">
         <f t="shared" si="10"/>
-        <v>2.6755308808882106E-2</v>
+        <v>1.2207635404129391E-2</v>
       </c>
       <c r="O108" s="15">
         <v>1</v>
@@ -17665,12 +17687,12 @@
         <v>-5.2495011129585878</v>
       </c>
       <c r="M109">
-        <f>$L$9*$O$4*EXP(-$O$6*(G109/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G109/$L$10-1))</f>
-        <v>-7.1347923275294791</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G109/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G109/$L$10-1))</f>
+        <v>-7.1469366941079535</v>
       </c>
       <c r="N109" s="15">
         <f t="shared" si="10"/>
-        <v>2.220927872244971E-2</v>
+        <v>1.0064912143975313E-2</v>
       </c>
       <c r="O109" s="15">
         <v>1</v>
@@ -17701,12 +17723,12 @@
         <v>-5.2044607505674181</v>
       </c>
       <c r="M110">
-        <f>$L$9*$O$4*EXP(-$O$6*(G110/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G110/$L$10-1))</f>
-        <v>-7.0758548915200787</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G110/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G110/$L$10-1))</f>
+        <v>-7.0854547725432813</v>
       </c>
       <c r="N110" s="15">
         <f t="shared" si="10"/>
-        <v>1.7376181996851869E-2</v>
+        <v>7.7763009736493416E-3</v>
       </c>
       <c r="O110" s="15">
         <v>1</v>
@@ -17737,12 +17759,12 @@
         <v>-5.1595046163199916</v>
       </c>
       <c r="M111">
-        <f>$L$9*$O$4*EXP(-$O$6*(G111/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G111/$L$10-1))</f>
-        <v>-7.0169158390422028</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G111/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G111/$L$10-1))</f>
+        <v>-7.0238348690725534</v>
       </c>
       <c r="N111" s="15">
         <f t="shared" si="10"/>
-        <v>1.2263977113820879E-2</v>
+        <v>5.3449470834703305E-3</v>
       </c>
       <c r="O111" s="15">
         <v>1</v>
@@ -17773,12 +17795,12 @@
         <v>-5.114652960086155</v>
       </c>
       <c r="M112">
-        <f>$L$9*$O$4*EXP(-$O$6*(G112/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G112/$L$10-1))</f>
-        <v>-6.958003024581247</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G112/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G112/$L$10-1))</f>
+        <v>-6.9621097662748852</v>
       </c>
       <c r="N112" s="15">
         <f t="shared" si="10"/>
-        <v>6.8809309781041605</v>
+        <v>2.7741892844659333</v>
       </c>
       <c r="O112" s="15">
         <v>1000</v>
@@ -17809,12 +17831,12 @@
         <v>-5.0699245776751329</v>
       </c>
       <c r="M113">
-        <f>$L$9*$O$4*EXP(-$O$6*(G113/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G113/$L$10-1))</f>
-        <v>-6.8991427157831371</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G113/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G113/$L$10-1))</f>
+        <v>-6.9003107524591352</v>
       </c>
       <c r="N113" s="15">
         <f t="shared" si="10"/>
-        <v>1.2355769010516937</v>
+        <v>6.7540225053619452E-2</v>
       </c>
       <c r="O113" s="15">
         <v>1000</v>
@@ -17845,12 +17867,12 @@
         <v>-5.0253369000095036</v>
       </c>
       <c r="M114">
-        <f>$L$9*$O$4*EXP(-$O$6*(G114/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G114/$L$10-1))</f>
-        <v>-6.8403596707774472</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G114/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G114/$L$10-1))</f>
+        <v>-6.8384676784652454</v>
       </c>
       <c r="N114" s="15">
         <f t="shared" si="10"/>
-        <v>-4.6633245927809597</v>
+        <v>-2.7713322805791307</v>
       </c>
       <c r="O114" s="15">
         <v>1000</v>
@@ -17881,12 +17903,12 @@
         <v>-4.9809060769532643</v>
       </c>
       <c r="M115">
-        <f>$L$9*$O$4*EXP(-$O$6*(G115/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G115/$L$10-1))</f>
-        <v>-6.7816772118408064</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G115/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G115/$L$10-1))</f>
+        <v>-6.7766090124122709</v>
       </c>
       <c r="N115" s="15">
         <f t="shared" si="10"/>
-        <v>-1.0806822291624663E-2</v>
+        <v>-5.7386228630891267E-3</v>
       </c>
       <c r="O115" s="15">
         <v>1</v>
@@ -17917,12 +17939,12 @@
         <v>-4.9366470561133369</v>
       </c>
       <c r="M116">
-        <f>$L$9*$O$4*EXP(-$O$6*(G116/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G116/$L$10-1))</f>
-        <v>-6.7231172955728713</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G116/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G116/$L$10-1))</f>
+        <v>-6.7147618924662229</v>
       </c>
       <c r="N116" s="15">
         <f t="shared" si="10"/>
-        <v>-1.7185808303017858E-2</v>
+        <v>-8.8304051963694619E-3</v>
       </c>
       <c r="O116" s="15">
         <v>1</v>
@@ -17953,12 +17975,12 @@
         <v>-4.8925736569147684</v>
       </c>
       <c r="M117">
-        <f>$L$9*$O$4*EXP(-$O$6*(G117/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G117/$L$10-1))</f>
-        <v>-6.6647005797488621</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G117/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G117/$L$10-1))</f>
+        <v>-6.6529521776981069</v>
       </c>
       <c r="N117" s="15">
         <f t="shared" si="10"/>
-        <v>-2.3791049681079812E-2</v>
+        <v>-1.2042647630324588E-2</v>
       </c>
       <c r="O117" s="15">
         <v>1</v>
@@ -17989,12 +18011,12 @@
         <v>-4.848698640231941</v>
       </c>
       <c r="M118">
-        <f>$L$9*$O$4*EXP(-$O$6*(G118/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G118/$L$10-1))</f>
-        <v>-6.6064464870050443</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G118/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G118/$L$10-1))</f>
+        <v>-6.5912044971001427</v>
       </c>
       <c r="N118" s="15">
         <f t="shared" si="10"/>
-        <v>-3.0613217807695214E-2</v>
+        <v>-1.5371227902793549E-2</v>
       </c>
       <c r="O118" s="15">
         <v>1</v>
@@ -18025,12 +18047,12 @@
         <v>-4.8050337738413083</v>
       </c>
       <c r="M119">
-        <f>$L$9*$O$4*EXP(-$O$6*(G119/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G119/$L$10-1))</f>
-        <v>-6.5483732655062319</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G119/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G119/$L$10-1))</f>
+        <v>-6.5295422968257357</v>
       </c>
       <c r="N119" s="15">
         <f t="shared" si="10"/>
-        <v>-3.7642915654044984E-2</v>
+        <v>-1.8811946973548821E-2</v>
       </c>
       <c r="O119" s="15">
         <v>1</v>
@@ -18061,12 +18083,12 @@
         <v>-4.7615898939452235</v>
       </c>
       <c r="M120">
-        <f>$L$9*$O$4*EXP(-$O$6*(G120/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G120/$L$10-1))</f>
-        <v>-6.4904980467372271</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G120/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G120/$L$10-1))</f>
+        <v>-6.4679878857163802</v>
       </c>
       <c r="N120" s="15">
         <f t="shared" si="10"/>
-        <v>-4.4870703042255933E-2</v>
+        <v>-2.2360542021409024E-2</v>
       </c>
       <c r="O120" s="15">
         <v>1</v>
@@ -18097,12 +18119,12 @@
         <v>-4.7183769630016617</v>
       </c>
       <c r="M121">
-        <f>$L$9*$O$4*EXP(-$O$6*(G121/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G121/$L$10-1))</f>
-        <v>-6.4328369005536334</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G121/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G121/$L$10-1))</f>
+        <v>-6.4065624791765279</v>
       </c>
       <c r="N121" s="15">
         <f t="shared" si="10"/>
-        <v>-5.2287120021011546E-2</v>
+        <v>-2.6012698643905985E-2</v>
       </c>
       <c r="O121" s="15">
         <v>1</v>
@@ -18133,12 +18155,12 @@
         <v>-4.6754041240804831</v>
       </c>
       <c r="M122">
-        <f>$L$9*$O$4*EXP(-$O$6*(G122/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G122/$L$10-1))</f>
-        <v>-6.3754048876209772</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G122/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G122/$L$10-1))</f>
+        <v>-6.3452862414552591</v>
       </c>
       <c r="N122" s="15">
         <f t="shared" si="10"/>
-        <v>-5.9882708462979828E-2</v>
+        <v>-2.9764062297261695E-2</v>
       </c>
       <c r="O122" s="15">
         <v>1</v>
@@ -18169,12 +18191,12 @@
         <v>-4.6326797519538134</v>
       </c>
       <c r="M123">
-        <f>$L$9*$O$4*EXP(-$O$6*(G123/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G123/$L$10-1))</f>
-        <v>-6.3182161093650588</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G123/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G123/$L$10-1))</f>
+        <v>-6.284178326391471</v>
       </c>
       <c r="N123" s="15">
         <f t="shared" si="10"/>
-        <v>-6.764803198636038E-2</v>
+        <v>-3.3610249012772542E-2</v>
       </c>
       <c r="O123" s="15">
         <v>1</v>
@@ -18205,12 +18227,12 @@
         <v>-4.5902115011156948</v>
       </c>
       <c r="M124">
-        <f>$L$9*$O$4*EXP(-$O$6*(G124/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G124/$L$10-1))</f>
-        <v>-6.2612837555507426</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G124/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G124/$L$10-1))</f>
+        <v>-6.2232569166774043</v>
       </c>
       <c r="N124" s="15">
         <f t="shared" si="10"/>
-        <v>-7.5573694297699667E-2</v>
+        <v>-3.7546855424361425E-2</v>
       </c>
       <c r="O124" s="15">
         <v>1</v>
@@ -18241,12 +18263,12 @@
         <v>-4.5480063509144673</v>
       </c>
       <c r="M125">
-        <f>$L$9*$O$4*EXP(-$O$6*(G125/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G125/$L$10-1))</f>
-        <v>-6.2046201496007276</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G125/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G125/$L$10-1))</f>
+        <v>-6.1625392616932135</v>
       </c>
       <c r="N125" s="15">
         <f t="shared" si="10"/>
-        <v>-8.3650356047860974E-2</v>
+        <v>-4.1569468140346899E-2</v>
       </c>
       <c r="O125" s="15">
         <v>1</v>
@@ -18277,12 +18299,12 @@
         <v>-4.5060706479704606</v>
       </c>
       <c r="M126">
-        <f>$L$9*$O$4*EXP(-$O$6*(G126/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G126/$L$10-1))</f>
-        <v>-6.148236791760799</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G126/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G126/$L$10-1))</f>
+        <v>-6.1020417139636063</v>
       </c>
       <c r="N126" s="15">
         <f t="shared" si="10"/>
-        <v>-9.1868750288505829E-2</v>
+        <v>-4.5673672491313155E-2</v>
       </c>
       <c r="O126" s="15">
         <v>1</v>
@@ -18313,12 +18335,12 @@
         <v>-4.4644101460412209</v>
       </c>
       <c r="M127">
-        <f>$L$9*$O$4*EXP(-$O$6*(G127/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G127/$L$10-1))</f>
-        <v>-6.0921444002128915</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G127/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G127/$L$10-1))</f>
+        <v>-6.0417797642856508</v>
       </c>
       <c r="N127" s="15">
         <f t="shared" si="10"/>
-        <v>-0.10021969661171326</v>
+        <v>-4.9855060684472541E-2</v>
       </c>
       <c r="O127" s="15">
         <v>1</v>
@@ -18349,12 +18371,12 @@
         <v>-4.4230300434868175</v>
       </c>
       <c r="M128">
-        <f>$L$9*$O$4*EXP(-$O$6*(G128/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G128/$L$10-1))</f>
-        <v>-6.036352950232601</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G128/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G128/$L$10-1))</f>
+        <v>-5.9817680755751166</v>
       </c>
       <c r="N128" s="15">
         <f t="shared" si="10"/>
-        <v>-0.1086941140511275</v>
+        <v>-5.4109239393643094E-2</v>
       </c>
       <c r="O128" s="15">
         <v>1</v>
@@ -18385,12 +18407,12 @@
         <v>-4.3819350184787105</v>
       </c>
       <c r="M129">
-        <f>$L$9*$O$4*EXP(-$O$6*(G129/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G129/$L$10-1))</f>
-        <v>-5.9808717114833074</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G129/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G129/$L$10-1))</f>
+        <v>-5.9220205154771479</v>
       </c>
       <c r="N129" s="15">
         <f t="shared" si="10"/>
-        <v>-0.11728303281893826</v>
+        <v>-5.8431836812778748E-2</v>
       </c>
       <c r="O129" s="15">
         <v>1</v>
@@ -18421,12 +18443,12 @@
         <v>-4.3411292620870334</v>
       </c>
       <c r="M130">
-        <f>$L$9*$O$4*EXP(-$O$6*(G130/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G130/$L$10-1))</f>
-        <v>-5.9257092835345597</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G130/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G130/$L$10-1))</f>
+        <v>-5.8625501877852741</v>
       </c>
       <c r="N130" s="15">
         <f t="shared" si="10"/>
-        <v>-0.12597760494902488</v>
+        <v>-6.2818509199739303E-2</v>
       </c>
       <c r="O130" s="15">
         <v>1</v>
@@ -18457,12 +18479,12 @@
         <v>-4.3006165093731186</v>
       </c>
       <c r="M131">
-        <f>$L$9*$O$4*EXP(-$O$6*(G131/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G131/$L$10-1))</f>
-        <v>-5.8708736296884645</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G131/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G131/$L$10-1))</f>
+        <v>-5.8033694627113457</v>
       </c>
       <c r="N131" s="15">
         <f t="shared" si="10"/>
-        <v>-0.13476911391290791</v>
+        <v>-6.7264946935789105E-2</v>
       </c>
       <c r="O131" s="15">
         <v>1</v>
@@ -18493,12 +18515,12 @@
         <v>-4.2604000686065504</v>
       </c>
       <c r="M132">
-        <f>$L$9*$O$4*EXP(-$O$6*(G132/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G132/$L$10-1))</f>
-        <v>-5.8163721091937131</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G132/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G132/$L$10-1))</f>
+        <v>-5.7444900060474247</v>
       </c>
       <c r="N132" s="15">
         <f t="shared" si="10"/>
-        <v>-0.14364898327169584</v>
+        <v>-7.176688012540744E-2</v>
       </c>
       <c r="O132" s="15">
         <v>1</v>
@@ -18529,12 +18551,12 @@
         <v>-4.2204828487188495</v>
       </c>
       <c r="M133">
-        <f>$L$9*$O$4*EXP(-$O$6*(G133/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G133/$L$10-1))</f>
-        <v>-5.7622115079232623</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G133/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G133/$L$10-1))</f>
+        <v>-5.6859228072591659</v>
       </c>
       <c r="N133" s="15">
         <f t="shared" si="10"/>
-        <v>-0.15260878442374359</v>
+        <v>-7.6320083759647162E-2</v>
       </c>
       <c r="O133" s="15">
         <v>1</v>
@@ -18565,12 +18587,12 @@
         <v>-4.1808673850992744</v>
       </c>
       <c r="M134">
-        <f>$L$9*$O$4*EXP(-$O$6*(G134/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G134/$L$10-1))</f>
-        <v>-5.708398067588047</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G134/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G134/$L$10-1))</f>
+        <v>-5.6276782065489384</v>
       </c>
       <c r="N134" s="15">
         <f t="shared" si="10"/>
-        <v>-0.1616402435046993</v>
+        <v>-8.0920382465590635E-2</v>
       </c>
       <c r="O134" s="15">
         <v>1</v>
@@ -18601,12 +18623,12 @@
         <v>-4.1415558638318357</v>
       </c>
       <c r="M135">
-        <f>$L$9*$O$4*EXP(-$O$6*(G135/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G135/$L$10-1))</f>
-        <v>-5.6549375135556845</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G135/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G135/$L$10-1))</f>
+        <v>-5.5697659209254153</v>
       </c>
       <c r="N135" s="15">
         <f t="shared" si="10"/>
-        <v>-0.17073524749340585</v>
+        <v>-8.5563654863136662E-2</v>
       </c>
       <c r="O135" s="15">
         <v>1</v>
@@ -18637,12 +18659,12 @@
         <v>-4.1025501444667807</v>
       </c>
       <c r="M136">
-        <f>$L$9*$O$4*EXP(-$O$6*(G136/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G136/$L$10-1))</f>
-        <v>-5.6018350813399609</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G136/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G136/$L$10-1))</f>
+        <v>-5.5121950693152231</v>
       </c>
       <c r="N136" s="15">
         <f t="shared" si="10"/>
-        <v>-0.17988584957446818</v>
+        <v>-9.0245837549730368E-2</v>
       </c>
       <c r="O136" s="15">
         <v>1</v>
@@ -18673,12 +18695,12 @@
         <v>-4.0638517814142165</v>
       </c>
       <c r="M137">
-        <f>$L$9*$O$4*EXP(-$O$6*(G137/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G137/$L$10-1))</f>
-        <v>-5.54909554182374</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G137/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G137/$L$10-1))</f>
+        <v>-5.4549741967508689</v>
       </c>
       <c r="N137" s="15">
         <f t="shared" si="10"/>
-        <v>-0.18908427380538129</v>
+        <v>-9.4962928732510221E-2</v>
       </c>
       <c r="O137" s="15">
         <v>1</v>
@@ -18709,12 +18731,12 @@
         <v>-4.0254620440422562</v>
       </c>
       <c r="M138">
-        <f>$L$9*$O$4*EXP(-$O$6*(G138/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G138/$L$10-1))</f>
-        <v>-5.4967232252749891</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G138/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G138/$L$10-1))</f>
+        <v>-5.3981112976679917</v>
       </c>
       <c r="N138" s="15">
         <f t="shared" si="10"/>
-        <v>-0.19832291913361999</v>
+        <v>-9.971099152662255E-2</v>
       </c>
       <c r="O138" s="15">
         <v>1</v>
@@ -18745,12 +18767,12 @@
         <v>-3.987381935557258</v>
       </c>
       <c r="M139">
-        <f>$L$9*$O$4*EXP(-$O$6*(G139/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G139/$L$10-1))</f>
-        <v>-5.4447220442128641</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G139/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G139/$L$10-1))</f>
+        <v>-5.3416138383438572</v>
       </c>
       <c r="N139" s="15">
         <f t="shared" si="10"/>
-        <v>-0.20759436280660193</v>
+        <v>-0.104486156937595</v>
       </c>
       <c r="O139" s="15">
         <v>1</v>
@@ -18781,12 +18803,12 @@
         <v>-3.949612210738962</v>
       </c>
       <c r="M140">
-        <f>$L$9*$O$4*EXP(-$O$6*(G140/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G140/$L$10-1))</f>
-        <v>-5.3930955151780617</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G140/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G140/$L$10-1))</f>
+        <v>-5.2854887785077533</v>
       </c>
       <c r="N140" s="15">
         <f t="shared" si="10"/>
-        <v>-0.21689136321512237</v>
+        <v>-0.10928462654481397</v>
       </c>
       <c r="O140" s="15">
         <v>1</v>
@@ -18817,12 +18839,12 @@
         <v>-3.9121533925990954</v>
       </c>
       <c r="M141">
-        <f>$L$9*$O$4*EXP(-$O$6*(G141/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G141/$L$10-1))</f>
-        <v>-5.3418467794591065</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G141/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G141/$L$10-1))</f>
+        <v>-5.229742592153019</v>
       </c>
       <c r="N141" s="15">
         <f t="shared" si="10"/>
-        <v>-0.22620686220855291</v>
+        <v>-0.1141026749024654</v>
       </c>
       <c r="O141" s="15">
         <v>1</v>
@@ -18853,12 +18875,12 @@
         <v>-3.8750057880278743</v>
       </c>
       <c r="M142">
-        <f>$L$9*$O$4*EXP(-$O$6*(G142/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G142/$L$10-1))</f>
-        <v>-5.2909786228238653</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G142/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G142/$L$10-1))</f>
+        <v>-5.1743812875792683</v>
       </c>
       <c r="N142" s="15">
         <f t="shared" si="10"/>
-        <v>-0.23553398691812077</v>
+        <v>-0.11893665167352374</v>
       </c>
       <c r="O142" s="15">
         <v>1</v>
@@ -18889,12 +18911,12 @@
         <v>-3.8381695024889608</v>
       </c>
       <c r="M143">
-        <f>$L$9*$O$4*EXP(-$O$6*(G143/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G143/$L$10-1))</f>
-        <v>-5.2404934943031778</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G143/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G143/$L$10-1))</f>
+        <v>-5.1194104266923901</v>
       </c>
       <c r="N143" s="15">
         <f t="shared" si="10"/>
-        <v>-0.24486605112244764</v>
+        <v>-0.12378298351165995</v>
       </c>
       <c r="O143" s="15">
         <v>1</v>
@@ -18925,12 +18947,12 @@
         <v>-3.801644453819883</v>
       </c>
       <c r="M144">
-        <f>$L$9*$O$4*EXP(-$O$6*(G144/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G144/$L$10-1))</f>
-        <v>-5.1903935240713821</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G144/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G144/$L$10-1))</f>
+        <v>-5.0648351435889811</v>
       </c>
       <c r="N144" s="15">
         <f t="shared" si="10"/>
-        <v>-0.25419655618774328</v>
+        <v>-0.12863817570534231</v>
       </c>
       <c r="O144" s="15">
         <v>1</v>
@@ -18961,12 +18983,12 @@
         <v>-3.7654303851914444</v>
       </c>
       <c r="M145">
-        <f>$L$9*$O$4*EXP(-$O$6*(G145/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G145/$L$10-1))</f>
-        <v>-5.1406805404663212</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G145/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G145/$L$10-1))</f>
+        <v>-5.010660162450808</v>
       </c>
       <c r="N145" s="15">
         <f t="shared" si="10"/>
-        <v>-0.26351919161314807</v>
+        <v>-0.13349881359763494</v>
       </c>
       <c r="O145" s="15">
         <v>1</v>
@@ -18997,12 +19019,12 @@
         <v>-3.7295268772765149</v>
       </c>
       <c r="M146">
-        <f>$L$9*$O$4*EXP(-$O$6*(G146/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G146/$L$10-1))</f>
-        <v>-5.0913560861894736</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G146/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G146/$L$10-1))</f>
+        <v>-4.9568898147741063</v>
       </c>
       <c r="N146" s="15">
         <f t="shared" si="10"/>
-        <v>-0.2728278352100606</v>
+        <v>-0.13836156379469333</v>
       </c>
       <c r="O146" s="15">
         <v>1</v>
@@ -19033,12 +19055,12 @@
         <v>-3.6939333596755444</v>
       </c>
       <c r="M147">
-        <f>$L$9*$O$4*EXP(-$O$6*(G147/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G147/$L$10-1))</f>
-        <v>-5.0424214337249147</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G147/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G147/$L$10-1))</f>
+        <v>-4.9035280559575742</v>
       </c>
       <c r="N147" s="15">
         <f t="shared" si="10"/>
-        <v>-0.28211655294266347</v>
+        <v>-0.14322317517532301</v>
       </c>
       <c r="O147" s="15">
         <v>1</v>
@@ -19069,12 +19091,12 @@
         <v>-3.6586491216433372</v>
       </c>
       <c r="M148">
-        <f>$L$9*$O$4*EXP(-$O$6*(G148/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G148/$L$10-1))</f>
-        <v>-4.9938776000140059</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G148/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G148/$L$10-1))</f>
+        <v>-4.8505784812720698</v>
       </c>
       <c r="N148" s="15">
         <f t="shared" ref="N148:N211" si="16">(M148-H148)*O148</f>
-        <v>-0.29137959845527117</v>
+        <v>-0.14808047971333504</v>
       </c>
       <c r="O148" s="15">
         <v>1</v>
@@ -19105,12 +19127,12 @@
         <v>-3.6236733221589725</v>
       </c>
       <c r="M149">
-        <f>$L$9*$O$4*EXP(-$O$6*(G149/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G149/$L$10-1))</f>
-        <v>-4.9457253604209734</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G149/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G149/$L$10-1))</f>
+        <v>-4.7980443412342852</v>
       </c>
       <c r="N149" s="15">
         <f t="shared" si="16"/>
-        <v>-0.30061141231073929</v>
+        <v>-0.1529303931240511</v>
       </c>
       <c r="O149" s="15">
         <v>1</v>
@@ -19141,12 +19163,12 @@
         <v>-3.5890049993782003</v>
       </c>
       <c r="M150">
-        <f>$L$9*$O$4*EXP(-$O$6*(G150/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G150/$L$10-1))</f>
-        <v>-4.8979652620228622</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G150/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G150/$L$10-1))</f>
+        <v>-4.7459285564057332</v>
       </c>
       <c r="N150" s="15">
         <f t="shared" si="16"/>
-        <v>-0.30980662096268841</v>
+        <v>-0.1577699153455594</v>
       </c>
       <c r="O150" s="15">
         <v>1</v>
@@ -19177,12 +19199,12 @@
         <v>-3.5546430795053721</v>
       </c>
       <c r="M151">
-        <f>$L$9*$O$4*EXP(-$O$6*(G151/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G151/$L$10-1))</f>
-        <v>-4.8505976362558139</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G151/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G151/$L$10-1))</f>
+        <v>-4.6942337316377873</v>
       </c>
       <c r="N151" s="15">
         <f t="shared" si="16"/>
-        <v>-0.31896003548306329</v>
+        <v>-0.16259613086503677</v>
       </c>
       <c r="O151" s="15">
         <v>1</v>
@@ -19213,12 +19235,12 @@
         <v>-3.5205863851196928</v>
       </c>
       <c r="M152">
-        <f>$L$9*$O$4*EXP(-$O$6*(G152/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G152/$L$10-1))</f>
-        <v>-4.803622610948092</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G152/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G152/$L$10-1))</f>
+        <v>-4.6429621697826553</v>
       </c>
       <c r="N152" s="15">
         <f t="shared" si="16"/>
-        <v>-0.32806665006526625</v>
+        <v>-0.1674062088998296</v>
       </c>
       <c r="O152" s="15">
         <v>1</v>
@@ -19249,12 +19271,12 @@
         <v>-3.4868336429885143</v>
       </c>
       <c r="M153">
-        <f>$L$9*$O$4*EXP(-$O$6*(G153/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G153/$L$10-1))</f>
-        <v>-4.7570401217688323</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G153/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G153/$L$10-1))</f>
+        <v>-4.5921158848895258</v>
       </c>
       <c r="N153" s="15">
         <f t="shared" si="16"/>
-        <v>-0.33712164032189218</v>
+        <v>-0.17219740344258572</v>
       </c>
       <c r="O153" s="15">
         <v>1</v>
@@ -19285,12 +19307,12 @@
         <v>-3.4533834913984722</v>
       </c>
       <c r="M154">
-        <f>$L$9*$O$4*EXP(-$O$6*(G154/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G154/$L$10-1))</f>
-        <v>-4.7108499231201888</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G154/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G154/$L$10-1))</f>
+        <v>-4.5416966149044402</v>
       </c>
       <c r="N154" s="15">
         <f t="shared" si="16"/>
-        <v>-0.34612036139503566</v>
+        <v>-0.17696705317928707</v>
       </c>
       <c r="O154" s="15">
         <v>1</v>
@@ -19321,12 +19343,12 @@
         <v>-3.4202344870333672</v>
       </c>
       <c r="M155">
-        <f>$L$9*$O$4*EXP(-$O$6*(G155/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G155/$L$10-1))</f>
-        <v>-4.6650515984991667</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G155/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G155/$L$10-1))</f>
+        <v>-4.4917058338917348</v>
       </c>
       <c r="N155" s="15">
         <f t="shared" si="16"/>
-        <v>-0.3550583458960217</v>
+        <v>-0.1817125812885898</v>
       </c>
       <c r="O155" s="15">
         <v>1</v>
@@ -19357,12 +19379,12 @@
         <v>-3.3873851114260143</v>
       </c>
       <c r="M156">
-        <f>$L$9*$O$4*EXP(-$O$6*(G156/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G156/$L$10-1))</f>
-        <v>-4.6196445703542643</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G156/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G156/$L$10-1))</f>
+        <v>-4.4421447637943272</v>
       </c>
       <c r="N156" s="15">
         <f t="shared" si="16"/>
-        <v>-0.36393130169039711</v>
+        <v>-0.18643149513045998</v>
       </c>
       <c r="O156" s="15">
         <v>1</v>
@@ -19393,12 +19415,12 @@
         <v>-3.3548337770096421</v>
       </c>
       <c r="M157">
-        <f>$L$9*$O$4*EXP(-$O$6*(G157/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G157/$L$10-1))</f>
-        <v>-4.5746281094608241</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G157/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G157/$L$10-1))</f>
+        <v>-4.3930143857494723</v>
       </c>
       <c r="N157" s="15">
         <f t="shared" si="16"/>
-        <v>-0.37273510954314304</v>
+        <v>-0.19112138583179128</v>
       </c>
       <c r="O157" s="15">
         <v>1</v>
@@ -19429,12 +19451,12 @@
         <v>-3.322578832792876</v>
       </c>
       <c r="M158">
-        <f>$L$9*$O$4*EXP(-$O$6*(G158/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G158/$L$10-1))</f>
-        <v>-4.5300013438378759</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G158/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G158/$L$10-1))</f>
+        <v>-4.344315450976012</v>
       </c>
       <c r="N158" s="15">
         <f t="shared" si="16"/>
-        <v>-0.38146582063802725</v>
+        <v>-0.19577992777616338</v>
       </c>
       <c r="O158" s="15">
         <v>1</v>
@@ -19465,12 +19487,12 @@
         <v>-3.290618569680956</v>
       </c>
       <c r="M159">
-        <f>$L$9*$O$4*EXP(-$O$6*(G159/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G159/$L$10-1))</f>
-        <v>-4.4857632672282293</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G159/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G159/$L$10-1))</f>
+        <v>-4.2960484912486328</v>
       </c>
       <c r="N159" s="15">
         <f t="shared" si="16"/>
-        <v>-0.39011965398433546</v>
+        <v>-0.20040487800473894</v>
       </c>
       <c r="O159" s="15">
         <v>1</v>
@@ -19501,12 +19523,12 @@
         <v>-3.2589512254644073</v>
       </c>
       <c r="M160">
-        <f>$L$9*$O$4*EXP(-$O$6*(G160/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G160/$L$10-1))</f>
-        <v>-4.4419127471624442</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G160/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G160/$L$10-1))</f>
+        <v>-4.2482138289739861</v>
       </c>
       <c r="N160" s="15">
         <f t="shared" si="16"/>
-        <v>-0.39869299372321532</v>
+        <v>-0.20499407553475724</v>
       </c>
       <c r="O160" s="15">
         <v>1</v>
@@ -19537,12 +19559,12 @@
         <v>-3.2275749894951908</v>
       </c>
       <c r="M161">
-        <f>$L$9*$O$4*EXP(-$O$6*(G161/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G161/$L$10-1))</f>
-        <v>-4.3984485326264524</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G161/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G161/$L$10-1))</f>
+        <v>-4.2008115868831277</v>
       </c>
       <c r="N161" s="15">
         <f t="shared" si="16"/>
-        <v>-0.40718238634525195</v>
+        <v>-0.20954544060192726</v>
       </c>
       <c r="O161" s="15">
         <v>1</v>
@@ -19573,12 +19595,12 @@
         <v>-3.19648800706912</v>
       </c>
       <c r="M162">
-        <f>$L$9*$O$4*EXP(-$O$6*(G162/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G162/$L$10-1))</f>
-        <v>-4.3553692613516066</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G162/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G162/$L$10-1))</f>
+        <v>-4.1538416973541015</v>
       </c>
       <c r="N162" s="15">
         <f t="shared" si="16"/>
-        <v>-0.41558453783007909</v>
+        <v>-0.21405697383257394</v>
       </c>
       <c r="O162" s="15">
         <v>1</v>
@@ -19609,12 +19631,12 @@
         <v>-3.1656883835322125</v>
       </c>
       <c r="M163">
-        <f>$L$9*$O$4*EXP(-$O$6*(G163/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G163/$L$10-1))</f>
-        <v>-4.3126734667450499</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G163/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G163/$L$10-1))</f>
+        <v>-4.1073039113780903</v>
       </c>
       <c r="N163" s="15">
         <f t="shared" si="16"/>
-        <v>-0.42389631071817346</v>
+        <v>-0.2185267553512138</v>
       </c>
       <c r="O163" s="15">
         <v>1</v>
@@ -19645,12 +19667,12 @@
         <v>-3.1351741881276114</v>
       </c>
       <c r="M164">
-        <f>$L$9*$O$4*EXP(-$O$6*(G164/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G164/$L$10-1))</f>
-        <v>-4.27035958447751</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G164/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G164/$L$10-1))</f>
+        <v>-4.0611978071820216</v>
       </c>
       <c r="N164" s="15">
         <f t="shared" si="16"/>
-        <v>-0.43211472112432681</v>
+        <v>-0.22295294382883846</v>
       </c>
       <c r="O164" s="15">
         <v>1</v>
@@ -19681,12 +19703,12 @@
         <v>-3.104943457598687</v>
       </c>
       <c r="M165">
-        <f>$L$9*$O$4*EXP(-$O$6*(G165/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G165/$L$10-1))</f>
-        <v>-4.2284259587447357</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G165/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G165/$L$10-1))</f>
+        <v>-4.0155227985200845</v>
       </c>
       <c r="N165" s="15">
         <f t="shared" si="16"/>
-        <v>-0.44023693570164779</v>
+        <v>-0.22733377547699662</v>
       </c>
       <c r="O165" s="15">
         <v>1</v>
@@ -19717,12 +19739,12 @@
         <v>-3.0749941995630068</v>
       </c>
       <c r="M166">
-        <f>$L$9*$O$4*EXP(-$O$6*(G166/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G166/$L$10-1))</f>
-        <v>-4.186870848218101</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G166/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G166/$L$10-1))</f>
+        <v>-3.9702781426461522</v>
       </c>
       <c r="N166" s="15">
         <f t="shared" si="16"/>
-        <v>-0.44826026856439505</v>
+        <v>-0.23166756299244629</v>
       </c>
       <c r="O166" s="15">
         <v>1</v>
@@ -19753,12 +19775,12 @@
         <v>-3.0453243956710097</v>
       </c>
       <c r="M167">
-        <f>$L$9*$O$4*EXP(-$O$6*(G167/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G167/$L$10-1))</f>
-        <v>-4.1456924316991381</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G167/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G167/$L$10-1))</f>
+        <v>-3.9254629479787049</v>
       </c>
       <c r="N167" s="15">
         <f t="shared" si="16"/>
-        <v>-0.45618217817736939</v>
+        <v>-0.23595269445693612</v>
       </c>
       <c r="O167" s="15">
         <v>1</v>
@@ -19789,12 +19811,12 @@
         <v>-3.0159320045623352</v>
       </c>
       <c r="M168">
-        <f>$L$9*$O$4*EXP(-$O$6*(G168/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G168/$L$10-1))</f>
-        <v>-4.104888813492062</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G168/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G168/$L$10-1))</f>
+        <v>-3.8810761814694072</v>
       </c>
       <c r="N168" s="15">
         <f t="shared" si="16"/>
-        <v>-0.46400026421907192</v>
+        <v>-0.24018763219641714</v>
       </c>
       <c r="O168" s="15">
         <v>1</v>
@@ -19825,12 +19847,12 @@
         <v>-2.9868149646320643</v>
       </c>
       <c r="M169">
-        <f>$L$9*$O$4*EXP(-$O$6*(G169/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G169/$L$10-1))</f>
-        <v>-4.0644580285077145</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G169/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G169/$L$10-1))</f>
+        <v>-3.8371166756861212</v>
       </c>
       <c r="N169" s="15">
         <f t="shared" si="16"/>
-        <v>-0.47171226442535685</v>
+        <v>-0.24437091160376356</v>
       </c>
       <c r="O169" s="15">
         <v>1</v>
@@ -19861,12 +19883,12 @@
         <v>-2.9579711966183022</v>
       </c>
       <c r="M170">
-        <f>$L$9*$O$4*EXP(-$O$6*(G170/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G170/$L$10-1))</f>
-        <v>-4.0243980471116885</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G170/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G170/$L$10-1))</f>
+        <v>-3.7935831356207133</v>
       </c>
       <c r="N170" s="15">
         <f t="shared" si="16"/>
-        <v>-0.47931605141981715</v>
+        <v>-0.24850113992884193</v>
       </c>
       <c r="O170" s="15">
         <v>1</v>
@@ -19897,12 +19919,12 @@
         <v>-2.9293986060219388</v>
       </c>
       <c r="M171">
-        <f>$L$9*$O$4*EXP(-$O$6*(G171/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G171/$L$10-1))</f>
-        <v>-3.9847067797288105</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G171/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G171/$L$10-1))</f>
+        <v>-3.7504741452317005</v>
       </c>
       <c r="N171" s="15">
         <f t="shared" si="16"/>
-        <v>-0.48680962953670992</v>
+        <v>-0.25257699503959996</v>
       </c>
       <c r="O171" s="15">
         <v>1</v>
@@ -19933,12 +19955,12 @@
         <v>-2.9010950853687087</v>
       </c>
       <c r="M172">
-        <f>$L$9*$O$4*EXP(-$O$6*(G172/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G172/$L$10-1))</f>
-        <v>-3.9453820812156017</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G172/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G172/$L$10-1))</f>
+        <v>-3.7077881737313758</v>
       </c>
       <c r="N172" s="15">
         <f t="shared" si="16"/>
-        <v>-0.49419113164183903</v>
+        <v>-0.2565972241576131</v>
       </c>
       <c r="O172" s="15">
         <v>1</v>
@@ -19969,12 +19991,12 @@
         <v>-2.8730585163230953</v>
       </c>
       <c r="M173">
-        <f>$L$9*$O$4*EXP(-$O$6*(G173/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G173/$L$10-1))</f>
-        <v>-3.9064217550117388</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G173/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G173/$L$10-1))</f>
+        <v>-3.6655235816267129</v>
       </c>
       <c r="N173" s="15">
         <f t="shared" si="16"/>
-        <v>-0.50145881595635089</v>
+        <v>-0.26056064257132494</v>
       </c>
       <c r="O173" s="15">
         <v>1</v>
@@ -20005,12 +20027,12 @@
         <v>-2.845286771663079</v>
       </c>
       <c r="M174">
-        <f>$L$9*$O$4*EXP(-$O$6*(G174/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G174/$L$10-1))</f>
-        <v>-3.867823557081103</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G174/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G174/$L$10-1))</f>
+        <v>-3.6236786265230831</v>
       </c>
       <c r="N174" s="15">
         <f t="shared" si="16"/>
-        <v>-0.50861106288812863</v>
+        <v>-0.26446613233010874</v>
       </c>
       <c r="O174" s="15">
         <v>1</v>
@@ -20041,12 +20063,12 @@
         <v>-2.8177777171241094</v>
       </c>
       <c r="M175">
-        <f>$L$9*$O$4*EXP(-$O$6*(G175/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G175/$L$10-1))</f>
-        <v>-3.8295851996523944</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G175/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G175/$L$10-1))</f>
+        <v>-3.5822514686993729</v>
       </c>
       <c r="N175" s="15">
         <f t="shared" si="16"/>
-        <v>-0.51564637187500661</v>
+        <v>-0.26831264092198515</v>
       </c>
       <c r="O175" s="15">
         <v>1</v>
@@ -20077,12 +20099,12 @@
         <v>-2.7905292131202821</v>
       </c>
       <c r="M176">
-        <f>$L$9*$O$4*EXP(-$O$6*(G176/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G176/$L$10-1))</f>
-        <v>-3.7917043547689273</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G176/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G176/$L$10-1))</f>
+        <v>-3.5412401764629085</v>
       </c>
       <c r="N176" s="15">
         <f t="shared" si="16"/>
-        <v>-0.52256335824379363</v>
+        <v>-0.27209917993777477</v>
       </c>
       <c r="O176" s="15">
         <v>1</v>
@@ -20113,12 +20135,12 @@
         <v>-2.763539116350143</v>
       </c>
       <c r="M177">
-        <f>$L$9*$O$4*EXP(-$O$6*(G177/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G177/$L$10-1))</f>
-        <v>-3.7541786576566936</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G177/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G177/$L$10-1))</f>
+        <v>-3.5006427312922153</v>
       </c>
       <c r="N177" s="15">
         <f t="shared" si="16"/>
-        <v>-0.52936075008871697</v>
+        <v>-0.27582482372423867</v>
       </c>
       <c r="O177" s="15">
         <v>1</v>
@@ -20149,12 +20171,12 @@
         <v>-2.7368052812941404</v>
       </c>
       <c r="M178">
-        <f>$L$9*$O$4*EXP(-$O$6*(G178/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G178/$L$10-1))</f>
-        <v>-3.7170057099193867</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G178/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G178/$L$10-1))</f>
+        <v>-3.4604570327753823</v>
       </c>
       <c r="N178" s="15">
         <f t="shared" si="16"/>
-        <v>-0.53603738517264343</v>
+        <v>-0.27948870802863901</v>
       </c>
       <c r="O178" s="15">
         <v>1</v>
@@ -20185,12 +20207,12 @@
         <v>-2.7103255616103179</v>
       </c>
       <c r="M179">
-        <f>$L$9*$O$4*EXP(-$O$6*(G179/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G179/$L$10-1))</f>
-        <v>-3.6801830825686781</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G179/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G179/$L$10-1))</f>
+        <v>-3.4206809033515375</v>
       </c>
       <c r="N179" s="15">
         <f t="shared" si="16"/>
-        <v>-0.54259220785414231</v>
+        <v>-0.28309002863700172</v>
       </c>
       <c r="O179" s="15">
         <v>1</v>
@@ -20221,12 +20243,12 @@
         <v>-2.6840978114344294</v>
       </c>
       <c r="M180">
-        <f>$L$9*$O$4*EXP(-$O$6*(G180/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G180/$L$10-1))</f>
-        <v>-3.6437083188975947</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G180/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G180/$L$10-1))</f>
+        <v>-3.3813120928626188</v>
       </c>
       <c r="N180" s="15">
         <f t="shared" si="16"/>
-        <v>-0.54902426604318411</v>
+        <v>-0.28662804000820818</v>
       </c>
       <c r="O180" s="15">
         <v>1</v>
@@ -20257,12 +20279,12 @@
         <v>-2.658119886590312</v>
       </c>
       <c r="M181">
-        <f>$L$9*$O$4*EXP(-$O$6*(G181/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G181/$L$10-1))</f>
-        <v>-3.6075789372045595</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G181/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G181/$L$10-1))</f>
+        <v>-3.3423482829224347</v>
       </c>
       <c r="N181" s="15">
         <f t="shared" si="16"/>
-        <v>-0.55533270818805303</v>
+        <v>-0.29010205390592825</v>
       </c>
       <c r="O181" s="15">
         <v>1</v>
@@ -20293,12 +20315,12 @@
         <v>-2.6323896457159881</v>
       </c>
       <c r="M182">
-        <f>$L$9*$O$4*EXP(-$O$6*(G182/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G182/$L$10-1))</f>
-        <v>-3.5717924333752067</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G182/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G182/$L$10-1))</f>
+        <v>-3.3037870911097205</v>
       </c>
       <c r="N182" s="15">
         <f t="shared" si="16"/>
-        <v>-0.56151678029578145</v>
+        <v>-0.29351143803029522</v>
       </c>
       <c r="O182" s="15">
         <v>1</v>
@@ -20329,12 +20351,12 @@
         <v>-2.6069049513106339</v>
       </c>
       <c r="M183">
-        <f>$L$9*$O$4*EXP(-$O$6*(G183/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G183/$L$10-1))</f>
-        <v>-3.5363462833288266</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G183/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G183/$L$10-1))</f>
+        <v>-3.265626074991649</v>
       </c>
       <c r="N183" s="15">
         <f t="shared" si="16"/>
-        <v>-0.56757582298823195</v>
+        <v>-0.29685561465105437</v>
       </c>
       <c r="O183" s="15">
         <v>1</v>
@@ -20365,12 +20387,12 @@
         <v>-2.581663670707278</v>
       </c>
       <c r="M184">
-        <f>$L$9*$O$4*EXP(-$O$6*(G184/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G184/$L$10-1))</f>
-        <v>-3.5012379453359377</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G184/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G184/$L$10-1))</f>
+        <v>-3.2278627359840688</v>
       </c>
       <c r="N184" s="15">
         <f t="shared" si="16"/>
-        <v>-0.57350926859573947</v>
+        <v>-0.3001340592438706</v>
       </c>
       <c r="O184" s="15">
         <v>1</v>
@@ -20401,12 +20423,12 @@
         <v>-2.5566636769757447</v>
       </c>
       <c r="M185">
-        <f>$L$9*$O$4*EXP(-$O$6*(G185/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G185/$L$10-1))</f>
-        <v>-3.466464862213158</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G185/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G185/$L$10-1))</f>
+        <v>-3.1904945230544555</v>
       </c>
       <c r="N185" s="15">
         <f t="shared" si="16"/>
-        <v>-0.57931663829001367</v>
+        <v>-0.30334629913131117</v>
       </c>
       <c r="O185" s="15">
         <v>1</v>
@@ -20437,12 +20459,12 @@
         <v>-2.531902849760145</v>
       </c>
       <c r="M186">
-        <f>$L$9*$O$4*EXP(-$O$6*(G186/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G186/$L$10-1))</f>
-        <v>-3.4320244634012966</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G186/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G186/$L$10-1))</f>
+        <v>-3.1535188362733981</v>
       </c>
       <c r="N186" s="15">
         <f t="shared" si="16"/>
-        <v>-0.58499753925784281</v>
+        <v>-0.30649191212994431</v>
       </c>
       <c r="O186" s="15">
         <v>1</v>
@@ -20473,12 +20495,12 @@
         <v>-2.5073790760549257</v>
       </c>
       <c r="M187">
-        <f>$L$9*$O$4*EXP(-$O$6*(G187/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G187/$L$10-1))</f>
-        <v>-3.3979141669322788</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G187/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G187/$L$10-1))</f>
+        <v>-3.1169330302202209</v>
       </c>
       <c r="N187" s="15">
         <f t="shared" si="16"/>
-        <v>-0.59055166191697195</v>
+        <v>-0.30957052520491413</v>
       </c>
       <c r="O187" s="15">
         <v>1</v>
@@ -20509,12 +20531,12 @@
         <v>-2.4830902509232464</v>
       </c>
       <c r="M188">
-        <f>$L$9*$O$4*EXP(-$O$6*(G188/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G188/$L$10-1))</f>
-        <v>-3.3641313812902638</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G188/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G188/$L$10-1))</f>
+        <v>-3.0807344172481006</v>
       </c>
       <c r="N188" s="15">
         <f t="shared" si="16"/>
-        <v>-0.59597877717534997</v>
+        <v>-0.31258181313318678</v>
       </c>
       <c r="O188" s="15">
         <v>1</v>
@@ -20545,12 +20567,12 @@
         <v>-2.4590342781612615</v>
       </c>
       <c r="M189">
-        <f>$L$9*$O$4*EXP(-$O$6*(G189/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G189/$L$10-1))</f>
-        <v>-3.3306735071720688</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G189/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G189/$L$10-1))</f>
+        <v>-3.0449202706139502</v>
       </c>
       <c r="N189" s="15">
         <f t="shared" si="16"/>
-        <v>-0.60127873373483043</v>
+        <v>-0.31552549717671186</v>
       </c>
       <c r="O189" s="15">
         <v>1</v>
@@ -20581,12 +20603,12 @@
         <v>-2.4352090709116094</v>
       </c>
       <c r="M190">
-        <f>$L$9*$O$4*EXP(-$O$6*(G190/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G190/$L$10-1))</f>
-        <v>-3.2975379391517405</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G190/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G190/$L$10-1))</f>
+        <v>-3.009487827478003</v>
       </c>
       <c r="N190" s="15">
         <f t="shared" si="16"/>
-        <v>-0.60645145544020496</v>
+        <v>-0.31840134376646745</v>
       </c>
       <c r="O190" s="15">
         <v>1</v>
@@ -20617,12 +20639,12 @@
         <v>-2.4116125522292844</v>
       </c>
       <c r="M191">
-        <f>$L$9*$O$4*EXP(-$O$6*(G191/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G191/$L$10-1))</f>
-        <v>-3.2647220672539303</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G191/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G191/$L$10-1))</f>
+        <v>-2.9744342917779898</v>
       </c>
       <c r="N191" s="15">
         <f t="shared" si="16"/>
-        <v>-0.61149693867440069</v>
+        <v>-0.32120916319846016</v>
       </c>
       <c r="O191" s="15">
         <v>1</v>
@@ -20653,12 +20675,12 @@
         <v>-2.3882426556028156</v>
       </c>
       <c r="M192">
-        <f>$L$9*$O$4*EXP(-$O$6*(G192/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G192/$L$10-1))</f>
-        <v>-3.2322232784404705</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G192/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G192/$L$10-1))</f>
+        <v>-2.9397568369825509</v>
       </c>
       <c r="N192" s="15">
         <f t="shared" si="16"/>
-        <v>-0.61641524980047402</v>
+        <v>-0.32394880834255435</v>
       </c>
       <c r="O192" s="15">
         <v>1</v>
@@ -20689,12 +20711,12 @@
         <v>-2.365097325433533</v>
       </c>
       <c r="M193">
-        <f>$L$9*$O$4*EXP(-$O$6*(G193/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G193/$L$10-1))</f>
-        <v>-3.2000389580143609</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G193/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G193/$L$10-1))</f>
+        <v>-2.9054526087283681</v>
       </c>
       <c r="N193" s="15">
         <f t="shared" si="16"/>
-        <v>-0.62120652265097043</v>
+        <v>-0.32662017336497762</v>
       </c>
       <c r="O193" s="15">
         <v>1</v>
@@ -20725,12 +20747,12 @@
         <v>-2.3421745174755428</v>
       </c>
       <c r="M194">
-        <f>$L$9*$O$4*EXP(-$O$6*(G194/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G194/$L$10-1))</f>
-        <v>-3.1681664909451959</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G194/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G194/$L$10-1))</f>
+        <v>-2.8715187273453822</v>
       </c>
       <c r="N194" s="15">
         <f t="shared" si="16"/>
-        <v>-0.62587095606511411</v>
+        <v>-0.32922319246530041</v>
       </c>
       <c r="O194" s="15">
         <v>1</v>
@@ -20761,12 +20783,12 @@
         <v>-2.3194721992388323</v>
       </c>
       <c r="M195">
-        <f>$L$9*$O$4*EXP(-$O$6*(G195/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G195/$L$10-1))</f>
-        <v>-3.1366032631198038</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G195/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G195/$L$10-1))</f>
+        <v>-2.8379522902742331</v>
       </c>
       <c r="N195" s="15">
         <f t="shared" si="16"/>
-        <v>-0.63040881147412753</v>
+        <v>-0.3317578386285569</v>
       </c>
       <c r="O195" s="15">
         <v>1</v>
@@ -20797,12 +20819,12 @@
         <v>-2.2969883503578283</v>
       </c>
       <c r="M196">
-        <f>$L$9*$O$4*EXP(-$O$6*(G196/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G196/$L$10-1))</f>
-        <v>-3.1053466625217725</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G196/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G196/$L$10-1))</f>
+        <v>-2.804750374379974</v>
       </c>
       <c r="N196" s="15">
         <f t="shared" si="16"/>
-        <v>-0.63482041053497618</v>
+        <v>-0.33422412239317767</v>
       </c>
       <c r="O196" s="15">
         <v>1</v>
@@ -20833,12 +20855,12 @@
         <v>-2.2747209629275811</v>
       </c>
       <c r="M197">
-        <f>$L$9*$O$4*EXP(-$O$6*(G197/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G197/$L$10-1))</f>
-        <v>-3.0743940803433292</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G197/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G197/$L$10-1))</f>
+        <v>-2.7719100381659501</v>
       </c>
       <c r="N197" s="15">
         <f t="shared" si="16"/>
-        <v>-0.63910613281270567</v>
+        <v>-0.33662209063532655</v>
       </c>
       <c r="O197" s="15">
         <v>1</v>
@@ -20869,12 +20891,12 @@
         <v>-2.2526680418095606</v>
       </c>
       <c r="M198">
-        <f>$L$9*$O$4*EXP(-$O$6*(G198/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G198/$L$10-1))</f>
-        <v>-3.043742912032815</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G198/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G198/$L$10-1))</f>
+        <v>-2.7394283238915382</v>
       </c>
       <c r="N198" s="15">
         <f t="shared" si="16"/>
-        <v>-0.64326641351140346</v>
+        <v>-0.33895182537012669</v>
       </c>
       <c r="O198" s="15">
         <v>1</v>
@@ -20905,12 +20927,12 @@
         <v>-2.2308276049090567</v>
       </c>
       <c r="M199">
-        <f>$L$9*$O$4*EXP(-$O$6*(G199/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G199/$L$10-1))</f>
-        <v>-3.0133905582810052</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G199/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G199/$L$10-1))</f>
+        <v>-2.7073022595974363</v>
       </c>
       <c r="N199" s="15">
         <f t="shared" si="16"/>
-        <v>-0.64730174125389928</v>
+        <v>-0.34121344257033037</v>
       </c>
       <c r="O199" s="15">
         <v>1</v>
@@ -20941,12 +20963,12 @@
         <v>-2.2091976834259008</v>
       </c>
       <c r="M200">
-        <f>$L$9*$O$4*EXP(-$O$6*(G200/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G200/$L$10-1))</f>
-        <v>-2.9833344259491699</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G200/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G200/$L$10-1))</f>
+        <v>-2.6755288610419048</v>
       </c>
       <c r="N200" s="15">
         <f t="shared" si="16"/>
-        <v>-0.65121265591005129</v>
+        <v>-0.34340709100278621</v>
       </c>
       <c r="O200" s="15">
         <v>1</v>
@@ -20977,12 +20999,12 @@
         <v>-2.1877763220802389</v>
       </c>
       <c r="M201">
-        <f>$L$9*$O$4*EXP(-$O$6*(G201/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G201/$L$10-1))</f>
-        <v>-2.9535719289417726</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G201/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G201/$L$10-1))</f>
+        <v>-2.6441051335513408</v>
       </c>
       <c r="N201" s="15">
         <f t="shared" si="16"/>
-        <v>-0.65499974647353731</v>
+        <v>-0.34553295108310556</v>
       </c>
       <c r="O201" s="15">
         <v>1</v>
@@ -21013,12 +21035,12 @@
         <v>-2.1665615793149304</v>
       </c>
       <c r="M202">
-        <f>$L$9*$O$4*EXP(-$O$6*(G202/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G202/$L$10-1))</f>
-        <v>-2.9241004890265199</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G202/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G202/$L$10-1))</f>
+        <v>-2.6130280737884157</v>
       </c>
       <c r="N202" s="15">
         <f t="shared" si="16"/>
-        <v>-0.65866364898697372</v>
+        <v>-0.34759123374886958</v>
       </c>
       <c r="O202" s="15">
         <v>1</v>
@@ -21049,12 +21071,12 @@
         <v>-2.1455515274760932</v>
       </c>
       <c r="M203">
-        <f>$L$9*$O$4*EXP(-$O$6*(G203/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G203/$L$10-1))</f>
-        <v>-2.8949175366043893</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G203/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G203/$L$10-1))</f>
+        <v>-2.5822946714409394</v>
       </c>
       <c r="N203" s="15">
         <f t="shared" si="16"/>
-        <v>-0.66220504451515394</v>
+        <v>-0.34958217935170399</v>
       </c>
       <c r="O203" s="15">
         <v>1</v>
@@ -21085,12 +21107,12 @@
         <v>-2.1247442529731235</v>
       </c>
       <c r="M204">
-        <f>$L$9*$O$4*EXP(-$O$6*(G204/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G204/$L$10-1))</f>
-        <v>-2.8660205114320014</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G204/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G204/$L$10-1))</f>
+        <v>-2.551901910834331</v>
       </c>
       <c r="N204" s="15">
         <f t="shared" si="16"/>
-        <v>-0.66562465716603247</v>
+        <v>-0.35150605656836209</v>
       </c>
       <c r="O204" s="15">
         <v>1</v>
@@ -21121,12 +21143,12 @@
         <v>-2.1041378564196016</v>
       </c>
       <c r="M205">
-        <f>$L$9*$O$4*EXP(-$O$6*(G205/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G205/$L$10-1))</f>
-        <v>-2.8374068632988116</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G205/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G205/$L$10-1))</f>
+        <v>-2.5218467724707447</v>
       </c>
       <c r="N205" s="15">
         <f t="shared" si="16"/>
-        <v>-0.66892325215923965</v>
+        <v>-0.35336316133117274</v>
       </c>
       <c r="O205" s="15">
         <v>1</v>
@@ -21157,12 +21179,12 @@
         <v>-2.0837304527562441</v>
       </c>
       <c r="M206">
-        <f>$L$9*$O$4*EXP(-$O$6*(G206/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G206/$L$10-1))</f>
-        <v>-2.8090740526612685</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G206/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G206/$L$10-1))</f>
+        <v>-2.4921262344975275</v>
       </c>
       <c r="N206" s="15">
         <f t="shared" si="16"/>
-        <v>-0.67210163394166544</v>
+        <v>-0.35515381577792438</v>
       </c>
       <c r="O206" s="15">
         <v>1</v>
@@ -21193,12 +21215,12 @@
         <v>-2.0635201713571045</v>
       </c>
       <c r="M207">
-        <f>$L$9*$O$4*EXP(-$O$6*(G207/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G207/$L$10-1))</f>
-        <v>-2.7810195512361031</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G207/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G207/$L$10-1))</f>
+        <v>-2.4627372741077331</v>
       </c>
       <c r="N207" s="15">
         <f t="shared" si="16"/>
-        <v>-0.67516064434973044</v>
+        <v>-0.35687836722136046</v>
       </c>
       <c r="O207" s="15">
         <v>1</v>
@@ -21229,12 +21251,12 @@
         <v>-2.0435051561200877</v>
       </c>
       <c r="M208">
-        <f>$L$9*$O$4*EXP(-$O$6*(G208/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G208/$L$10-1))</f>
-        <v>-2.7532408425547703</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G208/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G208/$L$10-1))</f>
+        <v>-2.4336768688752928</v>
       </c>
       <c r="N208" s="15">
         <f t="shared" si="16"/>
-        <v>-0.67810116081788907</v>
+        <v>-0.35853718713841154</v>
       </c>
       <c r="O208" s="15">
         <v>1</v>
@@ -21265,12 +21287,12 @@
         <v>-2.0236835655428576</v>
       </c>
       <c r="M209">
-        <f>$L$9*$O$4*EXP(-$O$6*(G209/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G209/$L$10-1))</f>
-        <v>-2.7257354224810251</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G209/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G209/$L$10-1))</f>
+        <v>-2.4049419980273634</v>
       </c>
       <c r="N209" s="15">
         <f t="shared" si="16"/>
-        <v>-0.6809240946329207</v>
+        <v>-0.36013067017925904</v>
       </c>
       <c r="O209" s="15">
         <v>1</v>
@@ -21301,12 +21323,12 @@
         <v>-2.0040535727850188</v>
       </c>
       <c r="M210">
-        <f>$L$9*$O$4*EXP(-$O$6*(G210/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G210/$L$10-1))</f>
-        <v>-2.6985007996933823</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G210/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G210/$L$10-1))</f>
+        <v>-2.3765296436561902</v>
       </c>
       <c r="N210" s="15">
         <f t="shared" si="16"/>
-        <v>-0.68363038923341746</v>
+        <v>-0.36165923319622539</v>
       </c>
       <c r="O210" s="15">
         <v>1</v>
@@ -21337,12 +21359,12 @@
         <v>-1.9846133657175455</v>
       </c>
       <c r="M211">
-        <f>$L$9*$O$4*EXP(-$O$6*(G211/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G211/$L$10-1))</f>
-        <v>-2.6715344961342886</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G211/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G211/$L$10-1))</f>
+        <v>-2.3484367918728539</v>
       </c>
       <c r="N211" s="15">
         <f t="shared" si="16"/>
-        <v>-0.68622101855399631</v>
+        <v>-0.36312331429256162</v>
       </c>
       <c r="O211" s="15">
         <v>1</v>
@@ -21373,12 +21395,12 @@
         <v>-1.9653611469603005</v>
       </c>
       <c r="M212">
-        <f>$L$9*$O$4*EXP(-$O$6*(G212/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G212/$L$10-1))</f>
-        <v>-2.644834047427687</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G212/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G212/$L$10-1))</f>
+        <v>-2.3206604339051853</v>
       </c>
       <c r="N212" s="15">
         <f t="shared" ref="N212:N275" si="22">(M212-H212)*O212</f>
-        <v>-0.6886969854136813</v>
+        <v>-0.36452337189117956</v>
       </c>
       <c r="O212" s="15">
         <v>1</v>
@@ -21409,12 +21431,12 @@
         <v>-1.9462951339083892</v>
       </c>
       <c r="M213">
-        <f>$L$9*$O$4*EXP(-$O$6*(G213/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G213/$L$10-1))</f>
-        <v>-2.6183970032664727</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G213/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G213/$L$10-1))</f>
+        <v>-2.2931975671418621</v>
       </c>
       <c r="N213" s="15">
         <f t="shared" si="22"/>
-        <v>-0.69105931994778547</v>
+        <v>-0.3658598838231748</v>
       </c>
       <c r="O213" s="15">
         <v>1</v>
@@ -21445,12 +21467,12 @@
         <v>-1.9274135587481773</v>
       </c>
       <c r="M214">
-        <f>$L$9*$O$4*EXP(-$O$6*(G214/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G214/$L$10-1))</f>
-        <v>-2.5922209277714781</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G214/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G214/$L$10-1))</f>
+        <v>-2.2660451961249275</v>
       </c>
       <c r="N214" s="15">
         <f t="shared" si="22"/>
-        <v>-0.69330907808280262</v>
+        <v>-0.36713334643625206</v>
       </c>
       <c r="O214" s="15">
         <v>1</v>
@@ -21481,12 +21503,12 @@
         <v>-1.9087146684636127</v>
       </c>
       <c r="M215">
-        <f>$L$9*$O$4*EXP(-$O$6*(G215/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G215/$L$10-1))</f>
-        <v>-2.5663033998233384</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G215/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G215/$L$10-1))</f>
+        <v>-2.239200333492616</v>
       </c>
       <c r="N215" s="15">
         <f t="shared" si="22"/>
-        <v>-0.69544734005360476</v>
+        <v>-0.36834427372288236</v>
       </c>
       <c r="O215" s="15">
         <v>1</v>
@@ -21517,12 +21539,12 @@
         <v>-1.8901967248335507</v>
       </c>
       <c r="M216">
-        <f>$L$9*$O$4*EXP(-$O$6*(G216/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G216/$L$10-1))</f>
-        <v>-2.5406420133686538</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G216/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G216/$L$10-1))</f>
+        <v>-2.2126600008744708</v>
       </c>
       <c r="N216" s="15">
         <f t="shared" si="22"/>
-        <v>-0.69747520896234394</v>
+        <v>-0.36949319646816092</v>
       </c>
       <c r="O216" s="15">
         <v>1</v>
@@ -21553,12 +21575,12 @@
         <v>-1.8718580044206878</v>
       </c>
       <c r="M217">
-        <f>$L$9*$O$4*EXP(-$O$6*(G217/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G217/$L$10-1))</f>
-        <v>-2.5152343777017525</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G217/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G217/$L$10-1))</f>
+        <v>-2.1864212297405921</v>
       </c>
       <c r="N217" s="15">
         <f t="shared" si="22"/>
-        <v>-0.69939380937840689</v>
+        <v>-0.37058066141724644</v>
       </c>
       <c r="O217" s="15">
         <v>1</v>
@@ -21589,12 +21611,12 @@
         <v>-1.8536967985526869</v>
       </c>
       <c r="M218">
-        <f>$L$9*$O$4*EXP(-$O$6*(G218/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G218/$L$10-1))</f>
-        <v>-2.490078117723288</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G218/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G218/$L$10-1))</f>
+        <v>-2.1604810622068085</v>
       </c>
       <c r="N218" s="15">
         <f t="shared" si="22"/>
-        <v>-0.7012042859787504</v>
+        <v>-0.37160723046227084</v>
       </c>
       <c r="O218" s="15">
         <v>1</v>
@@ -21625,12 +21647,12 @@
         <v>-1.8357114132960604</v>
       </c>
       <c r="M219">
-        <f>$L$9*$O$4*EXP(-$O$6*(G219/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G219/$L$10-1))</f>
-        <v>-2.4651708741768812</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G219/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G219/$L$10-1))</f>
+        <v>-2.1348365517975116</v>
       </c>
       <c r="N219" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70290780222796889</v>
+        <v>-0.37257347984859934</v>
       </c>
       <c r="O219" s="15">
         <v>1</v>
@@ -21661,12 +21683,12 @@
         <v>-1.8179001694232957</v>
       </c>
       <c r="M220">
-        <f>$L$9*$O$4*EXP(-$O$6*(G220/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G220/$L$10-1))</f>
-        <v>-2.4405103038649107</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G220/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G220/$L$10-1))</f>
+        <v>-2.1094847641677914</v>
       </c>
       <c r="N220" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70450553909739111</v>
+        <v>-0.37347999940027177</v>
       </c>
       <c r="O220" s="15">
         <v>1</v>
@@ -21697,12 +21719,12 @@
         <v>-1.8002614023737393</v>
       </c>
       <c r="M221">
-        <f>$L$9*$O$4*EXP(-$O$6*(G221/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G221/$L$10-1))</f>
-        <v>-2.4160940798445574</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G221/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G221/$L$10-1))</f>
+        <v>-2.0844227777865019</v>
       </c>
       <c r="N221" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70599869382254532</v>
+        <v>-0.37432739176448981</v>
       </c>
       <c r="O221" s="15">
         <v>1</v>
@@ -21733,12 +21755,12 @@
         <v>-1.782793462208651</v>
       </c>
       <c r="M222">
-        <f>$L$9*$O$4*EXP(-$O$6*(G222/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G222/$L$10-1))</f>
-        <v>-2.391919891605077</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G222/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G222/$L$10-1))</f>
+        <v>-2.0596476845817593</v>
       </c>
       <c r="N222" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70738847869826382</v>
+        <v>-0.3751162716749461</v>
       </c>
       <c r="O222" s="15">
         <v>1</v>
@@ -21769,12 +21791,12 @@
         <v>-1.765494713560908</v>
       </c>
       <c r="M223">
-        <f>$L$9*$O$4*EXP(-$O$6*(G223/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G223/$L$10-1))</f>
-        <v>-2.3679854452273594</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G223/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G223/$L$10-1))</f>
+        <v>-2.0351565905504301</v>
       </c>
       <c r="N223" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70867611991079937</v>
+        <v>-0.37584726523387002</v>
       </c>
       <c r="O223" s="15">
         <v>1</v>
@@ -21805,12 +21827,12 @@
         <v>-1.748363535579716</v>
       </c>
       <c r="M224">
-        <f>$L$9*$O$4*EXP(-$O$6*(G224/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G224/$L$10-1))</f>
-        <v>-2.3442884635266257</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G224/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G224/$L$10-1))</f>
+        <v>-2.010946616332967</v>
       </c>
       <c r="N224" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70986285640619462</v>
+        <v>-0.37652100921253595</v>
       </c>
       <c r="O224" s="15">
         <v>1</v>
@@ -21841,12 +21863,12 @@
         <v>-1.7313983218706965</v>
       </c>
       <c r="M225">
-        <f>$L$9*$O$4*EXP(-$O$6*(G225/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G225/$L$10-1))</f>
-        <v>-2.3208266861791564</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G225/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G225/$L$10-1))</f>
+        <v>-1.9870148977549973</v>
       </c>
       <c r="N225" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71094993879420443</v>
+        <v>-0.37713815037004528</v>
       </c>
       <c r="O225" s="15">
         <v>1</v>
@@ -21877,12 +21899,12 @@
         <v>-1.7145974804317561</v>
       </c>
       <c r="M226">
-        <f>$L$9*$O$4*EXP(-$O$6*(G226/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G226/$L$10-1))</f>
-        <v>-2.297597869833969</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G226/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G226/$L$10-1))</f>
+        <v>-1.9633585863370346</v>
       </c>
       <c r="N226" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71193862828715448</v>
+        <v>-0.37769934479022016</v>
       </c>
       <c r="O226" s="15">
         <v>1</v>
@@ -21913,12 +21935,12 @@
         <v>-1.6979594335850099</v>
       </c>
       <c r="M227">
-        <f>$L$9*$O$4*EXP(-$O$6*(G227/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G227/$L$10-1))</f>
-        <v>-2.2745997882101414</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G227/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G227/$L$10-1))</f>
+        <v>-1.9399748497735387</v>
       </c>
       <c r="N227" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71283019567292905</v>
+        <v>-0.37820525723632636</v>
       </c>
       <c r="O227" s="15">
         <v>1</v>
@@ -21949,12 +21971,12 @@
         <v>-1.6814826179050799</v>
       </c>
       <c r="M228">
-        <f>$L$9*$O$4*EXP(-$O$6*(G228/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G228/$L$10-1))</f>
-        <v>-2.2518302321805979</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G228/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G228/$L$10-1))</f>
+        <v>-1.9168608723825573</v>
       </c>
       <c r="N228" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71362592032144567</v>
+        <v>-0.37865656052340513</v>
       </c>
       <c r="O228" s="15">
         <v>1</v>
@@ -21985,12 +22007,12 @@
         <v>-1.6651654841441055</v>
       </c>
       <c r="M229">
-        <f>$L$9*$O$4*EXP(-$O$6*(G229/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G229/$L$10-1))</f>
-        <v>-2.229287009843115</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G229/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G229/$L$10-1))</f>
+        <v>-1.8940138555272192</v>
       </c>
       <c r="N229" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71432708922395194</v>
+        <v>-0.37905393490805617</v>
       </c>
       <c r="O229" s="15">
         <v>1</v>
@@ -22021,12 +22043,12 @@
         <v>-1.6490064971536598</v>
       </c>
       <c r="M230">
-        <f>$L$9*$O$4*EXP(-$O$6*(G230/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G230/$L$10-1))</f>
-        <v>-2.2069679465791512</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G230/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G230/$L$10-1))</f>
+        <v>-1.8714310180100935</v>
       </c>
       <c r="N230" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71493499606436983</v>
+        <v>-0.37939806749531213</v>
       </c>
       <c r="O230" s="15">
         <v>1</v>
@@ -22057,12 +22079,12 @@
         <v>-1.6330041358039018</v>
       </c>
       <c r="M231">
-        <f>$L$9*$O$4*EXP(-$O$6*(G231/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G231/$L$10-1))</f>
-        <v>-2.1848708851012439</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G231/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G231/$L$10-1))</f>
+        <v>-1.8491095964416391</v>
       </c>
       <c r="N231" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71545094032207279</v>
+        <v>-0.37968965166246793</v>
       </c>
       <c r="O231" s="15">
         <v>1</v>
@@ -22093,12 +22115,12 @@
         <v>-1.6171568929001543</v>
       </c>
       <c r="M232">
-        <f>$L$9*$O$4*EXP(-$O$6*(G232/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G232/$L$10-1))</f>
-        <v>-2.1629936854895511</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G232/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G232/$L$10-1))</f>
+        <v>-1.8270468455837301</v>
       </c>
       <c r="N232" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71587622640537507</v>
+        <v>-0.3799293864995541</v>
       </c>
       <c r="O232" s="15">
         <v>1</v>
@@ -22129,12 +22151,12 @@
         <v>-1.6014632750971503</v>
       </c>
       <c r="M233">
-        <f>$L$9*$O$4*EXP(-$O$6*(G233/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G233/$L$10-1))</f>
-        <v>-2.1413342252181438</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G233/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G233/$L$10-1))</f>
+        <v>-1.8052400386693075</v>
       </c>
       <c r="N233" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71621216281505773</v>
+        <v>-0.38011797626622146</v>
       </c>
       <c r="O233" s="15">
         <v>1</v>
@@ -22165,12 +22187,12 @@
         <v>-1.5859218028111657</v>
       </c>
       <c r="M234">
-        <f>$L$9*$O$4*EXP(-$O$6*(G234/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G234/$L$10-1))</f>
-        <v>-2.1198903991716307</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G234/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G234/$L$10-1))</f>
+        <v>-1.7836864676991411</v>
       </c>
       <c r="N234" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71646006133726736</v>
+        <v>-0.38025612986477775</v>
       </c>
       <c r="O234" s="15">
         <v>1</v>
@@ -22201,12 +22223,12 @@
         <v>-1.5705310101302163</v>
       </c>
       <c r="M235">
-        <f>$L$9*$O$4*EXP(-$O$6*(G235/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G235/$L$10-1))</f>
-        <v>-2.0986601196526276</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G235/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G235/$L$10-1))</f>
+        <v>-1.7623834437166486</v>
       </c>
       <c r="N235" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71662123626510188</v>
+        <v>-0.38034456032912289</v>
       </c>
       <c r="O235" s="15">
         <v>1</v>
@@ -22237,12 +22259,12 @@
         <v>-1.5552894447225145</v>
       </c>
       <c r="M236">
-        <f>$L$9*$O$4*EXP(-$O$6*(G236/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G236/$L$10-1))</f>
-        <v>-2.0776413163806069</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G236/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G236/$L$10-1))</f>
+        <v>-1.7413282970616659</v>
       </c>
       <c r="N236" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71669700364823652</v>
+        <v>-0.38038398432929554</v>
       </c>
       <c r="O236" s="15">
         <v>1</v>
@@ -22273,12 +22295,12 @@
         <v>-1.540195667743369</v>
       </c>
       <c r="M237">
-        <f>$L$9*$O$4*EXP(-$O$6*(G237/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G237/$L$10-1))</f>
-        <v>-2.0568319364826166</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G237/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G237/$L$10-1))</f>
+        <v>-1.7205183776040998</v>
       </c>
       <c r="N237" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71668868056993373</v>
+        <v>-0.38037512169141685</v>
       </c>
       <c r="O237" s="15">
         <v>1</v>
@@ -22309,12 +22331,12 @@
         <v>-1.5252482537406558</v>
       </c>
       <c r="M238">
-        <f>$L$9*$O$4*EXP(-$O$6*(G238/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G238/$L$10-1))</f>
-        <v>-2.0362299444763003</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G238/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G238/$L$10-1))</f>
+        <v>-1.6999510549582308</v>
       </c>
       <c r="N238" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71659758445076349</v>
+        <v>-0.38031869493269399</v>
       </c>
       <c r="O238" s="15">
         <v>1</v>
@@ -22345,12 +22367,12 @@
         <v>-1.51044579055906</v>
       </c>
       <c r="M239">
-        <f>$L$9*$O$4*EXP(-$O$6*(G239/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G239/$L$10-1))</f>
-        <v>-2.015833322245713</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G239/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G239/$L$10-1))</f>
+        <v>-1.6796237186785603</v>
       </c>
       <c r="N239" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71642503237844091</v>
+        <v>-0.38021542881128823</v>
       </c>
       <c r="O239" s="15">
         <v>1</v>
@@ -22381,12 +22403,12 @@
         <v>-1.495786879243185</v>
       </c>
       <c r="M240">
-        <f>$L$9*$O$4*EXP(-$O$6*(G240/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G240/$L$10-1))</f>
-        <v>-1.9956400690103042</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G240/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G240/$L$10-1))</f>
+        <v>-1.6595337784379345</v>
       </c>
       <c r="N240" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71617234046309641</v>
+        <v>-0.38006604989072668</v>
       </c>
       <c r="O240" s="15">
         <v>1</v>
@@ -22417,12 +22439,12 @@
         <v>-1.4812701339396905</v>
       </c>
       <c r="M241">
-        <f>$L$9*$O$4*EXP(-$O$6*(G241/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G241/$L$10-1))</f>
-        <v>-1.9756482012874954</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G241/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G241/$L$10-1))</f>
+        <v>-1.6396786641887153</v>
       </c>
       <c r="N241" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71584082321739029</v>
+        <v>-0.37987128611861021</v>
       </c>
       <c r="O241" s="15">
         <v>1</v>
@@ -22453,12 +22475,12 @@
         <v>-1.4668941817985748</v>
       </c>
       <c r="M242">
-        <f>$L$9*$O$4*EXP(-$O$6*(G242/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G242/$L$10-1))</f>
-        <v>-1.95585575284923</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G242/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G242/$L$10-1))</f>
+        <v>-1.6200558263077423</v>
       </c>
       <c r="N242" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71543179296084003</v>
+        <v>-0.37963186641935232</v>
       </c>
       <c r="O242" s="15">
         <v>1</v>
@@ -22489,12 +22511,12 @@
         <v>-1.4526576628737047</v>
       </c>
       <c r="M243">
-        <f>$L$9*$O$4*EXP(-$O$6*(G243/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G243/$L$10-1))</f>
-        <v>-1.9362607746728322</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G243/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G243/$L$10-1))</f>
+        <v>-1.6006627357257441</v>
       </c>
       <c r="N243" s="15">
         <f t="shared" si="22"/>
-        <v>-0.7149465592477442</v>
+        <v>-0.37934852030065613</v>
       </c>
       <c r="O243" s="15">
         <v>1</v>
@@ -22525,12 +22547,12 @@
         <v>-1.4385592300227346</v>
       </c>
       <c r="M244">
-        <f>$L$9*$O$4*EXP(-$O$6*(G244/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G244/$L$10-1))</f>
-        <v>-1.9168613348865653</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G244/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G244/$L$10-1))</f>
+        <v>-1.5814968840419286</v>
       </c>
       <c r="N244" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71438642831813137</v>
+        <v>-0.37902197747349464</v>
       </c>
       <c r="O244" s="15">
         <v>1</v>
@@ -22561,12 +22583,12 @@
         <v>-1.4245975488064833</v>
       </c>
       <c r="M245">
-        <f>$L$9*$O$4*EXP(-$O$6*(G245/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G245/$L$10-1))</f>
-        <v>-1.8976555187101773</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G245/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G245/$L$10-1))</f>
+        <v>-1.5625557836243549</v>
       </c>
       <c r="N245" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71375270257112056</v>
+        <v>-0.37865296748529809</v>
       </c>
       <c r="O245" s="15">
         <v>1</v>
@@ -22597,12 +22619,12 @@
         <v>-1.4107712973878637</v>
       </c>
       <c r="M246">
-        <f>$L$9*$O$4*EXP(-$O$6*(G246/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G246/$L$10-1))</f>
-        <v>-1.8786414283907364</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G246/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G246/$L$10-1))</f>
+        <v>-1.5438369676967176</v>
       </c>
       <c r="N246" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71304668006009408</v>
+        <v>-0.37824221936607527</v>
       </c>
       <c r="O246" s="15">
         <v>1</v>
@@ -22633,12 +22655,12 @@
         <v>-1.3970791664304942</v>
       </c>
       <c r="M247">
-        <f>$L$9*$O$4*EXP(-$O$6*(G247/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G247/$L$10-1))</f>
-        <v>-1.8598171831341115</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G247/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G247/$L$10-1))</f>
+        <v>-1.5253379904121755</v>
       </c>
       <c r="N247" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71226965400917819</v>
+        <v>-0.37779046128724225</v>
       </c>
       <c r="O247" s="15">
         <v>1</v>
@@ -22669,12 +22691,12 @@
         <v>-1.3835198589970246</v>
       </c>
       <c r="M248">
-        <f>$L$9*$O$4*EXP(-$O$6*(G248/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G248/$L$10-1))</f>
-        <v>-1.8411809190323085</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G248/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G248/$L$10-1))</f>
+        <v>-1.5070564269147702</v>
       </c>
       <c r="N248" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71142291235039012</v>
+        <v>-0.37729842023285176</v>
       </c>
       <c r="O248" s="15">
         <v>1</v>
@@ -22705,12 +22727,12 @@
         <v>-1.3700920904472778</v>
       </c>
       <c r="M249">
-        <f>$L$9*$O$4*EXP(-$O$6*(G249/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G249/$L$10-1))</f>
-        <v>-1.8227307889869673</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G249/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G249/$L$10-1))</f>
+        <v>-1.488989873388991</v>
       </c>
       <c r="N249" s="15">
         <f t="shared" si="22"/>
-        <v>-0.71050773728094474</v>
+        <v>-0.37676682168296849</v>
       </c>
       <c r="O249" s="15">
         <v>1</v>
@@ -22741,12 +22763,12 @@
         <v>-1.3567945883362764</v>
       </c>
       <c r="M250">
-        <f>$L$9*$O$4*EXP(-$O$6*(G250/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G250/$L$10-1))</f>
-        <v>-1.8044649626292601</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G250/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G250/$L$10-1))</f>
+        <v>-1.4711359470980365</v>
       </c>
       <c r="N250" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70952540484015891</v>
+        <v>-0.37619638930893529</v>
       </c>
       <c r="O250" s="15">
         <v>1</v>
@@ -22777,12 +22799,12 @@
         <v>-1.3436260923122358</v>
       </c>
       <c r="M251">
-        <f>$L$9*$O$4*EXP(-$O$6*(G251/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G251/$L$10-1))</f>
-        <v>-1.7863816262364587</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G251/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G251/$L$10-1))</f>
+        <v>-1.4534922864113018</v>
       </c>
       <c r="N251" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70847718450544894</v>
+        <v>-0.37558784468029205</v>
       </c>
       <c r="O251" s="15">
         <v>1</v>
@@ -22813,12 +22835,12 @@
         <v>-1.3305853540145476</v>
       </c>
       <c r="M252">
-        <f>$L$9*$O$4*EXP(-$O$6*(G252/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G252/$L$10-1))</f>
-        <v>-1.7684789826453466</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G252/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G252/$L$10-1))</f>
+        <v>-1.4360565508215288</v>
       </c>
       <c r="N252" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70736433880684113</v>
+        <v>-0.37494190698302332</v>
       </c>
       <c r="O252" s="15">
         <v>1</v>
@@ -22849,12 +22871,12 @@
         <v>-1.3176711369718481</v>
       </c>
       <c r="M253">
-        <f>$L$9*$O$4*EXP(-$O$6*(G253/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G253/$L$10-1))</f>
-        <v>-1.7507552511627418</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G253/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G253/$L$10-1))</f>
+        <v>-1.4188264209521608</v>
       </c>
       <c r="N253" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70618812295952993</v>
+        <v>-0.37425929274894898</v>
       </c>
       <c r="O253" s="15">
         <v>1</v>
@@ -22885,12 +22907,12 @@
         <v>-1.3048822165002221</v>
       </c>
       <c r="M254">
-        <f>$L$9*$O$4*EXP(-$O$6*(G254/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G254/$L$10-1))</f>
-        <v>-1.7332086674733238</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G254/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G254/$L$10-1))</f>
+        <v>-1.4017995985553289</v>
       </c>
       <c r="N254" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70494978451396761</v>
+        <v>-0.37354071559597268</v>
       </c>
       <c r="O254" s="15">
         <v>1</v>
@@ -22921,12 +22943,12 @@
         <v>-1.292217379601559</v>
       </c>
       <c r="M255">
-        <f>$L$9*$O$4*EXP(-$O$6*(G255/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G255/$L$10-1))</f>
-        <v>-1.7158374835449393</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G255/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G255/$L$10-1))</f>
+        <v>-1.3849738065008981</v>
       </c>
       <c r="N255" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70365056302296169</v>
+        <v>-0.37278688597892051</v>
       </c>
       <c r="O255" s="15">
         <v>1</v>
@@ -22957,12 +22979,12 @@
         <v>-1.2796754248621585</v>
       </c>
       <c r="M256">
-        <f>$L$9*$O$4*EXP(-$O$6*(G256/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G256/$L$10-1))</f>
-        <v>-1.6986399675316062</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G256/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G256/$L$10-1))</f>
+        <v>-1.3683467887570333</v>
       </c>
       <c r="N256" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70229168972533529</v>
+        <v>-0.37199851095076242</v>
       </c>
       <c r="O256" s="15">
         <v>1</v>
@@ -22993,12 +23015,12 @@
         <v>-1.267255162351586</v>
       </c>
       <c r="M257">
-        <f>$L$9*$O$4*EXP(-$O$6*(G257/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G257/$L$10-1))</f>
-        <v>-1.681614403674369</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G257/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G257/$L$10-1))</f>
+        <v>-1.3519163103626555</v>
       </c>
       <c r="N257" s="15">
         <f t="shared" si="22"/>
-        <v>-0.70087438724564199</v>
+        <v>-0.37117629393392848</v>
       </c>
       <c r="O257" s="15">
         <v>1</v>
@@ -23029,12 +23051,12 @@
         <v>-1.2549554135218401</v>
       </c>
       <c r="M258">
-        <f>$L$9*$O$4*EXP(-$O$6*(G258/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G258/$L$10-1))</f>
-        <v>-1.6647590922001756</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G258/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G258/$L$10-1))</f>
+        <v>-1.3356801573922044</v>
       </c>
       <c r="N258" s="15">
         <f t="shared" si="22"/>
-        <v>-0.69939986930947928</v>
+        <v>-0.37032093450150805</v>
       </c>
       <c r="O258" s="15">
         <v>1</v>
@@ -23065,12 +23087,12 @@
         <v>-1.2427750111068669</v>
       </c>
       <c r="M259">
-        <f>$L$9*$O$4*EXP(-$O$6*(G259/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G259/$L$10-1))</f>
-        <v>-1.648072349218954</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G259/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G259/$L$10-1))</f>
+        <v>-1.319636136913076</v>
       </c>
       <c r="N259" s="15">
         <f t="shared" si="22"/>
-        <v>-0.69786934047394877</v>
+        <v>-0.36943312816807083</v>
       </c>
       <c r="O259" s="15">
         <v>1</v>
@@ -23101,12 +23123,12 @@
         <v>-1.2307127990224511</v>
       </c>
       <c r="M260">
-        <f>$L$9*$O$4*EXP(-$O$6*(G260/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G260/$L$10-1))</f>
-        <v>-1.6315525066190109</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G260/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G260/$L$10-1))</f>
+        <v>-1.3037820769360935</v>
       </c>
       <c r="N260" s="15">
         <f t="shared" si="22"/>
-        <v>-0.69628399587280321</v>
+        <v>-0.36851356618988584</v>
       </c>
       <c r="O260" s="15">
         <v>1</v>
@@ -23137,12 +23159,12 @@
         <v>-1.2187676322665126</v>
       </c>
       <c r="M261">
-        <f>$L$9*$O$4*EXP(-$O$6*(G261/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G261/$L$10-1))</f>
-        <v>-1.6151979119609146</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G261/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G261/$L$10-1))</f>
+        <v>-1.2881158263593619</v>
       </c>
       <c r="N261" s="15">
         <f t="shared" si="22"/>
-        <v>-0.69464502097584302</v>
+        <v>-0.36756293537429041</v>
       </c>
       <c r="O261" s="15">
         <v>1</v>
@@ -23173,12 +23195,12 @@
         <v>-1.2069383768198578</v>
       </c>
       <c r="M262">
-        <f>$L$9*$O$4*EXP(-$O$6*(G262/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G262/$L$10-1))</f>
-        <v>-1.5990069283700055</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G262/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G262/$L$10-1))</f>
+        <v>-1.2726352549058553</v>
       </c>
       <c r="N262" s="15">
         <f t="shared" si="22"/>
-        <v>-0.69295359136215251</v>
+        <v>-0.36658191789800232</v>
       </c>
       <c r="O262" s="15">
         <v>1</v>
@@ -23209,12 +23231,12 @@
         <v>-1.1952239095473787</v>
       </c>
       <c r="M263">
-        <f>$L$9*$O$4*EXP(-$O$6*(G263/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G263/$L$10-1))</f>
-        <v>-1.5829779344276265</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G263/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G263/$L$10-1))</f>
+        <v>-1.2573382530550223</v>
       </c>
       <c r="N263" s="15">
         <f t="shared" si="22"/>
-        <v>-0.69121087250671087</v>
+        <v>-0.36557119113410674</v>
       </c>
       <c r="O263" s="15">
         <v>1</v>
@@ -23245,12 +23267,12 @@
         <v>-1.1836231180997625</v>
       </c>
       <c r="M264">
-        <f>$L$9*$O$4*EXP(-$O$6*(G264/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G264/$L$10-1))</f>
-        <v>-1.5671093240612468</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G264/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G264/$L$10-1))</f>
+        <v>-1.2422227319687658</v>
       </c>
       <c r="N264" s="15">
         <f t="shared" si="22"/>
-        <v>-0.6894180195800238</v>
+        <v>-0.36453142748754275</v>
       </c>
       <c r="O264" s="15">
         <v>1</v>
@@ -23281,12 +23303,12 @@
         <v>-1.1721349008157054</v>
       </c>
       <c r="M265">
-        <f>$L$9*$O$4*EXP(-$O$6*(G265/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G265/$L$10-1))</f>
-        <v>-1.5513995064335493</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G265/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G265/$L$10-1))</f>
+        <v>-1.2272866234120499</v>
       </c>
       <c r="N265" s="15">
         <f t="shared" si="22"/>
-        <v>-0.6875761772603205</v>
+        <v>-0.36346329423882107</v>
       </c>
       <c r="O265" s="15">
         <v>1</v>
@@ -23317,12 +23339,12 @@
         <v>-1.1607581666246705</v>
       </c>
       <c r="M266">
-        <f>$L$9*$O$4*EXP(-$O$6*(G266/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G266/$L$10-1))</f>
-        <v>-1.5358469058306261</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G266/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G266/$L$10-1))</f>
+        <v>-1.2125278796684598</v>
       </c>
       <c r="N266" s="15">
         <f t="shared" si="22"/>
-        <v>-0.68568647955796447</v>
+        <v>-0.36236745339579812</v>
       </c>
       <c r="O266" s="15">
         <v>1</v>
@@ -23353,12 +23375,12 @@
         <v>-1.1494918349501901</v>
       </c>
       <c r="M267">
-        <f>$L$9*$O$4*EXP(-$O$6*(G267/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G267/$L$10-1))</f>
-        <v>-1.5204499615493461</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G267/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G267/$L$10-1))</f>
+        <v>-1.1979444734509361</v>
       </c>
       <c r="N267" s="15">
         <f t="shared" si="22"/>
-        <v>-0.68375004965164798</v>
+        <v>-0.36124456155323803</v>
       </c>
       <c r="O267" s="15">
         <v>1</v>
@@ -23389,12 +23411,12 @@
         <v>-1.1383348356137621</v>
       </c>
       <c r="M268">
-        <f>$L$9*$O$4*EXP(-$O$6*(G268/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G268/$L$10-1))</f>
-        <v>-1.5052071277840526</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G268/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G268/$L$10-1))</f>
+        <v>-1.1835343978080195</v>
       </c>
       <c r="N268" s="15">
         <f t="shared" si="22"/>
-        <v>-0.68176799973605795</v>
+        <v>-0.36009526976002482</v>
       </c>
       <c r="O268" s="15">
         <v>1</v>
@@ -23425,12 +23447,12 @@
         <v>-1.1272861087393162</v>
       </c>
       <c r="M269">
-        <f>$L$9*$O$4*EXP(-$O$6*(G269/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G269/$L$10-1))</f>
-        <v>-1.4901168735126176</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G269/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G269/$L$10-1))</f>
+        <v>-1.1692956660257847</v>
       </c>
       <c r="N269" s="15">
         <f t="shared" si="22"/>
-        <v>-0.6797414308805737</v>
+        <v>-0.35892022339374086</v>
       </c>
       <c r="O269" s="15">
         <v>1</v>
@@ -23461,12 +23483,12 @@
         <v>-1.1163446046582914</v>
       </c>
       <c r="M270">
-        <f>$L$9*$O$4*EXP(-$O$6*(G270/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G270/$L$10-1))</f>
-        <v>-1.4751776823819835</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G270/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G270/$L$10-1))</f>
+        <v>-1.1552263115257464</v>
       </c>
       <c r="N270" s="15">
         <f t="shared" si="22"/>
-        <v>-0.67767143289868603</v>
+        <v>-0.35772006204244888</v>
       </c>
       <c r="O270" s="15">
         <v>1</v>
@@ -23497,12 +23519,12 @@
         <v>-1.1055092838153435</v>
       </c>
       <c r="M271">
-        <f>$L$9*$O$4*EXP(-$O$6*(G271/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G271/$L$10-1))</f>
-        <v>-1.4603880525932733</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G271/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G271/$L$10-1))</f>
+        <v>-1.1413243877589814</v>
       </c>
       <c r="N271" s="15">
         <f t="shared" si="22"/>
-        <v>-0.67555908422778232</v>
+        <v>-0.35649541939349039</v>
       </c>
       <c r="O271" s="15">
         <v>1</v>
@@ -23533,12 +23555,12 @@
         <v>-1.0947791166746645</v>
       </c>
       <c r="M272">
-        <f>$L$9*$O$4*EXP(-$O$6*(G272/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G272/$L$10-1))</f>
-        <v>-1.4457464967865306</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G272/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G272/$L$10-1))</f>
+        <v>-1.1275879680966481</v>
       </c>
       <c r="N272" s="15">
         <f t="shared" si="22"/>
-        <v>-0.67340545181893252</v>
+        <v>-0.35524692312905004</v>
       </c>
       <c r="O272" s="15">
         <v>1</v>
@@ -23569,12 +23591,12 @@
         <v>-1.0841530836269511</v>
       </c>
       <c r="M273">
-        <f>$L$9*$O$4*EXP(-$O$6*(G273/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G273/$L$10-1))</f>
-        <v>-1.4312515419251637</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G273/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G273/$L$10-1))</f>
+        <v>-1.1140151457171485</v>
       </c>
       <c r="N273" s="15">
         <f t="shared" si="22"/>
-        <v>-0.67121159103635553</v>
+        <v>-0.35397519482834039</v>
       </c>
       <c r="O273" s="15">
         <v>1</v>
@@ -23605,12 +23627,12 @@
         <v>-1.0736301748970347</v>
       </c>
       <c r="M274">
-        <f>$L$9*$O$4*EXP(-$O$6*(G274/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G274/$L$10-1))</f>
-        <v>-1.4169017291802064</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G274/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G274/$L$10-1))</f>
+        <v>-1.1006040334901539</v>
       </c>
       <c r="N274" s="15">
         <f t="shared" si="22"/>
-        <v>-0.66897854556626113</v>
+        <v>-0.35268084987620862</v>
       </c>
       <c r="O274" s="15">
         <v>1</v>
@@ -23641,12 +23663,12 @@
         <v>-1.0632093904521487</v>
       </c>
       <c r="M275">
-        <f>$L$9*$O$4*EXP(-$O$6*(G275/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G275/$L$10-1))</f>
-        <v>-1.4026956138143836</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G275/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G275/$L$10-1))</f>
+        <v>-1.087352763857633</v>
       </c>
       <c r="N275" s="15">
         <f t="shared" si="22"/>
-        <v>-0.66670734733469383</v>
+        <v>-0.35136449737794329</v>
       </c>
       <c r="O275" s="15">
         <v>1</v>
@@ -23677,12 +23699,12 @@
         <v>-1.0528897399108825</v>
       </c>
       <c r="M276">
-        <f>$L$9*$O$4*EXP(-$O$6*(G276/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G276/$L$10-1))</f>
-        <v>-1.3886317650661355</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G276/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G276/$L$10-1))</f>
+        <v>-1.0742594887121426</v>
       </c>
       <c r="N276" s="15">
         <f t="shared" ref="N276:N339" si="28">(M276-H276)*O276</f>
-        <v>-0.66439901643413601</v>
+        <v>-0.35002674008014312</v>
       </c>
       <c r="O276" s="15">
         <v>1</v>
@@ -23713,12 +23735,12 @@
         <v>-1.042670242452804</v>
       </c>
       <c r="M277">
-        <f>$L$9*$O$4*EXP(-$O$6*(G277/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G277/$L$10-1))</f>
-        <v>-1.3747087660335835</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G277/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G277/$L$10-1))</f>
+        <v>-1.0613223792725168</v>
       </c>
       <c r="N277" s="15">
         <f t="shared" si="28"/>
-        <v>-0.66205456105851468</v>
+        <v>-0.34866817429744801</v>
       </c>
       <c r="O277" s="15">
         <v>1</v>
@@ -23749,12 +23771,12 @@
         <v>-1.0325499267287506</v>
       </c>
       <c r="M278">
-        <f>$L$9*$O$4*EXP(-$O$6*(G278/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G278/$L$10-1))</f>
-        <v>-1.3609252135585335</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G278/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G278/$L$10-1))</f>
+        <v>-1.0485396259571325</v>
       </c>
       <c r="N278" s="15">
         <f t="shared" si="28"/>
-        <v>-0.65967497744633719</v>
+        <v>-0.34728938984493618</v>
       </c>
       <c r="O278" s="15">
         <v>1</v>
@@ -23785,12 +23807,12 @@
         <v>-1.0225278307718484</v>
       </c>
       <c r="M279">
-        <f>$L$9*$O$4*EXP(-$O$6*(G279/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G279/$L$10-1))</f>
-        <v>-1.3472797181106047</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G279/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G279/$L$10-1))</f>
+        <v>-1.0359094382549776</v>
       </c>
       <c r="N279" s="15">
         <f t="shared" si="28"/>
-        <v>-0.65726124983168721</v>
+        <v>-0.34589096997606017</v>
       </c>
       <c r="O279" s="15">
         <v>1</v>
@@ -23821,12 +23843,12 @@
         <v>-1.0126030019091328</v>
       </c>
       <c r="M280">
-        <f>$L$9*$O$4*EXP(-$O$6*(G280/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G280/$L$10-1))</f>
-        <v>-1.3337709036713761</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G280/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G280/$L$10-1))</f>
+        <v>-1.0234300445945297</v>
       </c>
       <c r="N280" s="15">
         <f t="shared" si="28"/>
-        <v>-0.65481435040274394</v>
+        <v>-0.34447349132589755</v>
       </c>
       <c r="O280" s="15">
         <v>1</v>
@@ -23857,12 +23879,12 @@
         <v>-1.0027744966739711</v>
       </c>
       <c r="M281">
-        <f>$L$9*$O$4*EXP(-$O$6*(G281/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G281/$L$10-1))</f>
-        <v>-1.3203974076188598</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G281/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G281/$L$10-1))</f>
+        <v>-1.0110996922108311</v>
       </c>
       <c r="N281" s="15">
         <f t="shared" si="28"/>
-        <v>-0.6523352392676256</v>
+        <v>-0.34303752385959685</v>
       </c>
       <c r="O281" s="15">
         <v>1</v>
@@ -23893,12 +23915,12 @@
         <v>-0.99304138071910342</v>
       </c>
       <c r="M282">
-        <f>$L$9*$O$4*EXP(-$O$6*(G282/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G282/$L$10-1))</f>
-        <v>-1.3071578806120916</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G282/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G282/$L$10-1))</f>
+        <v>-0.99891664701068894</v>
       </c>
       <c r="N282" s="15">
         <f t="shared" si="28"/>
-        <v>-0.64982486442723175</v>
+        <v>-0.3415836308258291</v>
       </c>
       <c r="O282" s="15">
         <v>1</v>
@@ -23929,12 +23951,12 @@
         <v>-0.98340272873042744</v>
       </c>
       <c r="M283">
-        <f>$L$9*$O$4*EXP(-$O$6*(G283/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G283/$L$10-1))</f>
-        <v>-1.2940509864760472</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G283/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G283/$L$10-1))</f>
+        <v>-0.98687919343628205</v>
       </c>
       <c r="N283" s="15">
         <f t="shared" si="28"/>
-        <v>-0.64728416175484971</v>
+        <v>-0.34011236871508455</v>
       </c>
       <c r="O283" s="15">
         <v>1</v>
@@ -23965,12 +23987,12 @@
         <v>-0.97385762434143386</v>
       </c>
       <c r="M284">
-        <f>$L$9*$O$4*EXP(-$O$6*(G284/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G284/$L$10-1))</f>
-        <v>-1.2810754020867963</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G284/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G284/$L$10-1))</f>
+        <v>-0.97498563432720342</v>
       </c>
       <c r="N284" s="15">
         <f t="shared" si="28"/>
-        <v>-0.64471405498227607</v>
+        <v>-0.33862428722268323</v>
       </c>
       <c r="O284" s="15">
         <v>1</v>
@@ -24001,12 +24023,12 @@
         <v>-0.96440516004840227</v>
       </c>
       <c r="M285">
-        <f>$L$9*$O$4*EXP(-$O$6*(G285/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G285/$L$10-1))</f>
-        <v>-1.2682298172570781</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G285/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G285/$L$10-1))</f>
+        <v>-0.96323429078119316</v>
       </c>
       <c r="N285" s="15">
         <f t="shared" si="28"/>
-        <v>-0.64211545569218642</v>
+        <v>-0.33711992921630152</v>
       </c>
       <c r="O285" s="15">
         <v>1</v>
@@ -24037,12 +24059,12 @@
         <v>-0.95504443712626352</v>
       </c>
       <c r="M286">
-        <f>$L$9*$O$4*EXP(-$O$6*(G286/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G286/$L$10-1))</f>
-        <v>-1.2555129346221983</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G286/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G286/$L$10-1))</f>
+        <v>-0.95162350201357404</v>
       </c>
       <c r="N286" s="15">
         <f t="shared" si="28"/>
-        <v>-0.63948926331654554</v>
+        <v>-0.33559983070792132</v>
       </c>
       <c r="O286" s="15">
         <v>1</v>
@@ -24073,12 +24095,12 @@
         <v>-0.94577456554518813</v>
       </c>
       <c r="M287">
-        <f>$L$9*$O$4*EXP(-$O$6*(G287/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G287/$L$10-1))</f>
-        <v>-1.242923469526378</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G287/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G287/$L$10-1))</f>
+        <v>-0.9401516252155826</v>
       </c>
       <c r="N287" s="15">
         <f t="shared" si="28"/>
-        <v>-0.63683636514080111</v>
+        <v>-0.33406452083000571</v>
       </c>
       <c r="O287" s="15">
         <v>1</v>
@@ -24109,12 +24131,12 @@
         <v>-0.93659466388782775</v>
       </c>
       <c r="M288">
-        <f>$L$9*$O$4*EXP(-$O$6*(G288/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G288/$L$10-1))</f>
-        <v>-1.2304601499094547</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G288/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G288/$L$10-1))</f>
+        <v>-0.92881703541160976</v>
       </c>
       <c r="N288" s="15">
         <f t="shared" si="28"/>
-        <v>-0.63415763631362143</v>
+        <v>-0.33251452181577645</v>
       </c>
       <c r="O288" s="15">
         <v>1</v>
@@ -24145,12 +24167,12 @@
         <v>-0.92750385926734102</v>
       </c>
       <c r="M289">
-        <f>$L$9*$O$4*EXP(-$O$6*(G289/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G289/$L$10-1))</f>
-        <v>-1.21812171619418</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G289/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G289/$L$10-1))</f>
+        <v>-0.9176181253156378</v>
       </c>
       <c r="N289" s="15">
         <f t="shared" si="28"/>
-        <v>-0.63145393986201592</v>
+        <v>-0.33095034898347375</v>
       </c>
       <c r="O289" s="15">
         <v>1</v>
@@ -24181,12 +24203,12 @@
         <v>-0.91850128724604641</v>
       </c>
       <c r="M290">
-        <f>$L$9*$O$4*EXP(-$O$6*(G290/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G290/$L$10-1))</f>
-        <v>-1.2059069211738989</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G290/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G290/$L$10-1))</f>
+        <v>-0.90655330518677568</v>
       </c>
       <c r="N290" s="15">
         <f t="shared" si="28"/>
-        <v>-0.62872612671154138</v>
+        <v>-0.3293725107244182</v>
       </c>
       <c r="O290" s="15">
         <v>1</v>
@@ -24217,12 +24239,12 @@
         <v>-0.90958609175483185</v>
       </c>
       <c r="M291">
-        <f>$L$9*$O$4*EXP(-$O$6*(G291/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G291/$L$10-1))</f>
-        <v>-1.1938145299008285</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G291/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G291/$L$10-1))</f>
+        <v>-0.89562100268414757</v>
       </c>
       <c r="N291" s="15">
         <f t="shared" si="28"/>
-        <v>-0.62597503571145663</v>
+        <v>-0.32778150849477572</v>
       </c>
       <c r="O291" s="15">
         <v>1</v>
@@ -24253,12 +24275,12 @@
         <v>-0.900757425013201</v>
       </c>
       <c r="M292">
-        <f>$L$9*$O$4*EXP(-$O$6*(G292/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G292/$L$10-1))</f>
-        <v>-1.1818433195747937</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G292/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G292/$L$10-1))</f>
+        <v>-0.88481966272110013</v>
       </c>
       <c r="N292" s="15">
         <f t="shared" si="28"/>
-        <v>-0.62320149366457622</v>
+        <v>-0.32617783681088264</v>
       </c>
       <c r="O292" s="15">
         <v>1</v>
@@ -24289,12 +24311,12 @@
         <v>-0.89201444745009129</v>
       </c>
       <c r="M293">
-        <f>$L$9*$O$4*EXP(-$O$6*(G293/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G293/$L$10-1))</f>
-        <v>-1.1699920794326255</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G293/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G293/$L$10-1))</f>
+        <v>-0.87414774731897449</v>
       </c>
       <c r="N293" s="15">
         <f t="shared" si="28"/>
-        <v>-0.62040631536165403</v>
+        <v>-0.32456198324800301</v>
       </c>
       <c r="O293" s="15">
         <v>1</v>
@@ -24325,12 +24347,12 @@
         <v>-0.88335632762532601</v>
       </c>
       <c r="M294">
-        <f>$L$9*$O$4*EXP(-$O$6*(G294/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G294/$L$10-1))</f>
-        <v>-1.1582596106380665</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G294/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G294/$L$10-1))</f>
+        <v>-0.8636037354603664</v>
       </c>
       <c r="N294" s="15">
         <f t="shared" si="28"/>
-        <v>-0.61759030362008682</v>
+        <v>-0.32293442844238673</v>
       </c>
       <c r="O294" s="15">
         <v>1</v>
@@ -24361,12 +24383,12 @@
         <v>-0.87478224215180755</v>
       </c>
       <c r="M295">
-        <f>$L$9*$O$4*EXP(-$O$6*(G295/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G295/$L$10-1))</f>
-        <v>-1.1466447261723398</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G295/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G295/$L$10-1))</f>
+        <v>-0.85318612294209795</v>
       </c>
       <c r="N295" s="15">
         <f t="shared" si="28"/>
-        <v>-0.61475424932676825</v>
+        <v>-0.32129564609652639</v>
       </c>
       <c r="O295" s="15">
         <v>1</v>
@@ -24397,12 +24419,12 @@
         <v>-0.86629137561833736</v>
       </c>
       <c r="M296">
-        <f>$L$9*$O$4*EXP(-$O$6*(G296/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G296/$L$10-1))</f>
-        <v>-1.1351462507252523</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G296/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G296/$L$10-1))</f>
+        <v>-0.84289342222783281</v>
       </c>
       <c r="N296" s="15">
         <f t="shared" si="28"/>
-        <v>-0.61189893148488339</v>
+        <v>-0.31964610298746388</v>
       </c>
       <c r="O296" s="15">
         <v>1</v>
@@ -24433,12 +24455,12 @@
         <v>-0.85788292051320225</v>
       </c>
       <c r="M297">
-        <f>$L$9*$O$4*EXP(-$O$6*(G297/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G297/$L$10-1))</f>
-        <v>-1.1237630205870479</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G297/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G297/$L$10-1))</f>
+        <v>-0.83272416230059465</v>
       </c>
       <c r="N297" s="15">
         <f t="shared" si="28"/>
-        <v>-0.60902511726451403</v>
+        <v>-0.31798625897806077</v>
       </c>
       <c r="O297" s="15">
         <v>1</v>
@@ -24469,12 +24491,12 @@
         <v>-0.84955607714838199</v>
       </c>
       <c r="M298">
-        <f>$L$9*$O$4*EXP(-$O$6*(G298/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G298/$L$10-1))</f>
-        <v>-1.112493883540818</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G298/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G298/$L$10-1))</f>
+        <v>-0.8226768885150807</v>
       </c>
       <c r="N298" s="15">
         <f t="shared" si="28"/>
-        <v>-0.60613356205683622</v>
+        <v>-0.31631656703109889</v>
       </c>
       <c r="O298" s="15">
         <v>1</v>
@@ -24505,12 +24527,12 @@
         <v>-0.84131005358448652</v>
       </c>
       <c r="M299">
-        <f>$L$9*$O$4*EXP(-$O$6*(G299/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G299/$L$10-1))</f>
-        <v>-1.1013376987556509</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G299/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G299/$L$10-1))</f>
+        <v>-0.81275016244998088</v>
       </c>
       <c r="N299" s="15">
         <f t="shared" si="28"/>
-        <v>-0.60322500953178038</v>
+        <v>-0.3146374732261103</v>
       </c>
       <c r="O299" s="15">
         <v>1</v>
@@ -24541,12 +24563,12 @@
         <v>-0.83314406555630638</v>
       </c>
       <c r="M300">
-        <f>$L$9*$O$4*EXP(-$O$6*(G300/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G300/$L$10-1))</f>
-        <v>-1.0902933366803671</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G300/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G300/$L$10-1))</f>
+        <v>-0.80294256176022438</v>
       </c>
       <c r="N300" s="15">
         <f t="shared" si="28"/>
-        <v>-0.60030019169896032</v>
+        <v>-0.31294941677881766</v>
       </c>
       <c r="O300" s="15">
         <v>1</v>
@@ -24577,12 +24599,12 @@
         <v>-0.82505733639911394</v>
       </c>
       <c r="M301">
-        <f>$L$9*$O$4*EXP(-$O$6*(G301/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G301/$L$10-1))</f>
-        <v>-1.0793596789380513</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G301/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G301/$L$10-1))</f>
+        <v>-0.79325268002939531</v>
       </c>
       <c r="N301" s="15">
         <f t="shared" si="28"/>
-        <v>-0.59735982897175421</v>
+        <v>-0.31125283006309823</v>
       </c>
       <c r="O301" s="15">
         <v>1</v>
@@ -24613,12 +24635,12 @@
         <v>-0.81704909697559336</v>
       </c>
       <c r="M302">
-        <f>$L$9*$O$4*EXP(-$O$6*(G302/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G302/$L$10-1))</f>
-        <v>-1.068535618221226</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G302/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G302/$L$10-1))</f>
+        <v>-0.78367912662222405</v>
       </c>
       <c r="N302" s="15">
         <f t="shared" si="28"/>
-        <v>-0.59440463023435164</v>
+        <v>-0.30954813863534969</v>
       </c>
       <c r="O302" s="15">
         <v>1</v>
@@ -24649,12 +24671,12 @@
         <v>-0.80911858560342842</v>
       </c>
       <c r="M303">
-        <f>$L$9*$O$4*EXP(-$O$6*(G303/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G303/$L$10-1))</f>
-        <v>-1.057820058187724</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G303/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G303/$L$10-1))</f>
+        <v>-0.77422052653726081</v>
       </c>
       <c r="N303" s="15">
         <f t="shared" si="28"/>
-        <v>-0.59143529291163599</v>
+        <v>-0.3078357612611729</v>
       </c>
       <c r="O303" s="15">
         <v>1</v>
@@ -24685,12 +24707,12 @@
         <v>-0.80126504798358389</v>
       </c>
       <c r="M304">
-        <f>$L$9*$O$4*EXP(-$O$6*(G304/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G304/$L$10-1))</f>
-        <v>-1.0472119133573219</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G304/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G304/$L$10-1))</f>
+        <v>-0.76487552025982675</v>
       </c>
       <c r="N304" s="15">
         <f t="shared" si="28"/>
-        <v>-0.58845250304175611</v>
+        <v>-0.30611610994426097</v>
       </c>
       <c r="O304" s="15">
         <v>1</v>
@@ -24721,12 +24743,12 @@
         <v>-0.79348773712920473</v>
       </c>
       <c r="M305">
-        <f>$L$9*$O$4*EXP(-$O$6*(G305/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G305/$L$10-1))</f>
-        <v>-1.0367101090090505</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G305/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G305/$L$10-1))</f>
+        <v>-0.75564276361521143</v>
       </c>
       <c r="N305" s="15">
         <f t="shared" si="28"/>
-        <v>-0.58545693535124443</v>
+        <v>-0.30438958995740539</v>
       </c>
       <c r="O305" s="15">
         <v>1</v>
@@ -24757,12 +24779,12 @@
         <v>-0.78578591329524217</v>
       </c>
       <c r="M306">
-        <f>$L$9*$O$4*EXP(-$O$6*(G306/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G306/$L$10-1))</f>
-        <v>-1.026313581079326</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G306/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G306/$L$10-1))</f>
+        <v>-0.74652092762229549</v>
       </c>
       <c r="N306" s="15">
         <f t="shared" si="28"/>
-        <v>-0.58244925333257647</v>
+        <v>-0.302656599875546</v>
       </c>
       <c r="O306" s="15">
         <v>1</v>
@@ -24793,12 +24815,12 @@
         <v>-0.77815884390863588</v>
       </c>
       <c r="M307">
-        <f>$L$9*$O$4*EXP(-$O$6*(G307/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G307/$L$10-1))</f>
-        <v>-1.0160212760607066</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G307/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G307/$L$10-1))</f>
+        <v>-0.73750869834745547</v>
       </c>
       <c r="N307" s="15">
         <f t="shared" si="28"/>
-        <v>-0.57943010932397854</v>
+        <v>-0.30091753161072743</v>
       </c>
       <c r="O307" s="15">
         <v>1</v>
@@ -24829,12 +24851,12 @@
         <v>-0.77060580349921748</v>
       </c>
       <c r="M308">
-        <f>$L$9*$O$4*EXP(-$O$6*(G308/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G308/$L$10-1))</f>
-        <v>-1.0058321509014918</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G308/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G308/$L$10-1))</f>
+        <v>-0.72860477675898705</v>
       </c>
       <c r="N308" s="15">
         <f t="shared" si="28"/>
-        <v>-0.57640014459143263</v>
+        <v>-0.29917277044892793</v>
       </c>
       <c r="O308" s="15">
         <v>1</v>
@@ -24865,12 +24887,12 @@
         <v>-0.76312607363120633</v>
       </c>
       <c r="M309">
-        <f>$L$9*$O$4*EXP(-$O$6*(G309/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G309/$L$10-1))</f>
-        <v>-0.99574517290600661</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G309/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G309/$L$10-1))</f>
+        <v>-0.71980787858194639</v>
       </c>
       <c r="N309" s="15">
         <f t="shared" si="28"/>
-        <v>-0.57335998941269617</v>
+        <v>-0.29742269508863595</v>
       </c>
       <c r="O309" s="15">
         <v>1</v>
@@ -24901,12 +24923,12 @@
         <v>-0.75571894283539887</v>
       </c>
       <c r="M310">
-        <f>$L$9*$O$4*EXP(-$O$6*(G310/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G310/$L$10-1))</f>
-        <v>-0.98575931963572261</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G310/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G310/$L$10-1))</f>
+        <v>-0.71111673415357479</v>
       </c>
       <c r="N310" s="15">
         <f t="shared" si="28"/>
-        <v>-0.5703102631632716</v>
+        <v>-0.29566767768112379</v>
       </c>
       <c r="O310" s="15">
         <v>1</v>
@@ -24937,12 +24959,12 @@
         <v>-0.74838370654192166</v>
       </c>
       <c r="M311">
-        <f>$L$9*$O$4*EXP(-$O$6*(G311/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G311/$L$10-1))</f>
-        <v>-0.97587357881103876</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G311/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G311/$L$10-1))</f>
+        <v>-0.7025300882791895</v>
       </c>
       <c r="N311" s="15">
         <f t="shared" si="28"/>
-        <v>-0.56725157440414797</v>
+        <v>-0.29390808387229866</v>
       </c>
       <c r="O311" s="15">
         <v>1</v>
@@ -24973,12 +24995,12 @@
         <v>-0.74111966701366561</v>
       </c>
       <c r="M312">
-        <f>$L$9*$O$4*EXP(-$O$6*(G312/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G312/$L$10-1))</f>
-        <v>-0.9660869482139095</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G312/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G312/$L$10-1))</f>
+        <v>-0.69404670008873193</v>
       </c>
       <c r="N312" s="15">
         <f t="shared" si="28"/>
-        <v>-0.56418452097127147</v>
+        <v>-0.29214427284609396</v>
       </c>
       <c r="O312" s="15">
         <v>1</v>
@@ -25009,12 +25031,12 @@
         <v>-0.73392613328030798</v>
       </c>
       <c r="M313">
-        <f>$L$9*$O$4*EXP(-$O$6*(G313/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G313/$L$10-1))</f>
-        <v>-0.95639843559117621</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G313/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G313/$L$10-1))</f>
+        <v>-0.68566534289388681</v>
       </c>
       <c r="N313" s="15">
         <f t="shared" si="28"/>
-        <v>-0.56110969006658018</v>
+        <v>-0.29037659736929072</v>
       </c>
       <c r="O313" s="15">
         <v>1</v>
@@ -25045,12 +25067,12 @@
         <v>-0.72680242107300097</v>
       </c>
       <c r="M314">
-        <f>$L$9*$O$4*EXP(-$O$6*(G314/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G314/$L$10-1))</f>
-        <v>-0.94680705855874359</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G314/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G314/$L$10-1))</f>
+        <v>-0.67738480404592016</v>
       </c>
       <c r="N314" s="15">
         <f t="shared" si="28"/>
-        <v>-0.55802765835055079</v>
+        <v>-0.28860540383772743</v>
       </c>
       <c r="O314" s="15">
         <v>1</v>
@@ -25081,12 +25103,12 @@
         <v>-0.71974785275961162</v>
       </c>
       <c r="M315">
-        <f>$L$9*$O$4*EXP(-$O$6*(G315/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G315/$L$10-1))</f>
-        <v>-0.93731184450643767</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G315/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G315/$L$10-1))</f>
+        <v>-0.66920388479412019</v>
       </c>
       <c r="N315" s="15">
         <f t="shared" si="28"/>
-        <v>-0.5549389920361063</v>
+        <v>-0.28683103232378887</v>
       </c>
       <c r="O315" s="15">
         <v>1</v>
@@ -25117,12 +25139,12 @@
         <v>-0.71276175728062185</v>
       </c>
       <c r="M316">
-        <f>$L$9*$O$4*EXP(-$O$6*(G316/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G316/$L$10-1))</f>
-        <v>-0.92791183050369996</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G316/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G316/$L$10-1))</f>
+        <v>-0.6611214001450112</v>
       </c>
       <c r="N316" s="15">
         <f t="shared" si="28"/>
-        <v>-0.55184424698382628</v>
+        <v>-0.28505381662513757</v>
       </c>
       <c r="O316" s="15">
         <v>1</v>
@@ -25153,12 +25175,12 @@
         <v>-0.705843470085596</v>
       </c>
       <c r="M317">
-        <f>$L$9*$O$4*EXP(-$O$6*(G317/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G317/$L$10-1))</f>
-        <v>-0.9186060632060129</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G317/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G317/$L$10-1))</f>
+        <v>-0.65313617872226604</v>
       </c>
       <c r="N317" s="15">
         <f t="shared" si="28"/>
-        <v>-0.5487439687983473</v>
+        <v>-0.28327408431460044</v>
       </c>
       <c r="O317" s="15">
         <v>1</v>
@@ -25189,12 +25211,12 @@
         <v>-0.69899233307029618</v>
       </c>
       <c r="M318">
-        <f>$L$9*$O$4*EXP(-$O$6*(G318/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G318/$L$10-1))</f>
-        <v>-0.90939359876215264</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G318/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G318/$L$10-1))</f>
+        <v>-0.64524706262743248</v>
       </c>
       <c r="N318" s="15">
         <f t="shared" si="28"/>
-        <v>-0.54563869292587541</v>
+        <v>-0.28149215679115525</v>
       </c>
       <c r="O318" s="15">
         <v>1</v>
@@ -25225,12 +25247,12 @@
         <v>-0.69220769451433128</v>
       </c>
       <c r="M319">
-        <f>$L$9*$O$4*EXP(-$O$6*(G319/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G319/$L$10-1))</f>
-        <v>-0.90027350272214257</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G319/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G319/$L$10-1))</f>
+        <v>-0.63745290730138204</v>
       </c>
       <c r="N319" s="15">
         <f t="shared" si="28"/>
-        <v>-0.54252894475270175</v>
+        <v>-0.27970834933194116</v>
       </c>
       <c r="O319" s="15">
         <v>1</v>
@@ -25261,12 +25283,12 @@
         <v>-0.68548890901944814</v>
       </c>
       <c r="M320">
-        <f>$L$9*$O$4*EXP(-$O$6*(G320/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G320/$L$10-1))</f>
-        <v>-0.89124484994603825</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G320/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G320/$L$10-1))</f>
+        <v>-0.6297525813866206</v>
       </c>
       <c r="N320" s="15">
         <f t="shared" si="28"/>
-        <v>-0.53941523970466321</v>
+        <v>-0.2779229711452455</v>
       </c>
       <c r="O320" s="15">
         <v>1</v>
@@ -25297,12 +25319,12 @@
         <v>-0.678835337448362</v>
       </c>
       <c r="M321">
-        <f>$L$9*$O$4*EXP(-$O$6*(G321/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G321/$L$10-1))</f>
-        <v>-0.88230672451343395</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G321/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G321/$L$10-1))</f>
+        <v>-0.62214496659038543</v>
       </c>
       <c r="N321" s="15">
         <f t="shared" si="28"/>
-        <v>-0.53629808334743734</v>
+        <v>-0.27613632542438887</v>
       </c>
       <c r="O321" s="15">
         <v>1</v>
@@ -25333,12 +25355,12 @@
         <v>-0.67224634686423257</v>
       </c>
       <c r="M322">
-        <f>$L$9*$O$4*EXP(-$O$6*(G322/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G322/$L$10-1))</f>
-        <v>-0.87345821963381709</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G322/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G322/$L$10-1))</f>
+        <v>-0.61462895754865787</v>
       </c>
       <c r="N322" s="15">
         <f t="shared" si="28"/>
-        <v>-0.53317797148763957</v>
+        <v>-0.27434870940248035</v>
       </c>
       <c r="O322" s="15">
         <v>1</v>
@@ -25369,12 +25391,12 @@
         <v>-0.66572131047063643</v>
       </c>
       <c r="M323">
-        <f>$L$9*$O$4*EXP(-$O$6*(G323/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G323/$L$10-1))</f>
-        <v>-0.86469843755759557</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G323/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G323/$L$10-1))</f>
+        <v>-0.60720346169096084</v>
       </c>
       <c r="N323" s="15">
         <f t="shared" si="28"/>
-        <v>-0.53005539027457726</v>
+        <v>-0.27256041440794254</v>
       </c>
       <c r="O323" s="15">
         <v>1</v>
@@ -25405,12 +25427,12 @@
         <v>-0.65925960755217161</v>
       </c>
       <c r="M324">
-        <f>$L$9*$O$4*EXP(-$O$6*(G324/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G324/$L$10-1))</f>
-        <v>-0.85602648948796434</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G324/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G324/$L$10-1))</f>
+        <v>-0.59986739910610454</v>
       </c>
       <c r="N324" s="15">
         <f t="shared" si="28"/>
-        <v>-0.52693081630265226</v>
+        <v>-0.27077172592079252</v>
       </c>
       <c r="O324" s="15">
         <v>1</v>
@@ -25441,12 +25463,12 @@
         <v>-0.65286062341558326</v>
       </c>
       <c r="M325">
-        <f>$L$9*$O$4*EXP(-$O$6*(G325/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G325/$L$10-1))</f>
-        <v>-0.84744149549348979</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G325/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G325/$L$10-1))</f>
+        <v>-0.5926197024087867</v>
       </c>
       <c r="N325" s="15">
         <f t="shared" si="28"/>
-        <v>-0.52380471671429796</v>
+        <v>-0.26898292362959486</v>
       </c>
       <c r="O325" s="15">
         <v>1</v>
@@ -25477,12 +25499,12 @@
         <v>-0.64652374933150747</v>
       </c>
       <c r="M326">
-        <f>$L$9*$O$4*EXP(-$O$6*(G326/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G326/$L$10-1))</f>
-        <v>-0.83894258442152647</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G326/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G326/$L$10-1))</f>
+        <v>-0.58545931660716999</v>
       </c>
       <c r="N326" s="15">
         <f t="shared" si="28"/>
-        <v>-0.5206775493034248</v>
+        <v>-0.26719428148906832</v>
       </c>
       <c r="O326" s="15">
         <v>1</v>
@@ -25513,12 +25535,12 @@
         <v>-0.64024838247670279</v>
       </c>
       <c r="M327">
-        <f>$L$9*$O$4*EXP(-$O$6*(G327/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G327/$L$10-1))</f>
-        <v>-0.83052889381230466</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G327/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G327/$L$10-1))</f>
+        <v>-0.57838519897131335</v>
       </c>
       <c r="N327" s="15">
         <f t="shared" si="28"/>
-        <v>-0.51754976261924635</v>
+        <v>-0.26540606777825504</v>
       </c>
       <c r="O327" s="15">
         <v>1</v>
@@ -25549,12 +25571,12 @@
         <v>-0.63403392587687923</v>
       </c>
       <c r="M328">
-        <f>$L$9*$O$4*EXP(-$O$6*(G328/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G328/$L$10-1))</f>
-        <v>-0.82219956981384323</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G328/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G328/$L$10-1))</f>
+        <v>-0.57139631890259235</v>
       </c>
       <c r="N328" s="15">
         <f t="shared" si="28"/>
-        <v>-0.51442179607048555</v>
+        <v>-0.26361854515923461</v>
       </c>
       <c r="O328" s="15">
         <v>1</v>
@@ -25585,12 +25607,12 @@
         <v>-0.62787978835006519</v>
       </c>
       <c r="M329">
-        <f>$L$9*$O$4*EXP(-$O$6*(G329/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G329/$L$10-1))</f>
-        <v>-0.81395376709760092</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G329/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G329/$L$10-1))</f>
+        <v>-0.5644916578040684</v>
       </c>
       <c r="N329" s="15">
         <f t="shared" si="28"/>
-        <v>-0.51129408002986854</v>
+        <v>-0.26183197073633602</v>
       </c>
       <c r="O329" s="15">
         <v>1</v>
@@ -25621,12 +25643,12 @@
         <v>-0.62178538445050313</v>
       </c>
       <c r="M330">
-        <f>$L$9*$O$4*EXP(-$O$6*(G330/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G330/$L$10-1))</f>
-        <v>-0.8057906487748675</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G330/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G330/$L$10-1))</f>
+        <v>-0.55767020895180175</v>
       </c>
       <c r="N330" s="15">
         <f t="shared" si="28"/>
-        <v>-0.50816703593884116</v>
+        <v>-0.26004659611577541</v>
       </c>
       <c r="O330" s="15">
         <v>1</v>
@@ -25657,12 +25679,12 @@
         <v>-0.61575013441309756</v>
       </c>
       <c r="M331">
-        <f>$L$9*$O$4*EXP(-$O$6*(G331/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G331/$L$10-1))</f>
-        <v>-0.7977093863139243</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G331/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G331/$L$10-1))</f>
+        <v>-0.55093097736715746</v>
       </c>
       <c r="N331" s="15">
         <f t="shared" si="28"/>
-        <v>-0.50504107641247542</v>
+        <v>-0.25826266746570858</v>
       </c>
       <c r="O331" s="15">
         <v>1</v>
@@ -25693,12 +25715,12 @@
         <v>-0.60977346409838451</v>
       </c>
       <c r="M332">
-        <f>$L$9*$O$4*EXP(-$O$6*(G332/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G332/$L$10-1))</f>
-        <v>-0.78970915945793441</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G332/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G332/$L$10-1))</f>
+        <v>-0.54427297969008082</v>
       </c>
       <c r="N332" s="15">
         <f t="shared" si="28"/>
-        <v>-0.50191660534448745</v>
+        <v>-0.25648042557663381</v>
       </c>
       <c r="O332" s="15">
         <v>1</v>
@@ -25729,12 +25751,12 @@
         <v>-0.60385480493803279</v>
       </c>
       <c r="M333">
-        <f>$L$9*$O$4*EXP(-$O$6*(G333/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G333/$L$10-1))</f>
-        <v>-0.7817891561435889</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G333/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G333/$L$10-1))</f>
+        <v>-0.53769524405336822</v>
       </c>
       <c r="N333" s="15">
         <f t="shared" si="28"/>
-        <v>-0.49879401801233375</v>
+        <v>-0.25470010592211306</v>
       </c>
       <c r="O333" s="15">
         <v>1</v>
@@ -25765,12 +25787,12 @@
         <v>-0.59799359388087137</v>
       </c>
       <c r="M334">
-        <f>$L$9*$O$4*EXP(-$O$6*(G334/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G334/$L$10-1))</f>
-        <v>-0.77394857242048487</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G334/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G334/$L$10-1))</f>
+        <v>-0.53119680995793706</v>
       </c>
       <c r="N334" s="15">
         <f t="shared" si="28"/>
-        <v>-0.49567370118232157</v>
+        <v>-0.25292193871977375</v>
       </c>
       <c r="O334" s="15">
         <v>1</v>
@@ -25801,12 +25823,12 @@
         <v>-0.59218927333942473</v>
       </c>
       <c r="M335">
-        <f>$L$9*$O$4*EXP(-$O$6*(G335/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G335/$L$10-1))</f>
-        <v>-0.76618661237124064</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G335/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G335/$L$10-1))</f>
+        <v>-0.52477672814909071</v>
       </c>
       <c r="N335" s="15">
         <f t="shared" si="28"/>
-        <v>-0.49255603321469199</v>
+        <v>-0.25114614899254206</v>
       </c>
       <c r="O335" s="15">
         <v>1</v>
@@ -25837,12 +25859,12 @@
         <v>-0.58644129113697308</v>
       </c>
       <c r="M336">
-        <f>$L$9*$O$4*EXP(-$O$6*(G336/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G336/$L$10-1))</f>
-        <v>-0.75850248803234255</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G336/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G336/$L$10-1))</f>
+        <v>-0.51843406049380247</v>
       </c>
       <c r="N336" s="15">
         <f t="shared" si="28"/>
-        <v>-0.48944138416862615</v>
+        <v>-0.24937295663008607</v>
       </c>
       <c r="O336" s="15">
         <v>1</v>
@@ -25873,12 +25895,12 @@
         <v>-0.58074910045511408</v>
       </c>
       <c r="M337">
-        <f>$L$9*$O$4*EXP(-$O$6*(G337/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G337/$L$10-1))</f>
-        <v>-0.75089541931572223</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G337/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G337/$L$10-1))</f>
+        <v>-0.5121678798590088</v>
       </c>
       <c r="N337" s="15">
         <f t="shared" si="28"/>
-        <v>-0.48633011590713632</v>
+        <v>-0.24760257645042288</v>
       </c>
       <c r="O337" s="15">
         <v>1</v>
@@ -25909,12 +25931,12 @@
         <v>-0.57511215978182895</v>
       </c>
       <c r="M338">
-        <f>$L$9*$O$4*EXP(-$O$6*(G338/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G338/$L$10-1))</f>
-        <v>-0.74336463393105012</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G338/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G338/$L$10-1))</f>
+        <v>-0.50597726999091985</v>
       </c>
       <c r="N338" s="15">
         <f t="shared" si="28"/>
-        <v>-0.48322258220178482</v>
+        <v>-0.24583521826165455</v>
       </c>
       <c r="O338" s="15">
         <v>1</v>
@@ -25945,12 +25967,12 @@
         <v>-0.56952993286005282</v>
       </c>
       <c r="M339">
-        <f>$L$9*$O$4*EXP(-$O$6*(G339/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G339/$L$10-1))</f>
-        <v>-0.73590936730875611</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G339/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G339/$L$10-1))</f>
+        <v>-0.49986132539535644</v>
       </c>
       <c r="N339" s="15">
         <f t="shared" si="28"/>
-        <v>-0.48011912883720947</v>
+        <v>-0.2440710869238098</v>
       </c>
       <c r="O339" s="15">
         <v>1</v>
@@ -25981,12 +26003,12 @@
         <v>-0.56400188863673417</v>
       </c>
       <c r="M340">
-        <f>$L$9*$O$4*EXP(-$O$6*(G340/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G340/$L$10-1))</f>
-        <v>-0.72852886252376015</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G340/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G340/$L$10-1))</f>
+        <v>-0.4938191512191103</v>
       </c>
       <c r="N340" s="15">
         <f t="shared" ref="N340:N403" si="34">(M340-H340)*O340</f>
-        <v>-0.47702009371539827</v>
+        <v>-0.24231038241074843</v>
       </c>
       <c r="O340" s="15">
         <v>1</v>
@@ -26017,12 +26039,12 @@
         <v>-0.5585275012123867</v>
       </c>
       <c r="M341">
-        <f>$L$9*$O$4*EXP(-$O$6*(G341/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G341/$L$10-1))</f>
-        <v>-0.72122237021991065</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G341/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G341/$L$10-1))</f>
+        <v>-0.48784986313232892</v>
       </c>
       <c r="N341" s="15">
         <f t="shared" si="34"/>
-        <v>-0.47392580695968367</v>
+        <v>-0.24055329987210192</v>
       </c>
       <c r="O341" s="15">
         <v>1</v>
@@ -26053,12 +26075,12 @@
         <v>-0.55310624979113332</v>
       </c>
       <c r="M342">
-        <f>$L$9*$O$4*EXP(-$O$6*(G342/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G342/$L$10-1))</f>
-        <v>-0.71398914853513995</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G342/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G342/$L$10-1))</f>
+        <v>-0.48195258721194034</v>
       </c>
       <c r="N342" s="15">
         <f t="shared" si="34"/>
-        <v>-0.4708365910184279</v>
+        <v>-0.23880002969522826</v>
       </c>
       <c r="O342" s="15">
         <v>1</v>
@@ -26089,12 +26111,12 @@
         <v>-0.54773761863121495</v>
       </c>
       <c r="M343">
-        <f>$L$9*$O$4*EXP(-$O$6*(G343/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G343/$L$10-1))</f>
-        <v>-0.70682846302730118</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G343/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G343/$L$10-1))</f>
+        <v>-0.47612645982609247</v>
       </c>
       <c r="N343" s="15">
         <f t="shared" si="34"/>
-        <v>-0.4677527607683406</v>
+        <v>-0.23705075756713187</v>
       </c>
       <c r="O343" s="15">
         <v>1</v>
@@ -26125,12 +26147,12 @@
         <v>-0.54242109699599816</v>
       </c>
       <c r="M344">
-        <f>$L$9*$O$4*EXP(-$O$6*(G344/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G344/$L$10-1))</f>
-        <v>-0.69973958660072388</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G344/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G344/$L$10-1))</f>
+        <v>-0.47037062751964376</v>
       </c>
       <c r="N344" s="15">
         <f t="shared" si="34"/>
-        <v>-0.46467462361743039</v>
+        <v>-0.23530566453635027</v>
       </c>
       <c r="O344" s="15">
         <v>1</v>
@@ -26161,12 +26183,12 @@
         <v>-0.53715617910543756</v>
       </c>
       <c r="M345">
-        <f>$L$9*$O$4*EXP(-$O$6*(G345/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G345/$L$10-1))</f>
-        <v>-0.69272179943344347</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G345/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G345/$L$10-1))</f>
+        <v>-0.46468424690067217</v>
       </c>
       <c r="N345" s="15">
         <f t="shared" si="34"/>
-        <v>-0.46160247960752654</v>
+        <v>-0.23356492707475526</v>
       </c>
       <c r="O345" s="15">
         <v>1</v>
@@ -26197,12 +26219,12 @@
         <v>-0.53194236408801221</v>
       </c>
       <c r="M346">
-        <f>$L$9*$O$4*EXP(-$O$6*(G346/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G346/$L$10-1))</f>
-        <v>-0.6857743889051241</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G346/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G346/$L$10-1))</f>
+        <v>-0.4590664845280199</v>
       </c>
       <c r="N346" s="15">
         <f t="shared" si="34"/>
-        <v>-0.45853662151635732</v>
+        <v>-0.2318287171392531</v>
       </c>
       <c r="O346" s="15">
         <v>1</v>
@@ -26233,12 +26255,12 @@
         <v>-0.52677915593313118</v>
       </c>
       <c r="M347">
-        <f>$L$9*$O$4*EXP(-$O$6*(G347/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G347/$L$10-1))</f>
-        <v>-0.67889664952566819</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G347/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G347/$L$10-1))</f>
+        <v>-0.45351651679987737</v>
       </c>
       <c r="N347" s="15">
         <f t="shared" si="34"/>
-        <v>-0.45547733495916087</v>
+        <v>-0.23009720223337005</v>
       </c>
       <c r="O347" s="15">
         <v>1</v>
@@ -26269,12 +26291,12 @@
         <v>-0.52166606344399002</v>
       </c>
       <c r="M348">
-        <f>$L$9*$O$4*EXP(-$O$6*(G348/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G348/$L$10-1))</f>
-        <v>-0.67208788286449594</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G348/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G348/$L$10-1))</f>
+        <v>-0.44803352984338962</v>
       </c>
       <c r="N348" s="15">
         <f t="shared" si="34"/>
-        <v>-0.45242489848978495</v>
+        <v>-0.2283705454686786</v>
       </c>
       <c r="O348" s="15">
         <v>1</v>
@@ -26305,12 +26327,12 @@
         <v>-0.51660260019088367</v>
       </c>
       <c r="M349">
-        <f>$L$9*$O$4*EXP(-$O$6*(G349/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G349/$L$10-1))</f>
-        <v>-0.66534739748049276</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G349/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G349/$L$10-1))</f>
+        <v>-0.4426167194052924</v>
       </c>
       <c r="N349" s="15">
         <f t="shared" si="34"/>
-        <v>-0.44937958370125547</v>
+        <v>-0.22664890562605511</v>
       </c>
       <c r="O349" s="15">
         <v>1</v>
@@ -26341,12 +26363,12 @@
         <v>-0.51158828446497817</v>
       </c>
       <c r="M350">
-        <f>$L$9*$O$4*EXP(-$O$6*(G350/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G350/$L$10-1))</f>
-        <v>-0.65867450885264078</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G350/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G350/$L$10-1))</f>
+        <v>-0.43726529074358689</v>
       </c>
       <c r="N350" s="15">
         <f t="shared" si="34"/>
-        <v>-0.44634165532580716</v>
+        <v>-0.22493243721675324</v>
       </c>
       <c r="O350" s="15">
         <v>1</v>
@@ -26377,12 +26399,12 @@
         <v>-0.50662263923251938</v>
       </c>
       <c r="M351">
-        <f>$L$9*$O$4*EXP(-$O$6*(G351/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G351/$L$10-1))</f>
-        <v>-0.65206853931129527</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G351/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G351/$L$10-1))</f>
+        <v>-0.4319784585202292</v>
       </c>
       <c r="N351" s="15">
         <f t="shared" si="34"/>
-        <v>-0.44331137133432241</v>
+        <v>-0.22322129054325632</v>
       </c>
       <c r="O351" s="15">
         <v>1</v>
@@ -26413,12 +26435,12 @@
         <v>-0.50170519208948727</v>
       </c>
       <c r="M352">
-        <f>$L$9*$O$4*EXP(-$O$6*(G352/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G352/$L$10-1))</f>
-        <v>-0.64552881797012363</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G352/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G352/$L$10-1))</f>
+        <v>-0.42675544669484777</v>
       </c>
       <c r="N352" s="15">
         <f t="shared" si="34"/>
-        <v>-0.44028898303517372</v>
+        <v>-0.2215156117598979</v>
       </c>
       <c r="O352" s="15">
         <v>1</v>
@@ -26449,12 +26471,12 @@
         <v>-0.49683547521668914</v>
       </c>
       <c r="M353">
-        <f>$L$9*$O$4*EXP(-$O$6*(G353/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G353/$L$10-1))</f>
-        <v>-0.63905468065869819</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G353/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G353/$L$10-1))</f>
+        <v>-0.4215954884194828</v>
       </c>
       <c r="N353" s="15">
         <f t="shared" si="34"/>
-        <v>-0.43727473517245086</v>
+        <v>-0.21981554293323546</v>
       </c>
       <c r="O353" s="15">
         <v>1</v>
@@ -26485,12 +26507,12 @@
         <v>-0.49201302533529012</v>
       </c>
       <c r="M354">
-        <f>$L$9*$O$4*EXP(-$O$6*(G354/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G354/$L$10-1))</f>
-        <v>-0.63264546985573744</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G354/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G354/$L$10-1))</f>
+        <v>-0.41649782593434531</v>
       </c>
       <c r="N354" s="15">
         <f t="shared" si="34"/>
-        <v>-0.43426886602354509</v>
+        <v>-0.21812122210215293</v>
       </c>
       <c r="O354" s="15">
         <v>1</v>
@@ -26521,12 +26543,12 @@
         <v>-0.48723738366276476</v>
       </c>
       <c r="M355">
-        <f>$L$9*$O$4*EXP(-$O$6*(G355/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G355/$L$10-1))</f>
-        <v>-0.62630053462297997</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G355/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G355/$L$10-1))</f>
+        <v>-0.41146171046458474</v>
       </c>
       <c r="N355" s="15">
         <f t="shared" si="34"/>
-        <v>-0.43127160749606852</v>
+        <v>-0.2164327833376733</v>
       </c>
       <c r="O355" s="15">
         <v>1</v>
@@ -26557,12 +26579,12 @@
         <v>-0.48250809586928273</v>
       </c>
       <c r="M356">
-        <f>$L$9*$O$4*EXP(-$O$6*(G356/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G356/$L$10-1))</f>
-        <v>-0.62001923053970542</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G356/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G356/$L$10-1))</f>
+        <v>-0.40648640211807419</v>
       </c>
       <c r="N356" s="15">
         <f t="shared" si="34"/>
-        <v>-0.42828318522410308</v>
+        <v>-0.21475035680247184</v>
       </c>
       <c r="O356" s="15">
         <v>1</v>
@@ -26593,12 +26615,12 @@
         <v>-0.47782471203451493</v>
       </c>
       <c r="M357">
-        <f>$L$9*$O$4*EXP(-$O$6*(G357/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G357/$L$10-1))</f>
-        <v>-0.61380091963788164</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G357/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G357/$L$10-1))</f>
+        <v>-0.40157116978420171</v>
       </c>
       <c r="N357" s="15">
         <f t="shared" si="34"/>
-        <v>-0.42530381866375155</v>
+        <v>-0.21307406881007163</v>
       </c>
       <c r="O357" s="15">
         <v>1</v>
@@ -26629,12 +26651,12 @@
         <v>-0.47318678660485214</v>
       </c>
       <c r="M358">
-        <f>$L$9*$O$4*EXP(-$O$6*(G358/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G358/$L$10-1))</f>
-        <v>-0.60764497033793718</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G358/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G358/$L$10-1))</f>
+        <v>-0.3967152910336606</v>
       </c>
       <c r="N358" s="15">
         <f t="shared" si="34"/>
-        <v>-0.42233372118797574</v>
+        <v>-0.21140404188369913</v>
       </c>
       <c r="O358" s="15">
         <v>1</v>
@@ -26665,12 +26687,12 @@
         <v>-0.46859387835104416</v>
       </c>
       <c r="M359">
-        <f>$L$9*$O$4*EXP(-$O$6*(G359/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G359/$L$10-1))</f>
-        <v>-0.60155075738515673</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G359/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G359/$L$10-1))</f>
+        <v>-0.39191805201924373</v>
       </c>
       <c r="N359" s="15">
         <f t="shared" si="34"/>
-        <v>-0.41937310018071022</v>
+        <v>-0.20974039481479723</v>
       </c>
       <c r="O359" s="15">
         <v>1</v>
@@ -26701,12 +26723,12 @@
         <v>-0.464045550326246</v>
       </c>
       <c r="M360">
-        <f>$L$9*$O$4*EXP(-$O$6*(G360/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G360/$L$10-1))</f>
-        <v>-0.5955176617866943</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G360/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G360/$L$10-1))</f>
+        <v>-0.38717874737763075</v>
       </c>
       <c r="N360" s="15">
         <f t="shared" si="34"/>
-        <v>-0.41642215713023978</v>
+        <v>-0.2080832427211762</v>
       </c>
       <c r="O360" s="15">
         <v>1</v>
@@ -26737,12 +26759,12 @@
         <v>-0.45954136982446986</v>
       </c>
       <c r="M361">
-        <f>$L$9*$O$4*EXP(-$O$6*(G361/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G361/$L$10-1))</f>
-        <v>-0.58954507074919515</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G361/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G361/$L$10-1))</f>
+        <v>-0.38249668013216526</v>
       </c>
       <c r="N361" s="15">
         <f t="shared" si="34"/>
-        <v>-0.41348108772181824</v>
+        <v>-0.20643269710478832</v>
       </c>
       <c r="O361" s="15">
         <v>1</v>
@@ -26773,12 +26795,12 @@
         <v>-0.45508090833943654</v>
       </c>
       <c r="M362">
-        <f>$L$9*$O$4*EXP(-$O$6*(G362/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G362/$L$10-1))</f>
-        <v>-0.58363237761701703</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G362/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G362/$L$10-1))</f>
+        <v>-0.37787116159661055</v>
       </c>
       <c r="N362" s="15">
         <f t="shared" si="34"/>
-        <v>-0.41055008192951853</v>
+        <v>-0.20478886590911205</v>
       </c>
       <c r="O362" s="15">
         <v>1</v>
@@ -26809,12 +26831,12 @@
         <v>-0.45066374152383409</v>
       </c>
       <c r="M363">
-        <f>$L$9*$O$4*EXP(-$O$6*(G363/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G363/$L$10-1))</f>
-        <v>-0.57777898181106835</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G363/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G363/$L$10-1))</f>
+        <v>-0.37330151127989764</v>
       </c>
       <c r="N363" s="15">
         <f t="shared" si="34"/>
-        <v>-0.40762932410731867</v>
+        <v>-0.20315185357614796</v>
       </c>
       <c r="O363" s="15">
         <v>1</v>
@@ -26845,12 +26867,12 @@
         <v>-0.44628944914896157</v>
       </c>
       <c r="M364">
-        <f>$L$9*$O$4*EXP(-$O$6*(G364/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G364/$L$10-1))</f>
-        <v>-0.57198428876822571</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G364/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G364/$L$10-1))</f>
+        <v>-0.36878705679183665</v>
       </c>
       <c r="N364" s="15">
         <f t="shared" si="34"/>
-        <v>-0.40471899307938619</v>
+        <v>-0.20152176110299713</v>
       </c>
       <c r="O364" s="15">
         <v>1</v>
@@ -26881,12 +26903,12 @@
         <v>-0.44195761506476627</v>
       </c>
       <c r="M365">
-        <f>$L$9*$O$4*EXP(-$O$6*(G365/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G365/$L$10-1))</f>
-        <v>-0.56624770988134798</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G365/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G365/$L$10-1))</f>
+        <v>-0.36432713374979903</v>
       </c>
       <c r="N365" s="15">
         <f t="shared" si="34"/>
-        <v>-0.40181926222956799</v>
+        <v>-0.19989868609801906</v>
       </c>
       <c r="O365" s="15">
         <v>1</v>
@@ -26917,12 +26939,12 @@
         <v>-0.43766782716027008</v>
       </c>
       <c r="M366">
-        <f>$L$9*$O$4*EXP(-$O$6*(G366/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G366/$L$10-1))</f>
-        <v>-0.5605686624398758</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G366/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G366/$L$10-1))</f>
+        <v>-0.35992108568636516</v>
       </c>
       <c r="N366" s="15">
         <f t="shared" si="34"/>
-        <v>-0.39893029959007553</v>
+        <v>-0.19828272283656492</v>
       </c>
       <c r="O366" s="15">
         <v>1</v>
@@ -26953,12 +26975,12 @@
         <v>-0.43341967732437969</v>
       </c>
       <c r="M367">
-        <f>$L$9*$O$4*EXP(-$O$6*(G367/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G367/$L$10-1))</f>
-        <v>-0.55494656957101363</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G367/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G367/$L$10-1))</f>
+        <v>-0.35556826395793079</v>
       </c>
       <c r="N367" s="15">
         <f t="shared" si="34"/>
-        <v>-0.39605226792935411</v>
+        <v>-0.19667396231627124</v>
       </c>
       <c r="O367" s="15">
         <v>1</v>
@@ -26989,12 +27011,12 @@
         <v>-0.42921276140707021</v>
       </c>
       <c r="M368">
-        <f>$L$9*$O$4*EXP(-$O$6*(G368/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G368/$L$10-1))</f>
-        <v>-0.54938086018147847</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G368/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G368/$L$10-1))</f>
+        <v>-0.35126802765425746</v>
       </c>
       <c r="N368" s="15">
         <f t="shared" si="34"/>
-        <v>-0.39318532483912172</v>
+        <v>-0.19507249231190071</v>
       </c>
       <c r="O368" s="15">
         <v>1</v>
@@ -27025,12 +27047,12 @@
         <v>-0.42504667918095401</v>
       </c>
       <c r="M369">
-        <f>$L$9*$O$4*EXP(-$O$6*(G369/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G369/$L$10-1))</f>
-        <v>-0.54387096889982978</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G369/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G369/$L$10-1))</f>
+        <v>-0.3470197435089778</v>
       </c>
       <c r="N369" s="15">
         <f t="shared" si="34"/>
-        <v>-0.39032962282058681</v>
+        <v>-0.19347839742973483</v>
       </c>
       <c r="O369" s="15">
         <v>1</v>
@@ -27061,12 +27083,12 @@
         <v>-0.42092103430321265</v>
       </c>
       <c r="M370">
-        <f>$L$9*$O$4*EXP(-$O$6*(G370/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G370/$L$10-1))</f>
-        <v>-0.53841633601935268</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G370/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G370/$L$10-1))</f>
+        <v>-0.34282278581103059</v>
       </c>
       <c r="N370" s="15">
         <f t="shared" si="34"/>
-        <v>-0.38748530936981795</v>
+        <v>-0.1918917591614959</v>
       </c>
       <c r="O370" s="15">
         <v>1</v>
@@ -27097,12 +27119,12 @@
         <v>-0.4168354342779062</v>
       </c>
       <c r="M371">
-        <f>$L$9*$O$4*EXP(-$O$6*(G371/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G371/$L$10-1))</f>
-        <v>-0.53301640744151235</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G371/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G371/$L$10-1))</f>
+        <v>-0.33867653631703737</v>
       </c>
       <c r="N371" s="15">
         <f t="shared" si="34"/>
-        <v>-0.38465252706227993</v>
+        <v>-0.19031265593780494</v>
       </c>
       <c r="O371" s="15">
         <v>1</v>
@@ -27133,12 +27155,12 @@
         <v>-0.41278949041863999</v>
       </c>
       <c r="M372">
-        <f>$L$9*$O$4*EXP(-$O$6*(G372/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G372/$L$10-1))</f>
-        <v>-0.52767063461995256</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G372/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G372/$L$10-1))</f>
+        <v>-0.33458038416459773</v>
       </c>
       <c r="N372" s="15">
         <f t="shared" si="34"/>
-        <v>-0.38183141363651196</v>
+        <v>-0.18874116318115713</v>
       </c>
       <c r="O372" s="15">
         <v>1</v>
@@ -27169,12 +27191,12 @@
         <v>-0.40878281781159875</v>
       </c>
       <c r="M373">
-        <f>$L$9*$O$4*EXP(-$O$6*(G373/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G373/$L$10-1))</f>
-        <v>-0.52237847450505204</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G373/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G373/$L$10-1))</f>
+        <v>-0.33053372578650969</v>
       </c>
       <c r="N373" s="15">
         <f t="shared" si="34"/>
-        <v>-0.37902210207695863</v>
+        <v>-0.18717735335841626</v>
       </c>
       <c r="O373" s="15">
         <v>1</v>
@@ -27205,12 +27227,12 @@
         <v>-0.40481503527893808</v>
       </c>
       <c r="M374">
-        <f>$L$9*$O$4*EXP(-$O$6*(G374/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G374/$L$10-1))</f>
-        <v>-0.51713938948902405</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G374/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G374/$L$10-1))</f>
+        <v>-0.32653596482590269</v>
       </c>
       <c r="N374" s="15">
         <f t="shared" si="34"/>
-        <v>-0.37622472069594326</v>
+        <v>-0.18562129603282188</v>
       </c>
       <c r="O374" s="15">
         <v>1</v>
@@ -27241,12 +27263,12 @@
         <v>-0.40088576534252768</v>
       </c>
       <c r="M375">
-        <f>$L$9*$O$4*EXP(-$O$6*(G375/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G375/$L$10-1))</f>
-        <v>-0.51195284735155067</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G375/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G375/$L$10-1))</f>
+        <v>-0.32258651205227434</v>
       </c>
       <c r="N375" s="15">
         <f t="shared" si="34"/>
-        <v>-0.37343939321477271</v>
+        <v>-0.18407305791549641</v>
       </c>
       <c r="O375" s="15">
         <v>1</v>
@@ -27277,12 +27299,12 @@
         <v>-0.39699463418804859</v>
       </c>
       <c r="M376">
-        <f>$L$9*$O$4*EXP(-$O$6*(G376/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G376/$L$10-1))</f>
-        <v>-0.50681832120595915</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G376/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G376/$L$10-1))</f>
+        <v>-0.31868478527842992</v>
       </c>
       <c r="N376" s="15">
         <f t="shared" si="34"/>
-        <v>-0.37066623884398708</v>
+        <v>-0.18253270291645782</v>
       </c>
       <c r="O376" s="15">
         <v>1</v>
@@ -27313,12 +27335,12 @@
         <v>-0.39314127162943968</v>
       </c>
       <c r="M377">
-        <f>$L$9*$O$4*EXP(-$O$6*(G377/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G377/$L$10-1))</f>
-        <v>-0.50173528944592594</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G377/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G377/$L$10-1))</f>
+        <v>-0.31483020927831573</v>
       </c>
       <c r="N377" s="15">
         <f t="shared" si="34"/>
-        <v>-0.36790537236273751</v>
+        <v>-0.18100029219512731</v>
       </c>
       <c r="O377" s="15">
         <v>1</v>
@@ -27349,12 +27371,12 @@
         <v>-0.38932531107368551</v>
       </c>
       <c r="M378">
-        <f>$L$9*$O$4*EXP(-$O$6*(G378/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G378/$L$10-1))</f>
-        <v>-0.49670323569270441</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G378/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G378/$L$10-1))</f>
+        <v>-0.31102221570573618</v>
       </c>
       <c r="N378" s="15">
         <f t="shared" si="34"/>
-        <v>-0.36515690419729585</v>
+        <v>-0.17947588421032765</v>
       </c>
       <c r="O378" s="15">
         <v>1</v>
@@ -27385,12 +27407,12 @@
         <v>-0.3855463894859476</v>
       </c>
       <c r="M379">
-        <f>$L$9*$O$4*EXP(-$O$6*(G379/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G379/$L$10-1))</f>
-        <v>-0.49172164874287305</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G379/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G379/$L$10-1))</f>
+        <v>-0.30726024301395077</v>
       </c>
       <c r="N379" s="15">
         <f t="shared" si="34"/>
-        <v>-0.36242094049869134</v>
+        <v>-0.17795953476976903</v>
       </c>
       <c r="O379" s="15">
         <v>1</v>
@@ -27421,12 +27443,12 @@
         <v>-0.38180414735503271</v>
       </c>
       <c r="M380">
-        <f>$L$9*$O$4*EXP(-$O$6*(G380/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G380/$L$10-1))</f>
-        <v>-0.48679002251660158</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G380/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G380/$L$10-1))</f>
+        <v>-0.30354373637614501</v>
       </c>
       <c r="N380" s="15">
         <f t="shared" si="34"/>
-        <v>-0.35969758321947926</v>
+        <v>-0.17645129707902268</v>
       </c>
       <c r="O380" s="15">
         <v>1</v>
@@ -27457,12 +27479,12 @@
         <v>-0.37809822865919923</v>
       </c>
       <c r="M381">
-        <f>$L$9*$O$4*EXP(-$O$6*(G381/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G381/$L$10-1))</f>
-        <v>-0.48190785600642877</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G381/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G381/$L$10-1))</f>
+        <v>-0.29987214760676711</v>
       </c>
       <c r="N381" s="15">
         <f t="shared" si="34"/>
-        <v>-0.35698693018963695</v>
+        <v>-0.1749512217899753</v>
       </c>
       <c r="O381" s="15">
         <v>1</v>
@@ -27493,12 +27515,12 @@
         <v>-0.37442828083228913</v>
       </c>
       <c r="M382">
-        <f>$L$9*$O$4*EXP(-$O$6*(G382/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G382/$L$10-1))</f>
-        <v>-0.47707465322654047</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G382/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G382/$L$10-1))</f>
+        <v>-0.29624493508371996</v>
       </c>
       <c r="N382" s="15">
         <f t="shared" si="34"/>
-        <v>-0.35428907519158148</v>
+        <v>-0.17345935704876095</v>
       </c>
       <c r="O382" s="15">
         <v>1</v>
@@ -27529,12 +27551,12 @@
         <v>-0.3707939547301935</v>
       </c>
       <c r="M383">
-        <f>$L$9*$O$4*EXP(-$O$6*(G383/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G383/$L$10-1))</f>
-        <v>-0.47228992316255564</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G383/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G383/$L$10-1))</f>
+        <v>-0.29266156367140689</v>
       </c>
       <c r="N383" s="15">
         <f t="shared" si="34"/>
-        <v>-0.3516041080343203</v>
+        <v>-0.17197574854317155</v>
       </c>
       <c r="O383" s="15">
         <v>1</v>
@@ -27565,12 +27587,12 @@
         <v>-0.3671949045976427</v>
       </c>
       <c r="M384">
-        <f>$L$9*$O$4*EXP(-$O$6*(G384/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G384/$L$10-1))</f>
-        <v>-0.46755317972180643</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G384/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G384/$L$10-1))</f>
+        <v>-0.2891215046446225</v>
       </c>
       <c r="N384" s="15">
         <f t="shared" si="34"/>
-        <v>-0.34893211462672719</v>
+        <v>-0.17050043954954325</v>
       </c>
       <c r="O384" s="15">
         <v>1</v>
@@ -27601,12 +27623,12 @@
         <v>-0.3636307880353149</v>
       </c>
       <c r="M385">
-        <f>$L$9*$O$4*EXP(-$O$6*(G385/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G385/$L$10-1))</f>
-        <v>-0.4628639416841091</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G385/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G385/$L$10-1))</f>
+        <v>-0.28562423561327699</v>
       </c>
       <c r="N385" s="15">
         <f t="shared" si="34"/>
-        <v>-0.34627317704994554</v>
+        <v>-0.16903347097911342</v>
       </c>
       <c r="O385" s="15">
         <v>1</v>
@@ -27637,12 +27659,12 @@
         <v>-0.36010126596726694</v>
       </c>
       <c r="M386">
-        <f>$L$9*$O$4*EXP(-$O$6*(G386/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G386/$L$10-1))</f>
-        <v>-0.45822173265302379</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G386/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G386/$L$10-1))</f>
+        <v>-0.28216924044795305</v>
       </c>
       <c r="N386" s="15">
         <f t="shared" si="34"/>
-        <v>-0.34362737362892148</v>
+        <v>-0.16757488142385077</v>
       </c>
       <c r="O386" s="15">
         <v>1</v>
@@ -27673,12 +27695,12 @@
         <v>-0.35660600260868242</v>
       </c>
       <c r="M387">
-        <f>$L$9*$O$4*EXP(-$O$6*(G387/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G387/$L$10-1))</f>
-        <v>-0.45362608100759844</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G387/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G387/$L$10-1))</f>
+        <v>-0.27875600920628607</v>
       </c>
       <c r="N387" s="15">
         <f t="shared" si="34"/>
-        <v>-0.34099477900307096</v>
+        <v>-0.16612470720175859</v>
       </c>
       <c r="O387" s="15">
         <v>1</v>
@@ -27709,12 +27731,12 @@
         <v>-0.35314466543392836</v>
       </c>
       <c r="M388">
-        <f>$L$9*$O$4*EXP(-$O$6*(G388/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G388/$L$10-1))</f>
-        <v>-0.44907651985458957</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G388/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G388/$L$10-1))</f>
+        <v>-0.27538403806015765</v>
       </c>
       <c r="N388" s="15">
         <f t="shared" si="34"/>
-        <v>-0.338375464196076</v>
+        <v>-0.16468298240164408</v>
       </c>
       <c r="O388" s="15">
         <v>1</v>
@@ -27745,12 +27767,12 @@
         <v>-0.34971692514492242</v>
       </c>
       <c r="M389">
-        <f>$L$9*$O$4*EXP(-$O$6*(G389/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G389/$L$10-1))</f>
-        <v>-0.44457258698115182</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G389/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G389/$L$10-1))</f>
+        <v>-0.27205282922369622</v>
       </c>
       <c r="N389" s="15">
         <f t="shared" si="34"/>
-        <v>-0.33576949668481326</v>
+        <v>-0.1632497389273577</v>
       </c>
       <c r="O389" s="15">
         <v>1</v>
@@ -27781,12 +27803,12 @@
         <v>-0.34632245563981251</v>
       </c>
       <c r="M390">
-        <f>$L$9*$O$4*EXP(-$O$6*(G390/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G390/$L$10-1))</f>
-        <v>-0.44011382480800937</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G390/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G390/$L$10-1))</f>
+        <v>-0.26876189088208463</v>
       </c>
       <c r="N390" s="15">
         <f t="shared" si="34"/>
-        <v>-0.33317694046743035</v>
+        <v>-0.16182500654150561</v>
       </c>
       <c r="O390" s="15">
         <v>1</v>
@@ -27817,12 +27839,12 @@
         <v>-0.34296093398195299</v>
       </c>
       <c r="M391">
-        <f>$L$9*$O$4*EXP(-$O$6*(G391/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G391/$L$10-1))</f>
-        <v>-0.43569978034307999</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G391/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G391/$L$10-1))</f>
+        <v>-0.26551073712115553</v>
       </c>
       <c r="N391" s="15">
         <f t="shared" si="34"/>
-        <v>-0.33059785613055181</v>
+        <v>-0.16040881290862735</v>
       </c>
       <c r="O391" s="15">
         <v>1</v>
@@ -27853,12 +27875,12 @@
         <v>-0.33963204036918537</v>
       </c>
       <c r="M392">
-        <f>$L$9*$O$4*EXP(-$O$6*(G392/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G392/$L$10-1))</f>
-        <v>-0.43133000513556369</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G392/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G392/$L$10-1))</f>
+        <v>-0.26229888785777494</v>
       </c>
       <c r="N392" s="15">
         <f t="shared" si="34"/>
-        <v>-0.32803230091563085</v>
+        <v>-0.15900118363784208</v>
       </c>
       <c r="O392" s="15">
         <v>1</v>
@@ -27889,12 +27911,12 @@
         <v>-0.33633545810341664</v>
       </c>
       <c r="M393">
-        <f>$L$9*$O$4*EXP(-$O$6*(G393/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G393/$L$10-1))</f>
-        <v>-0.42700405523048846</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G393/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G393/$L$10-1))</f>
+        <v>-0.25912586877100668</v>
       </c>
       <c r="N393" s="15">
         <f t="shared" si="34"/>
-        <v>-0.32548032878444988</v>
+        <v>-0.15760214232496808</v>
       </c>
       <c r="O393" s="15">
         <v>1</v>
@@ -27925,12 +27947,12 @@
         <v>-0.33307087356049403</v>
       </c>
       <c r="M394">
-        <f>$L$9*$O$4*EXP(-$O$6*(G394/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G394/$L$10-1))</f>
-        <v>-0.42272149112370877</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G394/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G394/$L$10-1))</f>
+        <v>-0.25599121123404928</v>
       </c>
       <c r="N394" s="15">
         <f t="shared" si="34"/>
-        <v>-0.32294199048377059</v>
+        <v>-0.15621171059411107</v>
       </c>
       <c r="O394" s="15">
         <v>1</v>
@@ -27961,12 +27983,12 @@
         <v>-0.32983797616036831</v>
       </c>
       <c r="M395">
-        <f>$L$9*$O$4*EXP(-$O$6*(G395/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G395/$L$10-1))</f>
-        <v>-0.41848187771734557</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G395/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G395/$L$10-1))</f>
+        <v>-0.25289445224693397</v>
       </c>
       <c r="N395" s="15">
         <f t="shared" si="34"/>
-        <v>-0.32041733360913305</v>
+        <v>-0.15482990813872144</v>
       </c>
       <c r="O395" s="15">
         <v>1</v>
@@ -27997,12 +28019,12 @@
         <v>-0.32663645833754995</v>
       </c>
       <c r="M396">
-        <f>$L$9*$O$4*EXP(-$O$6*(G396/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G396/$L$10-1))</f>
-        <v>-0.41428478427567544</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G396/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G396/$L$10-1))</f>
+        <v>-0.24983513436998511</v>
       </c>
       <c r="N396" s="15">
         <f t="shared" si="34"/>
-        <v>-0.317906402667817</v>
+        <v>-0.1534567527621267</v>
       </c>
       <c r="O396" s="15">
         <v>1</v>
@@ -28033,12 +28055,12 @@
         <v>-0.32346601551185167</v>
       </c>
       <c r="M397">
-        <f>$L$9*$O$4*EXP(-$O$6*(G397/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G397/$L$10-1))</f>
-        <v>-0.4101297843814562</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G397/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G397/$L$10-1))</f>
+        <v>-0.24681280565802982</v>
       </c>
       <c r="N397" s="15">
         <f t="shared" si="34"/>
-        <v>-0.31540923914096408</v>
+        <v>-0.15209226041753771</v>
       </c>
       <c r="O397" s="15">
         <v>1</v>
@@ -28069,12 +28091,12 @@
         <v>-0.3203263460594139</v>
       </c>
       <c r="M398">
-        <f>$L$9*$O$4*EXP(-$O$6*(G398/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G398/$L$10-1))</f>
-        <v>-0.40601645589268726</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G398/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G398/$L$10-1))</f>
+        <v>-0.24382701959534978</v>
       </c>
       <c r="N398" s="15">
         <f t="shared" si="34"/>
-        <v>-0.31292588154486428</v>
+        <v>-0.1507364452475268</v>
       </c>
       <c r="O398" s="15">
         <v>1</v>
@@ -28105,12 +28127,12 @@
         <v>-0.31721715128400813</v>
       </c>
       <c r="M399">
-        <f>$L$9*$O$4*EXP(-$O$6*(G399/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G399/$L$10-1))</f>
-        <v>-0.40194438089979545</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G399/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G399/$L$10-1))</f>
+        <v>-0.24087733503136827</v>
       </c>
       <c r="N399" s="15">
         <f t="shared" si="34"/>
-        <v>-0.31045636549141031</v>
+        <v>-0.14938931962298313</v>
       </c>
       <c r="O399" s="15">
         <v>1</v>
@@ -28141,12 +28163,12 @@
         <v>-0.31413813538862734</v>
       </c>
       <c r="M400">
-        <f>$L$9*$O$4*EXP(-$O$6*(G400/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G400/$L$10-1))</f>
-        <v>-0.3979131456832582</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G400/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G400/$L$10-1))</f>
+        <v>-0.23796331611707228</v>
       </c>
       <c r="N400" s="15">
         <f t="shared" si="34"/>
-        <v>-0.3080007237477364</v>
+        <v>-0.14805089418155049</v>
       </c>
       <c r="O400" s="15">
         <v>1</v>
@@ -28177,12 +28199,12 @@
         <v>-0.3110890054473438</v>
       </c>
       <c r="M401">
-        <f>$L$9*$O$4*EXP(-$O$6*(G401/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G401/$L$10-1))</f>
-        <v>-0.39392234067163845</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G401/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G401/$L$10-1))</f>
+        <v>-0.23508453224215048</v>
       </c>
       <c r="N401" s="15">
         <f t="shared" si="34"/>
-        <v>-0.30555898629502865</v>
+        <v>-0.1467211778655407</v>
       </c>
       <c r="O401" s="15">
         <v>1</v>
@@ -28213,12 +28235,12 @@
         <v>-0.30806947137744234</v>
       </c>
       <c r="M402">
-        <f>$L$9*$O$4*EXP(-$O$6*(G402/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G402/$L$10-1))</f>
-        <v>-0.38997156040004016</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G402/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G402/$L$10-1))</f>
+        <v>-0.23224055797284854</v>
       </c>
       <c r="N402" s="15">
         <f t="shared" si="34"/>
-        <v>-0.30313118038652198</v>
+        <v>-0.14540017795933033</v>
       </c>
       <c r="O402" s="15">
         <v>1</v>
@@ -28249,12 +28271,12 @@
         <v>-0.30507924591182578</v>
       </c>
       <c r="M403">
-        <f>$L$9*$O$4*EXP(-$O$6*(G403/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G403/$L$10-1))</f>
-        <v>-0.38606040346897985</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G403/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G403/$L$10-1))</f>
+        <v>-0.22943097299053219</v>
       </c>
       <c r="N403" s="15">
         <f t="shared" si="34"/>
-        <v>-0.3007173306046908</v>
+        <v>-0.14408790012624312</v>
       </c>
       <c r="O403" s="15">
         <v>1</v>
@@ -28269,7 +28291,7 @@
         <v>-9.4780216505857221E-3</v>
       </c>
       <c r="G404">
-        <f t="shared" ref="G404:G470" si="37">$E$11*(D404/$E$12+1)</f>
+        <f t="shared" ref="G404:G469" si="37">$E$11*(D404/$E$12+1)</f>
         <v>6.0749498625916862</v>
       </c>
       <c r="H404" s="10">
@@ -28281,16 +28303,16 @@
         <v>-1.0064521630323968</v>
       </c>
       <c r="K404">
-        <f t="shared" ref="K404:K470" si="39">$L$9*$L$4*EXP(-$L$6*(G404/$L$10-1))-SQRT($L$9)*$L$5*EXP(-$L$7*(G404/$L$10-1))</f>
+        <f t="shared" ref="K404:K469" si="39">$L$9*$L$4*EXP(-$L$6*(G404/$L$10-1))-SQRT($L$9)*$L$5*EXP(-$L$7*(G404/$L$10-1))</f>
         <v>-0.30211804457168767</v>
       </c>
       <c r="M404">
-        <f>$L$9*$O$4*EXP(-$O$6*(G404/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G404/$L$10-1))</f>
-        <v>-0.3821884725036685</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G404/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G404/$L$10-1))</f>
+        <v>-0.22665536203095346</v>
       </c>
       <c r="N404" s="15">
         <f t="shared" ref="N404:N467" si="40">(M404-H404)*O404</f>
-        <v>-0.29831745891763545</v>
+        <v>-0.14278434844492038</v>
       </c>
       <c r="O404" s="15">
         <v>1</v>
@@ -28309,7 +28331,7 @@
         <v>6.0848942238521184</v>
       </c>
       <c r="H405" s="10">
-        <f t="shared" ref="H405:H471" si="41">-(-$B$4)*(1+D405+$E$5*D405^3)*EXP(-D405)</f>
+        <f t="shared" ref="H405:H469" si="41">-(-$B$4)*(1+D405+$E$5*D405^3)*EXP(-D405)</f>
         <v>-8.2423789379028722E-2</v>
       </c>
       <c r="I405">
@@ -28321,12 +28343,12 @@
         <v>-0.2991855856394478</v>
       </c>
       <c r="M405">
-        <f>$L$9*$O$4*EXP(-$O$6*(G405/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G405/$L$10-1))</f>
-        <v>-0.37835537411369352</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G405/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G405/$L$10-1))</f>
+        <v>-0.22391331482420695</v>
       </c>
       <c r="N405" s="15">
         <f t="shared" si="40"/>
-        <v>-0.2959315847346648</v>
+        <v>-0.14148952544517823</v>
       </c>
       <c r="O405" s="15">
         <v>1</v>
@@ -28357,12 +28379,12 @@
         <v>-0.29628159013195204</v>
       </c>
       <c r="M406">
-        <f>$L$9*$O$4*EXP(-$O$6*(G406/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G406/$L$10-1))</f>
-        <v>-0.37456071885311037</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G406/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G406/$L$10-1))</f>
+        <v>-0.22120442603537549</v>
       </c>
       <c r="N406" s="15">
         <f t="shared" si="40"/>
-        <v>-0.29355972496109317</v>
+        <v>-0.14020343214335826</v>
       </c>
       <c r="O406" s="15">
         <v>1</v>
@@ -28393,12 +28415,12 @@
         <v>-0.2934057817739345</v>
       </c>
       <c r="M407">
-        <f>$L$9*$O$4*EXP(-$O$6*(G407/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G407/$L$10-1))</f>
-        <v>-0.37080412118092682</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G407/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G407/$L$10-1))</f>
+        <v>-0.21852829520585729</v>
       </c>
       <c r="N407" s="15">
         <f t="shared" si="40"/>
-        <v>-0.29120189405224528</v>
+        <v>-0.13892606807717575</v>
       </c>
       <c r="O407" s="15">
         <v>1</v>
@@ -28429,12 +28451,12 @@
         <v>-0.29055788697173179</v>
       </c>
       <c r="M408">
-        <f>$L$9*$O$4*EXP(-$O$6*(G408/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G408/$L$10-1))</f>
-        <v>-0.36708519942198348</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G408/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G408/$L$10-1))</f>
+        <v>-0.21588452669536271</v>
       </c>
       <c r="N408" s="15">
         <f t="shared" si="40"/>
-        <v>-0.28885810406668222</v>
+        <v>-0.13765743134006145</v>
       </c>
       <c r="O408" s="15">
         <v>1</v>
@@ -28465,12 +28487,12 @@
         <v>-0.28773763478725711</v>
       </c>
       <c r="M409">
-        <f>$L$9*$O$4*EXP(-$O$6*(G409/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G409/$L$10-1))</f>
-        <v>-0.36340357572822279</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G409/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G409/$L$10-1))</f>
+        <v>-0.21327272962457972</v>
       </c>
       <c r="N409" s="15">
         <f t="shared" si="40"/>
-        <v>-0.28652836471864984</v>
+        <v>-0.13639751861500679</v>
       </c>
       <c r="O409" s="15">
         <v>1</v>
@@ -28501,12 +28523,12 @@
         <v>-0.28494475691222565</v>
       </c>
       <c r="M410">
-        <f>$L$9*$O$4*EXP(-$O$6*(G410/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G410/$L$10-1))</f>
-        <v>-0.35975887604034873</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G410/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G410/$L$10-1))</f>
+        <v>-0.21069251781849974</v>
       </c>
       <c r="N410" s="15">
         <f t="shared" si="40"/>
-        <v>-0.28421268342976347</v>
+        <v>-0.1351463252079145</v>
       </c>
       <c r="O410" s="15">
         <v>1</v>
@@ -28537,12 +28559,12 @@
         <v>-0.28217898764262961</v>
       </c>
       <c r="M411">
-        <f>$L$9*$O$4*EXP(-$O$6*(G411/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G411/$L$10-1))</f>
-        <v>-0.35615073004986408</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G411/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G411/$L$10-1))</f>
+        <v>-0.20814350975039547</v>
       </c>
       <c r="N411" s="15">
         <f t="shared" si="40"/>
-        <v>-0.28191106537992361</v>
+        <v>-0.13390384508045497</v>
       </c>
       <c r="O411" s="15">
         <v>1</v>
@@ -28573,12 +28595,12 @@
         <v>-0.27944006385345838</v>
       </c>
       <c r="M412">
-        <f>$L$9*$O$4*EXP(-$O$6*(G412/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G412/$L$10-1))</f>
-        <v>-0.35257877116148756</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G412/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G412/$L$10-1))</f>
+        <v>-0.2056253284864405</v>
       </c>
       <c r="N412" s="15">
         <f t="shared" si="40"/>
-        <v>-0.27962351355747705</v>
+        <v>-0.13267007088242999</v>
       </c>
       <c r="O412" s="15">
         <v>1</v>
@@ -28609,12 +28631,12 @@
         <v>-0.27672772497367087</v>
       </c>
       <c r="M413">
-        <f>$L$9*$O$4*EXP(-$O$6*(G413/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G413/$L$10-1))</f>
-        <v>-0.34904263645595113</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G413/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G413/$L$10-1))</f>
+        <v>-0.20313760163097758</v>
       </c>
       <c r="N413" s="15">
         <f t="shared" si="40"/>
-        <v>-0.27735002880863241</v>
+        <v>-0.13144499398365886</v>
       </c>
       <c r="O413" s="15">
         <v>1</v>
@@ -28645,12 +28667,12 @@
         <v>-0.27404171296140428</v>
       </c>
       <c r="M414">
-        <f>$L$9*$O$4*EXP(-$O$6*(G414/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G414/$L$10-1))</f>
-        <v>-0.34554196665316289</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G414/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G414/$L$10-1))</f>
+        <v>-0.20067996127241194</v>
       </c>
       <c r="N414" s="15">
         <f t="shared" si="40"/>
-        <v>-0.27509060988612638</v>
+        <v>-0.13022860450537543</v>
       </c>
       <c r="O414" s="15">
         <v>1</v>
@@ -28681,12 +28703,12 @@
         <v>-0.27138177227942528</v>
       </c>
       <c r="M415">
-        <f>$L$9*$O$4*EXP(-$O$6*(G415/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G415/$L$10-1))</f>
-        <v>-0.34207640607573914</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G415/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G415/$L$10-1))</f>
+        <v>-0.19825204392973186</v>
       </c>
       <c r="N415" s="15">
         <f t="shared" si="40"/>
-        <v>-0.27284525349715377</v>
+        <v>-0.12902089135114653</v>
       </c>
       <c r="O415" s="15">
         <v>1</v>
@@ -28717,12 +28739,12 @@
         <v>-0.26874764987082039</v>
       </c>
       <c r="M416">
-        <f>$L$9*$O$4*EXP(-$O$6*(G416/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G416/$L$10-1))</f>
-        <v>-0.338645602612903</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G416/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G416/$L$10-1))</f>
+        <v>-0.19585349049965109</v>
       </c>
       <c r="N416" s="15">
         <f t="shared" si="40"/>
-        <v>-0.27061395435057051</v>
+        <v>-0.1278218422373186</v>
       </c>
       <c r="O416" s="15">
         <v>1</v>
@@ -28753,12 +28775,12 @@
         <v>-0.26613909513492312</v>
       </c>
       <c r="M417">
-        <f>$L$9*$O$4*EXP(-$O$6*(G417/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G417/$L$10-1))</f>
-        <v>-0.33524920768474326</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G417/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G417/$L$10-1))</f>
+        <v>-0.19348394620436493</v>
       </c>
       <c r="N417" s="15">
         <f t="shared" si="40"/>
-        <v>-0.26839670520337089</v>
+        <v>-0.12663144372299254</v>
       </c>
       <c r="O417" s="15">
         <v>1</v>
@@ -28789,12 +28811,12 @@
         <v>-0.26355585990347113</v>
       </c>
       <c r="M418">
-        <f>$L$9*$O$4*EXP(-$O$6*(G418/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G418/$L$10-1))</f>
-        <v>-0.33188687620682628</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G418/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G418/$L$10-1))</f>
+        <v>-0.19114306053990746</v>
       </c>
       <c r="N418" s="15">
         <f t="shared" si="40"/>
-        <v>-0.26619349690644528</v>
+        <v>-0.12544968123952649</v>
       </c>
       <c r="O418" s="15">
         <v>1</v>
@@ -28825,12 +28847,12 @@
         <v>-0.26099769841699882</v>
       </c>
       <c r="M419">
-        <f>$L$9*$O$4*EXP(-$O$6*(G419/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G419/$L$10-1))</f>
-        <v>-0.32855826655516862</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G419/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G419/$L$10-1))</f>
+        <v>-0.18883048722511586</v>
       </c>
       <c r="N419" s="15">
         <f t="shared" si="40"/>
-        <v>-0.26400431844963385</v>
+        <v>-0.12427653911958109</v>
       </c>
       <c r="O419" s="15">
         <v>1</v>
@@ -28861,12 +28883,12 @@
         <v>-0.25846436730145567</v>
       </c>
       <c r="M420">
-        <f>$L$9*$O$4*EXP(-$O$6*(G420/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G420/$L$10-1))</f>
-        <v>-0.32526304053155169</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G420/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G420/$L$10-1))</f>
+        <v>-0.18654588415118301</v>
       </c>
       <c r="N420" s="15">
         <f t="shared" si="40"/>
-        <v>-0.26182915700606901</v>
+        <v>-0.12311200062570034</v>
       </c>
       <c r="O420" s="15">
         <v>1</v>
@@ -28897,12 +28919,12 @@
         <v>-0.25595562554505485</v>
       </c>
       <c r="M421">
-        <f>$L$9*$O$4*EXP(-$O$6*(G421/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G421/$L$10-1))</f>
-        <v>-0.3220008633291912</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G421/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G421/$L$10-1))</f>
+        <v>-0.18428891333180092</v>
       </c>
       <c r="N421" s="15">
         <f t="shared" si="40"/>
-        <v>-0.25966799797582935</v>
+        <v>-0.12195604797843908</v>
       </c>
       <c r="O421" s="15">
         <v>1</v>
@@ -28933,12 +28955,12 @@
         <v>-0.2534712344753432</v>
       </c>
       <c r="M422">
-        <f>$L$9*$O$4*EXP(-$O$6*(G422/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G422/$L$10-1))</f>
-        <v>-0.31877140349874233</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G422/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G422/$L$10-1))</f>
+        <v>-0.18205924085388245</v>
       </c>
       <c r="N422" s="15">
         <f t="shared" si="40"/>
-        <v>-0.25752082502889689</v>
+        <v>-0.12080866238403701</v>
       </c>
       <c r="O422" s="15">
         <v>1</v>
@@ -28969,12 +28991,12 @@
         <v>-0.25101095773649557</v>
       </c>
       <c r="M423">
-        <f>$L$9*$O$4*EXP(-$O$6*(G423/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G423/$L$10-1))</f>
-        <v>-0.31557433291464965</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G423/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G423/$L$10-1))</f>
+        <v>-0.17985653682886049</v>
       </c>
       <c r="N423" s="15">
         <f t="shared" si="40"/>
-        <v>-0.25538762014743577</v>
+        <v>-0.11966982406164664</v>
       </c>
       <c r="O423" s="15">
         <v>1</v>
@@ -29005,12 +29027,12 @@
         <v>-0.24857456126683081</v>
       </c>
       <c r="M424">
-        <f>$L$9*$O$4*EXP(-$O$6*(G424/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G424/$L$10-1))</f>
-        <v>-0.31240932674183391</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G424/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G424/$L$10-1))</f>
+        <v>-0.17768047534455469</v>
       </c>
       <c r="N424" s="15">
         <f t="shared" si="40"/>
-        <v>-0.25326836366739658</v>
+        <v>-0.11853951227011733</v>
       </c>
       <c r="O424" s="15">
         <v>1</v>
@@ -29041,12 +29063,12 @@
         <v>-0.24616181327654185</v>
       </c>
       <c r="M425">
-        <f>$L$9*$O$4*EXP(-$O$6*(G425/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G425/$L$10-1))</f>
-        <v>-0.30927606340270669</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G425/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G425/$L$10-1))</f>
+        <v>-0.17553073441759912</v>
       </c>
       <c r="N425" s="15">
         <f t="shared" si="40"/>
-        <v>-0.25116303431944542</v>
+        <v>-0.11741770533433785</v>
       </c>
       <c r="O425" s="15">
         <v>1</v>
@@ -29077,12 +29099,12 @@
         <v>-0.24377248422564604</v>
       </c>
       <c r="M426">
-        <f>$L$9*$O$4*EXP(-$O$6*(G426/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G426/$L$10-1))</f>
-        <v>-0.30617422454452081</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G426/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G426/$L$10-1))</f>
+        <v>-0.17340699594642905</v>
       </c>
       <c r="N426" s="15">
         <f t="shared" si="40"/>
-        <v>-0.2490716092692386</v>
+        <v>-0.11630438067114685</v>
       </c>
       <c r="O426" s="15">
         <v>1</v>
@@ -29113,12 +29135,12 @@
         <v>-0.24140634680214815</v>
       </c>
       <c r="M427">
-        <f>$L$9*$O$4*EXP(-$O$6*(G427/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G427/$L$10-1))</f>
-        <v>-0.30310349500704481</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G427/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G427/$L$10-1))</f>
+        <v>-0.17130894566481669</v>
       </c>
       <c r="N427" s="15">
         <f t="shared" si="40"/>
-        <v>-0.24699406415703867</v>
+        <v>-0.11519951481481056</v>
       </c>
       <c r="O427" s="15">
         <v>1</v>
@@ -29149,12 +29171,12 @@
         <v>-0.23906317590041462</v>
       </c>
       <c r="M428">
-        <f>$L$9*$O$4*EXP(-$O$6*(G428/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G428/$L$10-1))</f>
-        <v>-0.30006356279056096</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G428/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G428/$L$10-1))</f>
+        <v>-0.16923627309595105</v>
       </c>
       <c r="N428" s="15">
         <f t="shared" si="40"/>
-        <v>-0.24493037313668398</v>
+        <v>-0.11410308344207407</v>
       </c>
       <c r="O428" s="15">
         <v>1</v>
@@ -29185,12 +29207,12 @@
         <v>-0.23674274859975752</v>
       </c>
       <c r="M429">
-        <f>$L$9*$O$4*EXP(-$O$6*(G429/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G429/$L$10-1))</f>
-        <v>-0.29705411902418188</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G429/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G429/$L$10-1))</f>
+        <v>-0.16718867150705569</v>
       </c>
       <c r="N429" s="15">
         <f t="shared" si="40"/>
-        <v>-0.24288050891391544</v>
+        <v>-0.11301506139678923</v>
       </c>
       <c r="O429" s="15">
         <v>1</v>
@@ -29221,12 +29243,12 @@
         <v>-0.23444484414322758</v>
       </c>
       <c r="M430">
-        <f>$L$9*$O$4*EXP(-$O$6*(G430/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G430/$L$10-1))</f>
-        <v>-0.29407485793448707</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G430/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G430/$L$10-1))</f>
+        <v>-0.16516583786454084</v>
       </c>
       <c r="N430" s="15">
         <f t="shared" si="40"/>
-        <v>-0.24084444278407302</v>
+        <v>-0.11193542271412679</v>
       </c>
       <c r="O430" s="15">
         <v>1</v>
@@ -29257,12 +29279,12 @@
         <v>-0.23216924391661345</v>
       </c>
       <c r="M431">
-        <f>$L$9*$O$4*EXP(-$O$6*(G431/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G431/$L$10-1))</f>
-        <v>-0.29112547681447304</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G431/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G431/$L$10-1))</f>
+        <v>-0.163167472789681</v>
       </c>
       <c r="N431" s="15">
         <f t="shared" si="40"/>
-        <v>-0.23882214466916524</v>
+        <v>-0.11086414064437318</v>
       </c>
       <c r="O431" s="15">
         <v>1</v>
@@ -29293,12 +29315,12 @@
         <v>-0.22991573142764182</v>
       </c>
       <c r="M432">
-        <f>$L$9*$O$4*EXP(-$O$6*(G432/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G432/$L$10-1))</f>
-        <v>-0.28820567599281033</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G432/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G432/$L$10-1))</f>
+        <v>-0.16119328051481194</v>
       </c>
       <c r="N432" s="15">
         <f t="shared" si="40"/>
-        <v>-0.23681358315431539</v>
+        <v>-0.109801187676317</v>
       </c>
       <c r="O432" s="15">
         <v>1</v>
@@ -29329,12 +29351,12 @@
         <v>-0.22768409228538278</v>
       </c>
       <c r="M433">
-        <f>$L$9*$O$4*EXP(-$O$6*(G433/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G433/$L$10-1))</f>
-        <v>-0.28531515880341285</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G433/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G433/$L$10-1))</f>
+        <v>-0.15924296884004552</v>
       </c>
       <c r="N433" s="15">
         <f t="shared" si="40"/>
-        <v>-0.23481872552360017</v>
+        <v>-0.10874653556023284</v>
       </c>
       <c r="O433" s="15">
         <v>1</v>
@@ -29365,12 +29387,12 @@
         <v>-0.22547411417985369</v>
       </c>
       <c r="M434">
-        <f>$L$9*$O$4*EXP(-$O$6*(G434/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G434/$L$10-1))</f>
-        <v>-0.28245363155530973</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G434/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G434/$L$10-1))</f>
+        <v>-0.15731624909049233</v>
       </c>
       <c r="N434" s="15">
         <f t="shared" si="40"/>
-        <v>-0.23283753779528041</v>
+        <v>-0.10770015533046301</v>
       </c>
       <c r="O434" s="15">
         <v>1</v>
@@ -29401,12 +29423,12 @@
         <v>-0.22328558686182029</v>
       </c>
       <c r="M435">
-        <f>$L$9*$O$4*EXP(-$O$6*(G435/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G435/$L$10-1))</f>
-        <v>-0.2796208035028182</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G435/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G435/$L$10-1))</f>
+        <v>-0.15541283607398707</v>
       </c>
       <c r="N435" s="15">
         <f t="shared" si="40"/>
-        <v>-0.23086998475643358</v>
+        <v>-0.10666201732760244</v>
       </c>
       <c r="O435" s="15">
         <v>1</v>
@@ -29437,12 +29459,12 @@
         <v>-0.2211183021227946</v>
       </c>
       <c r="M436">
-        <f>$L$9*$O$4*EXP(-$O$6*(G436/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G436/$L$10-1))</f>
-        <v>-0.27681638681601556</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G436/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G436/$L$10-1))</f>
+        <v>-0.15353244803931421</v>
       </c>
       <c r="N436" s="15">
         <f t="shared" si="40"/>
-        <v>-0.22891602999699454</v>
+        <v>-0.10563209122029318</v>
       </c>
       <c r="O436" s="15">
         <v>1</v>
@@ -29473,12 +29495,12 @@
         <v>-0.21897205377522799</v>
       </c>
       <c r="M437">
-        <f>$L$9*$O$4*EXP(-$O$6*(G437/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G437/$L$10-1))</f>
-        <v>-0.27404009655150852</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G437/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G437/$L$10-1))</f>
+        <v>-0.15167480663492483</v>
       </c>
       <c r="N437" s="15">
         <f t="shared" si="40"/>
-        <v>-0.22697563594321482</v>
+        <v>-0.10461034602663113</v>
       </c>
       <c r="O437" s="15">
         <v>1</v>
@@ -29509,12 +29531,12 @@
         <v>-0.21684663763289502</v>
       </c>
       <c r="M438">
-        <f>$L$9*$O$4*EXP(-$O$6*(G438/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G438/$L$10-1))</f>
-        <v>-0.27129165062349259</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G438/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G438/$L$10-1))</f>
+        <v>-0.14983963686814097</v>
       </c>
       <c r="N438" s="15">
         <f t="shared" si="40"/>
-        <v>-0.22504876389054085</v>
+        <v>-0.10359675013518924</v>
       </c>
       <c r="O438" s="15">
         <v>1</v>
@@ -29545,12 +29567,12 @@
         <v>-0.21474185149146591</v>
       </c>
       <c r="M439">
-        <f>$L$9*$O$4*EXP(-$O$6*(G439/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G439/$L$10-1))</f>
-        <v>-0.26857076977510014</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G439/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G439/$L$10-1))</f>
+        <v>-0.14802666706483977</v>
       </c>
       <c r="N439" s="15">
         <f t="shared" si="40"/>
-        <v>-0.22313537403592162</v>
+        <v>-0.10259127132566126</v>
       </c>
       <c r="O439" s="15">
         <v>1</v>
@@ -29581,12 +29603,12 @@
         <v>-0.21265749510927345</v>
       </c>
       <c r="M440">
-        <f>$L$9*$O$4*EXP(-$O$6*(G440/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G440/$L$10-1))</f>
-        <v>-0.26587717755004159</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G440/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G440/$L$10-1))</f>
+        <v>-0.14623562882961785</v>
       </c>
       <c r="N440" s="15">
         <f t="shared" si="40"/>
-        <v>-0.22123542550955827</v>
+        <v>-0.10159387678913452</v>
       </c>
       <c r="O440" s="15">
         <v>1</v>
@@ -29617,12 +29639,12 @@
         <v>-0.21059337018826063</v>
       </c>
       <c r="M441">
-        <f>$L$9*$O$4*EXP(-$O$6*(G441/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G441/$L$10-1))</f>
-        <v>-0.26321060026452409</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G441/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G441/$L$10-1))</f>
+        <v>-0.14446625700642257</v>
       </c>
       <c r="N441" s="15">
         <f t="shared" si="40"/>
-        <v>-0.21934887640609152</v>
+        <v>-0.10060453314799001</v>
       </c>
       <c r="O441" s="15">
         <v>1</v>
@@ -29653,12 +29675,12 @@
         <v>-0.20854928035511536</v>
       </c>
       <c r="M442">
-        <f>$L$9*$O$4*EXP(-$O$6*(G442/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G442/$L$10-1))</f>
-        <v>-0.26057076697945325</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G442/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G442/$L$10-1))</f>
+        <v>-0.14271828963964994</v>
       </c>
       <c r="N442" s="15">
         <f t="shared" si="40"/>
-        <v>-0.21747568381524057</v>
+        <v>-9.9623206475437251E-2</v>
       </c>
       <c r="O442" s="15">
         <v>1</v>
@@ -29689,12 +29711,12 @@
         <v>-0.20652503114258869</v>
       </c>
       <c r="M443">
-        <f>$L$9*$O$4*EXP(-$O$6*(G443/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G443/$L$10-1))</f>
-        <v>-0.25795740947291451</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G443/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G443/$L$10-1))</f>
+        <v>-0.14099146793570402</v>
       </c>
       <c r="N443" s="15">
         <f t="shared" si="40"/>
-        <v>-0.21561580385190091</v>
+        <v>-9.8649862314690417E-2</v>
       </c>
       <c r="O443" s="15">
         <v>1</v>
@@ -29725,12 +29747,12 @@
         <v>-0.20452042997099526</v>
       </c>
       <c r="M444">
-        <f>$L$9*$O$4*EXP(-$O$6*(G444/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G444/$L$10-1))</f>
-        <v>-0.25537026221293063</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G444/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G444/$L$10-1))</f>
+        <v>-0.13928553622501064</v>
       </c>
       <c r="N444" s="15">
         <f t="shared" si="40"/>
-        <v>-0.21376919168570646</v>
+        <v>-9.7684465697786466E-2</v>
       </c>
       <c r="O444" s="15">
         <v>1</v>
@@ -29761,12 +29783,12 @@
         <v>-0.20253528612988989</v>
       </c>
       <c r="M445">
-        <f>$L$9*$O$4*EXP(-$O$6*(G445/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G445/$L$10-1))</f>
-        <v>-0.25280906233048833</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G445/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G445/$L$10-1))</f>
+        <v>-0.13760024192447962</v>
       </c>
       <c r="N445" s="15">
         <f t="shared" si="40"/>
-        <v>-0.21193580157005909</v>
+        <v>-9.6726981164050388E-2</v>
       </c>
       <c r="O445" s="15">
         <v>1</v>
@@ -29797,12 +29819,12 @@
         <v>-0.2005694107599256</v>
       </c>
       <c r="M446">
-        <f>$L$9*$O$4*EXP(-$O$6*(G446/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G446/$L$10-1))</f>
-        <v>-0.25027354959283893</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G446/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G446/$L$10-1))</f>
+        <v>-0.13593533550041462</v>
       </c>
       <c r="N446" s="15">
         <f t="shared" si="40"/>
-        <v>-0.21011558687063928</v>
+        <v>-9.5777372778214964E-2</v>
       </c>
       <c r="O446" s="15">
         <v>1</v>
@@ -29833,12 +29855,12 @@
         <v>-0.19862261683488638</v>
       </c>
       <c r="M447">
-        <f>$L$9*$O$4*EXP(-$O$6*(G447/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G447/$L$10-1))</f>
-        <v>-0.2477634663770657</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G447/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G447/$L$10-1))</f>
+        <v>-0.13429057043186057</v>
       </c>
       <c r="N447" s="15">
         <f t="shared" si="40"/>
-        <v>-0.20830850009340071</v>
+        <v>-9.4835604148195585E-2</v>
       </c>
       <c r="O447" s="15">
         <v>1</v>
@@ -29869,12 +29891,12 @@
         <v>-0.1966947191438943</v>
       </c>
       <c r="M448">
-        <f>$L$9*$O$4*EXP(-$O$6*(G448/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G448/$L$10-1))</f>
-        <v>-0.24527855764391499</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G448/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G448/$L$10-1))</f>
+        <v>-0.132665703174387</v>
       </c>
       <c r="N448" s="15">
         <f t="shared" si="40"/>
-        <v>-0.2065144929120547</v>
+        <v>-9.3901638442526719E-2</v>
       </c>
       <c r="O448" s="15">
         <v>1</v>
@@ -29905,12 +29927,12 @@
         <v>-0.19478553427378753</v>
       </c>
       <c r="M449">
-        <f>$L$9*$O$4*EXP(-$O$6*(G449/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G449/$L$10-1))</f>
-        <v>-0.24281857091188744</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G449/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G449/$L$10-1))</f>
+        <v>-0.13106049312429924</v>
       </c>
       <c r="N449" s="15">
         <f t="shared" si="40"/>
-        <v>-0.20473351619505048</v>
+        <v>-9.2975438407462294E-2</v>
       </c>
       <c r="O449" s="15">
         <v>1</v>
@@ -29941,12 +29963,12 @@
         <v>-0.19289488059167401</v>
       </c>
       <c r="M450">
-        <f>$L$9*$O$4*EXP(-$O$6*(G450/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G450/$L$10-1))</f>
-        <v>-0.24038325623159548</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G450/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G450/$L$10-1))</f>
+        <v>-0.12947470258327851</v>
       </c>
       <c r="N450" s="15">
         <f t="shared" si="40"/>
-        <v>-0.20296552003206633</v>
+        <v>-9.2056966383749356E-2</v>
       </c>
       <c r="O450" s="15">
         <v>1</v>
@@ -29977,12 +29999,12 @@
         <v>-0.19102257822765009</v>
       </c>
       <c r="M451">
-        <f>$L$9*$O$4*EXP(-$O$6*(G451/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G451/$L$10-1))</f>
-        <v>-0.23797236616037071</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G451/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G451/$L$10-1))</f>
+        <v>-0.12790809672343789</v>
       </c>
       <c r="N451" s="15">
         <f t="shared" si="40"/>
-        <v>-0.20121045376000482</v>
+        <v>-9.1146184323072005E-2</v>
       </c>
       <c r="O451" s="15">
         <v>1</v>
@@ -30013,12 +30035,12 @@
         <v>-0.18916844905768801</v>
       </c>
       <c r="M452">
-        <f>$L$9*$O$4*EXP(-$O$6*(G452/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G452/$L$10-1))</f>
-        <v>-0.23558565573712859</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G452/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G452/$L$10-1))</f>
+        <v>-0.1263604435527958</v>
       </c>
       <c r="N452" s="15">
         <f t="shared" si="40"/>
-        <v>-0.19946826598850814</v>
+        <v>-9.0243053804175341E-2</v>
       </c>
       <c r="O452" s="15">
         <v>1</v>
@@ -30049,12 +30071,12 @@
         <v>-0.18733231668669059</v>
       </c>
       <c r="M453">
-        <f>$L$9*$O$4*EXP(-$O$6*(G453/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G453/$L$10-1))</f>
-        <v>-0.23322288245748504</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G453/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G453/$L$10-1))</f>
+        <v>-0.12483151388115887</v>
       </c>
       <c r="N453" s="15">
         <f t="shared" si="40"/>
-        <v>-0.19773890462499791</v>
+        <v>-8.9347536048671738E-2</v>
       </c>
       <c r="O453" s="15">
         <v>1</v>
@@ -30085,12 +30107,12 @@
         <v>-0.18551400643171043</v>
       </c>
       <c r="M454">
-        <f>$L$9*$O$4*EXP(-$O$6*(G454/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G454/$L$10-1))</f>
-        <v>-0.23088380624912341</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G454/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G454/$L$10-1))</f>
+        <v>-0.1233210812864125</v>
       </c>
       <c r="N454" s="15">
         <f t="shared" si="40"/>
-        <v>-0.1960223168992459</v>
+        <v>-8.8459591936534993E-2</v>
       </c>
       <c r="O454" s="15">
         <v>1</v>
@@ -30121,12 +30143,12 @@
         <v>-0.18371334530532946</v>
       </c>
       <c r="M455">
-        <f>$L$9*$O$4*EXP(-$O$6*(G455/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G455/$L$10-1))</f>
-        <v>-0.22856818944740487</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G455/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G455/$L$10-1))</f>
+        <v>-0.12182892208121002</v>
       </c>
       <c r="N455" s="15">
         <f t="shared" si="40"/>
-        <v>-0.19431844938747864</v>
+        <v>-8.7579182021283786E-2</v>
       </c>
       <c r="O455" s="15">
         <v>1</v>
@@ -30157,12 +30179,12 @@
         <v>-0.18193016199920292</v>
       </c>
       <c r="M456">
-        <f>$L$9*$O$4*EXP(-$O$6*(G456/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G456/$L$10-1))</f>
-        <v>-0.22627579677122647</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G456/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G456/$L$10-1))</f>
+        <v>-0.1203548152800596</v>
       </c>
       <c r="N456" s="15">
         <f t="shared" si="40"/>
-        <v>-0.1926272480360281</v>
+        <v>-8.670626654486123E-2</v>
       </c>
       <c r="O456" s="15">
         <v>1</v>
@@ -30193,12 +30215,12 @@
         <v>-0.18016428686776201</v>
       </c>
       <c r="M457">
-        <f>$L$9*$O$4*EXP(-$O$6*(G457/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G457/$L$10-1))</f>
-        <v>-0.22400639529912073</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G457/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G457/$L$10-1))</f>
+        <v>-0.11889854256680413</v>
       </c>
       <c r="N457" s="15">
         <f t="shared" si="40"/>
-        <v>-0.19094865818453183</v>
+        <v>-8.584080545221523E-2</v>
       </c>
       <c r="O457" s="15">
         <v>1</v>
@@ -30229,12 +30251,12 @@
         <v>-0.17841555191207331</v>
       </c>
       <c r="M458">
-        <f>$L$9*$O$4*EXP(-$O$6*(G458/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G458/$L$10-1))</f>
-        <v>-0.22175975444559251</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G458/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G458/$L$10-1))</f>
+        <v>-0.11745988826248636</v>
       </c>
       <c r="N458" s="15">
         <f t="shared" si="40"/>
-        <v>-0.18928262458868633</v>
+        <v>-8.49827584055802E-2</v>
       </c>
       <c r="O458" s="15">
         <v>1</v>
@@ -30265,12 +30287,12 @@
         <v>-0.1766837907638566</v>
       </c>
       <c r="M459">
-        <f>$L$9*$O$4*EXP(-$O$6*(G459/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G459/$L$10-1))</f>
-        <v>-0.21953564593769484</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G459/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G459/$L$10-1))</f>
+        <v>-0.11603863929359826</v>
       </c>
       <c r="N459" s="15">
         <f t="shared" si="40"/>
-        <v>-0.18762909144256434</v>
+        <v>-8.413208479846776E-2</v>
       </c>
       <c r="O459" s="15">
         <v>1</v>
@@ -30301,12 +30323,12 @@
         <v>-0.17496883866965768</v>
       </c>
       <c r="M460">
-        <f>$L$9*$O$4*EXP(-$O$6*(G460/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G460/$L$10-1))</f>
-        <v>-0.21733384379184026</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G460/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G460/$L$10-1))</f>
+        <v>-0.11463458516070936</v>
       </c>
       <c r="N460" s="15">
         <f t="shared" si="40"/>
-        <v>-0.18598800240050112</v>
+        <v>-8.3288743769370233E-2</v>
       </c>
       <c r="O460" s="15">
         <v>1</v>
@@ -30337,12 +30359,12 @@
         <v>-0.17327053247517429</v>
       </c>
       <c r="M461">
-        <f>$L$9*$O$4*EXP(-$O$6*(G461/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G461/$L$10-1))</f>
-        <v>-0.21515412429084263</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G461/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G461/$L$10-1))</f>
+        <v>-0.11324751790746847</v>
       </c>
       <c r="N461" s="15">
         <f t="shared" si="40"/>
-        <v>-0.18435930059855288</v>
+        <v>-8.2452694215178729E-2</v>
       </c>
       <c r="O461" s="15">
         <v>1</v>
@@ -30373,12 +30395,12 @@
         <v>-0.17158871060973266</v>
       </c>
       <c r="M462">
-        <f>$L$9*$O$4*EXP(-$O$6*(G462/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G462/$L$10-1))</f>
-        <v>-0.21299626596118867</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G462/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G462/$L$10-1))</f>
+        <v>-0.11187723208997406</v>
       </c>
       <c r="N462" s="15">
         <f t="shared" si="40"/>
-        <v>-0.18274292867553543</v>
+        <v>-8.1623894804320821E-2</v>
       </c>
       <c r="O462" s="15">
         <v>1</v>
@@ -30409,12 +30431,12 @@
         <v>-0.16992321307091893</v>
       </c>
       <c r="M463">
-        <f>$L$9*$O$4*EXP(-$O$6*(G463/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G463/$L$10-1))</f>
-        <v>-0.21086004955054116</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G463/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G463/$L$10-1))</f>
+        <v>-0.11052352474651347</v>
       </c>
       <c r="N463" s="15">
         <f t="shared" si="40"/>
-        <v>-0.18113882879365265</v>
+        <v>-8.0802303989624971E-2</v>
       </c>
       <c r="O463" s="15">
         <v>1</v>
@@ -30445,12 +30467,12 @@
         <v>-0.16827388140935504</v>
       </c>
       <c r="M464">
-        <f>$L$9*$O$4*EXP(-$O$6*(G464/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G464/$L$10-1))</f>
-        <v>-0.20874525800546323</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G464/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G464/$L$10-1))</f>
+        <v>-0.10918619536766026</v>
       </c>
       <c r="N464" s="15">
         <f t="shared" si="40"/>
-        <v>-0.17954694265871349</v>
+        <v>-7.9987880020910507E-2</v>
       </c>
       <c r="O464" s="15">
         <v>1</v>
@@ -30481,12 +30503,12 @@
         <v>-0.16664055871362557</v>
       </c>
       <c r="M465">
-        <f>$L$9*$O$4*EXP(-$O$6*(G465/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G465/$L$10-1))</f>
-        <v>-0.20665167644936733</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G465/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G465/$L$10-1))</f>
+        <v>-0.10786504586672982</v>
       </c>
       <c r="N465" s="15">
         <f t="shared" si="40"/>
-        <v>-0.17796721153994785</v>
+        <v>-7.9180580957310343E-2</v>
       </c>
       <c r="O465" s="15">
         <v>1</v>
@@ -30517,12 +30539,12 @@
         <v>-0.16502308959534889</v>
       </c>
       <c r="M466">
-        <f>$L$9*$O$4*EXP(-$O$6*(G466/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G466/$L$10-1))</f>
-        <v>-0.20457909216068629</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G466/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G466/$L$10-1))</f>
+        <v>-0.10655988055058763</v>
       </c>
       <c r="N466" s="15">
         <f t="shared" si="40"/>
-        <v>-0.17639957628942837</v>
+        <v>-7.8380364679329712E-2</v>
       </c>
       <c r="O466" s="15">
         <v>1</v>
@@ -30553,12 +30575,12 @@
         <v>-0.16342132017439545</v>
       </c>
       <c r="M467">
-        <f>$L$9*$O$4*EXP(-$O$6*(G467/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G467/$L$10-1))</f>
-        <v>-0.20252729455126298</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G467/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G467/$L$10-1))</f>
+        <v>-0.10527050609080756</v>
       </c>
       <c r="N467" s="15">
         <f t="shared" si="40"/>
-        <v>-0.17484397736110127</v>
+        <v>-7.7587188900645837E-2</v>
       </c>
       <c r="O467" s="15">
         <v>1</v>
@@ -30581,7 +30603,7 @@
         <v>-2.7195720315523312E-2</v>
       </c>
       <c r="I468">
-        <f t="shared" ref="I468:I470" si="43">H468*$E$6</f>
+        <f t="shared" ref="I468:I469" si="43">H468*$E$6</f>
         <v>-0.32634864378627976</v>
       </c>
       <c r="K468">
@@ -30589,12 +30611,12 @@
         <v>-0.16183509806424659</v>
       </c>
       <c r="M468">
-        <f>$L$9*$O$4*EXP(-$O$6*(G468/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G468/$L$10-1))</f>
-        <v>-0.20049607514495429</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G468/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G468/$L$10-1))</f>
+        <v>-0.10399673149517279</v>
       </c>
       <c r="N468" s="15">
         <f t="shared" ref="N468:N469" si="44">(M468-H468)*O468</f>
-        <v>-0.17330035482943099</v>
+        <v>-7.6801011179649478E-2</v>
       </c>
       <c r="O468" s="15">
         <v>1</v>
@@ -30625,12 +30647,12 @@
         <v>-0.16026427235749874</v>
       </c>
       <c r="M469">
-        <f>$L$9*$O$4*EXP(-$O$6*(G469/$L$10-1))-SQRT($L$9)*$O$5*EXP(-$O$7*(G469/$L$10-1))</f>
-        <v>-0.19848522755645326</v>
+        <f>$L$9*$O$7*EXP(-$O$8*(G469/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G469/$L$10-1))</f>
+        <v>-0.10273836807951957</v>
       </c>
       <c r="N469" s="15">
         <f t="shared" si="44"/>
-        <v>-0.17176864840766956</v>
+        <v>-7.6021788930735884E-2</v>
       </c>
       <c r="O469" s="15">
         <v>1</v>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BC7FF3-2D14-40CE-8CB7-E8A420F7B661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C013933-0222-4CE3-B0C0-823FD6240D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="30" windowWidth="28155" windowHeight="15030" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="225" yWindow="165" windowWidth="27510" windowHeight="15030" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
-    <sheet name="FCC" sheetId="2" r:id="rId1"/>
+    <sheet name="fit" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">FCC!$O$4:$O$5</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">fit!$O$4:$O$5</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">FCC!$O$8</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">FCC!$O$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">fit!$O$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">fit!$O$7</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -32,7 +32,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">FCC!$P$19</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">fit!$P$19</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>B</t>
     <phoneticPr fontId="1"/>
@@ -320,6 +320,22 @@
     <t>2. 3rd derivative and d=0.05 at re: p/q = 2.95</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>check (xi/A)/(p/q)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vs. sqrt(Z) =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Differene =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input (Ref)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +371,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +399,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,6 +505,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,7 +641,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>FCC!$D$19:$D$469</c:f>
+              <c:f>fit!$D$19:$D$469</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="451"/>
@@ -1978,7 +2003,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FCC!$E$19:$E$469</c:f>
+              <c:f>fit!$E$19:$E$469</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="451"/>
@@ -3756,7 +3781,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FCC!$H$18</c:f>
+              <c:f>fit!$H$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3791,7 +3816,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>FCC!$G$19:$G$469</c:f>
+              <c:f>fit!$G$19:$G$469</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="451"/>
@@ -5153,7 +5178,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FCC!$H$19:$H$469</c:f>
+              <c:f>fit!$H$19:$H$469</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="451"/>
@@ -6525,7 +6550,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>FCC!$K$18</c:f>
+              <c:f>fit!$K$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6560,7 +6585,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>FCC!$G$19:$G$469</c:f>
+              <c:f>fit!$G$19:$G$469</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="451"/>
@@ -7922,7 +7947,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FCC!$K$19:$K$469</c:f>
+              <c:f>fit!$K$19:$K$469</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="451"/>
@@ -9294,7 +9319,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>FCC!$M$18</c:f>
+              <c:f>fit!$M$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9329,7 +9354,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>FCC!$G$19:$G$469</c:f>
+              <c:f>fit!$G$19:$G$469</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="451"/>
@@ -10691,7 +10716,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FCC!$M$19:$M$469</c:f>
+              <c:f>fit!$M$19:$M$469</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="451"/>
@@ -13933,8 +13958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC96F8-554A-49E8-A62F-FFDB865EC586}">
   <dimension ref="A2:X469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13965,7 +13990,7 @@
         <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>24</v>
@@ -14331,26 +14356,28 @@
         <f>$E$15*$E$6</f>
         <v>-106.188</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1">
         <f>B4/L9+O4/SQRT(L9)</f>
         <v>0.37810914618561975</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D18" s="9" t="s">
         <v>11</v>
       </c>
@@ -14381,17 +14408,17 @@
       <c r="P18" t="s">
         <v>47</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="1">
         <v>2.95</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D19" s="6">
         <v>-1</v>
       </c>
@@ -14431,7 +14458,7 @@
         <v>52.721119880417007</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D20" s="6">
         <v>-0.98</v>
       </c>
@@ -14466,8 +14493,29 @@
       <c r="O20" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="Q20" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R20" s="1">
+        <f>(O4/O7)/(O8/O5)</f>
+        <v>3.464424078954695</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T20" s="1">
+        <f>SQRT(L9)</f>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V20" s="1">
+        <f>R20-T20</f>
+        <v>3.2246381694056581E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D21" s="6">
         <v>-0.96</v>
       </c>
@@ -14503,7 +14551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D22" s="6">
         <v>-0.94</v>
       </c>
@@ -14539,7 +14587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D23" s="6">
         <v>-0.92</v>
       </c>
@@ -14575,7 +14623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D24" s="6">
         <v>-0.9</v>
       </c>
@@ -14611,7 +14659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D25" s="6">
         <v>-0.88</v>
       </c>
@@ -14647,7 +14695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D26" s="6">
         <v>-0.86</v>
       </c>
@@ -14683,7 +14731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D27" s="6">
         <v>-0.84</v>
       </c>
@@ -14719,7 +14767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D28" s="6">
         <v>-0.82</v>
       </c>
@@ -14755,7 +14803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D29" s="6">
         <v>-0.8</v>
       </c>
@@ -14791,7 +14839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -14830,7 +14878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D31" s="6">
         <v>-0.76</v>
       </c>
@@ -14866,7 +14914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D32" s="6">
         <v>-0.74</v>
       </c>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C013933-0222-4CE3-B0C0-823FD6240D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A789C-E94D-4B82-8C17-5551029B57F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="165" windowWidth="27510" windowHeight="15030" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="-1515" yWindow="270" windowWidth="28800" windowHeight="15030" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="fit" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">fit!$O$4:$O$5</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">fit!$O$4</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">fit!$O$8</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">fit!$O$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">fit!$O$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">fit!$O$6</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>B</t>
     <phoneticPr fontId="1"/>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>&lt;-fit</t>
-  </si>
-  <si>
-    <t>&lt;-fit</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -306,10 +303,6 @@
   </si>
   <si>
     <t>(for p/q)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Constraints (1 &amp; 2) for fit</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -336,17 +329,54 @@
     <t>input (Ref)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rosato et al.,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(for xi)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. 1st derivative and r = re: xi = p/(p-q) * Ec/sqrt(Z)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Constraints (1,2, and 3) for fit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TB-SMA only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>universal curve (Rose function) + TB-SMA</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.0000E+00"/>
     <numFmt numFmtId="179" formatCode="0.0"/>
     <numFmt numFmtId="180" formatCode="0.E+00"/>
+    <numFmt numFmtId="184" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -371,7 +401,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +435,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,6 +550,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10721,1357 +10775,1357 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="451"/>
                 <c:pt idx="0">
-                  <c:v>2.7270493372080615</c:v>
+                  <c:v>2.7327597915033728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0605809913451836</c:v>
+                  <c:v>2.0659739168582441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4245244379859727</c:v>
+                  <c:v>1.4296150054416685</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81772332913624624</c:v>
+                  <c:v>0.82252604971863619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23906312008523756</c:v>
+                  <c:v>0.24359187273086746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.31253041752949429</c:v>
+                  <c:v>-0.30826235993669115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.8380926300535485</c:v>
+                  <c:v>-0.83407257554239678</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.3386213654019166</c:v>
+                  <c:v>-1.3348371787873887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.815078307691568</c:v>
+                  <c:v>-1.8115183874214047</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.2683902646489855</c:v>
+                  <c:v>-2.2650435205849284</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.6994504094607272</c:v>
+                  <c:v>-2.6963062415573482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.1091194786752752</c:v>
+                  <c:v>-3.1061677565208612</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.4982269277090374</c:v>
+                  <c:v>-3.4954579708942681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.8675720454527713</c:v>
+                  <c:v>-3.8649766047344123</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.2179250294239559</c:v>
+                  <c:v>-4.2154942686519377</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.5500280228578216</c:v>
+                  <c:v>-4.5477535016354143</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.8645961150814969</c:v>
+                  <c:v>-4.8624697721293852</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-5.162318306468487</c:v>
+                  <c:v>-5.1603324436648244</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.4438584392241154</c:v>
+                  <c:v>-5.4420057062935996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-5.7098560952090587</c:v>
+                  <c:v>-5.7081294750351912</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5.9609274619654133</c:v>
+                  <c:v>-5.9593202565011012</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-6.1976661680682739</c:v>
+                  <c:v>-6.1961719848209729</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-6.4206440888866769</c:v>
+                  <c:v>-6.4192568279550759</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-6.6304121237991662</c:v>
+                  <c:v>-6.6291259654394494</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6.8275009458723925</c:v>
+                  <c:v>-6.8263103385729202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7.0124217249756597</c:v>
+                  <c:v>-7.0113213740197313</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-7.1856668252699354</c:v>
+                  <c:v>-7.1846516817671251</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-7.3477104779768361</c:v>
+                  <c:v>-7.3467757283441397</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-7.4990094303008181</c:v>
+                  <c:v>-7.498150486175625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-7.6400035713473589</c:v>
+                  <c:v>-7.6392160599149044</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-7.7711165358499805</c:v>
+                  <c:v>-7.7703962905686872</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-7.8927562864902043</c:v>
+                  <c:v>-7.892099338198955</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-8.0053156755670933</c:v>
+                  <c:v>-8.0047182439590632</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-8.1091729867460138</c:v>
+                  <c:v>-8.1086314721943662</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-8.2046924575907703</c:v>
+                  <c:v>-8.2042034333120721</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-8.2922247835582894</c:v>
+                  <c:v>-8.2917849881000052</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-8.3721076041109654</c:v>
+                  <c:v>-8.3717139341500797</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-8.4446659715789067</c:v>
+                  <c:v>-8.4443154750190175</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-8.5102128033816822</c:v>
+                  <c:v>-8.5099026727366223</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-8.569049318197969</c:v>
+                  <c:v>-8.5687768842503704</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-8.6214654566504425</c:v>
+                  <c:v>-8.6212281823741037</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-8.6677402870534159</c:v>
+                  <c:v>-8.6675357617888587</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-8.7081423967513913</c:v>
+                  <c:v>-8.7079683306243361</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-8.7429302695578457</c:v>
+                  <c:v>-8.742784488130809</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-8.7723526497859474</c:v>
+                  <c:v>-8.7722330889334472</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-8.796648893345095</c:v>
+                  <c:v>-8.7965535943434876</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-8.8160493063608971</c:v>
+                  <c:v>-8.8159764111840637</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-8.8307754717596723</c:v>
+                  <c:v>-8.830723218572242</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-8.8410405642432046</c:v>
+                  <c:v>-8.84100728308327</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-8.8470496540644206</c:v>
+                  <c:v>-8.8470337627080156</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-8.8490000000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-8.8470813319022525</c:v>
+                  <c:v>-8.8470958047945096</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-8.8414761231987224</c:v>
+                  <c:v>-8.8415037268686891</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-8.8323598536953014</c:v>
+                  <c:v>-8.8323993188985437</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-8.8199012630258586</c:v>
+                  <c:v>-8.8199513900562003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-8.8042625950793703</c:v>
+                  <c:v>-8.8043222505786023</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-8.7855998337238148</c:v>
+                  <c:v>-8.7856679476272088</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-8.76406293013485</c:v>
+                  <c:v>-8.7641384927468842</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-8.7397960220263933</c:v>
+                  <c:v>-8.7398780812213612</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-8.712937645069692</c:v>
+                  <c:v>-8.7130253036120777</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-8.683620936777487</c:v>
+                  <c:v>-8.6837133497571664</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-8.651973833119893</c:v>
+                  <c:v>-8.6520702054974521</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-8.6181192581294166</c:v>
+                  <c:v>-8.6182188423870407</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-8.5821753067432649</c:v>
+                  <c:v>-8.5822774006368672</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-8.5442554211224717</c:v>
+                  <c:v>-8.5443593655308661</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-8.5044685606788057</c:v>
+                  <c:v>-8.5045737375459165</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-8.4629193660323256</c:v>
+                  <c:v>-8.463025196398597</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-8.4197083171145319</c:v>
+                  <c:v>-8.4198142592338439</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-8.3749318856245338</c:v>
+                  <c:v>-8.3750374331630688</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-8.3286826820382309</c:v>
+                  <c:v>-8.3287873623519069</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-8.2810495973635661</c:v>
+                  <c:v>-8.2811529698507584</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-8.232117939827944</c:v>
+                  <c:v>-8.2322195943543708</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-8.1819695666774379</c:v>
+                  <c:v>-8.1820691220702191</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-8.1306830112610449</c:v>
+                  <c:v>-8.1307801138690294</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-8.0783336055670887</c:v>
+                  <c:v>-8.0784279278846878</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-8.0249935983729959</c:v>
+                  <c:v>-8.0250848377248758</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-7.9707322691639764</c:v>
+                  <c:v>-7.9708201464480704</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-7.9156160379705955</c:v>
+                  <c:v>-7.9157002964569756</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-7.8597085712700387</c:v>
+                  <c:v>-7.8597889754533101</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-7.8030708840905731</c:v>
+                  <c:v>-7.8031472185935495</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-7.745761438453993</c:v>
+                  <c:v>-7.7458335069804836</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-7.6878362382858727</c:v>
+                  <c:v>-7.6879038626205256</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-7.6293489209189946</c:v>
+                  <c:v>-7.6294119399722016</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-7.570350845310859</c:v>
+                  <c:v>-7.5704091142068144</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-7.5108911770918292</c:v>
+                  <c:v>-7.5109445662979333</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-7.4510169705565179</c:v>
+                  <c:v>-7.4510653650523597</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-7.3907732477068206</c:v>
+                  <c:v>-7.3908165461910702</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-7.330203074451366</c:v>
+                  <c:v>-7.330241188584937</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-7.2693476340623135</c:v>
+                  <c:v>-7.2693804877463046</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-7.2082462979869337</c:v>
+                  <c:v>-7.2082738266738167</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-7.1469366941079535</c:v>
+                  <c:v>-7.1469588441446117</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-7.0854547725432813</c:v>
+                  <c:v>-7.085471500544525</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-7.0238348690725534</c:v>
+                  <c:v>-7.0238461413238245</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-6.9621097662748852</c:v>
+                  <c:v>-6.9621155581628766</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-6.9003107524591352</c:v>
+                  <c:v>-6.9003110479291321</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-6.8384676784652454</c:v>
+                  <c:v>-6.8384624695040479</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-6.7766090124122709</c:v>
+                  <c:v>-6.7765982985555784</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-6.7147618924662229</c:v>
+                  <c:v>-6.7147456803294263</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-6.6529521776981069</c:v>
+                  <c:v>-6.6529304805294842</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-6.5912044971001427</c:v>
+                  <c:v>-6.591177334355474</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-6.5295422968257357</c:v>
+                  <c:v>-6.5295096937634076</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-6.4679878857163802</c:v>
+                  <c:v>-6.4679498730120946</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-6.4065624791765279</c:v>
+                  <c:v>-6.4065190925567528</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-6.3452862414552591</c:v>
+                  <c:v>-6.3452375213485936</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-6.284178326391471</c:v>
+                  <c:v>-6.2841243175971577</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-6.2232569166774043</c:v>
+                  <c:v>-6.2231976680502132</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-6.1625392616932135</c:v>
+                  <c:v>-6.1624748258439928</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-6.1020417139636063</c:v>
+                  <c:v>-6.1019721469748056</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-6.0417797642856508</c:v>
+                  <c:v>-6.0417051254411396</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-5.9817680755751166</c:v>
+                  <c:v>-5.9816884271036841</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-5.9220205154771479</c:v>
+                  <c:v>-5.9219359223090606</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-5.8625501877852741</c:v>
+                  <c:v>-5.8624607173213104</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-5.8033694627113457</c:v>
+                  <c:v>-5.8032751846037591</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-5.7444900060474247</c:v>
+                  <c:v>-5.7443909919922893</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-5.6859228072591659</c:v>
+                  <c:v>-5.6858191307996035</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-5.6276782065489384</c:v>
+                  <c:v>-5.6275699428887203</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-5.5697659209254153</c:v>
+                  <c:v>-5.5696531467524864</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-5.5121950693152231</c:v>
+                  <c:v>-5.5120778626346887</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-5.4549741967508689</c:v>
+                  <c:v>-5.4548526367270185</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-5.3981112976679917</c:v>
+                  <c:v>-5.3979854644749397</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-5.3416138383438572</c:v>
+                  <c:v>-5.3414838130244151</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-5.2854887785077533</c:v>
+                  <c:v>-5.2853546428401526</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-5.229742592153019</c:v>
+                  <c:v>-5.2296044285251195</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-5.1743812875792683</c:v>
+                  <c:v>-5.1742391788699047</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-5.1194104266923901</c:v>
+                  <c:v>-5.1192644561595362</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-5.0648351435889811</c:v>
+                  <c:v>-5.0646853947644006</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-5.010660162450808</c:v>
+                  <c:v>-5.0105067190408974</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-4.9568898147741063</c:v>
+                  <c:v>-4.9567327605666351</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-4.9035280559575742</c:v>
+                  <c:v>-4.9033674747340443</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-4.8505784812720698</c:v>
+                  <c:v>-4.8504144567254386</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-4.7980443412342852</c:v>
+                  <c:v>-4.7978769568917707</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-4.7459285564057332</c:v>
+                  <c:v>-4.7457578955565003</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-4.6942337316377873</c:v>
+                  <c:v>-4.6940598772652358</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-4.6429621697826553</c:v>
+                  <c:v>-4.6427852045011253</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-4.5921158848895258</c:v>
+                  <c:v>-4.5919358908851811</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-4.5416966149044402</c:v>
+                  <c:v>-4.5415136738801474</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-4.4917058338917348</c:v>
+                  <c:v>-4.4915200270157216</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-4.4421447637943272</c:v>
+                  <c:v>-4.4419561716524552</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-4.3930143857494723</c:v>
+                  <c:v>-4.39282308830093</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-4.344315450976012</c:v>
+                  <c:v>-4.3441215275122671</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-4.2960484912486328</c:v>
+                  <c:v>-4.2958520203554738</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-4.2482138289739861</c:v>
+                  <c:v>-4.2480148884965114</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-4.2008115868831277</c:v>
+                  <c:v>-4.2006102538935153</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-4.1538416973541015</c:v>
+                  <c:v>-4.1536380481220334</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-4.1073039113780903</c:v>
+                  <c:v>-4.1070980213436865</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-4.0611978071820216</c:v>
+                  <c:v>-4.060989750931161</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-4.0155227985200845</c:v>
+                  <c:v>-4.01531264976198</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-3.9702781426461522</c:v>
+                  <c:v>-3.9700659741930724</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-3.9254629479787049</c:v>
+                  <c:v>-3.925248831727731</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-3.8810761814694072</c:v>
+                  <c:v>-3.8808601883860936</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-3.8371166756861212</c:v>
+                  <c:v>-3.8368988757899936</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-3.7935831356207133</c:v>
+                  <c:v>-3.7933635979724758</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-3.7504741452317005</c:v>
+                  <c:v>-3.7502529379220775</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-3.7077881737313758</c:v>
+                  <c:v>-3.7075653638714865</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-3.6655235816267129</c:v>
+                  <c:v>-3.6652992353399072</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-3.6236786265230831</c:v>
+                  <c:v>-3.6234528089381364</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-3.5822514686993729</c:v>
+                  <c:v>-3.5820242439449856</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-3.5412401764629085</c:v>
+                  <c:v>-3.5410116076634237</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-3.5006427312922153</c:v>
+                  <c:v>-3.5004128805644834</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-3.4604570327753823</c:v>
+                  <c:v>-3.4602259612267137</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-3.4206809033515375</c:v>
+                  <c:v>-3.4204486710786699</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-3.3813120928626188</c:v>
+                  <c:v>-3.3810787589516433</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-3.3423482829224347</c:v>
+                  <c:v>-3.3421139054496214</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-3.3037870911097205</c:v>
+                  <c:v>-3.3035517271431942</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-3.265626074991649</c:v>
+                  <c:v>-3.2653897805938499</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-3.2278627359840688</c:v>
+                  <c:v>-3.2276255662149578</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-3.1904945230544555</c:v>
+                  <c:v>-3.1902565319754141</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-3.1535188362733981</c:v>
+                  <c:v>-3.1532800769517784</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-3.1169330302202209</c:v>
+                  <c:v>-3.1166935547344932</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-3.0807344172481006</c:v>
+                  <c:v>-3.0804942766935786</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-3.0449202706139502</c:v>
+                  <c:v>-3.04467951510903</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-3.009487827478003</c:v>
+                  <c:v>-3.0092465061708942</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-2.9744342917779898</c:v>
+                  <c:v>-2.9741924528539032</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-2.9397568369825509</c:v>
+                  <c:v>-2.9395145276712973</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-2.9054526087283681</c:v>
+                  <c:v>-2.9052098753123521</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-2.8715187273453822</c:v>
+                  <c:v>-2.8712756151679493</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-2.8379522902742331</c:v>
+                  <c:v>-2.8377088437483446</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-2.804750374379974</c:v>
+                  <c:v>-2.8045066369971852</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-2.7719100381659501</c:v>
+                  <c:v>-2.7716660525056658</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-2.7394283238915382</c:v>
+                  <c:v>-2.7391841316305103</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-2.7073022595974363</c:v>
+                  <c:v>-2.7070579015194998</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-2.6755288610419048</c:v>
+                  <c:v>-2.6752843770479089</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-2.6441051335513408</c:v>
+                  <c:v>-2.6438605626692726</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-2.6130280737884157</c:v>
+                  <c:v>-2.6127834541836874</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-2.5822946714409394</c:v>
+                  <c:v>-2.5820500404268172</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-2.551901910834331</c:v>
+                  <c:v>-2.5516573048824953</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-2.5218467724707447</c:v>
+                  <c:v>-2.521602227221964</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-2.4921262344975275</c:v>
+                  <c:v>-2.4918817847724228</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-2.4627372741077331</c:v>
+                  <c:v>-2.4624929539176308</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-2.4336768688752928</c:v>
+                  <c:v>-2.433432711433138</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-2.4049419980273634</c:v>
+                  <c:v>-2.4046980357586896</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-2.3765296436561902</c:v>
+                  <c:v>-2.3762859082101295</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-2.3484367918728539</c:v>
+                  <c:v>-2.3481933141331783</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-2.3206604339051853</c:v>
+                  <c:v>-2.3204172440013648</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-2.2931975671418621</c:v>
+                  <c:v>-2.2929546944601293</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-2.2660451961249275</c:v>
+                  <c:v>-2.2658026693193425</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-2.239200333492616</c:v>
+                  <c:v>-2.2389581804961201</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-2.2126600008744708</c:v>
+                  <c:v>-2.2124182489099176</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-2.1864212297405921</c:v>
+                  <c:v>-2.1861799053317559</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-2.1604810622068085</c:v>
+                  <c:v>-2.1602401911893492</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-2.1348365517975116</c:v>
+                  <c:v>-2.1345961593299037</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-2.1094847641677914</c:v>
+                  <c:v>-2.1092448747422021</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-2.0844227777865019</c:v>
+                  <c:v>-2.0841834152396146</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-2.0596476845817593</c:v>
+                  <c:v>-2.0594088721055308</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-2.0351565905504301</c:v>
+                  <c:v>-2.0349183507027875</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-2.010946616332967</c:v>
+                  <c:v>-2.0107089710484294</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-1.9870148977549973</c:v>
+                  <c:v>-1.9867778683552231</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-1.9633585863370346</c:v>
+                  <c:v>-1.9631221935412875</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-1.9399748497735387</c:v>
+                  <c:v>-1.9397391137090678</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-1.9168608723825573</c:v>
+                  <c:v>-1.9166258125948927</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-1.8940138555272192</c:v>
+                  <c:v>-1.8937794909903742</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-1.8714310180100935</c:v>
+                  <c:v>-1.8711973671366697</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-1.8491095964416391</c:v>
+                  <c:v>-1.8488766770928411</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-1.8270468455837301</c:v>
+                  <c:v>-1.8268146750792735</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-1.8052400386693075</c:v>
+                  <c:v>-1.8050086337972262</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-1.7836864676991411</c:v>
+                  <c:v>-1.7834558447254951</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-1.7623834437166486</c:v>
+                  <c:v>-1.7621536183951207</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-1.7413282970616659</c:v>
+                  <c:v>-1.741099284643052</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-1.7205183776040998</c:v>
+                  <c:v>-1.7202901928456915</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-1.6999510549582308</c:v>
+                  <c:v>-1.6997237121330844</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-1.6796237186785603</c:v>
+                  <c:v>-1.6793972315846586</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-1.6595337784379345</c:v>
+                  <c:v>-1.6593081604072297</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-1.6396786641887153</c:v>
+                  <c:v>-1.6394539280960669</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-1.6200558263077423</c:v>
+                  <c:v>-1.6198319845797349</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-1.6006627357257441</c:v>
+                  <c:v>-1.6004398003493883</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-1.5814968840419286</c:v>
+                  <c:v>-1.5812748665732557</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-1.5625557836243549</c:v>
+                  <c:v>-1.5623346951968888</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-1.5438369676967176</c:v>
+                  <c:v>-1.5436168190298323</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-1.5253379904121755</c:v>
+                  <c:v>-1.5251187918193418</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-1.5070564269147702</c:v>
+                  <c:v>-1.5068381883116801</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-1.488989873388991</c:v>
+                  <c:v>-1.4887726043015721</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-1.4711359470980365</c:v>
+                  <c:v>-1.4709196566703482</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-1.4534922864113018</c:v>
+                  <c:v>-1.4532769834133175</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-1.4360565508215288</c:v>
+                  <c:v>-1.4358422436568057</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-1.4188264209521608</c:v>
+                  <c:v>-1.4186131176653913</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-1.4017995985553289</c:v>
+                  <c:v>-1.4015873068397822</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-1.3849738065008981</c:v>
+                  <c:v>-1.384762533705747</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-1.3683467887570333</c:v>
+                  <c:v>-1.3681365418945681</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-1.3519163103626555</c:v>
+                  <c:v>-1.351707096115391</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-1.3356801573922044</c:v>
+                  <c:v>-1.3354719821198684</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-1.319636136913076</c:v>
+                  <c:v>-1.3194290066594931</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-1.3037820769360935</c:v>
+                  <c:v>-1.3035759974359593</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-1.2881158263593619</c:v>
+                  <c:v>-1.2879108030449049</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-1.2726352549058553</c:v>
+                  <c:v>-1.2724312929133981</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-1.2573382530550223</c:v>
+                  <c:v>-1.2571353572314279</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-1.2422227319687658</c:v>
+                  <c:v>-1.2420209068777852</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-1.2272866234120499</c:v>
+                  <c:v>-1.2270858733405625</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-1.2125278796684598</c:v>
+                  <c:v>-1.2123282086326084</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-1.1979444734509361</c:v>
+                  <c:v>-1.1977458852021636</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-1.1835343978080195</c:v>
+                  <c:v>-1.1833368958390007</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-1.1692956660257847</c:v>
+                  <c:v>-1.1690992535762572</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-1.1552263115257464</c:v>
+                  <c:v>-1.1550309915882468</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-1.1413243877589814</c:v>
+                  <c:v>-1.1411301630844783</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-1.1275879680966481</c:v>
+                  <c:v>-1.1273948412000807</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-1.1140151457171485</c:v>
+                  <c:v>-1.1138231188828687</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-1.1006040334901539</c:v>
+                  <c:v>-1.1004131087772737</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>-1.087352763857633</c:v>
+                  <c:v>-1.0871629431052785</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>-1.0742594887121426</c:v>
+                  <c:v>-1.0740707735446169</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>-1.0613223792725168</c:v>
+                  <c:v>-1.0611347711043675</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>-1.0485396259571325</c:v>
+                  <c:v>-1.0483531259981327</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>-1.0359094382549776</c:v>
+                  <c:v>-1.0357240475150202</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>-1.0234300445945297</c:v>
+                  <c:v>-1.0232457638884263</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>-1.0110996922108311</c:v>
+                  <c:v>-1.0109165221630325</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>-0.99891664701068894</c:v>
+                  <c:v>-0.99873458805991622</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>-0.98687919343628205</c:v>
+                  <c:v>-0.98669824584007282</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>-0.97498563432720342</c:v>
+                  <c:v>-0.97480579816637858</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>-0.96323429078119316</c:v>
+                  <c:v>-0.96305556596423825</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>-0.95162350201357404</c:v>
+                  <c:v>-0.95144588828094201</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>-0.9401516252155826</c:v>
+                  <c:v>-0.93997512214391588</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>-0.92881703541160976</c:v>
+                  <c:v>-0.92864164241788572</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>-0.9176181253156378</c:v>
+                  <c:v>-0.91744384166123572</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>-0.90655330518677568</c:v>
+                  <c:v>-0.90638012998146578</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>-0.89562100268414757</c:v>
+                  <c:v>-0.89544893489001098</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>-0.88481966272110013</c:v>
+                  <c:v>-0.88464870115636829</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>-0.87414774731897449</c:v>
+                  <c:v>-0.87397789066180021</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>-0.8636037354603664</c:v>
+                  <c:v>-0.86343498225252302</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>-0.85318612294209795</c:v>
+                  <c:v>-0.85301847159260591</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>-0.84289342222783281</c:v>
+                  <c:v>-0.84272687101651889</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>-0.83272416230059465</c:v>
+                  <c:v>-0.83255870938158261</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>-0.8226768885150807</c:v>
+                  <c:v>-0.82251253192021367</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>-0.81275016244998088</c:v>
+                  <c:v>-0.81258690009217938</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>-0.80294256176022438</c:v>
+                  <c:v>-0.8027803914367776</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>-0.79325268002939531</c:v>
+                  <c:v>-0.79309159942518981</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>-0.78367912662222405</c:v>
+                  <c:v>-0.78351913331290868</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>-0.77422052653726081</c:v>
+                  <c:v>-0.77406161799234929</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>-0.76487552025982675</c:v>
+                  <c:v>-0.76471769384574095</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>-0.75564276361521143</c:v>
+                  <c:v>-0.75548601659826276</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>-0.74652092762229549</c:v>
+                  <c:v>-0.74636525717160895</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>-0.73750869834745547</c:v>
+                  <c:v>-0.73735410153783376</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>-0.72860477675898705</c:v>
+                  <c:v>-0.72845125057372051</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>-0.71980787858194639</c:v>
+                  <c:v>-0.71965541991556436</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>-0.71111673415357479</c:v>
+                  <c:v>-0.71096533981454302</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>-0.7025300882791895</c:v>
+                  <c:v>-0.70237975499255334</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>-0.69404670008873193</c:v>
+                  <c:v>-0.69389742449870551</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>-0.68566534289388681</c:v>
+                  <c:v>-0.68551712156639166</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>-0.67738480404592016</c:v>
+                  <c:v>-0.67723763347106947</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>-0.66920388479412019</c:v>
+                  <c:v>-0.66905776138865525</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>-0.6611214001450112</c:v>
+                  <c:v>-0.660976320254687</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>-0.65313617872226604</c:v>
+                  <c:v>-0.65299213862418781</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>-0.64524706262743248</c:v>
+                  <c:v>-0.64510405853234443</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>-0.63745290730138204</c:v>
+                  <c:v>-0.6373109353559081</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>-0.6297525813866206</c:v>
+                  <c:v>-0.62961163767546191</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>-0.62214496659038543</c:v>
+                  <c:v>-0.62200504713846727</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>-0.61462895754865787</c:v>
+                  <c:v>-0.61449005832323644</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>-0.60720346169096084</c:v>
+                  <c:v>-0.6070655786036836</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>-0.59986739910610454</c:v>
+                  <c:v>-0.59973052801502791</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>-0.5926197024087867</c:v>
+                  <c:v>-0.59248383912035141</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>-0.58545931660716999</c:v>
+                  <c:v>-0.58532445687813484</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>-0.57838519897131335</c:v>
+                  <c:v>-0.57825133851064781</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>-0.57139631890259235</c:v>
+                  <c:v>-0.57126345337332962</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>-0.5644916578040684</c:v>
+                  <c:v>-0.56435978282511801</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>-0.55767020895180175</c:v>
+                  <c:v>-0.55753932009972296</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>-0.55093097736715746</c:v>
+                  <c:v>-0.5508010701778977</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>-0.54427297969008082</c:v>
+                  <c:v>-0.5441440496606722</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>-0.53769524405336822</c:v>
+                  <c:v>-0.53756728664359099</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>-0.53119680995793706</c:v>
+                  <c:v>-0.53106982059194507</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>-0.52477672814909071</c:v>
+                  <c:v>-0.52465070221700194</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>-0.51843406049380247</c:v>
+                  <c:v>-0.5183089933532562</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>-0.5121678798590088</c:v>
+                  <c:v>-0.51204376683668529</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>-0.50597726999091985</c:v>
+                  <c:v>-0.50585410638402983</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>-0.49986132539535644</c:v>
+                  <c:v>-0.49973910647309716</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>-0.4938191512191103</c:v>
+                  <c:v>-0.4936978722240869</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>-0.48784986313232892</c:v>
+                  <c:v>-0.48772951928194702</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>-0.48195258721194034</c:v>
+                  <c:v>-0.48183317369976603</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>-0.47612645982609247</c:v>
+                  <c:v>-0.47600797182318205</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>-0.47037062751964376</c:v>
+                  <c:v>-0.47025306017584367</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>-0.46468424690067217</c:v>
+                  <c:v>-0.46456759534588887</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>-0.4590664845280199</c:v>
+                  <c:v>-0.45895074387346224</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>-0.45351651679987737</c:v>
+                  <c:v>-0.45340168213926907</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>-0.44803352984338962</c:v>
+                  <c:v>-0.44791959625415528</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>-0.4426167194052924</c:v>
+                  <c:v>-0.44250368194971446</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>-0.43726529074358689</c:v>
+                  <c:v>-0.43715314446993853</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>-0.4319784585202292</c:v>
+                  <c:v>-0.43186719846387822</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>-0.42675544669484777</c:v>
+                  <c:v>-0.42664506787933643</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>-0.4215954884194828</c:v>
+                  <c:v>-0.42148598585758124</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>-0.41649782593434531</c:v>
+                  <c:v>-0.4163891946290818</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>-0.41146171046458474</c:v>
+                  <c:v>-0.41135394541024939</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>-0.40648640211807419</c:v>
+                  <c:v>-0.40637949830120046</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>-0.40157116978420171</c:v>
+                  <c:v>-0.40146512218452396</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>-0.3967152910336606</c:v>
+                  <c:v>-0.39661009462504837</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>-0.39191805201924373</c:v>
+                  <c:v>-0.39181370177061386</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>-0.38717874737763075</c:v>
+                  <c:v>-0.38707523825383738</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>-0.38249668013216526</c:v>
+                  <c:v>-0.38239400709486754</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>-0.37787116159661055</c:v>
+                  <c:v>-0.37776931960512006</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>-0.37330151127989764</c:v>
+                  <c:v>-0.37320049529200433</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>-0.36878705679183665</c:v>
+                  <c:v>-0.36868686176461379</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>-0.36432713374979903</c:v>
+                  <c:v>-0.36422775464038909</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>-0.35992108568636516</c:v>
+                  <c:v>-0.35982251745274602</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>-0.35556826395793079</c:v>
+                  <c:v>-0.3554705015596612</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>-0.35126802765425746</c:v>
+                  <c:v>-0.35117106605320542</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>-0.3470197435089778</c:v>
+                  <c:v>-0.34692357767002874</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>-0.34282278581103059</c:v>
+                  <c:v>-0.34272741070277885</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>-0.33867653631703737</c:v>
+                  <c:v>-0.33858194691245835</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>-0.33458038416459773</c:v>
+                  <c:v>-0.3344865754417039</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>-0.33053372578650969</c:v>
+                  <c:v>-0.33044069272898818</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>-0.32653596482590269</c:v>
+                  <c:v>-0.32644370242373716</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>-0.32258651205227434</c:v>
+                  <c:v>-0.32249501530234953</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>-0.31868478527842992</c:v>
+                  <c:v>-0.31859404918512013</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>-0.31483020927831573</c:v>
+                  <c:v>-0.31474022885405822</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>-0.31102221570573618</c:v>
+                  <c:v>-0.31093298597158792</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>-0.30726024301395077</c:v>
+                  <c:v>-0.30717175900013083</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>-0.30354373637614501</c:v>
+                  <c:v>-0.30345599312256094</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>-0.29987214760676711</c:v>
+                  <c:v>-0.29978514016352881</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>-0.29624493508371996</c:v>
+                  <c:v>-0.29615865851163609</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>-0.29266156367140689</c:v>
+                  <c:v>-0.29257601304247</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>-0.2891215046446225</c:v>
+                  <c:v>-0.28903667504247899</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>-0.28562423561327699</c:v>
+                  <c:v>-0.28554012213368363</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>-0.28216924044795305</c:v>
+                  <c:v>-0.28208583819922095</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>-0.27875600920628607</c:v>
+                  <c:v>-0.27867331330971068</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>-0.27538403806015765</c:v>
+                  <c:v>-0.27530204365043698</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>-0.27205282922369622</c:v>
+                  <c:v>-0.27197153144933589</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>-0.26876189088208463</c:v>
+                  <c:v>-0.26868128490579141</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>-0.26551073712115553</c:v>
+                  <c:v>-0.26543081812021807</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>-0.26229888785777494</c:v>
+                  <c:v>-0.26221965102443368</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>-0.25912586877100668</c:v>
+                  <c:v>-0.25904730931281167</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>-0.25599121123404928</c:v>
+                  <c:v>-0.25591332437420677</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>-0.25289445224693397</c:v>
+                  <c:v>-0.25281723322464261</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>-0.24983513436998511</c:v>
+                  <c:v>-0.24975857844076074</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>-0.24681280565802982</c:v>
+                  <c:v>-0.24673690809401949</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>-0.24382701959534978</c:v>
+                  <c:v>-0.24375177568563655</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>-0.24087733503136827</c:v>
+                  <c:v>-0.24080274008226452</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>-0.23796331611707228</c:v>
+                  <c:v>-0.23788936545240408</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>-0.23508453224215048</c:v>
+                  <c:v>-0.23501122120353177</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>-0.23224055797284854</c:v>
+                  <c:v>-0.23216788191994589</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>-0.22943097299053219</c:v>
+                  <c:v>-0.2293589273013204</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>-0.22665536203095346</c:v>
+                  <c:v>-0.22658394210196173</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>-0.22391331482420695</c:v>
+                  <c:v>-0.22384251607075645</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>-0.22120442603537549</c:v>
+                  <c:v>-0.22113424389180802</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>-0.21852829520585729</c:v>
+                  <c:v>-0.21845872512575515</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>-0.21588452669536271</c:v>
+                  <c:v>-0.2158155641517609</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>-0.21327272962457972</c:v>
+                  <c:v>-0.21320437011016913</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>-0.21069251781849974</c:v>
+                  <c:v>-0.21062475684582305</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>-0.20814350975039547</c:v>
+                  <c:v>-0.20807634285203397</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>-0.2056253284864405</c:v>
+                  <c:v>-0.20555875121519521</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>-0.20313760163097758</c:v>
+                  <c:v>-0.20307160956004117</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>-0.20067996127241194</c:v>
+                  <c:v>-0.20061454999553335</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>-0.19825204392973186</c:v>
+                  <c:v>-0.19818720906137519</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>-0.19585349049965109</c:v>
+                  <c:v>-0.19578922767514612</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>-0.19348394620436493</c:v>
+                  <c:v>-0.19342025108005048</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>-0.19114306053990746</c:v>
+                  <c:v>-0.19107992879326924</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>-0.18883048722511586</c:v>
+                  <c:v>-0.18876791455491751</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>-0.18654588415118301</c:v>
+                  <c:v>-0.18648386627758923</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>-0.18428891333180092</c:v>
+                  <c:v>-0.18422744599649621</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>-0.18205924085388245</c:v>
+                  <c:v>-0.18199831982018255</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>-0.17985653682886049</c:v>
+                  <c:v>-0.17979615788181813</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>-0.17768047534455469</c:v>
+                  <c:v>-0.17762063429105937</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>-0.17553073441759912</c:v>
+                  <c:v>-0.17547142708647123</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>-0.17340699594642905</c:v>
+                  <c:v>-0.17334821818850829</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>-0.17130894566481669</c:v>
+                  <c:v>-0.17125069335304494</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>-0.16923627309595105</c:v>
+                  <c:v>-0.16917854212544992</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>-0.16718867150705569</c:v>
+                  <c:v>-0.16713145779519883</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>-0.16516583786454084</c:v>
+                  <c:v>-0.16510913735102109</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>-0.163167472789681</c:v>
+                  <c:v>-0.1631112814365725</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>-0.16119328051481194</c:v>
+                  <c:v>-0.16113759430662725</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>-0.15924296884004552</c:v>
+                  <c:v>-0.1591877837837882</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>-0.15731624909049233</c:v>
+                  <c:v>-0.15726156121570461</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>-0.15541283607398707</c:v>
+                  <c:v>-0.15535864143279304</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>-0.15353244803931421</c:v>
+                  <c:v>-0.15347874270645856</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>-0.15167480663492483</c:v>
+                  <c:v>-0.15162158670780715</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>-0.14983963686814097</c:v>
+                  <c:v>-0.14978689846684601</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>-0.14802666706483977</c:v>
+                  <c:v>-0.14797440633216288</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>-0.14623562882961785</c:v>
+                  <c:v>-0.14618384193108763</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>-0.14446625700642257</c:v>
+                  <c:v>-0.14441494013031836</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>-0.14271828963964994</c:v>
+                  <c:v>-0.14266743899701601</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>-0.14099146793570402</c:v>
+                  <c:v>-0.14094107976035947</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>-0.13928553622501064</c:v>
+                  <c:v>-0.1392356067735567</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>-0.13760024192447962</c:v>
+                  <c:v>-0.13755076747630257</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>-0.13593533550041462</c:v>
+                  <c:v>-0.13588631235768464</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>-0.13429057043186057</c:v>
+                  <c:v>-0.13424199491952854</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>-0.132665703174387</c:v>
+                  <c:v>-0.13261757164017746</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>-0.13106049312429924</c:v>
+                  <c:v>-0.13101280193869932</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>-0.12947470258327851</c:v>
+                  <c:v>-0.12942744813952473</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>-0.12790809672343789</c:v>
+                  <c:v>-0.12786127543749942</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>-0.1263604435527958</c:v>
+                  <c:v>-0.12631405186335479</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>-0.12483151388115887</c:v>
+                  <c:v>-0.12478554824958787</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>-0.1233210812864125</c:v>
+                  <c:v>-0.12327553819674898</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>-0.12182892208121002</c:v>
+                  <c:v>-0.12178379804012816</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>-0.1203548152800596</c:v>
+                  <c:v>-0.12031010681683935</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>-0.11889854256680413</c:v>
+                  <c:v>-0.11885424623329768</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>-0.11745988826248636</c:v>
+                  <c:v>-0.11741600063308205</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>-0.11603863929359826</c:v>
+                  <c:v>-0.11599515696518194</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>-0.11463458516070936</c:v>
+                  <c:v>-0.11459150475262339</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>-0.11324751790746847</c:v>
+                  <c:v>-0.11320483606146831</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>-0.11187723208997406</c:v>
+                  <c:v>-0.11183494547018265</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>-0.11052352474651347</c:v>
+                  <c:v>-0.11048163003937328</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>-0.10918619536766026</c:v>
+                  <c:v>-0.10914468928188321</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>-0.10786504586672982</c:v>
+                  <c:v>-0.10782392513324514</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>-0.10655988055058763</c:v>
+                  <c:v>-0.10651914192248764</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>-0.10527050609080756</c:v>
+                  <c:v>-0.10523014634329148</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>-0.10399673149517279</c:v>
+                  <c:v>-0.10395674742548834</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>-0.10273836807951957</c:v>
+                  <c:v>-0.10269875650690342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13958,8 +14012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC96F8-554A-49E8-A62F-FFDB865EC586}">
   <dimension ref="A2:X469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13990,7 +14044,7 @@
         <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>24</v>
@@ -14055,10 +14109,10 @@
         <v>0.11559999999999999</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O4" s="4">
-        <v>3.8642947700294621</v>
+        <v>3.3591534083459336</v>
       </c>
       <c r="P4" t="s">
         <v>57</v>
@@ -14086,14 +14140,8 @@
       <c r="L5" s="4">
         <v>2.2890000000000001</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="4">
-        <v>3.358854489200453</v>
-      </c>
-      <c r="P5" t="s">
-        <v>58</v>
+      <c r="N5" t="s">
+        <v>73</v>
       </c>
       <c r="Q5" t="s">
         <v>32</v>
@@ -14147,8 +14195,12 @@
       <c r="L6" s="4">
         <v>16.98</v>
       </c>
-      <c r="N6" t="s">
-        <v>63</v>
+      <c r="N6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="4">
+        <f>B4/L9+O8/SQRT(L9)</f>
+        <v>0.37816239316239331</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
@@ -14174,11 +14226,11 @@
         <v>2.6909999999999998</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O7" s="4">
-        <f>B4/L9+O4/SQRT(L9)</f>
-        <v>0.37810914618561975</v>
+        <f>2.95*O4</f>
+        <v>9.909502554620504</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>46</v>
@@ -14195,12 +14247,12 @@
       <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="18" t="s">
-        <v>25</v>
+      <c r="N8" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="O8" s="4">
-        <f>2.95*O5</f>
-        <v>9.9086207431413378</v>
+        <f>O7/(O7-O4)*-B4/SQRT(L9)</f>
+        <v>3.8644792229677045</v>
       </c>
       <c r="Q8" t="s">
         <v>31</v>
@@ -14227,20 +14279,20 @@
         <v>2.7435888403466735</v>
       </c>
       <c r="S9" s="10">
+        <f>O7</f>
+        <v>9.909502554620504</v>
+      </c>
+      <c r="T9" s="10">
+        <f>O4</f>
+        <v>3.3591534083459336</v>
+      </c>
+      <c r="U9" s="10">
+        <f>O6</f>
+        <v>0.37816239316239331</v>
+      </c>
+      <c r="V9" s="10">
         <f>O8</f>
-        <v>9.9086207431413378</v>
-      </c>
-      <c r="T9" s="10">
-        <f>O5</f>
-        <v>3.358854489200453</v>
-      </c>
-      <c r="U9" s="10">
-        <f>O7</f>
-        <v>0.37810914618561975</v>
-      </c>
-      <c r="V9" s="10">
-        <f>O4</f>
-        <v>3.8642947700294621</v>
+        <v>3.8644792229677045</v>
       </c>
       <c r="W9" s="12">
         <v>5</v>
@@ -14357,24 +14409,30 @@
         <v>-106.188</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
+      <c r="T16" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" s="23">
+        <f>B4/L9+O8/SQRT(L9)</f>
+        <v>0.37816239316239331</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R17" s="1">
-        <f>B4/L9+O4/SQRT(L9)</f>
-        <v>0.37810914618561975</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>60</v>
+      <c r="T17" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.4">
@@ -14409,13 +14467,16 @@
         <v>47</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R18" s="1">
         <v>2.95</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.4">
@@ -14443,19 +14504,32 @@
         <v>17.18768343387233</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19:M82" si="1">$L$9*$O$7*EXP(-$O$8*(G19/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G19/$L$10-1))</f>
-        <v>2.7270493372080615</v>
+        <f t="shared" ref="M19:M82" si="1">$L$9*$O$6*EXP(-$O$7*(G19/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G19/$L$10-1))</f>
+        <v>2.7327597915033728</v>
       </c>
       <c r="N19" s="15">
         <f>(M19-H19)*O19</f>
-        <v>2.7270493372080615</v>
+        <v>2.7327597915033728</v>
       </c>
       <c r="O19" s="15">
         <v>1</v>
       </c>
       <c r="P19" s="17">
         <f>SUMSQ(N26:N295)</f>
-        <v>52.721119880417007</v>
+        <v>52.767517366556319</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" s="23">
+        <f>O7/(O7-O4)*-B4/SQRT(L9)</f>
+        <v>3.8644792229677045</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.4">
@@ -14484,35 +14558,14 @@
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>2.0605809913451836</v>
+        <v>2.0659739168582441</v>
       </c>
       <c r="N20" s="15">
         <f t="shared" ref="N20:N83" si="5">(M20-H20)*O20</f>
-        <v>2.5321364570418523</v>
+        <v>2.5375293825549128</v>
       </c>
       <c r="O20" s="15">
         <v>1</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="R20" s="1">
-        <f>(O4/O7)/(O8/O5)</f>
-        <v>3.464424078954695</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T20" s="1">
-        <f>SQRT(L9)</f>
-        <v>3.4641016151377544</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V20" s="1">
-        <f>R20-T20</f>
-        <v>3.2246381694056581E-4</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.4">
@@ -14541,14 +14594,35 @@
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>1.4245244379859727</v>
+        <v>1.4296150054416685</v>
       </c>
       <c r="N21" s="15">
         <f t="shared" si="5"/>
-        <v>2.3489605217188205</v>
+        <v>2.3540510891745163</v>
       </c>
       <c r="O21" s="15">
         <v>1</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21" s="23">
+        <f>(O8/O6)/(O7/O4)</f>
+        <v>3.4641016151377535</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T21" s="1">
+        <f>SQRT(L9)</f>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V21" s="1">
+        <f>R21-T21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.4">
@@ -14577,11 +14651,11 @@
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>0.81772332913624624</v>
+        <v>0.82252604971863619</v>
       </c>
       <c r="N22" s="15">
         <f t="shared" si="5"/>
-        <v>2.1769198633839908</v>
+        <v>2.1817225839663807</v>
       </c>
       <c r="O22" s="15">
         <v>1</v>
@@ -14613,15 +14687,19 @@
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>0.23906312008523756</v>
+        <v>0.24359187273086746</v>
       </c>
       <c r="N23" s="15">
         <f t="shared" si="5"/>
-        <v>2.0154399729289407</v>
+        <v>2.0199687255745706</v>
       </c>
       <c r="O23" s="15">
         <v>1</v>
       </c>
+      <c r="Q23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D24" s="6">
@@ -14649,14 +14727,21 @@
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>-0.31253041752949429</v>
+        <v>-0.30826235993669115</v>
       </c>
       <c r="N24" s="15">
         <f t="shared" si="5"/>
-        <v>1.8639723755332902</v>
+        <v>1.8682404331260933</v>
       </c>
       <c r="O24" s="15">
         <v>1</v>
+      </c>
+      <c r="Q24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="R24" s="23">
+        <f>O4/(O7-O4)*-B4/L9</f>
+        <v>0.3781623931623932</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.4">
@@ -14685,14 +14770,21 @@
       </c>
       <c r="M25">
         <f t="shared" si="1"/>
-        <v>-0.8380926300535485</v>
+        <v>-0.83407257554239678</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="5"/>
-        <v>1.7219935501967578</v>
+        <v>1.7260136047079095</v>
       </c>
       <c r="O25" s="15">
         <v>1</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="R25" s="23">
+        <f>O7/(O7-O4)*-B4/SQRT(L9)</f>
+        <v>3.8644792229677045</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.4">
@@ -14721,11 +14813,11 @@
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>-1.3386213654019166</v>
+        <v>-1.3348371787873887</v>
       </c>
       <c r="N26" s="15">
         <f t="shared" si="5"/>
-        <v>1.5890038916024443</v>
+        <v>1.5927880782169721</v>
       </c>
       <c r="O26" s="15">
         <v>1</v>
@@ -14757,11 +14849,11 @@
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>-1.815078307691568</v>
+        <v>-1.8115183874214047</v>
       </c>
       <c r="N27" s="15">
         <f t="shared" si="5"/>
-        <v>1.4645267127141732</v>
+        <v>1.4680866329843365</v>
       </c>
       <c r="O27" s="15">
         <v>1</v>
@@ -14793,11 +14885,11 @@
       </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>-2.2683902646489855</v>
+        <v>-2.2650435205849284</v>
       </c>
       <c r="N28" s="15">
         <f t="shared" si="5"/>
-        <v>1.3481072865693822</v>
+        <v>1.3514540306334393</v>
       </c>
       <c r="O28" s="15">
         <v>1</v>
@@ -14829,11 +14921,11 @@
       </c>
       <c r="M29">
         <f t="shared" si="1"/>
-        <v>-2.6994504094607272</v>
+        <v>-2.6963062415573482</v>
       </c>
       <c r="N29" s="15">
         <f t="shared" si="5"/>
-        <v>1.2393119257852416</v>
+        <v>1.2424560936886206</v>
       </c>
       <c r="O29" s="15">
         <v>1</v>
@@ -14841,7 +14933,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="6">
         <v>-0.78</v>
@@ -14868,11 +14960,11 @@
       </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>-3.1091194786752752</v>
+        <v>-3.1061677565208612</v>
       </c>
       <c r="N30" s="15">
         <f t="shared" si="5"/>
-        <v>1.1377270983513119</v>
+        <v>1.1406788205057259</v>
       </c>
       <c r="O30" s="15">
         <v>1</v>
@@ -14904,11 +14996,11 @@
       </c>
       <c r="M31">
         <f t="shared" si="1"/>
-        <v>-3.4982269277090374</v>
+        <v>-3.4954579708942681</v>
       </c>
       <c r="N31" s="15">
         <f t="shared" si="5"/>
-        <v>1.0429585783332858</v>
+        <v>1.0457275351480551</v>
       </c>
       <c r="O31" s="15">
         <v>1</v>
@@ -14940,11 +15032,11 @@
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>-3.8675720454527713</v>
+        <v>-3.8649766047344123</v>
       </c>
       <c r="N32" s="15">
         <f t="shared" si="5"/>
-        <v>0.95463063016499294</v>
+        <v>0.95722607088335199</v>
       </c>
       <c r="O32" s="15">
         <v>1</v>
@@ -14976,11 +15068,11 @@
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>-4.2179250294239559</v>
+        <v>-4.2154942686519377</v>
       </c>
       <c r="N33" s="15">
         <f t="shared" si="5"/>
-        <v>0.87238522525261786</v>
+        <v>0.87481598602463606</v>
       </c>
       <c r="O33" s="15">
         <v>1</v>
@@ -15012,11 +15104,11 @@
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
-        <v>-4.5500280228578216</v>
+        <v>-4.5477535016354143</v>
       </c>
       <c r="N34" s="15">
         <f t="shared" si="5"/>
-        <v>0.79588128966405414</v>
+        <v>0.79815581088646148</v>
       </c>
       <c r="O34" s="15">
         <v>1</v>
@@ -15048,11 +15140,11 @@
       </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>-4.8645961150814969</v>
+        <v>-4.8624697721293852</v>
       </c>
       <c r="N35" s="15">
         <f t="shared" si="5"/>
-        <v>0.72479398172081666</v>
+        <v>0.72692032467292833</v>
       </c>
       <c r="O35" s="15">
         <v>1</v>
@@ -15084,11 +15176,11 @@
       </c>
       <c r="M36">
         <f t="shared" si="1"/>
-        <v>-5.162318306468487</v>
+        <v>-5.1603324436648244</v>
       </c>
       <c r="N36" s="15">
         <f t="shared" si="5"/>
-        <v>0.65881399835352905</v>
+        <v>0.66079986115719169</v>
       </c>
       <c r="O36" s="15">
         <v>1</v>
@@ -15120,11 +15212,11 @@
       </c>
       <c r="M37">
         <f t="shared" si="1"/>
-        <v>-5.4438584392241154</v>
+        <v>-5.4420057062935996</v>
       </c>
       <c r="N37" s="15">
         <f t="shared" si="5"/>
-        <v>0.5976469091249097</v>
+        <v>0.5994996420554255</v>
       </c>
       <c r="O37" s="15">
         <v>1</v>
@@ -15156,11 +15248,11 @@
       </c>
       <c r="M38">
         <f t="shared" si="1"/>
-        <v>-5.7098560952090587</v>
+        <v>-5.7081294750351912</v>
       </c>
       <c r="N38" s="15">
         <f t="shared" si="5"/>
-        <v>0.54101251686428853</v>
+        <v>0.54273913703815602</v>
       </c>
       <c r="O38" s="15">
         <v>1</v>
@@ -15192,11 +15284,11 @@
       </c>
       <c r="M39">
         <f t="shared" si="1"/>
-        <v>-5.9609274619654133</v>
+        <v>-5.9593202565011012</v>
       </c>
       <c r="N39" s="15">
         <f t="shared" si="5"/>
-        <v>0.48864424389683236</v>
+        <v>0.49025144936114451</v>
       </c>
       <c r="O39" s="15">
         <v>1</v>
@@ -15228,11 +15320,11 @@
       </c>
       <c r="M40">
         <f t="shared" si="1"/>
-        <v>-6.1976661680682739</v>
+        <v>-6.1961719848209729</v>
       </c>
       <c r="N40" s="15">
         <f t="shared" si="5"/>
-        <v>0.44028854288883501</v>
+        <v>0.44178272613613601</v>
       </c>
       <c r="O40" s="15">
         <v>1</v>
@@ -15264,11 +15356,11 @@
       </c>
       <c r="M41">
         <f t="shared" si="1"/>
-        <v>-6.4206440888866769</v>
+        <v>-6.4192568279550759</v>
       </c>
       <c r="N41" s="15">
         <f t="shared" si="5"/>
-        <v>0.3957043313662103</v>
+        <v>0.39709159229781132</v>
       </c>
       <c r="O41" s="15">
         <v>1</v>
@@ -15300,11 +15392,11 @@
       </c>
       <c r="M42">
         <f t="shared" si="1"/>
-        <v>-6.6304121237991662</v>
+        <v>-6.6291259654394494</v>
       </c>
       <c r="N42" s="15">
         <f t="shared" si="5"/>
-        <v>0.35466244899878685</v>
+        <v>0.35594860735850364</v>
       </c>
       <c r="O42" s="15">
         <v>1</v>
@@ -15336,11 +15428,11 @@
       </c>
       <c r="M43">
         <f t="shared" si="1"/>
-        <v>-6.8275009458723925</v>
+        <v>-6.8263103385729202</v>
       </c>
       <c r="N43" s="15">
         <f t="shared" si="5"/>
-        <v>0.31694513677662073</v>
+        <v>0.31813574407609302</v>
       </c>
       <c r="O43" s="15">
         <v>1</v>
@@ -15372,11 +15464,11 @@
       </c>
       <c r="M44">
         <f t="shared" si="1"/>
-        <v>-7.0124217249756597</v>
+        <v>-7.0113213740197313</v>
       </c>
       <c r="N44" s="15">
         <f t="shared" si="5"/>
-        <v>0.2823455372370578</v>
+        <v>0.28344588819298622</v>
       </c>
       <c r="O44" s="15">
         <v>1</v>
@@ -15408,11 +15500,11 @@
       </c>
       <c r="M45">
         <f t="shared" si="1"/>
-        <v>-7.1856668252699354</v>
+        <v>-7.1846516817671251</v>
       </c>
       <c r="N45" s="15">
         <f t="shared" si="5"/>
-        <v>0.25066721493262101</v>
+        <v>0.2516823584354313</v>
       </c>
       <c r="O45" s="15">
         <v>1</v>
@@ -15444,11 +15536,11 @@
       </c>
       <c r="M46">
         <f t="shared" si="1"/>
-        <v>-7.3477104779768361</v>
+        <v>-7.3467757283441397</v>
       </c>
       <c r="N46" s="15">
         <f t="shared" si="5"/>
-        <v>0.22172369635989675</v>
+        <v>0.2226584459925931</v>
       </c>
       <c r="O46" s="15">
         <v>1</v>
@@ -15480,11 +15572,11 @@
       </c>
       <c r="M47">
         <f t="shared" si="1"/>
-        <v>-7.4990094303008181</v>
+        <v>-7.498150486175625</v>
       </c>
       <c r="N47" s="15">
         <f t="shared" si="5"/>
-        <v>0.1953380285989974</v>
+        <v>0.19619697272419057</v>
       </c>
       <c r="O47" s="15">
         <v>1</v>
@@ -15516,11 +15608,11 @@
       </c>
       <c r="M48">
         <f t="shared" si="1"/>
-        <v>-7.6400035713473589</v>
+        <v>-7.6392160599149044</v>
       </c>
       <c r="N48" s="15">
         <f t="shared" si="5"/>
-        <v>0.17134235594083513</v>
+        <v>0.17212986737328961</v>
       </c>
       <c r="O48" s="15">
         <v>1</v>
@@ -15552,11 +15644,11 @@
       </c>
       <c r="M49">
         <f t="shared" si="1"/>
-        <v>-7.7711165358499805</v>
+        <v>-7.7703962905686872</v>
       </c>
       <c r="N49" s="15">
         <f t="shared" si="5"/>
-        <v>0.14957751380658557</v>
+        <v>0.1502977590878789</v>
       </c>
       <c r="O49" s="15">
         <v>1</v>
@@ -15588,11 +15680,11 @@
       </c>
       <c r="M50">
         <f t="shared" si="1"/>
-        <v>-7.8927562864902043</v>
+        <v>-7.892099338198955</v>
       </c>
       <c r="N50" s="15">
         <f t="shared" si="5"/>
-        <v>0.12989263928994177</v>
+        <v>0.13054958758119106</v>
       </c>
       <c r="O50" s="15">
         <v>1</v>
@@ -15624,11 +15716,11 @@
       </c>
       <c r="M51">
         <f t="shared" si="1"/>
-        <v>-8.0053156755670933</v>
+        <v>-8.0047182439590632</v>
       </c>
       <c r="N51" s="15">
         <f t="shared" si="5"/>
-        <v>0.11214479767735952</v>
+        <v>0.11274222928538968</v>
       </c>
       <c r="O51" s="15">
         <v>1</v>
@@ -15660,11 +15752,11 @@
       </c>
       <c r="M52">
         <f t="shared" si="1"/>
-        <v>-8.1091729867460138</v>
+        <v>-8.1086314721943662</v>
       </c>
       <c r="N52" s="15">
         <f t="shared" si="5"/>
-        <v>9.6198624326170545E-2</v>
+        <v>9.6740138877818183E-2</v>
       </c>
       <c r="O52" s="15">
         <v>1</v>
@@ -15696,11 +15788,11 @@
       </c>
       <c r="M53">
         <f t="shared" si="1"/>
-        <v>-8.2046924575907703</v>
+        <v>-8.2042034333120721</v>
       </c>
       <c r="N53" s="15">
         <f t="shared" si="5"/>
-        <v>8.1925981303275108E-2</v>
+        <v>8.2415005581973233E-2</v>
       </c>
       <c r="O53" s="15">
         <v>1</v>
@@ -15732,11 +15824,11 @@
       </c>
       <c r="M54">
         <f t="shared" si="1"/>
-        <v>-8.2922247835582894</v>
+        <v>-8.2917849881000052</v>
       </c>
       <c r="N54" s="15">
         <f t="shared" si="5"/>
-        <v>6.9205628209752845E-2</v>
+        <v>6.9645423668037054E-2</v>
       </c>
       <c r="O54" s="15">
         <v>1</v>
@@ -15768,11 +15860,11 @@
       </c>
       <c r="M55">
         <f t="shared" si="1"/>
-        <v>-8.3721076041109654</v>
+        <v>-8.3717139341500797</v>
       </c>
       <c r="N55" s="15">
         <f t="shared" si="5"/>
-        <v>5.7922906638301797E-2</v>
+        <v>5.8316576599187542E-2</v>
       </c>
       <c r="O55" s="15">
         <v>1</v>
@@ -15804,11 +15896,11 @@
       </c>
       <c r="M56">
         <f t="shared" si="1"/>
-        <v>-8.4446659715789067</v>
+        <v>-8.4443154750190175</v>
       </c>
       <c r="N56" s="15">
         <f t="shared" si="5"/>
-        <v>4.7969437731103071E-2</v>
+        <v>4.831993429099235E-2</v>
       </c>
       <c r="O56" s="15">
         <v>1</v>
@@ -15840,11 +15932,11 @@
       </c>
       <c r="M57">
         <f t="shared" si="1"/>
-        <v>-8.5102128033816822</v>
+        <v>-8.5099026727366223</v>
       </c>
       <c r="N57" s="15">
         <f t="shared" si="5"/>
-        <v>3.9242832325845356E-2</v>
+        <v>3.955296297090527E-2</v>
       </c>
       <c r="O57" s="15">
         <v>1</v>
@@ -15876,11 +15968,11 @@
       </c>
       <c r="M58">
         <f t="shared" si="1"/>
-        <v>-8.569049318197969</v>
+        <v>-8.5687768842503704</v>
       </c>
       <c r="N58" s="15">
         <f t="shared" si="5"/>
-        <v>3.1646413196867229E-2</v>
+        <v>3.1918847144465801E-2</v>
       </c>
       <c r="O58" s="15">
         <v>1</v>
@@ -15912,11 +16004,11 @@
       </c>
       <c r="M59">
         <f t="shared" si="1"/>
-        <v>-8.6214654566504425</v>
+        <v>-8.6212281823741037</v>
       </c>
       <c r="N59" s="15">
         <f t="shared" si="5"/>
-        <v>2.5088948917032283E-2</v>
+        <v>2.5326223193371078E-2</v>
       </c>
       <c r="O59" s="15">
         <v>1</v>
@@ -15948,11 +16040,11 @@
       </c>
       <c r="M60">
         <f t="shared" si="1"/>
-        <v>-8.6677402870534159</v>
+        <v>-8.6675357617888587</v>
       </c>
       <c r="N60" s="15">
         <f t="shared" si="5"/>
-        <v>1.9484398883802712E-2</v>
+        <v>1.9688924148359987E-2</v>
       </c>
       <c r="O60" s="15">
         <v>1</v>
@@ -15984,11 +16076,11 @@
       </c>
       <c r="M61">
         <f t="shared" si="1"/>
-        <v>-8.7081423967513913</v>
+        <v>-8.7079683306243361</v>
       </c>
       <c r="N61" s="15">
         <f t="shared" si="5"/>
-        <v>1.475166907009573E-2</v>
+        <v>1.4925735197151013E-2</v>
       </c>
       <c r="O61" s="15">
         <v>1</v>
@@ -16020,11 +16112,11 @@
       </c>
       <c r="M62">
         <f t="shared" si="1"/>
-        <v>-8.7429302695578457</v>
+        <v>-8.742784488130809</v>
       </c>
       <c r="N62" s="15">
         <f t="shared" si="5"/>
-        <v>1.0814378077494524E-2</v>
+        <v>1.0960159504531219E-2</v>
       </c>
       <c r="O62" s="15">
         <v>1</v>
@@ -16056,11 +16148,11 @@
       </c>
       <c r="M63">
         <f t="shared" si="1"/>
-        <v>-8.7723526497859474</v>
+        <v>-8.7722330889334472</v>
       </c>
       <c r="N63" s="15">
         <f t="shared" si="5"/>
-        <v>7.6006330848414905E-3</v>
+        <v>7.7201939373416906E-3</v>
       </c>
       <c r="O63" s="15">
         <v>1</v>
@@ -16092,11 +16184,11 @@
       </c>
       <c r="M64">
         <f t="shared" si="1"/>
-        <v>-8.796648893345095</v>
+        <v>-8.7965535943434876</v>
       </c>
       <c r="N64" s="15">
         <f t="shared" si="5"/>
-        <v>5.042815301171899E-3</v>
+        <v>5.1381143027793286E-3</v>
       </c>
       <c r="O64" s="15">
         <v>1</v>
@@ -16128,11 +16220,11 @@
       </c>
       <c r="M65">
         <f t="shared" si="1"/>
-        <v>-8.8160493063608971</v>
+        <v>-8.8159764111840637</v>
       </c>
       <c r="N65" s="15">
         <f t="shared" si="5"/>
-        <v>3.0773745463559266E-3</v>
+        <v>3.1502697231893251E-3</v>
       </c>
       <c r="O65" s="15">
         <v>1</v>
@@ -16164,11 +16256,11 @@
       </c>
       <c r="M66">
         <f t="shared" si="1"/>
-        <v>-8.8307754717596723</v>
+        <v>-8.830723218572242</v>
       </c>
       <c r="N66" s="15">
         <f t="shared" si="5"/>
-        <v>1.644632597422202E-3</v>
+        <v>1.6968857848524976E-3</v>
       </c>
       <c r="O66" s="15">
         <v>1</v>
@@ -16200,11 +16292,11 @@
       </c>
       <c r="M67">
         <f t="shared" si="1"/>
-        <v>-8.8410405642432046</v>
+        <v>-8.84100728308327</v>
       </c>
       <c r="N67" s="15">
         <f t="shared" si="5"/>
-        <v>6.8859495210027433E-4</v>
+        <v>7.2187611203489155E-4</v>
       </c>
       <c r="O67" s="15">
         <v>1</v>
@@ -16236,11 +16328,11 @@
       </c>
       <c r="M68">
         <f t="shared" si="1"/>
-        <v>-8.8470496540644206</v>
+        <v>-8.8470337627080156</v>
       </c>
       <c r="N68" s="15">
         <f t="shared" si="5"/>
-        <v>1.567706744065589</v>
+        <v>1.7266203081156561</v>
       </c>
       <c r="O68" s="15">
         <v>10000</v>
@@ -16314,11 +16406,11 @@
       </c>
       <c r="M70">
         <f t="shared" si="1"/>
-        <v>-8.8470813319022525</v>
+        <v>-8.8470958047945096</v>
       </c>
       <c r="N70" s="15">
         <f t="shared" si="5"/>
-        <v>1.722893910542922</v>
+        <v>1.5781649879720305</v>
       </c>
       <c r="O70" s="15">
         <v>10000</v>
@@ -16350,11 +16442,11 @@
       </c>
       <c r="M71">
         <f t="shared" si="1"/>
-        <v>-8.8414761231987224</v>
+        <v>-8.8415037268686891</v>
       </c>
       <c r="N71" s="15">
         <f t="shared" si="5"/>
-        <v>6.306537425420089E-4</v>
+        <v>6.030500725753285E-4</v>
       </c>
       <c r="O71" s="15">
         <v>1</v>
@@ -16386,11 +16478,11 @@
       </c>
       <c r="M72">
         <f t="shared" si="1"/>
-        <v>-8.8323598536953014</v>
+        <v>-8.8323993188985437</v>
       </c>
       <c r="N72" s="15">
         <f t="shared" si="5"/>
-        <v>1.334965452937098E-3</v>
+        <v>1.2955002496948254E-3</v>
       </c>
       <c r="O72" s="15">
         <v>1</v>
@@ -16422,11 +16514,11 @@
       </c>
       <c r="M73">
         <f t="shared" si="1"/>
-        <v>-8.8199012630258586</v>
+        <v>-8.8199513900562003</v>
       </c>
       <c r="N73" s="15">
         <f t="shared" si="5"/>
-        <v>2.2478100835083836E-3</v>
+        <v>2.1976830531666991E-3</v>
       </c>
       <c r="O73" s="15">
         <v>1</v>
@@ -16458,11 +16550,11 @@
       </c>
       <c r="M74">
         <f t="shared" si="1"/>
-        <v>-8.8042625950793703</v>
+        <v>-8.8043222505786023</v>
       </c>
       <c r="N74" s="15">
         <f t="shared" si="5"/>
-        <v>3.334348340855442E-3</v>
+        <v>3.2746928416234056E-3</v>
       </c>
       <c r="O74" s="15">
         <v>1</v>
@@ -16494,11 +16586,11 @@
       </c>
       <c r="M75">
         <f t="shared" si="1"/>
-        <v>-8.7855998337238148</v>
+        <v>-8.7856679476272088</v>
       </c>
       <c r="N75" s="15">
         <f t="shared" si="5"/>
-        <v>4.5621841275274022E-3</v>
+        <v>4.4940702241333952E-3</v>
       </c>
       <c r="O75" s="15">
         <v>1</v>
@@ -16530,11 +16622,11 @@
       </c>
       <c r="M76">
         <f t="shared" si="1"/>
-        <v>-8.76406293013485</v>
+        <v>-8.7641384927468842</v>
       </c>
       <c r="N76" s="15">
         <f t="shared" si="5"/>
-        <v>5.9012384153476205E-3</v>
+        <v>5.8256758033135014E-3</v>
       </c>
       <c r="O76" s="15">
         <v>1</v>
@@ -16566,11 +16658,11 @@
       </c>
       <c r="M77">
         <f t="shared" si="1"/>
-        <v>-8.7397960220263933</v>
+        <v>-8.7398780812213612</v>
       </c>
       <c r="N77" s="15">
         <f t="shared" si="5"/>
-        <v>7.3236287055316041E-3</v>
+        <v>7.2415695105636502E-3</v>
       </c>
       <c r="O77" s="15">
         <v>1</v>
@@ -16602,11 +16694,11 @@
       </c>
       <c r="M78">
         <f t="shared" si="1"/>
-        <v>-8.712937645069692</v>
+        <v>-8.7130253036120777</v>
       </c>
       <c r="N78" s="15">
         <f t="shared" si="5"/>
-        <v>8.8035538487556408E-3</v>
+        <v>8.7158953063699585E-3</v>
       </c>
       <c r="O78" s="15">
         <v>1</v>
@@ -16638,11 +16730,11 @@
       </c>
       <c r="M79">
         <f t="shared" si="1"/>
-        <v>-8.683620936777487</v>
+        <v>-8.6837133497571664</v>
       </c>
       <c r="N79" s="15">
         <f t="shared" si="5"/>
-        <v>1.0317184006986224E-2</v>
+        <v>1.02247710273069E-2</v>
       </c>
       <c r="O79" s="15">
         <v>1</v>
@@ -16674,11 +16766,11 @@
       </c>
       <c r="M80">
         <f t="shared" si="1"/>
-        <v>-8.651973833119893</v>
+        <v>-8.6520702054974521</v>
       </c>
       <c r="N80" s="15">
         <f t="shared" si="5"/>
-        <v>1.1842555547474376E-2</v>
+        <v>1.174618316991527E-2</v>
       </c>
       <c r="O80" s="15">
         <v>1</v>
@@ -16710,11 +16802,11 @@
       </c>
       <c r="M81">
         <f t="shared" si="1"/>
-        <v>-8.6181192581294166</v>
+        <v>-8.6182188423870407</v>
       </c>
       <c r="N81" s="15">
         <f t="shared" si="5"/>
-        <v>1.3359470667220208E-2</v>
+        <v>1.3259886409596078E-2</v>
       </c>
       <c r="O81" s="15">
         <v>1</v>
@@ -16746,11 +16838,11 @@
       </c>
       <c r="M82">
         <f t="shared" si="1"/>
-        <v>-8.5821753067432649</v>
+        <v>-8.5822774006368672</v>
       </c>
       <c r="N82" s="15">
         <f t="shared" si="5"/>
-        <v>1.4849401554188901E-2</v>
+        <v>1.4747307660586628E-2</v>
       </c>
       <c r="O82" s="15">
         <v>1</v>
@@ -16781,12 +16873,12 @@
         <v>-6.3311821766044121</v>
       </c>
       <c r="M83">
-        <f t="shared" ref="M83:M146" si="8">$L$9*$O$7*EXP(-$O$8*(G83/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G83/$L$10-1))</f>
-        <v>-8.5442554211224717</v>
+        <f t="shared" ref="M83:M146" si="8">$L$9*$O$6*EXP(-$O$7*(G83/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G83/$L$10-1))</f>
+        <v>-8.5443593655308661</v>
       </c>
       <c r="N83" s="15">
         <f t="shared" si="5"/>
-        <v>1.6295398898922286E-2</v>
+        <v>1.6191454490527946E-2</v>
       </c>
       <c r="O83" s="15">
         <v>1</v>
@@ -16818,11 +16910,11 @@
       </c>
       <c r="M84">
         <f t="shared" si="8"/>
-        <v>-8.5044685606788057</v>
+        <v>-8.5045737375459165</v>
       </c>
       <c r="N84" s="15">
         <f t="shared" ref="N84:N147" si="12">(M84-H84)*O84</f>
-        <v>1.7682004577473265E-2</v>
+        <v>1.7576827710362508E-2</v>
       </c>
       <c r="O84" s="15">
         <v>1</v>
@@ -16854,11 +16946,11 @@
       </c>
       <c r="M85">
         <f t="shared" si="8"/>
-        <v>-8.4629193660323256</v>
+        <v>-8.463025196398597</v>
       </c>
       <c r="N85" s="15">
         <f t="shared" si="12"/>
-        <v>1.8995168333594492E-2</v>
+        <v>1.8889337967323172E-2</v>
       </c>
       <c r="O85" s="15">
         <v>1</v>
@@ -16890,11 +16982,11 @@
       </c>
       <c r="M86">
         <f t="shared" si="8"/>
-        <v>-8.4197083171145319</v>
+        <v>-8.4198142592338439</v>
       </c>
       <c r="N86" s="15">
         <f t="shared" si="12"/>
-        <v>2.0222168294754539E-2</v>
+        <v>2.011622617544262E-2</v>
       </c>
       <c r="O86" s="15">
         <v>1</v>
@@ -16926,11 +17018,11 @@
       </c>
       <c r="M87">
         <f t="shared" si="8"/>
-        <v>-8.3749318856245338</v>
+        <v>-8.3750374331630688</v>
       </c>
       <c r="N87" s="15">
         <f t="shared" si="12"/>
-        <v>2.1351535162938973E-2</v>
+        <v>2.1245987624403995E-2</v>
       </c>
       <c r="O87" s="15">
         <v>1</v>
@@ -16962,11 +17054,11 @@
       </c>
       <c r="M88">
         <f t="shared" si="8"/>
-        <v>-8.3286826820382309</v>
+        <v>-8.3287873623519069</v>
       </c>
       <c r="N88" s="15">
         <f t="shared" si="12"/>
-        <v>2.237297992755849E-2</v>
+        <v>2.2268299613882547E-2</v>
       </c>
       <c r="O88" s="15">
         <v>1</v>
@@ -16998,11 +17090,11 @@
       </c>
       <c r="M89">
         <f t="shared" si="8"/>
-        <v>-8.2810495973635661</v>
+        <v>-8.2811529698507584</v>
       </c>
       <c r="N89" s="15">
         <f t="shared" si="12"/>
-        <v>2.3277324953555834E-2</v>
+        <v>2.3173952466363446E-2</v>
       </c>
       <c r="O89" s="15">
         <v>1</v>
@@ -17034,11 +17126,11 @@
       </c>
       <c r="M90">
         <f t="shared" si="8"/>
-        <v>-8.232117939827944</v>
+        <v>-8.2322195943543708</v>
       </c>
       <c r="N90" s="15">
         <f t="shared" si="12"/>
-        <v>2.4056438303736272E-2</v>
+        <v>2.395478377730953E-2</v>
       </c>
       <c r="O90" s="15">
         <v>1</v>
@@ -17070,11 +17162,11 @@
       </c>
       <c r="M91">
         <f t="shared" si="8"/>
-        <v>-8.1819695666774379</v>
+        <v>-8.1820691220702191</v>
       </c>
       <c r="N91" s="15">
         <f t="shared" si="12"/>
-        <v>2.4703171159755399E-2</v>
+        <v>2.4603615766974229E-2</v>
       </c>
       <c r="O91" s="15">
         <v>1</v>
@@ -17106,11 +17198,11 @@
       </c>
       <c r="M92">
         <f t="shared" si="8"/>
-        <v>-8.1306830112610449</v>
+        <v>-8.1307801138690294</v>
       </c>
       <c r="N92" s="15">
         <f t="shared" si="12"/>
-        <v>2.5211298211505806E-2</v>
+        <v>2.5114195603521239E-2</v>
       </c>
       <c r="O92" s="15">
         <v>1</v>
@@ -17142,11 +17234,11 @@
       </c>
       <c r="M93">
         <f t="shared" si="8"/>
-        <v>-8.0783336055670887</v>
+        <v>-8.0784279278846878</v>
       </c>
       <c r="N93" s="15">
         <f t="shared" si="12"/>
-        <v>2.5575460889870172E-2</v>
+        <v>2.5481138572271078E-2</v>
       </c>
       <c r="O93" s="15">
         <v>1</v>
@@ -17178,11 +17270,11 @@
       </c>
       <c r="M94">
         <f t="shared" si="8"/>
-        <v>-8.0249935983729959</v>
+        <v>-8.0250848377248758</v>
       </c>
       <c r="N94" s="15">
         <f t="shared" si="12"/>
-        <v>2.5791113322643611E-2</v>
+        <v>2.5699873970763676E-2</v>
       </c>
       <c r="O94" s="15">
         <v>1</v>
@@ -17214,11 +17306,11 @@
       </c>
       <c r="M95">
         <f t="shared" si="8"/>
-        <v>-7.9707322691639764</v>
+        <v>-7.9708201464480704</v>
       </c>
       <c r="N95" s="15">
         <f t="shared" si="12"/>
-        <v>2.5854470898163839E-2</v>
+        <v>2.5766593614069855E-2</v>
       </c>
       <c r="O95" s="15">
         <v>1</v>
@@ -17250,11 +17342,11 @@
       </c>
       <c r="M96">
         <f t="shared" si="8"/>
-        <v>-7.9156160379705955</v>
+        <v>-7.9157002964569756</v>
       </c>
       <c r="N96" s="15">
         <f t="shared" si="12"/>
-        <v>2.5762461325854247E-2</v>
+        <v>2.5678202839474196E-2</v>
       </c>
       <c r="O96" s="15">
         <v>1</v>
@@ -17286,11 +17378,11 @@
       </c>
       <c r="M97">
         <f t="shared" si="8"/>
-        <v>-7.8597085712700387</v>
+        <v>-7.8597889754533101</v>
       </c>
       <c r="N97" s="15">
         <f t="shared" si="12"/>
-        <v>2.5512678087095786E-2</v>
+        <v>2.5432273903824409E-2</v>
       </c>
       <c r="O97" s="15">
         <v>1</v>
@@ -17322,11 +17414,11 @@
       </c>
       <c r="M98">
         <f t="shared" si="8"/>
-        <v>-7.8030708840905731</v>
+        <v>-7.8031472185935495</v>
       </c>
       <c r="N98" s="15">
         <f t="shared" si="12"/>
-        <v>2.5103336174271185E-2</v>
+        <v>2.5027001671294791E-2</v>
       </c>
       <c r="O98" s="15">
         <v>1</v>
@@ -17358,11 +17450,11 @@
       </c>
       <c r="M99">
         <f t="shared" si="8"/>
-        <v>-7.745761438453993</v>
+        <v>-7.7458335069804836</v>
       </c>
       <c r="N99" s="15">
         <f t="shared" si="12"/>
-        <v>2.4533230019670782E-2</v>
+        <v>2.4461161493180228E-2</v>
       </c>
       <c r="O99" s="15">
         <v>1</v>
@@ -17394,11 +17486,11 @@
       </c>
       <c r="M100">
         <f t="shared" si="8"/>
-        <v>-7.6878362382858727</v>
+        <v>-7.6879038626205256</v>
       </c>
       <c r="N100" s="15">
         <f t="shared" si="12"/>
-        <v>2.380169352007222E-2</v>
+        <v>2.3734069185419315E-2</v>
       </c>
       <c r="O100" s="15">
         <v>1</v>
@@ -17430,11 +17522,11 @@
       </c>
       <c r="M101">
         <f t="shared" si="8"/>
-        <v>-7.6293489209189946</v>
+        <v>-7.6294119399722016</v>
       </c>
       <c r="N101" s="15">
         <f t="shared" si="12"/>
-        <v>2.2908562066382032E-2</v>
+        <v>2.2845543013175096E-2</v>
       </c>
       <c r="O101" s="15">
         <v>1</v>
@@ -17466,11 +17558,11 @@
       </c>
       <c r="M102">
         <f t="shared" si="8"/>
-        <v>-7.570350845310859</v>
+        <v>-7.5704091142068144</v>
       </c>
       <c r="N102" s="15">
         <f t="shared" si="12"/>
-        <v>2.185413649143797E-2</v>
+        <v>2.1795867595482576E-2</v>
       </c>
       <c r="O102" s="15">
         <v>1</v>
@@ -17502,11 +17594,11 @@
       </c>
       <c r="M103">
         <f t="shared" si="8"/>
-        <v>-7.5108911770918292</v>
+        <v>-7.5109445662979333</v>
       </c>
       <c r="N103" s="15">
         <f t="shared" si="12"/>
-        <v>2.0639148852582778E-2</v>
+        <v>2.0585759646478685E-2</v>
       </c>
       <c r="O103" s="15">
         <v>1</v>
@@ -17538,11 +17630,11 @@
       </c>
       <c r="M104">
         <f t="shared" si="8"/>
-        <v>-7.4510169705565179</v>
+        <v>-7.4510653650523597</v>
       </c>
       <c r="N104" s="15">
         <f t="shared" si="12"/>
-        <v>1.9264729968793581E-2</v>
+        <v>1.9216335472951762E-2</v>
       </c>
       <c r="O104" s="15">
         <v>1</v>
@@ -17574,11 +17666,11 @@
       </c>
       <c r="M105">
         <f t="shared" si="8"/>
-        <v>-7.3907732477068206</v>
+        <v>-7.3908165461910702</v>
       </c>
       <c r="N105" s="15">
         <f t="shared" si="12"/>
-        <v>1.7732378635617607E-2</v>
+        <v>1.7689080151368053E-2</v>
       </c>
       <c r="O105" s="15">
         <v>1</v>
@@ -17610,11 +17702,11 @@
       </c>
       <c r="M106">
         <f t="shared" si="8"/>
-        <v>-7.330203074451366</v>
+        <v>-7.330241188584937</v>
       </c>
       <c r="N106" s="15">
         <f t="shared" si="12"/>
-        <v>1.6043932444036457E-2</v>
+        <v>1.6005818310465436E-2</v>
       </c>
       <c r="O106" s="15">
         <v>1</v>
@@ -17646,11 +17738,11 @@
       </c>
       <c r="M107">
         <f t="shared" si="8"/>
-        <v>-7.2693476340623135</v>
+        <v>-7.2693804877463046</v>
       </c>
       <c r="N107" s="15">
         <f t="shared" si="12"/>
-        <v>1.4201540132495083E-2</v>
+        <v>1.4168686448503998E-2</v>
       </c>
       <c r="O107" s="15">
         <v>1</v>
@@ -17682,11 +17774,11 @@
       </c>
       <c r="M108">
         <f t="shared" si="8"/>
-        <v>-7.2082462979869337</v>
+        <v>-7.2082738266738167</v>
       </c>
       <c r="N108" s="15">
         <f t="shared" si="12"/>
-        <v>1.2207635404129391E-2</v>
+        <v>1.2180106717246453E-2</v>
       </c>
       <c r="O108" s="15">
         <v>1</v>
@@ -17718,11 +17810,11 @@
       </c>
       <c r="M109">
         <f t="shared" si="8"/>
-        <v>-7.1469366941079535</v>
+        <v>-7.1469588441446117</v>
       </c>
       <c r="N109" s="15">
         <f t="shared" si="12"/>
-        <v>1.0064912143975313E-2</v>
+        <v>1.0042762107317138E-2</v>
       </c>
       <c r="O109" s="15">
         <v>1</v>
@@ -17754,11 +17846,11 @@
       </c>
       <c r="M110">
         <f t="shared" si="8"/>
-        <v>-7.0854547725432813</v>
+        <v>-7.085471500544525</v>
       </c>
       <c r="N110" s="15">
         <f t="shared" si="12"/>
-        <v>7.7763009736493416E-3</v>
+        <v>7.7595729724055929E-3</v>
       </c>
       <c r="O110" s="15">
         <v>1</v>
@@ -17790,11 +17882,11 @@
       </c>
       <c r="M111">
         <f t="shared" si="8"/>
-        <v>-7.0238348690725534</v>
+        <v>-7.0238461413238245</v>
       </c>
       <c r="N111" s="15">
         <f t="shared" si="12"/>
-        <v>5.3449470834703305E-3</v>
+        <v>5.3336748321992644E-3</v>
       </c>
       <c r="O111" s="15">
         <v>1</v>
@@ -17826,11 +17918,11 @@
       </c>
       <c r="M112">
         <f t="shared" si="8"/>
-        <v>-6.9621097662748852</v>
+        <v>-6.9621155581628766</v>
       </c>
       <c r="N112" s="15">
         <f t="shared" si="12"/>
-        <v>2.7741892844659333</v>
+        <v>2.7683973964744979</v>
       </c>
       <c r="O112" s="15">
         <v>1000</v>
@@ -17862,11 +17954,11 @@
       </c>
       <c r="M113">
         <f t="shared" si="8"/>
-        <v>-6.9003107524591352</v>
+        <v>-6.9003110479291321</v>
       </c>
       <c r="N113" s="15">
         <f t="shared" si="12"/>
-        <v>6.7540225053619452E-2</v>
+        <v>6.7244755056705685E-2</v>
       </c>
       <c r="O113" s="15">
         <v>1000</v>
@@ -17898,11 +17990,11 @@
       </c>
       <c r="M114">
         <f t="shared" si="8"/>
-        <v>-6.8384676784652454</v>
+        <v>-6.8384624695040479</v>
       </c>
       <c r="N114" s="15">
         <f t="shared" si="12"/>
-        <v>-2.7713322805791307</v>
+        <v>-2.7661233193816415</v>
       </c>
       <c r="O114" s="15">
         <v>1000</v>
@@ -17934,11 +18026,11 @@
       </c>
       <c r="M115">
         <f t="shared" si="8"/>
-        <v>-6.7766090124122709</v>
+        <v>-6.7765982985555784</v>
       </c>
       <c r="N115" s="15">
         <f t="shared" si="12"/>
-        <v>-5.7386228630891267E-3</v>
+        <v>-5.7279090063966365E-3</v>
       </c>
       <c r="O115" s="15">
         <v>1</v>
@@ -17970,11 +18062,11 @@
       </c>
       <c r="M116">
         <f t="shared" si="8"/>
-        <v>-6.7147618924662229</v>
+        <v>-6.7147456803294263</v>
       </c>
       <c r="N116" s="15">
         <f t="shared" si="12"/>
-        <v>-8.8304051963694619E-3</v>
+        <v>-8.8141930595728724E-3</v>
       </c>
       <c r="O116" s="15">
         <v>1</v>
@@ -18006,11 +18098,11 @@
       </c>
       <c r="M117">
         <f t="shared" si="8"/>
-        <v>-6.6529521776981069</v>
+        <v>-6.6529304805294842</v>
       </c>
       <c r="N117" s="15">
         <f t="shared" si="12"/>
-        <v>-1.2042647630324588E-2</v>
+        <v>-1.2020950461701929E-2</v>
       </c>
       <c r="O117" s="15">
         <v>1</v>
@@ -18042,11 +18134,11 @@
       </c>
       <c r="M118">
         <f t="shared" si="8"/>
-        <v>-6.5912044971001427</v>
+        <v>-6.591177334355474</v>
       </c>
       <c r="N118" s="15">
         <f t="shared" si="12"/>
-        <v>-1.5371227902793549E-2</v>
+        <v>-1.534406515812492E-2</v>
       </c>
       <c r="O118" s="15">
         <v>1</v>
@@ -18078,11 +18170,11 @@
       </c>
       <c r="M119">
         <f t="shared" si="8"/>
-        <v>-6.5295422968257357</v>
+        <v>-6.5295096937634076</v>
       </c>
       <c r="N119" s="15">
         <f t="shared" si="12"/>
-        <v>-1.8811946973548821E-2</v>
+        <v>-1.8779343911220714E-2</v>
       </c>
       <c r="O119" s="15">
         <v>1</v>
@@ -18114,11 +18206,11 @@
       </c>
       <c r="M120">
         <f t="shared" si="8"/>
-        <v>-6.4679878857163802</v>
+        <v>-6.4679498730120946</v>
       </c>
       <c r="N120" s="15">
         <f t="shared" si="12"/>
-        <v>-2.2360542021409024E-2</v>
+        <v>-2.2322529317123418E-2</v>
       </c>
       <c r="O120" s="15">
         <v>1</v>
@@ -18150,11 +18242,11 @@
       </c>
       <c r="M121">
         <f t="shared" si="8"/>
-        <v>-6.4065624791765279</v>
+        <v>-6.4065190925567528</v>
       </c>
       <c r="N121" s="15">
         <f t="shared" si="12"/>
-        <v>-2.6012698643905985E-2</v>
+        <v>-2.5969312024130886E-2</v>
       </c>
       <c r="O121" s="15">
         <v>1</v>
@@ -18186,11 +18278,11 @@
       </c>
       <c r="M122">
         <f t="shared" si="8"/>
-        <v>-6.3452862414552591</v>
+        <v>-6.3452375213485936</v>
       </c>
       <c r="N122" s="15">
         <f t="shared" si="12"/>
-        <v>-2.9764062297261695E-2</v>
+        <v>-2.9715342190596239E-2</v>
       </c>
       <c r="O122" s="15">
         <v>1</v>
@@ -18222,11 +18314,11 @@
       </c>
       <c r="M123">
         <f t="shared" si="8"/>
-        <v>-6.284178326391471</v>
+        <v>-6.2841243175971577</v>
       </c>
       <c r="N123" s="15">
         <f t="shared" si="12"/>
-        <v>-3.3610249012772542E-2</v>
+        <v>-3.3556240218459266E-2</v>
       </c>
       <c r="O123" s="15">
         <v>1</v>
@@ -18258,11 +18350,11 @@
       </c>
       <c r="M124">
         <f t="shared" si="8"/>
-        <v>-6.2232569166774043</v>
+        <v>-6.2231976680502132</v>
       </c>
       <c r="N124" s="15">
         <f t="shared" si="12"/>
-        <v>-3.7546855424361425E-2</v>
+        <v>-3.7487606797170336E-2</v>
       </c>
       <c r="O124" s="15">
         <v>1</v>
@@ -18294,11 +18386,11 @@
       </c>
       <c r="M125">
         <f t="shared" si="8"/>
-        <v>-6.1625392616932135</v>
+        <v>-6.1624748258439928</v>
       </c>
       <c r="N125" s="15">
         <f t="shared" si="12"/>
-        <v>-4.1569468140346899E-2</v>
+        <v>-4.150503229112612E-2</v>
       </c>
       <c r="O125" s="15">
         <v>1</v>
@@ -18330,11 +18422,11 @@
       </c>
       <c r="M126">
         <f t="shared" si="8"/>
-        <v>-6.1020417139636063</v>
+        <v>-6.1019721469748056</v>
       </c>
       <c r="N126" s="15">
         <f t="shared" si="12"/>
-        <v>-4.5673672491313155E-2</v>
+        <v>-4.5604105502512482E-2</v>
       </c>
       <c r="O126" s="15">
         <v>1</v>
@@ -18366,11 +18458,11 @@
       </c>
       <c r="M127">
         <f t="shared" si="8"/>
-        <v>-6.0417797642856508</v>
+        <v>-6.0417051254411396</v>
       </c>
       <c r="N127" s="15">
         <f t="shared" si="12"/>
-        <v>-4.9855060684472541E-2</v>
+        <v>-4.9780421839961342E-2</v>
       </c>
       <c r="O127" s="15">
         <v>1</v>
@@ -18402,11 +18494,11 @@
       </c>
       <c r="M128">
         <f t="shared" si="8"/>
-        <v>-5.9817680755751166</v>
+        <v>-5.9816884271036841</v>
       </c>
       <c r="N128" s="15">
         <f t="shared" si="12"/>
-        <v>-5.4109239393643094E-2</v>
+        <v>-5.4029590922210602E-2</v>
       </c>
       <c r="O128" s="15">
         <v>1</v>
@@ -18438,11 +18530,11 @@
       </c>
       <c r="M129">
         <f t="shared" si="8"/>
-        <v>-5.9220205154771479</v>
+        <v>-5.9219359223090606</v>
       </c>
       <c r="N129" s="15">
         <f t="shared" si="12"/>
-        <v>-5.8431836812778748E-2</v>
+        <v>-5.834724364469146E-2</v>
       </c>
       <c r="O129" s="15">
         <v>1</v>
@@ -18474,11 +18566,11 @@
       </c>
       <c r="M130">
         <f t="shared" si="8"/>
-        <v>-5.8625501877852741</v>
+        <v>-5.8624607173213104</v>
       </c>
       <c r="N130" s="15">
         <f t="shared" si="12"/>
-        <v>-6.2818509199739303E-2</v>
+        <v>-6.2729038735775511E-2</v>
       </c>
       <c r="O130" s="15">
         <v>1</v>
@@ -18510,11 +18602,11 @@
       </c>
       <c r="M131">
         <f t="shared" si="8"/>
-        <v>-5.8033694627113457</v>
+        <v>-5.8032751846037591</v>
       </c>
       <c r="N131" s="15">
         <f t="shared" si="12"/>
-        <v>-6.7264946935789105E-2</v>
+        <v>-6.7170668828202551E-2</v>
       </c>
       <c r="O131" s="15">
         <v>1</v>
@@ -18546,11 +18638,11 @@
       </c>
       <c r="M132">
         <f t="shared" si="8"/>
-        <v>-5.7444900060474247</v>
+        <v>-5.7443909919922893</v>
       </c>
       <c r="N132" s="15">
         <f t="shared" si="12"/>
-        <v>-7.176688012540744E-2</v>
+        <v>-7.166786607027209E-2</v>
       </c>
       <c r="O132" s="15">
         <v>1</v>
@@ -18582,11 +18674,11 @@
       </c>
       <c r="M133">
         <f t="shared" si="8"/>
-        <v>-5.6859228072591659</v>
+        <v>-5.6858191307996035</v>
       </c>
       <c r="N133" s="15">
         <f t="shared" si="12"/>
-        <v>-7.6320083759647162E-2</v>
+        <v>-7.6216407300084832E-2</v>
       </c>
       <c r="O133" s="15">
         <v>1</v>
@@ -18618,11 +18710,11 @@
       </c>
       <c r="M134">
         <f t="shared" si="8"/>
-        <v>-5.6276782065489384</v>
+        <v>-5.6275699428887203</v>
       </c>
       <c r="N134" s="15">
         <f t="shared" si="12"/>
-        <v>-8.0920382465590635E-2</v>
+        <v>-8.0812118805372535E-2</v>
       </c>
       <c r="O134" s="15">
         <v>1</v>
@@ -18654,11 +18746,11 @@
       </c>
       <c r="M135">
         <f t="shared" si="8"/>
-        <v>-5.5697659209254153</v>
+        <v>-5.5696531467524864</v>
       </c>
       <c r="N135" s="15">
         <f t="shared" si="12"/>
-        <v>-8.5563654863136662E-2</v>
+        <v>-8.5450880690207676E-2</v>
       </c>
       <c r="O135" s="15">
         <v>1</v>
@@ -18690,11 +18782,11 @@
       </c>
       <c r="M136">
         <f t="shared" si="8"/>
-        <v>-5.5121950693152231</v>
+        <v>-5.5120778626346887</v>
       </c>
       <c r="N136" s="15">
         <f t="shared" si="12"/>
-        <v>-9.0245837549730368E-2</v>
+        <v>-9.012863086919598E-2</v>
       </c>
       <c r="O136" s="15">
         <v>1</v>
@@ -18726,11 +18818,11 @@
       </c>
       <c r="M137">
         <f t="shared" si="8"/>
-        <v>-5.4549741967508689</v>
+        <v>-5.4548526367270185</v>
       </c>
       <c r="N137" s="15">
         <f t="shared" si="12"/>
-        <v>-9.4962928732510221E-2</v>
+        <v>-9.4841368708659779E-2</v>
       </c>
       <c r="O137" s="15">
         <v>1</v>
@@ -18762,11 +18854,11 @@
       </c>
       <c r="M138">
         <f t="shared" si="8"/>
-        <v>-5.3981112976679917</v>
+        <v>-5.3979854644749397</v>
       </c>
       <c r="N138" s="15">
         <f t="shared" si="12"/>
-        <v>-9.971099152662255E-2</v>
+        <v>-9.9585158333570512E-2</v>
       </c>
       <c r="O138" s="15">
         <v>1</v>
@@ -18798,11 +18890,11 @@
       </c>
       <c r="M139">
         <f t="shared" si="8"/>
-        <v>-5.3416138383438572</v>
+        <v>-5.3414838130244151</v>
       </c>
       <c r="N139" s="15">
         <f t="shared" si="12"/>
-        <v>-0.104486156937595</v>
+        <v>-0.10435613161815294</v>
       </c>
       <c r="O139" s="15">
         <v>1</v>
@@ -18834,11 +18926,11 @@
       </c>
       <c r="M140">
         <f t="shared" si="8"/>
-        <v>-5.2854887785077533</v>
+        <v>-5.2853546428401526</v>
       </c>
       <c r="N140" s="15">
         <f t="shared" si="12"/>
-        <v>-0.10928462654481397</v>
+        <v>-0.10915049087721318</v>
       </c>
       <c r="O140" s="15">
         <v>1</v>
@@ -18870,11 +18962,11 @@
       </c>
       <c r="M141">
         <f t="shared" si="8"/>
-        <v>-5.229742592153019</v>
+        <v>-5.2296044285251195</v>
       </c>
       <c r="N141" s="15">
         <f t="shared" si="12"/>
-        <v>-0.1141026749024654</v>
+        <v>-0.11396451127456597</v>
       </c>
       <c r="O141" s="15">
         <v>1</v>
@@ -18906,11 +18998,11 @@
       </c>
       <c r="M142">
         <f t="shared" si="8"/>
-        <v>-5.1743812875792683</v>
+        <v>-5.1742391788699047</v>
       </c>
       <c r="N142" s="15">
         <f t="shared" si="12"/>
-        <v>-0.11893665167352374</v>
+        <v>-0.11879454296416014</v>
       </c>
       <c r="O142" s="15">
         <v>1</v>
@@ -18942,11 +19034,11 @@
       </c>
       <c r="M143">
         <f t="shared" si="8"/>
-        <v>-5.1194104266923901</v>
+        <v>-5.1192644561595362</v>
       </c>
       <c r="N143" s="15">
         <f t="shared" si="12"/>
-        <v>-0.12378298351165995</v>
+        <v>-0.12363701297880603</v>
       </c>
       <c r="O143" s="15">
         <v>1</v>
@@ -18978,11 +19070,11 @@
       </c>
       <c r="M144">
         <f t="shared" si="8"/>
-        <v>-5.0648351435889811</v>
+        <v>-5.0646853947644006</v>
       </c>
       <c r="N144" s="15">
         <f t="shared" si="12"/>
-        <v>-0.12863817570534231</v>
+        <v>-0.12848842688076179</v>
       </c>
       <c r="O144" s="15">
         <v>1</v>
@@ -19014,11 +19106,11 @@
       </c>
       <c r="M145">
         <f t="shared" si="8"/>
-        <v>-5.010660162450808</v>
+        <v>-5.0105067190408974</v>
       </c>
       <c r="N145" s="15">
         <f t="shared" si="12"/>
-        <v>-0.13349881359763494</v>
+        <v>-0.1333453701877243</v>
       </c>
       <c r="O145" s="15">
         <v>1</v>
@@ -19050,11 +19142,11 @@
       </c>
       <c r="M146">
         <f t="shared" si="8"/>
-        <v>-4.9568898147741063</v>
+        <v>-4.9567327605666351</v>
       </c>
       <c r="N146" s="15">
         <f t="shared" si="12"/>
-        <v>-0.13836156379469333</v>
+        <v>-0.13820450958722219</v>
       </c>
       <c r="O146" s="15">
         <v>1</v>
@@ -19085,12 +19177,12 @@
         <v>-3.6939333596755444</v>
       </c>
       <c r="M147">
-        <f t="shared" ref="M147:M210" si="15">$L$9*$O$7*EXP(-$O$8*(G147/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G147/$L$10-1))</f>
-        <v>-4.9035280559575742</v>
+        <f t="shared" ref="M147:M210" si="15">$L$9*$O$6*EXP(-$O$7*(G147/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G147/$L$10-1))</f>
+        <v>-4.9033674747340443</v>
       </c>
       <c r="N147" s="15">
         <f t="shared" si="12"/>
-        <v>-0.14322317517532301</v>
+        <v>-0.1430625939517931</v>
       </c>
       <c r="O147" s="15">
         <v>1</v>
@@ -19122,11 +19214,11 @@
       </c>
       <c r="M148">
         <f t="shared" si="15"/>
-        <v>-4.8505784812720698</v>
+        <v>-4.8504144567254386</v>
       </c>
       <c r="N148" s="15">
         <f t="shared" ref="N148:N211" si="19">(M148-H148)*O148</f>
-        <v>-0.14808047971333504</v>
+        <v>-0.14791645516670382</v>
       </c>
       <c r="O148" s="15">
         <v>1</v>
@@ -19158,11 +19250,11 @@
       </c>
       <c r="M149">
         <f t="shared" si="15"/>
-        <v>-4.7980443412342852</v>
+        <v>-4.7978769568917707</v>
       </c>
       <c r="N149" s="15">
         <f t="shared" si="19"/>
-        <v>-0.1529303931240511</v>
+        <v>-0.15276300878153659</v>
       </c>
       <c r="O149" s="15">
         <v>1</v>
@@ -19194,11 +19286,11 @@
       </c>
       <c r="M150">
         <f t="shared" si="15"/>
-        <v>-4.7459285564057332</v>
+        <v>-4.7457578955565003</v>
       </c>
       <c r="N150" s="15">
         <f t="shared" si="19"/>
-        <v>-0.1577699153455594</v>
+        <v>-0.1575992544963265</v>
       </c>
       <c r="O150" s="15">
         <v>1</v>
@@ -19230,11 +19322,11 @@
       </c>
       <c r="M151">
         <f t="shared" si="15"/>
-        <v>-4.6942337316377873</v>
+        <v>-4.6940598772652358</v>
       </c>
       <c r="N151" s="15">
         <f t="shared" si="19"/>
-        <v>-0.16259613086503677</v>
+        <v>-0.1624222764924852</v>
       </c>
       <c r="O151" s="15">
         <v>1</v>
@@ -19266,11 +19358,11 @@
       </c>
       <c r="M152">
         <f t="shared" si="15"/>
-        <v>-4.6429621697826553</v>
+        <v>-4.6427852045011253</v>
       </c>
       <c r="N152" s="15">
         <f t="shared" si="19"/>
-        <v>-0.1674062088998296</v>
+        <v>-0.16722924361829961</v>
       </c>
       <c r="O152" s="15">
         <v>1</v>
@@ -19302,11 +19394,11 @@
       </c>
       <c r="M153">
         <f t="shared" si="15"/>
-        <v>-4.5921158848895258</v>
+        <v>-4.5919358908851811</v>
       </c>
       <c r="N153" s="15">
         <f t="shared" si="19"/>
-        <v>-0.17219740344258572</v>
+        <v>-0.17201740943824095</v>
       </c>
       <c r="O153" s="15">
         <v>1</v>
@@ -19338,11 +19430,11 @@
       </c>
       <c r="M154">
         <f t="shared" si="15"/>
-        <v>-4.5416966149044402</v>
+        <v>-4.5415136738801474</v>
       </c>
       <c r="N154" s="15">
         <f t="shared" si="19"/>
-        <v>-0.17696705317928707</v>
+        <v>-0.17678411215499423</v>
       </c>
       <c r="O154" s="15">
         <v>1</v>
@@ -19374,11 +19466,11 @@
       </c>
       <c r="M155">
         <f t="shared" si="15"/>
-        <v>-4.4917058338917348</v>
+        <v>-4.4915200270157216</v>
       </c>
       <c r="N155" s="15">
         <f t="shared" si="19"/>
-        <v>-0.1817125812885898</v>
+        <v>-0.18152677441257659</v>
       </c>
       <c r="O155" s="15">
         <v>1</v>
@@ -19410,11 +19502,11 @@
       </c>
       <c r="M156">
         <f t="shared" si="15"/>
-        <v>-4.4421447637943272</v>
+        <v>-4.4419561716524552</v>
       </c>
       <c r="N156" s="15">
         <f t="shared" si="19"/>
-        <v>-0.18643149513045998</v>
+        <v>-0.18624290298858792</v>
       </c>
       <c r="O156" s="15">
         <v>1</v>
@@ -19446,11 +19538,11 @@
       </c>
       <c r="M157">
         <f t="shared" si="15"/>
-        <v>-4.3930143857494723</v>
+        <v>-4.39282308830093</v>
       </c>
       <c r="N157" s="15">
         <f t="shared" si="19"/>
-        <v>-0.19112138583179128</v>
+        <v>-0.19093008838324899</v>
       </c>
       <c r="O157" s="15">
         <v>1</v>
@@ -19482,11 +19574,11 @@
       </c>
       <c r="M158">
         <f t="shared" si="15"/>
-        <v>-4.344315450976012</v>
+        <v>-4.3441215275122671</v>
       </c>
       <c r="N158" s="15">
         <f t="shared" si="19"/>
-        <v>-0.19577992777616338</v>
+        <v>-0.19558600431241846</v>
       </c>
       <c r="O158" s="15">
         <v>1</v>
@@ -19518,11 +19610,11 @@
       </c>
       <c r="M159">
         <f t="shared" si="15"/>
-        <v>-4.2960484912486328</v>
+        <v>-4.2958520203554738</v>
       </c>
       <c r="N159" s="15">
         <f t="shared" si="19"/>
-        <v>-0.20040487800473894</v>
+        <v>-0.20020840711157994</v>
       </c>
       <c r="O159" s="15">
         <v>1</v>
@@ -19554,11 +19646,11 @@
       </c>
       <c r="M160">
         <f t="shared" si="15"/>
-        <v>-4.2482138289739861</v>
+        <v>-4.2480148884965114</v>
       </c>
       <c r="N160" s="15">
         <f t="shared" si="19"/>
-        <v>-0.20499407553475724</v>
+        <v>-0.20479513505728253</v>
       </c>
       <c r="O160" s="15">
         <v>1</v>
@@ -19590,11 +19682,11 @@
       </c>
       <c r="M161">
         <f t="shared" si="15"/>
-        <v>-4.2008115868831277</v>
+        <v>-4.2006102538935153</v>
       </c>
       <c r="N161" s="15">
         <f t="shared" si="19"/>
-        <v>-0.20954544060192726</v>
+        <v>-0.20934410761231481</v>
       </c>
       <c r="O161" s="15">
         <v>1</v>
@@ -19626,11 +19718,11 @@
       </c>
       <c r="M162">
         <f t="shared" si="15"/>
-        <v>-4.1538416973541015</v>
+        <v>-4.1536380481220334</v>
       </c>
       <c r="N162" s="15">
         <f t="shared" si="19"/>
-        <v>-0.21405697383257394</v>
+        <v>-0.21385332460050588</v>
       </c>
       <c r="O162" s="15">
         <v>1</v>
@@ -19662,11 +19754,11 @@
       </c>
       <c r="M163">
         <f t="shared" si="15"/>
-        <v>-4.1073039113780903</v>
+        <v>-4.1070980213436865</v>
       </c>
       <c r="N163" s="15">
         <f t="shared" si="19"/>
-        <v>-0.2185267553512138</v>
+        <v>-0.21832086531681005</v>
       </c>
       <c r="O163" s="15">
         <v>1</v>
@@ -19698,11 +19790,11 @@
       </c>
       <c r="M164">
         <f t="shared" si="15"/>
-        <v>-4.0611978071820216</v>
+        <v>-4.060989750931161</v>
       </c>
       <c r="N164" s="15">
         <f t="shared" si="19"/>
-        <v>-0.22295294382883846</v>
+        <v>-0.22274488757797783</v>
       </c>
       <c r="O164" s="15">
         <v>1</v>
@@ -19734,11 +19826,11 @@
       </c>
       <c r="M165">
         <f t="shared" si="15"/>
-        <v>-4.0155227985200845</v>
+        <v>-4.01531264976198</v>
       </c>
       <c r="N165" s="15">
         <f t="shared" si="19"/>
-        <v>-0.22733377547699662</v>
+        <v>-0.22712362671889208</v>
       </c>
       <c r="O165" s="15">
         <v>1</v>
@@ -19770,11 +19862,11 @@
       </c>
       <c r="M166">
         <f t="shared" si="15"/>
-        <v>-3.9702781426461522</v>
+        <v>-3.9700659741930724</v>
       </c>
       <c r="N166" s="15">
         <f t="shared" si="19"/>
-        <v>-0.23166756299244629</v>
+        <v>-0.23145539453936648</v>
       </c>
       <c r="O166" s="15">
         <v>1</v>
@@ -19806,11 +19898,11 @@
       </c>
       <c r="M167">
         <f t="shared" si="15"/>
-        <v>-3.9254629479787049</v>
+        <v>-3.925248831727731</v>
       </c>
       <c r="N167" s="15">
         <f t="shared" si="19"/>
-        <v>-0.23595269445693612</v>
+        <v>-0.23573857820596222</v>
       </c>
       <c r="O167" s="15">
         <v>1</v>
@@ -19842,11 +19934,11 @@
       </c>
       <c r="M168">
         <f t="shared" si="15"/>
-        <v>-3.8810761814694072</v>
+        <v>-3.8808601883860936</v>
       </c>
       <c r="N168" s="15">
         <f t="shared" si="19"/>
-        <v>-0.24018763219641714</v>
+        <v>-0.23997163911310349</v>
       </c>
       <c r="O168" s="15">
         <v>1</v>
@@ -19878,11 +19970,11 @@
       </c>
       <c r="M169">
         <f t="shared" si="15"/>
-        <v>-3.8371166756861212</v>
+        <v>-3.8368988757899936</v>
       </c>
       <c r="N169" s="15">
         <f t="shared" si="19"/>
-        <v>-0.24437091160376356</v>
+        <v>-0.24415311170763587</v>
       </c>
       <c r="O169" s="15">
         <v>1</v>
@@ -19914,11 +20006,11 @@
       </c>
       <c r="M170">
         <f t="shared" si="15"/>
-        <v>-3.7935831356207133</v>
+        <v>-3.7933635979724758</v>
       </c>
       <c r="N170" s="15">
         <f t="shared" si="19"/>
-        <v>-0.24850113992884193</v>
+        <v>-0.24828160228060447</v>
       </c>
       <c r="O170" s="15">
         <v>1</v>
@@ -19950,11 +20042,11 @@
       </c>
       <c r="M171">
         <f t="shared" si="15"/>
-        <v>-3.7504741452317005</v>
+        <v>-3.7502529379220775</v>
       </c>
       <c r="N171" s="15">
         <f t="shared" si="19"/>
-        <v>-0.25257699503959996</v>
+        <v>-0.25235578772997691</v>
       </c>
       <c r="O171" s="15">
         <v>1</v>
@@ -19986,11 +20078,11 @@
       </c>
       <c r="M172">
         <f t="shared" si="15"/>
-        <v>-3.7077881737313758</v>
+        <v>-3.7075653638714865</v>
       </c>
       <c r="N172" s="15">
         <f t="shared" si="19"/>
-        <v>-0.2565972241576131</v>
+        <v>-0.25637441429772378</v>
       </c>
       <c r="O172" s="15">
         <v>1</v>
@@ -20022,11 +20114,11 @@
       </c>
       <c r="M173">
         <f t="shared" si="15"/>
-        <v>-3.6655235816267129</v>
+        <v>-3.6652992353399072</v>
       </c>
       <c r="N173" s="15">
         <f t="shared" si="19"/>
-        <v>-0.26056064257132494</v>
+        <v>-0.26033629628451926</v>
       </c>
       <c r="O173" s="15">
         <v>1</v>
@@ -20058,11 +20150,11 @@
       </c>
       <c r="M174">
         <f t="shared" si="15"/>
-        <v>-3.6236786265230831</v>
+        <v>-3.6234528089381364</v>
       </c>
       <c r="N174" s="15">
         <f t="shared" si="19"/>
-        <v>-0.26446613233010874</v>
+        <v>-0.26424031474516196</v>
       </c>
       <c r="O174" s="15">
         <v>1</v>
@@ -20094,11 +20186,11 @@
       </c>
       <c r="M175">
         <f t="shared" si="15"/>
-        <v>-3.5822514686993729</v>
+        <v>-3.5820242439449856</v>
       </c>
       <c r="N175" s="15">
         <f t="shared" si="19"/>
-        <v>-0.26831264092198515</v>
+        <v>-0.26808541616759785</v>
       </c>
       <c r="O175" s="15">
         <v>1</v>
@@ -20130,11 +20222,11 @@
       </c>
       <c r="M176">
         <f t="shared" si="15"/>
-        <v>-3.5412401764629085</v>
+        <v>-3.5410116076634237</v>
       </c>
       <c r="N176" s="15">
         <f t="shared" si="19"/>
-        <v>-0.27209917993777477</v>
+        <v>-0.27187061113829003</v>
       </c>
       <c r="O176" s="15">
         <v>1</v>
@@ -20166,11 +20258,11 @@
       </c>
       <c r="M177">
         <f t="shared" si="15"/>
-        <v>-3.5006427312922153</v>
+        <v>-3.5004128805644834</v>
       </c>
       <c r="N177" s="15">
         <f t="shared" si="19"/>
-        <v>-0.27582482372423867</v>
+        <v>-0.27559497299650682</v>
       </c>
       <c r="O177" s="15">
         <v>1</v>
@@ -20202,11 +20294,11 @@
       </c>
       <c r="M178">
         <f t="shared" si="15"/>
-        <v>-3.4604570327753823</v>
+        <v>-3.4602259612267137</v>
       </c>
       <c r="N178" s="15">
         <f t="shared" si="19"/>
-        <v>-0.27948870802863901</v>
+        <v>-0.27925763647997037</v>
       </c>
       <c r="O178" s="15">
         <v>1</v>
@@ -20238,11 +20330,11 @@
       </c>
       <c r="M179">
         <f t="shared" si="15"/>
-        <v>-3.4206809033515375</v>
+        <v>-3.4204486710786699</v>
       </c>
       <c r="N179" s="15">
         <f t="shared" si="19"/>
-        <v>-0.28309002863700172</v>
+        <v>-0.28285779636413411</v>
       </c>
       <c r="O179" s="15">
         <v>1</v>
@@ -20274,11 +20366,11 @@
       </c>
       <c r="M180">
         <f t="shared" si="15"/>
-        <v>-3.3813120928626188</v>
+        <v>-3.3810787589516433</v>
       </c>
       <c r="N180" s="15">
         <f t="shared" si="19"/>
-        <v>-0.28662804000820818</v>
+        <v>-0.28639470609723272</v>
       </c>
       <c r="O180" s="15">
         <v>1</v>
@@ -20310,11 +20402,11 @@
       </c>
       <c r="M181">
         <f t="shared" si="15"/>
-        <v>-3.3423482829224347</v>
+        <v>-3.3421139054496214</v>
       </c>
       <c r="N181" s="15">
         <f t="shared" si="19"/>
-        <v>-0.29010205390592825</v>
+        <v>-0.28986767643311495</v>
       </c>
       <c r="O181" s="15">
         <v>1</v>
@@ -20346,11 +20438,11 @@
       </c>
       <c r="M182">
         <f t="shared" si="15"/>
-        <v>-3.3037870911097205</v>
+        <v>-3.3035517271431942</v>
       </c>
       <c r="N182" s="15">
         <f t="shared" si="19"/>
-        <v>-0.29351143803029522</v>
+        <v>-0.29327607406376899</v>
       </c>
       <c r="O182" s="15">
         <v>1</v>
@@ -20382,11 +20474,11 @@
       </c>
       <c r="M183">
         <f t="shared" si="15"/>
-        <v>-3.265626074991649</v>
+        <v>-3.2653897805938499</v>
       </c>
       <c r="N183" s="15">
         <f t="shared" si="19"/>
-        <v>-0.29685561465105437</v>
+        <v>-0.29661932025325521</v>
       </c>
       <c r="O183" s="15">
         <v>1</v>
@@ -20418,11 +20510,11 @@
       </c>
       <c r="M184">
         <f t="shared" si="15"/>
-        <v>-3.2278627359840688</v>
+        <v>-3.2276255662149578</v>
       </c>
       <c r="N184" s="15">
         <f t="shared" si="19"/>
-        <v>-0.3001340592438706</v>
+        <v>-0.29989688947475956</v>
       </c>
       <c r="O184" s="15">
         <v>1</v>
@@ -20454,11 +20546,11 @@
       </c>
       <c r="M185">
         <f t="shared" si="15"/>
-        <v>-3.1904945230544555</v>
+        <v>-3.1902565319754141</v>
       </c>
       <c r="N185" s="15">
         <f t="shared" si="19"/>
-        <v>-0.30334629913131117</v>
+        <v>-0.30310830805226985</v>
       </c>
       <c r="O185" s="15">
         <v>1</v>
@@ -20490,11 +20582,11 @@
       </c>
       <c r="M186">
         <f t="shared" si="15"/>
-        <v>-3.1535188362733981</v>
+        <v>-3.1532800769517784</v>
       </c>
       <c r="N186" s="15">
         <f t="shared" si="19"/>
-        <v>-0.30649191212994431</v>
+        <v>-0.30625315280832455</v>
       </c>
       <c r="O186" s="15">
         <v>1</v>
@@ -20526,11 +20618,11 @@
       </c>
       <c r="M187">
         <f t="shared" si="15"/>
-        <v>-3.1169330302202209</v>
+        <v>-3.1166935547344932</v>
       </c>
       <c r="N187" s="15">
         <f t="shared" si="19"/>
-        <v>-0.30957052520491413</v>
+        <v>-0.30933104971918635</v>
       </c>
       <c r="O187" s="15">
         <v>1</v>
@@ -20562,11 +20654,11 @@
       </c>
       <c r="M188">
         <f t="shared" si="15"/>
-        <v>-3.0807344172481006</v>
+        <v>-3.0804942766935786</v>
       </c>
       <c r="N188" s="15">
         <f t="shared" si="19"/>
-        <v>-0.31258181313318678</v>
+        <v>-0.31234167257866474</v>
       </c>
       <c r="O188" s="15">
         <v>1</v>
@@ -20598,11 +20690,11 @@
       </c>
       <c r="M189">
         <f t="shared" si="15"/>
-        <v>-3.0449202706139502</v>
+        <v>-3.04467951510903</v>
       </c>
       <c r="N189" s="15">
         <f t="shared" si="19"/>
-        <v>-0.31552549717671186</v>
+        <v>-0.31528474167179166</v>
       </c>
       <c r="O189" s="15">
         <v>1</v>
@@ -20634,11 +20726,11 @@
       </c>
       <c r="M190">
         <f t="shared" si="15"/>
-        <v>-3.009487827478003</v>
+        <v>-3.0092465061708942</v>
       </c>
       <c r="N190" s="15">
         <f t="shared" si="19"/>
-        <v>-0.31840134376646745</v>
+        <v>-0.31816002245935859</v>
       </c>
       <c r="O190" s="15">
         <v>1</v>
@@ -20670,11 +20762,11 @@
       </c>
       <c r="M191">
         <f t="shared" si="15"/>
-        <v>-2.9744342917779898</v>
+        <v>-2.9741924528539032</v>
       </c>
       <c r="N191" s="15">
         <f t="shared" si="19"/>
-        <v>-0.32120916319846016</v>
+        <v>-0.32096732427437358</v>
       </c>
       <c r="O191" s="15">
         <v>1</v>
@@ -20706,11 +20798,11 @@
       </c>
       <c r="M192">
         <f t="shared" si="15"/>
-        <v>-2.9397568369825509</v>
+        <v>-2.9395145276712973</v>
       </c>
       <c r="N192" s="15">
         <f t="shared" si="19"/>
-        <v>-0.32394880834255435</v>
+        <v>-0.32370649903130078</v>
       </c>
       <c r="O192" s="15">
         <v>1</v>
@@ -20742,11 +20834,11 @@
       </c>
       <c r="M193">
         <f t="shared" si="15"/>
-        <v>-2.9054526087283681</v>
+        <v>-2.9052098753123521</v>
       </c>
       <c r="N193" s="15">
         <f t="shared" si="19"/>
-        <v>-0.32662017336497762</v>
+        <v>-0.32637743994896162</v>
       </c>
       <c r="O193" s="15">
         <v>1</v>
@@ -20778,11 +20870,11 @@
       </c>
       <c r="M194">
         <f t="shared" si="15"/>
-        <v>-2.8715187273453822</v>
+        <v>-2.8712756151679493</v>
       </c>
       <c r="N194" s="15">
         <f t="shared" si="19"/>
-        <v>-0.32922319246530041</v>
+        <v>-0.32898008028786752</v>
       </c>
       <c r="O194" s="15">
         <v>1</v>
@@ -20814,11 +20906,11 @@
       </c>
       <c r="M195">
         <f t="shared" si="15"/>
-        <v>-2.8379522902742331</v>
+        <v>-2.8377088437483446</v>
       </c>
       <c r="N195" s="15">
         <f t="shared" si="19"/>
-        <v>-0.3317578386285569</v>
+        <v>-0.33151439210266842</v>
       </c>
       <c r="O195" s="15">
         <v>1</v>
@@ -20850,11 +20942,11 @@
       </c>
       <c r="M196">
         <f t="shared" si="15"/>
-        <v>-2.804750374379974</v>
+        <v>-2.8045066369971852</v>
       </c>
       <c r="N196" s="15">
         <f t="shared" si="19"/>
-        <v>-0.33422412239317767</v>
+        <v>-0.33398038501038885</v>
       </c>
       <c r="O196" s="15">
         <v>1</v>
@@ -20886,11 +20978,11 @@
       </c>
       <c r="M197">
         <f t="shared" si="15"/>
-        <v>-2.7719100381659501</v>
+        <v>-2.7716660525056658</v>
       </c>
       <c r="N197" s="15">
         <f t="shared" si="19"/>
-        <v>-0.33662209063532655</v>
+        <v>-0.33637810497504228</v>
       </c>
       <c r="O197" s="15">
         <v>1</v>
@@ -20922,11 +21014,11 @@
       </c>
       <c r="M198">
         <f t="shared" si="15"/>
-        <v>-2.7394283238915382</v>
+        <v>-2.7391841316305103</v>
       </c>
       <c r="N198" s="15">
         <f t="shared" si="19"/>
-        <v>-0.33895182537012669</v>
+        <v>-0.33870763310909879</v>
       </c>
       <c r="O198" s="15">
         <v>1</v>
@@ -20958,11 +21050,11 @@
       </c>
       <c r="M199">
         <f t="shared" si="15"/>
-        <v>-2.7073022595974363</v>
+        <v>-2.7070579015194998</v>
       </c>
       <c r="N199" s="15">
         <f t="shared" si="19"/>
-        <v>-0.34121344257033037</v>
+        <v>-0.34096908449239383</v>
       </c>
       <c r="O199" s="15">
         <v>1</v>
@@ -20994,11 +21086,11 @@
       </c>
       <c r="M200">
         <f t="shared" si="15"/>
-        <v>-2.6755288610419048</v>
+        <v>-2.6752843770479089</v>
       </c>
       <c r="N200" s="15">
         <f t="shared" si="19"/>
-        <v>-0.34340709100278621</v>
+        <v>-0.34316260700879031</v>
       </c>
       <c r="O200" s="15">
         <v>1</v>
@@ -21030,11 +21122,11 @@
       </c>
       <c r="M201">
         <f t="shared" si="15"/>
-        <v>-2.6441051335513408</v>
+        <v>-2.6438605626692726</v>
       </c>
       <c r="N201" s="15">
         <f t="shared" si="19"/>
-        <v>-0.34553295108310556</v>
+        <v>-0.34528838020103736</v>
       </c>
       <c r="O201" s="15">
         <v>1</v>
@@ -21066,11 +21158,11 @@
       </c>
       <c r="M202">
         <f t="shared" si="15"/>
-        <v>-2.6130280737884157</v>
+        <v>-2.6127834541836874</v>
       </c>
       <c r="N202" s="15">
         <f t="shared" si="19"/>
-        <v>-0.34759123374886958</v>
+        <v>-0.34734661414414125</v>
       </c>
       <c r="O202" s="15">
         <v>1</v>
@@ -21102,11 +21194,11 @@
       </c>
       <c r="M203">
         <f t="shared" si="15"/>
-        <v>-2.5822946714409394</v>
+        <v>-2.5820500404268172</v>
       </c>
       <c r="N203" s="15">
         <f t="shared" si="19"/>
-        <v>-0.34958217935170399</v>
+        <v>-0.34933754833758179</v>
       </c>
       <c r="O203" s="15">
         <v>1</v>
@@ -21138,11 +21230,11 @@
       </c>
       <c r="M204">
         <f t="shared" si="15"/>
-        <v>-2.551901910834331</v>
+        <v>-2.5516573048824953</v>
       </c>
       <c r="N204" s="15">
         <f t="shared" si="19"/>
-        <v>-0.35150605656836209</v>
+        <v>-0.35126145061652636</v>
       </c>
       <c r="O204" s="15">
         <v>1</v>
@@ -21174,11 +21266,11 @@
       </c>
       <c r="M205">
         <f t="shared" si="15"/>
-        <v>-2.5218467724707447</v>
+        <v>-2.521602227221964</v>
       </c>
       <c r="N205" s="15">
         <f t="shared" si="19"/>
-        <v>-0.35336316133117274</v>
+        <v>-0.35311861608239203</v>
       </c>
       <c r="O205" s="15">
         <v>1</v>
@@ -21210,11 +21302,11 @@
       </c>
       <c r="M206">
         <f t="shared" si="15"/>
-        <v>-2.4921262344975275</v>
+        <v>-2.4918817847724228</v>
       </c>
       <c r="N206" s="15">
         <f t="shared" si="19"/>
-        <v>-0.35515381577792438</v>
+        <v>-0.35490936605281975</v>
       </c>
       <c r="O206" s="15">
         <v>1</v>
@@ -21246,11 +21338,11 @@
       </c>
       <c r="M207">
         <f t="shared" si="15"/>
-        <v>-2.4627372741077331</v>
+        <v>-2.4624929539176308</v>
       </c>
       <c r="N207" s="15">
         <f t="shared" si="19"/>
-        <v>-0.35687836722136046</v>
+        <v>-0.35663404703125812</v>
       </c>
       <c r="O207" s="15">
         <v>1</v>
@@ -21282,11 +21374,11 @@
       </c>
       <c r="M208">
         <f t="shared" si="15"/>
-        <v>-2.4336768688752928</v>
+        <v>-2.433432711433138</v>
       </c>
       <c r="N208" s="15">
         <f t="shared" si="19"/>
-        <v>-0.35853718713841154</v>
+        <v>-0.35829302969625676</v>
       </c>
       <c r="O208" s="15">
         <v>1</v>
@@ -21318,11 +21410,11 @@
       </c>
       <c r="M209">
         <f t="shared" si="15"/>
-        <v>-2.4049419980273634</v>
+        <v>-2.4046980357586896</v>
       </c>
       <c r="N209" s="15">
         <f t="shared" si="19"/>
-        <v>-0.36013067017925904</v>
+        <v>-0.35988670791058519</v>
       </c>
       <c r="O209" s="15">
         <v>1</v>
@@ -21354,11 +21446,11 @@
       </c>
       <c r="M210">
         <f t="shared" si="15"/>
-        <v>-2.3765296436561902</v>
+        <v>-2.3762859082101295</v>
       </c>
       <c r="N210" s="15">
         <f t="shared" si="19"/>
-        <v>-0.36165923319622539</v>
+        <v>-0.36141549775016468</v>
       </c>
       <c r="O210" s="15">
         <v>1</v>
@@ -21389,12 +21481,12 @@
         <v>-1.9846133657175455</v>
       </c>
       <c r="M211">
-        <f t="shared" ref="M211:M274" si="22">$L$9*$O$7*EXP(-$O$8*(G211/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G211/$L$10-1))</f>
-        <v>-2.3484367918728539</v>
+        <f t="shared" ref="M211:M274" si="22">$L$9*$O$6*EXP(-$O$7*(G211/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G211/$L$10-1))</f>
+        <v>-2.3481933141331783</v>
       </c>
       <c r="N211" s="15">
         <f t="shared" si="19"/>
-        <v>-0.36312331429256162</v>
+        <v>-0.36287983655288603</v>
       </c>
       <c r="O211" s="15">
         <v>1</v>
@@ -21426,11 +21518,11 @@
       </c>
       <c r="M212">
         <f t="shared" si="22"/>
-        <v>-2.3206604339051853</v>
+        <v>-2.3204172440013648</v>
       </c>
       <c r="N212" s="15">
         <f t="shared" ref="N212:N275" si="26">(M212-H212)*O212</f>
-        <v>-0.36452337189117956</v>
+        <v>-0.36428018198735912</v>
       </c>
       <c r="O212" s="15">
         <v>1</v>
@@ -21462,11 +21554,11 @@
       </c>
       <c r="M213">
         <f t="shared" si="22"/>
-        <v>-2.2931975671418621</v>
+        <v>-2.2929546944601293</v>
       </c>
       <c r="N213" s="15">
         <f t="shared" si="26"/>
-        <v>-0.3658598838231748</v>
+        <v>-0.36561701114144207</v>
       </c>
       <c r="O213" s="15">
         <v>1</v>
@@ -21498,11 +21590,11 @@
       </c>
       <c r="M214">
         <f t="shared" si="22"/>
-        <v>-2.2660451961249275</v>
+        <v>-2.2658026693193425</v>
       </c>
       <c r="N214" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36713334643625206</v>
+        <v>-0.36689081963066705</v>
       </c>
       <c r="O214" s="15">
         <v>1</v>
@@ -21534,11 +21626,11 @@
       </c>
       <c r="M215">
         <f t="shared" si="22"/>
-        <v>-2.239200333492616</v>
+        <v>-2.2389581804961201</v>
       </c>
       <c r="N215" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36834427372288236</v>
+        <v>-0.36810212072638637</v>
       </c>
       <c r="O215" s="15">
         <v>1</v>
@@ -21570,11 +21662,11 @@
       </c>
       <c r="M216">
         <f t="shared" si="22"/>
-        <v>-2.2126600008744708</v>
+        <v>-2.2124182489099176</v>
       </c>
       <c r="N216" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36949319646816092</v>
+        <v>-0.3692514445036077</v>
       </c>
       <c r="O216" s="15">
         <v>1</v>
@@ -21606,11 +21698,11 @@
       </c>
       <c r="M217">
         <f t="shared" si="22"/>
-        <v>-2.1864212297405921</v>
+        <v>-2.1861799053317559</v>
       </c>
       <c r="N217" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37058066141724644</v>
+        <v>-0.37033933700841026</v>
       </c>
       <c r="O217" s="15">
         <v>1</v>
@@ -21642,11 +21734,11 @@
       </c>
       <c r="M218">
         <f t="shared" si="22"/>
-        <v>-2.1604810622068085</v>
+        <v>-2.1602401911893492</v>
       </c>
       <c r="N218" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37160723046227084</v>
+        <v>-0.37136635944481156</v>
       </c>
       <c r="O218" s="15">
         <v>1</v>
@@ -21678,11 +21770,11 @@
       </c>
       <c r="M219">
         <f t="shared" si="22"/>
-        <v>-2.1348365517975116</v>
+        <v>-2.1345961593299037</v>
       </c>
       <c r="N219" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37257347984859934</v>
+        <v>-0.37233308738099136</v>
       </c>
       <c r="O219" s="15">
         <v>1</v>
@@ -21714,11 +21806,11 @@
       </c>
       <c r="M220">
         <f t="shared" si="22"/>
-        <v>-2.1094847641677914</v>
+        <v>-2.1092448747422021</v>
       </c>
       <c r="N220" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37347999940027177</v>
+        <v>-0.37324010997468249</v>
       </c>
       <c r="O220" s="15">
         <v>1</v>
@@ -21750,11 +21842,11 @@
       </c>
       <c r="M221">
         <f t="shared" si="22"/>
-        <v>-2.0844227777865019</v>
+        <v>-2.0841834152396146</v>
       </c>
       <c r="N221" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37432739176448981</v>
+        <v>-0.37408802921760254</v>
       </c>
       <c r="O221" s="15">
         <v>1</v>
@@ -21786,11 +21878,11 @@
       </c>
       <c r="M222">
         <f t="shared" si="22"/>
-        <v>-2.0596476845817593</v>
+        <v>-2.0594088721055308</v>
       </c>
       <c r="N222" s="15">
         <f t="shared" si="26"/>
-        <v>-0.3751162716749461</v>
+        <v>-0.37487745919871762</v>
       </c>
       <c r="O222" s="15">
         <v>1</v>
@@ -21822,11 +21914,11 @@
       </c>
       <c r="M223">
         <f t="shared" si="22"/>
-        <v>-2.0351565905504301</v>
+        <v>-2.0349183507027875</v>
       </c>
       <c r="N223" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37584726523387002</v>
+        <v>-0.37560902538622742</v>
       </c>
       <c r="O223" s="15">
         <v>1</v>
@@ -21858,11 +21950,11 @@
       </c>
       <c r="M224">
         <f t="shared" si="22"/>
-        <v>-2.010946616332967</v>
+        <v>-2.0107089710484294</v>
       </c>
       <c r="N224" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37652100921253595</v>
+        <v>-0.37628336392799833</v>
       </c>
       <c r="O224" s="15">
         <v>1</v>
@@ -21894,11 +21986,11 @@
       </c>
       <c r="M225">
         <f t="shared" si="22"/>
-        <v>-1.9870148977549973</v>
+        <v>-1.9867778683552231</v>
       </c>
       <c r="N225" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37713815037004528</v>
+        <v>-0.37690112097027106</v>
       </c>
       <c r="O225" s="15">
         <v>1</v>
@@ -21930,11 +22022,11 @@
       </c>
       <c r="M226">
         <f t="shared" si="22"/>
-        <v>-1.9633585863370346</v>
+        <v>-1.9631221935412875</v>
       </c>
       <c r="N226" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37769934479022016</v>
+        <v>-0.37746295199447299</v>
       </c>
       <c r="O226" s="15">
         <v>1</v>
@@ -21966,11 +22058,11 @@
       </c>
       <c r="M227">
         <f t="shared" si="22"/>
-        <v>-1.9399748497735387</v>
+        <v>-1.9397391137090678</v>
       </c>
       <c r="N227" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37820525723632636</v>
+        <v>-0.37796952117185545</v>
       </c>
       <c r="O227" s="15">
         <v>1</v>
@@ -22002,11 +22094,11 @@
       </c>
       <c r="M228">
         <f t="shared" si="22"/>
-        <v>-1.9168608723825573</v>
+        <v>-1.9166258125948927</v>
       </c>
       <c r="N228" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37865656052340513</v>
+        <v>-0.37842150073574055</v>
       </c>
       <c r="O228" s="15">
         <v>1</v>
@@ -22038,11 +22130,11 @@
       </c>
       <c r="M229">
         <f t="shared" si="22"/>
-        <v>-1.8940138555272192</v>
+        <v>-1.8937794909903742</v>
       </c>
       <c r="N229" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37905393490805617</v>
+        <v>-0.37881957037121117</v>
       </c>
       <c r="O229" s="15">
         <v>1</v>
@@ -22074,11 +22166,11 @@
       </c>
       <c r="M230">
         <f t="shared" si="22"/>
-        <v>-1.8714310180100935</v>
+        <v>-1.8711973671366697</v>
       </c>
       <c r="N230" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37939806749531213</v>
+        <v>-0.37916441662188838</v>
       </c>
       <c r="O230" s="15">
         <v>1</v>
@@ -22110,11 +22202,11 @@
       </c>
       <c r="M231">
         <f t="shared" si="22"/>
-        <v>-1.8491095964416391</v>
+        <v>-1.8488766770928411</v>
       </c>
       <c r="N231" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37968965166246793</v>
+        <v>-0.37945673231366994</v>
       </c>
       <c r="O231" s="15">
         <v>1</v>
@@ -22146,11 +22238,11 @@
       </c>
       <c r="M232">
         <f t="shared" si="22"/>
-        <v>-1.8270468455837301</v>
+        <v>-1.8268146750792735</v>
       </c>
       <c r="N232" s="15">
         <f t="shared" si="26"/>
-        <v>-0.3799293864995541</v>
+        <v>-0.37969721599509754</v>
       </c>
       <c r="O232" s="15">
         <v>1</v>
@@ -22182,11 +22274,11 @@
       </c>
       <c r="M233">
         <f t="shared" si="22"/>
-        <v>-1.8052400386693075</v>
+        <v>-1.8050086337972262</v>
       </c>
       <c r="N233" s="15">
         <f t="shared" si="26"/>
-        <v>-0.38011797626622146</v>
+        <v>-0.37988657139414017</v>
       </c>
       <c r="O233" s="15">
         <v>1</v>
@@ -22218,11 +22310,11 @@
       </c>
       <c r="M234">
         <f t="shared" si="22"/>
-        <v>-1.7836864676991411</v>
+        <v>-1.7834558447254951</v>
       </c>
       <c r="N234" s="15">
         <f t="shared" si="26"/>
-        <v>-0.38025612986477775</v>
+        <v>-0.38002550689113179</v>
       </c>
       <c r="O234" s="15">
         <v>1</v>
@@ -22254,11 +22346,11 @@
       </c>
       <c r="M235">
         <f t="shared" si="22"/>
-        <v>-1.7623834437166486</v>
+        <v>-1.7621536183951207</v>
       </c>
       <c r="N235" s="15">
         <f t="shared" si="26"/>
-        <v>-0.38034456032912289</v>
+        <v>-0.38011473500759507</v>
       </c>
       <c r="O235" s="15">
         <v>1</v>
@@ -22290,11 +22382,11 @@
       </c>
       <c r="M236">
         <f t="shared" si="22"/>
-        <v>-1.7413282970616659</v>
+        <v>-1.741099284643052</v>
       </c>
       <c r="N236" s="15">
         <f t="shared" si="26"/>
-        <v>-0.38038398432929554</v>
+        <v>-0.38015497191068159</v>
       </c>
       <c r="O236" s="15">
         <v>1</v>
@@ -22326,11 +22418,11 @@
       </c>
       <c r="M237">
         <f t="shared" si="22"/>
-        <v>-1.7205183776040998</v>
+        <v>-1.7202901928456915</v>
       </c>
       <c r="N237" s="15">
         <f t="shared" si="26"/>
-        <v>-0.38037512169141685</v>
+        <v>-0.38014693693300861</v>
       </c>
       <c r="O237" s="15">
         <v>1</v>
@@ -22362,11 +22454,11 @@
       </c>
       <c r="M238">
         <f t="shared" si="22"/>
-        <v>-1.6999510549582308</v>
+        <v>-1.6997237121330844</v>
       </c>
       <c r="N238" s="15">
         <f t="shared" si="26"/>
-        <v>-0.38031869493269399</v>
+        <v>-0.38009135210754752</v>
       </c>
       <c r="O238" s="15">
         <v>1</v>
@@ -22398,11 +22490,11 @@
       </c>
       <c r="M239">
         <f t="shared" si="22"/>
-        <v>-1.6796237186785603</v>
+        <v>-1.6793972315846586</v>
       </c>
       <c r="N239" s="15">
         <f t="shared" si="26"/>
-        <v>-0.38021542881128823</v>
+        <v>-0.37998894171738651</v>
       </c>
       <c r="O239" s="15">
         <v>1</v>
@@ -22434,11 +22526,11 @@
       </c>
       <c r="M240">
         <f t="shared" si="22"/>
-        <v>-1.6595337784379345</v>
+        <v>-1.6593081604072297</v>
       </c>
       <c r="N240" s="15">
         <f t="shared" si="26"/>
-        <v>-0.38006604989072668</v>
+        <v>-0.37984043186002192</v>
       </c>
       <c r="O240" s="15">
         <v>1</v>
@@ -22470,11 +22562,11 @@
       </c>
       <c r="M241">
         <f t="shared" si="22"/>
-        <v>-1.6396786641887153</v>
+        <v>-1.6394539280960669</v>
       </c>
       <c r="N241" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37987128611861021</v>
+        <v>-0.37964655002596182</v>
       </c>
       <c r="O241" s="15">
         <v>1</v>
@@ -22506,11 +22598,11 @@
       </c>
       <c r="M242">
         <f t="shared" si="22"/>
-        <v>-1.6200558263077423</v>
+        <v>-1.6198319845797349</v>
       </c>
       <c r="N242" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37963186641935232</v>
+        <v>-0.37940802469134494</v>
       </c>
       <c r="O242" s="15">
         <v>1</v>
@@ -22542,11 +22634,11 @@
       </c>
       <c r="M243">
         <f t="shared" si="22"/>
-        <v>-1.6006627357257441</v>
+        <v>-1.6004398003493883</v>
       </c>
       <c r="N243" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37934852030065613</v>
+        <v>-0.37912558492430026</v>
       </c>
       <c r="O243" s="15">
         <v>1</v>
@@ -22578,11 +22670,11 @@
       </c>
       <c r="M244">
         <f t="shared" si="22"/>
-        <v>-1.5814968840419286</v>
+        <v>-1.5812748665732557</v>
       </c>
       <c r="N244" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37902197747349464</v>
+        <v>-0.37879996000482175</v>
       </c>
       <c r="O244" s="15">
         <v>1</v>
@@ -22614,11 +22706,11 @@
       </c>
       <c r="M245">
         <f t="shared" si="22"/>
-        <v>-1.5625557836243549</v>
+        <v>-1.5623346951968888</v>
       </c>
       <c r="N245" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37865296748529809</v>
+        <v>-0.37843187905783204</v>
       </c>
       <c r="O245" s="15">
         <v>1</v>
@@ -22650,11 +22742,11 @@
       </c>
       <c r="M246">
         <f t="shared" si="22"/>
-        <v>-1.5438369676967176</v>
+        <v>-1.5436168190298323</v>
       </c>
       <c r="N246" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37824221936607527</v>
+        <v>-0.37802207069918992</v>
       </c>
       <c r="O246" s="15">
         <v>1</v>
@@ -22686,11 +22778,11 @@
       </c>
       <c r="M247">
         <f t="shared" si="22"/>
-        <v>-1.5253379904121755</v>
+        <v>-1.5251187918193418</v>
       </c>
       <c r="N247" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37779046128724225</v>
+        <v>-0.37757126269440855</v>
       </c>
       <c r="O247" s="15">
         <v>1</v>
@@ -22722,11 +22814,11 @@
       </c>
       <c r="M248">
         <f t="shared" si="22"/>
-        <v>-1.5070564269147702</v>
+        <v>-1.5068381883116801</v>
       </c>
       <c r="N248" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37729842023285176</v>
+        <v>-0.37708018162976176</v>
       </c>
       <c r="O248" s="15">
         <v>1</v>
@@ -22758,11 +22850,11 @@
       </c>
       <c r="M249">
         <f t="shared" si="22"/>
-        <v>-1.488989873388991</v>
+        <v>-1.4887726043015721</v>
       </c>
       <c r="N249" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37676682168296849</v>
+        <v>-0.37654955259554956</v>
       </c>
       <c r="O249" s="15">
         <v>1</v>
@@ -22794,11 +22886,11 @@
       </c>
       <c r="M250">
         <f t="shared" si="22"/>
-        <v>-1.4711359470980365</v>
+        <v>-1.4709196566703482</v>
       </c>
       <c r="N250" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37619638930893529</v>
+        <v>-0.37598009888124695</v>
       </c>
       <c r="O250" s="15">
         <v>1</v>
@@ -22830,11 +22922,11 @@
       </c>
       <c r="M251">
         <f t="shared" si="22"/>
-        <v>-1.4534922864113018</v>
+        <v>-1.4532769834133175</v>
       </c>
       <c r="N251" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37558784468029205</v>
+        <v>-0.37537254168230771</v>
       </c>
       <c r="O251" s="15">
         <v>1</v>
@@ -22866,11 +22958,11 @@
       </c>
       <c r="M252">
         <f t="shared" si="22"/>
-        <v>-1.4360565508215288</v>
+        <v>-1.4358422436568057</v>
       </c>
       <c r="N252" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37494190698302332</v>
+        <v>-0.37472759981830017</v>
       </c>
       <c r="O252" s="15">
         <v>1</v>
@@ -22902,11 +22994,11 @@
       </c>
       <c r="M253">
         <f t="shared" si="22"/>
-        <v>-1.4188264209521608</v>
+        <v>-1.4186131176653913</v>
       </c>
       <c r="N253" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37425929274894898</v>
+        <v>-0.37404598946217948</v>
       </c>
       <c r="O253" s="15">
         <v>1</v>
@@ -22938,11 +23030,11 @@
       </c>
       <c r="M254">
         <f t="shared" si="22"/>
-        <v>-1.4017995985553289</v>
+        <v>-1.4015873068397822</v>
       </c>
       <c r="N254" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37354071559597268</v>
+        <v>-0.37332842388042597</v>
       </c>
       <c r="O254" s="15">
         <v>1</v>
@@ -22974,11 +23066,11 @@
       </c>
       <c r="M255">
         <f t="shared" si="22"/>
-        <v>-1.3849738065008981</v>
+        <v>-1.384762533705747</v>
       </c>
       <c r="N255" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37278688597892051</v>
+        <v>-0.37257561318376942</v>
       </c>
       <c r="O255" s="15">
         <v>1</v>
@@ -23010,11 +23102,11 @@
       </c>
       <c r="M256">
         <f t="shared" si="22"/>
-        <v>-1.3683467887570333</v>
+        <v>-1.3681365418945681</v>
       </c>
       <c r="N256" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37199851095076242</v>
+        <v>-0.37178826408829724</v>
       </c>
       <c r="O256" s="15">
         <v>1</v>
@@ -23046,11 +23138,11 @@
       </c>
       <c r="M257">
         <f t="shared" si="22"/>
-        <v>-1.3519163103626555</v>
+        <v>-1.351707096115391</v>
       </c>
       <c r="N257" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37117629393392848</v>
+        <v>-0.37096707968666398</v>
       </c>
       <c r="O257" s="15">
         <v>1</v>
@@ -23082,11 +23174,11 @@
       </c>
       <c r="M258">
         <f t="shared" si="22"/>
-        <v>-1.3356801573922044</v>
+        <v>-1.3354719821198684</v>
       </c>
       <c r="N258" s="15">
         <f t="shared" si="26"/>
-        <v>-0.37032093450150805</v>
+        <v>-0.37011275922917208</v>
       </c>
       <c r="O258" s="15">
         <v>1</v>
@@ -23118,11 +23210,11 @@
       </c>
       <c r="M259">
         <f t="shared" si="22"/>
-        <v>-1.319636136913076</v>
+        <v>-1.3194290066594931</v>
       </c>
       <c r="N259" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36943312816807083</v>
+        <v>-0.36922599791448796</v>
       </c>
       <c r="O259" s="15">
         <v>1</v>
@@ -23154,11 +23246,11 @@
       </c>
       <c r="M260">
         <f t="shared" si="22"/>
-        <v>-1.3037820769360935</v>
+        <v>-1.3035759974359593</v>
       </c>
       <c r="N260" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36851356618988584</v>
+        <v>-0.36830748668975166</v>
       </c>
       <c r="O260" s="15">
         <v>1</v>
@@ -23190,11 +23282,11 @@
       </c>
       <c r="M261">
         <f t="shared" si="22"/>
-        <v>-1.2881158263593619</v>
+        <v>-1.2879108030449049</v>
       </c>
       <c r="N261" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36756293537429041</v>
+        <v>-0.36735791205983337</v>
       </c>
       <c r="O261" s="15">
         <v>1</v>
@@ -23226,11 +23318,11 @@
       </c>
       <c r="M262">
         <f t="shared" si="22"/>
-        <v>-1.2726352549058553</v>
+        <v>-1.2724312929133981</v>
       </c>
       <c r="N262" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36658191789800232</v>
+        <v>-0.36637795590554512</v>
       </c>
       <c r="O262" s="15">
         <v>1</v>
@@ -23262,11 +23354,11 @@
       </c>
       <c r="M263">
         <f t="shared" si="22"/>
-        <v>-1.2573382530550223</v>
+        <v>-1.2571353572314279</v>
       </c>
       <c r="N263" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36557119113410674</v>
+        <v>-0.36536829531051229</v>
       </c>
       <c r="O263" s="15">
         <v>1</v>
@@ -23298,11 +23390,11 @@
       </c>
       <c r="M264">
         <f t="shared" si="22"/>
-        <v>-1.2422227319687658</v>
+        <v>-1.2420209068777852</v>
       </c>
       <c r="N264" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36453142748754275</v>
+        <v>-0.3643296023965622</v>
       </c>
       <c r="O264" s="15">
         <v>1</v>
@@ -23334,11 +23426,11 @@
       </c>
       <c r="M265">
         <f t="shared" si="22"/>
-        <v>-1.2272866234120499</v>
+        <v>-1.2270858733405625</v>
       </c>
       <c r="N265" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36346329423882107</v>
+        <v>-0.36326254416733372</v>
       </c>
       <c r="O265" s="15">
         <v>1</v>
@@ -23370,11 +23462,11 @@
       </c>
       <c r="M266">
         <f t="shared" si="22"/>
-        <v>-1.2125278796684598</v>
+        <v>-1.2123282086326084</v>
       </c>
       <c r="N266" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36236745339579812</v>
+        <v>-0.36216778235994673</v>
       </c>
       <c r="O266" s="15">
         <v>1</v>
@@ -23406,11 +23498,11 @@
       </c>
       <c r="M267">
         <f t="shared" si="22"/>
-        <v>-1.1979444734509361</v>
+        <v>-1.1977458852021636</v>
       </c>
       <c r="N267" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36124456155323803</v>
+        <v>-0.36104597330446553</v>
       </c>
       <c r="O267" s="15">
         <v>1</v>
@@ -23442,11 +23534,11 @@
       </c>
       <c r="M268">
         <f t="shared" si="22"/>
-        <v>-1.1835343978080195</v>
+        <v>-1.1833368958390007</v>
       </c>
       <c r="N268" s="15">
         <f t="shared" si="26"/>
-        <v>-0.36009526976002482</v>
+        <v>-0.35989776779100602</v>
       </c>
       <c r="O268" s="15">
         <v>1</v>
@@ -23478,11 +23570,11 @@
       </c>
       <c r="M269">
         <f t="shared" si="22"/>
-        <v>-1.1692956660257847</v>
+        <v>-1.1690992535762572</v>
       </c>
       <c r="N269" s="15">
         <f t="shared" si="26"/>
-        <v>-0.35892022339374086</v>
+        <v>-0.35872381094421335</v>
       </c>
       <c r="O269" s="15">
         <v>1</v>
@@ -23514,11 +23606,11 @@
       </c>
       <c r="M270">
         <f t="shared" si="22"/>
-        <v>-1.1552263115257464</v>
+        <v>-1.1550309915882468</v>
       </c>
       <c r="N270" s="15">
         <f t="shared" si="26"/>
-        <v>-0.35772006204244888</v>
+        <v>-0.35752474210494933</v>
       </c>
       <c r="O270" s="15">
         <v>1</v>
@@ -23550,11 +23642,11 @@
       </c>
       <c r="M271">
         <f t="shared" si="22"/>
-        <v>-1.1413243877589814</v>
+        <v>-1.1411301630844783</v>
       </c>
       <c r="N271" s="15">
         <f t="shared" si="26"/>
-        <v>-0.35649541939349039</v>
+        <v>-0.35630119471898736</v>
       </c>
       <c r="O271" s="15">
         <v>1</v>
@@ -23586,11 +23678,11 @@
       </c>
       <c r="M272">
         <f t="shared" si="22"/>
-        <v>-1.1275879680966481</v>
+        <v>-1.1273948412000807</v>
       </c>
       <c r="N272" s="15">
         <f t="shared" si="26"/>
-        <v>-0.35524692312905004</v>
+        <v>-0.35505379623248268</v>
       </c>
       <c r="O272" s="15">
         <v>1</v>
@@ -23622,11 +23714,11 @@
       </c>
       <c r="M273">
         <f t="shared" si="22"/>
-        <v>-1.1140151457171485</v>
+        <v>-1.1138231188828687</v>
       </c>
       <c r="N273" s="15">
         <f t="shared" si="26"/>
-        <v>-0.35397519482834039</v>
+        <v>-0.35378316799406051</v>
       </c>
       <c r="O273" s="15">
         <v>1</v>
@@ -23658,11 +23750,11 @@
       </c>
       <c r="M274">
         <f t="shared" si="22"/>
-        <v>-1.1006040334901539</v>
+        <v>-1.1004131087772737</v>
       </c>
       <c r="N274" s="15">
         <f t="shared" si="26"/>
-        <v>-0.35268084987620862</v>
+        <v>-0.35248992516332844</v>
       </c>
       <c r="O274" s="15">
         <v>1</v>
@@ -23693,12 +23785,12 @@
         <v>-1.0632093904521487</v>
       </c>
       <c r="M275">
-        <f t="shared" ref="M275:M338" si="29">$L$9*$O$7*EXP(-$O$8*(G275/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G275/$L$10-1))</f>
-        <v>-1.087352763857633</v>
+        <f t="shared" ref="M275:M338" si="29">$L$9*$O$6*EXP(-$O$7*(G275/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G275/$L$10-1))</f>
+        <v>-1.0871629431052785</v>
       </c>
       <c r="N275" s="15">
         <f t="shared" si="26"/>
-        <v>-0.35136449737794329</v>
+        <v>-0.35117467662558877</v>
       </c>
       <c r="O275" s="15">
         <v>1</v>
@@ -23730,11 +23822,11 @@
       </c>
       <c r="M276">
         <f t="shared" si="29"/>
-        <v>-1.0742594887121426</v>
+        <v>-1.0740707735446169</v>
       </c>
       <c r="N276" s="15">
         <f t="shared" ref="N276:N339" si="33">(M276-H276)*O276</f>
-        <v>-0.35002674008014312</v>
+        <v>-0.3498380249126174</v>
       </c>
       <c r="O276" s="15">
         <v>1</v>
@@ -23766,11 +23858,11 @@
       </c>
       <c r="M277">
         <f t="shared" si="29"/>
-        <v>-1.0613223792725168</v>
+        <v>-1.0611347711043675</v>
       </c>
       <c r="N277" s="15">
         <f t="shared" si="33"/>
-        <v>-0.34866817429744801</v>
+        <v>-0.34848056612929867</v>
       </c>
       <c r="O277" s="15">
         <v>1</v>
@@ -23802,11 +23894,11 @@
       </c>
       <c r="M278">
         <f t="shared" si="29"/>
-        <v>-1.0485396259571325</v>
+        <v>-1.0483531259981327</v>
       </c>
       <c r="N278" s="15">
         <f t="shared" si="33"/>
-        <v>-0.34728938984493618</v>
+        <v>-0.34710288988593641</v>
       </c>
       <c r="O278" s="15">
         <v>1</v>
@@ -23838,11 +23930,11 @@
       </c>
       <c r="M279">
         <f t="shared" si="29"/>
-        <v>-1.0359094382549776</v>
+        <v>-1.0357240475150202</v>
       </c>
       <c r="N279" s="15">
         <f t="shared" si="33"/>
-        <v>-0.34589096997606017</v>
+        <v>-0.34570557923610279</v>
       </c>
       <c r="O279" s="15">
         <v>1</v>
@@ -23874,11 +23966,11 @@
       </c>
       <c r="M280">
         <f t="shared" si="29"/>
-        <v>-1.0234300445945297</v>
+        <v>-1.0232457638884263</v>
       </c>
       <c r="N280" s="15">
         <f t="shared" si="33"/>
-        <v>-0.34447349132589755</v>
+        <v>-0.34428921061979412</v>
       </c>
       <c r="O280" s="15">
         <v>1</v>
@@ -23910,11 +24002,11 @@
       </c>
       <c r="M281">
         <f t="shared" si="29"/>
-        <v>-1.0110996922108311</v>
+        <v>-1.0109165221630325</v>
       </c>
       <c r="N281" s="15">
         <f t="shared" si="33"/>
-        <v>-0.34303752385959685</v>
+        <v>-0.3428543538117983</v>
       </c>
       <c r="O281" s="15">
         <v>1</v>
@@ -23946,11 +24038,11 @@
       </c>
       <c r="M282">
         <f t="shared" si="29"/>
-        <v>-0.99891664701068894</v>
+        <v>-0.99873458805991622</v>
       </c>
       <c r="N282" s="15">
         <f t="shared" si="33"/>
-        <v>-0.3415836308258291</v>
+        <v>-0.34140157187505638</v>
       </c>
       <c r="O282" s="15">
         <v>1</v>
@@ -23982,11 +24074,11 @@
       </c>
       <c r="M283">
         <f t="shared" si="29"/>
-        <v>-0.98687919343628205</v>
+        <v>-0.98669824584007282</v>
       </c>
       <c r="N283" s="15">
         <f t="shared" si="33"/>
-        <v>-0.34011236871508455</v>
+        <v>-0.33993142111887531</v>
       </c>
       <c r="O283" s="15">
         <v>1</v>
@@ -24018,11 +24110,11 @@
       </c>
       <c r="M284">
         <f t="shared" si="29"/>
-        <v>-0.97498563432720342</v>
+        <v>-0.97480579816637858</v>
       </c>
       <c r="N284" s="15">
         <f t="shared" si="33"/>
-        <v>-0.33862428722268323</v>
+        <v>-0.33844445106185839</v>
       </c>
       <c r="O284" s="15">
         <v>1</v>
@@ -24054,11 +24146,11 @@
       </c>
       <c r="M285">
         <f t="shared" si="29"/>
-        <v>-0.96323429078119316</v>
+        <v>-0.96305556596423825</v>
       </c>
       <c r="N285" s="15">
         <f t="shared" si="33"/>
-        <v>-0.33711992921630152</v>
+        <v>-0.33694120439934661</v>
       </c>
       <c r="O285" s="15">
         <v>1</v>
@@ -24090,11 +24182,11 @@
       </c>
       <c r="M286">
         <f t="shared" si="29"/>
-        <v>-0.95162350201357404</v>
+        <v>-0.95144588828094201</v>
       </c>
       <c r="N286" s="15">
         <f t="shared" si="33"/>
-        <v>-0.33559983070792132</v>
+        <v>-0.33542221697528929</v>
       </c>
       <c r="O286" s="15">
         <v>1</v>
@@ -24126,11 +24218,11 @@
       </c>
       <c r="M287">
         <f t="shared" si="29"/>
-        <v>-0.9401516252155826</v>
+        <v>-0.93997512214391588</v>
       </c>
       <c r="N287" s="15">
         <f t="shared" si="33"/>
-        <v>-0.33406452083000571</v>
+        <v>-0.33388801775833898</v>
       </c>
       <c r="O287" s="15">
         <v>1</v>
@@ -24162,11 +24254,11 @@
       </c>
       <c r="M288">
         <f t="shared" si="29"/>
-        <v>-0.92881703541160976</v>
+        <v>-0.92864164241788572</v>
       </c>
       <c r="N288" s="15">
         <f t="shared" si="33"/>
-        <v>-0.33251452181577645</v>
+        <v>-0.33233912882205241</v>
       </c>
       <c r="O288" s="15">
         <v>1</v>
@@ -24198,11 +24290,11 @@
       </c>
       <c r="M289">
         <f t="shared" si="29"/>
-        <v>-0.9176181253156378</v>
+        <v>-0.91744384166123572</v>
       </c>
       <c r="N289" s="15">
         <f t="shared" si="33"/>
-        <v>-0.33095034898347375</v>
+        <v>-0.33077606532907167</v>
       </c>
       <c r="O289" s="15">
         <v>1</v>
@@ -24234,11 +24326,11 @@
       </c>
       <c r="M290">
         <f t="shared" si="29"/>
-        <v>-0.90655330518677568</v>
+        <v>-0.90638012998146578</v>
       </c>
       <c r="N290" s="15">
         <f t="shared" si="33"/>
-        <v>-0.3293725107244182</v>
+        <v>-0.32919933551910829</v>
       </c>
       <c r="O290" s="15">
         <v>1</v>
@@ -24270,11 +24362,11 @@
       </c>
       <c r="M291">
         <f t="shared" si="29"/>
-        <v>-0.89562100268414757</v>
+        <v>-0.89544893489001098</v>
       </c>
       <c r="N291" s="15">
         <f t="shared" si="33"/>
-        <v>-0.32778150849477572</v>
+        <v>-0.32760944070063913</v>
       </c>
       <c r="O291" s="15">
         <v>1</v>
@@ -24306,11 +24398,11 @@
       </c>
       <c r="M292">
         <f t="shared" si="29"/>
-        <v>-0.88481966272110013</v>
+        <v>-0.88464870115636829</v>
       </c>
       <c r="N292" s="15">
         <f t="shared" si="33"/>
-        <v>-0.32617783681088264</v>
+        <v>-0.3260068752461508</v>
       </c>
       <c r="O292" s="15">
         <v>1</v>
@@ -24342,11 +24434,11 @@
       </c>
       <c r="M293">
         <f t="shared" si="29"/>
-        <v>-0.87414774731897449</v>
+        <v>-0.87397789066180021</v>
       </c>
       <c r="N293" s="15">
         <f t="shared" si="33"/>
-        <v>-0.32456198324800301</v>
+        <v>-0.32439212659082872</v>
       </c>
       <c r="O293" s="15">
         <v>1</v>
@@ -24378,11 +24470,11 @@
       </c>
       <c r="M294">
         <f t="shared" si="29"/>
-        <v>-0.8636037354603664</v>
+        <v>-0.86343498225252302</v>
       </c>
       <c r="N294" s="15">
         <f t="shared" si="33"/>
-        <v>-0.32293442844238673</v>
+        <v>-0.32276567523454336</v>
       </c>
       <c r="O294" s="15">
         <v>1</v>
@@ -24414,11 +24506,11 @@
       </c>
       <c r="M295">
         <f t="shared" si="29"/>
-        <v>-0.85318612294209795</v>
+        <v>-0.85301847159260591</v>
       </c>
       <c r="N295" s="15">
         <f t="shared" si="33"/>
-        <v>-0.32129564609652639</v>
+        <v>-0.32112799474703435</v>
       </c>
       <c r="O295" s="15">
         <v>1</v>
@@ -24450,11 +24542,11 @@
       </c>
       <c r="M296">
         <f t="shared" si="29"/>
-        <v>-0.84289342222783281</v>
+        <v>-0.84272687101651889</v>
       </c>
       <c r="N296" s="15">
         <f t="shared" si="33"/>
-        <v>-0.31964610298746388</v>
+        <v>-0.31947955177614995</v>
       </c>
       <c r="O296" s="15">
         <v>1</v>
@@ -24486,11 +24578,11 @@
       </c>
       <c r="M297">
         <f t="shared" si="29"/>
-        <v>-0.83272416230059465</v>
+        <v>-0.83255870938158261</v>
       </c>
       <c r="N297" s="15">
         <f t="shared" si="33"/>
-        <v>-0.31798625897806077</v>
+        <v>-0.31782080605904872</v>
       </c>
       <c r="O297" s="15">
         <v>1</v>
@@ -24522,11 +24614,11 @@
       </c>
       <c r="M298">
         <f t="shared" si="29"/>
-        <v>-0.8226768885150807</v>
+        <v>-0.82251253192021367</v>
       </c>
       <c r="N298" s="15">
         <f t="shared" si="33"/>
-        <v>-0.31631656703109889</v>
+        <v>-0.31615221043623187</v>
       </c>
       <c r="O298" s="15">
         <v>1</v>
@@ -24558,11 +24650,11 @@
       </c>
       <c r="M299">
         <f t="shared" si="29"/>
-        <v>-0.81275016244998088</v>
+        <v>-0.81258690009217938</v>
       </c>
       <c r="N299" s="15">
         <f t="shared" si="33"/>
-        <v>-0.3146374732261103</v>
+        <v>-0.31447421086830879</v>
       </c>
       <c r="O299" s="15">
         <v>1</v>
@@ -24594,11 +24686,11 @@
       </c>
       <c r="M300">
         <f t="shared" si="29"/>
-        <v>-0.80294256176022438</v>
+        <v>-0.8027803914367776</v>
       </c>
       <c r="N300" s="15">
         <f t="shared" si="33"/>
-        <v>-0.31294941677881766</v>
+        <v>-0.31278724645537087</v>
       </c>
       <c r="O300" s="15">
         <v>1</v>
@@ -24630,11 +24722,11 @@
       </c>
       <c r="M301">
         <f t="shared" si="29"/>
-        <v>-0.79325268002939531</v>
+        <v>-0.79309159942518981</v>
       </c>
       <c r="N301" s="15">
         <f t="shared" si="33"/>
-        <v>-0.31125283006309823</v>
+        <v>-0.31109174945889273</v>
       </c>
       <c r="O301" s="15">
         <v>1</v>
@@ -24666,11 +24758,11 @@
       </c>
       <c r="M302">
         <f t="shared" si="29"/>
-        <v>-0.78367912662222405</v>
+        <v>-0.78351913331290868</v>
       </c>
       <c r="N302" s="15">
         <f t="shared" si="33"/>
-        <v>-0.30954813863534969</v>
+        <v>-0.30938814532603431</v>
       </c>
       <c r="O302" s="15">
         <v>1</v>
@@ -24702,11 +24794,11 @@
       </c>
       <c r="M303">
         <f t="shared" si="29"/>
-        <v>-0.77422052653726081</v>
+        <v>-0.77406161799234929</v>
       </c>
       <c r="N303" s="15">
         <f t="shared" si="33"/>
-        <v>-0.3078357612611729</v>
+        <v>-0.30767685271626138</v>
       </c>
       <c r="O303" s="15">
         <v>1</v>
@@ -24738,11 +24830,11 @@
       </c>
       <c r="M304">
         <f t="shared" si="29"/>
-        <v>-0.76487552025982675</v>
+        <v>-0.76471769384574095</v>
       </c>
       <c r="N304" s="15">
         <f t="shared" si="33"/>
-        <v>-0.30611610994426097</v>
+        <v>-0.30595828353017518</v>
       </c>
       <c r="O304" s="15">
         <v>1</v>
@@ -24774,11 +24866,11 @@
       </c>
       <c r="M305">
         <f t="shared" si="29"/>
-        <v>-0.75564276361521143</v>
+        <v>-0.75548601659826276</v>
       </c>
       <c r="N305" s="15">
         <f t="shared" si="33"/>
-        <v>-0.30438958995740539</v>
+        <v>-0.30423284294045672</v>
       </c>
       <c r="O305" s="15">
         <v>1</v>
@@ -24810,11 +24902,11 @@
       </c>
       <c r="M306">
         <f t="shared" si="29"/>
-        <v>-0.74652092762229549</v>
+        <v>-0.74636525717160895</v>
       </c>
       <c r="N306" s="15">
         <f t="shared" si="33"/>
-        <v>-0.302656599875546</v>
+        <v>-0.30250092942485945</v>
       </c>
       <c r="O306" s="15">
         <v>1</v>
@@ -24846,11 +24938,11 @@
       </c>
       <c r="M307">
         <f t="shared" si="29"/>
-        <v>-0.73750869834745547</v>
+        <v>-0.73735410153783376</v>
       </c>
       <c r="N307" s="15">
         <f t="shared" si="33"/>
-        <v>-0.30091753161072743</v>
+        <v>-0.30076293480110572</v>
       </c>
       <c r="O307" s="15">
         <v>1</v>
@@ -24882,11 +24974,11 @@
       </c>
       <c r="M308">
         <f t="shared" si="29"/>
-        <v>-0.72860477675898705</v>
+        <v>-0.72845125057372051</v>
       </c>
       <c r="N308" s="15">
         <f t="shared" si="33"/>
-        <v>-0.29917277044892793</v>
+        <v>-0.29901924426366139</v>
       </c>
       <c r="O308" s="15">
         <v>1</v>
@@ -24918,11 +25010,11 @@
       </c>
       <c r="M309">
         <f t="shared" si="29"/>
-        <v>-0.71980787858194639</v>
+        <v>-0.71965541991556436</v>
       </c>
       <c r="N309" s="15">
         <f t="shared" si="33"/>
-        <v>-0.29742269508863595</v>
+        <v>-0.29727023642225392</v>
       </c>
       <c r="O309" s="15">
         <v>1</v>
@@ -24954,11 +25046,11 @@
       </c>
       <c r="M310">
         <f t="shared" si="29"/>
-        <v>-0.71111673415357479</v>
+        <v>-0.71096533981454302</v>
       </c>
       <c r="N310" s="15">
         <f t="shared" si="33"/>
-        <v>-0.29566767768112379</v>
+        <v>-0.29551628334209201</v>
       </c>
       <c r="O310" s="15">
         <v>1</v>
@@ -24990,11 +25082,11 @@
       </c>
       <c r="M311">
         <f t="shared" si="29"/>
-        <v>-0.7025300882791895</v>
+        <v>-0.70237975499255334</v>
       </c>
       <c r="N311" s="15">
         <f t="shared" si="33"/>
-        <v>-0.29390808387229866</v>
+        <v>-0.2937577505856625</v>
       </c>
       <c r="O311" s="15">
         <v>1</v>
@@ -25026,11 +25118,11 @@
       </c>
       <c r="M312">
         <f t="shared" si="29"/>
-        <v>-0.69404670008873193</v>
+        <v>-0.69389742449870551</v>
       </c>
       <c r="N312" s="15">
         <f t="shared" si="33"/>
-        <v>-0.29214427284609396</v>
+        <v>-0.29199499725606753</v>
       </c>
       <c r="O312" s="15">
         <v>1</v>
@@ -25062,11 +25154,11 @@
       </c>
       <c r="M313">
         <f t="shared" si="29"/>
-        <v>-0.68566534289388681</v>
+        <v>-0.68551712156639166</v>
       </c>
       <c r="N313" s="15">
         <f t="shared" si="33"/>
-        <v>-0.29037659736929072</v>
+        <v>-0.29022837604179558</v>
       </c>
       <c r="O313" s="15">
         <v>1</v>
@@ -25098,11 +25190,11 @@
       </c>
       <c r="M314">
         <f t="shared" si="29"/>
-        <v>-0.67738480404592016</v>
+        <v>-0.67723763347106947</v>
       </c>
       <c r="N314" s="15">
         <f t="shared" si="33"/>
-        <v>-0.28860540383772743</v>
+        <v>-0.28845823326287673</v>
       </c>
       <c r="O314" s="15">
         <v>1</v>
@@ -25134,11 +25226,11 @@
       </c>
       <c r="M315">
         <f t="shared" si="29"/>
-        <v>-0.66920388479412019</v>
+        <v>-0.66905776138865525</v>
       </c>
       <c r="N315" s="15">
         <f t="shared" si="33"/>
-        <v>-0.28683103232378887</v>
+        <v>-0.28668490891832393</v>
       </c>
       <c r="O315" s="15">
         <v>1</v>
@@ -25170,11 +25262,11 @@
       </c>
       <c r="M316">
         <f t="shared" si="29"/>
-        <v>-0.6611214001450112</v>
+        <v>-0.660976320254687</v>
       </c>
       <c r="N316" s="15">
         <f t="shared" si="33"/>
-        <v>-0.28505381662513757</v>
+        <v>-0.28490873673481337</v>
       </c>
       <c r="O316" s="15">
         <v>1</v>
@@ -25206,11 +25298,11 @@
       </c>
       <c r="M317">
         <f t="shared" si="29"/>
-        <v>-0.65313617872226604</v>
+        <v>-0.65299213862418781</v>
       </c>
       <c r="N317" s="15">
         <f t="shared" si="33"/>
-        <v>-0.28327408431460044</v>
+        <v>-0.28313004421652221</v>
       </c>
       <c r="O317" s="15">
         <v>1</v>
@@ -25242,11 +25334,11 @@
       </c>
       <c r="M318">
         <f t="shared" si="29"/>
-        <v>-0.64524706262743248</v>
+        <v>-0.64510405853234443</v>
       </c>
       <c r="N318" s="15">
         <f t="shared" si="33"/>
-        <v>-0.28149215679115525</v>
+        <v>-0.2813491526960672</v>
       </c>
       <c r="O318" s="15">
         <v>1</v>
@@ -25278,11 +25370,11 @@
       </c>
       <c r="M319">
         <f t="shared" si="29"/>
-        <v>-0.63745290730138204</v>
+        <v>-0.6373109353559081</v>
       </c>
       <c r="N319" s="15">
         <f t="shared" si="33"/>
-        <v>-0.27970834933194116</v>
+        <v>-0.27956637738646722</v>
       </c>
       <c r="O319" s="15">
         <v>1</v>
@@ -25314,11 +25406,11 @@
       </c>
       <c r="M320">
         <f t="shared" si="29"/>
-        <v>-0.6297525813866206</v>
+        <v>-0.62961163767546191</v>
       </c>
       <c r="N320" s="15">
         <f t="shared" si="33"/>
-        <v>-0.2779229711452455</v>
+        <v>-0.27778202743408681</v>
       </c>
       <c r="O320" s="15">
         <v>1</v>
@@ -25350,11 +25442,11 @@
       </c>
       <c r="M321">
         <f t="shared" si="29"/>
-        <v>-0.62214496659038543</v>
+        <v>-0.62200504713846727</v>
       </c>
       <c r="N321" s="15">
         <f t="shared" si="33"/>
-        <v>-0.27613632542438887</v>
+        <v>-0.27599640597247072</v>
       </c>
       <c r="O321" s="15">
         <v>1</v>
@@ -25386,11 +25478,11 @@
       </c>
       <c r="M322">
         <f t="shared" si="29"/>
-        <v>-0.61462895754865787</v>
+        <v>-0.61449005832323644</v>
       </c>
       <c r="N322" s="15">
         <f t="shared" si="33"/>
-        <v>-0.27434870940248035</v>
+        <v>-0.27420981017705892</v>
       </c>
       <c r="O322" s="15">
         <v>1</v>
@@ -25422,11 +25514,11 @@
       </c>
       <c r="M323">
         <f t="shared" si="29"/>
-        <v>-0.60720346169096084</v>
+        <v>-0.6070655786036836</v>
       </c>
       <c r="N323" s="15">
         <f t="shared" si="33"/>
-        <v>-0.27256041440794254</v>
+        <v>-0.2724225313206653</v>
       </c>
       <c r="O323" s="15">
         <v>1</v>
@@ -25458,11 +25550,11 @@
       </c>
       <c r="M324">
         <f t="shared" si="29"/>
-        <v>-0.59986739910610454</v>
+        <v>-0.59973052801502791</v>
       </c>
       <c r="N324" s="15">
         <f t="shared" si="33"/>
-        <v>-0.27077172592079252</v>
+        <v>-0.27063485482971589</v>
       </c>
       <c r="O324" s="15">
         <v>1</v>
@@ -25494,11 +25586,11 @@
       </c>
       <c r="M325">
         <f t="shared" si="29"/>
-        <v>-0.5926197024087867</v>
+        <v>-0.59248383912035141</v>
       </c>
       <c r="N325" s="15">
         <f t="shared" si="33"/>
-        <v>-0.26898292362959486</v>
+        <v>-0.26884706034115957</v>
       </c>
       <c r="O325" s="15">
         <v>1</v>
@@ -25530,11 +25622,11 @@
       </c>
       <c r="M326">
         <f t="shared" si="29"/>
-        <v>-0.58545931660716999</v>
+        <v>-0.58532445687813484</v>
       </c>
       <c r="N326" s="15">
         <f t="shared" si="33"/>
-        <v>-0.26719428148906832</v>
+        <v>-0.26705942176003317</v>
       </c>
       <c r="O326" s="15">
         <v>1</v>
@@ -25566,11 +25658,11 @@
       </c>
       <c r="M327">
         <f t="shared" si="29"/>
-        <v>-0.57838519897131335</v>
+        <v>-0.57825133851064781</v>
       </c>
       <c r="N327" s="15">
         <f t="shared" si="33"/>
-        <v>-0.26540606777825504</v>
+        <v>-0.26527220731758949</v>
       </c>
       <c r="O327" s="15">
         <v>1</v>
@@ -25602,11 +25694,11 @@
       </c>
       <c r="M328">
         <f t="shared" si="29"/>
-        <v>-0.57139631890259235</v>
+        <v>-0.57126345337332962</v>
       </c>
       <c r="N328" s="15">
         <f t="shared" si="33"/>
-        <v>-0.26361854515923461</v>
+        <v>-0.26348567962997188</v>
       </c>
       <c r="O328" s="15">
         <v>1</v>
@@ -25638,11 +25730,11 @@
       </c>
       <c r="M329">
         <f t="shared" si="29"/>
-        <v>-0.5644916578040684</v>
+        <v>-0.56435978282511801</v>
       </c>
       <c r="N329" s="15">
         <f t="shared" si="33"/>
-        <v>-0.26183197073633602</v>
+        <v>-0.26170009575738562</v>
       </c>
       <c r="O329" s="15">
         <v>1</v>
@@ -25674,11 +25766,11 @@
       </c>
       <c r="M330">
         <f t="shared" si="29"/>
-        <v>-0.55767020895180175</v>
+        <v>-0.55753932009972296</v>
       </c>
       <c r="N330" s="15">
         <f t="shared" si="33"/>
-        <v>-0.26004659611577541</v>
+        <v>-0.25991570726369662</v>
       </c>
       <c r="O330" s="15">
         <v>1</v>
@@ -25710,11 +25802,11 @@
       </c>
       <c r="M331">
         <f t="shared" si="29"/>
-        <v>-0.55093097736715746</v>
+        <v>-0.5508010701778977</v>
       </c>
       <c r="N331" s="15">
         <f t="shared" si="33"/>
-        <v>-0.25826266746570858</v>
+        <v>-0.25813276027644882</v>
       </c>
       <c r="O331" s="15">
         <v>1</v>
@@ -25746,11 +25838,11 @@
       </c>
       <c r="M332">
         <f t="shared" si="29"/>
-        <v>-0.54427297969008082</v>
+        <v>-0.5441440496606722</v>
       </c>
       <c r="N332" s="15">
         <f t="shared" si="33"/>
-        <v>-0.25648042557663381</v>
+        <v>-0.25635149554722519</v>
       </c>
       <c r="O332" s="15">
         <v>1</v>
@@ -25782,11 +25874,11 @@
       </c>
       <c r="M333">
         <f t="shared" si="29"/>
-        <v>-0.53769524405336822</v>
+        <v>-0.53756728664359099</v>
       </c>
       <c r="N333" s="15">
         <f t="shared" si="33"/>
-        <v>-0.25470010592211306</v>
+        <v>-0.25457214851233584</v>
       </c>
       <c r="O333" s="15">
         <v>1</v>
@@ -25818,11 +25910,11 @@
       </c>
       <c r="M334">
         <f t="shared" si="29"/>
-        <v>-0.53119680995793706</v>
+        <v>-0.53106982059194507</v>
       </c>
       <c r="N334" s="15">
         <f t="shared" si="33"/>
-        <v>-0.25292193871977375</v>
+        <v>-0.25279494935378177</v>
       </c>
       <c r="O334" s="15">
         <v>1</v>
@@ -25854,11 +25946,11 @@
       </c>
       <c r="M335">
         <f t="shared" si="29"/>
-        <v>-0.52477672814909071</v>
+        <v>-0.52465070221700194</v>
       </c>
       <c r="N335" s="15">
         <f t="shared" si="33"/>
-        <v>-0.25114614899254206</v>
+        <v>-0.25102012306045329</v>
       </c>
       <c r="O335" s="15">
         <v>1</v>
@@ -25890,11 +25982,11 @@
       </c>
       <c r="M336">
         <f t="shared" si="29"/>
-        <v>-0.51843406049380247</v>
+        <v>-0.5183089933532562</v>
       </c>
       <c r="N336" s="15">
         <f t="shared" si="33"/>
-        <v>-0.24937295663008607</v>
+        <v>-0.2492478894895398</v>
       </c>
       <c r="O336" s="15">
         <v>1</v>
@@ -25926,11 +26018,11 @@
       </c>
       <c r="M337">
         <f t="shared" si="29"/>
-        <v>-0.5121678798590088</v>
+        <v>-0.51204376683668529</v>
       </c>
       <c r="N337" s="15">
         <f t="shared" si="33"/>
-        <v>-0.24760257645042288</v>
+        <v>-0.24747846342809937</v>
       </c>
       <c r="O337" s="15">
         <v>1</v>
@@ -25962,11 +26054,11 @@
       </c>
       <c r="M338">
         <f t="shared" si="29"/>
-        <v>-0.50597726999091985</v>
+        <v>-0.50585410638402983</v>
       </c>
       <c r="N338" s="15">
         <f t="shared" si="33"/>
-        <v>-0.24583521826165455</v>
+        <v>-0.24571205465476453</v>
       </c>
       <c r="O338" s="15">
         <v>1</v>
@@ -25997,12 +26089,12 @@
         <v>-0.56952993286005282</v>
       </c>
       <c r="M339">
-        <f t="shared" ref="M339:M402" si="36">$L$9*$O$7*EXP(-$O$8*(G339/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G339/$L$10-1))</f>
-        <v>-0.49986132539535644</v>
+        <f t="shared" ref="M339:M402" si="36">$L$9*$O$6*EXP(-$O$7*(G339/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G339/$L$10-1))</f>
+        <v>-0.49973910647309716</v>
       </c>
       <c r="N339" s="15">
         <f t="shared" si="33"/>
-        <v>-0.2440710869238098</v>
+        <v>-0.24394886800155052</v>
       </c>
       <c r="O339" s="15">
         <v>1</v>
@@ -26034,11 +26126,11 @@
       </c>
       <c r="M340">
         <f t="shared" si="36"/>
-        <v>-0.4938191512191103</v>
+        <v>-0.4936978722240869</v>
       </c>
       <c r="N340" s="15">
         <f t="shared" ref="N340:N403" si="40">(M340-H340)*O340</f>
-        <v>-0.24231038241074843</v>
+        <v>-0.24218910341572503</v>
       </c>
       <c r="O340" s="15">
         <v>1</v>
@@ -26070,11 +26162,11 @@
       </c>
       <c r="M341">
         <f t="shared" si="36"/>
-        <v>-0.48784986313232892</v>
+        <v>-0.48772951928194702</v>
       </c>
       <c r="N341" s="15">
         <f t="shared" si="40"/>
-        <v>-0.24055329987210192</v>
+        <v>-0.24043295602172002</v>
       </c>
       <c r="O341" s="15">
         <v>1</v>
@@ -26106,11 +26198,11 @@
       </c>
       <c r="M342">
         <f t="shared" si="36"/>
-        <v>-0.48195258721194034</v>
+        <v>-0.48183317369976603</v>
       </c>
       <c r="N342" s="15">
         <f t="shared" si="40"/>
-        <v>-0.23880002969522826</v>
+        <v>-0.23868061618305395</v>
       </c>
       <c r="O342" s="15">
         <v>1</v>
@@ -26142,11 +26234,11 @@
       </c>
       <c r="M343">
         <f t="shared" si="36"/>
-        <v>-0.47612645982609247</v>
+        <v>-0.47600797182318205</v>
       </c>
       <c r="N343" s="15">
         <f t="shared" si="40"/>
-        <v>-0.23705075756713187</v>
+        <v>-0.23693226956422145</v>
       </c>
       <c r="O343" s="15">
         <v>1</v>
@@ -26178,11 +26270,11 @@
       </c>
       <c r="M344">
         <f t="shared" si="36"/>
-        <v>-0.47037062751964376</v>
+        <v>-0.47025306017584367</v>
       </c>
       <c r="N344" s="15">
         <f t="shared" si="40"/>
-        <v>-0.23530566453635027</v>
+        <v>-0.23518809719255018</v>
       </c>
       <c r="O344" s="15">
         <v>1</v>
@@ -26214,11 +26306,11 @@
       </c>
       <c r="M345">
         <f t="shared" si="36"/>
-        <v>-0.46468424690067217</v>
+        <v>-0.46456759534588887</v>
       </c>
       <c r="N345" s="15">
         <f t="shared" si="40"/>
-        <v>-0.23356492707475526</v>
+        <v>-0.23344827551997197</v>
       </c>
       <c r="O345" s="15">
         <v>1</v>
@@ -26250,11 +26342,11 @@
       </c>
       <c r="M346">
         <f t="shared" si="36"/>
-        <v>-0.4590664845280199</v>
+        <v>-0.45895074387346224</v>
       </c>
       <c r="N346" s="15">
         <f t="shared" si="40"/>
-        <v>-0.2318287171392531</v>
+        <v>-0.23171297648469544</v>
       </c>
       <c r="O346" s="15">
         <v>1</v>
@@ -26286,11 +26378,11 @@
       </c>
       <c r="M347">
         <f t="shared" si="36"/>
-        <v>-0.45351651679987737</v>
+        <v>-0.45340168213926907</v>
       </c>
       <c r="N347" s="15">
         <f t="shared" si="40"/>
-        <v>-0.23009720223337005</v>
+        <v>-0.22998236757276175</v>
       </c>
       <c r="O347" s="15">
         <v>1</v>
@@ -26322,11 +26414,11 @@
       </c>
       <c r="M348">
         <f t="shared" si="36"/>
-        <v>-0.44803352984338962</v>
+        <v>-0.44791959625415528</v>
       </c>
       <c r="N348" s="15">
         <f t="shared" si="40"/>
-        <v>-0.2283705454686786</v>
+        <v>-0.22825661187944427</v>
       </c>
       <c r="O348" s="15">
         <v>1</v>
@@ -26358,11 +26450,11 @@
       </c>
       <c r="M349">
         <f t="shared" si="36"/>
-        <v>-0.4426167194052924</v>
+        <v>-0.44250368194971446</v>
       </c>
       <c r="N349" s="15">
         <f t="shared" si="40"/>
-        <v>-0.22664890562605511</v>
+        <v>-0.22653586817047716</v>
       </c>
       <c r="O349" s="15">
         <v>1</v>
@@ -26394,11 +26486,11 @@
       </c>
       <c r="M350">
         <f t="shared" si="36"/>
-        <v>-0.43726529074358689</v>
+        <v>-0.43715314446993853</v>
       </c>
       <c r="N350" s="15">
         <f t="shared" si="40"/>
-        <v>-0.22493243721675324</v>
+        <v>-0.22482029094310488</v>
       </c>
       <c r="O350" s="15">
         <v>1</v>
@@ -26430,11 +26522,11 @@
       </c>
       <c r="M351">
         <f t="shared" si="36"/>
-        <v>-0.4319784585202292</v>
+        <v>-0.43186719846387822</v>
       </c>
       <c r="N351" s="15">
         <f t="shared" si="40"/>
-        <v>-0.22322129054325632</v>
+        <v>-0.22311003048690534</v>
       </c>
       <c r="O351" s="15">
         <v>1</v>
@@ -26466,11 +26558,11 @@
       </c>
       <c r="M352">
         <f t="shared" si="36"/>
-        <v>-0.42675544669484777</v>
+        <v>-0.42664506787933643</v>
       </c>
       <c r="N352" s="15">
         <f t="shared" si="40"/>
-        <v>-0.2215156117598979</v>
+        <v>-0.22140523294438655</v>
       </c>
       <c r="O352" s="15">
         <v>1</v>
@@ -26502,11 +26594,11 @@
       </c>
       <c r="M353">
         <f t="shared" si="36"/>
-        <v>-0.4215954884194828</v>
+        <v>-0.42148598585758124</v>
       </c>
       <c r="N353" s="15">
         <f t="shared" si="40"/>
-        <v>-0.21981554293323546</v>
+        <v>-0.2197060403713339</v>
       </c>
       <c r="O353" s="15">
         <v>1</v>
@@ -26538,11 +26630,11 @@
       </c>
       <c r="M354">
         <f t="shared" si="36"/>
-        <v>-0.41649782593434531</v>
+        <v>-0.4163891946290818</v>
       </c>
       <c r="N354" s="15">
         <f t="shared" si="40"/>
-        <v>-0.21812122210215293</v>
+        <v>-0.21801259079688942</v>
       </c>
       <c r="O354" s="15">
         <v>1</v>
@@ -26574,11 +26666,11 @@
       </c>
       <c r="M355">
         <f t="shared" si="36"/>
-        <v>-0.41146171046458474</v>
+        <v>-0.41135394541024939</v>
       </c>
       <c r="N355" s="15">
         <f t="shared" si="40"/>
-        <v>-0.2164327833376733</v>
+        <v>-0.21632501828333794</v>
       </c>
       <c r="O355" s="15">
         <v>1</v>
@@ -26610,11 +26702,11 @@
       </c>
       <c r="M356">
         <f t="shared" si="36"/>
-        <v>-0.40648640211807419</v>
+        <v>-0.40637949830120046</v>
       </c>
       <c r="N356" s="15">
         <f t="shared" si="40"/>
-        <v>-0.21475035680247184</v>
+        <v>-0.21464345298559812</v>
       </c>
       <c r="O356" s="15">
         <v>1</v>
@@ -26646,11 +26738,11 @@
       </c>
       <c r="M357">
         <f t="shared" si="36"/>
-        <v>-0.40157116978420171</v>
+        <v>-0.40146512218452396</v>
       </c>
       <c r="N357" s="15">
         <f t="shared" si="40"/>
-        <v>-0.21307406881007163</v>
+        <v>-0.21296802121039388</v>
       </c>
       <c r="O357" s="15">
         <v>1</v>
@@ -26682,11 +26774,11 @@
       </c>
       <c r="M358">
         <f t="shared" si="36"/>
-        <v>-0.3967152910336606</v>
+        <v>-0.39661009462504837</v>
       </c>
       <c r="N358" s="15">
         <f t="shared" si="40"/>
-        <v>-0.21140404188369913</v>
+        <v>-0.2112988454750869</v>
       </c>
       <c r="O358" s="15">
         <v>1</v>
@@ -26718,11 +26810,11 @@
       </c>
       <c r="M359">
         <f t="shared" si="36"/>
-        <v>-0.39191805201924373</v>
+        <v>-0.39181370177061386</v>
       </c>
       <c r="N359" s="15">
         <f t="shared" si="40"/>
-        <v>-0.20974039481479723</v>
+        <v>-0.20963604456616736</v>
       </c>
       <c r="O359" s="15">
         <v>1</v>
@@ -26754,11 +26846,11 @@
       </c>
       <c r="M360">
         <f t="shared" si="36"/>
-        <v>-0.38717874737763075</v>
+        <v>-0.38707523825383738</v>
       </c>
       <c r="N360" s="15">
         <f t="shared" si="40"/>
-        <v>-0.2080832427211762</v>
+        <v>-0.20797973359738284</v>
       </c>
       <c r="O360" s="15">
         <v>1</v>
@@ -26790,11 +26882,11 @@
       </c>
       <c r="M361">
         <f t="shared" si="36"/>
-        <v>-0.38249668013216526</v>
+        <v>-0.38239400709486754</v>
       </c>
       <c r="N361" s="15">
         <f t="shared" si="40"/>
-        <v>-0.20643269710478832</v>
+        <v>-0.2063300240674906</v>
       </c>
       <c r="O361" s="15">
         <v>1</v>
@@ -26826,11 +26918,11 @@
       </c>
       <c r="M362">
         <f t="shared" si="36"/>
-        <v>-0.37787116159661055</v>
+        <v>-0.37776931960512006</v>
       </c>
       <c r="N362" s="15">
         <f t="shared" si="40"/>
-        <v>-0.20478886590911205</v>
+        <v>-0.20468702391762156</v>
       </c>
       <c r="O362" s="15">
         <v>1</v>
@@ -26862,11 +26954,11 @@
       </c>
       <c r="M363">
         <f t="shared" si="36"/>
-        <v>-0.37330151127989764</v>
+        <v>-0.37320049529200433</v>
       </c>
       <c r="N363" s="15">
         <f t="shared" si="40"/>
-        <v>-0.20315185357614796</v>
+        <v>-0.20305083758825465</v>
       </c>
       <c r="O363" s="15">
         <v>1</v>
@@ -26898,11 +26990,11 @@
       </c>
       <c r="M364">
         <f t="shared" si="36"/>
-        <v>-0.36878705679183665</v>
+        <v>-0.36868686176461379</v>
       </c>
       <c r="N364" s="15">
         <f t="shared" si="40"/>
-        <v>-0.20152176110299713</v>
+        <v>-0.20142156607577427</v>
       </c>
       <c r="O364" s="15">
         <v>1</v>
@@ -26934,11 +27026,11 @@
       </c>
       <c r="M365">
         <f t="shared" si="36"/>
-        <v>-0.36432713374979903</v>
+        <v>-0.36422775464038909</v>
       </c>
       <c r="N365" s="15">
         <f t="shared" si="40"/>
-        <v>-0.19989868609801906</v>
+        <v>-0.19979930698860912</v>
       </c>
       <c r="O365" s="15">
         <v>1</v>
@@ -26970,11 +27062,11 @@
       </c>
       <c r="M366">
         <f t="shared" si="36"/>
-        <v>-0.35992108568636516</v>
+        <v>-0.35982251745274602</v>
       </c>
       <c r="N366" s="15">
         <f t="shared" si="40"/>
-        <v>-0.19828272283656492</v>
+        <v>-0.19818415460294578</v>
       </c>
       <c r="O366" s="15">
         <v>1</v>
@@ -27006,11 +27098,11 @@
       </c>
       <c r="M367">
         <f t="shared" si="36"/>
-        <v>-0.35556826395793079</v>
+        <v>-0.3554705015596612</v>
       </c>
       <c r="N367" s="15">
         <f t="shared" si="40"/>
-        <v>-0.19667396231627124</v>
+        <v>-0.19657619991800165</v>
       </c>
       <c r="O367" s="15">
         <v>1</v>
@@ -27042,11 +27134,11 @@
       </c>
       <c r="M368">
         <f t="shared" si="36"/>
-        <v>-0.35126802765425746</v>
+        <v>-0.35117106605320542</v>
       </c>
       <c r="N368" s="15">
         <f t="shared" si="40"/>
-        <v>-0.19507249231190071</v>
+        <v>-0.19497553071084867</v>
       </c>
       <c r="O368" s="15">
         <v>1</v>
@@ -27078,11 +27170,11 @@
       </c>
       <c r="M369">
         <f t="shared" si="36"/>
-        <v>-0.3470197435089778</v>
+        <v>-0.34692357767002874</v>
       </c>
       <c r="N369" s="15">
         <f t="shared" si="40"/>
-        <v>-0.19347839742973483</v>
+        <v>-0.19338223159078577</v>
       </c>
       <c r="O369" s="15">
         <v>1</v>
@@ -27114,11 +27206,11 @@
       </c>
       <c r="M370">
         <f t="shared" si="36"/>
-        <v>-0.34282278581103059</v>
+        <v>-0.34272741070277885</v>
       </c>
       <c r="N370" s="15">
         <f t="shared" si="40"/>
-        <v>-0.1918917591614959</v>
+        <v>-0.19179638405324415</v>
       </c>
       <c r="O370" s="15">
         <v>1</v>
@@ -27150,11 +27242,11 @@
       </c>
       <c r="M371">
         <f t="shared" si="36"/>
-        <v>-0.33867653631703737</v>
+        <v>-0.33858194691245835</v>
       </c>
       <c r="N371" s="15">
         <f t="shared" si="40"/>
-        <v>-0.19031265593780494</v>
+        <v>-0.19021806653322593</v>
       </c>
       <c r="O371" s="15">
         <v>1</v>
@@ -27186,11 +27278,11 @@
       </c>
       <c r="M372">
         <f t="shared" si="36"/>
-        <v>-0.33458038416459773</v>
+        <v>-0.3344865754417039</v>
       </c>
       <c r="N372" s="15">
         <f t="shared" si="40"/>
-        <v>-0.18874116318115713</v>
+        <v>-0.18864735445826331</v>
       </c>
       <c r="O372" s="15">
         <v>1</v>
@@ -27222,11 +27314,11 @@
       </c>
       <c r="M373">
         <f t="shared" si="36"/>
-        <v>-0.33053372578650969</v>
+        <v>-0.33044069272898818</v>
       </c>
       <c r="N373" s="15">
         <f t="shared" si="40"/>
-        <v>-0.18717735335841626</v>
+        <v>-0.18708432030089475</v>
       </c>
       <c r="O373" s="15">
         <v>1</v>
@@ -27258,11 +27350,11 @@
       </c>
       <c r="M374">
         <f t="shared" si="36"/>
-        <v>-0.32653596482590269</v>
+        <v>-0.32644370242373716</v>
       </c>
       <c r="N374" s="15">
         <f t="shared" si="40"/>
-        <v>-0.18562129603282188</v>
+        <v>-0.18552903363065634</v>
       </c>
       <c r="O374" s="15">
         <v>1</v>
@@ -27294,11 +27386,11 @@
       </c>
       <c r="M375">
         <f t="shared" si="36"/>
-        <v>-0.32258651205227434</v>
+        <v>-0.32249501530234953</v>
       </c>
       <c r="N375" s="15">
         <f t="shared" si="40"/>
-        <v>-0.18407305791549641</v>
+        <v>-0.1839815611655716</v>
       </c>
       <c r="O375" s="15">
         <v>1</v>
@@ -27330,11 +27422,11 @@
       </c>
       <c r="M376">
         <f t="shared" si="36"/>
-        <v>-0.31868478527842992</v>
+        <v>-0.31859404918512013</v>
       </c>
       <c r="N376" s="15">
         <f t="shared" si="40"/>
-        <v>-0.18253270291645782</v>
+        <v>-0.18244196682314803</v>
       </c>
       <c r="O376" s="15">
         <v>1</v>
@@ -27366,11 +27458,11 @@
       </c>
       <c r="M377">
         <f t="shared" si="36"/>
-        <v>-0.31483020927831573</v>
+        <v>-0.31474022885405822</v>
       </c>
       <c r="N377" s="15">
         <f t="shared" si="40"/>
-        <v>-0.18100029219512731</v>
+        <v>-0.1809103117708698</v>
       </c>
       <c r="O377" s="15">
         <v>1</v>
@@ -27402,11 +27494,11 @@
       </c>
       <c r="M378">
         <f t="shared" si="36"/>
-        <v>-0.31102221570573618</v>
+        <v>-0.31093298597158792</v>
       </c>
       <c r="N378" s="15">
         <f t="shared" si="40"/>
-        <v>-0.17947588421032765</v>
+        <v>-0.17938665447617938</v>
       </c>
       <c r="O378" s="15">
         <v>1</v>
@@ -27438,11 +27530,11 @@
       </c>
       <c r="M379">
         <f t="shared" si="36"/>
-        <v>-0.30726024301395077</v>
+        <v>-0.30717175900013083</v>
       </c>
       <c r="N379" s="15">
         <f t="shared" si="40"/>
-        <v>-0.17795953476976903</v>
+        <v>-0.17787105075594908</v>
       </c>
       <c r="O379" s="15">
         <v>1</v>
@@ -27474,11 +27566,11 @@
       </c>
       <c r="M380">
         <f t="shared" si="36"/>
-        <v>-0.30354373637614501</v>
+        <v>-0.30345599312256094</v>
       </c>
       <c r="N380" s="15">
         <f t="shared" si="40"/>
-        <v>-0.17645129707902268</v>
+        <v>-0.17636355382543861</v>
       </c>
       <c r="O380" s="15">
         <v>1</v>
@@ -27510,11 +27602,11 @@
       </c>
       <c r="M381">
         <f t="shared" si="36"/>
-        <v>-0.29987214760676711</v>
+        <v>-0.29978514016352881</v>
       </c>
       <c r="N381" s="15">
         <f t="shared" si="40"/>
-        <v>-0.1749512217899753</v>
+        <v>-0.17486421434673699</v>
       </c>
       <c r="O381" s="15">
         <v>1</v>
@@ -27546,11 +27638,11 @@
       </c>
       <c r="M382">
         <f t="shared" si="36"/>
-        <v>-0.29624493508371996</v>
+        <v>-0.29615865851163609</v>
       </c>
       <c r="N382" s="15">
         <f t="shared" si="40"/>
-        <v>-0.17345935704876095</v>
+        <v>-0.17337308047667707</v>
       </c>
       <c r="O382" s="15">
         <v>1</v>
@@ -27582,11 +27674,11 @@
       </c>
       <c r="M383">
         <f t="shared" si="36"/>
-        <v>-0.29266156367140689</v>
+        <v>-0.29257601304247</v>
       </c>
       <c r="N383" s="15">
         <f t="shared" si="40"/>
-        <v>-0.17197574854317155</v>
+        <v>-0.17189019791423465</v>
       </c>
       <c r="O383" s="15">
         <v>1</v>
@@ -27618,11 +27710,11 @@
       </c>
       <c r="M384">
         <f t="shared" si="36"/>
-        <v>-0.2891215046446225</v>
+        <v>-0.28903667504247899</v>
       </c>
       <c r="N384" s="15">
         <f t="shared" si="40"/>
-        <v>-0.17050043954954325</v>
+        <v>-0.17041560994739974</v>
       </c>
       <c r="O384" s="15">
         <v>1</v>
@@ -27654,11 +27746,11 @@
       </c>
       <c r="M385">
         <f t="shared" si="36"/>
-        <v>-0.28562423561327699</v>
+        <v>-0.28554012213368363</v>
       </c>
       <c r="N385" s="15">
         <f t="shared" si="40"/>
-        <v>-0.16903347097911342</v>
+        <v>-0.16894935749952006</v>
       </c>
       <c r="O385" s="15">
         <v>1</v>
@@ -27690,11 +27782,11 @@
       </c>
       <c r="M386">
         <f t="shared" si="36"/>
-        <v>-0.28216924044795305</v>
+        <v>-0.28208583819922095</v>
       </c>
       <c r="N386" s="15">
         <f t="shared" si="40"/>
-        <v>-0.16757488142385077</v>
+        <v>-0.16749147917511867</v>
       </c>
       <c r="O386" s="15">
         <v>1</v>
@@ -27726,11 +27818,11 @@
       </c>
       <c r="M387">
         <f t="shared" si="36"/>
-        <v>-0.27875600920628607</v>
+        <v>-0.27867331330971068</v>
       </c>
       <c r="N387" s="15">
         <f t="shared" si="40"/>
-        <v>-0.16612470720175859</v>
+        <v>-0.1660420113051832</v>
       </c>
       <c r="O387" s="15">
         <v>1</v>
@@ -27762,11 +27854,11 @@
       </c>
       <c r="M388">
         <f t="shared" si="36"/>
-        <v>-0.27538403806015765</v>
+        <v>-0.27530204365043698</v>
       </c>
       <c r="N388" s="15">
         <f t="shared" si="40"/>
-        <v>-0.16468298240164408</v>
+        <v>-0.16460098799192341</v>
       </c>
       <c r="O388" s="15">
         <v>1</v>
@@ -27798,11 +27890,11 @@
       </c>
       <c r="M389">
         <f t="shared" si="36"/>
-        <v>-0.27205282922369622</v>
+        <v>-0.27197153144933589</v>
       </c>
       <c r="N389" s="15">
         <f t="shared" si="40"/>
-        <v>-0.1632497389273577</v>
+        <v>-0.16316844115299736</v>
       </c>
       <c r="O389" s="15">
         <v>1</v>
@@ -27834,11 +27926,11 @@
       </c>
       <c r="M390">
         <f t="shared" si="36"/>
-        <v>-0.26876189088208463</v>
+        <v>-0.26868128490579141</v>
       </c>
       <c r="N390" s="15">
         <f t="shared" si="40"/>
-        <v>-0.16182500654150561</v>
+        <v>-0.16174440056521239</v>
       </c>
       <c r="O390" s="15">
         <v>1</v>
@@ -27870,11 +27962,11 @@
       </c>
       <c r="M391">
         <f t="shared" si="36"/>
-        <v>-0.26551073712115553</v>
+        <v>-0.26543081812021807</v>
       </c>
       <c r="N391" s="15">
         <f t="shared" si="40"/>
-        <v>-0.16040881290862735</v>
+        <v>-0.1603288939076899</v>
       </c>
       <c r="O391" s="15">
         <v>1</v>
@@ -27906,11 +27998,11 @@
       </c>
       <c r="M392">
         <f t="shared" si="36"/>
-        <v>-0.26229888785777494</v>
+        <v>-0.26221965102443368</v>
       </c>
       <c r="N392" s="15">
         <f t="shared" si="40"/>
-        <v>-0.15900118363784208</v>
+        <v>-0.15892194680450081</v>
       </c>
       <c r="O392" s="15">
         <v>1</v>
@@ -27942,11 +28034,11 @@
       </c>
       <c r="M393">
         <f t="shared" si="36"/>
-        <v>-0.25912586877100668</v>
+        <v>-0.25904730931281167</v>
       </c>
       <c r="N393" s="15">
         <f t="shared" si="40"/>
-        <v>-0.15760214232496808</v>
+        <v>-0.15752358286677307</v>
       </c>
       <c r="O393" s="15">
         <v>1</v>
@@ -27978,11 +28070,11 @@
       </c>
       <c r="M394">
         <f t="shared" si="36"/>
-        <v>-0.25599121123404928</v>
+        <v>-0.25591332437420677</v>
       </c>
       <c r="N394" s="15">
         <f t="shared" si="40"/>
-        <v>-0.15621171059411107</v>
+        <v>-0.15613382373426857</v>
       </c>
       <c r="O394" s="15">
         <v>1</v>
@@ -28014,11 +28106,11 @@
       </c>
       <c r="M395">
         <f t="shared" si="36"/>
-        <v>-0.25289445224693397</v>
+        <v>-0.25281723322464261</v>
       </c>
       <c r="N395" s="15">
         <f t="shared" si="40"/>
-        <v>-0.15482990813872144</v>
+        <v>-0.15475268911643009</v>
       </c>
       <c r="O395" s="15">
         <v>1</v>
@@ -28050,11 +28142,11 @@
       </c>
       <c r="M396">
         <f t="shared" si="36"/>
-        <v>-0.24983513436998511</v>
+        <v>-0.24975857844076074</v>
       </c>
       <c r="N396" s="15">
         <f t="shared" si="40"/>
-        <v>-0.1534567527621267</v>
+        <v>-0.15338019683290233</v>
       </c>
       <c r="O396" s="15">
         <v>1</v>
@@ -28086,11 +28178,11 @@
       </c>
       <c r="M397">
         <f t="shared" si="36"/>
-        <v>-0.24681280565802982</v>
+        <v>-0.24673690809401949</v>
       </c>
       <c r="N397" s="15">
         <f t="shared" si="40"/>
-        <v>-0.15209226041753771</v>
+        <v>-0.15201636285352738</v>
       </c>
       <c r="O397" s="15">
         <v>1</v>
@@ -28122,11 +28214,11 @@
       </c>
       <c r="M398">
         <f t="shared" si="36"/>
-        <v>-0.24382701959534978</v>
+        <v>-0.24375177568563655</v>
       </c>
       <c r="N398" s="15">
         <f t="shared" si="40"/>
-        <v>-0.1507364452475268</v>
+        <v>-0.15066120133781358</v>
       </c>
       <c r="O398" s="15">
         <v>1</v>
@@ -28158,11 +28250,11 @@
       </c>
       <c r="M399">
         <f t="shared" si="36"/>
-        <v>-0.24087733503136827</v>
+        <v>-0.24080274008226452</v>
       </c>
       <c r="N399" s="15">
         <f t="shared" si="40"/>
-        <v>-0.14938931962298313</v>
+        <v>-0.14931472467387941</v>
       </c>
       <c r="O399" s="15">
         <v>1</v>
@@ -28194,11 +28286,11 @@
       </c>
       <c r="M400">
         <f t="shared" si="36"/>
-        <v>-0.23796331611707228</v>
+        <v>-0.23788936545240408</v>
       </c>
       <c r="N400" s="15">
         <f t="shared" si="40"/>
-        <v>-0.14805089418155049</v>
+        <v>-0.14797694351688229</v>
       </c>
       <c r="O400" s="15">
         <v>1</v>
@@ -28230,11 +28322,11 @@
       </c>
       <c r="M401">
         <f t="shared" si="36"/>
-        <v>-0.23508453224215048</v>
+        <v>-0.23501122120353177</v>
       </c>
       <c r="N401" s="15">
         <f t="shared" si="40"/>
-        <v>-0.1467211778655407</v>
+        <v>-0.14664786682692199</v>
       </c>
       <c r="O401" s="15">
         <v>1</v>
@@ -28266,11 +28358,11 @@
       </c>
       <c r="M402">
         <f t="shared" si="36"/>
-        <v>-0.23224055797284854</v>
+        <v>-0.23216788191994589</v>
       </c>
       <c r="N402" s="15">
         <f t="shared" si="40"/>
-        <v>-0.14540017795933033</v>
+        <v>-0.14532750190642768</v>
       </c>
       <c r="O402" s="15">
         <v>1</v>
@@ -28301,12 +28393,12 @@
         <v>-0.30507924591182578</v>
       </c>
       <c r="M403">
-        <f t="shared" ref="M403:M469" si="43">$L$9*$O$7*EXP(-$O$8*(G403/$L$10-1))-SQRT($L$9)*$O$4*EXP(-$O$5*(G403/$L$10-1))</f>
-        <v>-0.22943097299053219</v>
+        <f t="shared" ref="M403:M469" si="43">$L$9*$O$6*EXP(-$O$7*(G403/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G403/$L$10-1))</f>
+        <v>-0.2293589273013204</v>
       </c>
       <c r="N403" s="15">
         <f t="shared" si="40"/>
-        <v>-0.14408790012624312</v>
+        <v>-0.14401585443703135</v>
       </c>
       <c r="O403" s="15">
         <v>1</v>
@@ -28338,11 +28430,11 @@
       </c>
       <c r="M404">
         <f t="shared" si="43"/>
-        <v>-0.22665536203095346</v>
+        <v>-0.22658394210196173</v>
       </c>
       <c r="N404" s="15">
         <f t="shared" ref="N404:N467" si="47">(M404-H404)*O404</f>
-        <v>-0.14278434844492038</v>
+        <v>-0.14271292851592865</v>
       </c>
       <c r="O404" s="15">
         <v>1</v>
@@ -28374,11 +28466,11 @@
       </c>
       <c r="M405">
         <f t="shared" si="43"/>
-        <v>-0.22391331482420695</v>
+        <v>-0.22384251607075645</v>
       </c>
       <c r="N405" s="15">
         <f t="shared" si="47"/>
-        <v>-0.14148952544517823</v>
+        <v>-0.14141872669172773</v>
       </c>
       <c r="O405" s="15">
         <v>1</v>
@@ -28410,11 +28502,11 @@
       </c>
       <c r="M406">
         <f t="shared" si="43"/>
-        <v>-0.22120442603537549</v>
+        <v>-0.22113424389180802</v>
       </c>
       <c r="N406" s="15">
         <f t="shared" si="47"/>
-        <v>-0.14020343214335826</v>
+        <v>-0.14013324999979079</v>
       </c>
       <c r="O406" s="15">
         <v>1</v>
@@ -28446,11 +28538,11 @@
       </c>
       <c r="M407">
         <f t="shared" si="43"/>
-        <v>-0.21852829520585729</v>
+        <v>-0.21845872512575515</v>
       </c>
       <c r="N407" s="15">
         <f t="shared" si="47"/>
-        <v>-0.13892606807717575</v>
+        <v>-0.13885649799707361</v>
       </c>
       <c r="O407" s="15">
         <v>1</v>
@@ -28482,11 +28574,11 @@
       </c>
       <c r="M408">
         <f t="shared" si="43"/>
-        <v>-0.21588452669536271</v>
+        <v>-0.2158155641517609</v>
       </c>
       <c r="N408" s="15">
         <f t="shared" si="47"/>
-        <v>-0.13765743134006145</v>
+        <v>-0.13758846879645964</v>
       </c>
       <c r="O408" s="15">
         <v>1</v>
@@ -28518,11 +28610,11 @@
       </c>
       <c r="M409">
         <f t="shared" si="43"/>
-        <v>-0.21327272962457972</v>
+        <v>-0.21320437011016913</v>
       </c>
       <c r="N409" s="15">
         <f t="shared" si="47"/>
-        <v>-0.13639751861500679</v>
+        <v>-0.1363291591005962</v>
       </c>
       <c r="O409" s="15">
         <v>1</v>
@@ -28554,11 +28646,11 @@
       </c>
       <c r="M410">
         <f t="shared" si="43"/>
-        <v>-0.21069251781849974</v>
+        <v>-0.21062475684582305</v>
       </c>
       <c r="N410" s="15">
         <f t="shared" si="47"/>
-        <v>-0.1351463252079145</v>
+        <v>-0.13507856423523781</v>
       </c>
       <c r="O410" s="15">
         <v>1</v>
@@ -28590,11 +28682,11 @@
       </c>
       <c r="M411">
         <f t="shared" si="43"/>
-        <v>-0.20814350975039547</v>
+        <v>-0.20807634285203397</v>
       </c>
       <c r="N411" s="15">
         <f t="shared" si="47"/>
-        <v>-0.13390384508045497</v>
+        <v>-0.13383667818209347</v>
       </c>
       <c r="O411" s="15">
         <v>1</v>
@@ -28626,11 +28718,11 @@
       </c>
       <c r="M412">
         <f t="shared" si="43"/>
-        <v>-0.2056253284864405</v>
+        <v>-0.20555875121519521</v>
       </c>
       <c r="N412" s="15">
         <f t="shared" si="47"/>
-        <v>-0.13267007088242999</v>
+        <v>-0.1326034936111847</v>
       </c>
       <c r="O412" s="15">
         <v>1</v>
@@ -28662,11 +28754,11 @@
       </c>
       <c r="M413">
         <f t="shared" si="43"/>
-        <v>-0.20313760163097758</v>
+        <v>-0.20307160956004117</v>
       </c>
       <c r="N413" s="15">
         <f t="shared" si="47"/>
-        <v>-0.13144499398365886</v>
+        <v>-0.13137900191272245</v>
       </c>
       <c r="O413" s="15">
         <v>1</v>
@@ -28698,11 +28790,11 @@
       </c>
       <c r="M414">
         <f t="shared" si="43"/>
-        <v>-0.20067996127241194</v>
+        <v>-0.20061454999553335</v>
       </c>
       <c r="N414" s="15">
         <f t="shared" si="47"/>
-        <v>-0.13022860450537543</v>
+        <v>-0.13016319322849684</v>
       </c>
       <c r="O414" s="15">
         <v>1</v>
@@ -28734,11 +28826,11 @@
       </c>
       <c r="M415">
         <f t="shared" si="43"/>
-        <v>-0.19825204392973186</v>
+        <v>-0.19818720906137519</v>
       </c>
       <c r="N415" s="15">
         <f t="shared" si="47"/>
-        <v>-0.12902089135114653</v>
+        <v>-0.12895605648278985</v>
       </c>
       <c r="O415" s="15">
         <v>1</v>
@@ -28770,11 +28862,11 @@
       </c>
       <c r="M416">
         <f t="shared" si="43"/>
-        <v>-0.19585349049965109</v>
+        <v>-0.19578922767514612</v>
       </c>
       <c r="N416" s="15">
         <f t="shared" si="47"/>
-        <v>-0.1278218422373186</v>
+        <v>-0.12775757941281363</v>
       </c>
       <c r="O416" s="15">
         <v>1</v>
@@ -28806,11 +28898,11 @@
       </c>
       <c r="M417">
         <f t="shared" si="43"/>
-        <v>-0.19348394620436493</v>
+        <v>-0.19342025108005048</v>
       </c>
       <c r="N417" s="15">
         <f t="shared" si="47"/>
-        <v>-0.12663144372299254</v>
+        <v>-0.12656774859867809</v>
       </c>
       <c r="O417" s="15">
         <v>1</v>
@@ -28842,11 +28934,11 @@
       </c>
       <c r="M418">
         <f t="shared" si="43"/>
-        <v>-0.19114306053990746</v>
+        <v>-0.19107992879326924</v>
       </c>
       <c r="N418" s="15">
         <f t="shared" si="47"/>
-        <v>-0.12544968123952649</v>
+        <v>-0.12538654949288824</v>
       </c>
       <c r="O418" s="15">
         <v>1</v>
@@ -28878,11 +28970,11 @@
       </c>
       <c r="M419">
         <f t="shared" si="43"/>
-        <v>-0.18883048722511586</v>
+        <v>-0.18876791455491751</v>
       </c>
       <c r="N419" s="15">
         <f t="shared" si="47"/>
-        <v>-0.12427653911958109</v>
+        <v>-0.12421396644938273</v>
       </c>
       <c r="O419" s="15">
         <v>1</v>
@@ -28914,11 +29006,11 @@
       </c>
       <c r="M420">
         <f t="shared" si="43"/>
-        <v>-0.18654588415118301</v>
+        <v>-0.18648386627758923</v>
       </c>
       <c r="N420" s="15">
         <f t="shared" si="47"/>
-        <v>-0.12311200062570034</v>
+        <v>-0.12304998275210656</v>
       </c>
       <c r="O420" s="15">
         <v>1</v>
@@ -28950,11 +29042,11 @@
       </c>
       <c r="M421">
         <f t="shared" si="43"/>
-        <v>-0.18428891333180092</v>
+        <v>-0.18422744599649621</v>
       </c>
       <c r="N421" s="15">
         <f t="shared" si="47"/>
-        <v>-0.12195604797843908</v>
+        <v>-0.12189458064313437</v>
       </c>
       <c r="O421" s="15">
         <v>1</v>
@@ -28986,11 +29078,11 @@
       </c>
       <c r="M422">
         <f t="shared" si="43"/>
-        <v>-0.18205924085388245</v>
+        <v>-0.18199831982018255</v>
       </c>
       <c r="N422" s="15">
         <f t="shared" si="47"/>
-        <v>-0.12080866238403701</v>
+        <v>-0.12074774135033711</v>
       </c>
       <c r="O422" s="15">
         <v>1</v>
@@ -29022,11 +29114,11 @@
       </c>
       <c r="M423">
         <f t="shared" si="43"/>
-        <v>-0.17985653682886049</v>
+        <v>-0.17979615788181813</v>
       </c>
       <c r="N423" s="15">
         <f t="shared" si="47"/>
-        <v>-0.11966982406164664</v>
+        <v>-0.11960944511460428</v>
       </c>
       <c r="O423" s="15">
         <v>1</v>
@@ -29058,11 +29150,11 @@
       </c>
       <c r="M424">
         <f t="shared" si="43"/>
-        <v>-0.17768047534455469</v>
+        <v>-0.17762063429105937</v>
       </c>
       <c r="N424" s="15">
         <f t="shared" si="47"/>
-        <v>-0.11853951227011733</v>
+        <v>-0.11847967121662201</v>
       </c>
       <c r="O424" s="15">
         <v>1</v>
@@ -29094,11 +29186,11 @@
       </c>
       <c r="M425">
         <f t="shared" si="43"/>
-        <v>-0.17553073441759912</v>
+        <v>-0.17547142708647123</v>
       </c>
       <c r="N425" s="15">
         <f t="shared" si="47"/>
-        <v>-0.11741770533433785</v>
+        <v>-0.11735839800320996</v>
       </c>
       <c r="O425" s="15">
         <v>1</v>
@@ -29130,11 +29222,11 @@
       </c>
       <c r="M426">
         <f t="shared" si="43"/>
-        <v>-0.17340699594642905</v>
+        <v>-0.17334821818850829</v>
       </c>
       <c r="N426" s="15">
         <f t="shared" si="47"/>
-        <v>-0.11630438067114685</v>
+        <v>-0.11624560291322608</v>
       </c>
       <c r="O426" s="15">
         <v>1</v>
@@ -29166,11 +29258,11 @@
       </c>
       <c r="M427">
         <f t="shared" si="43"/>
-        <v>-0.17130894566481669</v>
+        <v>-0.17125069335304494</v>
       </c>
       <c r="N427" s="15">
         <f t="shared" si="47"/>
-        <v>-0.11519951481481056</v>
+        <v>-0.1151412625030388</v>
       </c>
       <c r="O427" s="15">
         <v>1</v>
@@ -29202,11 +29294,11 @@
       </c>
       <c r="M428">
         <f t="shared" si="43"/>
-        <v>-0.16923627309595105</v>
+        <v>-0.16917854212544992</v>
       </c>
       <c r="N428" s="15">
         <f t="shared" si="47"/>
-        <v>-0.11410308344207407</v>
+        <v>-0.11404535247157294</v>
       </c>
       <c r="O428" s="15">
         <v>1</v>
@@ -29238,11 +29330,11 @@
       </c>
       <c r="M429">
         <f t="shared" si="43"/>
-        <v>-0.16718867150705569</v>
+        <v>-0.16713145779519883</v>
       </c>
       <c r="N429" s="15">
         <f t="shared" si="47"/>
-        <v>-0.11301506139678923</v>
+        <v>-0.11295784768493237</v>
       </c>
       <c r="O429" s="15">
         <v>1</v>
@@ -29274,11 +29366,11 @@
       </c>
       <c r="M430">
         <f t="shared" si="43"/>
-        <v>-0.16516583786454084</v>
+        <v>-0.16510913735102109</v>
       </c>
       <c r="N430" s="15">
         <f t="shared" si="47"/>
-        <v>-0.11193542271412679</v>
+        <v>-0.11187872220060704</v>
       </c>
       <c r="O430" s="15">
         <v>1</v>
@@ -29310,11 +29402,11 @@
       </c>
       <c r="M431">
         <f t="shared" si="43"/>
-        <v>-0.163167472789681</v>
+        <v>-0.1631112814365725</v>
       </c>
       <c r="N431" s="15">
         <f t="shared" si="47"/>
-        <v>-0.11086414064437318</v>
+        <v>-0.11080794929126468</v>
       </c>
       <c r="O431" s="15">
         <v>1</v>
@@ -29346,11 +29438,11 @@
       </c>
       <c r="M432">
         <f t="shared" si="43"/>
-        <v>-0.16119328051481194</v>
+        <v>-0.16113759430662725</v>
       </c>
       <c r="N432" s="15">
         <f t="shared" si="47"/>
-        <v>-0.109801187676317</v>
+        <v>-0.10974550146813231</v>
       </c>
       <c r="O432" s="15">
         <v>1</v>
@@ -29382,11 +29474,11 @@
       </c>
       <c r="M433">
         <f t="shared" si="43"/>
-        <v>-0.15924296884004552</v>
+        <v>-0.1591877837837882</v>
       </c>
       <c r="N433" s="15">
         <f t="shared" si="47"/>
-        <v>-0.10874653556023284</v>
+        <v>-0.10869135050397552</v>
       </c>
       <c r="O433" s="15">
         <v>1</v>
@@ -29418,11 +29510,11 @@
       </c>
       <c r="M434">
         <f t="shared" si="43"/>
-        <v>-0.15731624909049233</v>
+        <v>-0.15726156121570461</v>
       </c>
       <c r="N434" s="15">
         <f t="shared" si="47"/>
-        <v>-0.10770015533046301</v>
+        <v>-0.1076454674556753</v>
       </c>
       <c r="O434" s="15">
         <v>1</v>
@@ -29454,11 +29546,11 @@
       </c>
       <c r="M435">
         <f t="shared" si="43"/>
-        <v>-0.15541283607398707</v>
+        <v>-0.15535864143279304</v>
       </c>
       <c r="N435" s="15">
         <f t="shared" si="47"/>
-        <v>-0.10666201732760244</v>
+        <v>-0.10660782268640842</v>
       </c>
       <c r="O435" s="15">
         <v>1</v>
@@ -29490,11 +29582,11 @@
       </c>
       <c r="M436">
         <f t="shared" si="43"/>
-        <v>-0.15353244803931421</v>
+        <v>-0.15347874270645856</v>
       </c>
       <c r="N436" s="15">
         <f t="shared" si="47"/>
-        <v>-0.10563209122029318</v>
+        <v>-0.10557838588743754</v>
       </c>
       <c r="O436" s="15">
         <v>1</v>
@@ -29526,11 +29618,11 @@
       </c>
       <c r="M437">
         <f t="shared" si="43"/>
-        <v>-0.15167480663492483</v>
+        <v>-0.15162158670780715</v>
       </c>
       <c r="N437" s="15">
         <f t="shared" si="47"/>
-        <v>-0.10461034602663113</v>
+        <v>-0.10455712609951345</v>
       </c>
       <c r="O437" s="15">
         <v>1</v>
@@ -29562,11 +29654,11 @@
       </c>
       <c r="M438">
         <f t="shared" si="43"/>
-        <v>-0.14983963686814097</v>
+        <v>-0.14978689846684601</v>
       </c>
       <c r="N438" s="15">
         <f t="shared" si="47"/>
-        <v>-0.10359675013518924</v>
+        <v>-0.10354401173389427</v>
       </c>
       <c r="O438" s="15">
         <v>1</v>
@@ -29598,11 +29690,11 @@
       </c>
       <c r="M439">
         <f t="shared" si="43"/>
-        <v>-0.14802666706483977</v>
+        <v>-0.14797440633216288</v>
       </c>
       <c r="N439" s="15">
         <f t="shared" si="47"/>
-        <v>-0.10259127132566126</v>
+        <v>-0.10253901059298437</v>
       </c>
       <c r="O439" s="15">
         <v>1</v>
@@ -29634,11 +29726,11 @@
       </c>
       <c r="M440">
         <f t="shared" si="43"/>
-        <v>-0.14623562882961785</v>
+        <v>-0.14618384193108763</v>
       </c>
       <c r="N440" s="15">
         <f t="shared" si="47"/>
-        <v>-0.10159387678913452</v>
+        <v>-0.1015420898906043</v>
       </c>
       <c r="O440" s="15">
         <v>1</v>
@@ -29670,11 +29762,11 @@
       </c>
       <c r="M441">
         <f t="shared" si="43"/>
-        <v>-0.14446625700642257</v>
+        <v>-0.14441494013031836</v>
       </c>
       <c r="N441" s="15">
         <f t="shared" si="47"/>
-        <v>-0.10060453314799001</v>
+        <v>-0.10055321627188579</v>
       </c>
       <c r="O441" s="15">
         <v>1</v>
@@ -29706,11 +29798,11 @@
       </c>
       <c r="M442">
         <f t="shared" si="43"/>
-        <v>-0.14271828963964994</v>
+        <v>-0.14266743899701601</v>
       </c>
       <c r="N442" s="15">
         <f t="shared" si="47"/>
-        <v>-9.9623206475437251E-2</v>
+        <v>-9.9572355832803314E-2</v>
       </c>
       <c r="O442" s="15">
         <v>1</v>
@@ -29742,11 +29834,11 @@
       </c>
       <c r="M443">
         <f t="shared" si="43"/>
-        <v>-0.14099146793570402</v>
+        <v>-0.14094107976035947</v>
       </c>
       <c r="N443" s="15">
         <f t="shared" si="47"/>
-        <v>-9.8649862314690417E-2</v>
+        <v>-9.8599474139345861E-2</v>
       </c>
       <c r="O443" s="15">
         <v>1</v>
@@ -29778,11 +29870,11 @@
       </c>
       <c r="M444">
         <f t="shared" si="43"/>
-        <v>-0.13928553622501064</v>
+        <v>-0.1392356067735567</v>
       </c>
       <c r="N444" s="15">
         <f t="shared" si="47"/>
-        <v>-9.7684465697786466E-2</v>
+        <v>-9.7634536246332532E-2</v>
       </c>
       <c r="O444" s="15">
         <v>1</v>
@@ -29814,11 +29906,11 @@
       </c>
       <c r="M445">
         <f t="shared" si="43"/>
-        <v>-0.13760024192447962</v>
+        <v>-0.13755076747630257</v>
       </c>
       <c r="N445" s="15">
         <f t="shared" si="47"/>
-        <v>-9.6726981164050388E-2</v>
+        <v>-9.6677506715873343E-2</v>
       </c>
       <c r="O445" s="15">
         <v>1</v>
@@ -29850,11 +29942,11 @@
       </c>
       <c r="M446">
         <f t="shared" si="43"/>
-        <v>-0.13593533550041462</v>
+        <v>-0.13588631235768464</v>
       </c>
       <c r="N446" s="15">
         <f t="shared" si="47"/>
-        <v>-9.5777372778214964E-2</v>
+        <v>-9.5728349635484988E-2</v>
       </c>
       <c r="O446" s="15">
         <v>1</v>
@@ -29886,11 +29978,11 @@
       </c>
       <c r="M447">
         <f t="shared" si="43"/>
-        <v>-0.13429057043186057</v>
+        <v>-0.13424199491952854</v>
       </c>
       <c r="N447" s="15">
         <f t="shared" si="47"/>
-        <v>-9.4835604148195585E-2</v>
+        <v>-9.4787028635863552E-2</v>
       </c>
       <c r="O447" s="15">
         <v>1</v>
@@ -29922,11 +30014,11 @@
       </c>
       <c r="M448">
         <f t="shared" si="43"/>
-        <v>-0.132665703174387</v>
+        <v>-0.13261757164017746</v>
       </c>
       <c r="N448" s="15">
         <f t="shared" si="47"/>
-        <v>-9.3901638442526719E-2</v>
+        <v>-9.3853506908317175E-2</v>
       </c>
       <c r="O448" s="15">
         <v>1</v>
@@ -29958,11 +30050,11 @@
       </c>
       <c r="M449">
         <f t="shared" si="43"/>
-        <v>-0.13106049312429924</v>
+        <v>-0.13101280193869932</v>
       </c>
       <c r="N449" s="15">
         <f t="shared" si="47"/>
-        <v>-9.2975438407462294E-2</v>
+        <v>-9.2927747221862381E-2</v>
       </c>
       <c r="O449" s="15">
         <v>1</v>
@@ -29994,11 +30086,11 @@
       </c>
       <c r="M450">
         <f t="shared" si="43"/>
-        <v>-0.12947470258327851</v>
+        <v>-0.12942744813952473</v>
       </c>
       <c r="N450" s="15">
         <f t="shared" si="47"/>
-        <v>-9.2056966383749356E-2</v>
+        <v>-9.2009711939995575E-2</v>
       </c>
       <c r="O450" s="15">
         <v>1</v>
@@ -30030,11 +30122,11 @@
       </c>
       <c r="M451">
         <f t="shared" si="43"/>
-        <v>-0.12790809672343789</v>
+        <v>-0.12786127543749942</v>
       </c>
       <c r="N451" s="15">
         <f t="shared" si="47"/>
-        <v>-9.1146184323072005E-2</v>
+        <v>-9.1099363037133535E-2</v>
       </c>
       <c r="O451" s="15">
         <v>1</v>
@@ -30066,11 +30158,11 @@
       </c>
       <c r="M452">
         <f t="shared" si="43"/>
-        <v>-0.1263604435527958</v>
+        <v>-0.12631405186335479</v>
       </c>
       <c r="N452" s="15">
         <f t="shared" si="47"/>
-        <v>-9.0243053804175341E-2</v>
+        <v>-9.019666211473433E-2</v>
       </c>
       <c r="O452" s="15">
         <v>1</v>
@@ -30102,11 +30194,11 @@
       </c>
       <c r="M453">
         <f t="shared" si="43"/>
-        <v>-0.12483151388115887</v>
+        <v>-0.12478554824958787</v>
       </c>
       <c r="N453" s="15">
         <f t="shared" si="47"/>
-        <v>-8.9347536048671738E-2</v>
+        <v>-8.930157041710074E-2</v>
       </c>
       <c r="O453" s="15">
         <v>1</v>
@@ -30138,11 +30230,11 @@
       </c>
       <c r="M454">
         <f t="shared" si="43"/>
-        <v>-0.1233210812864125</v>
+        <v>-0.12327553819674898</v>
       </c>
       <c r="N454" s="15">
         <f t="shared" si="47"/>
-        <v>-8.8459591936534993E-2</v>
+        <v>-8.8414048846871457E-2</v>
       </c>
       <c r="O454" s="15">
         <v>1</v>
@@ -30174,11 +30266,11 @@
       </c>
       <c r="M455">
         <f t="shared" si="43"/>
-        <v>-0.12182892208121002</v>
+        <v>-0.12178379804012816</v>
       </c>
       <c r="N455" s="15">
         <f t="shared" si="47"/>
-        <v>-8.7579182021283786E-2</v>
+        <v>-8.7534057980201932E-2</v>
       </c>
       <c r="O455" s="15">
         <v>1</v>
@@ -30210,11 +30302,11 @@
       </c>
       <c r="M456">
         <f t="shared" si="43"/>
-        <v>-0.1203548152800596</v>
+        <v>-0.12031010681683935</v>
       </c>
       <c r="N456" s="15">
         <f t="shared" si="47"/>
-        <v>-8.670626654486123E-2</v>
+        <v>-8.6661558081640971E-2</v>
       </c>
       <c r="O456" s="15">
         <v>1</v>
@@ -30246,11 +30338,11 @@
       </c>
       <c r="M457">
         <f t="shared" si="43"/>
-        <v>-0.11889854256680413</v>
+        <v>-0.11885424623329768</v>
       </c>
       <c r="N457" s="15">
         <f t="shared" si="47"/>
-        <v>-8.584080545221523E-2</v>
+        <v>-8.5796509118708786E-2</v>
       </c>
       <c r="O457" s="15">
         <v>1</v>
@@ -30282,11 +30374,11 @@
       </c>
       <c r="M458">
         <f t="shared" si="43"/>
-        <v>-0.11745988826248636</v>
+        <v>-0.11741600063308205</v>
       </c>
       <c r="N458" s="15">
         <f t="shared" si="47"/>
-        <v>-8.49827584055802E-2</v>
+        <v>-8.4938870776175873E-2</v>
       </c>
       <c r="O458" s="15">
         <v>1</v>
@@ -30318,11 +30410,11 @@
       </c>
       <c r="M459">
         <f t="shared" si="43"/>
-        <v>-0.11603863929359826</v>
+        <v>-0.11599515696518194</v>
       </c>
       <c r="N459" s="15">
         <f t="shared" si="47"/>
-        <v>-8.413208479846776E-2</v>
+        <v>-8.4088602470051441E-2</v>
       </c>
       <c r="O459" s="15">
         <v>1</v>
@@ -30354,11 +30446,11 @@
       </c>
       <c r="M460">
         <f t="shared" si="43"/>
-        <v>-0.11463458516070936</v>
+        <v>-0.11459150475262339</v>
       </c>
       <c r="N460" s="15">
         <f t="shared" si="47"/>
-        <v>-8.3288743769370233E-2</v>
+        <v>-8.324566336128425E-2</v>
       </c>
       <c r="O460" s="15">
         <v>1</v>
@@ -30390,11 +30482,11 @@
       </c>
       <c r="M461">
         <f t="shared" si="43"/>
-        <v>-0.11324751790746847</v>
+        <v>-0.11320483606146831</v>
       </c>
       <c r="N461" s="15">
         <f t="shared" si="47"/>
-        <v>-8.2452694215178729E-2</v>
+        <v>-8.2410012369178567E-2</v>
       </c>
       <c r="O461" s="15">
         <v>1</v>
@@ -30426,11 +30518,11 @@
       </c>
       <c r="M462">
         <f t="shared" si="43"/>
-        <v>-0.11187723208997406</v>
+        <v>-0.11183494547018265</v>
       </c>
       <c r="N462" s="15">
         <f t="shared" si="47"/>
-        <v>-8.1623894804320821E-2</v>
+        <v>-8.1581608184529406E-2</v>
       </c>
       <c r="O462" s="15">
         <v>1</v>
@@ -30462,11 +30554,11 @@
       </c>
       <c r="M463">
         <f t="shared" si="43"/>
-        <v>-0.11052352474651347</v>
+        <v>-0.11048163003937328</v>
       </c>
       <c r="N463" s="15">
         <f t="shared" si="47"/>
-        <v>-8.0802303989624971E-2</v>
+        <v>-8.0760409282484777E-2</v>
       </c>
       <c r="O463" s="15">
         <v>1</v>
@@ -30498,11 +30590,11 @@
       </c>
       <c r="M464">
         <f t="shared" si="43"/>
-        <v>-0.10918619536766026</v>
+        <v>-0.10914468928188321</v>
       </c>
       <c r="N464" s="15">
         <f t="shared" si="47"/>
-        <v>-7.9987880020910507E-2</v>
+        <v>-7.9946373935133458E-2</v>
       </c>
       <c r="O464" s="15">
         <v>1</v>
@@ -30534,11 +30626,11 @@
       </c>
       <c r="M465">
         <f t="shared" si="43"/>
-        <v>-0.10786504586672982</v>
+        <v>-0.10782392513324514</v>
       </c>
       <c r="N465" s="15">
         <f t="shared" si="47"/>
-        <v>-7.9180580957310343E-2</v>
+        <v>-7.9139460223825661E-2</v>
       </c>
       <c r="O465" s="15">
         <v>1</v>
@@ -30570,11 +30662,11 @@
       </c>
       <c r="M466">
         <f t="shared" si="43"/>
-        <v>-0.10655988055058763</v>
+        <v>-0.10651914192248764</v>
       </c>
       <c r="N466" s="15">
         <f t="shared" si="47"/>
-        <v>-7.8380364679329712E-2</v>
+        <v>-7.8339626051229724E-2</v>
       </c>
       <c r="O466" s="15">
         <v>1</v>
@@ -30606,11 +30698,11 @@
       </c>
       <c r="M467">
         <f t="shared" si="43"/>
-        <v>-0.10527050609080756</v>
+        <v>-0.10523014634329148</v>
       </c>
       <c r="N467" s="15">
         <f t="shared" si="47"/>
-        <v>-7.7587188900645837E-2</v>
+        <v>-7.7546829153129757E-2</v>
       </c>
       <c r="O467" s="15">
         <v>1</v>
@@ -30642,11 +30734,11 @@
       </c>
       <c r="M468">
         <f t="shared" si="43"/>
-        <v>-0.10399673149517279</v>
+        <v>-0.10395674742548834</v>
       </c>
       <c r="N468" s="15">
         <f t="shared" ref="N468:N469" si="51">(M468-H468)*O468</f>
-        <v>-7.6801011179649478E-2</v>
+        <v>-7.6761027109965033E-2</v>
       </c>
       <c r="O468" s="15">
         <v>1</v>
@@ -30678,11 +30770,11 @@
       </c>
       <c r="M469">
         <f t="shared" si="43"/>
-        <v>-0.10273836807951957</v>
+        <v>-0.10269875650690342</v>
       </c>
       <c r="N469" s="15">
         <f t="shared" si="51"/>
-        <v>-7.6021788930735884E-2</v>
+        <v>-7.598217735811974E-2</v>
       </c>
       <c r="O469" s="15">
         <v>1</v>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A789C-E94D-4B82-8C17-5551029B57F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4045A1F-11D6-48BC-AE8D-94B09672F47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1515" yWindow="270" windowWidth="28800" windowHeight="15030" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="28800" windowHeight="15030" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="fit" sheetId="2" r:id="rId1"/>
@@ -362,7 +362,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>universal curve (Rose function) + TB-SMA</t>
+    <t>universal curve (Rose function: d=0.05) + TB-SMA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -376,7 +376,7 @@
     <numFmt numFmtId="178" formatCode="0.0000E+00"/>
     <numFmt numFmtId="179" formatCode="0.0"/>
     <numFmt numFmtId="180" formatCode="0.E+00"/>
-    <numFmt numFmtId="184" formatCode="0.00000"/>
+    <numFmt numFmtId="181" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -491,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,10 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14013,7 +14010,7 @@
   <dimension ref="A2:X469"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14424,7 +14421,7 @@
       <c r="Q17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="22">
         <f>B4/L9+O8/SQRT(L9)</f>
         <v>0.37816239316239331</v>
       </c>
@@ -14475,7 +14472,7 @@
       <c r="S18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="T18" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -14521,7 +14518,7 @@
       <c r="Q19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="22">
         <f>O7/(O7-O4)*-B4/SQRT(L9)</f>
         <v>3.8644792229677045</v>
       </c>
@@ -14606,7 +14603,7 @@
       <c r="Q21" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="22">
         <f>(O8/O6)/(O7/O4)</f>
         <v>3.4641016151377535</v>
       </c>
@@ -14739,7 +14736,7 @@
       <c r="Q24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="R24" s="23">
+      <c r="R24" s="22">
         <f>O4/(O7-O4)*-B4/L9</f>
         <v>0.3781623931623932</v>
       </c>
@@ -14782,7 +14779,7 @@
       <c r="Q25" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="22">
         <f>O7/(O7-O4)*-B4/SQRT(L9)</f>
         <v>3.8644792229677045</v>
       </c>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826613BB-1B48-4C75-A1A1-9EEE7D51B02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AE23B4-7710-4209-B6BB-3BF2973B1CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="28800" windowHeight="15030" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="690" yWindow="435" windowWidth="28800" windowHeight="15030" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="fit" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>B</t>
     <phoneticPr fontId="1"/>
@@ -365,6 +365,26 @@
     <t>universal curve (Rose function: d=0.05) + TB-SMA</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p/q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Table X. d value vs. (p/q) for Rose function</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Closer to zero is better!!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +421,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +470,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -491,7 +517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,6 +585,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14022,6 +14063,7 @@
     <col min="11" max="11" width="9.625" customWidth="1"/>
     <col min="14" max="14" width="12.375" customWidth="1"/>
     <col min="15" max="15" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
@@ -14855,6 +14897,12 @@
       <c r="O27" s="15">
         <v>1</v>
       </c>
+      <c r="Q27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R27" s="25">
+        <v>2.9511489195477254</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D28" s="6">
@@ -14891,6 +14939,12 @@
       <c r="O28" s="15">
         <v>1</v>
       </c>
+      <c r="Q28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D29" s="6">
@@ -14927,6 +14981,16 @@
       <c r="O29" s="15">
         <v>1</v>
       </c>
+      <c r="Q29" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R29" s="1">
+        <f>ABS( -(SQRT(R27))^3/(R27-1)-(SQRT(1/R27)^3/(1/R27-1)) + (2+6*R28))</f>
+        <v>2.6290081223123707E-12</v>
+      </c>
+      <c r="S29" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
@@ -15002,6 +15066,9 @@
       <c r="O31" s="15">
         <v>1</v>
       </c>
+      <c r="Q31" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D32" s="6">
@@ -15038,8 +15105,14 @@
       <c r="O32" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q32" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D33" s="6">
         <v>-0.72</v>
       </c>
@@ -15074,8 +15147,14 @@
       <c r="O33" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q33" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="R33" s="5">
+        <v>8.1167990000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D34" s="6">
         <v>-0.7</v>
       </c>
@@ -15110,8 +15189,14 @@
       <c r="O34" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q34" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="R34" s="5">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D35" s="6">
         <v>-0.68</v>
       </c>
@@ -15146,8 +15231,14 @@
       <c r="O35" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q35" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="R35" s="5">
+        <v>4.5397220000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D36" s="6">
         <v>-0.66</v>
       </c>
@@ -15182,8 +15273,14 @@
       <c r="O36" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q36" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="R36" s="26">
+        <v>4.3764019999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D37" s="6">
         <v>-0.64</v>
       </c>
@@ -15218,8 +15315,14 @@
       <c r="O37" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q37" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="R37" s="5">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D38" s="6">
         <v>-0.62</v>
       </c>
@@ -15254,8 +15357,14 @@
       <c r="O38" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q38" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="R38" s="26">
+        <v>4.0533929999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D39" s="6">
         <v>-0.6</v>
       </c>
@@ -15290,8 +15399,14 @@
       <c r="O39" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q39" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="R39" s="5">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D40" s="6">
         <v>-0.57999999999999996</v>
       </c>
@@ -15326,8 +15441,14 @@
       <c r="O40" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q40" s="27">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R40" s="26">
+        <v>3.7347440000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D41" s="6">
         <v>-0.56000000000000005</v>
       </c>
@@ -15362,8 +15483,14 @@
       <c r="O41" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q41" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R41" s="5">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D42" s="6">
         <v>-0.54</v>
       </c>
@@ -15398,8 +15525,14 @@
       <c r="O42" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q42" s="27">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R42" s="26">
+        <v>3.4196749999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D43" s="6">
         <v>-0.52</v>
       </c>
@@ -15434,8 +15567,14 @@
       <c r="O43" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q43" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="R43" s="5">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D44" s="6">
         <v>-0.5</v>
       </c>
@@ -15470,8 +15609,14 @@
       <c r="O44" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q44" s="27">
+        <v>5.5E-2</v>
+      </c>
+      <c r="R44" s="26">
+        <v>3.1070509999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D45" s="6">
         <v>-0.48</v>
       </c>
@@ -15506,8 +15651,14 @@
       <c r="O45" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q45" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="R45" s="5">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D46" s="6">
         <v>-0.46</v>
       </c>
@@ -15542,8 +15693,14 @@
       <c r="O46" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q46" s="27">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R46" s="26">
+        <v>2.7951359999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D47" s="6">
         <v>-0.44</v>
       </c>
@@ -15578,8 +15735,14 @@
       <c r="O47" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q47" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R47" s="5">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D48" s="6">
         <v>-0.41999999999999899</v>
       </c>
@@ -15614,8 +15777,14 @@
       <c r="O48" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q48" s="27">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R48" s="26">
+        <v>2.4810439999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D49" s="6">
         <v>-0.39999999999999902</v>
       </c>
@@ -15650,8 +15819,14 @@
       <c r="O49" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q49" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="R49" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D50" s="6">
         <v>-0.37999999999999901</v>
       </c>
@@ -15686,8 +15861,14 @@
       <c r="O50" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q50" s="27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R50" s="26">
+        <v>2.159411</v>
+      </c>
+    </row>
+    <row r="51" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D51" s="6">
         <v>-0.35999999999999899</v>
       </c>
@@ -15722,8 +15903,14 @@
       <c r="O51" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q51" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="R51" s="5">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="52" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D52" s="6">
         <v>-0.33999999999999903</v>
       </c>
@@ -15758,8 +15945,14 @@
       <c r="O52" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q52" s="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R52" s="26">
+        <v>1.818065</v>
+      </c>
+    </row>
+    <row r="53" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D53" s="6">
         <v>-0.31999999999999901</v>
       </c>
@@ -15794,8 +15987,14 @@
       <c r="O53" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q53" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="R53" s="5">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="54" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D54" s="6">
         <v>-0.29999999999999899</v>
       </c>
@@ -15830,8 +16029,14 @@
       <c r="O54" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q54" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R54" s="5">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="55" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D55" s="6">
         <v>-0.27999999999999903</v>
       </c>
@@ -15866,8 +16071,14 @@
       <c r="O55" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="Q55" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="R55" s="5">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D56" s="6">
         <v>-0.25999999999999901</v>
       </c>
@@ -15903,7 +16114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D57" s="6">
         <v>-0.23999999999999899</v>
       </c>
@@ -15939,7 +16150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D58" s="6">
         <v>-0.219999999999999</v>
       </c>
@@ -15975,7 +16186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D59" s="6">
         <v>-0.19999999999999901</v>
       </c>
@@ -16011,7 +16222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D60" s="6">
         <v>-0.17999999999999899</v>
       </c>
@@ -16047,7 +16258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D61" s="6">
         <v>-0.159999999999999</v>
       </c>
@@ -16083,7 +16294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D62" s="6">
         <v>-0.13999999999999899</v>
       </c>
@@ -16119,7 +16330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D63" s="6">
         <v>-0.119999999999999</v>
       </c>
@@ -16155,7 +16366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D64" s="6">
         <v>-9.9999999999999006E-2</v>
       </c>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AE23B4-7710-4209-B6BB-3BF2973B1CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D4F7BC-0DED-41AE-AB0D-EDF61E777C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="435" windowWidth="28800" windowHeight="15030" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="-5220" yWindow="375" windowWidth="18510" windowHeight="14055" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="fit" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>B</t>
     <phoneticPr fontId="1"/>
@@ -385,6 +385,69 @@
     <t>&lt;- Closer to zero is better!!!</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Note: The existence of a minimum for Eb requires p &gt; q.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Si</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Cu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Al,Fe,Ni,Pd,Pt,In,Cu,Ag,Au</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Abell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;-C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Si, Ge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Li</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Na, K, Cs, Al</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Ag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Au</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>&lt;- Li,Na,Al,K,Ca,Ti,V,Fe,Co,Ni,Cu,Zn,Nb,Mo,Pd,Ag,Ta,Re,Ir,Pt,Au,Pb,Th</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -517,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,15 +654,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14050,8 +14104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC96F8-554A-49E8-A62F-FFDB865EC586}">
   <dimension ref="A2:X469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="M31" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14900,7 +14954,7 @@
       <c r="Q27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R27" s="25">
+      <c r="R27" s="1">
         <v>2.9511489195477254</v>
       </c>
     </row>
@@ -15111,8 +15165,17 @@
       <c r="R32" s="24" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="S32" t="s">
+        <v>86</v>
+      </c>
+      <c r="T32" t="s">
+        <v>87</v>
+      </c>
+      <c r="U32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D33" s="6">
         <v>-0.72</v>
       </c>
@@ -15153,8 +15216,11 @@
       <c r="R33" s="5">
         <v>8.1167990000000003</v>
       </c>
-    </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="T33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D34" s="6">
         <v>-0.7</v>
       </c>
@@ -15195,8 +15261,11 @@
       <c r="R34" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="T34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D35" s="6">
         <v>-0.68</v>
       </c>
@@ -15238,7 +15307,7 @@
         <v>4.5397220000000003</v>
       </c>
     </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D36" s="6">
         <v>-0.66</v>
       </c>
@@ -15276,11 +15345,11 @@
       <c r="Q36" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="R36" s="26">
+      <c r="R36" s="5">
         <v>4.3764019999999997</v>
       </c>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D37" s="6">
         <v>-0.64</v>
       </c>
@@ -15322,7 +15391,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D38" s="6">
         <v>-0.62</v>
       </c>
@@ -15360,11 +15429,11 @@
       <c r="Q38" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="R38" s="26">
+      <c r="R38" s="5">
         <v>4.0533929999999998</v>
       </c>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D39" s="6">
         <v>-0.6</v>
       </c>
@@ -15406,7 +15475,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D40" s="6">
         <v>-0.57999999999999996</v>
       </c>
@@ -15441,14 +15510,17 @@
       <c r="O40" s="15">
         <v>1</v>
       </c>
-      <c r="Q40" s="27">
+      <c r="Q40" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R40" s="26">
+      <c r="R40" s="5">
         <v>3.7347440000000001</v>
       </c>
-    </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="T40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D41" s="6">
         <v>-0.56000000000000005</v>
       </c>
@@ -15489,8 +15561,14 @@
       <c r="R41" s="5">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="S41" t="s">
+        <v>83</v>
+      </c>
+      <c r="T41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D42" s="6">
         <v>-0.54</v>
       </c>
@@ -15525,14 +15603,14 @@
       <c r="O42" s="15">
         <v>1</v>
       </c>
-      <c r="Q42" s="27">
+      <c r="Q42" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="R42" s="26">
+      <c r="R42" s="5">
         <v>3.4196749999999998</v>
       </c>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D43" s="6">
         <v>-0.52</v>
       </c>
@@ -15573,8 +15651,11 @@
       <c r="R43" s="5">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="T43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D44" s="6">
         <v>-0.5</v>
       </c>
@@ -15609,14 +15690,17 @@
       <c r="O44" s="15">
         <v>1</v>
       </c>
-      <c r="Q44" s="27">
+      <c r="Q44" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="R44" s="26">
+      <c r="R44" s="5">
         <v>3.1070509999999998</v>
       </c>
-    </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="T44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D45" s="6">
         <v>-0.48</v>
       </c>
@@ -15657,8 +15741,14 @@
       <c r="R45" s="5">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="S45" t="s">
+        <v>85</v>
+      </c>
+      <c r="U45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D46" s="6">
         <v>-0.46</v>
       </c>
@@ -15693,14 +15783,17 @@
       <c r="O46" s="15">
         <v>1</v>
       </c>
-      <c r="Q46" s="27">
+      <c r="Q46" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="R46" s="26">
+      <c r="R46" s="5">
         <v>2.7951359999999998</v>
       </c>
-    </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="T46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D47" s="6">
         <v>-0.44</v>
       </c>
@@ -15741,8 +15834,11 @@
       <c r="R47" s="5">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="T47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D48" s="6">
         <v>-0.41999999999999899</v>
       </c>
@@ -15777,14 +15873,14 @@
       <c r="O48" s="15">
         <v>1</v>
       </c>
-      <c r="Q48" s="27">
+      <c r="Q48" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R48" s="26">
+      <c r="R48" s="5">
         <v>2.4810439999999998</v>
       </c>
     </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D49" s="6">
         <v>-0.39999999999999902</v>
       </c>
@@ -15825,8 +15921,11 @@
       <c r="R49" s="5">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="T49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D50" s="6">
         <v>-0.37999999999999901</v>
       </c>
@@ -15861,14 +15960,14 @@
       <c r="O50" s="15">
         <v>1</v>
       </c>
-      <c r="Q50" s="27">
+      <c r="Q50" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R50" s="26">
+      <c r="R50" s="5">
         <v>2.159411</v>
       </c>
     </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D51" s="6">
         <v>-0.35999999999999899</v>
       </c>
@@ -15909,8 +16008,11 @@
       <c r="R51" s="5">
         <v>1.99</v>
       </c>
-    </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="T51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D52" s="6">
         <v>-0.33999999999999903</v>
       </c>
@@ -15945,14 +16047,17 @@
       <c r="O52" s="15">
         <v>1</v>
       </c>
-      <c r="Q52" s="27">
+      <c r="Q52" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R52" s="26">
+      <c r="R52" s="5">
         <v>1.818065</v>
       </c>
-    </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="T52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D53" s="6">
         <v>-0.31999999999999901</v>
       </c>
@@ -15993,8 +16098,11 @@
       <c r="R53" s="5">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="54" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="T53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D54" s="6">
         <v>-0.29999999999999899</v>
       </c>
@@ -16035,8 +16143,11 @@
       <c r="R54" s="5">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="55" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="T54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D55" s="6">
         <v>-0.27999999999999903</v>
       </c>
@@ -16078,7 +16189,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="56" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D56" s="6">
         <v>-0.25999999999999901</v>
       </c>
@@ -16113,8 +16224,11 @@
       <c r="O56" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="Q56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D57" s="6">
         <v>-0.23999999999999899</v>
       </c>
@@ -16150,7 +16264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D58" s="6">
         <v>-0.219999999999999</v>
       </c>
@@ -16186,7 +16300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="59" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D59" s="6">
         <v>-0.19999999999999901</v>
       </c>
@@ -16222,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="60" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D60" s="6">
         <v>-0.17999999999999899</v>
       </c>
@@ -16258,7 +16372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="61" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D61" s="6">
         <v>-0.159999999999999</v>
       </c>
@@ -16294,7 +16408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="62" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D62" s="6">
         <v>-0.13999999999999899</v>
       </c>
@@ -16330,7 +16444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="63" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D63" s="6">
         <v>-0.119999999999999</v>
       </c>
@@ -16366,7 +16480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="64" spans="4:20" x14ac:dyDescent="0.4">
       <c r="D64" s="6">
         <v>-9.9999999999999006E-2</v>
       </c>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D4F7BC-0DED-41AE-AB0D-EDF61E777C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA9943-C686-40A4-8E7F-6FF550546761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5220" yWindow="375" windowWidth="18510" windowHeight="14055" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="75" yWindow="30" windowWidth="18105" windowHeight="15240" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="fit" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
   <si>
     <t>B</t>
     <phoneticPr fontId="1"/>
@@ -446,6 +446,66 @@
   </si>
   <si>
     <t>&lt;- Li,Na,Al,K,Ca,Ti,V,Fe,Co,Ni,Cu,Zn,Nb,Mo,Pd,Ag,Ta,Re,Ir,Pt,Au,Pb,Th</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Li</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Al</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Cu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- In</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Li, Na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Nd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Ni</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- K, Pb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Rb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Rh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Th</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;- Ag, Hf, Tl, Yb, Zn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delta (=d)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -14104,8 +14164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC96F8-554A-49E8-A62F-FFDB865EC586}">
   <dimension ref="A2:X469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M31" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+    <sheetView tabSelected="1" topLeftCell="J28" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14472,7 +14532,13 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B14" s="10"/>
+      <c r="A14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="1">
+        <f>(B7-1)/(2*E12)-1/3</f>
+        <v>-7.2091624187464121E-2</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
@@ -15174,8 +15240,11 @@
       <c r="U32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="V32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D33" s="6">
         <v>-0.72</v>
       </c>
@@ -15219,8 +15288,11 @@
       <c r="T33" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="V33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D34" s="6">
         <v>-0.7</v>
       </c>
@@ -15264,8 +15336,11 @@
       <c r="T34" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="V34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D35" s="6">
         <v>-0.68</v>
       </c>
@@ -15306,8 +15381,11 @@
       <c r="R35" s="5">
         <v>4.5397220000000003</v>
       </c>
-    </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="V35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D36" s="6">
         <v>-0.66</v>
       </c>
@@ -15348,8 +15426,11 @@
       <c r="R36" s="5">
         <v>4.3764019999999997</v>
       </c>
-    </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="V36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D37" s="6">
         <v>-0.64</v>
       </c>
@@ -15390,8 +15471,11 @@
       <c r="R37" s="5">
         <v>4.21</v>
       </c>
-    </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="V37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D38" s="6">
         <v>-0.62</v>
       </c>
@@ -15432,8 +15516,11 @@
       <c r="R38" s="5">
         <v>4.0533929999999998</v>
       </c>
-    </row>
-    <row r="39" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="V38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D39" s="6">
         <v>-0.6</v>
       </c>
@@ -15474,8 +15561,11 @@
       <c r="R39" s="5">
         <v>3.89</v>
       </c>
-    </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="V39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D40" s="6">
         <v>-0.57999999999999996</v>
       </c>
@@ -15519,8 +15609,11 @@
       <c r="T40" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="V40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D41" s="6">
         <v>-0.56000000000000005</v>
       </c>
@@ -15568,7 +15661,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D42" s="6">
         <v>-0.54</v>
       </c>
@@ -15609,8 +15702,11 @@
       <c r="R42" s="5">
         <v>3.4196749999999998</v>
       </c>
-    </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="V42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D43" s="6">
         <v>-0.52</v>
       </c>
@@ -15655,7 +15751,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D44" s="6">
         <v>-0.5</v>
       </c>
@@ -15700,7 +15796,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D45" s="6">
         <v>-0.48</v>
       </c>
@@ -15747,8 +15843,11 @@
       <c r="U45" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="V45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D46" s="6">
         <v>-0.46</v>
       </c>
@@ -15793,7 +15892,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="4:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D47" s="6">
         <v>-0.44</v>
       </c>
@@ -15837,8 +15936,11 @@
       <c r="T47" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="V47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D48" s="6">
         <v>-0.41999999999999899</v>
       </c>
@@ -15879,8 +15981,11 @@
       <c r="R48" s="5">
         <v>2.4810439999999998</v>
       </c>
-    </row>
-    <row r="49" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="V48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D49" s="6">
         <v>-0.39999999999999902</v>
       </c>
@@ -15925,7 +16030,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D50" s="6">
         <v>-0.37999999999999901</v>
       </c>
@@ -15966,8 +16071,11 @@
       <c r="R50" s="5">
         <v>2.159411</v>
       </c>
-    </row>
-    <row r="51" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="V50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D51" s="6">
         <v>-0.35999999999999899</v>
       </c>
@@ -16012,7 +16120,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D52" s="6">
         <v>-0.33999999999999903</v>
       </c>
@@ -16057,7 +16165,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D53" s="6">
         <v>-0.31999999999999901</v>
       </c>
@@ -16101,8 +16209,11 @@
       <c r="T53" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="54" spans="4:20" x14ac:dyDescent="0.4">
+      <c r="V53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D54" s="6">
         <v>-0.29999999999999899</v>
       </c>
@@ -16147,7 +16258,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D55" s="6">
         <v>-0.27999999999999903</v>
       </c>
@@ -16189,7 +16300,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="56" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D56" s="6">
         <v>-0.25999999999999901</v>
       </c>
@@ -16228,7 +16339,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D57" s="6">
         <v>-0.23999999999999899</v>
       </c>
@@ -16264,7 +16375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D58" s="6">
         <v>-0.219999999999999</v>
       </c>
@@ -16300,7 +16411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="59" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D59" s="6">
         <v>-0.19999999999999901</v>
       </c>
@@ -16336,7 +16447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="60" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D60" s="6">
         <v>-0.17999999999999899</v>
       </c>
@@ -16372,7 +16483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="61" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D61" s="6">
         <v>-0.159999999999999</v>
       </c>
@@ -16408,7 +16519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="62" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D62" s="6">
         <v>-0.13999999999999899</v>
       </c>
@@ -16444,7 +16555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="63" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D63" s="6">
         <v>-0.119999999999999</v>
       </c>
@@ -16480,7 +16591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="4:20" x14ac:dyDescent="0.4">
+    <row r="64" spans="4:22" x14ac:dyDescent="0.4">
       <c r="D64" s="6">
         <v>-9.9999999999999006E-2</v>
       </c>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2E83B6-CE29-4C79-B28D-848BDC2748E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BCBBE0-5A73-4AFB-AC55-362B8BC9EAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="-120" windowWidth="17595" windowHeight="15660" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="2670" yWindow="0" windowWidth="26190" windowHeight="15480" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="fit" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="126">
   <si>
     <t>B</t>
     <phoneticPr fontId="1"/>
@@ -556,6 +556,10 @@
     <t>f*B(V0)'=</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -654,7 +658,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -688,13 +692,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,19 +815,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -773,13 +848,43 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14228,10 +14333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC96F8-554A-49E8-A62F-FFDB865EC586}">
-  <dimension ref="A2:Y469"/>
+  <dimension ref="A2:AA469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="M28" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14247,7 +14352,7 @@
     <col min="18" max="18" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -14273,14 +14378,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="18" t="str">
+      <c r="D3" s="15" t="str">
         <f>A3</f>
         <v>FCC</v>
       </c>
@@ -14288,7 +14393,7 @@
         <f>B3</f>
         <v>Cu</v>
       </c>
-      <c r="K3" s="18" t="str">
+      <c r="K3" s="15" t="str">
         <f>A3</f>
         <v>FCC</v>
       </c>
@@ -14296,7 +14401,7 @@
         <f>B3</f>
         <v>Cu</v>
       </c>
-      <c r="N3" s="18" t="str">
+      <c r="N3" s="15" t="str">
         <f>A3</f>
         <v>FCC</v>
       </c>
@@ -14304,11 +14409,21 @@
         <f>L3</f>
         <v>Cu</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="25"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -14328,7 +14443,7 @@
       <c r="L4" s="4">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="4">
@@ -14337,11 +14452,21 @@
       <c r="P4" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="28"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -14363,37 +14488,48 @@
       <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="30">
         <f>L10</f>
         <v>2.5720075644390832</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="30">
         <f>L6</f>
         <v>10.96</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="30">
         <f>L7</f>
         <v>2.278</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="30">
         <f>L4</f>
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="30">
         <f>L5</f>
         <v>1.224</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="31">
         <v>5</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="31">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y5" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z5" s="32" t="str">
+        <f>B3</f>
+        <v>Cu</v>
+      </c>
+      <c r="AA5" s="33" t="str">
+        <f>B3</f>
+        <v>Cu</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -14415,7 +14551,7 @@
       <c r="L6" s="4">
         <v>10.96</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="O6" s="4">
@@ -14423,7 +14559,7 @@
         <v>0.1749572649572651</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -14445,18 +14581,28 @@
       <c r="L7" s="4">
         <v>2.278</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="O7" s="4">
         <f>R18*O4</f>
         <v>8.419347491352978</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="25"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
@@ -14467,18 +14613,28 @@
       <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="18" t="s">
         <v>30</v>
       </c>
       <c r="O8" s="4">
         <f>O7/(O7-O4)*-B4/SQRT(L9)</f>
         <v>1.7879057451497098</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="28"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -14491,37 +14647,48 @@
       <c r="M9" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="30">
         <f>L10</f>
         <v>2.5720075644390832</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="30">
         <f>O7</f>
         <v>8.419347491352978</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="30">
         <f>O4</f>
         <v>2.8540160987637213</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="30">
         <f>O6</f>
         <v>0.1749572649572651</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="30">
         <f>O8</f>
         <v>1.7879057451497098</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="31">
         <v>5</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="31">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y9" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z9" s="32">
+        <f>B7</f>
+        <v>3.7810000000000001</v>
+      </c>
+      <c r="AA9" s="33">
+        <f>B7</f>
+        <v>3.7810000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -14534,7 +14701,6 @@
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="26"/>
       <c r="K10" s="3" t="s">
         <v>27</v>
       </c>
@@ -14545,9 +14711,8 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="27"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -14565,12 +14730,21 @@
       <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="Q11" t="s">
+      <c r="Q11" s="35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="25"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -14585,11 +14759,21 @@
         <f>(9*$B$6*$B$5/(-$B$4))^(1/2)</f>
         <v>4.6881199052726856</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="28"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
@@ -14597,11 +14781,21 @@
         <f>$E$12*($E$4/$E$11-1)</f>
         <v>0</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="28"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>111</v>
       </c>
@@ -14616,11 +14810,21 @@
         <f>-(1+$E$13+$E$5*$E$13^3)*EXP(-$E$13)</f>
         <v>-1</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="33"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
@@ -14629,7 +14833,7 @@
         <v>-4.0940000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
@@ -14653,7 +14857,7 @@
       <c r="Q17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="19">
         <f>B4/L9+O8/SQRT(L9)</f>
         <v>0.1749572649572651</v>
       </c>
@@ -14736,21 +14940,21 @@
         <f t="shared" ref="M19:M82" si="1">$L$9*$O$6*EXP(-$O$7*(G19/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G19/$L$10-1))</f>
         <v>1.2643144521417735</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="13">
         <f>(M19-H19)*O19</f>
         <v>1.2643144521417735</v>
       </c>
-      <c r="O19" s="15">
-        <v>1</v>
-      </c>
-      <c r="P19" s="17">
+      <c r="O19" s="13">
+        <v>1</v>
+      </c>
+      <c r="P19" s="14">
         <f>SUMSQ(N26:N295)</f>
         <v>11.294680446370267</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="19">
         <f>O7/(O7-O4)*-B4/SQRT(L9)</f>
         <v>1.7879057451497098</v>
       </c>
@@ -14789,14 +14993,14 @@
         <f t="shared" si="1"/>
         <v>0.95582520241466185</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="13">
         <f t="shared" ref="N20:N83" si="5">(M20-H20)*O20</f>
         <v>1.1739908795038427</v>
       </c>
-      <c r="O20" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="28"/>
+      <c r="O20" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="D21" s="6">
@@ -14826,17 +15030,17 @@
         <f t="shared" si="1"/>
         <v>0.66141302212588116</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="13">
         <f t="shared" si="5"/>
         <v>1.0891044366136513</v>
       </c>
-      <c r="O21" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="19" t="s">
+      <c r="O21" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="19">
         <f>(O8/O6)/(O7/O4)</f>
         <v>3.4641016151377517</v>
       </c>
@@ -14883,11 +15087,11 @@
         <f t="shared" si="1"/>
         <v>0.38054262041224618</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="13">
         <f t="shared" si="5"/>
         <v>1.0093764560106488</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="13">
         <v>1</v>
       </c>
     </row>
@@ -14919,11 +15123,11 @@
         <f t="shared" si="1"/>
         <v>0.11269805937483923</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="13">
         <f t="shared" si="5"/>
         <v>0.93454084788677516</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="13">
         <v>1</v>
       </c>
       <c r="Q23" s="1" t="s">
@@ -14965,21 +15169,21 @@
         <f t="shared" si="1"/>
         <v>-0.14261793436132386</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="13">
         <f t="shared" si="5"/>
         <v>0.86434357934633121</v>
       </c>
-      <c r="O24" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="20" t="s">
+      <c r="O24" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="19">
         <f>O4/(O7-O4)*-B4/L9</f>
         <v>0.17495726495726496</v>
       </c>
-      <c r="V24" s="18" t="str">
+      <c r="V24" s="15" t="str">
         <f>D3</f>
         <v>FCC</v>
       </c>
@@ -15019,17 +15223,17 @@
         <f t="shared" si="1"/>
         <v>-0.38588463373055681</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="13">
         <f t="shared" si="5"/>
         <v>0.79854217403809002</v>
       </c>
-      <c r="O25" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="20" t="s">
+      <c r="O25" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="19">
         <f>O7/(O7-O4)*-B4/SQRT(L9)</f>
         <v>1.7879057451497098</v>
       </c>
@@ -15072,11 +15276,11 @@
         <f t="shared" si="1"/>
         <v>-0.61756395181306267</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="13">
         <f t="shared" si="5"/>
         <v>0.73690523139135089</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="13">
         <v>1</v>
       </c>
       <c r="V26" s="2" t="s">
@@ -15117,11 +15321,11 @@
         <f t="shared" si="1"/>
         <v>-0.83810105975442362</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="13">
         <f t="shared" si="5"/>
         <v>0.67921196471626288</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="13">
         <v>1</v>
       </c>
       <c r="Q27" s="2" t="s">
@@ -15172,11 +15376,11 @@
         <f t="shared" si="1"/>
         <v>-1.047924982818671</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="13">
         <f t="shared" si="5"/>
         <v>0.62525175745570993</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="13">
         <v>1</v>
       </c>
       <c r="Q28" s="2" t="s">
@@ -15185,7 +15389,7 @@
       <c r="R28" s="1">
         <v>0.05</v>
       </c>
-      <c r="V28" s="25" t="s">
+      <c r="V28" s="22" t="s">
         <v>118</v>
       </c>
       <c r="W28" s="1">
@@ -15224,14 +15428,14 @@
         <f t="shared" si="1"/>
         <v>-1.2474491753470556</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="13">
         <f t="shared" si="5"/>
         <v>0.57482373690257682</v>
       </c>
-      <c r="O29" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="20" t="s">
+      <c r="O29" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="17" t="s">
         <v>77</v>
       </c>
       <c r="R29" s="1">
@@ -15241,7 +15445,7 @@
       <c r="S29" t="s">
         <v>80</v>
       </c>
-      <c r="V29" s="25" t="s">
+      <c r="V29" s="22" t="s">
         <v>112</v>
       </c>
       <c r="W29" s="1">
@@ -15280,14 +15484,14 @@
         <f t="shared" si="1"/>
         <v>-1.4370720753676256</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="13">
         <f t="shared" si="5"/>
         <v>0.52773636472129404</v>
       </c>
-      <c r="O30" s="15">
-        <v>1</v>
-      </c>
-      <c r="V30" s="25" t="s">
+      <c r="O30" s="13">
+        <v>1</v>
+      </c>
+      <c r="V30" s="22" t="s">
         <v>120</v>
       </c>
       <c r="W30" s="1">
@@ -15323,11 +15527,11 @@
         <f t="shared" si="1"/>
         <v>-1.6171776395742867</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="13">
         <f t="shared" si="5"/>
         <v>0.48380704363706695</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O31" s="13">
         <v>1</v>
       </c>
       <c r="Q31" t="s">
@@ -15362,17 +15566,17 @@
         <f t="shared" si="1"/>
         <v>-1.7881358593686629</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="13">
         <f t="shared" si="5"/>
         <v>0.44286173967971854</v>
       </c>
-      <c r="O32" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="24" t="s">
+      <c r="O32" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="R32" s="24" t="s">
+      <c r="R32" s="21" t="s">
         <v>78</v>
       </c>
       <c r="S32" t="s">
@@ -15382,10 +15586,10 @@
         <v>86</v>
       </c>
       <c r="U32" t="s">
+        <v>97</v>
+      </c>
+      <c r="V32" t="s">
         <v>95</v>
-      </c>
-      <c r="V32" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.4">
@@ -15416,14 +15620,14 @@
         <f t="shared" si="1"/>
         <v>-1.9503032586336868</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="13">
         <f t="shared" si="5"/>
         <v>0.40473461939161481</v>
       </c>
-      <c r="O33" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="23">
+      <c r="O33" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="20">
         <v>0.2</v>
       </c>
       <c r="R33" s="5">
@@ -15432,7 +15636,7 @@
       <c r="T33" t="s">
         <v>90</v>
       </c>
-      <c r="V33" t="s">
+      <c r="U33" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15464,11 +15668,11 @@
         <f t="shared" si="1"/>
         <v>-2.1040233738841012</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="13">
         <f t="shared" si="5"/>
         <v>0.36926770143113874</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O34" s="13">
         <v>1</v>
       </c>
       <c r="Q34" s="1">
@@ -15480,7 +15684,7 @@
       <c r="T34" t="s">
         <v>90</v>
       </c>
-      <c r="V34" t="s">
+      <c r="U34" t="s">
         <v>102</v>
       </c>
     </row>
@@ -15512,20 +15716,20 @@
         <f t="shared" si="1"/>
         <v>-2.2496272174164735</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="13">
         <f t="shared" si="5"/>
         <v>0.33631052202399125</v>
       </c>
-      <c r="O35" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="23">
+      <c r="O35" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="20">
         <v>0.1</v>
       </c>
       <c r="R35" s="5">
         <v>4.5397220000000003</v>
       </c>
-      <c r="V35" t="s">
+      <c r="U35" t="s">
         <v>110</v>
       </c>
     </row>
@@ -15557,11 +15761,11 @@
         <f t="shared" si="1"/>
         <v>-2.3874337240591181</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36" s="13">
         <f t="shared" si="5"/>
         <v>0.30571981373513424</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O36" s="13">
         <v>1</v>
       </c>
       <c r="Q36" s="1">
@@ -15570,7 +15774,7 @@
       <c r="R36" s="5">
         <v>4.3764019999999997</v>
       </c>
-      <c r="V36" t="s">
+      <c r="U36" t="s">
         <v>107</v>
       </c>
     </row>
@@ -15602,11 +15806,11 @@
         <f t="shared" si="1"/>
         <v>-2.5177501821013761</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="13">
         <f t="shared" si="5"/>
         <v>0.2773591970534337</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O37" s="13">
         <v>1</v>
       </c>
       <c r="Q37" s="1">
@@ -15615,7 +15819,7 @@
       <c r="R37" s="5">
         <v>4.21</v>
       </c>
-      <c r="V37" t="s">
+      <c r="U37" t="s">
         <v>103</v>
       </c>
     </row>
@@ -15647,11 +15851,11 @@
         <f t="shared" si="1"/>
         <v>-2.6408726489610119</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="13">
         <f t="shared" si="5"/>
         <v>0.25109888430017957</v>
       </c>
-      <c r="O38" s="15">
+      <c r="O38" s="13">
         <v>1</v>
       </c>
       <c r="Q38" s="1">
@@ -15660,7 +15864,7 @@
       <c r="R38" s="5">
         <v>4.0533929999999998</v>
       </c>
-      <c r="V38" t="s">
+      <c r="U38" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15692,11 +15896,11 @@
         <f t="shared" si="1"/>
         <v>-2.7570863521289937</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="13">
         <f t="shared" si="5"/>
         <v>0.2268153953905041</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O39" s="13">
         <v>1</v>
       </c>
       <c r="Q39" s="1">
@@ -15705,7 +15909,7 @@
       <c r="R39" s="5">
         <v>3.89</v>
       </c>
-      <c r="V39" t="s">
+      <c r="U39" t="s">
         <v>100</v>
       </c>
     </row>
@@ -15737,11 +15941,11 @@
         <f t="shared" si="1"/>
         <v>-2.8666660759116489</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="13">
         <f t="shared" si="5"/>
         <v>0.20439128499448778</v>
       </c>
-      <c r="O40" s="15">
+      <c r="O40" s="13">
         <v>1</v>
       </c>
       <c r="Q40" s="1">
@@ -15753,7 +15957,7 @@
       <c r="T40" t="s">
         <v>91</v>
       </c>
-      <c r="V40" t="s">
+      <c r="U40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -15785,11 +15989,11 @@
         <f t="shared" si="1"/>
         <v>-2.9698765344721094</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="13">
         <f t="shared" si="5"/>
         <v>0.18371488066127517</v>
       </c>
-      <c r="O41" s="15">
+      <c r="O41" s="13">
         <v>1</v>
       </c>
       <c r="Q41" s="1">
@@ -15833,11 +16037,11 @@
         <f t="shared" si="1"/>
         <v>-3.0669727316549311</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N42" s="13">
         <f t="shared" si="5"/>
         <v>0.1646800314860819</v>
       </c>
-      <c r="O42" s="15">
+      <c r="O42" s="13">
         <v>1</v>
       </c>
       <c r="Q42" s="1">
@@ -15846,7 +16050,7 @@
       <c r="R42" s="5">
         <v>3.4196749999999998</v>
       </c>
-      <c r="V42" t="s">
+      <c r="U42" t="s">
         <v>108</v>
       </c>
     </row>
@@ -15878,11 +16082,11 @@
         <f t="shared" si="1"/>
         <v>-3.1582003080610255</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N43" s="13">
         <f t="shared" si="5"/>
         <v>0.14718586691525015</v>
       </c>
-      <c r="O43" s="15">
+      <c r="O43" s="13">
         <v>1</v>
       </c>
       <c r="Q43" s="1">
@@ -15923,11 +16127,11 @@
         <f t="shared" si="1"/>
         <v>-3.2437958758232162</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N44" s="13">
         <f t="shared" si="5"/>
         <v>0.13113656529994655</v>
       </c>
-      <c r="O44" s="15">
+      <c r="O44" s="13">
         <v>1</v>
       </c>
       <c r="Q44" s="1">
@@ -15968,11 +16172,11 @@
         <f t="shared" si="1"/>
         <v>-3.3239873415171539</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="13">
         <f t="shared" si="5"/>
         <v>0.11644113182325322</v>
       </c>
-      <c r="O45" s="15">
+      <c r="O45" s="13">
         <v>1</v>
       </c>
       <c r="Q45" s="1">
@@ -15985,10 +16189,10 @@
         <v>84</v>
       </c>
       <c r="U45" t="s">
+        <v>104</v>
+      </c>
+      <c r="V45" t="s">
         <v>96</v>
-      </c>
-      <c r="V45" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="46" spans="4:22" x14ac:dyDescent="0.4">
@@ -16019,11 +16223,11 @@
         <f t="shared" si="1"/>
         <v>-3.3989942176267185</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N46" s="13">
         <f t="shared" si="5"/>
         <v>0.10301318543968296</v>
       </c>
-      <c r="O46" s="15">
+      <c r="O46" s="13">
         <v>1</v>
       </c>
       <c r="Q46" s="1">
@@ -16064,11 +16268,11 @@
         <f t="shared" si="1"/>
         <v>-3.4690279229684267</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N47" s="13">
         <f t="shared" si="5"/>
         <v>9.0770754479403415E-2</v>
       </c>
-      <c r="O47" s="15">
+      <c r="O47" s="13">
         <v>1</v>
       </c>
       <c r="Q47" s="1">
@@ -16080,7 +16284,7 @@
       <c r="T47" t="s">
         <v>93</v>
       </c>
-      <c r="V47" t="s">
+      <c r="U47" t="s">
         <v>105</v>
       </c>
     </row>
@@ -16112,11 +16316,11 @@
         <f t="shared" si="1"/>
         <v>-3.5342920724649565</v>
       </c>
-      <c r="N48" s="15">
+      <c r="N48" s="13">
         <f t="shared" si="5"/>
         <v>7.9636080582604407E-2</v>
       </c>
-      <c r="O48" s="15">
+      <c r="O48" s="13">
         <v>1</v>
       </c>
       <c r="Q48" s="1">
@@ -16125,11 +16329,11 @@
       <c r="R48" s="5">
         <v>2.4810439999999998</v>
       </c>
-      <c r="V48" t="s">
+      <c r="U48" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="4:22" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D49" s="6">
         <v>-0.39999999999999902</v>
       </c>
@@ -16157,11 +16361,11 @@
         <f t="shared" si="1"/>
         <v>-3.5949827566442139</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N49" s="13">
         <f t="shared" si="5"/>
         <v>6.9535430641805451E-2</v>
       </c>
-      <c r="O49" s="15">
+      <c r="O49" s="13">
         <v>1</v>
       </c>
       <c r="Q49" s="1">
@@ -16174,7 +16378,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="4:22" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D50" s="6">
         <v>-0.37999999999999901</v>
       </c>
@@ -16202,11 +16406,11 @@
         <f t="shared" si="1"/>
         <v>-3.6512888112270527</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N50" s="13">
         <f t="shared" si="5"/>
         <v>6.039891644205353E-2</v>
       </c>
-      <c r="O50" s="15">
+      <c r="O50" s="13">
         <v>1</v>
       </c>
       <c r="Q50" s="1">
@@ -16215,11 +16419,11 @@
       <c r="R50" s="5">
         <v>2.159411</v>
       </c>
-      <c r="V50" t="s">
+      <c r="U50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="4:22" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D51" s="6">
         <v>-0.35999999999999899</v>
       </c>
@@ -16247,11 +16451,11 @@
         <f t="shared" si="1"/>
         <v>-3.7033920771538975</v>
       </c>
-      <c r="N51" s="15">
+      <c r="N51" s="13">
         <f t="shared" si="5"/>
         <v>5.216032170052598E-2</v>
       </c>
-      <c r="O51" s="15">
+      <c r="O51" s="13">
         <v>1</v>
       </c>
       <c r="Q51" s="1">
@@ -16264,7 +16468,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="4:22" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D52" s="6">
         <v>-0.33999999999999903</v>
       </c>
@@ -16292,11 +16496,11 @@
         <f t="shared" si="1"/>
         <v>-3.7514676513882379</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N52" s="13">
         <f t="shared" si="5"/>
         <v>4.4756936218217191E-2</v>
       </c>
-      <c r="O52" s="15">
+      <c r="O52" s="13">
         <v>1</v>
       </c>
       <c r="Q52" s="1">
@@ -16309,7 +16513,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="4:22" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D53" s="6">
         <v>-0.31999999999999901</v>
       </c>
@@ -16337,11 +16541,11 @@
         <f t="shared" si="1"/>
         <v>-3.7956841288229608</v>
       </c>
-      <c r="N53" s="15">
+      <c r="N53" s="13">
         <f t="shared" si="5"/>
         <v>3.8129396867199183E-2</v>
       </c>
-      <c r="O53" s="15">
+      <c r="O53" s="13">
         <v>1</v>
       </c>
       <c r="Q53" s="1">
@@ -16353,11 +16557,11 @@
       <c r="T53" t="s">
         <v>89</v>
       </c>
-      <c r="V53" t="s">
+      <c r="U53" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="4:22" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D54" s="6">
         <v>-0.29999999999999899</v>
       </c>
@@ -16385,11 +16589,11 @@
         <f t="shared" si="1"/>
         <v>-3.8362038356039978</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N54" s="13">
         <f t="shared" si="5"/>
         <v>3.2221535147314295E-2</v>
       </c>
-      <c r="O54" s="15">
+      <c r="O54" s="13">
         <v>1</v>
       </c>
       <c r="Q54" s="1">
@@ -16402,7 +16606,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="4:22" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D55" s="6">
         <v>-0.27999999999999903</v>
       </c>
@@ -16430,11 +16634,11 @@
         <f t="shared" si="1"/>
         <v>-3.8731830541747123</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N55" s="13">
         <f t="shared" si="5"/>
         <v>2.698023105610492E-2</v>
       </c>
-      <c r="O55" s="15">
+      <c r="O55" s="13">
         <v>1</v>
       </c>
       <c r="Q55" s="1">
@@ -16444,7 +16648,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="56" spans="4:22" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D56" s="6">
         <v>-0.25999999999999901</v>
       </c>
@@ -16472,18 +16676,18 @@
         <f t="shared" si="1"/>
         <v>-3.9067722403336376</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N56" s="13">
         <f t="shared" si="5"/>
         <v>2.2355273025519651E-2</v>
       </c>
-      <c r="O56" s="15">
+      <c r="O56" s="13">
         <v>1</v>
       </c>
       <c r="Q56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="4:22" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D57" s="6">
         <v>-0.23999999999999899</v>
       </c>
@@ -16511,15 +16715,15 @@
         <f t="shared" si="1"/>
         <v>-3.9371162325879614</v>
       </c>
-      <c r="N57" s="15">
+      <c r="N57" s="13">
         <f t="shared" si="5"/>
         <v>1.8299223688071464E-2</v>
       </c>
-      <c r="O57" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="4:22" x14ac:dyDescent="0.4">
+      <c r="O57" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D58" s="6">
         <v>-0.219999999999999</v>
       </c>
@@ -16547,15 +16751,15 @@
         <f t="shared" si="1"/>
         <v>-3.9643544540750901</v>
       </c>
-      <c r="N58" s="15">
+      <c r="N58" s="13">
         <f t="shared" si="5"/>
         <v>1.4767291244206504E-2</v>
       </c>
-      <c r="O58" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="4:22" x14ac:dyDescent="0.4">
+      <c r="O58" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D59" s="6">
         <v>-0.19999999999999901</v>
       </c>
@@ -16583,15 +16787,15 @@
         <f t="shared" si="1"/>
         <v>-3.9886211073150708</v>
       </c>
-      <c r="N59" s="15">
+      <c r="N59" s="13">
         <f t="shared" si="5"/>
         <v>1.1717206211117492E-2</v>
       </c>
-      <c r="O59" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="4:22" x14ac:dyDescent="0.4">
+      <c r="O59" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D60" s="6">
         <v>-0.17999999999999899</v>
       </c>
@@ -16619,15 +16823,15 @@
         <f t="shared" si="1"/>
         <v>-4.0100453620473324</v>
       </c>
-      <c r="N60" s="15">
+      <c r="N60" s="13">
         <f t="shared" si="5"/>
         <v>9.1091033416352829E-3</v>
       </c>
-      <c r="O60" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="4:22" x14ac:dyDescent="0.4">
+      <c r="O60" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D61" s="6">
         <v>-0.159999999999999</v>
       </c>
@@ -16655,15 +16859,15 @@
         <f t="shared" si="1"/>
         <v>-4.0287515363962978</v>
       </c>
-      <c r="N61" s="15">
+      <c r="N61" s="13">
         <f t="shared" si="5"/>
         <v>6.9054085096995621E-3</v>
       </c>
-      <c r="O61" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="4:22" x14ac:dyDescent="0.4">
+      <c r="O61" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D62" s="6">
         <v>-0.13999999999999899</v>
       </c>
@@ -16691,15 +16895,15 @@
         <f t="shared" si="1"/>
         <v>-4.044859271601724</v>
       </c>
-      <c r="N62" s="15">
+      <c r="N62" s="13">
         <f t="shared" si="5"/>
         <v>5.0707303667563153E-3</v>
       </c>
-      <c r="O62" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="4:22" x14ac:dyDescent="0.4">
+      <c r="O62" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D63" s="6">
         <v>-0.119999999999999</v>
       </c>
@@ -16727,15 +16931,15 @@
         <f t="shared" si="1"/>
         <v>-4.0584837005413874</v>
       </c>
-      <c r="N63" s="15">
+      <c r="N63" s="13">
         <f t="shared" si="5"/>
         <v>3.571756580662111E-3</v>
       </c>
-      <c r="O63" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="4:22" x14ac:dyDescent="0.4">
+      <c r="O63" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D64" s="6">
         <v>-9.9999999999999006E-2</v>
       </c>
@@ -16763,11 +16967,11 @@
         <f t="shared" si="1"/>
         <v>-4.0697356102656066</v>
       </c>
-      <c r="N64" s="15">
+      <c r="N64" s="13">
         <f t="shared" si="5"/>
         <v>2.3771544759254581E-3</v>
       </c>
-      <c r="O64" s="15">
+      <c r="O64" s="13">
         <v>1</v>
       </c>
     </row>
@@ -16799,11 +17003,11 @@
         <f t="shared" si="1"/>
         <v>-4.0787215987553811</v>
       </c>
-      <c r="N65" s="15">
+      <c r="N65" s="13">
         <f t="shared" si="5"/>
         <v>1.4574759009979843E-3</v>
       </c>
-      <c r="O65" s="15">
+      <c r="O65" s="13">
         <v>1</v>
       </c>
     </row>
@@ -16835,11 +17039,11 @@
         <f t="shared" si="1"/>
         <v>-4.0855442261084978</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N66" s="13">
         <f t="shared" si="5"/>
         <v>7.8506615480300468E-4</v>
       </c>
-      <c r="O66" s="15">
+      <c r="O66" s="13">
         <v>1</v>
       </c>
     </row>
@@ -16871,11 +17075,11 @@
         <f t="shared" si="1"/>
         <v>-4.0903021603506176</v>
       </c>
-      <c r="N67" s="15">
+      <c r="N67" s="13">
         <f t="shared" si="5"/>
         <v>3.339768112748942E-4</v>
       </c>
-      <c r="O67" s="15">
+      <c r="O67" s="13">
         <v>1</v>
       </c>
     </row>
@@ -16907,11 +17111,11 @@
         <f t="shared" si="1"/>
         <v>-4.0930903180615363</v>
       </c>
-      <c r="N68" s="15">
+      <c r="N68" s="13">
         <f t="shared" si="5"/>
         <v>0.7988228661126584</v>
       </c>
-      <c r="O68" s="15">
+      <c r="O68" s="13">
         <v>10000</v>
       </c>
     </row>
@@ -16946,11 +17150,11 @@
         <f t="shared" si="1"/>
         <v>-4.0939999999999985</v>
       </c>
-      <c r="N69" s="15">
+      <c r="N69" s="13">
         <f t="shared" si="5"/>
         <v>1.7763568394002505E-11</v>
       </c>
-      <c r="O69" s="15">
+      <c r="O69" s="13">
         <v>10000</v>
       </c>
       <c r="P69" t="s">
@@ -16985,11 +17189,11 @@
         <f t="shared" si="1"/>
         <v>-4.093119021904017</v>
       </c>
-      <c r="N70" s="15">
+      <c r="N70" s="13">
         <f t="shared" si="5"/>
         <v>0.73013984196457216</v>
       </c>
-      <c r="O70" s="15">
+      <c r="O70" s="13">
         <v>10000</v>
       </c>
     </row>
@@ -17021,11 +17225,11 @@
         <f t="shared" si="1"/>
         <v>-4.090531840637377</v>
       </c>
-      <c r="N71" s="15">
+      <c r="N71" s="13">
         <f t="shared" si="5"/>
         <v>2.7900180781870176E-4</v>
       </c>
-      <c r="O71" s="15">
+      <c r="O71" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17057,11 +17261,11 @@
         <f t="shared" si="1"/>
         <v>-4.0863196758469957</v>
       </c>
-      <c r="N72" s="15">
+      <c r="N72" s="13">
         <f t="shared" si="5"/>
         <v>5.9936467655319348E-4</v>
       </c>
-      <c r="O72" s="15">
+      <c r="O72" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17093,11 +17297,11 @@
         <f t="shared" si="1"/>
         <v>-4.0805606272899881</v>
       </c>
-      <c r="N73" s="15">
+      <c r="N73" s="13">
         <f t="shared" si="5"/>
         <v>1.0167605854496387E-3</v>
       </c>
-      <c r="O73" s="15">
+      <c r="O73" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17129,11 +17333,11 @@
         <f t="shared" si="1"/>
         <v>-4.0733297879836492</v>
       </c>
-      <c r="N74" s="15">
+      <c r="N74" s="13">
         <f t="shared" si="5"/>
         <v>1.5150403994921291E-3</v>
       </c>
-      <c r="O74" s="15">
+      <c r="O74" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17165,11 +17369,11 @@
         <f t="shared" si="1"/>
         <v>-4.064699353326219</v>
       </c>
-      <c r="N75" s="15">
+      <c r="N75" s="13">
         <f t="shared" si="5"/>
         <v>2.0791867442300216E-3</v>
       </c>
-      <c r="O75" s="15">
+      <c r="O75" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17201,11 +17405,11 @@
         <f t="shared" si="1"/>
         <v>-4.054738726330994</v>
       </c>
-      <c r="N76" s="15">
+      <c r="N76" s="13">
         <f t="shared" si="5"/>
         <v>2.6952555928971833E-3</v>
       </c>
-      <c r="O76" s="15">
+      <c r="O76" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17237,11 +17441,11 @@
         <f t="shared" si="1"/>
         <v>-4.0435146191113915</v>
       </c>
-      <c r="N77" s="15">
+      <c r="N77" s="13">
         <f t="shared" si="5"/>
         <v>3.3503204407043796E-3</v>
       </c>
-      <c r="O77" s="15">
+      <c r="O77" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17273,11 +17477,11 @@
         <f t="shared" si="1"/>
         <v>-4.0310911507496305</v>
       </c>
-      <c r="N78" s="15">
+      <c r="N78" s="13">
         <f t="shared" si="5"/>
         <v>4.0324189613114569E-3</v>
       </c>
-      <c r="O78" s="15">
+      <c r="O78" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17309,11 +17513,11 @@
         <f t="shared" si="1"/>
         <v>-4.0175299416770915</v>
       </c>
-      <c r="N79" s="15">
+      <c r="N79" s="13">
         <f t="shared" si="5"/>
         <v>4.7305020444170509E-3</v>
       </c>
-      <c r="O79" s="15">
+      <c r="O79" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17345,11 +17549,11 @@
         <f t="shared" si="1"/>
         <v>-4.0028902046898356</v>
       </c>
-      <c r="N80" s="15">
+      <c r="N80" s="13">
         <f t="shared" si="5"/>
         <v>5.4343851173968005E-3</v>
       </c>
-      <c r="O80" s="15">
+      <c r="O80" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17381,11 +17585,11 @@
         <f t="shared" si="1"/>
         <v>-3.9872288327184231</v>
       </c>
-      <c r="N81" s="15">
+      <c r="N81" s="13">
         <f t="shared" si="5"/>
         <v>6.1347016575998836E-3</v>
       </c>
-      <c r="O81" s="15">
+      <c r="O81" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17417,11 +17621,11 @@
         <f t="shared" si="1"/>
         <v>-3.9706004834669519</v>
       </c>
-      <c r="N82" s="15">
+      <c r="N82" s="13">
         <f t="shared" si="5"/>
         <v>6.8228588055969652E-3</v>
       </c>
-      <c r="O82" s="15">
+      <c r="O82" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17453,11 +17657,11 @@
         <f t="shared" ref="M83:M146" si="8">$L$9*$O$6*EXP(-$O$7*(G83/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G83/$L$10-1))</f>
         <v>-3.9530576610322052</v>
       </c>
-      <c r="N83" s="15">
+      <c r="N83" s="13">
         <f t="shared" si="5"/>
         <v>7.4909949930623831E-3</v>
       </c>
-      <c r="O83" s="15">
+      <c r="O83" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17489,11 +17693,11 @@
         <f t="shared" si="8"/>
         <v>-3.9346507946098388</v>
       </c>
-      <c r="N84" s="15">
+      <c r="N84" s="13">
         <f t="shared" ref="N84:N147" si="12">(M84-H84)*O84</f>
         <v>8.1319395024004315E-3</v>
       </c>
-      <c r="O84" s="15">
+      <c r="O84" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17525,11 +17729,11 @@
         <f t="shared" si="8"/>
         <v>-3.9154283143907973</v>
       </c>
-      <c r="N85" s="15">
+      <c r="N85" s="13">
         <f t="shared" si="12"/>
         <v>8.7391738783946238E-3</v>
       </c>
-      <c r="O85" s="15">
+      <c r="O85" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17561,11 +17765,11 @@
         <f t="shared" si="8"/>
         <v>-3.895436724747483</v>
       </c>
-      <c r="N86" s="15">
+      <c r="N86" s="13">
         <f t="shared" si="12"/>
         <v>9.3067951152834283E-3</v>
       </c>
-      <c r="O86" s="15">
+      <c r="O86" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17597,11 +17801,11 @@
         <f t="shared" si="8"/>
         <v>-3.8747206748056824</v>
       </c>
-      <c r="N87" s="15">
+      <c r="N87" s="13">
         <f t="shared" si="12"/>
         <v>9.8294805456471401E-3</v>
       </c>
-      <c r="O87" s="15">
+      <c r="O87" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17633,11 +17837,11 @@
         <f t="shared" si="8"/>
         <v>-3.8533230264948957</v>
       </c>
-      <c r="N88" s="15">
+      <c r="N88" s="13">
         <f t="shared" si="12"/>
         <v>1.0302454360335389E-2</v>
       </c>
-      <c r="O88" s="15">
+      <c r="O88" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17669,11 +17873,11 @@
         <f t="shared" si="8"/>
         <v>-3.8312849201663868</v>
       </c>
-      <c r="N89" s="15">
+      <c r="N89" s="13">
         <f t="shared" si="12"/>
         <v>1.0721455691483861E-2</v>
       </c>
-      <c r="O89" s="15">
+      <c r="O89" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17705,11 +17909,11 @@
         <f t="shared" si="8"/>
         <v>-3.8086458378651677</v>
       </c>
-      <c r="N90" s="15">
+      <c r="N90" s="13">
         <f t="shared" si="12"/>
         <v>1.1082708193268509E-2</v>
       </c>
-      <c r="O90" s="15">
+      <c r="O90" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17741,11 +17945,11 @@
         <f t="shared" si="8"/>
         <v>-3.7854436643390508</v>
       </c>
-      <c r="N91" s="15">
+      <c r="N91" s="13">
         <f t="shared" si="12"/>
         <v>1.1382891057657663E-2</v>
       </c>
-      <c r="O91" s="15">
+      <c r="O91" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17777,11 +17981,11 @@
         <f t="shared" si="8"/>
         <v>-3.761714745864988</v>
       </c>
-      <c r="N92" s="15">
+      <c r="N92" s="13">
         <f t="shared" si="12"/>
         <v>1.1619111404830296E-2</v>
       </c>
-      <c r="O92" s="15">
+      <c r="O92" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17813,11 +18017,11 @@
         <f t="shared" si="8"/>
         <v>-3.7374939469700585</v>
       </c>
-      <c r="N93" s="15">
+      <c r="N93" s="13">
         <f t="shared" si="12"/>
         <v>1.1788877990365432E-2</v>
       </c>
-      <c r="O93" s="15">
+      <c r="O93" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17849,11 +18053,11 @@
         <f t="shared" si="8"/>
         <v>-3.7128147051217617</v>
       </c>
-      <c r="N94" s="15">
+      <c r="N94" s="13">
         <f t="shared" si="12"/>
         <v>1.1890076173520114E-2</v>
       </c>
-      <c r="O94" s="15">
+      <c r="O94" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17885,11 +18089,11 @@
         <f t="shared" si="8"/>
         <v>-3.6877090834595894</v>
       </c>
-      <c r="N95" s="15">
+      <c r="N95" s="13">
         <f t="shared" si="12"/>
         <v>1.1920944093174235E-2</v>
       </c>
-      <c r="O95" s="15">
+      <c r="O95" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17921,11 +18125,11 @@
         <f t="shared" si="8"/>
         <v>-3.6622078216373648</v>
       </c>
-      <c r="N96" s="15">
+      <c r="N96" s="13">
         <f t="shared" si="12"/>
         <v>1.1880050000070419E-2</v>
       </c>
-      <c r="O96" s="15">
+      <c r="O96" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17957,11 +18161,11 @@
         <f t="shared" si="8"/>
         <v>-3.6363403848433378</v>
       </c>
-      <c r="N97" s="15">
+      <c r="N97" s="13">
         <f t="shared" si="12"/>
         <v>1.1766270696057735E-2</v>
       </c>
-      <c r="O97" s="15">
+      <c r="O97" s="13">
         <v>1</v>
       </c>
     </row>
@@ -17993,11 +18197,11 @@
         <f t="shared" si="8"/>
         <v>-3.6101350110626651</v>
       </c>
-      <c r="N98" s="15">
+      <c r="N98" s="13">
         <f t="shared" si="12"/>
         <v>1.1578771032969559E-2</v>
       </c>
-      <c r="O98" s="15">
+      <c r="O98" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18029,11 +18233,11 @@
         <f t="shared" si="8"/>
         <v>-3.5836187566446291</v>
       </c>
-      <c r="N99" s="15">
+      <c r="N99" s="13">
         <f t="shared" si="12"/>
         <v>1.1316984425681742E-2</v>
       </c>
-      <c r="O99" s="15">
+      <c r="O99" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18065,11 +18269,11 @@
         <f t="shared" si="8"/>
         <v>-3.5568175402347566</v>
       </c>
-      <c r="N100" s="15">
+      <c r="N100" s="13">
         <f t="shared" si="12"/>
         <v>1.098059433565135E-2</v>
       </c>
-      <c r="O100" s="15">
+      <c r="O100" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18101,11 +18305,11 @@
         <f t="shared" si="8"/>
         <v>-3.5297561851298234</v>
       </c>
-      <c r="N101" s="15">
+      <c r="N101" s="13">
         <f t="shared" si="12"/>
         <v>1.0569516683051727E-2</v>
       </c>
-      <c r="O101" s="15">
+      <c r="O101" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18137,11 +18341,11 @@
         <f t="shared" si="8"/>
         <v>-3.5024584601117659</v>
       </c>
-      <c r="N102" s="15">
+      <c r="N102" s="13">
         <f t="shared" si="12"/>
         <v>1.0083883147202322E-2</v>
       </c>
-      <c r="O102" s="15">
+      <c r="O102" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18173,11 +18377,11 @@
         <f t="shared" si="8"/>
         <v>-3.4749471188144185</v>
       </c>
-      <c r="N103" s="15">
+      <c r="N103" s="13">
         <f t="shared" si="12"/>
         <v>9.5240253167179212E-3</v>
       </c>
-      <c r="O103" s="15">
+      <c r="O103" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18209,11 +18413,11 @@
         <f t="shared" si="8"/>
         <v>-3.4472439376752351</v>
       </c>
-      <c r="N104" s="15">
+      <c r="N104" s="13">
         <f t="shared" si="12"/>
         <v>8.8904596522172419E-3</v>
       </c>
-      <c r="O104" s="15">
+      <c r="O104" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18245,11 +18449,11 @@
         <f t="shared" si="8"/>
         <v>-3.4193697525221816</v>
       </c>
-      <c r="N105" s="15">
+      <c r="N105" s="13">
         <f t="shared" si="12"/>
         <v>8.1838732260322011E-3</v>
       </c>
-      <c r="O105" s="15">
+      <c r="O105" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18281,11 +18485,11 @@
         <f t="shared" si="8"/>
         <v>-3.3913444938442803</v>
       </c>
-      <c r="N106" s="15">
+      <c r="N106" s="13">
         <f t="shared" si="12"/>
         <v>7.4051102047394401E-3</v>
       </c>
-      <c r="O106" s="15">
+      <c r="O106" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18317,11 +18521,11 @@
         <f t="shared" si="8"/>
         <v>-3.3631872207925699</v>
       </c>
-      <c r="N107" s="15">
+      <c r="N107" s="13">
         <f t="shared" si="12"/>
         <v>6.5551590417105565E-3</v>
       </c>
-      <c r="O107" s="15">
+      <c r="O107" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18353,11 +18557,11 @@
         <f t="shared" si="8"/>
         <v>-3.3349161539565473</v>
       </c>
-      <c r="N108" s="15">
+      <c r="N108" s="13">
         <f t="shared" si="12"/>
         <v>5.6351403482342022E-3</v>
       </c>
-      <c r="O108" s="15">
+      <c r="O108" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18389,11 +18593,11 @@
         <f t="shared" si="8"/>
         <v>-3.3065487069596258</v>
       </c>
-      <c r="N109" s="15">
+      <c r="N109" s="13">
         <f t="shared" si="12"/>
         <v>4.6462954130039869E-3</v>
       </c>
-      <c r="O109" s="15">
+      <c r="O109" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18425,11 +18629,11 @@
         <f t="shared" si="8"/>
         <v>-3.2781015169155632</v>
       </c>
-      <c r="N110" s="15">
+      <c r="N110" s="13">
         <f t="shared" si="12"/>
         <v>3.5899753409980306E-3</v>
       </c>
-      <c r="O110" s="15">
+      <c r="O110" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18461,11 +18665,11 @@
         <f t="shared" si="8"/>
         <v>-3.2495904737863182</v>
       </c>
-      <c r="N111" s="15">
+      <c r="N111" s="13">
         <f t="shared" si="12"/>
         <v>2.4676307840021394E-3</v>
       </c>
-      <c r="O111" s="15">
+      <c r="O111" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18497,11 +18701,11 @@
         <f t="shared" si="8"/>
         <v>-3.2210307486804233</v>
       </c>
-      <c r="N112" s="15">
+      <c r="N112" s="13">
         <f t="shared" si="12"/>
         <v>1.2808022360633053</v>
       </c>
-      <c r="O112" s="15">
+      <c r="O112" s="13">
         <v>1000</v>
       </c>
     </row>
@@ -18533,11 +18737,11 @@
         <f t="shared" si="8"/>
         <v>-3.1924368211295082</v>
       </c>
-      <c r="N113" s="15">
+      <c r="N113" s="13">
         <f t="shared" si="12"/>
         <v>3.1110868352612897E-2</v>
       </c>
-      <c r="O113" s="15">
+      <c r="O113" s="13">
         <v>1000</v>
       </c>
     </row>
@@ -18569,11 +18773,11 @@
         <f t="shared" si="8"/>
         <v>-3.1638225053793225</v>
       </c>
-      <c r="N114" s="15">
+      <c r="N114" s="13">
         <f t="shared" si="12"/>
         <v>-1.2797501210983775</v>
       </c>
-      <c r="O114" s="15">
+      <c r="O114" s="13">
         <v>1000</v>
       </c>
     </row>
@@ -18605,11 +18809,11 @@
         <f t="shared" si="8"/>
         <v>-3.1352009757303123</v>
       </c>
-      <c r="N115" s="15">
+      <c r="N115" s="13">
         <f t="shared" si="12"/>
         <v>-2.6500236663107302E-3</v>
       </c>
-      <c r="O115" s="15">
+      <c r="O115" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18641,11 +18845,11 @@
         <f t="shared" si="8"/>
         <v>-3.1065847909615352</v>
       </c>
-      <c r="N116" s="15">
+      <c r="N116" s="13">
         <f t="shared" si="12"/>
         <v>-4.077896523431157E-3</v>
       </c>
-      <c r="O116" s="15">
+      <c r="O116" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18677,11 +18881,11 @@
         <f t="shared" si="8"/>
         <v>-3.0779859178705649</v>
       </c>
-      <c r="N117" s="15">
+      <c r="N117" s="13">
         <f t="shared" si="12"/>
         <v>-5.561506513631187E-3</v>
       </c>
-      <c r="O117" s="15">
+      <c r="O117" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18713,11 +18917,11 @@
         <f t="shared" si="8"/>
         <v>-3.0494157539608109</v>
       </c>
-      <c r="N118" s="15">
+      <c r="N118" s="13">
         <f t="shared" si="12"/>
         <v>-7.0989493395035019E-3</v>
       </c>
-      <c r="O118" s="15">
+      <c r="O118" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18749,11 +18953,11 @@
         <f t="shared" si="8"/>
         <v>-3.0208851493066256</v>
       </c>
-      <c r="N119" s="15">
+      <c r="N119" s="13">
         <f t="shared" si="12"/>
         <v>-8.6882849948555219E-3</v>
       </c>
-      <c r="O119" s="15">
+      <c r="O119" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18785,11 +18989,11 @@
         <f t="shared" si="8"/>
         <v>-2.9924044276254378</v>
       </c>
-      <c r="N120" s="15">
+      <c r="N120" s="13">
         <f t="shared" si="12"/>
         <v>-1.0327543786900595E-2</v>
       </c>
-      <c r="O120" s="15">
+      <c r="O120" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18821,11 +19025,11 @@
         <f t="shared" si="8"/>
         <v>-2.9639834065851964</v>
       </c>
-      <c r="N121" s="15">
+      <c r="N121" s="13">
         <f t="shared" si="12"/>
         <v>-1.2014731989134386E-2</v>
       </c>
-      <c r="O121" s="15">
+      <c r="O121" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18857,11 +19061,11 @@
         <f t="shared" si="8"/>
         <v>-2.9356314173743097</v>
       </c>
-      <c r="N122" s="15">
+      <c r="N122" s="13">
         <f t="shared" si="12"/>
         <v>-1.3747837142324304E-2</v>
       </c>
-      <c r="O122" s="15">
+      <c r="O122" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18893,11 +19097,11 @@
         <f t="shared" si="8"/>
         <v>-2.9073573235604036</v>
       </c>
-      <c r="N123" s="15">
+      <c r="N123" s="13">
         <f t="shared" si="12"/>
         <v>-1.552483302041141E-2</v>
       </c>
-      <c r="O123" s="15">
+      <c r="O123" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18929,11 +19133,11 @@
         <f t="shared" si="8"/>
         <v>-2.8791695392631884</v>
       </c>
-      <c r="N124" s="15">
+      <c r="N124" s="13">
         <f t="shared" si="12"/>
         <v>-1.7343684277319138E-2</v>
       </c>
-      <c r="O124" s="15">
+      <c r="O124" s="13">
         <v>1</v>
       </c>
     </row>
@@ -18965,11 +19169,11 @@
         <f t="shared" si="8"/>
         <v>-2.8510760466659351</v>
       </c>
-      <c r="N125" s="15">
+      <c r="N125" s="13">
         <f t="shared" si="12"/>
         <v>-1.9202350790080924E-2</v>
       </c>
-      <c r="O125" s="15">
+      <c r="O125" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19001,11 +19205,11 @@
         <f t="shared" si="8"/>
         <v>-2.8230844128890942</v>
       </c>
-      <c r="N126" s="15">
+      <c r="N126" s="13">
         <f t="shared" si="12"/>
         <v>-2.1098791712965248E-2</v>
       </c>
-      <c r="O126" s="15">
+      <c r="O126" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19037,11 +19241,11 @@
         <f t="shared" si="8"/>
         <v>-2.7952018062488357</v>
       </c>
-      <c r="N127" s="15">
+      <c r="N127" s="13">
         <f t="shared" si="12"/>
         <v>-2.303096925672099E-2</v>
       </c>
-      <c r="O127" s="15">
+      <c r="O127" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19073,11 +19277,11 @@
         <f t="shared" si="8"/>
         <v>-2.7674350119224358</v>
       </c>
-      <c r="N128" s="15">
+      <c r="N128" s="13">
         <f t="shared" si="12"/>
         <v>-2.4996852206427445E-2</v>
       </c>
-      <c r="O128" s="15">
+      <c r="O128" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19109,11 +19313,11 @@
         <f t="shared" si="8"/>
         <v>-2.7397904470416656</v>
       </c>
-      <c r="N129" s="15">
+      <c r="N129" s="13">
         <f t="shared" si="12"/>
         <v>-2.6994419190842667E-2</v>
       </c>
-      <c r="O129" s="15">
+      <c r="O129" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19145,11 +19349,11 @@
         <f t="shared" si="8"/>
         <v>-2.7122741752346151</v>
       </c>
-      <c r="N130" s="15">
+      <c r="N130" s="13">
         <f t="shared" si="12"/>
         <v>-2.9021661715665559E-2</v>
       </c>
-      <c r="O130" s="15">
+      <c r="O130" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19181,11 +19385,11 @@
         <f t="shared" si="8"/>
         <v>-2.6848919206356379</v>
       </c>
-      <c r="N131" s="15">
+      <c r="N131" s="13">
         <f t="shared" si="12"/>
         <v>-3.1076586972497378E-2</v>
       </c>
-      <c r="O131" s="15">
+      <c r="O131" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19217,11 +19421,11 @@
         <f t="shared" si="8"/>
         <v>-2.6576490813823836</v>
       </c>
-      <c r="N132" s="15">
+      <c r="N132" s="13">
         <f t="shared" si="12"/>
         <v>-3.3157220434848256E-2</v>
       </c>
-      <c r="O132" s="15">
+      <c r="O132" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19253,11 +19457,11 @@
         <f t="shared" si="8"/>
         <v>-2.6305507426182846</v>
       </c>
-      <c r="N133" s="15">
+      <c r="N133" s="13">
         <f t="shared" si="12"/>
         <v>-3.5261608252024956E-2</v>
       </c>
-      <c r="O133" s="15">
+      <c r="O133" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19289,11 +19493,11 @@
         <f t="shared" si="8"/>
         <v>-2.6036016890181273</v>
       </c>
-      <c r="N134" s="15">
+      <c r="N134" s="13">
         <f t="shared" si="12"/>
         <v>-3.7387819451257798E-2</v>
       </c>
-      <c r="O134" s="15">
+      <c r="O134" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19325,11 +19529,11 @@
         <f t="shared" si="8"/>
         <v>-2.5768064168537741</v>
       </c>
-      <c r="N135" s="15">
+      <c r="N135" s="13">
         <f t="shared" si="12"/>
         <v>-3.9533947957969939E-2</v>
       </c>
-      <c r="O135" s="15">
+      <c r="O135" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19361,11 +19565,11 @@
         <f t="shared" si="8"/>
         <v>-2.5501691456164757</v>
       </c>
-      <c r="N136" s="15">
+      <c r="N136" s="13">
         <f t="shared" si="12"/>
         <v>-4.1698114443696088E-2</v>
       </c>
-      <c r="O136" s="15">
+      <c r="O136" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19397,11 +19601,11 @@
         <f t="shared" si="8"/>
         <v>-2.5236938292116178</v>
       </c>
-      <c r="N137" s="15">
+      <c r="N137" s="13">
         <f t="shared" si="12"/>
         <v>-4.3878468010673188E-2</v>
       </c>
-      <c r="O137" s="15">
+      <c r="O137" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19433,11 +19637,11 @@
         <f t="shared" si="8"/>
         <v>-2.4973841667412193</v>
       </c>
-      <c r="N138" s="15">
+      <c r="N138" s="13">
         <f t="shared" si="12"/>
         <v>-4.6073187721808573E-2</v>
       </c>
-      <c r="O138" s="15">
+      <c r="O138" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19469,11 +19673,11 @@
         <f t="shared" si="8"/>
         <v>-2.4712436128889221</v>
       </c>
-      <c r="N139" s="15">
+      <c r="N139" s="13">
         <f t="shared" si="12"/>
         <v>-4.8280483984273648E-2</v>
       </c>
-      <c r="O139" s="15">
+      <c r="O139" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19505,11 +19709,11 @@
         <f t="shared" si="8"/>
         <v>-2.4452753879217077</v>
       </c>
-      <c r="N140" s="15">
+      <c r="N140" s="13">
         <f t="shared" si="12"/>
         <v>-5.0498599794657206E-2</v>
       </c>
-      <c r="O140" s="15">
+      <c r="O140" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19541,11 +19745,11 @@
         <f t="shared" si="8"/>
         <v>-2.4194824873220653</v>
       </c>
-      <c r="N141" s="15">
+      <c r="N141" s="13">
         <f t="shared" si="12"/>
         <v>-5.2725811853225224E-2</v>
       </c>
-      <c r="O141" s="15">
+      <c r="O141" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19577,11 +19781,11 @@
         <f t="shared" si="8"/>
         <v>-2.3938676910638521</v>
       </c>
-      <c r="N142" s="15">
+      <c r="N142" s="13">
         <f t="shared" si="12"/>
         <v>-5.4960431554515576E-2</v>
       </c>
-      <c r="O142" s="15">
+      <c r="O142" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19613,11 +19817,11 @@
         <f t="shared" si="8"/>
         <v>-2.3684335725446184</v>
       </c>
-      <c r="N143" s="15">
+      <c r="N143" s="13">
         <f t="shared" si="12"/>
         <v>-5.7200805861161275E-2</v>
       </c>
-      <c r="O143" s="15">
+      <c r="O143" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19649,11 +19853,11 @@
         <f t="shared" si="8"/>
         <v>-2.3431825071867123</v>
       </c>
-      <c r="N144" s="15">
+      <c r="N144" s="13">
         <f t="shared" si="12"/>
         <v>-5.9445318067532948E-2</v>
       </c>
-      <c r="O144" s="15">
+      <c r="O144" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19685,11 +19889,11 @@
         <f t="shared" si="8"/>
         <v>-2.3181166807190405</v>
       </c>
-      <c r="N145" s="15">
+      <c r="N145" s="13">
         <f t="shared" si="12"/>
         <v>-6.1692388459475112E-2</v>
       </c>
-      <c r="O145" s="15">
+      <c r="O145" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19721,11 +19925,11 @@
         <f t="shared" si="8"/>
         <v>-2.2932380971509527</v>
       </c>
-      <c r="N146" s="15">
+      <c r="N146" s="13">
         <f t="shared" si="12"/>
         <v>-6.3940474876151399E-2</v>
       </c>
-      <c r="O146" s="15">
+      <c r="O146" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19757,11 +19961,11 @@
         <f t="shared" ref="M147:M210" si="15">$L$9*$O$6*EXP(-$O$7*(G147/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G147/$L$10-1))</f>
         <v>-2.2685485864492914</v>
       </c>
-      <c r="N147" s="15">
+      <c r="N147" s="13">
         <f t="shared" si="12"/>
         <v>-6.6188073179708429E-2</v>
       </c>
-      <c r="O147" s="15">
+      <c r="O147" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19793,11 +19997,11 @@
         <f t="shared" si="15"/>
         <v>-2.2440498119292784</v>
       </c>
-      <c r="N148" s="15">
+      <c r="N148" s="13">
         <f t="shared" ref="N148:N211" si="19">(M148-H148)*O148</f>
         <v>-6.8433717638233027E-2</v>
       </c>
-      <c r="O148" s="15">
+      <c r="O148" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19829,11 +20033,11 @@
         <f t="shared" si="15"/>
         <v>-2.2197432773695134</v>
       </c>
-      <c r="N149" s="15">
+      <c r="N149" s="13">
         <f t="shared" si="19"/>
         <v>-7.0675981227203533E-2</v>
       </c>
-      <c r="O149" s="15">
+      <c r="O149" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19865,11 +20069,11 @@
         <f t="shared" si="15"/>
         <v>-2.1956303338609913</v>
       </c>
-      <c r="N150" s="15">
+      <c r="N150" s="13">
         <f t="shared" si="19"/>
         <v>-7.2913475854397003E-2</v>
       </c>
-      <c r="O150" s="15">
+      <c r="O150" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19901,11 +20105,11 @@
         <f t="shared" si="15"/>
         <v>-2.1717121863997262</v>
       </c>
-      <c r="N151" s="15">
+      <c r="N151" s="13">
         <f t="shared" si="19"/>
         <v>-7.5144852513000071E-2</v>
       </c>
-      <c r="O151" s="15">
+      <c r="O151" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19937,11 +20141,11 @@
         <f t="shared" si="15"/>
         <v>-2.1479899002321874</v>
       </c>
-      <c r="N152" s="15">
+      <c r="N152" s="13">
         <f t="shared" si="19"/>
         <v>-7.73688013674243E-2</v>
       </c>
-      <c r="O152" s="15">
+      <c r="O152" s="13">
         <v>1</v>
       </c>
     </row>
@@ -19973,11 +20177,11 @@
         <f t="shared" si="15"/>
         <v>-2.1244644069624457</v>
       </c>
-      <c r="N153" s="15">
+      <c r="N153" s="13">
         <f t="shared" si="19"/>
         <v>-7.95840517761226E-2</v>
       </c>
-      <c r="O153" s="15">
+      <c r="O153" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20009,11 +20213,11 @@
         <f t="shared" si="15"/>
         <v>-2.1011365104296336</v>
       </c>
-      <c r="N154" s="15">
+      <c r="N154" s="13">
         <f t="shared" si="19"/>
         <v>-8.1789372255514969E-2</v>
       </c>
-      <c r="O154" s="15">
+      <c r="O154" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20045,11 +20249,11 @@
         <f t="shared" si="15"/>
         <v>-2.0780068923639563</v>
       </c>
-      <c r="N155" s="15">
+      <c r="N155" s="13">
         <f t="shared" si="19"/>
         <v>-8.3983570388899365E-2</v>
       </c>
-      <c r="O155" s="15">
+      <c r="O155" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20081,11 +20285,11 @@
         <f t="shared" si="15"/>
         <v>-2.0550761178292709</v>
       </c>
-      <c r="N156" s="15">
+      <c r="N156" s="13">
         <f t="shared" si="19"/>
         <v>-8.6165492684071143E-2</v>
       </c>
-      <c r="O156" s="15">
+      <c r="O156" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20117,11 +20321,11 @@
         <f t="shared" si="15"/>
         <v>-2.0323446404599244</v>
       </c>
-      <c r="N157" s="15">
+      <c r="N157" s="13">
         <f t="shared" si="19"/>
         <v>-8.8334024383194043E-2</v>
       </c>
-      <c r="O157" s="15">
+      <c r="O157" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20153,11 +20357,11 @@
         <f t="shared" si="15"/>
         <v>-2.0098128074992547</v>
       </c>
-      <c r="N158" s="15">
+      <c r="N158" s="13">
         <f t="shared" si="19"/>
         <v>-9.048808922824314E-2</v>
       </c>
-      <c r="O158" s="15">
+      <c r="O158" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20189,11 +20393,11 @@
         <f t="shared" si="15"/>
         <v>-1.9874808646469475</v>
       </c>
-      <c r="N159" s="15">
+      <c r="N159" s="13">
         <f t="shared" si="19"/>
         <v>-9.262664918525676E-2</v>
       </c>
-      <c r="O159" s="15">
+      <c r="O159" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20225,11 +20429,11 @@
         <f t="shared" si="15"/>
         <v>-1.9653489607221273</v>
       </c>
-      <c r="N160" s="15">
+      <c r="N160" s="13">
         <f t="shared" si="19"/>
         <v>-9.4748704130398931E-2</v>
       </c>
-      <c r="O160" s="15">
+      <c r="O160" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20261,11 +20465,11 @@
         <f t="shared" si="15"/>
         <v>-1.9434171521488637</v>
       </c>
-      <c r="N161" s="15">
+      <c r="N161" s="13">
         <f t="shared" si="19"/>
         <v>-9.6853291500741179E-2</v>
       </c>
-      <c r="O161" s="15">
+      <c r="O161" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20297,11 +20501,11 @@
         <f t="shared" si="15"/>
         <v>-1.9216854072705076</v>
       </c>
-      <c r="N162" s="15">
+      <c r="N162" s="13">
         <f t="shared" si="19"/>
         <v>-9.8939485912485692E-2</v>
       </c>
-      <c r="O162" s="15">
+      <c r="O162" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20333,11 +20537,11 @@
         <f t="shared" si="15"/>
         <v>-1.9001536104990473</v>
       </c>
-      <c r="N163" s="15">
+      <c r="N163" s="13">
         <f t="shared" si="19"/>
         <v>-0.10100639874924111</v>
       </c>
-      <c r="O163" s="15">
+      <c r="O163" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20369,11 +20573,11 @@
         <f t="shared" si="15"/>
         <v>-1.8788215663054686</v>
       </c>
-      <c r="N164" s="15">
+      <c r="N164" s="13">
         <f t="shared" si="19"/>
         <v>-0.10305317772281142</v>
       </c>
-      <c r="O164" s="15">
+      <c r="O164" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20405,11 +20609,11 @@
         <f t="shared" si="15"/>
         <v>-1.8576890030568869</v>
       </c>
-      <c r="N165" s="15">
+      <c r="N165" s="13">
         <f t="shared" si="19"/>
         <v>-0.10507900640885848</v>
       </c>
-      <c r="O165" s="15">
+      <c r="O165" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20441,11 +20645,11 @@
         <f t="shared" si="15"/>
         <v>-1.8367555767059807</v>
       </c>
-      <c r="N166" s="15">
+      <c r="N166" s="13">
         <f t="shared" si="19"/>
         <v>-0.10708310375962826</v>
       </c>
-      <c r="O166" s="15">
+      <c r="O166" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20477,11 +20681,11 @@
         <f t="shared" si="15"/>
         <v>-1.8160208743381236</v>
       </c>
-      <c r="N167" s="15">
+      <c r="N167" s="13">
         <f t="shared" si="19"/>
         <v>-0.10906472359587926</v>
       </c>
-      <c r="O167" s="15">
+      <c r="O167" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20513,11 +20717,11 @@
         <f t="shared" si="15"/>
         <v>-1.7954844175813494</v>
       </c>
-      <c r="N168" s="15">
+      <c r="N168" s="13">
         <f t="shared" si="19"/>
         <v>-0.11102315407997954</v>
       </c>
-      <c r="O168" s="15">
+      <c r="O168" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20549,11 +20753,11 @@
         <f t="shared" si="15"/>
         <v>-1.7751456658841556</v>
       </c>
-      <c r="N169" s="15">
+      <c r="N169" s="13">
         <f t="shared" si="19"/>
         <v>-0.11295771717207836</v>
       </c>
-      <c r="O169" s="15">
+      <c r="O169" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20585,11 +20789,11 @@
         <f t="shared" si="15"/>
         <v>-1.7550040196659471</v>
       </c>
-      <c r="N170" s="15">
+      <c r="N170" s="13">
         <f t="shared" si="19"/>
         <v>-0.11486776807113164</v>
       </c>
-      <c r="O170" s="15">
+      <c r="O170" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20621,11 +20825,11 @@
         <f t="shared" si="15"/>
         <v>-1.7350588233447439</v>
       </c>
-      <c r="N171" s="15">
+      <c r="N171" s="13">
         <f t="shared" si="19"/>
         <v>-0.11675269464246574</v>
       </c>
-      <c r="O171" s="15">
+      <c r="O171" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20657,11 +20861,11 @@
         <f t="shared" si="15"/>
         <v>-1.7153093682466403</v>
       </c>
-      <c r="N172" s="15">
+      <c r="N172" s="13">
         <f t="shared" si="19"/>
         <v>-0.11861191683348782</v>
       </c>
-      <c r="O172" s="15">
+      <c r="O172" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20693,11 +20897,11 @@
         <f t="shared" si="15"/>
         <v>-1.6957548954013173</v>
       </c>
-      <c r="N173" s="15">
+      <c r="N173" s="13">
         <f t="shared" si="19"/>
         <v>-0.12044488607904813</v>
       </c>
-      <c r="O173" s="15">
+      <c r="O173" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20729,11 +20933,11 @@
         <f t="shared" si="15"/>
         <v>-1.6763945982277593</v>
       </c>
-      <c r="N174" s="15">
+      <c r="N174" s="13">
         <f t="shared" si="19"/>
         <v>-0.12225108469786461</v>
       </c>
-      <c r="O174" s="15">
+      <c r="O174" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20765,11 +20969,11 @@
         <f t="shared" si="15"/>
         <v>-1.6572276251141973</v>
       </c>
-      <c r="N175" s="15">
+      <c r="N175" s="13">
         <f t="shared" si="19"/>
         <v>-0.12403002528137708</v>
       </c>
-      <c r="O175" s="15">
+      <c r="O175" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20801,11 +21005,11 @@
         <f t="shared" si="15"/>
         <v>-1.6382530818961321</v>
       </c>
-      <c r="N176" s="15">
+      <c r="N176" s="13">
         <f t="shared" si="19"/>
         <v>-0.12578125007627694</v>
       </c>
-      <c r="O176" s="15">
+      <c r="O176" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20837,11 +21041,11 @@
         <f t="shared" si="15"/>
         <v>-1.6194700342361699</v>
       </c>
-      <c r="N177" s="15">
+      <c r="N177" s="13">
         <f t="shared" si="19"/>
         <v>-0.12750433036191344</v>
       </c>
-      <c r="O177" s="15">
+      <c r="O177" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20873,11 +21077,11 @@
         <f t="shared" si="15"/>
         <v>-1.6008775099092687</v>
       </c>
-      <c r="N178" s="15">
+      <c r="N178" s="13">
         <f t="shared" si="19"/>
         <v>-0.1291988658237031</v>
       </c>
-      <c r="O178" s="15">
+      <c r="O178" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20909,11 +21113,11 @@
         <f t="shared" si="15"/>
         <v>-1.5824745009968491</v>
       </c>
-      <c r="N179" s="15">
+      <c r="N179" s="13">
         <f t="shared" si="19"/>
         <v>-0.1308644839235853</v>
       </c>
-      <c r="O179" s="15">
+      <c r="O179" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20945,11 +21149,11 @@
         <f t="shared" si="15"/>
         <v>-1.564259965993124</v>
       </c>
-      <c r="N180" s="15">
+      <c r="N180" s="13">
         <f t="shared" si="19"/>
         <v>-0.13250083926852718</v>
       </c>
-      <c r="O180" s="15">
+      <c r="O180" s="13">
         <v>1</v>
       </c>
     </row>
@@ -20981,11 +21185,11 @@
         <f t="shared" si="15"/>
         <v>-1.5462328318268721</v>
       </c>
-      <c r="N181" s="15">
+      <c r="N181" s="13">
         <f t="shared" si="19"/>
         <v>-0.13410761297801033</v>
       </c>
-      <c r="O181" s="15">
+      <c r="O181" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21017,11 +21221,11 @@
         <f t="shared" si="15"/>
         <v>-1.5283919958017385</v>
       </c>
-      <c r="N182" s="15">
+      <c r="N182" s="13">
         <f t="shared" si="19"/>
         <v>-0.13568451205135235</v>
       </c>
-      <c r="O182" s="15">
+      <c r="O182" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21053,11 +21257,11 @@
         <f t="shared" si="15"/>
         <v>-1.5107363274580963</v>
       </c>
-      <c r="N183" s="15">
+      <c r="N183" s="13">
         <f t="shared" si="19"/>
         <v>-0.13723126873571001</v>
       </c>
-      <c r="O183" s="15">
+      <c r="O183" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21089,11 +21293,11 @@
         <f t="shared" si="15"/>
         <v>-1.4932646703593226</v>
       </c>
-      <c r="N184" s="15">
+      <c r="N184" s="13">
         <f t="shared" si="19"/>
         <v>-0.13874763989549943</v>
       </c>
-      <c r="O184" s="15">
+      <c r="O184" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21125,11 +21329,11 @@
         <f t="shared" si="15"/>
         <v>-1.4759758438053001</v>
       </c>
-      <c r="N185" s="15">
+      <c r="N185" s="13">
         <f t="shared" si="19"/>
         <v>-0.14023340638396964</v>
       </c>
-      <c r="O185" s="15">
+      <c r="O185" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21161,11 +21365,11 @@
         <f t="shared" si="15"/>
         <v>-1.4588686444758145</v>
       </c>
-      <c r="N186" s="15">
+      <c r="N186" s="13">
         <f t="shared" si="19"/>
         <v>-0.14168837241758192</v>
       </c>
-      <c r="O186" s="15">
+      <c r="O186" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21197,11 +21401,11 @@
         <f t="shared" si="15"/>
         <v>-1.4419418480064485</v>
       </c>
-      <c r="N187" s="15">
+      <c r="N187" s="13">
         <f t="shared" si="19"/>
         <v>-0.14311236495382484</v>
       </c>
-      <c r="O187" s="15">
+      <c r="O187" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21233,11 +21437,11 @@
         <f t="shared" si="15"/>
         <v>-1.4251942104994606</v>
       </c>
-      <c r="N188" s="15">
+      <c r="N188" s="13">
         <f t="shared" si="19"/>
         <v>-0.14450523307303298</v>
       </c>
-      <c r="O188" s="15">
+      <c r="O188" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21269,11 +21473,11 @@
         <f t="shared" si="15"/>
         <v>-1.40862446997206</v>
       </c>
-      <c r="N189" s="15">
+      <c r="N189" s="13">
         <f t="shared" si="19"/>
         <v>-0.14586684736475353</v>
       </c>
-      <c r="O189" s="15">
+      <c r="O189" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21305,11 +21509,11 @@
         <f t="shared" si="15"/>
         <v>-1.3922313477444013</v>
       </c>
-      <c r="N190" s="15">
+      <c r="N190" s="13">
         <f t="shared" si="19"/>
         <v>-0.14719709931915248</v>
       </c>
-      <c r="O190" s="15">
+      <c r="O190" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21341,11 +21545,11 @@
         <f t="shared" si="15"/>
         <v>-1.3760135497695372</v>
       </c>
-      <c r="N191" s="15">
+      <c r="N191" s="13">
         <f t="shared" si="19"/>
         <v>-0.14849590072392815</v>
       </c>
-      <c r="O191" s="15">
+      <c r="O191" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21377,11 +21581,11 @@
         <f t="shared" si="15"/>
         <v>-1.3599697679074738</v>
       </c>
-      <c r="N192" s="15">
+      <c r="N192" s="13">
         <f t="shared" si="19"/>
         <v>-0.14976318306713643</v>
       </c>
-      <c r="O192" s="15">
+      <c r="O192" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21413,11 +21617,11 @@
         <f t="shared" si="15"/>
         <v>-1.3440986811454299</v>
       </c>
-      <c r="N193" s="15">
+      <c r="N193" s="13">
         <f t="shared" si="19"/>
         <v>-0.15099889694634294</v>
       </c>
-      <c r="O193" s="15">
+      <c r="O193" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21449,11 +21653,11 @@
         <f t="shared" si="15"/>
         <v>-1.3283989567662944</v>
       </c>
-      <c r="N194" s="15">
+      <c r="N194" s="13">
         <f t="shared" si="19"/>
         <v>-0.15220301148444837</v>
       </c>
-      <c r="O194" s="15">
+      <c r="O194" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21485,11 +21689,11 @@
         <f t="shared" si="15"/>
         <v>-1.312869251467204</v>
       </c>
-      <c r="N195" s="15">
+      <c r="N195" s="13">
         <f t="shared" si="19"/>
         <v>-0.15337551375250191</v>
       </c>
-      <c r="O195" s="15">
+      <c r="O195" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21521,11 +21725,11 @@
         <f t="shared" si="15"/>
         <v>-1.2975082124301363</v>
       </c>
-      <c r="N196" s="15">
+      <c r="N196" s="13">
         <f t="shared" si="19"/>
         <v>-0.15451640819983403</v>
       </c>
-      <c r="O196" s="15">
+      <c r="O196" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21557,11 +21761,11 @@
         <f t="shared" si="15"/>
         <v>-1.282314478346277</v>
       </c>
-      <c r="N197" s="15">
+      <c r="N197" s="13">
         <f t="shared" si="19"/>
         <v>-0.15562571609174292</v>
       </c>
-      <c r="O197" s="15">
+      <c r="O197" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21593,11 +21797,11 @@
         <f t="shared" si="15"/>
         <v>-1.2672866803959255</v>
       </c>
-      <c r="N198" s="15">
+      <c r="N198" s="13">
         <f t="shared" si="19"/>
         <v>-0.15670347495501002</v>
       </c>
-      <c r="O198" s="15">
+      <c r="O198" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21629,11 +21833,11 @@
         <f t="shared" si="15"/>
         <v>-1.2524234431855932</v>
       </c>
-      <c r="N199" s="15">
+      <c r="N199" s="13">
         <f t="shared" si="19"/>
         <v>-0.15774973803145453</v>
       </c>
-      <c r="O199" s="15">
+      <c r="O199" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21665,11 +21869,11 @@
         <f t="shared" si="15"/>
         <v>-1.2377233856438996</v>
       </c>
-      <c r="N200" s="15">
+      <c r="N200" s="13">
         <f t="shared" si="19"/>
         <v>-0.15876457373971231</v>
       </c>
-      <c r="O200" s="15">
+      <c r="O200" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21701,11 +21905,11 @@
         <f t="shared" si="15"/>
         <v>-1.2231851218778358</v>
       </c>
-      <c r="N201" s="15">
+      <c r="N201" s="13">
         <f t="shared" si="19"/>
         <v>-0.15974806514544171</v>
       </c>
-      <c r="O201" s="15">
+      <c r="O201" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21737,11 +21941,11 @@
         <f t="shared" si="15"/>
         <v>-1.2088072619908732</v>
       </c>
-      <c r="N202" s="15">
+      <c r="N202" s="13">
         <f t="shared" si="19"/>
         <v>-0.1607003094400874</v>
       </c>
-      <c r="O202" s="15">
+      <c r="O202" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21773,11 +21977,11 @@
         <f t="shared" si="15"/>
         <v>-1.1945884128643749</v>
       </c>
-      <c r="N203" s="15">
+      <c r="N203" s="13">
         <f t="shared" si="19"/>
         <v>-0.16162141742835612</v>
       </c>
-      <c r="O203" s="15">
+      <c r="O203" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21809,11 +22013,11 @@
         <f t="shared" si="15"/>
         <v>-1.1805271789036804</v>
       </c>
-      <c r="N204" s="15">
+      <c r="N204" s="13">
         <f t="shared" si="19"/>
         <v>-0.16251151302449895</v>
       </c>
-      <c r="O204" s="15">
+      <c r="O204" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21845,11 +22049,11 @@
         <f t="shared" si="15"/>
         <v>-1.166622162750224</v>
       </c>
-      <c r="N205" s="15">
+      <c r="N205" s="13">
         <f t="shared" si="19"/>
         <v>-0.16337073275752334</v>
       </c>
-      <c r="O205" s="15">
+      <c r="O205" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21881,11 +22085,11 @@
         <f t="shared" si="15"/>
         <v>-1.1528719659609645</v>
       </c>
-      <c r="N206" s="15">
+      <c r="N206" s="13">
         <f t="shared" si="19"/>
         <v>-0.16419922528540176</v>
       </c>
-      <c r="O206" s="15">
+      <c r="O206" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21917,11 +22121,11 @@
         <f t="shared" si="15"/>
         <v>-1.1392751896563833</v>
       </c>
-      <c r="N207" s="15">
+      <c r="N207" s="13">
         <f t="shared" si="19"/>
         <v>-0.16499715091835532</v>
       </c>
-      <c r="O207" s="15">
+      <c r="O207" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21953,11 +22157,11 @@
         <f t="shared" si="15"/>
         <v>-1.1258304351382187</v>
       </c>
-      <c r="N208" s="15">
+      <c r="N208" s="13">
         <f t="shared" si="19"/>
         <v>-0.16576468115123799</v>
       </c>
-      <c r="O208" s="15">
+      <c r="O208" s="13">
         <v>1</v>
       </c>
     </row>
@@ -21989,11 +22193,11 @@
         <f t="shared" si="15"/>
         <v>-1.1125363044781549</v>
       </c>
-      <c r="N209" s="15">
+      <c r="N209" s="13">
         <f t="shared" si="19"/>
         <v>-0.1665019982051138</v>
       </c>
-      <c r="O209" s="15">
+      <c r="O209" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22025,11 +22229,11 @@
         <f t="shared" si="15"/>
         <v>-1.0993914010785009</v>
       </c>
-      <c r="N210" s="15">
+      <c r="N210" s="13">
         <f t="shared" si="19"/>
         <v>-0.16720929457798139</v>
       </c>
-      <c r="O210" s="15">
+      <c r="O210" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22061,11 +22265,11 @@
         <f t="shared" ref="M211:M274" si="22">$L$9*$O$6*EXP(-$O$7*(G211/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G211/$L$10-1))</f>
         <v>-1.0863943302060037</v>
       </c>
-      <c r="N211" s="15">
+      <c r="N211" s="13">
         <f t="shared" si="19"/>
         <v>-0.16788677260472484</v>
       </c>
-      <c r="O211" s="15">
+      <c r="O211" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22097,11 +22301,11 @@
         <f t="shared" si="22"/>
         <v>-1.0735436994997825</v>
       </c>
-      <c r="N212" s="15">
+      <c r="N212" s="13">
         <f t="shared" ref="N212:N275" si="26">(M212-H212)*O212</f>
         <v>-0.16853464402624418</v>
       </c>
-      <c r="O212" s="15">
+      <c r="O212" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22133,11 +22337,11 @@
         <f t="shared" si="22"/>
         <v>-1.0608381194544081</v>
       </c>
-      <c r="N213" s="15">
+      <c r="N213" s="13">
         <f t="shared" si="26"/>
         <v>-0.16915312956778739</v>
       </c>
-      <c r="O213" s="15">
+      <c r="O213" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22169,11 +22373,11 @@
         <f t="shared" si="22"/>
         <v>-1.0482762038790794</v>
       </c>
-      <c r="N214" s="15">
+      <c r="N214" s="13">
         <f t="shared" si="26"/>
         <v>-0.16974245852644765</v>
       </c>
-      <c r="O214" s="15">
+      <c r="O214" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22205,11 +22409,11 @@
         <f t="shared" si="22"/>
         <v>-1.0358565703338254</v>
       </c>
-      <c r="N215" s="15">
+      <c r="N215" s="13">
         <f t="shared" si="26"/>
         <v>-0.17030286836780772</v>
       </c>
-      <c r="O215" s="15">
+      <c r="O215" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22241,11 +22445,11 @@
         <f t="shared" si="22"/>
         <v>-1.0235778405436105</v>
       </c>
-      <c r="N216" s="15">
+      <c r="N216" s="13">
         <f t="shared" si="26"/>
         <v>-0.17083460433167319</v>
       </c>
-      <c r="O216" s="15">
+      <c r="O216" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22277,11 +22481,11 @@
         <f t="shared" si="22"/>
         <v>-1.0114386407912437</v>
       </c>
-      <c r="N217" s="15">
+      <c r="N217" s="13">
         <f t="shared" si="26"/>
         <v>-0.171337919046891</v>
       </c>
-      <c r="O217" s="15">
+      <c r="O217" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22313,11 +22517,11 @@
         <f t="shared" si="22"/>
         <v>-0.99943760228986456</v>
       </c>
-      <c r="N218" s="15">
+      <c r="N218" s="13">
         <f t="shared" si="26"/>
         <v>-0.17181307215514463</v>
       </c>
-      <c r="O218" s="15">
+      <c r="O218" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22349,11 +22553,11 @@
         <f t="shared" si="22"/>
         <v>-0.98757336153585296</v>
       </c>
-      <c r="N219" s="15">
+      <c r="N219" s="13">
         <f t="shared" si="26"/>
         <v>-0.17226032994371299</v>
       </c>
-      <c r="O219" s="15">
+      <c r="O219" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22385,11 +22589,11 @@
         <f t="shared" si="22"/>
         <v>-0.97584456064290215</v>
       </c>
-      <c r="N220" s="15">
+      <c r="N220" s="13">
         <f t="shared" si="26"/>
         <v>-0.17267996498709626</v>
       </c>
-      <c r="O220" s="15">
+      <c r="O220" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22421,11 +22625,11 @@
         <f t="shared" si="22"/>
         <v>-0.9642498476580128</v>
       </c>
-      <c r="N221" s="15">
+      <c r="N221" s="13">
         <f t="shared" si="26"/>
         <v>-0.17307225579745034</v>
       </c>
-      <c r="O221" s="15">
+      <c r="O221" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22457,11 +22661,11 @@
         <f t="shared" si="22"/>
         <v>-0.95278787686011335</v>
       </c>
-      <c r="N222" s="15">
+      <c r="N222" s="13">
         <f t="shared" si="26"/>
         <v>-0.1734374864837438</v>
       </c>
-      <c r="O222" s="15">
+      <c r="O222" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22493,11 +22697,11 @@
         <f t="shared" si="22"/>
         <v>-0.94145730904199787</v>
       </c>
-      <c r="N223" s="15">
+      <c r="N223" s="13">
         <f t="shared" si="26"/>
         <v>-0.17377594641955496</v>
       </c>
-      <c r="O223" s="15">
+      <c r="O223" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22529,11 +22733,11 @@
         <f t="shared" si="22"/>
         <v>-0.93025681177624786</v>
       </c>
-      <c r="N224" s="15">
+      <c r="N224" s="13">
         <f t="shared" si="26"/>
         <v>-0.17408792991942279</v>
       </c>
-      <c r="O224" s="15">
+      <c r="O224" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22565,11 +22769,11 @@
         <f t="shared" si="22"/>
         <v>-0.9191850596657658</v>
       </c>
-      <c r="N225" s="15">
+      <c r="N225" s="13">
         <f t="shared" si="26"/>
         <v>-0.1743737359236488</v>
       </c>
-      <c r="O225" s="15">
+      <c r="O225" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22601,11 +22805,11 @@
         <f t="shared" si="22"/>
         <v>-0.90824073457955123</v>
       </c>
-      <c r="N226" s="15">
+      <c r="N226" s="13">
         <f t="shared" si="26"/>
         <v>-0.17463366769146682</v>
       </c>
-      <c r="O226" s="15">
+      <c r="O226" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22637,11 +22841,11 @@
         <f t="shared" si="22"/>
         <v>-0.89742252587429761</v>
       </c>
-      <c r="N227" s="15">
+      <c r="N227" s="13">
         <f t="shared" si="26"/>
         <v>-0.17486803250246497</v>
       </c>
-      <c r="O227" s="15">
+      <c r="O227" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22673,11 +22877,11 @@
         <f t="shared" si="22"/>
         <v>-0.886729130602393</v>
       </c>
-      <c r="N228" s="15">
+      <c r="N228" s="13">
         <f t="shared" si="26"/>
         <v>-0.17507714136616648</v>
       </c>
-      <c r="O228" s="15">
+      <c r="O228" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22709,11 +22913,11 @@
         <f t="shared" si="22"/>
         <v>-0.87615925370686043</v>
       </c>
-      <c r="N229" s="15">
+      <c r="N229" s="13">
         <f t="shared" si="26"/>
         <v>-0.17526130873964907</v>
       </c>
-      <c r="O229" s="15">
+      <c r="O229" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22745,11 +22949,11 @@
         <f t="shared" si="22"/>
         <v>-0.8657116082037839</v>
       </c>
-      <c r="N230" s="15">
+      <c r="N230" s="13">
         <f t="shared" si="26"/>
         <v>-0.17542085225310988</v>
       </c>
-      <c r="O230" s="15">
+      <c r="O230" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22781,11 +22985,11 @@
         <f t="shared" si="22"/>
         <v>-0.8553849153527161</v>
       </c>
-      <c r="N231" s="15">
+      <c r="N231" s="13">
         <f t="shared" si="26"/>
         <v>-0.17555609244324311</v>
       </c>
-      <c r="O231" s="15">
+      <c r="O231" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22817,11 +23021,11 @@
         <f t="shared" si="22"/>
         <v>-0.84517790481556965</v>
       </c>
-      <c r="N232" s="15">
+      <c r="N232" s="13">
         <f t="shared" si="26"/>
         <v>-0.17566735249433374</v>
       </c>
-      <c r="O232" s="15">
+      <c r="O232" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22853,11 +23057,11 @@
         <f t="shared" si="22"/>
         <v>-0.83508931480445481</v>
       </c>
-      <c r="N233" s="15">
+      <c r="N233" s="13">
         <f t="shared" si="26"/>
         <v>-0.17575495798693486</v>
       </c>
-      <c r="O233" s="15">
+      <c r="O233" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22889,11 +23093,11 @@
         <f t="shared" si="22"/>
         <v>-0.82511789221892851</v>
       </c>
-      <c r="N234" s="15">
+      <c r="N234" s="13">
         <f t="shared" si="26"/>
         <v>-0.175819236654019</v>
       </c>
-      <c r="O234" s="15">
+      <c r="O234" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22925,11 +23129,11 @@
         <f t="shared" si="22"/>
         <v>-0.81526239277309043</v>
       </c>
-      <c r="N235" s="15">
+      <c r="N235" s="13">
         <f t="shared" si="26"/>
         <v>-0.17586051814448489</v>
       </c>
-      <c r="O235" s="15">
+      <c r="O235" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22961,11 +23165,11 @@
         <f t="shared" si="22"/>
         <v>-0.80552158111294747</v>
       </c>
-      <c r="N236" s="15">
+      <c r="N236" s="13">
         <f t="shared" si="26"/>
         <v>-0.17587913379389164</v>
       </c>
-      <c r="O236" s="15">
+      <c r="O236" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22997,11 +23201,11 @@
         <f t="shared" si="22"/>
         <v>-0.79589423092444445</v>
       </c>
-      <c r="N237" s="15">
+      <c r="N237" s="13">
         <f t="shared" si="26"/>
         <v>-0.17587541640229221</v>
       </c>
-      <c r="O237" s="15">
+      <c r="O237" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23033,11 +23237,11 @@
         <f t="shared" si="22"/>
         <v>-0.78637912503258511</v>
       </c>
-      <c r="N238" s="15">
+      <c r="N238" s="13">
         <f t="shared" si="26"/>
         <v>-0.17584970001907529</v>
       </c>
-      <c r="O238" s="15">
+      <c r="O238" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23069,11 +23273,11 @@
         <f t="shared" si="22"/>
         <v>-0.77697505549196877</v>
       </c>
-      <c r="N239" s="15">
+      <c r="N239" s="13">
         <f t="shared" si="26"/>
         <v>-0.17580231973463878</v>
       </c>
-      <c r="O239" s="15">
+      <c r="O239" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23105,11 +23309,11 @@
         <f t="shared" si="22"/>
         <v>-0.76768082366915913</v>
       </c>
-      <c r="N240" s="15">
+      <c r="N240" s="13">
         <f t="shared" si="26"/>
         <v>-0.17573361147882471</v>
       </c>
-      <c r="O240" s="15">
+      <c r="O240" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23141,11 +23345,11 @@
         <f t="shared" si="22"/>
         <v>-0.7584952403171944</v>
       </c>
-      <c r="N241" s="15">
+      <c r="N241" s="13">
         <f t="shared" si="26"/>
         <v>-0.17564391182595118</v>
       </c>
-      <c r="O241" s="15">
+      <c r="O241" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23177,11 +23381,11 @@
         <f t="shared" si="22"/>
         <v>-0.74941712564259477</v>
       </c>
-      <c r="N242" s="15">
+      <c r="N242" s="13">
         <f t="shared" si="26"/>
         <v>-0.17553355780633428</v>
       </c>
-      <c r="O242" s="15">
+      <c r="O242" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23213,11 +23417,11 @@
         <f t="shared" si="22"/>
         <v>-0.74044530936519737</v>
       </c>
-      <c r="N243" s="15">
+      <c r="N243" s="13">
         <f t="shared" si="26"/>
         <v>-0.1754028867241858</v>
       </c>
-      <c r="O243" s="15">
+      <c r="O243" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23249,11 +23453,11 @@
         <f t="shared" si="22"/>
         <v>-0.73157863077110374</v>
       </c>
-      <c r="N244" s="15">
+      <c r="N244" s="13">
         <f t="shared" si="26"/>
         <v>-0.1752522359817299</v>
       </c>
-      <c r="O244" s="15">
+      <c r="O244" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23285,11 +23489,11 @@
         <f t="shared" si="22"/>
         <v>-0.72281593875906813</v>
       </c>
-      <c r="N245" s="15">
+      <c r="N245" s="13">
         <f t="shared" si="26"/>
         <v>-0.17508194290944679</v>
       </c>
-      <c r="O245" s="15">
+      <c r="O245" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23321,11 +23525,11 @@
         <f t="shared" si="22"/>
         <v>-0.71415609188059848</v>
       </c>
-      <c r="N246" s="15">
+      <c r="N246" s="13">
         <f t="shared" si="26"/>
         <v>-0.17489234460230152</v>
       </c>
-      <c r="O246" s="15">
+      <c r="O246" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23357,11 +23561,11 @@
         <f t="shared" si="22"/>
         <v>-0.70559795837405614</v>
       </c>
-      <c r="N247" s="15">
+      <c r="N247" s="13">
         <f t="shared" si="26"/>
         <v>-0.17468377776184263</v>
       </c>
-      <c r="O247" s="15">
+      <c r="O247" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23393,11 +23597,11 @@
         <f t="shared" si="22"/>
         <v>-0.6971404161930167</v>
       </c>
-      <c r="N248" s="15">
+      <c r="N248" s="13">
         <f t="shared" si="26"/>
         <v>-0.1744565785440424</v>
       </c>
-      <c r="O248" s="15">
+      <c r="O248" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23429,11 +23633,11 @@
         <f t="shared" si="22"/>
         <v>-0.68878235302915269</v>
       </c>
-      <c r="N249" s="15">
+      <c r="N249" s="13">
         <f t="shared" si="26"/>
         <v>-0.17421108241276029</v>
       </c>
-      <c r="O249" s="15">
+      <c r="O249" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23465,11 +23669,11 @@
         <f t="shared" si="22"/>
         <v>-0.68052266632987801</v>
       </c>
-      <c r="N250" s="15">
+      <c r="N250" s="13">
         <f t="shared" si="26"/>
         <v>-0.17394762399870156</v>
       </c>
-      <c r="O250" s="15">
+      <c r="O250" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23501,11 +23705,11 @@
         <f t="shared" si="22"/>
         <v>-0.67236026331101328</v>
       </c>
-      <c r="N251" s="15">
+      <c r="N251" s="13">
         <f t="shared" si="26"/>
         <v>-0.17366653696377016</v>
       </c>
-      <c r="O251" s="15">
+      <c r="O251" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23537,11 +23741,11 @@
         <f t="shared" si="22"/>
         <v>-0.66429406096466748</v>
       </c>
-      <c r="N252" s="15">
+      <c r="N252" s="13">
         <f t="shared" si="26"/>
         <v>-0.17336815387066346</v>
       </c>
-      <c r="O252" s="15">
+      <c r="O252" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23573,11 +23777,11 @@
         <f t="shared" si="22"/>
         <v>-0.65632298606258865</v>
       </c>
-      <c r="N253" s="15">
+      <c r="N253" s="13">
         <f t="shared" si="26"/>
         <v>-0.17305280605762208</v>
       </c>
-      <c r="O253" s="15">
+      <c r="O253" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23609,11 +23813,11 @@
         <f t="shared" si="22"/>
         <v>-0.64844597515517566</v>
       </c>
-      <c r="N254" s="15">
+      <c r="N254" s="13">
         <f t="shared" si="26"/>
         <v>-0.17272082351819917</v>
       </c>
-      <c r="O254" s="15">
+      <c r="O254" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23645,11 +23849,11 @@
         <f t="shared" si="22"/>
         <v>-0.64066197456636431</v>
       </c>
-      <c r="N255" s="15">
+      <c r="N255" s="13">
         <f t="shared" si="26"/>
         <v>-0.17237253478593978</v>
       </c>
-      <c r="O255" s="15">
+      <c r="O255" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23681,11 +23885,11 @@
         <f t="shared" si="22"/>
         <v>-0.6329699403845791</v>
       </c>
-      <c r="N256" s="15">
+      <c r="N256" s="13">
         <f t="shared" si="26"/>
         <v>-0.17200826682385206</v>
       </c>
-      <c r="O256" s="15">
+      <c r="O256" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23717,11 +23921,11 @@
         <f t="shared" si="22"/>
         <v>-0.62536883844994273</v>
       </c>
-      <c r="N257" s="15">
+      <c r="N257" s="13">
         <f t="shared" si="26"/>
         <v>-0.17162834491855977</v>
       </c>
-      <c r="O257" s="15">
+      <c r="O257" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23753,11 +23957,11 @@
         <f t="shared" si="22"/>
         <v>-0.61785764433791579</v>
       </c>
-      <c r="N258" s="15">
+      <c r="N258" s="13">
         <f t="shared" si="26"/>
         <v>-0.17123309257901526</v>
       </c>
-      <c r="O258" s="15">
+      <c r="O258" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23789,11 +23993,11 @@
         <f t="shared" si="22"/>
         <v>-0.61043534333956229</v>
       </c>
-      <c r="N259" s="15">
+      <c r="N259" s="13">
         <f t="shared" si="26"/>
         <v>-0.17082283143968086</v>
       </c>
-      <c r="O259" s="15">
+      <c r="O259" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23825,11 +24029,11 @@
         <f t="shared" si="22"/>
         <v>-0.60310093043857838</v>
       </c>
-      <c r="N260" s="15">
+      <c r="N260" s="13">
         <f t="shared" si="26"/>
         <v>-0.17039788116804228</v>
       </c>
-      <c r="O260" s="15">
+      <c r="O260" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23861,11 +24065,11 @@
         <f t="shared" si="22"/>
         <v>-0.59585341028527028</v>
       </c>
-      <c r="N261" s="15">
+      <c r="N261" s="13">
         <f t="shared" si="26"/>
         <v>-0.16995855937636728</v>
       </c>
-      <c r="O261" s="15">
+      <c r="O261" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23897,11 +24101,11 @@
         <f t="shared" si="22"/>
         <v>-0.58869179716762499</v>
       </c>
-      <c r="N262" s="15">
+      <c r="N262" s="13">
         <f t="shared" si="26"/>
         <v>-0.16950518153759331</v>
       </c>
-      <c r="O262" s="15">
+      <c r="O262" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23933,11 +24137,11 @@
         <f t="shared" si="22"/>
         <v>-0.58161511497962126</v>
       </c>
-      <c r="N263" s="15">
+      <c r="N263" s="13">
         <f t="shared" si="26"/>
         <v>-0.16903806090523671</v>
       </c>
-      <c r="O263" s="15">
+      <c r="O263" s="13">
         <v>1</v>
       </c>
     </row>
@@ -23969,11 +24173,11 @@
         <f t="shared" si="22"/>
         <v>-0.57462239718693631</v>
       </c>
-      <c r="N264" s="15">
+      <c r="N264" s="13">
         <f t="shared" si="26"/>
         <v>-0.16855750843723266</v>
       </c>
-      <c r="O264" s="15">
+      <c r="O264" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24005,11 +24209,11 @@
         <f t="shared" si="22"/>
         <v>-0.56771268679016362</v>
       </c>
-      <c r="N265" s="15">
+      <c r="N265" s="13">
         <f t="shared" si="26"/>
         <v>-0.16806383272357994</v>
       </c>
-      <c r="O265" s="15">
+      <c r="O265" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24041,11 +24245,11 @@
         <f t="shared" si="22"/>
         <v>-0.56088503628569686</v>
       </c>
-      <c r="N266" s="15">
+      <c r="N266" s="13">
         <f t="shared" si="26"/>
         <v>-0.16755733991771438</v>
       </c>
-      <c r="O266" s="15">
+      <c r="O266" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24077,11 +24281,11 @@
         <f t="shared" si="22"/>
         <v>-0.5541385076243911</v>
       </c>
-      <c r="N267" s="15">
+      <c r="N267" s="13">
         <f t="shared" si="26"/>
         <v>-0.16703833367149518</v>
       </c>
-      <c r="O267" s="15">
+      <c r="O267" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24113,11 +24317,11 @@
         <f t="shared" si="22"/>
         <v>-0.5474721721681306</v>
       </c>
-      <c r="N268" s="15">
+      <c r="N268" s="13">
         <f t="shared" si="26"/>
         <v>-0.16650711507371424</v>
       </c>
-      <c r="O268" s="15">
+      <c r="O268" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24149,11 +24353,11 @@
         <f t="shared" si="22"/>
         <v>-0.54088511064441758</v>
       </c>
-      <c r="N269" s="15">
+      <c r="N269" s="13">
         <f t="shared" si="26"/>
         <v>-0.16596398259202888</v>
       </c>
-      <c r="O269" s="15">
+      <c r="O269" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24185,11 +24389,11 @@
         <f t="shared" si="22"/>
         <v>-0.53437641309909412</v>
       </c>
-      <c r="N270" s="15">
+      <c r="N270" s="13">
         <f t="shared" si="26"/>
         <v>-0.16540923201822394</v>
       </c>
-      <c r="O270" s="15">
+      <c r="O270" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24221,11 +24425,11 @@
         <f t="shared" si="22"/>
         <v>-0.52794517884730352</v>
       </c>
-      <c r="N271" s="15">
+      <c r="N271" s="13">
         <f t="shared" si="26"/>
         <v>-0.16484315641671016</v>
       </c>
-      <c r="O271" s="15">
+      <c r="O271" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24257,11 +24461,11 @@
         <f t="shared" si="22"/>
         <v>-0.52159051642280485</v>
       </c>
-      <c r="N272" s="15">
+      <c r="N272" s="13">
         <f t="shared" si="26"/>
         <v>-0.16426604607617284</v>
       </c>
-      <c r="O272" s="15">
+      <c r="O272" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24293,11 +24497,11 @@
         <f t="shared" si="22"/>
         <v>-0.5153115435257174</v>
       </c>
-      <c r="N273" s="15">
+      <c r="N273" s="13">
         <f t="shared" si="26"/>
         <v>-0.16367818846426629</v>
       </c>
-      <c r="O273" s="15">
+      <c r="O273" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24329,11 +24533,11 @@
         <f t="shared" si="22"/>
         <v>-0.50910738696882207</v>
       </c>
-      <c r="N274" s="15">
+      <c r="N274" s="13">
         <f t="shared" si="26"/>
         <v>-0.16307986818528813</v>
       </c>
-      <c r="O274" s="15">
+      <c r="O274" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24365,11 +24569,11 @@
         <f t="shared" ref="M275:M338" si="29">$L$9*$O$6*EXP(-$O$7*(G275/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G275/$L$10-1))</f>
         <v>-0.50297718262247582</v>
       </c>
-      <c r="N275" s="15">
+      <c r="N275" s="13">
         <f t="shared" si="26"/>
         <v>-0.16247136694072078</v>
       </c>
-      <c r="O275" s="15">
+      <c r="O275" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24401,11 +24605,11 @@
         <f t="shared" si="29"/>
         <v>-0.49692007535826355</v>
       </c>
-      <c r="N276" s="15">
+      <c r="N276" s="13">
         <f t="shared" ref="N276:N339" si="33">(M276-H276)*O276</f>
         <v>-0.16185296349258316</v>
       </c>
-      <c r="O276" s="15">
+      <c r="O276" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24437,11 +24641,11 @@
         <f t="shared" si="29"/>
         <v>-0.49093521899143644</v>
       </c>
-      <c r="N277" s="15">
+      <c r="N277" s="13">
         <f t="shared" si="33"/>
         <v>-0.16122493362948231</v>
       </c>
-      <c r="O277" s="15">
+      <c r="O277" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24473,11 +24677,11 @@
         <f t="shared" si="29"/>
         <v>-0.48502177622224352</v>
       </c>
-      <c r="N278" s="15">
+      <c r="N278" s="13">
         <f t="shared" si="33"/>
         <v>-0.16058755013530357</v>
       </c>
-      <c r="O278" s="15">
+      <c r="O278" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24509,11 +24713,11 @@
         <f t="shared" si="29"/>
         <v>-0.47917891857623401</v>
       </c>
-      <c r="N279" s="15">
+      <c r="N279" s="13">
         <f t="shared" si="33"/>
         <v>-0.15994108276044827</v>
       </c>
-      <c r="O279" s="15">
+      <c r="O279" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24545,11 +24749,11 @@
         <f t="shared" si="29"/>
         <v>-0.47340582634355821</v>
       </c>
-      <c r="N280" s="15">
+      <c r="N280" s="13">
         <f t="shared" si="33"/>
         <v>-0.15928579819554378</v>
       </c>
-      <c r="O280" s="15">
+      <c r="O280" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24581,11 +24785,11 @@
         <f t="shared" si="29"/>
         <v>-0.46770168851742738</v>
       </c>
-      <c r="N281" s="15">
+      <c r="N281" s="13">
         <f t="shared" si="33"/>
         <v>-0.15862196004754908</v>
       </c>
-      <c r="O281" s="15">
+      <c r="O281" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24617,11 +24821,11 @@
         <f t="shared" si="29"/>
         <v>-0.46206570273170755</v>
       </c>
-      <c r="N282" s="15">
+      <c r="N282" s="13">
         <f t="shared" si="33"/>
         <v>-0.15794982881817876</v>
       </c>
-      <c r="O282" s="15">
+      <c r="O282" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24653,11 +24857,11 @@
         <f t="shared" si="29"/>
         <v>-0.4564970751977821</v>
       </c>
-      <c r="N283" s="15">
+      <c r="N283" s="13">
         <f t="shared" si="33"/>
         <v>-0.15726966188457353</v>
       </c>
-      <c r="O283" s="15">
+      <c r="O283" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24689,11 +24893,11 @@
         <f t="shared" si="29"/>
         <v>-0.45099502064068125</v>
       </c>
-      <c r="N284" s="15">
+      <c r="N284" s="13">
         <f t="shared" si="33"/>
         <v>-0.15658171348214295</v>
       </c>
-      <c r="O284" s="15">
+      <c r="O284" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24725,11 +24929,11 @@
         <f t="shared" si="29"/>
         <v>-0.44555876223461999</v>
       </c>
-      <c r="N285" s="15">
+      <c r="N285" s="13">
         <f t="shared" si="33"/>
         <v>-0.15588623468951129</v>
       </c>
-      <c r="O285" s="15">
+      <c r="O285" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24761,11 +24965,11 @@
         <f t="shared" si="29"/>
         <v>-0.44018753153792012</v>
       </c>
-      <c r="N286" s="15">
+      <c r="N286" s="13">
         <f t="shared" si="33"/>
         <v>-0.15518347341549471</v>
       </c>
-      <c r="O286" s="15">
+      <c r="O286" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24797,11 +25001,11 @@
         <f t="shared" si="29"/>
         <v>-0.43488056842743666</v>
       </c>
-      <c r="N287" s="15">
+      <c r="N287" s="13">
         <f t="shared" si="33"/>
         <v>-0.15447367438804782</v>
       </c>
-      <c r="O287" s="15">
+      <c r="O287" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24833,11 +25037,11 @@
         <f t="shared" si="29"/>
         <v>-0.42963712103247159</v>
       </c>
-      <c r="N288" s="15">
+      <c r="N288" s="13">
         <f t="shared" si="33"/>
         <v>-0.15375707914510112</v>
       </c>
-      <c r="O288" s="15">
+      <c r="O288" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24869,11 +25073,11 @@
         <f t="shared" si="29"/>
         <v>-0.42445644566831658</v>
       </c>
-      <c r="N289" s="15">
+      <c r="N289" s="13">
         <f t="shared" si="33"/>
         <v>-0.15303392602724081</v>
       </c>
-      <c r="O289" s="15">
+      <c r="O289" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24905,11 +25109,11 @@
         <f t="shared" si="29"/>
         <v>-0.41933780676938331</v>
       </c>
-      <c r="N290" s="15">
+      <c r="N290" s="13">
         <f t="shared" si="33"/>
         <v>-0.15230445017215294</v>
       </c>
-      <c r="O290" s="15">
+      <c r="O290" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24941,11 +25145,11 @@
         <f t="shared" si="29"/>
         <v>-0.41428047682203256</v>
       </c>
-      <c r="N291" s="15">
+      <c r="N291" s="13">
         <f t="shared" si="33"/>
         <v>-0.15156888351077835</v>
       </c>
-      <c r="O291" s="15">
+      <c r="O291" s="13">
         <v>1</v>
       </c>
     </row>
@@ -24977,11 +25181,11 @@
         <f t="shared" si="29"/>
         <v>-0.40928373629708986</v>
       </c>
-      <c r="N292" s="15">
+      <c r="N292" s="13">
         <f t="shared" si="33"/>
         <v>-0.15082745476511666</v>
       </c>
-      <c r="O292" s="15">
+      <c r="O292" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25013,11 +25217,11 @@
         <f t="shared" si="29"/>
         <v>-0.40434687358215604</v>
       </c>
-      <c r="N293" s="15">
+      <c r="N293" s="13">
         <f t="shared" si="33"/>
         <v>-0.15008038944761459</v>
       </c>
-      <c r="O293" s="15">
+      <c r="O293" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25049,11 +25253,11 @@
         <f t="shared" si="29"/>
         <v>-0.39946918491368816</v>
       </c>
-      <c r="N294" s="15">
+      <c r="N294" s="13">
         <f t="shared" si="33"/>
         <v>-0.1493279098620881</v>
       </c>
-      <c r="O294" s="15">
+      <c r="O294" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25085,11 +25289,11 @@
         <f t="shared" si="29"/>
         <v>-0.39464997430894311</v>
       </c>
-      <c r="N295" s="15">
+      <c r="N295" s="13">
         <f t="shared" si="33"/>
         <v>-0.1485702351061213</v>
       </c>
-      <c r="O295" s="15">
+      <c r="O295" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25121,11 +25325,11 @@
         <f t="shared" si="29"/>
         <v>-0.38988855349775575</v>
       </c>
-      <c r="N296" s="15">
+      <c r="N296" s="13">
         <f t="shared" si="33"/>
         <v>-0.1478075810748751</v>
       </c>
-      <c r="O296" s="15">
+      <c r="O296" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25157,11 +25361,11 @@
         <f t="shared" si="29"/>
         <v>-0.38518424185427907</v>
       </c>
-      <c r="N297" s="15">
+      <c r="N297" s="13">
         <f t="shared" si="33"/>
         <v>-0.14704016046627438</v>
       </c>
-      <c r="O297" s="15">
+      <c r="O297" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25193,11 +25397,11 @@
         <f t="shared" si="29"/>
         <v>-0.38053636632862248</v>
       </c>
-      <c r="N298" s="15">
+      <c r="N298" s="13">
         <f t="shared" si="33"/>
         <v>-0.14626818278749673</v>
       </c>
-      <c r="O298" s="15">
+      <c r="O298" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25229,11 +25433,11 @@
         <f t="shared" si="29"/>
         <v>-0.37594426137849579</v>
       </c>
-      <c r="N299" s="15">
+      <c r="N299" s="13">
         <f t="shared" si="33"/>
         <v>-0.14549185436272832</v>
       </c>
-      <c r="O299" s="15">
+      <c r="O299" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25265,11 +25469,11 @@
         <f t="shared" si="29"/>
         <v>-0.37140726890082421</v>
       </c>
-      <c r="N300" s="15">
+      <c r="N300" s="13">
         <f t="shared" si="33"/>
         <v>-0.14471137834213063</v>
       </c>
-      <c r="O300" s="15">
+      <c r="O300" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25301,11 +25505,11 @@
         <f t="shared" si="29"/>
         <v>-0.36692473816343657</v>
       </c>
-      <c r="N301" s="15">
+      <c r="N301" s="13">
         <f t="shared" si="33"/>
         <v>-0.14392695471197084</v>
       </c>
-      <c r="O301" s="15">
+      <c r="O301" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25337,11 +25541,11 @@
         <f t="shared" si="29"/>
         <v>-0.36249602573679202</v>
       </c>
-      <c r="N302" s="15">
+      <c r="N302" s="13">
         <f t="shared" si="33"/>
         <v>-0.14313878030586608</v>
       </c>
-      <c r="O302" s="15">
+      <c r="O302" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25373,11 +25577,11 @@
         <f t="shared" si="29"/>
         <v>-0.35812049542578794</v>
       </c>
-      <c r="N303" s="15">
+      <c r="N303" s="13">
         <f t="shared" si="33"/>
         <v>-0.14234704881709725</v>
       </c>
-      <c r="O303" s="15">
+      <c r="O303" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25409,11 +25613,11 @@
         <f t="shared" si="29"/>
         <v>-0.35379751820170374</v>
       </c>
-      <c r="N304" s="15">
+      <c r="N304" s="13">
         <f t="shared" si="33"/>
         <v>-0.14155195081195052</v>
       </c>
-      <c r="O304" s="15">
+      <c r="O304" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25445,11 +25649,11 @@
         <f t="shared" si="29"/>
         <v>-0.34952647213425231</v>
       </c>
-      <c r="N305" s="15">
+      <c r="N305" s="13">
         <f t="shared" si="33"/>
         <v>-0.14075367374403219</v>
       </c>
-      <c r="O305" s="15">
+      <c r="O305" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25481,11 +25685,11 @@
         <f t="shared" si="29"/>
         <v>-0.3453067423238293</v>
       </c>
-      <c r="N306" s="15">
+      <c r="N306" s="13">
         <f t="shared" si="33"/>
         <v>-0.13995240196953021</v>
       </c>
-      <c r="O306" s="15">
+      <c r="O306" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25517,11 +25721,11 @@
         <f t="shared" si="29"/>
         <v>-0.34113772083390009</v>
       </c>
-      <c r="N307" s="15">
+      <c r="N307" s="13">
         <f t="shared" si="33"/>
         <v>-0.13914831676336506</v>
       </c>
-      <c r="O307" s="15">
+      <c r="O307" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25553,11 +25757,11 @@
         <f t="shared" si="29"/>
         <v>-0.33701880662361733</v>
       </c>
-      <c r="N308" s="15">
+      <c r="N308" s="13">
         <f t="shared" si="33"/>
         <v>-0.13834159633619705</v>
       </c>
-      <c r="O308" s="15">
+      <c r="O308" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25589,11 +25793,11 @@
         <f t="shared" si="29"/>
         <v>-0.33294940548064056</v>
       </c>
-      <c r="N309" s="15">
+      <c r="N309" s="13">
         <f t="shared" si="33"/>
         <v>-0.1375324158522517</v>
       </c>
-      <c r="O309" s="15">
+      <c r="O309" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25625,11 +25829,11 @@
         <f t="shared" si="29"/>
         <v>-0.32892892995421996</v>
       </c>
-      <c r="N310" s="15">
+      <c r="N310" s="13">
         <f t="shared" si="33"/>
         <v>-0.13672094744792385</v>
       </c>
-      <c r="O310" s="15">
+      <c r="O310" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25661,11 +25865,11 @@
         <f t="shared" si="29"/>
         <v>-0.32495679928850185</v>
       </c>
-      <c r="N311" s="15">
+      <c r="N311" s="13">
         <f t="shared" si="33"/>
         <v>-0.13590736025111783</v>
       </c>
-      <c r="O311" s="15">
+      <c r="O311" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25697,11 +25901,11 @@
         <f t="shared" si="29"/>
         <v>-0.32103243935613318</v>
       </c>
-      <c r="N312" s="15">
+      <c r="N312" s="13">
         <f t="shared" si="33"/>
         <v>-0.13509182040129536</v>
       </c>
-      <c r="O312" s="15">
+      <c r="O312" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25733,11 +25937,11 @@
         <f t="shared" si="29"/>
         <v>-0.31715528259213538</v>
       </c>
-      <c r="N313" s="15">
+      <c r="N313" s="13">
         <f t="shared" si="33"/>
         <v>-0.13427449107018977</v>
       </c>
-      <c r="O313" s="15">
+      <c r="O313" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25769,11 +25973,11 @@
         <f t="shared" si="29"/>
         <v>-0.31332476792810926</v>
       </c>
-      <c r="N314" s="15">
+      <c r="N314" s="13">
         <f t="shared" si="33"/>
         <v>-0.13345553248316167</v>
       </c>
-      <c r="O314" s="15">
+      <c r="O314" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25805,11 +26009,11 @@
         <f t="shared" si="29"/>
         <v>-0.30954034072671616</v>
       </c>
-      <c r="N315" s="15">
+      <c r="N315" s="13">
         <f t="shared" si="33"/>
         <v>-0.132635101941143</v>
       </c>
-      <c r="O315" s="15">
+      <c r="O315" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25841,11 +26045,11 @@
         <f t="shared" si="29"/>
         <v>-0.30580145271652426</v>
       </c>
-      <c r="N316" s="15">
+      <c r="N316" s="13">
         <f t="shared" si="33"/>
         <v>-0.13181335384316428</v>
       </c>
-      <c r="O316" s="15">
+      <c r="O316" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25877,11 +26081,11 @@
         <f t="shared" si="29"/>
         <v>-0.30210756192717064</v>
       </c>
-      <c r="N317" s="15">
+      <c r="N317" s="13">
         <f t="shared" si="33"/>
         <v>-0.13099043970940782</v>
       </c>
-      <c r="O317" s="15">
+      <c r="O317" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25913,11 +26117,11 @@
         <f t="shared" si="29"/>
         <v>-0.29845813262490656</v>
       </c>
-      <c r="N318" s="15">
+      <c r="N318" s="13">
         <f t="shared" si="33"/>
         <v>-0.13016650820477785</v>
       </c>
-      <c r="O318" s="15">
+      <c r="O318" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25949,11 +26153,11 @@
         <f t="shared" si="29"/>
         <v>-0.29485263524847316</v>
       </c>
-      <c r="N319" s="15">
+      <c r="N319" s="13">
         <f t="shared" si="33"/>
         <v>-0.12934170516293908</v>
       </c>
-      <c r="O319" s="15">
+      <c r="O319" s="13">
         <v>1</v>
       </c>
     </row>
@@ -25985,11 +26189,11 @@
         <f t="shared" si="29"/>
         <v>-0.29129054634537926</v>
       </c>
-      <c r="N320" s="15">
+      <c r="N320" s="13">
         <f t="shared" si="33"/>
         <v>-0.12851617361081152</v>
       </c>
-      <c r="O320" s="15">
+      <c r="O320" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26021,11 +26225,11 @@
         <f t="shared" si="29"/>
         <v>-0.28777134850854069</v>
       </c>
-      <c r="N321" s="15">
+      <c r="N321" s="13">
         <f t="shared" si="33"/>
         <v>-0.12769005379347798</v>
       </c>
-      <c r="O321" s="15">
+      <c r="O321" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26057,11 +26261,11 @@
         <f t="shared" si="29"/>
         <v>-0.28429453031334451</v>
       </c>
-      <c r="N322" s="15">
+      <c r="N322" s="13">
         <f t="shared" si="33"/>
         <v>-0.12686348319949539</v>
       </c>
-      <c r="O322" s="15">
+      <c r="O322" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26093,11 +26297,11 @@
         <f t="shared" si="29"/>
         <v>-0.28085958625508017</v>
       </c>
-      <c r="N323" s="15">
+      <c r="N323" s="13">
         <f t="shared" si="33"/>
         <v>-0.12603659658656655</v>
       </c>
-      <c r="O323" s="15">
+      <c r="O323" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26129,11 +26333,11 @@
         <f t="shared" si="29"/>
         <v>-0.27746601668680165</v>
       </c>
-      <c r="N324" s="15">
+      <c r="N324" s="13">
         <f t="shared" si="33"/>
         <v>-0.12520952600755342</v>
       </c>
-      <c r="O324" s="15">
+      <c r="O324" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26165,11 +26369,11 @@
         <f t="shared" si="29"/>
         <v>-0.27411332775759584</v>
       </c>
-      <c r="N325" s="15">
+      <c r="N325" s="13">
         <f t="shared" si="33"/>
         <v>-0.12438240083681254</v>
       </c>
-      <c r="O325" s="15">
+      <c r="O325" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26201,11 +26405,11 @@
         <f t="shared" si="29"/>
         <v>-0.27080103135129296</v>
       </c>
-      <c r="N326" s="15">
+      <c r="N326" s="13">
         <f t="shared" si="33"/>
         <v>-0.12355534779682259</v>
       </c>
-      <c r="O326" s="15">
+      <c r="O326" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26237,11 +26441,11 @@
         <f t="shared" si="29"/>
         <v>-0.26752864502557988</v>
       </c>
-      <c r="N327" s="15">
+      <c r="N327" s="13">
         <f t="shared" si="33"/>
         <v>-0.12272849098508029</v>
       </c>
-      <c r="O327" s="15">
+      <c r="O327" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26273,11 +26477,11 @@
         <f t="shared" si="29"/>
         <v>-0.26429569195156916</v>
       </c>
-      <c r="N328" s="15">
+      <c r="N328" s="13">
         <f t="shared" si="33"/>
         <v>-0.12190195190124631</v>
       </c>
-      <c r="O328" s="15">
+      <c r="O328" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26309,11 +26513,11 @@
         <f t="shared" si="29"/>
         <v>-0.26110170085380374</v>
       </c>
-      <c r="N329" s="15">
+      <c r="N329" s="13">
         <f t="shared" si="33"/>
         <v>-0.12107584947451835</v>
       </c>
-      <c r="O329" s="15">
+      <c r="O329" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26345,11 +26549,11 @@
         <f t="shared" si="29"/>
         <v>-0.25794620595070628</v>
       </c>
-      <c r="N330" s="15">
+      <c r="N330" s="13">
         <f t="shared" si="33"/>
         <v>-0.12025030009120893</v>
       </c>
-      <c r="O330" s="15">
+      <c r="O330" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26381,11 +26585,11 @@
         <f t="shared" si="29"/>
         <v>-0.2548287468954793</v>
       </c>
-      <c r="N331" s="15">
+      <c r="N331" s="13">
         <f t="shared" si="33"/>
         <v>-0.11942541762250702</v>
       </c>
-      <c r="O331" s="15">
+      <c r="O331" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26417,11 +26621,11 @@
         <f t="shared" si="29"/>
         <v>-0.25174886871746255</v>
       </c>
-      <c r="N332" s="15">
+      <c r="N332" s="13">
         <f t="shared" si="33"/>
         <v>-0.11860131345240976</v>
       </c>
-      <c r="O332" s="15">
+      <c r="O332" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26453,11 +26657,11 @@
         <f t="shared" si="29"/>
         <v>-0.24870612176394447</v>
       </c>
-      <c r="N333" s="15">
+      <c r="N333" s="13">
         <f t="shared" si="33"/>
         <v>-0.11777809650579568</v>
       </c>
-      <c r="O333" s="15">
+      <c r="O333" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26489,11 +26693,11 @@
         <f t="shared" si="29"/>
         <v>-0.24570006164244024</v>
       </c>
-      <c r="N334" s="15">
+      <c r="N334" s="13">
         <f t="shared" si="33"/>
         <v>-0.11695587327663159</v>
       </c>
-      <c r="O334" s="15">
+      <c r="O334" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26525,11 +26729,11 @@
         <f t="shared" si="29"/>
         <v>-0.24273024916342853</v>
       </c>
-      <c r="N335" s="15">
+      <c r="N335" s="13">
         <f t="shared" si="33"/>
         <v>-0.11613474785628533</v>
       </c>
-      <c r="O335" s="15">
+      <c r="O335" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26561,11 +26765,11 @@
         <f t="shared" si="29"/>
         <v>-0.23979625028356299</v>
       </c>
-      <c r="N336" s="15">
+      <c r="N336" s="13">
         <f t="shared" si="33"/>
         <v>-0.11531482196193851</v>
       </c>
-      <c r="O336" s="15">
+      <c r="O336" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26597,11 +26801,11 @@
         <f t="shared" si="29"/>
         <v>-0.23689763604934472</v>
       </c>
-      <c r="N337" s="15">
+      <c r="N337" s="13">
         <f t="shared" si="33"/>
         <v>-0.11449619496506959</v>
       </c>
-      <c r="O337" s="15">
+      <c r="O337" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26633,11 +26837,11 @@
         <f t="shared" si="29"/>
         <v>-0.2340339825412725</v>
       </c>
-      <c r="N338" s="15">
+      <c r="N338" s="13">
         <f t="shared" si="33"/>
         <v>-0.11367896392000319</v>
       </c>
-      <c r="O338" s="15">
+      <c r="O338" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26669,11 +26873,11 @@
         <f t="shared" ref="M339:M402" si="36">$L$9*$O$6*EXP(-$O$7*(G339/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G339/$L$10-1))</f>
         <v>-0.23120487081846539</v>
       </c>
-      <c r="N339" s="15">
+      <c r="N339" s="13">
         <f t="shared" si="33"/>
         <v>-0.11286322359250631</v>
       </c>
-      <c r="O339" s="15">
+      <c r="O339" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26705,11 +26909,11 @@
         <f t="shared" si="36"/>
         <v>-0.22840988686375749</v>
       </c>
-      <c r="N340" s="15">
+      <c r="N340" s="13">
         <f t="shared" ref="N340:N403" si="40">(M340-H340)*O340</f>
         <v>-0.11204906648841186</v>
       </c>
-      <c r="O340" s="15">
+      <c r="O340" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26741,11 +26945,11 @@
         <f t="shared" si="36"/>
         <v>-0.22564862152926965</v>
       </c>
-      <c r="N341" s="15">
+      <c r="N341" s="13">
         <f t="shared" si="40"/>
         <v>-0.11123658288226215</v>
       </c>
-      <c r="O341" s="15">
+      <c r="O341" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26777,11 +26981,11 @@
         <f t="shared" si="36"/>
         <v>-0.22292067048246006</v>
       </c>
-      <c r="N342" s="15">
+      <c r="N342" s="13">
         <f t="shared" si="40"/>
         <v>-0.11042586084595658</v>
       </c>
-      <c r="O342" s="15">
+      <c r="O342" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26813,11 +27017,11 @@
         <f t="shared" si="36"/>
         <v>-0.22022563415264887</v>
       </c>
-      <c r="N343" s="15">
+      <c r="N343" s="13">
         <f t="shared" si="40"/>
         <v>-0.10961698627738783</v>
       </c>
-      <c r="O343" s="15">
+      <c r="O343" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26849,11 +27053,11 @@
         <f t="shared" si="36"/>
         <v>-0.21756311767802203</v>
       </c>
-      <c r="N344" s="15">
+      <c r="N344" s="13">
         <f t="shared" si="40"/>
         <v>-0.10881004292905563</v>
       </c>
-      <c r="O344" s="15">
+      <c r="O344" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26885,11 +27089,11 @@
         <f t="shared" si="36"/>
         <v>-0.21493273085311435</v>
       </c>
-      <c r="N345" s="15">
+      <c r="N345" s="13">
         <f t="shared" si="40"/>
         <v>-0.10800511243664876</v>
       </c>
-      <c r="O345" s="15">
+      <c r="O345" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26921,11 +27125,11 @@
         <f t="shared" si="36"/>
         <v>-0.21233408807676854</v>
       </c>
-      <c r="N346" s="15">
+      <c r="N346" s="13">
         <f t="shared" si="40"/>
         <v>-0.10720227434757752</v>
       </c>
-      <c r="O346" s="15">
+      <c r="O346" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26957,11 +27161,11 @@
         <f t="shared" si="36"/>
         <v>-0.20976680830057245</v>
       </c>
-      <c r="N347" s="15">
+      <c r="N347" s="13">
         <f t="shared" si="40"/>
         <v>-0.10640160614945017</v>
       </c>
-      <c r="O347" s="15">
+      <c r="O347" s="13">
         <v>1</v>
       </c>
     </row>
@@ -26993,11 +27197,11 @@
         <f t="shared" si="36"/>
         <v>-0.20723051497777481</v>
       </c>
-      <c r="N348" s="15">
+      <c r="N348" s="13">
         <f t="shared" si="40"/>
         <v>-0.10560318329848144</v>
       </c>
-      <c r="O348" s="15">
+      <c r="O348" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27029,11 +27233,11 @@
         <f t="shared" si="36"/>
         <v>-0.20472483601267666</v>
       </c>
-      <c r="N349" s="15">
+      <c r="N349" s="13">
         <f t="shared" si="40"/>
         <v>-0.10480707924782215</v>
       </c>
-      <c r="O349" s="15">
+      <c r="O349" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27065,11 +27269,11 @@
         <f t="shared" si="36"/>
         <v>-0.2022494037104981</v>
       </c>
-      <c r="N350" s="15">
+      <c r="N350" s="13">
         <f t="shared" si="40"/>
         <v>-0.10401336547579847</v>
       </c>
-      <c r="O350" s="15">
+      <c r="O350" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27101,11 +27305,11 @@
         <f t="shared" si="36"/>
         <v>-0.19980385472772094</v>
       </c>
-      <c r="N351" s="15">
+      <c r="N351" s="13">
         <f t="shared" si="40"/>
         <v>-0.10322211151405532</v>
       </c>
-      <c r="O351" s="15">
+      <c r="O351" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27137,11 +27341,11 @@
         <f t="shared" si="36"/>
         <v>-0.19738783002290733</v>
       </c>
-      <c r="N352" s="15">
+      <c r="N352" s="13">
         <f t="shared" si="40"/>
         <v>-0.10243338497559297</v>
       </c>
-      <c r="O352" s="15">
+      <c r="O352" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27173,11 +27377,11 @@
         <f t="shared" si="36"/>
         <v>-0.19500097480798537</v>
       </c>
-      <c r="N353" s="15">
+      <c r="N353" s="13">
         <f t="shared" si="40"/>
         <v>-0.10164725158268345</v>
       </c>
-      <c r="O353" s="15">
+      <c r="O353" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27209,11 +27413,11 @@
         <f t="shared" si="36"/>
         <v>-0.1926429385000111</v>
       </c>
-      <c r="N354" s="15">
+      <c r="N354" s="13">
         <f t="shared" si="40"/>
         <v>-0.10086377519466636</v>
       </c>
-      <c r="O354" s="15">
+      <c r="O354" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27245,11 +27449,11 @@
         <f t="shared" si="36"/>
         <v>-0.1903133746733994</v>
       </c>
-      <c r="N355" s="15">
+      <c r="N355" s="13">
         <f t="shared" si="40"/>
         <v>-0.10008301783561259</v>
       </c>
-      <c r="O355" s="15">
+      <c r="O355" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27281,11 +27485,11 @@
         <f t="shared" si="36"/>
         <v>-0.18801194101262064</v>
       </c>
-      <c r="N356" s="15">
+      <c r="N356" s="13">
         <f t="shared" si="40"/>
         <v>-9.9305039721844734E-2</v>
       </c>
-      <c r="O356" s="15">
+      <c r="O356" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27317,11 +27521,11 @@
         <f t="shared" si="36"/>
         <v>-0.18573829926536528</v>
       </c>
-      <c r="N357" s="15">
+      <c r="N357" s="13">
         <f t="shared" si="40"/>
         <v>-9.8529899289312772E-2</v>
       </c>
-      <c r="O357" s="15">
+      <c r="O357" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27353,11 +27557,11 @@
         <f t="shared" si="36"/>
         <v>-0.18349211519617251</v>
       </c>
-      <c r="N358" s="15">
+      <c r="N358" s="13">
         <f t="shared" si="40"/>
         <v>-9.7757653220814575E-2</v>
       </c>
-      <c r="O358" s="15">
+      <c r="O358" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27389,11 +27593,11 @@
         <f t="shared" si="36"/>
         <v>-0.18127305854052272</v>
       </c>
-      <c r="N359" s="15">
+      <c r="N359" s="13">
         <f t="shared" si="40"/>
         <v>-9.6988356473057022E-2</v>
       </c>
-      <c r="O359" s="15">
+      <c r="O359" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27425,11 +27629,11 @@
         <f t="shared" si="36"/>
         <v>-0.17908080295938633</v>
       </c>
-      <c r="N360" s="15">
+      <c r="N360" s="13">
         <f t="shared" si="40"/>
         <v>-9.6222062303546699E-2</v>
       </c>
-      <c r="O360" s="15">
+      <c r="O360" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27461,11 +27665,11 @@
         <f t="shared" si="36"/>
         <v>-0.17691502599423561</v>
       </c>
-      <c r="N361" s="15">
+      <c r="N361" s="13">
         <f t="shared" si="40"/>
         <v>-9.5458822297311521E-2</v>
       </c>
-      <c r="O361" s="15">
+      <c r="O361" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27497,11 +27701,11 @@
         <f t="shared" si="36"/>
         <v>-0.17477540902250743</v>
       </c>
-      <c r="N362" s="15">
+      <c r="N362" s="13">
         <f t="shared" si="40"/>
         <v>-9.4698686393439854E-2</v>
       </c>
-      <c r="O362" s="15">
+      <c r="O362" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27533,11 +27737,11 @@
         <f t="shared" si="36"/>
         <v>-0.17266163721352432</v>
       </c>
-      <c r="N363" s="15">
+      <c r="N363" s="13">
         <f t="shared" si="40"/>
         <v>-9.3941702911439204E-2</v>
       </c>
-      <c r="O363" s="15">
+      <c r="O363" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27569,11 +27773,11 @@
         <f t="shared" si="36"/>
         <v>-0.17057339948486122</v>
       </c>
-      <c r="N364" s="15">
+      <c r="N364" s="13">
         <f t="shared" si="40"/>
         <v>-9.3187918577401732E-2</v>
       </c>
-      <c r="O364" s="15">
+      <c r="O364" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27605,11 +27809,11 @@
         <f t="shared" si="36"/>
         <v>-0.16851038845916605</v>
       </c>
-      <c r="N365" s="15">
+      <c r="N365" s="13">
         <f t="shared" si="40"/>
         <v>-9.243737854998002E-2</v>
       </c>
-      <c r="O365" s="15">
+      <c r="O365" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27641,11 +27845,11 @@
         <f t="shared" si="36"/>
         <v>-0.1664723004214205</v>
       </c>
-      <c r="N366" s="15">
+      <c r="N366" s="13">
         <f t="shared" si="40"/>
         <v>-9.1690126446159773E-2</v>
       </c>
-      <c r="O366" s="15">
+      <c r="O366" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27677,11 +27881,11 @@
         <f t="shared" si="36"/>
         <v>-0.16445883527664767</v>
       </c>
-      <c r="N367" s="15">
+      <c r="N367" s="13">
         <f t="shared" si="40"/>
         <v>-9.0946204366832539E-2</v>
       </c>
-      <c r="O367" s="15">
+      <c r="O367" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27713,11 +27917,11 @@
         <f t="shared" si="36"/>
         <v>-0.16246969650805965</v>
       </c>
-      <c r="N368" s="15">
+      <c r="N368" s="13">
         <f t="shared" si="40"/>
         <v>-9.0205652922161969E-2</v>
       </c>
-      <c r="O368" s="15">
+      <c r="O368" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27749,11 +27953,11 @@
         <f t="shared" si="36"/>
         <v>-0.16050459113564117</v>
       </c>
-      <c r="N369" s="15">
+      <c r="N369" s="13">
         <f t="shared" si="40"/>
         <v>-8.9468511256737257E-2</v>
       </c>
-      <c r="O369" s="15">
+      <c r="O369" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27785,11 +27989,11 @@
         <f t="shared" si="36"/>
         <v>-0.15856322967516773</v>
       </c>
-      <c r="N370" s="15">
+      <c r="N370" s="13">
         <f t="shared" si="40"/>
         <v>-8.8734817074512834E-2</v>
       </c>
-      <c r="O370" s="15">
+      <c r="O370" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27821,11 +28025,11 @@
         <f t="shared" si="36"/>
         <v>-0.15664532609765813</v>
       </c>
-      <c r="N371" s="15">
+      <c r="N371" s="13">
         <f t="shared" si="40"/>
         <v>-8.8004606663532506E-2</v>
       </c>
-      <c r="O371" s="15">
+      <c r="O371" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27857,11 +28061,11 @@
         <f t="shared" si="36"/>
         <v>-0.15475059778925268</v>
       </c>
-      <c r="N372" s="15">
+      <c r="N372" s="13">
         <f t="shared" si="40"/>
         <v>-8.7277914920430674E-2</v>
       </c>
-      <c r="O372" s="15">
+      <c r="O372" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27893,11 +28097,11 @@
         <f t="shared" si="36"/>
         <v>-0.15287876551151863</v>
       </c>
-      <c r="N373" s="15">
+      <c r="N373" s="13">
         <f t="shared" si="40"/>
         <v>-8.6554775374710582E-2</v>
       </c>
-      <c r="O373" s="15">
+      <c r="O373" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27929,11 +28133,11 @@
         <f t="shared" si="36"/>
         <v>-0.15102955336217808</v>
       </c>
-      <c r="N374" s="15">
+      <c r="N374" s="13">
         <f t="shared" si="40"/>
         <v>-8.5835220212797034E-2</v>
       </c>
-      <c r="O374" s="15">
+      <c r="O374" s="13">
         <v>1</v>
       </c>
     </row>
@@ -27965,11 +28169,11 @@
         <f t="shared" si="36"/>
         <v>-0.14920268873625689</v>
       </c>
-      <c r="N375" s="15">
+      <c r="N375" s="13">
         <f t="shared" si="40"/>
         <v>-8.5119280301861028E-2</v>
       </c>
-      <c r="O375" s="15">
+      <c r="O375" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28001,11 +28205,11 @@
         <f t="shared" si="36"/>
         <v>-0.14739790228764649</v>
       </c>
-      <c r="N376" s="15">
+      <c r="N376" s="13">
         <f t="shared" si="40"/>
         <v>-8.4406985213410557E-2</v>
       </c>
-      <c r="O376" s="15">
+      <c r="O376" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28037,11 +28241,11 @@
         <f t="shared" si="36"/>
         <v>-0.14561492789108382</v>
       </c>
-      <c r="N377" s="15">
+      <c r="N377" s="13">
         <f t="shared" si="40"/>
         <v>-8.3698363246652419E-2</v>
       </c>
-      <c r="O377" s="15">
+      <c r="O377" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28073,11 +28277,11 @@
         <f t="shared" si="36"/>
         <v>-0.14385350260453678</v>
       </c>
-      <c r="N378" s="15">
+      <c r="N378" s="13">
         <f t="shared" si="40"/>
         <v>-8.2993441451615246E-2</v>
       </c>
-      <c r="O378" s="15">
+      <c r="O378" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28109,11 +28313,11 @@
         <f t="shared" si="36"/>
         <v>-0.14211336663200128</v>
       </c>
-      <c r="N379" s="15">
+      <c r="N379" s="13">
         <f t="shared" si="40"/>
         <v>-8.2292245652039686E-2</v>
       </c>
-      <c r="O379" s="15">
+      <c r="O379" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28145,11 +28349,11 @@
         <f t="shared" si="36"/>
         <v>-0.14039426328669743</v>
       </c>
-      <c r="N380" s="15">
+      <c r="N380" s="13">
         <f t="shared" si="40"/>
         <v>-8.1594800468026529E-2</v>
       </c>
-      <c r="O380" s="15">
+      <c r="O380" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28181,11 +28385,11 @@
         <f t="shared" si="36"/>
         <v>-0.13869593895467103</v>
       </c>
-      <c r="N381" s="15">
+      <c r="N381" s="13">
         <f t="shared" si="40"/>
         <v>-8.090112933844934E-2</v>
       </c>
-      <c r="O381" s="15">
+      <c r="O381" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28217,11 +28421,11 @@
         <f t="shared" si="36"/>
         <v>-0.13701814305878746</v>
       </c>
-      <c r="N382" s="15">
+      <c r="N382" s="13">
         <f t="shared" si="40"/>
         <v>-8.0211254543122154E-2</v>
       </c>
-      <c r="O382" s="15">
+      <c r="O382" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28253,11 +28457,11 @@
         <f t="shared" si="36"/>
         <v>-0.13536062802312332</v>
       </c>
-      <c r="N383" s="15">
+      <c r="N383" s="13">
         <f t="shared" si="40"/>
         <v>-7.9525197224728533E-2</v>
       </c>
-      <c r="O383" s="15">
+      <c r="O383" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28289,11 +28493,11 @@
         <f t="shared" si="36"/>
         <v>-0.13372314923774731</v>
       </c>
-      <c r="N384" s="15">
+      <c r="N384" s="13">
         <f t="shared" si="40"/>
         <v>-7.8842977410506443E-2</v>
       </c>
-      <c r="O384" s="15">
+      <c r="O384" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28325,11 +28529,11 @@
         <f t="shared" si="36"/>
         <v>-0.13210546502388848</v>
       </c>
-      <c r="N385" s="15">
+      <c r="N385" s="13">
         <f t="shared" si="40"/>
         <v>-7.8164614033690072E-2</v>
       </c>
-      <c r="O385" s="15">
+      <c r="O385" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28361,11 +28565,11 @@
         <f t="shared" si="36"/>
         <v>-0.13050733659948807</v>
       </c>
-      <c r="N386" s="15">
+      <c r="N386" s="13">
         <f t="shared" si="40"/>
         <v>-7.7490124954706197E-2</v>
       </c>
-      <c r="O386" s="15">
+      <c r="O386" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28397,11 +28601,11 @@
         <f t="shared" si="36"/>
         <v>-0.128928528045133</v>
       </c>
-      <c r="N387" s="15">
+      <c r="N387" s="13">
         <f t="shared" si="40"/>
         <v>-7.6819526982127517E-2</v>
       </c>
-      <c r="O387" s="15">
+      <c r="O387" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28433,11 +28637,11 @@
         <f t="shared" si="36"/>
         <v>-0.12736880627036742</v>
       </c>
-      <c r="N388" s="15">
+      <c r="N388" s="13">
         <f t="shared" si="40"/>
         <v>-7.6152835893380816E-2</v>
       </c>
-      <c r="O388" s="15">
+      <c r="O388" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28469,11 +28673,11 @@
         <f t="shared" si="36"/>
         <v>-0.12582794098037509</v>
       </c>
-      <c r="N389" s="15">
+      <c r="N389" s="13">
         <f t="shared" si="40"/>
         <v>-7.5490066455207283E-2</v>
       </c>
-      <c r="O389" s="15">
+      <c r="O389" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28505,11 +28709,11 @@
         <f t="shared" si="36"/>
         <v>-0.12430570464303693</v>
       </c>
-      <c r="N390" s="15">
+      <c r="N390" s="13">
         <f t="shared" si="40"/>
         <v>-7.4831232443881041E-2</v>
       </c>
-      <c r="O390" s="15">
+      <c r="O390" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28541,11 +28745,11 @@
         <f t="shared" si="36"/>
         <v>-0.12280187245635199</v>
       </c>
-      <c r="N391" s="15">
+      <c r="N391" s="13">
         <f t="shared" si="40"/>
         <v>-7.417634666517893E-2</v>
       </c>
-      <c r="O391" s="15">
+      <c r="O391" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28577,11 +28781,11 @@
         <f t="shared" si="36"/>
         <v>-0.12131622231622548</v>
       </c>
-      <c r="N392" s="15">
+      <c r="N392" s="13">
         <f t="shared" si="40"/>
         <v>-7.3525420974107136E-2</v>
       </c>
-      <c r="O392" s="15">
+      <c r="O392" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28613,11 +28817,11 @@
         <f t="shared" si="36"/>
         <v>-0.11984853478461502</v>
       </c>
-      <c r="N393" s="15">
+      <c r="N393" s="13">
         <f t="shared" si="40"/>
         <v>-7.2878466294380856E-2</v>
       </c>
-      <c r="O393" s="15">
+      <c r="O393" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28649,11 +28853,11 @@
         <f t="shared" si="36"/>
         <v>-0.11839859305803696</v>
       </c>
-      <c r="N394" s="15">
+      <c r="N394" s="13">
         <f t="shared" si="40"/>
         <v>-7.2235492637660992E-2</v>
       </c>
-      <c r="O394" s="15">
+      <c r="O394" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28685,11 +28889,11 @@
         <f t="shared" si="36"/>
         <v>-0.11696618293642348</v>
       </c>
-      <c r="N395" s="15">
+      <c r="N395" s="13">
         <f t="shared" si="40"/>
         <v>-7.1596509122543714E-2</v>
       </c>
-      <c r="O395" s="15">
+      <c r="O395" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28721,11 +28925,11 @@
         <f t="shared" si="36"/>
         <v>-0.11555109279233315</v>
       </c>
-      <c r="N396" s="15">
+      <c r="N396" s="13">
         <f t="shared" si="40"/>
         <v>-7.0961523993308143E-2</v>
       </c>
-      <c r="O396" s="15">
+      <c r="O396" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28757,11 +28961,11 @@
         <f t="shared" si="36"/>
         <v>-0.11415311354050775</v>
       </c>
-      <c r="N397" s="15">
+      <c r="N397" s="13">
         <f t="shared" si="40"/>
         <v>-7.0330544638419965E-2</v>
       </c>
-      <c r="O397" s="15">
+      <c r="O397" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28793,11 +28997,11 @@
         <f t="shared" si="36"/>
         <v>-0.1127720386077733</v>
       </c>
-      <c r="N398" s="15">
+      <c r="N398" s="13">
         <f t="shared" si="40"/>
         <v>-6.9703577608791797E-2</v>
       </c>
-      <c r="O398" s="15">
+      <c r="O398" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28829,11 +29033,11 @@
         <f t="shared" si="36"/>
         <v>-0.11140766390328097</v>
       </c>
-      <c r="N399" s="15">
+      <c r="N399" s="13">
         <f t="shared" si="40"/>
         <v>-6.9080628635801167E-2</v>
       </c>
-      <c r="O399" s="15">
+      <c r="O399" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28865,11 +29069,11 @@
         <f t="shared" si="36"/>
         <v>-0.11005978778908766</v>
       </c>
-      <c r="N400" s="15">
+      <c r="N400" s="13">
         <f t="shared" si="40"/>
         <v>-6.8461702649068881E-2</v>
       </c>
-      <c r="O400" s="15">
+      <c r="O400" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28901,11 +29105,11 @@
         <f t="shared" si="36"/>
         <v>-0.10872821105106842</v>
       </c>
-      <c r="N401" s="15">
+      <c r="N401" s="13">
         <f t="shared" si="40"/>
         <v>-6.7846803793995256E-2</v>
       </c>
-      <c r="O401" s="15">
+      <c r="O401" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28937,11 +29141,11 @@
         <f t="shared" si="36"/>
         <v>-0.10741273687016077</v>
       </c>
-      <c r="N402" s="15">
+      <c r="N402" s="13">
         <f t="shared" si="40"/>
         <v>-6.7235935449057427E-2</v>
       </c>
-      <c r="O402" s="15">
+      <c r="O402" s="13">
         <v>1</v>
       </c>
     </row>
@@ -28973,11 +29177,11 @@
         <f t="shared" ref="M403:M469" si="43">$L$9*$O$6*EXP(-$O$7*(G403/$L$10-1))-SQRT($L$9)*$O$8*EXP(-$O$4*(G403/$L$10-1))</f>
         <v>-0.1061131707939369</v>
       </c>
-      <c r="N403" s="15">
+      <c r="N403" s="13">
         <f t="shared" si="40"/>
         <v>-6.6629100242869041E-2</v>
       </c>
-      <c r="O403" s="15">
+      <c r="O403" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29009,11 +29213,11 @@
         <f t="shared" si="43"/>
         <v>-0.10482932070850044</v>
       </c>
-      <c r="N404" s="15">
+      <c r="N404" s="13">
         <f t="shared" ref="N404:N467" si="47">(M404-H404)*O404</f>
         <v>-6.6026300071002492E-2</v>
       </c>
-      <c r="O404" s="15">
+      <c r="O404" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29045,11 +29249,11 @@
         <f t="shared" si="43"/>
         <v>-0.10356099681070297</v>
       </c>
-      <c r="N405" s="15">
+      <c r="N405" s="13">
         <f t="shared" si="47"/>
         <v>-6.5427536112573959E-2</v>
       </c>
-      <c r="O405" s="15">
+      <c r="O405" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29081,11 +29285,11 @@
         <f t="shared" si="43"/>
         <v>-0.10230801158068042</v>
       </c>
-      <c r="N406" s="15">
+      <c r="N406" s="13">
         <f t="shared" si="47"/>
         <v>-6.4832808846595383E-2</v>
       </c>
-      <c r="O406" s="15">
+      <c r="O406" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29117,11 +29321,11 @@
         <f t="shared" si="43"/>
         <v>-0.10107017975470255</v>
       </c>
-      <c r="N407" s="15">
+      <c r="N407" s="13">
         <f t="shared" si="47"/>
         <v>-6.4242118068091381E-2</v>
       </c>
-      <c r="O407" s="15">
+      <c r="O407" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29153,11 +29357,11 @@
         <f t="shared" si="43"/>
         <v>-9.9847318298335722E-2</v>
       </c>
-      <c r="N408" s="15">
+      <c r="N408" s="13">
         <f t="shared" si="47"/>
         <v>-6.3655462903985702E-2</v>
       </c>
-      <c r="O408" s="15">
+      <c r="O408" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29189,11 +29393,11 @@
         <f t="shared" si="43"/>
         <v>-9.8639246379911477E-2</v>
       </c>
-      <c r="N409" s="15">
+      <c r="N409" s="13">
         <f t="shared" si="47"/>
         <v>-6.3072841828754111E-2</v>
       </c>
-      <c r="O409" s="15">
+      <c r="O409" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29225,11 +29429,11 @@
         <f t="shared" si="43"/>
         <v>-9.7445785344303773E-2</v>
       </c>
-      <c r="N410" s="15">
+      <c r="N410" s="13">
         <f t="shared" si="47"/>
         <v>-6.2494252679851751E-2</v>
       </c>
-      <c r="O410" s="15">
+      <c r="O410" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29261,11 +29465,11 @@
         <f t="shared" si="43"/>
         <v>-9.6266758687005169E-2</v>
       </c>
-      <c r="N411" s="15">
+      <c r="N411" s="13">
         <f t="shared" si="47"/>
         <v>-6.1919692672909067E-2</v>
       </c>
-      <c r="O411" s="15">
+      <c r="O411" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29297,11 +29501,11 @@
         <f t="shared" si="43"/>
         <v>-9.5101992028503654E-2</v>
       </c>
-      <c r="N412" s="15">
+      <c r="N412" s="13">
         <f t="shared" si="47"/>
         <v>-6.1349158416703561E-2</v>
       </c>
-      <c r="O412" s="15">
+      <c r="O412" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29333,11 +29537,11 @@
         <f t="shared" si="43"/>
         <v>-9.3951313088955241E-2</v>
       </c>
-      <c r="N413" s="15">
+      <c r="N413" s="13">
         <f t="shared" si="47"/>
         <v>-6.0782645927906213E-2</v>
       </c>
-      <c r="O413" s="15">
+      <c r="O413" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29369,11 +29573,11 @@
         <f t="shared" si="43"/>
         <v>-9.2814551663148989E-2</v>
       </c>
-      <c r="N414" s="15">
+      <c r="N414" s="13">
         <f t="shared" si="47"/>
         <v>-6.022015064560491E-2</v>
       </c>
-      <c r="O414" s="15">
+      <c r="O414" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29405,11 +29609,11 @@
         <f t="shared" si="43"/>
         <v>-9.1691539595761748E-2</v>
       </c>
-      <c r="N415" s="15">
+      <c r="N415" s="13">
         <f t="shared" si="47"/>
         <v>-5.966166744560597E-2</v>
       </c>
-      <c r="O415" s="15">
+      <c r="O415" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29441,11 +29645,11 @@
         <f t="shared" si="43"/>
         <v>-9.0582110756899731E-2</v>
       </c>
-      <c r="N416" s="15">
+      <c r="N416" s="13">
         <f t="shared" si="47"/>
         <v>-5.9107190654516494E-2</v>
       </c>
-      <c r="O416" s="15">
+      <c r="O416" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29477,11 +29681,11 @@
         <f t="shared" si="43"/>
         <v>-8.9486101017924702E-2</v>
       </c>
-      <c r="N417" s="15">
+      <c r="N417" s="13">
         <f t="shared" si="47"/>
         <v>-5.8556714063609114E-2</v>
       </c>
-      <c r="O417" s="15">
+      <c r="O417" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29513,11 +29717,11 @@
         <f t="shared" si="43"/>
         <v>-8.8403348227558562E-2</v>
       </c>
-      <c r="N418" s="15">
+      <c r="N418" s="13">
         <f t="shared" si="47"/>
         <v>-5.8010230942468752E-2</v>
       </c>
-      <c r="O418" s="15">
+      <c r="O418" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29549,11 +29753,11 @@
         <f t="shared" si="43"/>
         <v>-8.7333692188267864E-2</v>
       </c>
-      <c r="N419" s="15">
+      <c r="N419" s="13">
         <f t="shared" si="47"/>
         <v>-5.7467734052426597E-2</v>
       </c>
-      <c r="O419" s="15">
+      <c r="O419" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29585,11 +29789,11 @@
         <f t="shared" si="43"/>
         <v>-8.6276974632922276E-2</v>
       </c>
-      <c r="N420" s="15">
+      <c r="N420" s="13">
         <f t="shared" si="47"/>
         <v>-5.6929215659781124E-2</v>
       </c>
-      <c r="O420" s="15">
+      <c r="O420" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29621,11 +29825,11 @@
         <f t="shared" si="43"/>
         <v>-8.5233039201724661E-2</v>
       </c>
-      <c r="N421" s="15">
+      <c r="N421" s="13">
         <f t="shared" si="47"/>
         <v>-5.6394667548807564E-2</v>
       </c>
-      <c r="O421" s="15">
+      <c r="O421" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29657,11 +29861,11 @@
         <f t="shared" si="43"/>
         <v>-8.4201731419410022E-2</v>
       </c>
-      <c r="N422" s="15">
+      <c r="N422" s="13">
         <f t="shared" si="47"/>
         <v>-5.5864081034558935E-2</v>
       </c>
-      <c r="O422" s="15">
+      <c r="O422" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29693,11 +29897,11 @@
         <f t="shared" si="43"/>
         <v>-8.3182898672711086E-2</v>
       </c>
-      <c r="N423" s="15">
+      <c r="N423" s="13">
         <f t="shared" si="47"/>
         <v>-5.5337446975460149E-2</v>
       </c>
-      <c r="O423" s="15">
+      <c r="O423" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29729,11 +29933,11 @@
         <f t="shared" si="43"/>
         <v>-8.2176390188086645E-2</v>
       </c>
-      <c r="N424" s="15">
+      <c r="N424" s="13">
         <f t="shared" si="47"/>
         <v>-5.4814755785696931E-2</v>
       </c>
-      <c r="O424" s="15">
+      <c r="O424" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29765,11 +29969,11 @@
         <f t="shared" si="43"/>
         <v>-8.1182057009709249E-2</v>
       </c>
-      <c r="N425" s="15">
+      <c r="N425" s="13">
         <f t="shared" si="47"/>
         <v>-5.4295997447400324E-2</v>
       </c>
-      <c r="O425" s="15">
+      <c r="O425" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29801,11 +30005,11 @@
         <f t="shared" si="43"/>
         <v>-8.0199751977712674E-2</v>
       </c>
-      <c r="N426" s="15">
+      <c r="N426" s="13">
         <f t="shared" si="47"/>
         <v>-5.3781161522632404E-2</v>
       </c>
-      <c r="O426" s="15">
+      <c r="O426" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29837,11 +30041,11 @@
         <f t="shared" si="43"/>
         <v>-7.9229329706691665E-2</v>
       </c>
-      <c r="N427" s="15">
+      <c r="N427" s="13">
         <f t="shared" si="47"/>
         <v>-5.3270237165170008E-2</v>
       </c>
-      <c r="O427" s="15">
+      <c r="O427" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29873,11 +30077,11 @@
         <f t="shared" si="43"/>
         <v>-7.8270646564454718E-2</v>
       </c>
-      <c r="N428" s="15">
+      <c r="N428" s="13">
         <f t="shared" si="47"/>
         <v>-5.2763213132092604E-2</v>
       </c>
-      <c r="O428" s="15">
+      <c r="O428" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29909,11 +30113,11 @@
         <f t="shared" si="43"/>
         <v>-7.7323560651026163E-2</v>
       </c>
-      <c r="N429" s="15">
+      <c r="N429" s="13">
         <f t="shared" si="47"/>
         <v>-5.2260077795174553E-2</v>
       </c>
-      <c r="O429" s="15">
+      <c r="O429" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29945,11 +30149,11 @@
         <f t="shared" si="43"/>
         <v>-7.63879317778942E-2</v>
       </c>
-      <c r="N430" s="15">
+      <c r="N430" s="13">
         <f t="shared" si="47"/>
         <v>-5.1760819152083928E-2</v>
       </c>
-      <c r="O430" s="15">
+      <c r="O430" s="13">
         <v>1</v>
       </c>
     </row>
@@ -29981,11 +30185,11 @@
         <f t="shared" si="43"/>
         <v>-7.5463621447502544E-2</v>
       </c>
-      <c r="N431" s="15">
+      <c r="N431" s="13">
         <f t="shared" si="47"/>
         <v>-5.1265424837389509E-2</v>
       </c>
-      <c r="O431" s="15">
+      <c r="O431" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30017,11 +30221,11 @@
         <f t="shared" si="43"/>
         <v>-7.4550492832983373E-2</v>
       </c>
-      <c r="N432" s="15">
+      <c r="N432" s="13">
         <f t="shared" si="47"/>
         <v>-5.0773882133379092E-2</v>
       </c>
-      <c r="O432" s="15">
+      <c r="O432" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30053,11 +30257,11 @@
         <f t="shared" si="43"/>
         <v>-7.3648410758128779E-2</v>
       </c>
-      <c r="N433" s="15">
+      <c r="N433" s="13">
         <f t="shared" si="47"/>
         <v>-5.0286177980690294E-2</v>
       </c>
-      <c r="O433" s="15">
+      <c r="O433" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30089,11 +30293,11 @@
         <f t="shared" si="43"/>
         <v>-7.2757241677597617E-2</v>
       </c>
-      <c r="N434" s="15">
+      <c r="N434" s="13">
         <f t="shared" si="47"/>
         <v>-4.9802298988755947E-2</v>
       </c>
-      <c r="O434" s="15">
+      <c r="O434" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30125,11 +30329,11 @@
         <f t="shared" si="43"/>
         <v>-7.1876853657354967E-2</v>
       </c>
-      <c r="N435" s="15">
+      <c r="N435" s="13">
         <f t="shared" si="47"/>
         <v>-4.9322231446065706E-2</v>
       </c>
-      <c r="O435" s="15">
+      <c r="O435" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30161,11 +30365,11 @@
         <f t="shared" si="43"/>
         <v>-7.1007116355343319E-2</v>
       </c>
-      <c r="N436" s="15">
+      <c r="N436" s="13">
         <f t="shared" si="47"/>
         <v>-4.8845961330247593E-2</v>
       </c>
-      <c r="O436" s="15">
+      <c r="O436" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30197,11 +30401,11 @@
         <f t="shared" si="43"/>
         <v>-7.0147901002380622E-2</v>
       </c>
-      <c r="N437" s="15">
+      <c r="N437" s="13">
         <f t="shared" si="47"/>
         <v>-4.8373474317969456E-2</v>
       </c>
-      <c r="O437" s="15">
+      <c r="O437" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30233,11 +30437,11 @@
         <f t="shared" si="43"/>
         <v>-6.9299080383283931E-2</v>
       </c>
-      <c r="N438" s="15">
+      <c r="N438" s="13">
         <f t="shared" si="47"/>
         <v>-4.7904755794663259E-2</v>
       </c>
-      <c r="O438" s="15">
+      <c r="O438" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30269,11 +30473,11 @@
         <f t="shared" si="43"/>
         <v>-6.8460528818216349E-2</v>
       </c>
-      <c r="N439" s="15">
+      <c r="N439" s="13">
         <f t="shared" si="47"/>
         <v>-4.7439790864074988E-2</v>
       </c>
-      <c r="O439" s="15">
+      <c r="O439" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30305,11 +30509,11 @@
         <f t="shared" si="43"/>
         <v>-6.7632122144254042E-2</v>
       </c>
-      <c r="N440" s="15">
+      <c r="N440" s="13">
         <f t="shared" si="47"/>
         <v>-4.6978564357641008E-2</v>
       </c>
-      <c r="O440" s="15">
+      <c r="O440" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30341,11 +30545,11 @@
         <f t="shared" si="43"/>
         <v>-6.6813737697170375E-2</v>
       </c>
-      <c r="N441" s="15">
+      <c r="N441" s="13">
         <f t="shared" si="47"/>
         <v>-4.6521060843692813E-2</v>
       </c>
-      <c r="O441" s="15">
+      <c r="O441" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30377,11 +30581,11 @@
         <f t="shared" si="43"/>
         <v>-6.6005254293437274E-2</v>
       </c>
-      <c r="N442" s="15">
+      <c r="N442" s="13">
         <f t="shared" si="47"/>
         <v>-4.6067264636494479E-2</v>
       </c>
-      <c r="O442" s="15">
+      <c r="O442" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30413,11 +30617,11 @@
         <f t="shared" si="43"/>
         <v>-6.5206552212437707E-2</v>
       </c>
-      <c r="N443" s="15">
+      <c r="N443" s="13">
         <f t="shared" si="47"/>
         <v>-4.5617159805111482E-2</v>
       </c>
-      <c r="O443" s="15">
+      <c r="O443" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30449,11 +30653,11 @@
         <f t="shared" si="43"/>
         <v>-6.4417513178889732E-2</v>
       </c>
-      <c r="N444" s="15">
+      <c r="N444" s="13">
         <f t="shared" si="47"/>
         <v>-4.5170730182115426E-2</v>
       </c>
-      <c r="O444" s="15">
+      <c r="O444" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30485,11 +30689,11 @@
         <f t="shared" si="43"/>
         <v>-6.3638020345478469E-2</v>
       </c>
-      <c r="N445" s="15">
+      <c r="N445" s="13">
         <f t="shared" si="47"/>
         <v>-4.4727959372125856E-2</v>
       </c>
-      <c r="O445" s="15">
+      <c r="O445" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30521,11 +30725,11 @@
         <f t="shared" si="43"/>
         <v>-6.2867958275694538E-2</v>
       </c>
-      <c r="N446" s="15">
+      <c r="N446" s="13">
         <f t="shared" si="47"/>
         <v>-4.4288830760191605E-2</v>
       </c>
-      <c r="O446" s="15">
+      <c r="O446" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30557,11 +30761,11 @@
         <f t="shared" si="43"/>
         <v>-6.2107212926874558E-2</v>
       </c>
-      <c r="N447" s="15">
+      <c r="N447" s="13">
         <f t="shared" si="47"/>
         <v>-4.385332752001226E-2</v>
       </c>
-      <c r="O447" s="15">
+      <c r="O447" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30593,11 +30797,11 @@
         <f t="shared" si="43"/>
         <v>-6.1355671633444325E-2</v>
       </c>
-      <c r="N448" s="15">
+      <c r="N448" s="13">
         <f t="shared" si="47"/>
         <v>-4.342143262200393E-2</v>
       </c>
-      <c r="O448" s="15">
+      <c r="O448" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30629,11 +30833,11 @@
         <f t="shared" si="43"/>
         <v>-6.0613223090360172E-2</v>
       </c>
-      <c r="N449" s="15">
+      <c r="N449" s="13">
         <f t="shared" si="47"/>
         <v>-4.2993128841209934E-2</v>
       </c>
-      <c r="O449" s="15">
+      <c r="O449" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30665,11 +30869,11 @@
         <f t="shared" si="43"/>
         <v>-5.9879757336747226E-2</v>
       </c>
-      <c r="N450" s="15">
+      <c r="N450" s="13">
         <f t="shared" si="47"/>
         <v>-4.2568398765058635E-2</v>
       </c>
-      <c r="O450" s="15">
+      <c r="O450" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30701,11 +30905,11 @@
         <f t="shared" si="43"/>
         <v>-5.9155165739731369E-2</v>
       </c>
-      <c r="N451" s="15">
+      <c r="N451" s="13">
         <f t="shared" si="47"/>
         <v>-4.2147224800970155E-2</v>
       </c>
-      <c r="O451" s="15">
+      <c r="O451" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30737,11 +30941,11 @@
         <f t="shared" si="43"/>
         <v>-5.8439340978464406E-2</v>
       </c>
-      <c r="N452" s="15">
+      <c r="N452" s="13">
         <f t="shared" si="47"/>
         <v>-4.1729589183815044E-2</v>
       </c>
-      <c r="O452" s="15">
+      <c r="O452" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30773,11 +30977,11 @@
         <f t="shared" si="43"/>
         <v>-5.7732177028338473E-2</v>
       </c>
-      <c r="N453" s="15">
+      <c r="N453" s="13">
         <f t="shared" si="47"/>
         <v>-4.131547398322577E-2</v>
       </c>
-      <c r="O453" s="15">
+      <c r="O453" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30809,11 +31013,11 @@
         <f t="shared" si="43"/>
         <v>-5.7033569145388208E-2</v>
       </c>
-      <c r="N454" s="15">
+      <c r="N454" s="13">
         <f t="shared" si="47"/>
         <v>-4.0904861110762983E-2</v>
       </c>
-      <c r="O454" s="15">
+      <c r="O454" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30845,11 +31049,11 @@
         <f t="shared" si="43"/>
         <v>-5.6343413850879015E-2</v>
       </c>
-      <c r="N455" s="15">
+      <c r="N455" s="13">
         <f t="shared" si="47"/>
         <v>-4.049773232693981E-2</v>
       </c>
-      <c r="O455" s="15">
+      <c r="O455" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30881,11 +31085,11 @@
         <f t="shared" si="43"/>
         <v>-5.5661608916078555E-2</v>
       </c>
-      <c r="N456" s="15">
+      <c r="N456" s="13">
         <f t="shared" si="47"/>
         <v>-4.0094069248104533E-2</v>
       </c>
-      <c r="O456" s="15">
+      <c r="O456" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30917,11 +31121,11 @@
         <f t="shared" si="43"/>
         <v>-5.4988053347209069E-2</v>
       </c>
-      <c r="N457" s="15">
+      <c r="N457" s="13">
         <f t="shared" si="47"/>
         <v>-3.9693853353184094E-2</v>
       </c>
-      <c r="O457" s="15">
+      <c r="O457" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30953,11 +31157,11 @@
         <f t="shared" si="43"/>
         <v>-5.432264737057986E-2</v>
       </c>
-      <c r="N458" s="15">
+      <c r="N458" s="13">
         <f t="shared" si="47"/>
         <v>-3.9297065990291251E-2</v>
       </c>
-      <c r="O458" s="15">
+      <c r="O458" s="13">
         <v>1</v>
       </c>
     </row>
@@ -30989,11 +31193,11 @@
         <f t="shared" si="43"/>
         <v>-5.3665292417896977E-2</v>
       </c>
-      <c r="N459" s="15">
+      <c r="N459" s="13">
         <f t="shared" si="47"/>
         <v>-3.8903688383196529E-2</v>
       </c>
-      <c r="O459" s="15">
+      <c r="O459" s="13">
         <v>1</v>
       </c>
     </row>
@@ -31025,11 +31229,11 @@
         <f t="shared" si="43"/>
         <v>-5.3015891111746767E-2</v>
       </c>
-      <c r="N460" s="15">
+      <c r="N460" s="13">
         <f t="shared" si="47"/>
         <v>-3.8513701637665806E-2</v>
       </c>
-      <c r="O460" s="15">
+      <c r="O460" s="13">
         <v>1</v>
       </c>
     </row>
@@ -31061,11 +31265,11 @@
         <f t="shared" si="43"/>
         <v>-5.2374347251254061E-2</v>
       </c>
-      <c r="N461" s="15">
+      <c r="N461" s="13">
         <f t="shared" si="47"/>
         <v>-3.812708674766787E-2</v>
       </c>
-      <c r="O461" s="15">
+      <c r="O461" s="13">
         <v>1</v>
       </c>
     </row>
@@ -31097,11 +31301,11 @@
         <f t="shared" si="43"/>
         <v>-5.1740565797910837E-2</v>
       </c>
-      <c r="N462" s="15">
+      <c r="N462" s="13">
         <f t="shared" si="47"/>
         <v>-3.7743824601451981E-2</v>
       </c>
-      <c r="O462" s="15">
+      <c r="O462" s="13">
         <v>1</v>
       </c>
     </row>
@@ -31133,11 +31337,11 @@
         <f t="shared" si="43"/>
         <v>-5.1114452861574018E-2</v>
       </c>
-      <c r="N463" s="15">
+      <c r="N463" s="13">
         <f t="shared" si="47"/>
         <v>-3.7363895987497675E-2</v>
       </c>
-      <c r="O463" s="15">
+      <c r="O463" s="13">
         <v>1</v>
       </c>
     </row>
@@ -31169,11 +31373,11 @@
         <f t="shared" si="43"/>
         <v>-5.049591568663031E-2</v>
       </c>
-      <c r="N464" s="15">
+      <c r="N464" s="13">
         <f t="shared" si="47"/>
         <v>-3.698728160033881E-2</v>
       </c>
-      <c r="O464" s="15">
+      <c r="O464" s="13">
         <v>1</v>
       </c>
     </row>
@@ -31205,11 +31409,11 @@
         <f t="shared" si="43"/>
         <v>-4.988486263832672E-2</v>
       </c>
-      <c r="N465" s="15">
+      <c r="N465" s="13">
         <f t="shared" si="47"/>
         <v>-3.6613962046263965E-2</v>
       </c>
-      <c r="O465" s="15">
+      <c r="O465" s="13">
         <v>1</v>
       </c>
     </row>
@@ -31241,11 +31445,11 @@
         <f t="shared" si="43"/>
         <v>-4.9281203189264162E-2</v>
       </c>
-      <c r="N466" s="15">
+      <c r="N466" s="13">
         <f t="shared" si="47"/>
         <v>-3.6243917848894636E-2</v>
       </c>
-      <c r="O466" s="15">
+      <c r="O466" s="13">
         <v>1</v>
       </c>
     </row>
@@ -31277,11 +31481,11 @@
         <f t="shared" si="43"/>
         <v>-4.8684847906052015E-2</v>
       </c>
-      <c r="N467" s="15">
+      <c r="N467" s="13">
         <f t="shared" si="47"/>
         <v>-3.5877129454642581E-2</v>
       </c>
-      <c r="O467" s="15">
+      <c r="O467" s="13">
         <v>1</v>
       </c>
     </row>
@@ -31313,11 +31517,11 @@
         <f t="shared" si="43"/>
         <v>-4.8095708436123097E-2</v>
       </c>
-      <c r="N468" s="15">
+      <c r="N468" s="13">
         <f t="shared" ref="N468:N469" si="51">(M468-H468)*O468</f>
         <v>-3.5513577238049591E-2</v>
       </c>
-      <c r="O468" s="15">
+      <c r="O468" s="13">
         <v>1</v>
       </c>
     </row>
@@ -31349,11 +31553,11 @@
         <f t="shared" si="43"/>
         <v>-4.7513697494705631E-2</v>
       </c>
-      <c r="N469" s="15">
+      <c r="N469" s="13">
         <f t="shared" si="51"/>
         <v>-3.5153241507009797E-2</v>
       </c>
-      <c r="O469" s="15">
+      <c r="O469" s="13">
         <v>1</v>
       </c>
     </row>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6E1330-C23E-45F5-B75B-748C2342D9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD60172A-592F-49DB-B950-102B5ED3CF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="120" windowWidth="21015" windowHeight="15330" activeTab="1" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="330" yWindow="165" windowWidth="17910" windowHeight="14445" activeTab="1" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="fit" sheetId="2" r:id="rId1"/>
@@ -852,7 +852,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HCP, r0</t>
+    <t>r0(HCP)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -31883,7 +31883,7 @@
   <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -33491,6 +33491,15 @@
       <c r="T21" s="27">
         <v>2.661</v>
       </c>
+      <c r="X21" s="26">
+        <v>-0.96199999999999997</v>
+      </c>
+      <c r="Y21">
+        <v>91.147999999999996</v>
+      </c>
+      <c r="Z21">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="AA21" s="45">
         <v>4.8540000000000001</v>
       </c>
@@ -33544,6 +33553,15 @@
       <c r="T22" s="27">
         <v>2.0310000000000001</v>
       </c>
+      <c r="X22" s="26">
+        <v>-6.4649999999999999</v>
+      </c>
+      <c r="Y22">
+        <v>32.893000000000001</v>
+      </c>
+      <c r="Z22">
+        <v>0.252</v>
+      </c>
       <c r="AA22" s="45">
         <v>4.1689999999999996</v>
       </c>
@@ -33608,6 +33626,15 @@
       <c r="T23" s="27">
         <v>2.2959999999999998</v>
       </c>
+      <c r="X23" s="26">
+        <v>-8.5470000000000006</v>
+      </c>
+      <c r="Y23">
+        <v>23.526</v>
+      </c>
+      <c r="Z23">
+        <v>0.58699999999999997</v>
+      </c>
       <c r="AA23" s="45">
         <v>4.46</v>
       </c>
@@ -33669,6 +33696,15 @@
       <c r="T24" s="27">
         <v>2.7519999999999998</v>
       </c>
+      <c r="X24" s="26">
+        <v>-10.093999999999999</v>
+      </c>
+      <c r="Y24">
+        <v>18.331</v>
+      </c>
+      <c r="Z24">
+        <v>1.0820000000000001</v>
+      </c>
       <c r="AA24" s="45">
         <v>4.96</v>
       </c>
@@ -33738,6 +33774,15 @@
       </c>
       <c r="T25" s="27">
         <v>3.2</v>
+      </c>
+      <c r="X25" s="26">
+        <v>-10.848000000000001</v>
+      </c>
+      <c r="Y25">
+        <v>15.923999999999999</v>
+      </c>
+      <c r="Z25">
+        <v>1.635</v>
       </c>
       <c r="AA25" s="45">
         <v>5.4560000000000004</v>
@@ -33799,6 +33844,15 @@
       </c>
       <c r="T26" s="27">
         <v>3.7130000000000001</v>
+      </c>
+      <c r="X26" s="26">
+        <v>-9.2739999999999991</v>
+      </c>
+      <c r="Y26">
+        <v>13935</v>
+      </c>
+      <c r="Z26">
+        <v>1.9139999999999999</v>
       </c>
       <c r="AA26" s="45">
         <v>6.0380000000000003</v>
@@ -33852,6 +33906,15 @@
       <c r="T27" s="27">
         <v>3.9740000000000002</v>
       </c>
+      <c r="X27" s="26">
+        <v>-7.3440000000000003</v>
+      </c>
+      <c r="Y27">
+        <v>14.266999999999999</v>
+      </c>
+      <c r="Z27">
+        <v>1.556</v>
+      </c>
       <c r="AA27" s="45">
         <v>6.3380000000000001</v>
       </c>
@@ -33910,6 +33973,15 @@
       <c r="T28" s="27">
         <v>4.2569999999999997</v>
       </c>
+      <c r="X28" s="26">
+        <v>-5.1820000000000004</v>
+      </c>
+      <c r="Y28">
+        <v>15.483000000000001</v>
+      </c>
+      <c r="Z28">
+        <v>1.0149999999999999</v>
+      </c>
       <c r="AA28" s="45">
         <v>6.6589999999999998</v>
       </c>
@@ -33991,6 +34063,15 @@
       <c r="T29" s="27">
         <v>4.4649999999999999</v>
       </c>
+      <c r="X29" s="26">
+        <v>-2.827</v>
+      </c>
+      <c r="Y29">
+        <v>18.052</v>
+      </c>
+      <c r="Z29">
+        <v>0.54700000000000004</v>
+      </c>
       <c r="AA29" s="45">
         <v>6.9160000000000004</v>
       </c>
@@ -34061,6 +34142,15 @@
       <c r="T30" s="27">
         <v>4.83</v>
       </c>
+      <c r="X30" s="26">
+        <v>-0.90800000000000003</v>
+      </c>
+      <c r="Y30">
+        <v>23.056999999999999</v>
+      </c>
+      <c r="Z30">
+        <v>0.25900000000000001</v>
+      </c>
       <c r="AA30" s="45">
         <v>7.37</v>
       </c>
@@ -34131,6 +34221,15 @@
       <c r="T31" s="27">
         <v>3.8929999999999998</v>
       </c>
+      <c r="X31" s="26">
+        <v>-2.7240000000000002</v>
+      </c>
+      <c r="Y31">
+        <v>27.518999999999998</v>
+      </c>
+      <c r="Z31">
+        <v>0.221</v>
+      </c>
       <c r="AA31" s="45">
         <v>6.2380000000000004</v>
       </c>
@@ -34212,6 +34311,15 @@
       <c r="T32" s="27">
         <v>2.29</v>
       </c>
+      <c r="X32" s="26">
+        <v>-0.85299999999999998</v>
+      </c>
+      <c r="Y32">
+        <v>116.92100000000001</v>
+      </c>
+      <c r="Z32">
+        <v>1.2E-2</v>
+      </c>
       <c r="AA32" s="45">
         <v>4.4539999999999997</v>
       </c>
@@ -34281,6 +34389,15 @@
       </c>
       <c r="T33" s="27">
         <v>1.897</v>
+      </c>
+      <c r="X33" s="26">
+        <v>-1.923</v>
+      </c>
+      <c r="Y33">
+        <v>63.575000000000003</v>
+      </c>
+      <c r="Z33">
+        <v>5.5E-2</v>
       </c>
       <c r="AA33" s="45">
         <v>4.0209999999999999</v>
@@ -34342,6 +34459,15 @@
       </c>
       <c r="T34" s="27">
         <v>3.3029999999999999</v>
+      </c>
+      <c r="X34" s="26">
+        <v>-5.9340000000000002</v>
+      </c>
+      <c r="Y34">
+        <v>26.376999999999999</v>
+      </c>
+      <c r="Z34">
+        <v>0.252</v>
       </c>
       <c r="AA34" s="45">
         <v>5.593</v>
@@ -34392,6 +34518,15 @@
       <c r="T35" s="27">
         <v>1.94</v>
       </c>
+      <c r="X35" s="26">
+        <v>-4.7640000000000002</v>
+      </c>
+      <c r="Y35">
+        <v>35.470999999999997</v>
+      </c>
+      <c r="Z35">
+        <v>0.21099999999999999</v>
+      </c>
       <c r="AA35" s="45">
         <v>4.0730000000000004</v>
       </c>
@@ -34441,6 +34576,15 @@
       <c r="T36" s="27">
         <v>2.0790000000000002</v>
       </c>
+      <c r="X36" s="26">
+        <v>-10.257999999999999</v>
+      </c>
+      <c r="Y36">
+        <v>43.62</v>
+      </c>
+      <c r="Z36">
+        <v>8.7999999999999995E-2</v>
+      </c>
       <c r="AA36" s="45">
         <v>4.2279999999999998</v>
       </c>
@@ -34501,6 +34645,15 @@
       </c>
       <c r="T37" s="27">
         <v>1.9410000000000001</v>
+      </c>
+      <c r="X37" s="26">
+        <v>-14.079000000000001</v>
+      </c>
+      <c r="Y37">
+        <v>33.677999999999997</v>
+      </c>
+      <c r="Z37">
+        <v>0.21099999999999999</v>
       </c>
       <c r="AA37" s="45">
         <v>4.08</v>
@@ -34593,6 +34746,15 @@
       <c r="T39" s="27">
         <v>2.036</v>
       </c>
+      <c r="X39" s="26">
+        <v>-4.5640000000000001</v>
+      </c>
+      <c r="Y39">
+        <v>30.939</v>
+      </c>
+      <c r="Z39">
+        <v>0.27200000000000002</v>
+      </c>
       <c r="AA39" s="45">
         <v>4.1749999999999998</v>
       </c>
@@ -34702,6 +34864,15 @@
       <c r="T41" s="27">
         <v>2.3410000000000002</v>
       </c>
+      <c r="X41" s="26">
+        <v>-9.9559999999999995</v>
+      </c>
+      <c r="Y41">
+        <v>22.491</v>
+      </c>
+      <c r="Z41">
+        <v>0.67600000000000005</v>
+      </c>
       <c r="AA41" s="45">
         <v>4.5090000000000003</v>
       </c>
@@ -34772,6 +34943,15 @@
       <c r="T42" s="27">
         <v>2.3410000000000002</v>
       </c>
+      <c r="X42" s="26">
+        <v>-11.853999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>18.321999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>1.22</v>
+      </c>
       <c r="AA42" s="45">
         <v>4.8849999999999998</v>
       </c>
@@ -34842,6 +35022,15 @@
       <c r="T43" s="27">
         <v>3.11</v>
       </c>
+      <c r="X43" s="26">
+        <v>-12.961</v>
+      </c>
+      <c r="Y43">
+        <v>16.22</v>
+      </c>
+      <c r="Z43">
+        <v>1.8919999999999999</v>
+      </c>
       <c r="AA43" s="45">
         <v>5.3609999999999998</v>
       </c>
@@ -34912,6 +35101,15 @@
       <c r="T44" s="27">
         <v>3.359</v>
       </c>
+      <c r="X44" s="26">
+        <v>-12.446</v>
+      </c>
+      <c r="Y44">
+        <v>15.073</v>
+      </c>
+      <c r="Z44">
+        <v>2.258</v>
+      </c>
       <c r="AA44" s="45">
         <v>5.6379999999999999</v>
       </c>
@@ -34982,6 +35180,15 @@
       <c r="T45" s="27">
         <v>3.883</v>
       </c>
+      <c r="X45" s="26">
+        <v>-8.8539999999999992</v>
+      </c>
+      <c r="Y45">
+        <v>14.57</v>
+      </c>
+      <c r="Z45">
+        <v>2.1309999999999998</v>
+      </c>
       <c r="AA45" s="45">
         <v>6.2380000000000004</v>
       </c>
@@ -35052,6 +35259,15 @@
       <c r="T46" s="27">
         <v>4.2439999999999998</v>
       </c>
+      <c r="X46" s="26">
+        <v>-6.056</v>
+      </c>
+      <c r="Y46">
+        <v>15.726000000000001</v>
+      </c>
+      <c r="Z46">
+        <v>1.51</v>
+      </c>
       <c r="AA46" s="45">
         <v>6.6459999999999999</v>
       </c>
@@ -35133,6 +35349,15 @@
       <c r="T47" s="27">
         <v>4.6050000000000004</v>
       </c>
+      <c r="X47" s="26">
+        <v>-3.27</v>
+      </c>
+      <c r="Y47">
+        <v>18.183</v>
+      </c>
+      <c r="Z47">
+        <v>0.83</v>
+      </c>
       <c r="AA47" s="45">
         <v>7.0629999999999997</v>
       </c>
@@ -35203,6 +35428,15 @@
       <c r="T48" s="27">
         <v>4.1470000000000002</v>
       </c>
+      <c r="X48" s="26">
+        <v>-2.36</v>
+      </c>
+      <c r="Y48">
+        <v>31.460999999999999</v>
+      </c>
+      <c r="Z48">
+        <v>0.16500000000000001</v>
+      </c>
       <c r="AA48" s="45">
         <v>6.5419999999999998</v>
       </c>
@@ -35272,6 +35506,15 @@
       </c>
       <c r="T49" s="27">
         <v>3.62</v>
+      </c>
+      <c r="X49" s="26">
+        <v>-3.7090000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>32.064</v>
+      </c>
+      <c r="Z49">
+        <v>0.248</v>
       </c>
       <c r="AA49" s="45">
         <v>5.92</v>
@@ -35364,6 +35607,15 @@
       <c r="T51" s="27">
         <v>2.3109999999999999</v>
       </c>
+      <c r="X51" s="26">
+        <v>-7.415</v>
+      </c>
+      <c r="Y51">
+        <v>32.029000000000003</v>
+      </c>
+      <c r="Z51">
+        <v>0.35699999999999998</v>
+      </c>
       <c r="AA51" s="45">
         <v>4.4610000000000003</v>
       </c>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD60172A-592F-49DB-B950-102B5ED3CF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17855A78-860B-4CC6-8780-4E1C9B7F52BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="165" windowWidth="17910" windowHeight="14445" activeTab="1" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="1575" yWindow="435" windowWidth="20070" windowHeight="14445" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="fit" sheetId="2" r:id="rId1"/>
@@ -852,7 +852,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>r0(HCP)</t>
+    <t>re(HCP or hexagonal)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -897,7 +897,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,6 +961,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1091,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,6 +1224,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1228,6 +1237,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14678,8 +14705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC96F8-554A-49E8-A62F-FFDB865EC586}">
   <dimension ref="A2:AA469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31882,8 +31909,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC3F7D5-43B4-4A9C-BA0C-A78DC6ED6B37}">
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31904,12 +31934,15 @@
     <col min="16" max="16" width="9" style="11"/>
     <col min="17" max="17" width="9" style="26"/>
     <col min="20" max="20" width="9" style="27"/>
-    <col min="21" max="22" width="9" style="43"/>
+    <col min="21" max="21" width="3.375" style="43" customWidth="1"/>
+    <col min="22" max="22" width="9" style="43"/>
+    <col min="23" max="23" width="3.625" customWidth="1"/>
     <col min="24" max="24" width="9" style="26"/>
-    <col min="27" max="28" width="9" style="43"/>
+    <col min="27" max="27" width="9" style="43"/>
+    <col min="28" max="28" width="9" style="22"/>
     <col min="29" max="29" width="9" style="27"/>
     <col min="31" max="31" width="9" style="26"/>
-    <col min="32" max="32" width="9" style="43"/>
+    <col min="32" max="32" width="9" style="52"/>
     <col min="33" max="33" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -31933,12 +31966,10 @@
       <c r="X1" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="AB1" s="24"/>
       <c r="AC1" s="25"/>
       <c r="AE1" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="AF1" s="24"/>
       <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
@@ -31980,12 +32011,12 @@
       <c r="X2" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="AB2" s="41"/>
+      <c r="AB2" s="50"/>
       <c r="AC2" s="42"/>
       <c r="AE2" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="AF2" s="41"/>
+      <c r="AF2" s="53"/>
       <c r="AG2" s="42"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
@@ -32040,7 +32071,7 @@
       <c r="T3" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="V3" s="47" t="s">
+      <c r="V3" s="48" t="s">
         <v>199</v>
       </c>
       <c r="X3" s="26" t="s">
@@ -32055,7 +32086,7 @@
       <c r="AA3" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="50" t="s">
         <v>194</v>
       </c>
       <c r="AC3" s="27" t="s">
@@ -32064,7 +32095,7 @@
       <c r="AE3" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="AF3" s="43" t="s">
+      <c r="AF3" s="52" t="s">
         <v>195</v>
       </c>
       <c r="AG3" s="27" t="s">
@@ -32132,31 +32163,31 @@
       <c r="X4" s="26">
         <v>-1.9039999999999999</v>
       </c>
-      <c r="Y4" s="47">
+      <c r="Y4" s="48">
         <v>20.285</v>
       </c>
-      <c r="Z4" s="47">
+      <c r="Z4" s="48">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="AA4" s="45">
+      <c r="AA4" s="46">
         <v>4.4379999999999997</v>
       </c>
-      <c r="AB4" s="45">
+      <c r="AB4" s="51">
         <f>((AC4+SQRT(L4^2-4))/2)^2</f>
         <v>4.9451723832598642</v>
       </c>
-      <c r="AC4" s="46">
+      <c r="AC4" s="47">
         <f>3*B4*(AA4-1)/C4</f>
         <v>3.3180000000000001</v>
       </c>
-      <c r="AE4" s="44">
+      <c r="AE4" s="45">
         <v>5.1890000000000001</v>
       </c>
-      <c r="AF4" s="45">
+      <c r="AF4" s="54">
         <f>((AG4+SQRT(M4^2-4))/2)^2</f>
         <v>7.2693537161122199</v>
       </c>
-      <c r="AG4" s="46">
+      <c r="AG4" s="47">
         <f>3*B4*(AE4-1)/C4</f>
         <v>4.0427870855148349</v>
       </c>
@@ -32208,6 +32239,9 @@
       <c r="T5" s="27">
         <v>2.2349999999999999</v>
       </c>
+      <c r="V5" s="49">
+        <v>2.21095</v>
+      </c>
       <c r="X5" s="26">
         <v>-3.7429999999999999</v>
       </c>
@@ -32217,25 +32251,25 @@
       <c r="Z5">
         <v>0.77300000000000002</v>
       </c>
-      <c r="AA5" s="45">
+      <c r="AA5" s="46">
         <v>4.3979999999999997</v>
       </c>
-      <c r="AB5" s="45">
+      <c r="AB5" s="51">
         <f>((AC5+SQRT(L5^2-4))/2)^2</f>
         <v>3.3815614990535812</v>
       </c>
-      <c r="AC5" s="46">
+      <c r="AC5" s="47">
         <f>3*B5*(AA5-1)/C5</f>
         <v>2.5444223999999993</v>
       </c>
-      <c r="AE5" s="44">
+      <c r="AE5" s="45">
         <v>5.1539999999999999</v>
       </c>
-      <c r="AF5" s="45" t="e">
+      <c r="AF5" s="54" t="e">
         <f>((AG5+SQRT(M5^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG5" s="46">
+      <c r="AG5" s="47">
         <f>3*B5*(AE5-1)/C5</f>
         <v>3.1105151999999996</v>
       </c>
@@ -32298,6 +32332,9 @@
       <c r="T6" s="27">
         <v>2.6</v>
       </c>
+      <c r="V6" s="49">
+        <v>3.7292200000000002</v>
+      </c>
       <c r="X6" s="26">
         <v>-1.3109999999999999</v>
       </c>
@@ -32307,25 +32344,25 @@
       <c r="Z6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AA6" s="45">
+      <c r="AA6" s="46">
         <v>4.7960000000000003</v>
       </c>
-      <c r="AB6" s="45">
+      <c r="AB6" s="51">
         <f>((AC6+SQRT(L6^2-4))/2)^2</f>
         <v>4.4454643673352043</v>
       </c>
-      <c r="AC6" s="46">
+      <c r="AC6" s="47">
         <f>3*B6*(AA6-1)/C6</f>
         <v>3.0769500000000005</v>
       </c>
-      <c r="AE6" s="44">
+      <c r="AE6" s="45">
         <v>5.4820000000000002</v>
       </c>
-      <c r="AF6" s="45">
+      <c r="AF6" s="54">
         <f>((AG6+SQRT(M6^2-4))/2)^2</f>
         <v>5.9248025370452035</v>
       </c>
-      <c r="AG6" s="46">
+      <c r="AG6" s="47">
         <f>3*B6*(AE6-1)/C6</f>
         <v>3.63300576923077</v>
       </c>
@@ -32377,6 +32414,9 @@
       <c r="T7" s="27">
         <v>2.895</v>
       </c>
+      <c r="V7" s="49">
+        <v>3.1607799999999999</v>
+      </c>
       <c r="X7" s="26">
         <v>-1.5940000000000001</v>
       </c>
@@ -32386,25 +32426,25 @@
       <c r="Z7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AA7" s="45">
+      <c r="AA7" s="46">
         <v>5.133</v>
       </c>
-      <c r="AB7" s="45">
+      <c r="AB7" s="51">
         <f>((AC7+SQRT(L7^2-4))/2)^2</f>
         <v>2.7967767376180865</v>
       </c>
-      <c r="AC7" s="46">
+      <c r="AC7" s="47">
         <f>3*B7*(AA7-1)/C7</f>
         <v>2.213606779661017</v>
       </c>
-      <c r="AE7" s="44">
+      <c r="AE7" s="45">
         <v>5.7960000000000003</v>
       </c>
-      <c r="AF7" s="45" t="e">
+      <c r="AF7" s="54" t="e">
         <f>((AG7+SQRT(M7^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG7" s="46">
+      <c r="AG7" s="47">
         <f>3*B7*(AE7-1)/C7</f>
         <v>2.5687050847457629</v>
       </c>
@@ -32467,6 +32507,7 @@
       <c r="T8" s="27">
         <v>3.4079999999999999</v>
       </c>
+      <c r="V8" s="44"/>
       <c r="X8" s="26">
         <v>-3.7440000000000002</v>
       </c>
@@ -32476,25 +32517,25 @@
       <c r="Z8">
         <v>0.47799999999999998</v>
       </c>
-      <c r="AA8" s="45">
+      <c r="AA8" s="46">
         <v>5.7210000000000001</v>
       </c>
-      <c r="AB8" s="45">
+      <c r="AB8" s="51">
         <f>((AC8+SQRT(L8^2-4))/2)^2</f>
         <v>4.3137249258194261</v>
       </c>
-      <c r="AC8" s="46">
+      <c r="AC8" s="47">
         <f>3*B8*(AA8-1)/C8</f>
         <v>3.011878481012658</v>
       </c>
-      <c r="AE8" s="44">
+      <c r="AE8" s="45">
         <v>6.3129999999999997</v>
       </c>
-      <c r="AF8" s="45">
+      <c r="AF8" s="54">
         <f>((AG8+SQRT(M8^2-4))/2)^2</f>
         <v>5.4457121583771704</v>
       </c>
-      <c r="AG8" s="46">
+      <c r="AG8" s="47">
         <f>3*B8*(AE8-1)/C8</f>
         <v>3.3895594936708857</v>
       </c>
@@ -32537,6 +32578,7 @@
       <c r="T9" s="27">
         <v>3.1389999999999998</v>
       </c>
+      <c r="V9" s="44"/>
       <c r="X9" s="26">
         <v>-5.4249999999999998</v>
       </c>
@@ -32546,25 +32588,25 @@
       <c r="Z9">
         <v>0.54800000000000004</v>
       </c>
-      <c r="AA9" s="45">
+      <c r="AA9" s="46">
         <v>5.3940000000000001</v>
       </c>
-      <c r="AB9" s="45">
+      <c r="AB9" s="51">
         <f>((AC9+SQRT(L9^2-4))/2)^2</f>
         <v>3.6667209738572977</v>
       </c>
-      <c r="AC9" s="46">
+      <c r="AC9" s="47">
         <f>3*B9*(AA9-1)/C9</f>
         <v>2.6991714285714288</v>
       </c>
-      <c r="AE9" s="44">
+      <c r="AE9" s="45">
         <v>5.99</v>
       </c>
-      <c r="AF9" s="45" t="e">
+      <c r="AF9" s="54" t="e">
         <f>((AG9+SQRT(M9^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG9" s="46">
+      <c r="AG9" s="47">
         <f>3*B9*(AE9-1)/C9</f>
         <v>3.0652857142857144</v>
       </c>
@@ -32627,6 +32669,7 @@
       <c r="T10" s="27">
         <v>2.6669999999999998</v>
       </c>
+      <c r="V10" s="44"/>
       <c r="X10" s="26">
         <v>-1.097</v>
       </c>
@@ -32636,25 +32679,25 @@
       <c r="Z10">
         <v>2.3E-2</v>
       </c>
-      <c r="AA10" s="45">
+      <c r="AA10" s="46">
         <v>4.8689999999999998</v>
       </c>
-      <c r="AB10" s="45">
+      <c r="AB10" s="51">
         <f>((AC10+SQRT(L10^2-4))/2)^2</f>
         <v>4.1143973774943801</v>
       </c>
-      <c r="AC10" s="46">
+      <c r="AC10" s="47">
         <f>3*B10*(AA10-1)/C10</f>
         <v>2.9367108433734939</v>
       </c>
-      <c r="AE10" s="44">
+      <c r="AE10" s="45">
         <v>5.5439999999999996</v>
       </c>
-      <c r="AF10" s="45">
+      <c r="AF10" s="54">
         <f>((AG10+SQRT(M10^2-4))/2)^2</f>
         <v>5.3937645059081021</v>
       </c>
-      <c r="AG10" s="46">
+      <c r="AG10" s="47">
         <f>3*B10*(AE10-1)/C10</f>
         <v>3.4490602409638549</v>
       </c>
@@ -32706,6 +32749,9 @@
       <c r="T11" s="27">
         <v>2.173</v>
       </c>
+      <c r="V11" s="49">
+        <v>3.93269</v>
+      </c>
       <c r="X11" s="26">
         <v>-1.9970000000000001</v>
       </c>
@@ -32715,25 +32761,25 @@
       <c r="Z11">
         <v>0.108</v>
       </c>
-      <c r="AA11" s="45">
+      <c r="AA11" s="46">
         <v>4.3360000000000003</v>
       </c>
-      <c r="AB11" s="45">
+      <c r="AB11" s="51">
         <f>((AC11+SQRT(L11^2-4))/2)^2</f>
         <v>6.5056223152816992</v>
       </c>
-      <c r="AC11" s="46">
+      <c r="AC11" s="47">
         <f>3*B11*(AA11-1)/C11</f>
         <v>2.2173688073394495</v>
       </c>
-      <c r="AE11" s="44">
+      <c r="AE11" s="45">
         <v>5.1289999999999996</v>
       </c>
-      <c r="AF11" s="45" t="e">
+      <c r="AF11" s="54" t="e">
         <f>((AG11+SQRT(M11^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG11" s="46">
+      <c r="AG11" s="47">
         <f>3*B11*(AE11-1)/C11</f>
         <v>2.7444591743119258</v>
       </c>
@@ -32785,6 +32831,9 @@
       <c r="T12" s="27">
         <v>2.524</v>
       </c>
+      <c r="V12" s="49">
+        <v>2.6424500000000002</v>
+      </c>
       <c r="X12" s="26">
         <v>-7.8970000000000002</v>
       </c>
@@ -32794,25 +32843,25 @@
       <c r="Z12">
         <v>0.70299999999999996</v>
       </c>
-      <c r="AA12" s="45">
+      <c r="AA12" s="46">
         <v>4.7089999999999996</v>
       </c>
-      <c r="AB12" s="45">
+      <c r="AB12" s="51">
         <f>((AC12+SQRT(L12^2-4))/2)^2</f>
         <v>3.0055825434123959</v>
       </c>
-      <c r="AC12" s="46">
+      <c r="AC12" s="47">
         <f>3*B12*(AA12-1)/C12</f>
         <v>2.335296296296296</v>
       </c>
-      <c r="AE12" s="44">
+      <c r="AE12" s="45">
         <v>5.4139999999999997</v>
       </c>
-      <c r="AF12" s="45" t="e">
+      <c r="AF12" s="54" t="e">
         <f>((AG12+SQRT(M12^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG12" s="46">
+      <c r="AG12" s="47">
         <f>3*B12*(AE12-1)/C12</f>
         <v>2.779185185185185</v>
       </c>
@@ -32864,6 +32913,7 @@
       <c r="T13" s="27">
         <v>2.726</v>
       </c>
+      <c r="V13" s="44"/>
       <c r="X13" s="26">
         <v>-9.0809999999999995</v>
       </c>
@@ -32873,25 +32923,25 @@
       <c r="Z13">
         <v>1.139</v>
       </c>
-      <c r="AA13" s="45">
+      <c r="AA13" s="46">
         <v>4.9379999999999997</v>
       </c>
-      <c r="AB13" s="45">
+      <c r="AB13" s="51">
         <f>((AC13+SQRT(L13^2-4))/2)^2</f>
         <v>3.2401839130785568</v>
       </c>
-      <c r="AC13" s="46">
+      <c r="AC13" s="47">
         <f>3*B13*(AA13-1)/C13</f>
         <v>2.4579463087248317</v>
       </c>
-      <c r="AE13" s="44">
+      <c r="AE13" s="45">
         <v>5.617</v>
       </c>
-      <c r="AF13" s="45" t="e">
+      <c r="AF13" s="54" t="e">
         <f>((AG13+SQRT(M13^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG13" s="46">
+      <c r="AG13" s="47">
         <f>3*B13*(AE13-1)/C13</f>
         <v>2.8817516778523489</v>
       </c>
@@ -32943,6 +32993,7 @@
       <c r="T14" s="27">
         <v>3.1219999999999999</v>
       </c>
+      <c r="V14" s="44"/>
       <c r="X14" s="26">
         <v>-9.6319999999999997</v>
       </c>
@@ -32952,25 +33003,25 @@
       <c r="Z14">
         <v>1.605</v>
       </c>
-      <c r="AA14" s="45">
+      <c r="AA14" s="46">
         <v>5.375</v>
       </c>
-      <c r="AB14" s="45">
+      <c r="AB14" s="51">
         <f>((AC14+SQRT(L14^2-4))/2)^2</f>
         <v>3.041076775252761</v>
       </c>
-      <c r="AC14" s="46">
+      <c r="AC14" s="47">
         <f>3*B14*(AA14-1)/C14</f>
         <v>2.347711267605634</v>
       </c>
-      <c r="AE14" s="44">
+      <c r="AE14" s="45">
         <v>5.9669999999999996</v>
       </c>
-      <c r="AF14" s="45" t="e">
+      <c r="AF14" s="54" t="e">
         <f>((AG14+SQRT(M14^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG14" s="46">
+      <c r="AG14" s="47">
         <f>3*B14*(AE14-1)/C14</f>
         <v>2.6653901408450702</v>
       </c>
@@ -33013,6 +33064,7 @@
       <c r="T15" s="27">
         <v>3.9580000000000002</v>
       </c>
+      <c r="V15" s="44"/>
       <c r="X15" s="26">
         <v>-8.4559999999999995</v>
       </c>
@@ -33022,25 +33074,25 @@
       <c r="Z15">
         <v>1.077</v>
       </c>
-      <c r="AA15" s="45">
+      <c r="AA15" s="46">
         <v>6.3559999999999999</v>
       </c>
-      <c r="AB15" s="45">
+      <c r="AB15" s="51">
         <f>((AC15+SQRT(L15^2-4))/2)^2</f>
         <v>4.5700243871444197</v>
       </c>
-      <c r="AC15" s="46">
+      <c r="AC15" s="47">
         <f>3*B15*(AA15-1)/C15</f>
         <v>3.1224340425531922</v>
       </c>
-      <c r="AE15" s="44">
+      <c r="AE15" s="45">
         <v>2.82</v>
       </c>
-      <c r="AF15" s="45" t="e">
+      <c r="AF15" s="54" t="e">
         <f>((AG15+SQRT(M15^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG15" s="46">
+      <c r="AG15" s="47">
         <f>3*B15*(AE15-1)/C15</f>
         <v>1.0610212765957447</v>
       </c>
@@ -33092,6 +33144,9 @@
       <c r="T16" s="27">
         <v>3.4449999999999998</v>
       </c>
+      <c r="V16" s="49">
+        <v>2.4802399999999998</v>
+      </c>
       <c r="X16" s="26">
         <v>-7.1079999999999997</v>
       </c>
@@ -33101,25 +33156,25 @@
       <c r="Z16">
         <v>1.3049999999999999</v>
       </c>
-      <c r="AA16" s="45">
+      <c r="AA16" s="46">
         <v>5.7539999999999996</v>
       </c>
-      <c r="AB16" s="45">
+      <c r="AB16" s="51">
         <f>((AC16+SQRT(L16^2-4))/2)^2</f>
         <v>3.6613956588064531</v>
       </c>
-      <c r="AC16" s="46">
+      <c r="AC16" s="47">
         <f>3*B16*(AA16-1)/C16</f>
         <v>2.6882330935251799</v>
       </c>
-      <c r="AE16" s="44">
+      <c r="AE16" s="45">
         <v>6.3230000000000004</v>
       </c>
-      <c r="AF16" s="45" t="e">
+      <c r="AF16" s="54" t="e">
         <f>((AG16+SQRT(M16^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG16" s="46">
+      <c r="AG16" s="47">
         <f>3*B16*(AE16-1)/C16</f>
         <v>3.0099841726618712</v>
       </c>
@@ -33162,6 +33217,7 @@
       <c r="T17" s="27">
         <v>3.637</v>
       </c>
+      <c r="V17" s="44"/>
       <c r="X17" s="26">
         <v>-5.7759999999999998</v>
       </c>
@@ -33171,25 +33227,25 @@
       <c r="Z17">
         <v>1.222</v>
       </c>
-      <c r="AA17" s="45">
+      <c r="AA17" s="46">
         <v>6.0060000000000002</v>
       </c>
-      <c r="AB17" s="45">
+      <c r="AB17" s="51">
         <f>((AC17+SQRT(L17^2-4))/2)^2</f>
         <v>4.1531299261495995</v>
       </c>
-      <c r="AC17" s="46">
+      <c r="AC17" s="47">
         <f>3*B17*(AA17-1)/C17</f>
         <v>2.9383043478260875</v>
       </c>
-      <c r="AE17" s="44">
+      <c r="AE17" s="45">
         <v>6.6079999999999997</v>
       </c>
-      <c r="AF17" s="45" t="e">
+      <c r="AF17" s="54" t="e">
         <f>((AG17+SQRT(M17^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG17" s="46">
+      <c r="AG17" s="47">
         <f>3*B17*(AE17-1)/C17</f>
         <v>3.291652173913044</v>
       </c>
@@ -33252,6 +33308,7 @@
       <c r="T18" s="27">
         <v>3.7810000000000001</v>
       </c>
+      <c r="V18" s="44"/>
       <c r="X18" s="26">
         <v>-4.0960000000000001</v>
       </c>
@@ -33261,25 +33318,25 @@
       <c r="Z18">
         <v>0.86199999999999999</v>
       </c>
-      <c r="AA18" s="45">
+      <c r="AA18" s="46">
         <v>6.173</v>
       </c>
-      <c r="AB18" s="45">
+      <c r="AB18" s="51">
         <f>((AC18+SQRT(L18^2-4))/2)^2</f>
         <v>4.3011591155614735</v>
       </c>
-      <c r="AC18" s="46">
+      <c r="AC18" s="47">
         <f>3*B18*(AA18-1)/C18</f>
         <v>2.9937361702127663</v>
       </c>
-      <c r="AE18" s="44">
+      <c r="AE18" s="45">
         <v>6.7480000000000002</v>
       </c>
-      <c r="AF18" s="45">
+      <c r="AF18" s="54">
         <f>((AG18+SQRT(M18^2-4))/2)^2</f>
         <v>5.6124779948387564</v>
       </c>
-      <c r="AG18" s="46">
+      <c r="AG18" s="47">
         <f>3*B18*(AE18-1)/C18</f>
         <v>3.326502127659575</v>
       </c>
@@ -33331,6 +33388,9 @@
       <c r="T19" s="27">
         <v>4.0990000000000002</v>
       </c>
+      <c r="V19" s="49">
+        <v>3.01309</v>
+      </c>
       <c r="X19" s="26">
         <v>-1.266</v>
       </c>
@@ -33340,25 +33400,25 @@
       <c r="Z19">
         <v>0.44600000000000001</v>
       </c>
-      <c r="AA19" s="45">
+      <c r="AA19" s="46">
         <v>6.49</v>
       </c>
-      <c r="AB19" s="45">
+      <c r="AB19" s="51">
         <f>((AC19+SQRT(L19^2-4))/2)^2</f>
         <v>2.9479431509361413</v>
       </c>
-      <c r="AC19" s="46">
+      <c r="AC19" s="47">
         <f>3*B19*(AA19-1)/C19</f>
         <v>2.2993831168831171</v>
       </c>
-      <c r="AE19" s="44">
+      <c r="AE19" s="45">
         <v>6.8849999999999998</v>
       </c>
-      <c r="AF19" s="45" t="e">
+      <c r="AF19" s="54" t="e">
         <f>((AG19+SQRT(M19^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG19" s="46">
+      <c r="AG19" s="47">
         <f>3*B19*(AE19-1)/C19</f>
         <v>2.4648214285714283</v>
       </c>
@@ -33401,6 +33461,7 @@
       <c r="T20" s="27">
         <v>3.5870000000000002</v>
       </c>
+      <c r="V20" s="44"/>
       <c r="X20" s="26">
         <v>-4.6230000000000002</v>
       </c>
@@ -33410,25 +33471,25 @@
       <c r="Z20">
         <v>0.36699999999999999</v>
       </c>
-      <c r="AA20" s="45">
+      <c r="AA20" s="46">
         <v>5.8979999999999997</v>
       </c>
-      <c r="AB20" s="45">
+      <c r="AB20" s="51">
         <f>((AC20+SQRT(L20^2-4))/2)^2</f>
         <v>3.9911402800693385</v>
       </c>
-      <c r="AC20" s="46">
+      <c r="AC20" s="47">
         <f>3*B20*(AA20-1)/C20</f>
         <v>2.9054045454545454</v>
       </c>
-      <c r="AE20" s="44">
+      <c r="AE20" s="45">
         <v>6.3810000000000002</v>
       </c>
-      <c r="AF20" s="45" t="e">
+      <c r="AF20" s="54" t="e">
         <f>((AG20+SQRT(M20^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG20" s="46">
+      <c r="AG20" s="47">
         <f>3*B20*(AE20-1)/C20</f>
         <v>3.1919113636363639</v>
       </c>
@@ -33491,6 +33552,7 @@
       <c r="T21" s="27">
         <v>2.661</v>
       </c>
+      <c r="V21" s="44"/>
       <c r="X21" s="26">
         <v>-0.96199999999999997</v>
       </c>
@@ -33500,25 +33562,25 @@
       <c r="Z21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AA21" s="45">
+      <c r="AA21" s="46">
         <v>4.8540000000000001</v>
       </c>
-      <c r="AB21" s="45">
+      <c r="AB21" s="51">
         <f>((AC21+SQRT(L21^2-4))/2)^2</f>
         <v>3.7950983782779653</v>
       </c>
-      <c r="AC21" s="46">
+      <c r="AC21" s="47">
         <f>3*B21*(AA21-1)/C21</f>
         <v>2.7664712727272733</v>
       </c>
-      <c r="AE21" s="44">
+      <c r="AE21" s="45">
         <v>5.5190000000000001</v>
       </c>
-      <c r="AF21" s="45">
+      <c r="AF21" s="54">
         <f>((AG21+SQRT(M21^2-4))/2)^2</f>
         <v>4.3455281361501168</v>
       </c>
-      <c r="AG21" s="46">
+      <c r="AG21" s="47">
         <f>3*B21*(AE21-1)/C21</f>
         <v>3.2438203636363641</v>
       </c>
@@ -33553,6 +33615,9 @@
       <c r="T22" s="27">
         <v>2.0310000000000001</v>
       </c>
+      <c r="V22" s="49">
+        <v>3.5339100000000001</v>
+      </c>
       <c r="X22" s="26">
         <v>-6.4649999999999999</v>
       </c>
@@ -33562,19 +33627,19 @@
       <c r="Z22">
         <v>0.252</v>
       </c>
-      <c r="AA22" s="45">
+      <c r="AA22" s="46">
         <v>4.1689999999999996</v>
       </c>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="46"/>
-      <c r="AE22" s="44">
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="47"/>
+      <c r="AE22" s="45">
         <v>4.9640000000000004</v>
       </c>
-      <c r="AF22" s="45" t="e">
+      <c r="AF22" s="54" t="e">
         <f>((AG22+SQRT(M22^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG22" s="46">
+      <c r="AG22" s="47">
         <f>3*B22*(AE22-1)/C22</f>
         <v>2.8086633165829147</v>
       </c>
@@ -33626,6 +33691,9 @@
       <c r="T23" s="27">
         <v>2.2959999999999998</v>
       </c>
+      <c r="V23" s="49">
+        <v>3.1914699999999998</v>
+      </c>
       <c r="X23" s="26">
         <v>-8.5470000000000006</v>
       </c>
@@ -33635,25 +33703,25 @@
       <c r="Z23">
         <v>0.58699999999999997</v>
       </c>
-      <c r="AA23" s="45">
+      <c r="AA23" s="46">
         <v>4.46</v>
       </c>
-      <c r="AB23" s="45">
+      <c r="AB23" s="51">
         <f>((AC23+SQRT(L23^2-4))/2)^2</f>
         <v>2.9667043539457598</v>
       </c>
-      <c r="AC23" s="46">
+      <c r="AC23" s="47">
         <f>3*B23*(AA23-1)/C23</f>
         <v>2.316440677966102</v>
       </c>
-      <c r="AE23" s="44">
+      <c r="AE23" s="45">
         <v>5.2039999999999997</v>
       </c>
-      <c r="AF23" s="45" t="e">
+      <c r="AF23" s="54" t="e">
         <f>((AG23+SQRT(M23^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG23" s="46">
+      <c r="AG23" s="47">
         <f>3*B23*(AE23-1)/C23</f>
         <v>2.8145423728813559</v>
       </c>
@@ -33696,6 +33764,7 @@
       <c r="T24" s="27">
         <v>2.7519999999999998</v>
       </c>
+      <c r="V24" s="44"/>
       <c r="X24" s="26">
         <v>-10.093999999999999</v>
       </c>
@@ -33705,25 +33774,25 @@
       <c r="Z24">
         <v>1.0820000000000001</v>
       </c>
-      <c r="AA24" s="45">
+      <c r="AA24" s="46">
         <v>4.96</v>
       </c>
-      <c r="AB24" s="45">
+      <c r="AB24" s="51">
         <f>((AC24+SQRT(L24^2-4))/2)^2</f>
         <v>3.2141479703883951</v>
       </c>
-      <c r="AC24" s="46">
+      <c r="AC24" s="47">
         <f>3*B24*(AA24-1)/C24</f>
         <v>2.4488834355828222</v>
       </c>
-      <c r="AE24" s="44">
+      <c r="AE24" s="45">
         <v>5.6189999999999998</v>
       </c>
-      <c r="AF24" s="45" t="e">
+      <c r="AF24" s="54" t="e">
         <f>((AG24+SQRT(M24^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG24" s="46">
+      <c r="AG24" s="47">
         <f>3*B24*(AE24-1)/C24</f>
         <v>2.8564122699386507</v>
       </c>
@@ -33775,6 +33844,7 @@
       <c r="T25" s="27">
         <v>3.2</v>
       </c>
+      <c r="V25" s="44"/>
       <c r="X25" s="26">
         <v>-10.848000000000001</v>
       </c>
@@ -33784,25 +33854,25 @@
       <c r="Z25">
         <v>1.635</v>
       </c>
-      <c r="AA25" s="45">
+      <c r="AA25" s="46">
         <v>5.4560000000000004</v>
       </c>
-      <c r="AB25" s="45">
+      <c r="AB25" s="51">
         <f>((AC25+SQRT(L25^2-4))/2)^2</f>
         <v>2.9364441619402366</v>
       </c>
-      <c r="AC25" s="46">
+      <c r="AC25" s="47">
         <f>3*B25*(AA25-1)/C25</f>
         <v>2.2854967741935486</v>
       </c>
-      <c r="AE25" s="44">
+      <c r="AE25" s="45">
         <v>6.02</v>
       </c>
-      <c r="AF25" s="45" t="e">
+      <c r="AF25" s="54" t="e">
         <f>((AG25+SQRT(M25^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG25" s="46">
+      <c r="AG25" s="47">
         <f>3*B25*(AE25-1)/C25</f>
         <v>2.5747741935483868</v>
       </c>
@@ -33845,6 +33915,9 @@
       <c r="T26" s="27">
         <v>3.7130000000000001</v>
       </c>
+      <c r="V26" s="49">
+        <v>2.6724700000000001</v>
+      </c>
       <c r="X26" s="26">
         <v>-9.2739999999999991</v>
       </c>
@@ -33854,25 +33927,25 @@
       <c r="Z26">
         <v>1.9139999999999999</v>
       </c>
-      <c r="AA26" s="45">
+      <c r="AA26" s="46">
         <v>6.0380000000000003</v>
       </c>
-      <c r="AB26" s="45">
+      <c r="AB26" s="51">
         <f>((AC26+SQRT(L26^2-4))/2)^2</f>
         <v>3.3059621164546451</v>
       </c>
-      <c r="AC26" s="46">
+      <c r="AC26" s="47">
         <f>3*B26*(AA26-1)/C26</f>
         <v>2.5019797297297299</v>
       </c>
-      <c r="AE26" s="44">
+      <c r="AE26" s="45">
         <v>6.4859999999999998</v>
       </c>
-      <c r="AF26" s="45" t="e">
+      <c r="AF26" s="54" t="e">
         <f>((AG26+SQRT(M26^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG26" s="46">
+      <c r="AG26" s="47">
         <f>3*B26*(AE26-1)/C26</f>
         <v>2.7244662162162161</v>
       </c>
@@ -33906,6 +33979,7 @@
       <c r="T27" s="27">
         <v>3.9740000000000002</v>
       </c>
+      <c r="V27" s="44"/>
       <c r="X27" s="26">
         <v>-7.3440000000000003</v>
       </c>
@@ -33915,16 +33989,16 @@
       <c r="Z27">
         <v>1.556</v>
       </c>
-      <c r="AA27" s="45">
+      <c r="AA27" s="46">
         <v>6.3380000000000001</v>
       </c>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="46"/>
-      <c r="AE27" s="44">
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="47"/>
+      <c r="AE27" s="45">
         <v>6.7279999999999998</v>
       </c>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="46"/>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="47"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
@@ -33973,6 +34047,7 @@
       <c r="T28" s="27">
         <v>4.2569999999999997</v>
       </c>
+      <c r="V28" s="44"/>
       <c r="X28" s="26">
         <v>-5.1820000000000004</v>
       </c>
@@ -33982,25 +34057,25 @@
       <c r="Z28">
         <v>1.0149999999999999</v>
       </c>
-      <c r="AA28" s="45">
+      <c r="AA28" s="46">
         <v>6.6589999999999998</v>
       </c>
-      <c r="AB28" s="45">
+      <c r="AB28" s="51">
         <f>((AC28+SQRT(L28^2-4))/2)^2</f>
         <v>3.5649038577368226</v>
       </c>
-      <c r="AC28" s="46">
+      <c r="AC28" s="47">
         <f>3*B28*(AA28-1)/C28</f>
         <v>2.647071710526316</v>
       </c>
-      <c r="AE28" s="44">
+      <c r="AE28" s="45">
         <v>6.9509999999999996</v>
       </c>
-      <c r="AF28" s="45" t="e">
+      <c r="AF28" s="54" t="e">
         <f>((AG28+SQRT(M28^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG28" s="46">
+      <c r="AG28" s="47">
         <f>3*B28*(AE28-1)/C28</f>
         <v>2.7836585526315782</v>
       </c>
@@ -34063,6 +34138,7 @@
       <c r="T29" s="27">
         <v>4.4649999999999999</v>
       </c>
+      <c r="V29" s="44"/>
       <c r="X29" s="26">
         <v>-2.827</v>
       </c>
@@ -34072,25 +34148,25 @@
       <c r="Z29">
         <v>0.54700000000000004</v>
       </c>
-      <c r="AA29" s="45">
+      <c r="AA29" s="46">
         <v>6.9160000000000004</v>
       </c>
-      <c r="AB29" s="45">
+      <c r="AB29" s="51">
         <f>((AC29+SQRT(L29^2-4))/2)^2</f>
         <v>4.2216141417231317</v>
       </c>
-      <c r="AC29" s="46">
+      <c r="AC29" s="47">
         <f>3*B29*(AA29-1)/C29</f>
         <v>2.9838825</v>
       </c>
-      <c r="AE29" s="44">
+      <c r="AE29" s="45">
         <v>7.1890000000000001</v>
       </c>
-      <c r="AF29" s="45">
+      <c r="AF29" s="54">
         <f>((AG29+SQRT(M29^2-4))/2)^2</f>
         <v>5.1503096326316014</v>
       </c>
-      <c r="AG29" s="46">
+      <c r="AG29" s="47">
         <f>3*B29*(AE29-1)/C29</f>
         <v>3.1215768749999997</v>
       </c>
@@ -34142,6 +34218,9 @@
       <c r="T30" s="27">
         <v>4.83</v>
       </c>
+      <c r="V30" s="49">
+        <v>3.44129</v>
+      </c>
       <c r="X30" s="26">
         <v>-0.90800000000000003</v>
       </c>
@@ -34151,25 +34230,25 @@
       <c r="Z30">
         <v>0.25900000000000001</v>
       </c>
-      <c r="AA30" s="45">
+      <c r="AA30" s="46">
         <v>7.37</v>
       </c>
-      <c r="AB30" s="45">
+      <c r="AB30" s="51">
         <f>((AC30+SQRT(L30^2-4))/2)^2</f>
         <v>3.0516420540178606</v>
       </c>
-      <c r="AC30" s="46">
+      <c r="AC30" s="47">
         <f>3*B30*(AA30-1)/C30</f>
         <v>2.3638959537572255</v>
       </c>
-      <c r="AE30" s="44">
+      <c r="AE30" s="45">
         <v>7.6390000000000002</v>
       </c>
-      <c r="AF30" s="45" t="e">
+      <c r="AF30" s="54" t="e">
         <f>((AG30+SQRT(M30^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG30" s="46">
+      <c r="AG30" s="47">
         <f>3*B30*(AE30-1)/C30</f>
         <v>2.4637213872832371</v>
       </c>
@@ -34221,6 +34300,7 @@
       <c r="T31" s="27">
         <v>3.8929999999999998</v>
       </c>
+      <c r="V31" s="44"/>
       <c r="X31" s="26">
         <v>-2.7240000000000002</v>
       </c>
@@ -34230,25 +34310,25 @@
       <c r="Z31">
         <v>0.221</v>
       </c>
-      <c r="AA31" s="45">
+      <c r="AA31" s="46">
         <v>6.2380000000000004</v>
       </c>
-      <c r="AB31" s="45">
+      <c r="AB31" s="51">
         <f>((AC31+SQRT(L31^2-4))/2)^2</f>
         <v>4.4352777015791904</v>
       </c>
-      <c r="AC31" s="46">
+      <c r="AC31" s="47">
         <f>3*B31*(AA31-1)/C31</f>
         <v>3.0744782608695655</v>
       </c>
-      <c r="AE31" s="44">
+      <c r="AE31" s="45">
         <v>6.62</v>
       </c>
-      <c r="AF31" s="45" t="e">
+      <c r="AF31" s="54" t="e">
         <f>((AG31+SQRT(M31^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG31" s="46">
+      <c r="AG31" s="47">
         <f>3*B31*(AE31-1)/C31</f>
         <v>3.298695652173913</v>
       </c>
@@ -34311,6 +34391,7 @@
       <c r="T32" s="27">
         <v>2.29</v>
       </c>
+      <c r="V32" s="44"/>
       <c r="X32" s="26">
         <v>-0.85299999999999998</v>
       </c>
@@ -34320,25 +34401,25 @@
       <c r="Z32">
         <v>1.2E-2</v>
       </c>
-      <c r="AA32" s="45">
+      <c r="AA32" s="46">
         <v>4.4539999999999997</v>
       </c>
-      <c r="AB32" s="45">
+      <c r="AB32" s="51">
         <f>((AC32+SQRT(L32^2-4))/2)^2</f>
         <v>3.2868755011955084</v>
       </c>
-      <c r="AC32" s="46">
+      <c r="AC32" s="47">
         <f>3*B32*(AA32-1)/C32</f>
         <v>2.4852092710782667</v>
       </c>
-      <c r="AE32" s="44">
+      <c r="AE32" s="45">
         <v>5.1980000000000004</v>
       </c>
-      <c r="AF32" s="45">
+      <c r="AF32" s="54">
         <f>((AG32+SQRT(M32^2-4))/2)^2</f>
         <v>3.6720576939757157</v>
       </c>
-      <c r="AG32" s="46">
+      <c r="AG32" s="47">
         <f>3*B32*(AE32-1)/C32</f>
         <v>3.0205293920053751</v>
       </c>
@@ -34390,6 +34471,7 @@
       <c r="T33" s="27">
         <v>1.897</v>
       </c>
+      <c r="V33" s="44"/>
       <c r="X33" s="26">
         <v>-1.923</v>
       </c>
@@ -34399,25 +34481,25 @@
       <c r="Z33">
         <v>5.5E-2</v>
       </c>
-      <c r="AA33" s="45">
+      <c r="AA33" s="46">
         <v>4.0209999999999999</v>
       </c>
-      <c r="AB33" s="45">
+      <c r="AB33" s="51">
         <f>((AC33+SQRT(L33^2-4))/2)^2</f>
         <v>2.5466320678353944</v>
       </c>
-      <c r="AC33" s="46">
+      <c r="AC33" s="47">
         <f>3*B33*(AA33-1)/C33</f>
         <v>2.0557536585365854</v>
       </c>
-      <c r="AE33" s="44">
+      <c r="AE33" s="45">
         <v>4.8159999999999998</v>
       </c>
-      <c r="AF33" s="45" t="e">
+      <c r="AF33" s="54" t="e">
         <f>((AG33+SQRT(M33^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG33" s="46">
+      <c r="AG33" s="47">
         <f>3*B33*(AE33-1)/C33</f>
         <v>2.5967414634146344</v>
       </c>
@@ -34460,6 +34542,7 @@
       <c r="T34" s="27">
         <v>3.3029999999999999</v>
       </c>
+      <c r="V34" s="44"/>
       <c r="X34" s="26">
         <v>-5.9340000000000002</v>
       </c>
@@ -34469,25 +34552,25 @@
       <c r="Z34">
         <v>0.252</v>
       </c>
-      <c r="AA34" s="45">
+      <c r="AA34" s="46">
         <v>5.593</v>
       </c>
-      <c r="AB34" s="45">
+      <c r="AB34" s="51">
         <f>((AC34+SQRT(L34^2-4))/2)^2</f>
         <v>7.7176621431587549</v>
       </c>
-      <c r="AC34" s="46">
+      <c r="AC34" s="47">
         <f>3*B34*(AA34-1)/C34</f>
         <v>4.4201940594059401</v>
       </c>
-      <c r="AE34" s="44">
+      <c r="AE34" s="45">
         <v>6.1660000000000004</v>
       </c>
-      <c r="AF34" s="45" t="e">
+      <c r="AF34" s="54" t="e">
         <f>((AG34+SQRT(M34^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG34" s="46">
+      <c r="AG34" s="47">
         <f>3*B34*(AE34-1)/C34</f>
         <v>4.9716356435643565</v>
       </c>
@@ -34504,7 +34587,7 @@
       <c r="L35" s="36"/>
       <c r="N35" s="38"/>
       <c r="P35" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q35" s="26">
         <v>-4.7629999999999999</v>
@@ -34518,6 +34601,9 @@
       <c r="T35" s="27">
         <v>1.94</v>
       </c>
+      <c r="V35" s="49">
+        <v>3.6671</v>
+      </c>
       <c r="X35" s="26">
         <v>-4.7640000000000002</v>
       </c>
@@ -34527,16 +34613,16 @@
       <c r="Z35">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AA35" s="45">
+      <c r="AA35" s="46">
         <v>4.0730000000000004</v>
       </c>
-      <c r="AB35" s="45"/>
-      <c r="AC35" s="46"/>
-      <c r="AE35" s="44">
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="47"/>
+      <c r="AE35" s="45">
         <v>4.8719999999999999</v>
       </c>
-      <c r="AF35" s="45"/>
-      <c r="AG35" s="46"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="47"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
@@ -34576,6 +34662,9 @@
       <c r="T36" s="27">
         <v>2.0790000000000002</v>
       </c>
+      <c r="V36" s="49">
+        <v>4.0095700000000001</v>
+      </c>
       <c r="X36" s="26">
         <v>-10.257999999999999</v>
       </c>
@@ -34585,25 +34674,25 @@
       <c r="Z36">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="AA36" s="45">
+      <c r="AA36" s="46">
         <v>4.2279999999999998</v>
       </c>
-      <c r="AB36" s="45">
+      <c r="AB36" s="51">
         <f>((AC36+SQRT(L36^2-4))/2)^2</f>
         <v>2.5183483751194671</v>
       </c>
-      <c r="AC36" s="46">
+      <c r="AC36" s="47">
         <f>3*B36*(AA36-1)/C36</f>
         <v>2.0391859030837001</v>
       </c>
-      <c r="AE36" s="44">
+      <c r="AE36" s="45">
         <v>5.0229999999999997</v>
       </c>
-      <c r="AF36" s="45" t="e">
+      <c r="AF36" s="54" t="e">
         <f>((AG36+SQRT(M36^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG36" s="46">
+      <c r="AG36" s="47">
         <f>3*B36*(AE36-1)/C36</f>
         <v>2.5414017621145373</v>
       </c>
@@ -34646,6 +34735,9 @@
       <c r="T37" s="27">
         <v>1.9410000000000001</v>
       </c>
+      <c r="V37" s="49">
+        <v>3.56047</v>
+      </c>
       <c r="X37" s="26">
         <v>-14.079000000000001</v>
       </c>
@@ -34655,25 +34747,25 @@
       <c r="Z37">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AA37" s="45">
+      <c r="AA37" s="46">
         <v>4.08</v>
       </c>
-      <c r="AB37" s="45">
+      <c r="AB37" s="51">
         <f>((AC37+SQRT(L37^2-4))/2)^2</f>
         <v>2.7365471945985838</v>
       </c>
-      <c r="AC37" s="46">
+      <c r="AC37" s="47">
         <f>3*B37*(AA37-1)/C37</f>
         <v>2.1683819095477386</v>
       </c>
-      <c r="AE37" s="44">
+      <c r="AE37" s="45">
         <v>4.9059999999999997</v>
       </c>
-      <c r="AF37" s="45" t="e">
+      <c r="AF37" s="54" t="e">
         <f>((AG37+SQRT(M37^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG37" s="46">
+      <c r="AG37" s="47">
         <f>3*B37*(AE37-1)/C37</f>
         <v>2.749902512562814</v>
       </c>
@@ -34701,12 +34793,13 @@
         <v>2.3003265306122453</v>
       </c>
       <c r="N38" s="38"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="46"/>
-      <c r="AE38" s="44"/>
-      <c r="AF38" s="45"/>
-      <c r="AG38" s="46"/>
+      <c r="V38" s="44"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="47"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="47"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
@@ -34746,6 +34839,9 @@
       <c r="T39" s="27">
         <v>2.036</v>
       </c>
+      <c r="V39" s="49">
+        <v>3.46096</v>
+      </c>
       <c r="X39" s="26">
         <v>-4.5640000000000001</v>
       </c>
@@ -34755,25 +34851,25 @@
       <c r="Z39">
         <v>0.27200000000000002</v>
       </c>
-      <c r="AA39" s="45">
+      <c r="AA39" s="46">
         <v>4.1749999999999998</v>
       </c>
-      <c r="AB39" s="45">
+      <c r="AB39" s="51">
         <f>((AC39+SQRT(L39^2-4))/2)^2</f>
         <v>2.3593064386655263</v>
       </c>
-      <c r="AC39" s="46">
+      <c r="AC39" s="47">
         <f>3*B39*(AA39-1)/C39</f>
         <v>1.929548969072165</v>
       </c>
-      <c r="AE39" s="44">
+      <c r="AE39" s="45">
         <v>4.9720000000000004</v>
       </c>
-      <c r="AF39" s="45" t="e">
+      <c r="AF39" s="54" t="e">
         <f>((AG39+SQRT(M39^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG39" s="46">
+      <c r="AG39" s="47">
         <f>3*B39*(AE39-1)/C39</f>
         <v>2.413911340206186</v>
       </c>
@@ -34810,12 +34906,13 @@
         <f t="shared" ref="N40:N49" si="9">3*B40*(F40-1)/C40</f>
         <v>2.6400994974874377</v>
       </c>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="46"/>
-      <c r="AE40" s="44"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="46"/>
+      <c r="V40" s="44"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="47"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="54"/>
+      <c r="AG40" s="47"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
@@ -34864,6 +34961,9 @@
       <c r="T41" s="27">
         <v>2.3410000000000002</v>
       </c>
+      <c r="V41" s="49">
+        <v>3.1383899999999998</v>
+      </c>
       <c r="X41" s="26">
         <v>-9.9559999999999995</v>
       </c>
@@ -34873,25 +34973,25 @@
       <c r="Z41">
         <v>0.67600000000000005</v>
       </c>
-      <c r="AA41" s="45">
+      <c r="AA41" s="46">
         <v>4.5090000000000003</v>
       </c>
-      <c r="AB41" s="45">
+      <c r="AB41" s="51">
         <f>((AC41+SQRT(L41^2-4))/2)^2</f>
         <v>2.8629718990190747</v>
       </c>
-      <c r="AC41" s="46">
+      <c r="AC41" s="47">
         <f>3*B41*(AA41-1)/C41</f>
         <v>2.2566500000000005</v>
       </c>
-      <c r="AE41" s="44">
+      <c r="AE41" s="45">
         <v>5.2450000000000001</v>
       </c>
-      <c r="AF41" s="45" t="e">
+      <c r="AF41" s="54" t="e">
         <f>((AG41+SQRT(M41^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG41" s="46">
+      <c r="AG41" s="47">
         <f>3*B41*(AE41-1)/C41</f>
         <v>2.7299741379310345</v>
       </c>
@@ -34943,6 +35043,7 @@
       <c r="T42" s="27">
         <v>2.3410000000000002</v>
       </c>
+      <c r="V42" s="44"/>
       <c r="X42" s="26">
         <v>-11.853999999999999</v>
       </c>
@@ -34952,25 +35053,25 @@
       <c r="Z42">
         <v>1.22</v>
       </c>
-      <c r="AA42" s="45">
+      <c r="AA42" s="46">
         <v>4.8849999999999998</v>
       </c>
-      <c r="AB42" s="45">
+      <c r="AB42" s="51">
         <f>((AC42+SQRT(L42^2-4))/2)^2</f>
         <v>3.0937344478107565</v>
       </c>
-      <c r="AC42" s="46">
+      <c r="AC42" s="47">
         <f>3*B42*(AA42-1)/C42</f>
         <v>2.3741666666666665</v>
       </c>
-      <c r="AE42" s="44">
+      <c r="AE42" s="45">
         <v>5.5529999999999999</v>
       </c>
-      <c r="AF42" s="45" t="e">
+      <c r="AF42" s="54" t="e">
         <f>((AG42+SQRT(M42^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG42" s="46">
+      <c r="AG42" s="47">
         <f>3*B42*(AE42-1)/C42</f>
         <v>2.7823888888888884</v>
       </c>
@@ -35022,6 +35123,7 @@
       <c r="T43" s="27">
         <v>3.11</v>
       </c>
+      <c r="V43" s="44"/>
       <c r="X43" s="26">
         <v>-12.961</v>
       </c>
@@ -35031,25 +35133,25 @@
       <c r="Z43">
         <v>1.8919999999999999</v>
       </c>
-      <c r="AA43" s="45">
+      <c r="AA43" s="46">
         <v>5.3609999999999998</v>
       </c>
-      <c r="AB43" s="45">
+      <c r="AB43" s="51">
         <f>((AC43+SQRT(L43^2-4))/2)^2</f>
         <v>2.9384603424821143</v>
       </c>
-      <c r="AC43" s="46">
+      <c r="AC43" s="47">
         <f>3*B43*(AA43-1)/C43</f>
         <v>2.2979115384615385</v>
       </c>
-      <c r="AE43" s="44">
+      <c r="AE43" s="45">
         <v>5.9530000000000003</v>
       </c>
-      <c r="AF43" s="45" t="e">
+      <c r="AF43" s="54" t="e">
         <f>((AG43+SQRT(M43^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG43" s="46">
+      <c r="AG43" s="47">
         <f>3*B43*(AE43-1)/C43</f>
         <v>2.6098500000000002</v>
       </c>
@@ -35101,6 +35203,9 @@
       <c r="T44" s="27">
         <v>3.359</v>
       </c>
+      <c r="V44" s="49">
+        <v>2.7629899999999998</v>
+      </c>
       <c r="X44" s="26">
         <v>-12.446</v>
       </c>
@@ -35110,25 +35215,25 @@
       <c r="Z44">
         <v>2.258</v>
       </c>
-      <c r="AA44" s="45">
+      <c r="AA44" s="46">
         <v>5.6379999999999999</v>
       </c>
-      <c r="AB44" s="45">
+      <c r="AB44" s="51">
         <f>((AC44+SQRT(L44^2-4))/2)^2</f>
         <v>2.8880119262002446</v>
       </c>
-      <c r="AC44" s="46">
+      <c r="AC44" s="47">
         <f>3*B44*(AA44-1)/C44</f>
         <v>2.2610249999999996</v>
       </c>
-      <c r="AE44" s="44">
+      <c r="AE44" s="45">
         <v>6.1740000000000004</v>
       </c>
-      <c r="AF44" s="45" t="e">
+      <c r="AF44" s="54" t="e">
         <f>((AG44+SQRT(M44^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG44" s="46">
+      <c r="AG44" s="47">
         <f>3*B44*(AE44-1)/C44</f>
         <v>2.5223249999999999</v>
       </c>
@@ -35189,25 +35294,25 @@
       <c r="Z45">
         <v>2.1309999999999998</v>
       </c>
-      <c r="AA45" s="45">
+      <c r="AA45" s="46">
         <v>6.2380000000000004</v>
       </c>
-      <c r="AB45" s="45">
+      <c r="AB45" s="51">
         <f>((AC45+SQRT(L45^2-4))/2)^2</f>
         <v>3.1422200757038854</v>
       </c>
-      <c r="AC45" s="46">
+      <c r="AC45" s="47">
         <f>3*B45*(AA45-1)/C45</f>
         <v>2.4094800000000003</v>
       </c>
-      <c r="AE45" s="44">
+      <c r="AE45" s="45">
         <v>6.6609999999999996</v>
       </c>
-      <c r="AF45" s="45" t="e">
+      <c r="AF45" s="54" t="e">
         <f>((AG45+SQRT(M45^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG45" s="46">
+      <c r="AG45" s="47">
         <f>3*B45*(AE45-1)/C45</f>
         <v>2.60406</v>
       </c>
@@ -35268,25 +35373,25 @@
       <c r="Z46">
         <v>1.51</v>
       </c>
-      <c r="AA46" s="45">
+      <c r="AA46" s="46">
         <v>6.6459999999999999</v>
       </c>
-      <c r="AB46" s="45">
+      <c r="AB46" s="51">
         <f>((AC46+SQRT(L46^2-4))/2)^2</f>
         <v>3.5522526126201148</v>
       </c>
-      <c r="AC46" s="46">
+      <c r="AC46" s="47">
         <f>3*B46*(AA46-1)/C46</f>
         <v>2.6237294117647054</v>
       </c>
-      <c r="AE46" s="44">
+      <c r="AE46" s="45">
         <v>6.96</v>
       </c>
-      <c r="AF46" s="45" t="e">
+      <c r="AF46" s="54" t="e">
         <f>((AG46+SQRT(M46^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG46" s="46">
+      <c r="AG46" s="47">
         <f>3*B46*(AE46-1)/C46</f>
         <v>2.7696470588235291</v>
       </c>
@@ -35358,25 +35463,25 @@
       <c r="Z47">
         <v>0.83</v>
       </c>
-      <c r="AA47" s="45">
+      <c r="AA47" s="46">
         <v>7.0629999999999997</v>
       </c>
-      <c r="AB47" s="45">
+      <c r="AB47" s="51">
         <f>((AC47+SQRT(L47^2-4))/2)^2</f>
         <v>3.7032593817454766</v>
       </c>
-      <c r="AC47" s="46">
+      <c r="AC47" s="47">
         <f>3*B47*(AA47-1)/C47</f>
         <v>2.6997509433962263</v>
       </c>
-      <c r="AE47" s="44">
+      <c r="AE47" s="45">
         <v>7.258</v>
       </c>
-      <c r="AF47" s="45">
+      <c r="AF47" s="54">
         <f>((AG47+SQRT(M47^2-4))/2)^2</f>
         <v>3.3465619636311086</v>
       </c>
-      <c r="AG47" s="46">
+      <c r="AG47" s="47">
         <f>3*B47*(AE47-1)/C47</f>
         <v>2.7865811320754719</v>
       </c>
@@ -35437,25 +35542,25 @@
       <c r="Z48">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AA48" s="45">
+      <c r="AA48" s="46">
         <v>6.5419999999999998</v>
       </c>
-      <c r="AB48" s="45">
+      <c r="AB48" s="51">
         <f>((AC48+SQRT(L48^2-4))/2)^2</f>
         <v>4.0629517331192586</v>
       </c>
-      <c r="AC48" s="46">
+      <c r="AC48" s="47">
         <f>3*B48*(AA48-1)/C48</f>
         <v>2.896424210526316</v>
       </c>
-      <c r="AE48" s="44">
+      <c r="AE48" s="45">
         <v>6.88</v>
       </c>
-      <c r="AF48" s="45" t="e">
+      <c r="AF48" s="54" t="e">
         <f>((AG48+SQRT(M48^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG48" s="46">
+      <c r="AG48" s="47">
         <f>3*B48*(AE48-1)/C48</f>
         <v>3.0730736842105264</v>
       </c>
@@ -35516,25 +35621,25 @@
       <c r="Z49">
         <v>0.248</v>
       </c>
-      <c r="AA49" s="45">
+      <c r="AA49" s="46">
         <v>5.92</v>
       </c>
-      <c r="AB49" s="45">
+      <c r="AB49" s="51">
         <f>((AC49+SQRT(L49^2-4))/2)^2</f>
         <v>2.9752628312830272</v>
       </c>
-      <c r="AC49" s="46">
+      <c r="AC49" s="47">
         <f>3*B49*(AA49-1)/C49</f>
         <v>2.3172435233160624</v>
       </c>
-      <c r="AE49" s="44">
+      <c r="AE49" s="45">
         <v>6.3490000000000002</v>
       </c>
-      <c r="AF49" s="45" t="e">
+      <c r="AF49" s="54" t="e">
         <f>((AG49+SQRT(M49^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG49" s="46">
+      <c r="AG49" s="47">
         <f>3*B49*(AE49-1)/C49</f>
         <v>2.5192958549222797</v>
       </c>
@@ -35553,12 +35658,12 @@
       <c r="J50" s="38"/>
       <c r="L50" s="36"/>
       <c r="N50" s="38"/>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="46"/>
-      <c r="AE50" s="44"/>
-      <c r="AF50" s="45"/>
-      <c r="AG50" s="46"/>
+      <c r="AA50" s="46"/>
+      <c r="AB50" s="51"/>
+      <c r="AC50" s="47"/>
+      <c r="AE50" s="45"/>
+      <c r="AF50" s="54"/>
+      <c r="AG50" s="47"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
@@ -35616,25 +35721,25 @@
       <c r="Z51">
         <v>0.35699999999999998</v>
       </c>
-      <c r="AA51" s="45">
+      <c r="AA51" s="46">
         <v>4.4610000000000003</v>
       </c>
-      <c r="AB51" s="45">
+      <c r="AB51" s="51">
         <f>((AC51+SQRT(L51^2-4))/2)^2</f>
         <v>3.3447798793433638</v>
       </c>
-      <c r="AC51" s="46">
+      <c r="AC51" s="47">
         <f>3*B51*(AA51-1)/C51</f>
         <v>2.5200949748743717</v>
       </c>
-      <c r="AE51" s="44">
+      <c r="AE51" s="45">
         <v>5.1589999999999998</v>
       </c>
-      <c r="AF51" s="45" t="e">
+      <c r="AF51" s="54" t="e">
         <f>((AG51+SQRT(M51^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG51" s="46">
+      <c r="AG51" s="47">
         <f>3*B51*(AE51-1)/C51</f>
         <v>3.0283371859296477</v>
       </c>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17855A78-860B-4CC6-8780-4E1C9B7F52BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32554783-36F6-4821-9F39-07B748000160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="435" windowWidth="20070" windowHeight="14445" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="450" yWindow="570" windowWidth="20070" windowHeight="14730" activeTab="1" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="fit" sheetId="2" r:id="rId1"/>
@@ -56,12 +56,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="201">
   <si>
     <t>B</t>
     <phoneticPr fontId="1"/>
@@ -855,6 +866,10 @@
     <t>re(HCP or hexagonal)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1091,7 +1106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,31 +1230,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1255,6 +1255,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14705,8 +14717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC96F8-554A-49E8-A62F-FFDB865EC586}">
   <dimension ref="A2:AA469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31907,13 +31919,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC3F7D5-43B4-4A9C-BA0C-A78DC6ED6B37}">
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31934,19 +31946,18 @@
     <col min="16" max="16" width="9" style="11"/>
     <col min="17" max="17" width="9" style="26"/>
     <col min="20" max="20" width="9" style="27"/>
-    <col min="21" max="21" width="3.375" style="43" customWidth="1"/>
-    <col min="22" max="22" width="9" style="43"/>
+    <col min="21" max="21" width="3.375" customWidth="1"/>
     <col min="23" max="23" width="3.625" customWidth="1"/>
     <col min="24" max="24" width="9" style="26"/>
-    <col min="27" max="27" width="9" style="43"/>
     <col min="28" max="28" width="9" style="22"/>
-    <col min="29" max="29" width="9" style="27"/>
-    <col min="31" max="31" width="9" style="26"/>
-    <col min="32" max="32" width="9" style="52"/>
-    <col min="33" max="33" width="9" style="27"/>
+    <col min="29" max="29" width="9" style="50"/>
+    <col min="30" max="30" width="9" style="27"/>
+    <col min="32" max="32" width="9" style="26"/>
+    <col min="33" max="33" width="9" style="47"/>
+    <col min="34" max="34" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
       <c r="D1" s="1" t="s">
         <v>193</v>
       </c>
@@ -31966,13 +31977,13 @@
       <c r="X1" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AE1" s="26" t="s">
+      <c r="AC1" s="24"/>
+      <c r="AF1" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="AG1" s="25"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AH1" s="25"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="D2" s="2" t="s">
         <v>178</v>
       </c>
@@ -32005,21 +32016,22 @@
       </c>
       <c r="R2" s="39"/>
       <c r="S2" s="39"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
       <c r="X2" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="42"/>
-      <c r="AE2" s="40" t="s">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="41"/>
+      <c r="AF2" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="42"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="41"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
@@ -32071,7 +32083,7 @@
       <c r="T3" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="V3" s="48" t="s">
+      <c r="V3" t="s">
         <v>199</v>
       </c>
       <c r="X3" s="26" t="s">
@@ -32083,26 +32095,29 @@
       <c r="Z3" t="s">
         <v>182</v>
       </c>
-      <c r="AA3" s="43" t="s">
+      <c r="AA3" t="s">
         <v>197</v>
       </c>
-      <c r="AB3" s="50" t="s">
+      <c r="AB3" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="AC3" s="27" t="s">
+      <c r="AC3" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="AE3" s="26" t="s">
+      <c r="AD3" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF3" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="AF3" s="52" t="s">
+      <c r="AG3" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="AG3" s="27" t="s">
+      <c r="AH3" s="27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
@@ -32163,36 +32178,40 @@
       <c r="X4" s="26">
         <v>-1.9039999999999999</v>
       </c>
-      <c r="Y4" s="48">
+      <c r="Y4">
         <v>20.285</v>
       </c>
-      <c r="Z4" s="48">
+      <c r="Z4">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4" s="43">
         <v>4.4379999999999997</v>
       </c>
-      <c r="AB4" s="51">
-        <f>((AC4+SQRT(L4^2-4))/2)^2</f>
+      <c r="AB4" s="46">
+        <f t="shared" ref="AB4:AB21" si="0">((AC4+SQRT(L4^2-4))/2)^2</f>
         <v>4.9451723832598642</v>
       </c>
-      <c r="AC4" s="47">
-        <f>3*B4*(AA4-1)/C4</f>
+      <c r="AC4" s="52">
+        <f t="shared" ref="AC4:AC21" si="1">3*B4*(AA4-1)/C4</f>
         <v>3.3180000000000001</v>
       </c>
-      <c r="AE4" s="45">
+      <c r="AD4" s="44">
+        <f xml:space="preserve"> ((SQRT(AB4))^3/(AB4-1)+(SQRT(1/AB4)^3/(1/AB4-1))-2)/6</f>
+        <v>0.1122433779539876</v>
+      </c>
+      <c r="AF4" s="42">
         <v>5.1890000000000001</v>
       </c>
-      <c r="AF4" s="54">
-        <f>((AG4+SQRT(M4^2-4))/2)^2</f>
+      <c r="AG4" s="49">
+        <f t="shared" ref="AG4:AG26" si="2">((AH4+SQRT(M4^2-4))/2)^2</f>
         <v>7.2693537161122199</v>
       </c>
-      <c r="AG4" s="47">
-        <f>3*B4*(AE4-1)/C4</f>
+      <c r="AH4" s="44">
+        <f t="shared" ref="AH4:AH26" si="3">3*B4*(AF4-1)/C4</f>
         <v>4.0427870855148349</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>130</v>
       </c>
@@ -32209,7 +32228,7 @@
         <v>3.51</v>
       </c>
       <c r="H5" s="36">
-        <f t="shared" ref="H5:H21" si="0">((L5+SQRT(L5^2-4))/2)^2</f>
+        <f t="shared" ref="H5:H21" si="4">((L5+SQRT(L5^2-4))/2)^2</f>
         <v>2.9449959624745903</v>
       </c>
       <c r="J5" s="38" t="e">
@@ -32217,7 +32236,7 @@
         <v>#NUM!</v>
       </c>
       <c r="L5" s="36">
-        <f t="shared" ref="L5:L21" si="1">3*B5*(D5-1)/C5</f>
+        <f t="shared" ref="L5:L21" si="5">3*B5*(D5-1)/C5</f>
         <v>2.298816</v>
       </c>
       <c r="N5" s="38">
@@ -32239,7 +32258,7 @@
       <c r="T5" s="27">
         <v>2.2349999999999999</v>
       </c>
-      <c r="V5" s="49">
+      <c r="V5" s="10">
         <v>2.21095</v>
       </c>
       <c r="X5" s="26">
@@ -32251,30 +32270,34 @@
       <c r="Z5">
         <v>0.77300000000000002</v>
       </c>
-      <c r="AA5" s="46">
+      <c r="AA5" s="43">
         <v>4.3979999999999997</v>
       </c>
-      <c r="AB5" s="51">
-        <f>((AC5+SQRT(L5^2-4))/2)^2</f>
+      <c r="AB5" s="46">
+        <f t="shared" si="0"/>
         <v>3.3815614990535812</v>
       </c>
-      <c r="AC5" s="47">
-        <f>3*B5*(AA5-1)/C5</f>
+      <c r="AC5" s="52">
+        <f t="shared" si="1"/>
         <v>2.5444223999999993</v>
       </c>
-      <c r="AE5" s="45">
+      <c r="AD5" s="44">
+        <f t="shared" ref="AD5:AD51" si="6" xml:space="preserve"> ((SQRT(AB5))^3/(AB5-1)+(SQRT(1/AB5)^3/(1/AB5-1))-2)/6</f>
+        <v>6.3784158001917682E-2</v>
+      </c>
+      <c r="AF5" s="42">
         <v>5.1539999999999999</v>
       </c>
-      <c r="AF5" s="54" t="e">
-        <f>((AG5+SQRT(M5^2-4))/2)^2</f>
+      <c r="AG5" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG5" s="47">
-        <f>3*B5*(AE5-1)/C5</f>
+      <c r="AH5" s="44">
+        <f t="shared" si="3"/>
         <v>3.1105151999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>131</v>
       </c>
@@ -32294,7 +32317,7 @@
         <v>4.0819999999999999</v>
       </c>
       <c r="H6" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.961741938777394</v>
       </c>
       <c r="I6" s="37">
@@ -32306,7 +32329,7 @@
         <v>3.9903916646049105</v>
       </c>
       <c r="L6" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3020384615384617</v>
       </c>
       <c r="M6" s="37">
@@ -32332,7 +32355,7 @@
       <c r="T6" s="27">
         <v>2.6</v>
       </c>
-      <c r="V6" s="49">
+      <c r="V6" s="10">
         <v>3.7292200000000002</v>
       </c>
       <c r="X6" s="26">
@@ -32344,30 +32367,34 @@
       <c r="Z6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AA6" s="46">
+      <c r="AA6" s="43">
         <v>4.7960000000000003</v>
       </c>
-      <c r="AB6" s="51">
-        <f>((AC6+SQRT(L6^2-4))/2)^2</f>
+      <c r="AB6" s="46">
+        <f t="shared" si="0"/>
         <v>4.4454643673352043</v>
       </c>
-      <c r="AC6" s="47">
-        <f>3*B6*(AA6-1)/C6</f>
+      <c r="AC6" s="52">
+        <f t="shared" si="1"/>
         <v>3.0769500000000005</v>
       </c>
-      <c r="AE6" s="45">
+      <c r="AD6" s="44">
+        <f t="shared" si="6"/>
+        <v>9.7119036776207299E-2</v>
+      </c>
+      <c r="AF6" s="42">
         <v>5.4820000000000002</v>
       </c>
-      <c r="AF6" s="54">
-        <f>((AG6+SQRT(M6^2-4))/2)^2</f>
+      <c r="AG6" s="49">
+        <f t="shared" si="2"/>
         <v>5.9248025370452035</v>
       </c>
-      <c r="AG6" s="47">
-        <f>3*B6*(AE6-1)/C6</f>
+      <c r="AH6" s="44">
+        <f t="shared" si="3"/>
         <v>3.63300576923077</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
@@ -32384,7 +32411,7 @@
         <v>4.1890000000000001</v>
       </c>
       <c r="H7" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9391697933170455</v>
       </c>
       <c r="J7" s="38" t="e">
@@ -32392,7 +32419,7 @@
         <v>#NUM!</v>
       </c>
       <c r="L7" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2976949152542372</v>
       </c>
       <c r="N7" s="38">
@@ -32414,7 +32441,7 @@
       <c r="T7" s="27">
         <v>2.895</v>
       </c>
-      <c r="V7" s="49">
+      <c r="V7" s="10">
         <v>3.1607799999999999</v>
       </c>
       <c r="X7" s="26">
@@ -32426,30 +32453,34 @@
       <c r="Z7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AA7" s="46">
+      <c r="AA7" s="43">
         <v>5.133</v>
       </c>
-      <c r="AB7" s="51">
-        <f>((AC7+SQRT(L7^2-4))/2)^2</f>
+      <c r="AB7" s="46">
+        <f t="shared" si="0"/>
         <v>2.7967767376180865</v>
       </c>
-      <c r="AC7" s="47">
-        <f>3*B7*(AA7-1)/C7</f>
+      <c r="AC7" s="52">
+        <f t="shared" si="1"/>
         <v>2.213606779661017</v>
       </c>
-      <c r="AE7" s="45">
+      <c r="AD7" s="44">
+        <f t="shared" si="6"/>
+        <v>4.5052536697043934E-2</v>
+      </c>
+      <c r="AF7" s="42">
         <v>5.7960000000000003</v>
       </c>
-      <c r="AF7" s="54" t="e">
-        <f>((AG7+SQRT(M7^2-4))/2)^2</f>
+      <c r="AG7" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG7" s="47">
-        <f>3*B7*(AE7-1)/C7</f>
+      <c r="AH7" s="44">
+        <f t="shared" si="3"/>
         <v>2.5687050847457629</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>133</v>
       </c>
@@ -32469,7 +32500,7 @@
         <v>4.3650000000000002</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9671989511338528</v>
       </c>
       <c r="I8" s="37">
@@ -32481,7 +32512,7 @@
         <v>2.1417846784593828</v>
       </c>
       <c r="L8" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3030886075949368</v>
       </c>
       <c r="M8" s="37">
@@ -32507,7 +32538,7 @@
       <c r="T8" s="27">
         <v>3.4079999999999999</v>
       </c>
-      <c r="V8" s="44"/>
+      <c r="V8" s="10"/>
       <c r="X8" s="26">
         <v>-3.7440000000000002</v>
       </c>
@@ -32517,30 +32548,34 @@
       <c r="Z8">
         <v>0.47799999999999998</v>
       </c>
-      <c r="AA8" s="46">
+      <c r="AA8" s="43">
         <v>5.7210000000000001</v>
       </c>
-      <c r="AB8" s="51">
-        <f>((AC8+SQRT(L8^2-4))/2)^2</f>
+      <c r="AB8" s="46">
+        <f t="shared" si="0"/>
         <v>4.3137249258194261</v>
       </c>
-      <c r="AC8" s="47">
-        <f>3*B8*(AA8-1)/C8</f>
+      <c r="AC8" s="52">
+        <f t="shared" si="1"/>
         <v>3.011878481012658</v>
       </c>
-      <c r="AE8" s="45">
+      <c r="AD8" s="44">
+        <f t="shared" si="6"/>
+        <v>9.3070985032822851E-2</v>
+      </c>
+      <c r="AF8" s="42">
         <v>6.3129999999999997</v>
       </c>
-      <c r="AF8" s="54">
-        <f>((AG8+SQRT(M8^2-4))/2)^2</f>
+      <c r="AG8" s="49">
+        <f t="shared" si="2"/>
         <v>5.4457121583771704</v>
       </c>
-      <c r="AG8" s="47">
-        <f>3*B8*(AE8-1)/C8</f>
+      <c r="AH8" s="44">
+        <f t="shared" si="3"/>
         <v>3.3895594936708857</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>134</v>
       </c>
@@ -32554,12 +32589,12 @@
         <v>4.74</v>
       </c>
       <c r="H9" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9377856042269532</v>
       </c>
       <c r="J9" s="38"/>
       <c r="L9" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2974285714285716</v>
       </c>
       <c r="N9" s="38"/>
@@ -32578,7 +32613,7 @@
       <c r="T9" s="27">
         <v>3.1389999999999998</v>
       </c>
-      <c r="V9" s="44"/>
+      <c r="V9" s="10"/>
       <c r="X9" s="26">
         <v>-5.4249999999999998</v>
       </c>
@@ -32588,30 +32623,34 @@
       <c r="Z9">
         <v>0.54800000000000004</v>
       </c>
-      <c r="AA9" s="46">
+      <c r="AA9" s="43">
         <v>5.3940000000000001</v>
       </c>
-      <c r="AB9" s="51">
-        <f>((AC9+SQRT(L9^2-4))/2)^2</f>
+      <c r="AB9" s="46">
+        <f t="shared" si="0"/>
         <v>3.6667209738572977</v>
       </c>
-      <c r="AC9" s="47">
-        <f>3*B9*(AA9-1)/C9</f>
+      <c r="AC9" s="52">
+        <f t="shared" si="1"/>
         <v>2.6991714285714288</v>
       </c>
-      <c r="AE9" s="45">
+      <c r="AD9" s="44">
+        <f t="shared" si="6"/>
+        <v>7.2849582743845634E-2</v>
+      </c>
+      <c r="AF9" s="42">
         <v>5.99</v>
       </c>
-      <c r="AF9" s="54" t="e">
-        <f>((AG9+SQRT(M9^2-4))/2)^2</f>
+      <c r="AG9" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG9" s="47">
-        <f>3*B9*(AE9-1)/C9</f>
+      <c r="AH9" s="44">
+        <f t="shared" si="3"/>
         <v>3.0652857142857144</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>135</v>
       </c>
@@ -32631,7 +32670,7 @@
         <v>3.7080000000000002</v>
       </c>
       <c r="H10" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9110737143238317</v>
       </c>
       <c r="I10" s="37">
@@ -32643,7 +32682,7 @@
         <v>1.5999284912534495</v>
       </c>
       <c r="L10" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2922891566265058</v>
       </c>
       <c r="M10" s="37">
@@ -32669,7 +32708,7 @@
       <c r="T10" s="27">
         <v>2.6669999999999998</v>
       </c>
-      <c r="V10" s="44"/>
+      <c r="V10" s="10"/>
       <c r="X10" s="26">
         <v>-1.097</v>
       </c>
@@ -32679,30 +32718,34 @@
       <c r="Z10">
         <v>2.3E-2</v>
       </c>
-      <c r="AA10" s="46">
+      <c r="AA10" s="43">
         <v>4.8689999999999998</v>
       </c>
-      <c r="AB10" s="51">
-        <f>((AC10+SQRT(L10^2-4))/2)^2</f>
+      <c r="AB10" s="46">
+        <f t="shared" si="0"/>
         <v>4.1143973774943801</v>
       </c>
-      <c r="AC10" s="47">
-        <f>3*B10*(AA10-1)/C10</f>
+      <c r="AC10" s="52">
+        <f t="shared" si="1"/>
         <v>2.9367108433734939</v>
       </c>
-      <c r="AE10" s="45">
+      <c r="AD10" s="44">
+        <f t="shared" si="6"/>
+        <v>8.6899615841979097E-2</v>
+      </c>
+      <c r="AF10" s="42">
         <v>5.5439999999999996</v>
       </c>
-      <c r="AF10" s="54">
-        <f>((AG10+SQRT(M10^2-4))/2)^2</f>
+      <c r="AG10" s="49">
+        <f t="shared" si="2"/>
         <v>5.3937645059081021</v>
       </c>
-      <c r="AG10" s="47">
-        <f>3*B10*(AE10-1)/C10</f>
+      <c r="AH10" s="44">
+        <f t="shared" si="3"/>
         <v>3.4490602409638549</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>136</v>
       </c>
@@ -32719,7 +32762,7 @@
         <v>4.2220000000000004</v>
       </c>
       <c r="H11" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10.218763246909798</v>
       </c>
       <c r="J11" s="38">
@@ -32727,7 +32770,7 @@
         <v>2.1132192464193773</v>
       </c>
       <c r="L11" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.5095045871559631</v>
       </c>
       <c r="N11" s="38">
@@ -32749,7 +32792,7 @@
       <c r="T11" s="27">
         <v>2.173</v>
       </c>
-      <c r="V11" s="49">
+      <c r="V11" s="10">
         <v>3.93269</v>
       </c>
       <c r="X11" s="26">
@@ -32761,30 +32804,34 @@
       <c r="Z11">
         <v>0.108</v>
       </c>
-      <c r="AA11" s="46">
+      <c r="AA11" s="43">
         <v>4.3360000000000003</v>
       </c>
-      <c r="AB11" s="51">
-        <f>((AC11+SQRT(L11^2-4))/2)^2</f>
+      <c r="AB11" s="46">
+        <f t="shared" si="0"/>
         <v>6.5056223152816992</v>
       </c>
-      <c r="AC11" s="47">
-        <f>3*B11*(AA11-1)/C11</f>
+      <c r="AC11" s="52">
+        <f t="shared" si="1"/>
         <v>2.2173688073394495</v>
       </c>
-      <c r="AE11" s="45">
+      <c r="AD11" s="44">
+        <f t="shared" si="6"/>
+        <v>0.15711248176138759</v>
+      </c>
+      <c r="AF11" s="42">
         <v>5.1289999999999996</v>
       </c>
-      <c r="AF11" s="54" t="e">
-        <f>((AG11+SQRT(M11^2-4))/2)^2</f>
+      <c r="AG11" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG11" s="47">
-        <f>3*B11*(AE11-1)/C11</f>
+      <c r="AH11" s="44">
+        <f t="shared" si="3"/>
         <v>2.7444591743119258</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
@@ -32801,7 +32848,7 @@
         <v>3.7080000000000002</v>
       </c>
       <c r="H12" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9415252216835031</v>
       </c>
       <c r="J12" s="38" t="e">
@@ -32809,7 +32856,7 @@
         <v>#NUM!</v>
       </c>
       <c r="L12" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2981481481481483</v>
       </c>
       <c r="N12" s="38">
@@ -32831,7 +32878,7 @@
       <c r="T12" s="27">
         <v>2.524</v>
       </c>
-      <c r="V12" s="49">
+      <c r="V12" s="10">
         <v>2.6424500000000002</v>
       </c>
       <c r="X12" s="26">
@@ -32843,30 +32890,34 @@
       <c r="Z12">
         <v>0.70299999999999996</v>
       </c>
-      <c r="AA12" s="46">
+      <c r="AA12" s="43">
         <v>4.7089999999999996</v>
       </c>
-      <c r="AB12" s="51">
-        <f>((AC12+SQRT(L12^2-4))/2)^2</f>
+      <c r="AB12" s="46">
+        <f t="shared" si="0"/>
         <v>3.0055825434123959</v>
       </c>
-      <c r="AC12" s="47">
-        <f>3*B12*(AA12-1)/C12</f>
+      <c r="AC12" s="52">
+        <f t="shared" si="1"/>
         <v>2.335296296296296</v>
       </c>
-      <c r="AE12" s="45">
+      <c r="AD12" s="44">
+        <f t="shared" si="6"/>
+        <v>5.174590621253139E-2</v>
+      </c>
+      <c r="AF12" s="42">
         <v>5.4139999999999997</v>
       </c>
-      <c r="AF12" s="54" t="e">
-        <f>((AG12+SQRT(M12^2-4))/2)^2</f>
+      <c r="AG12" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG12" s="47">
-        <f>3*B12*(AE12-1)/C12</f>
+      <c r="AH12" s="44">
+        <f t="shared" si="3"/>
         <v>2.779185185185185</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -32883,7 +32934,7 @@
         <v>3.9710000000000001</v>
       </c>
       <c r="H13" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9675406386446403</v>
       </c>
       <c r="J13" s="38" t="e">
@@ -32891,7 +32942,7 @@
         <v>#NUM!</v>
       </c>
       <c r="L13" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3031543624161075</v>
       </c>
       <c r="N13" s="38">
@@ -32913,7 +32964,7 @@
       <c r="T13" s="27">
         <v>2.726</v>
       </c>
-      <c r="V13" s="44"/>
+      <c r="V13" s="10"/>
       <c r="X13" s="26">
         <v>-9.0809999999999995</v>
       </c>
@@ -32923,30 +32974,34 @@
       <c r="Z13">
         <v>1.139</v>
       </c>
-      <c r="AA13" s="46">
+      <c r="AA13" s="43">
         <v>4.9379999999999997</v>
       </c>
-      <c r="AB13" s="51">
-        <f>((AC13+SQRT(L13^2-4))/2)^2</f>
+      <c r="AB13" s="46">
+        <f t="shared" si="0"/>
         <v>3.2401839130785568</v>
       </c>
-      <c r="AC13" s="47">
-        <f>3*B13*(AA13-1)/C13</f>
+      <c r="AC13" s="52">
+        <f t="shared" si="1"/>
         <v>2.4579463087248317</v>
       </c>
-      <c r="AE13" s="45">
+      <c r="AD13" s="44">
+        <f t="shared" si="6"/>
+        <v>5.9265145814321407E-2</v>
+      </c>
+      <c r="AF13" s="42">
         <v>5.617</v>
       </c>
-      <c r="AF13" s="54" t="e">
-        <f>((AG13+SQRT(M13^2-4))/2)^2</f>
+      <c r="AG13" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG13" s="47">
-        <f>3*B13*(AE13-1)/C13</f>
+      <c r="AH13" s="44">
+        <f t="shared" si="3"/>
         <v>2.8817516778523489</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -32963,7 +33018,7 @@
         <v>4.6059999999999999</v>
       </c>
       <c r="H14" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9620544027866487</v>
       </c>
       <c r="J14" s="38" t="e">
@@ -32971,7 +33026,7 @@
         <v>#NUM!</v>
       </c>
       <c r="L14" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3020985915492957</v>
       </c>
       <c r="N14" s="38">
@@ -32993,7 +33048,7 @@
       <c r="T14" s="27">
         <v>3.1219999999999999</v>
       </c>
-      <c r="V14" s="44"/>
+      <c r="V14" s="10"/>
       <c r="X14" s="26">
         <v>-9.6319999999999997</v>
       </c>
@@ -33003,30 +33058,34 @@
       <c r="Z14">
         <v>1.605</v>
       </c>
-      <c r="AA14" s="46">
+      <c r="AA14" s="43">
         <v>5.375</v>
       </c>
-      <c r="AB14" s="51">
-        <f>((AC14+SQRT(L14^2-4))/2)^2</f>
+      <c r="AB14" s="46">
+        <f t="shared" si="0"/>
         <v>3.041076775252761</v>
       </c>
-      <c r="AC14" s="47">
-        <f>3*B14*(AA14-1)/C14</f>
+      <c r="AC14" s="52">
+        <f t="shared" si="1"/>
         <v>2.347711267605634</v>
       </c>
-      <c r="AE14" s="45">
+      <c r="AD14" s="44">
+        <f t="shared" si="6"/>
+        <v>5.2884353951744435E-2</v>
+      </c>
+      <c r="AF14" s="42">
         <v>5.9669999999999996</v>
       </c>
-      <c r="AF14" s="54" t="e">
-        <f>((AG14+SQRT(M14^2-4))/2)^2</f>
+      <c r="AG14" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG14" s="47">
-        <f>3*B14*(AE14-1)/C14</f>
+      <c r="AH14" s="44">
+        <f t="shared" si="3"/>
         <v>2.6653901408450702</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -33040,12 +33099,12 @@
         <v>4.96</v>
       </c>
       <c r="H15" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9958153707541055</v>
       </c>
       <c r="J15" s="38"/>
       <c r="L15" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3085957446808512</v>
       </c>
       <c r="N15" s="38"/>
@@ -33064,7 +33123,7 @@
       <c r="T15" s="27">
         <v>3.9580000000000002</v>
       </c>
-      <c r="V15" s="44"/>
+      <c r="V15" s="10"/>
       <c r="X15" s="26">
         <v>-8.4559999999999995</v>
       </c>
@@ -33074,30 +33133,34 @@
       <c r="Z15">
         <v>1.077</v>
       </c>
-      <c r="AA15" s="46">
+      <c r="AA15" s="43">
         <v>6.3559999999999999</v>
       </c>
-      <c r="AB15" s="51">
-        <f>((AC15+SQRT(L15^2-4))/2)^2</f>
+      <c r="AB15" s="46">
+        <f t="shared" si="0"/>
         <v>4.5700243871444197</v>
       </c>
-      <c r="AC15" s="47">
-        <f>3*B15*(AA15-1)/C15</f>
+      <c r="AC15" s="52">
+        <f t="shared" si="1"/>
         <v>3.1224340425531922</v>
       </c>
-      <c r="AE15" s="45">
+      <c r="AD15" s="44">
+        <f t="shared" si="6"/>
+        <v>0.10092342635952815</v>
+      </c>
+      <c r="AF15" s="42">
         <v>2.82</v>
       </c>
-      <c r="AF15" s="54" t="e">
-        <f>((AG15+SQRT(M15^2-4))/2)^2</f>
+      <c r="AG15" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG15" s="47">
-        <f>3*B15*(AE15-1)/C15</f>
+      <c r="AH15" s="44">
+        <f t="shared" si="3"/>
         <v>1.0610212765957447</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
@@ -33114,7 +33177,7 @@
         <v>4.4370000000000003</v>
       </c>
       <c r="H16" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9587008198878118</v>
       </c>
       <c r="J16" s="38" t="e">
@@ -33122,7 +33185,7 @@
         <v>#NUM!</v>
       </c>
       <c r="L16" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3014532374100725</v>
       </c>
       <c r="N16" s="38">
@@ -33144,7 +33207,7 @@
       <c r="T16" s="27">
         <v>3.4449999999999998</v>
       </c>
-      <c r="V16" s="49">
+      <c r="V16" s="10">
         <v>2.4802399999999998</v>
       </c>
       <c r="X16" s="26">
@@ -33156,30 +33219,34 @@
       <c r="Z16">
         <v>1.3049999999999999</v>
       </c>
-      <c r="AA16" s="46">
+      <c r="AA16" s="43">
         <v>5.7539999999999996</v>
       </c>
-      <c r="AB16" s="51">
-        <f>((AC16+SQRT(L16^2-4))/2)^2</f>
+      <c r="AB16" s="46">
+        <f t="shared" si="0"/>
         <v>3.6613956588064531</v>
       </c>
-      <c r="AC16" s="47">
-        <f>3*B16*(AA16-1)/C16</f>
+      <c r="AC16" s="52">
+        <f t="shared" si="1"/>
         <v>2.6882330935251799</v>
       </c>
-      <c r="AE16" s="45">
+      <c r="AD16" s="44">
+        <f t="shared" si="6"/>
+        <v>7.2681018984949317E-2</v>
+      </c>
+      <c r="AF16" s="42">
         <v>6.3230000000000004</v>
       </c>
-      <c r="AF16" s="54" t="e">
-        <f>((AG16+SQRT(M16^2-4))/2)^2</f>
+      <c r="AG16" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG16" s="47">
-        <f>3*B16*(AE16-1)/C16</f>
+      <c r="AH16" s="44">
+        <f t="shared" si="3"/>
         <v>3.0099841726618712</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>142</v>
       </c>
@@ -33193,12 +33260,12 @@
         <v>4.92</v>
       </c>
       <c r="H17" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9556677328143475</v>
       </c>
       <c r="J17" s="38"/>
       <c r="L17" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3008695652173916</v>
       </c>
       <c r="N17" s="38"/>
@@ -33217,7 +33284,7 @@
       <c r="T17" s="27">
         <v>3.637</v>
       </c>
-      <c r="V17" s="44"/>
+      <c r="V17" s="10"/>
       <c r="X17" s="26">
         <v>-5.7759999999999998</v>
       </c>
@@ -33227,30 +33294,34 @@
       <c r="Z17">
         <v>1.222</v>
       </c>
-      <c r="AA17" s="46">
+      <c r="AA17" s="43">
         <v>6.0060000000000002</v>
       </c>
-      <c r="AB17" s="51">
-        <f>((AC17+SQRT(L17^2-4))/2)^2</f>
+      <c r="AB17" s="46">
+        <f t="shared" si="0"/>
         <v>4.1531299261495995</v>
       </c>
-      <c r="AC17" s="47">
-        <f>3*B17*(AA17-1)/C17</f>
+      <c r="AC17" s="52">
+        <f t="shared" si="1"/>
         <v>2.9383043478260875</v>
       </c>
-      <c r="AE17" s="45">
+      <c r="AD17" s="44">
+        <f t="shared" si="6"/>
+        <v>8.8103105258140843E-2</v>
+      </c>
+      <c r="AF17" s="42">
         <v>6.6079999999999997</v>
       </c>
-      <c r="AF17" s="54" t="e">
-        <f>((AG17+SQRT(M17^2-4))/2)^2</f>
+      <c r="AG17" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG17" s="47">
-        <f>3*B17*(AE17-1)/C17</f>
+      <c r="AH17" s="44">
+        <f t="shared" si="3"/>
         <v>3.291652173913044</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>118</v>
       </c>
@@ -33270,7 +33341,7 @@
         <v>5.1929999999999996</v>
       </c>
       <c r="H18" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9984687261523426</v>
       </c>
       <c r="I18" s="37">
@@ -33282,7 +33353,7 @@
         <v>3.6114267289747048</v>
       </c>
       <c r="L18" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3091063829787237</v>
       </c>
       <c r="M18" s="37">
@@ -33308,7 +33379,7 @@
       <c r="T18" s="27">
         <v>3.7810000000000001</v>
       </c>
-      <c r="V18" s="44"/>
+      <c r="V18" s="10"/>
       <c r="X18" s="26">
         <v>-4.0960000000000001</v>
       </c>
@@ -33318,30 +33389,34 @@
       <c r="Z18">
         <v>0.86199999999999999</v>
       </c>
-      <c r="AA18" s="46">
+      <c r="AA18" s="43">
         <v>6.173</v>
       </c>
-      <c r="AB18" s="51">
-        <f>((AC18+SQRT(L18^2-4))/2)^2</f>
+      <c r="AB18" s="46">
+        <f t="shared" si="0"/>
         <v>4.3011591155614735</v>
       </c>
-      <c r="AC18" s="47">
-        <f>3*B18*(AA18-1)/C18</f>
+      <c r="AC18" s="52">
+        <f t="shared" si="1"/>
         <v>2.9937361702127663</v>
       </c>
-      <c r="AE18" s="45">
+      <c r="AD18" s="44">
+        <f t="shared" si="6"/>
+        <v>9.2683573712790832E-2</v>
+      </c>
+      <c r="AF18" s="42">
         <v>6.7480000000000002</v>
       </c>
-      <c r="AF18" s="54">
-        <f>((AG18+SQRT(M18^2-4))/2)^2</f>
+      <c r="AG18" s="49">
+        <f t="shared" si="2"/>
         <v>5.6124779948387564</v>
       </c>
-      <c r="AG18" s="47">
-        <f>3*B18*(AE18-1)/C18</f>
+      <c r="AH18" s="44">
+        <f t="shared" si="3"/>
         <v>3.326502127659575</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>143</v>
       </c>
@@ -33358,7 +33433,7 @@
         <v>6.3150000000000004</v>
       </c>
       <c r="H19" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9479431509361413</v>
       </c>
       <c r="J19" s="38">
@@ -33366,7 +33441,7 @@
         <v>2.5657107289747128</v>
       </c>
       <c r="L19" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2993831168831171</v>
       </c>
       <c r="N19" s="38">
@@ -33388,7 +33463,7 @@
       <c r="T19" s="27">
         <v>4.0990000000000002</v>
       </c>
-      <c r="V19" s="49">
+      <c r="V19" s="10">
         <v>3.01309</v>
       </c>
       <c r="X19" s="26">
@@ -33400,30 +33475,34 @@
       <c r="Z19">
         <v>0.44600000000000001</v>
       </c>
-      <c r="AA19" s="46">
+      <c r="AA19" s="43">
         <v>6.49</v>
       </c>
-      <c r="AB19" s="51">
-        <f>((AC19+SQRT(L19^2-4))/2)^2</f>
+      <c r="AB19" s="46">
+        <f t="shared" si="0"/>
         <v>2.9479431509361413</v>
       </c>
-      <c r="AC19" s="47">
-        <f>3*B19*(AA19-1)/C19</f>
+      <c r="AC19" s="52">
+        <f t="shared" si="1"/>
         <v>2.2993831168831171</v>
       </c>
-      <c r="AE19" s="45">
+      <c r="AD19" s="44">
+        <f t="shared" si="6"/>
+        <v>4.9897186147186266E-2</v>
+      </c>
+      <c r="AF19" s="42">
         <v>6.8849999999999998</v>
       </c>
-      <c r="AF19" s="54" t="e">
-        <f>((AG19+SQRT(M19^2-4))/2)^2</f>
+      <c r="AG19" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG19" s="47">
-        <f>3*B19*(AE19-1)/C19</f>
+      <c r="AH19" s="44">
+        <f t="shared" si="3"/>
         <v>2.4648214285714283</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>144</v>
       </c>
@@ -33437,12 +33516,12 @@
         <v>4.84</v>
       </c>
       <c r="H20" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.8358245441806531</v>
       </c>
       <c r="J20" s="38"/>
       <c r="L20" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2778181818181817</v>
       </c>
       <c r="N20" s="38"/>
@@ -33461,7 +33540,7 @@
       <c r="T20" s="27">
         <v>3.5870000000000002</v>
       </c>
-      <c r="V20" s="44"/>
+      <c r="V20" s="10"/>
       <c r="X20" s="26">
         <v>-4.6230000000000002</v>
       </c>
@@ -33471,30 +33550,34 @@
       <c r="Z20">
         <v>0.36699999999999999</v>
       </c>
-      <c r="AA20" s="46">
+      <c r="AA20" s="43">
         <v>5.8979999999999997</v>
       </c>
-      <c r="AB20" s="51">
-        <f>((AC20+SQRT(L20^2-4))/2)^2</f>
+      <c r="AB20" s="46">
+        <f t="shared" si="0"/>
         <v>3.9911402800693385</v>
       </c>
-      <c r="AC20" s="47">
-        <f>3*B20*(AA20-1)/C20</f>
+      <c r="AC20" s="52">
+        <f t="shared" si="1"/>
         <v>2.9054045454545454</v>
       </c>
-      <c r="AE20" s="45">
+      <c r="AD20" s="44">
+        <f t="shared" si="6"/>
+        <v>8.3056416039051451E-2</v>
+      </c>
+      <c r="AF20" s="42">
         <v>6.3810000000000002</v>
       </c>
-      <c r="AF20" s="54" t="e">
-        <f>((AG20+SQRT(M20^2-4))/2)^2</f>
+      <c r="AG20" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG20" s="47">
-        <f>3*B20*(AE20-1)/C20</f>
+      <c r="AH20" s="44">
+        <f t="shared" si="3"/>
         <v>3.1919113636363639</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>145</v>
       </c>
@@ -33514,7 +33597,7 @@
         <v>4.4320000000000004</v>
       </c>
       <c r="H21" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9356527884894152</v>
       </c>
       <c r="I21" s="37">
@@ -33526,7 +33609,7 @@
         <v>3.8063710305876031</v>
       </c>
       <c r="L21" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2970181818181818</v>
       </c>
       <c r="M21" s="37">
@@ -33552,7 +33635,7 @@
       <c r="T21" s="27">
         <v>2.661</v>
       </c>
-      <c r="V21" s="44"/>
+      <c r="V21" s="10"/>
       <c r="X21" s="26">
         <v>-0.96199999999999997</v>
       </c>
@@ -33562,30 +33645,34 @@
       <c r="Z21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AA21" s="46">
+      <c r="AA21" s="43">
         <v>4.8540000000000001</v>
       </c>
-      <c r="AB21" s="51">
-        <f>((AC21+SQRT(L21^2-4))/2)^2</f>
+      <c r="AB21" s="46">
+        <f t="shared" si="0"/>
         <v>3.7950983782779653</v>
       </c>
-      <c r="AC21" s="47">
-        <f>3*B21*(AA21-1)/C21</f>
+      <c r="AC21" s="52">
+        <f t="shared" si="1"/>
         <v>2.7664712727272733</v>
       </c>
-      <c r="AE21" s="45">
+      <c r="AD21" s="44">
+        <f t="shared" si="6"/>
+        <v>7.6903595462476756E-2</v>
+      </c>
+      <c r="AF21" s="42">
         <v>5.5190000000000001</v>
       </c>
-      <c r="AF21" s="54">
-        <f>((AG21+SQRT(M21^2-4))/2)^2</f>
+      <c r="AG21" s="49">
+        <f t="shared" si="2"/>
         <v>4.3455281361501168</v>
       </c>
-      <c r="AG21" s="47">
-        <f>3*B21*(AE21-1)/C21</f>
+      <c r="AH21" s="44">
+        <f t="shared" si="3"/>
         <v>3.2438203636363641</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>146</v>
       </c>
@@ -33615,7 +33702,7 @@
       <c r="T22" s="27">
         <v>2.0310000000000001</v>
       </c>
-      <c r="V22" s="49">
+      <c r="V22" s="10">
         <v>3.5339100000000001</v>
       </c>
       <c r="X22" s="26">
@@ -33627,24 +33714,25 @@
       <c r="Z22">
         <v>0.252</v>
       </c>
-      <c r="AA22" s="46">
+      <c r="AA22" s="43">
         <v>4.1689999999999996</v>
       </c>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="47"/>
-      <c r="AE22" s="45">
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="44"/>
+      <c r="AF22" s="42">
         <v>4.9640000000000004</v>
       </c>
-      <c r="AF22" s="54" t="e">
-        <f>((AG22+SQRT(M22^2-4))/2)^2</f>
+      <c r="AG22" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG22" s="47">
-        <f>3*B22*(AE22-1)/C22</f>
+      <c r="AH22" s="44">
+        <f t="shared" si="3"/>
         <v>2.8086633165829147</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>147</v>
       </c>
@@ -33691,7 +33779,7 @@
       <c r="T23" s="27">
         <v>2.2959999999999998</v>
       </c>
-      <c r="V23" s="49">
+      <c r="V23" s="10">
         <v>3.1914699999999998</v>
       </c>
       <c r="X23" s="26">
@@ -33703,30 +33791,34 @@
       <c r="Z23">
         <v>0.58699999999999997</v>
       </c>
-      <c r="AA23" s="46">
+      <c r="AA23" s="43">
         <v>4.46</v>
       </c>
-      <c r="AB23" s="51">
+      <c r="AB23" s="46">
         <f>((AC23+SQRT(L23^2-4))/2)^2</f>
         <v>2.9667043539457598</v>
       </c>
-      <c r="AC23" s="47">
+      <c r="AC23" s="52">
         <f>3*B23*(AA23-1)/C23</f>
         <v>2.316440677966102</v>
       </c>
-      <c r="AE23" s="45">
+      <c r="AD23" s="44">
+        <f t="shared" si="6"/>
+        <v>5.0498904455697602E-2</v>
+      </c>
+      <c r="AF23" s="42">
         <v>5.2039999999999997</v>
       </c>
-      <c r="AF23" s="54" t="e">
-        <f>((AG23+SQRT(M23^2-4))/2)^2</f>
+      <c r="AG23" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG23" s="47">
-        <f>3*B23*(AE23-1)/C23</f>
+      <c r="AH23" s="44">
+        <f t="shared" si="3"/>
         <v>2.8145423728813559</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>148</v>
       </c>
@@ -33764,7 +33856,7 @@
       <c r="T24" s="27">
         <v>2.7519999999999998</v>
       </c>
-      <c r="V24" s="44"/>
+      <c r="V24" s="10"/>
       <c r="X24" s="26">
         <v>-10.093999999999999</v>
       </c>
@@ -33774,30 +33866,34 @@
       <c r="Z24">
         <v>1.0820000000000001</v>
       </c>
-      <c r="AA24" s="46">
+      <c r="AA24" s="43">
         <v>4.96</v>
       </c>
-      <c r="AB24" s="51">
+      <c r="AB24" s="46">
         <f>((AC24+SQRT(L24^2-4))/2)^2</f>
         <v>3.2141479703883951</v>
       </c>
-      <c r="AC24" s="47">
+      <c r="AC24" s="52">
         <f>3*B24*(AA24-1)/C24</f>
         <v>2.4488834355828222</v>
       </c>
-      <c r="AE24" s="45">
+      <c r="AD24" s="44">
+        <f t="shared" si="6"/>
+        <v>5.843163356219979E-2</v>
+      </c>
+      <c r="AF24" s="42">
         <v>5.6189999999999998</v>
       </c>
-      <c r="AF24" s="54" t="e">
-        <f>((AG24+SQRT(M24^2-4))/2)^2</f>
+      <c r="AG24" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG24" s="47">
-        <f>3*B24*(AE24-1)/C24</f>
+      <c r="AH24" s="44">
+        <f t="shared" si="3"/>
         <v>2.8564122699386507</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>149</v>
       </c>
@@ -33844,7 +33940,7 @@
       <c r="T25" s="27">
         <v>3.2</v>
       </c>
-      <c r="V25" s="44"/>
+      <c r="V25" s="10"/>
       <c r="X25" s="26">
         <v>-10.848000000000001</v>
       </c>
@@ -33854,30 +33950,34 @@
       <c r="Z25">
         <v>1.635</v>
       </c>
-      <c r="AA25" s="46">
+      <c r="AA25" s="43">
         <v>5.4560000000000004</v>
       </c>
-      <c r="AB25" s="51">
+      <c r="AB25" s="46">
         <f>((AC25+SQRT(L25^2-4))/2)^2</f>
         <v>2.9364441619402366</v>
       </c>
-      <c r="AC25" s="47">
+      <c r="AC25" s="52">
         <f>3*B25*(AA25-1)/C25</f>
         <v>2.2854967741935486</v>
       </c>
-      <c r="AE25" s="45">
+      <c r="AD25" s="44">
+        <f t="shared" si="6"/>
+        <v>4.9528409134620643E-2</v>
+      </c>
+      <c r="AF25" s="42">
         <v>6.02</v>
       </c>
-      <c r="AF25" s="54" t="e">
-        <f>((AG25+SQRT(M25^2-4))/2)^2</f>
+      <c r="AG25" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG25" s="47">
-        <f>3*B25*(AE25-1)/C25</f>
+      <c r="AH25" s="44">
+        <f t="shared" si="3"/>
         <v>2.5747741935483868</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>150</v>
       </c>
@@ -33915,7 +34015,7 @@
       <c r="T26" s="27">
         <v>3.7130000000000001</v>
       </c>
-      <c r="V26" s="49">
+      <c r="V26" s="10">
         <v>2.6724700000000001</v>
       </c>
       <c r="X26" s="26">
@@ -33927,30 +34027,34 @@
       <c r="Z26">
         <v>1.9139999999999999</v>
       </c>
-      <c r="AA26" s="46">
+      <c r="AA26" s="43">
         <v>6.0380000000000003</v>
       </c>
-      <c r="AB26" s="51">
+      <c r="AB26" s="46">
         <f>((AC26+SQRT(L26^2-4))/2)^2</f>
         <v>3.3059621164546451</v>
       </c>
-      <c r="AC26" s="47">
+      <c r="AC26" s="52">
         <f>3*B26*(AA26-1)/C26</f>
         <v>2.5019797297297299</v>
       </c>
-      <c r="AE26" s="45">
+      <c r="AD26" s="44">
+        <f t="shared" si="6"/>
+        <v>6.1369294582182356E-2</v>
+      </c>
+      <c r="AF26" s="42">
         <v>6.4859999999999998</v>
       </c>
-      <c r="AF26" s="54" t="e">
-        <f>((AG26+SQRT(M26^2-4))/2)^2</f>
+      <c r="AG26" s="49" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG26" s="47">
-        <f>3*B26*(AE26-1)/C26</f>
+      <c r="AH26" s="44">
+        <f t="shared" si="3"/>
         <v>2.7244662162162161</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>173</v>
       </c>
@@ -33979,7 +34083,7 @@
       <c r="T27" s="27">
         <v>3.9740000000000002</v>
       </c>
-      <c r="V27" s="44"/>
+      <c r="V27" s="10"/>
       <c r="X27" s="26">
         <v>-7.3440000000000003</v>
       </c>
@@ -33989,18 +34093,19 @@
       <c r="Z27">
         <v>1.556</v>
       </c>
-      <c r="AA27" s="46">
+      <c r="AA27" s="43">
         <v>6.3380000000000001</v>
       </c>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="47"/>
-      <c r="AE27" s="45">
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="44"/>
+      <c r="AF27" s="42">
         <v>6.7279999999999998</v>
       </c>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="47"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="44"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>151</v>
       </c>
@@ -34017,19 +34122,19 @@
         <v>5.4219999999999997</v>
       </c>
       <c r="H28" s="36">
-        <f t="shared" ref="H28:H34" si="2">((L28+SQRT(L28^2-4))/2)^2</f>
+        <f t="shared" ref="H28:H34" si="7">((L28+SQRT(L28^2-4))/2)^2</f>
         <v>2.9340880619479717</v>
       </c>
       <c r="J28" s="38">
-        <f t="shared" ref="J28:J33" si="3">((N28+SQRT(N28^2-4))/2)^2</f>
+        <f t="shared" ref="J28:J33" si="8">((N28+SQRT(N28^2-4))/2)^2</f>
         <v>1.6850125798097029</v>
       </c>
       <c r="L28" s="36">
-        <f t="shared" ref="L28:L34" si="4">3*B28*(D28-1)/C28</f>
+        <f t="shared" ref="L28:L34" si="9">3*B28*(D28-1)/C28</f>
         <v>2.2967171052631579</v>
       </c>
       <c r="N28" s="38">
-        <f t="shared" ref="N28:N33" si="5">3*B28*(F28-1)/C28</f>
+        <f t="shared" ref="N28:N33" si="10">3*B28*(F28-1)/C28</f>
         <v>2.0684486842105261</v>
       </c>
       <c r="P28" s="11" t="s">
@@ -34047,7 +34152,7 @@
       <c r="T28" s="27">
         <v>4.2569999999999997</v>
       </c>
-      <c r="V28" s="44"/>
+      <c r="V28" s="10"/>
       <c r="X28" s="26">
         <v>-5.1820000000000004</v>
       </c>
@@ -34057,30 +34162,34 @@
       <c r="Z28">
         <v>1.0149999999999999</v>
       </c>
-      <c r="AA28" s="46">
+      <c r="AA28" s="43">
         <v>6.6589999999999998</v>
       </c>
-      <c r="AB28" s="51">
-        <f>((AC28+SQRT(L28^2-4))/2)^2</f>
+      <c r="AB28" s="46">
+        <f t="shared" ref="AB28:AB34" si="11">((AC28+SQRT(L28^2-4))/2)^2</f>
         <v>3.5649038577368226</v>
       </c>
-      <c r="AC28" s="47">
-        <f>3*B28*(AA28-1)/C28</f>
+      <c r="AC28" s="52">
+        <f t="shared" ref="AC28:AC34" si="12">3*B28*(AA28-1)/C28</f>
         <v>2.647071710526316</v>
       </c>
-      <c r="AE28" s="45">
+      <c r="AD28" s="44">
+        <f t="shared" si="6"/>
+        <v>6.9621596995206023E-2</v>
+      </c>
+      <c r="AF28" s="42">
         <v>6.9509999999999996</v>
       </c>
-      <c r="AF28" s="54" t="e">
-        <f>((AG28+SQRT(M28^2-4))/2)^2</f>
+      <c r="AG28" s="49" t="e">
+        <f t="shared" ref="AG28:AG34" si="13">((AH28+SQRT(M28^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG28" s="47">
-        <f>3*B28*(AE28-1)/C28</f>
+      <c r="AH28" s="44">
+        <f t="shared" ref="AH28:AH34" si="14">3*B28*(AF28-1)/C28</f>
         <v>2.7836585526315782</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>126</v>
       </c>
@@ -34100,7 +34209,7 @@
         <v>6.0709999999999997</v>
       </c>
       <c r="H29" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.9246765439874713</v>
       </c>
       <c r="I29" s="37">
@@ -34108,11 +34217,11 @@
         <v>3.741408848048414</v>
       </c>
       <c r="J29" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.3097222414125342</v>
       </c>
       <c r="L29" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.2949062499999999</v>
       </c>
       <c r="M29" s="37">
@@ -34120,7 +34229,7 @@
         <v>2.4512624999999999</v>
       </c>
       <c r="N29" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.557685625</v>
       </c>
       <c r="P29" s="11" t="s">
@@ -34138,7 +34247,7 @@
       <c r="T29" s="27">
         <v>4.4649999999999999</v>
       </c>
-      <c r="V29" s="44"/>
+      <c r="V29" s="10"/>
       <c r="X29" s="26">
         <v>-2.827</v>
       </c>
@@ -34148,30 +34257,34 @@
       <c r="Z29">
         <v>0.54700000000000004</v>
       </c>
-      <c r="AA29" s="46">
+      <c r="AA29" s="43">
         <v>6.9160000000000004</v>
       </c>
-      <c r="AB29" s="51">
-        <f>((AC29+SQRT(L29^2-4))/2)^2</f>
+      <c r="AB29" s="46">
+        <f t="shared" si="11"/>
         <v>4.2216141417231317</v>
       </c>
-      <c r="AC29" s="47">
-        <f>3*B29*(AA29-1)/C29</f>
+      <c r="AC29" s="52">
+        <f t="shared" si="12"/>
         <v>2.9838825</v>
       </c>
-      <c r="AE29" s="45">
+      <c r="AD29" s="44">
+        <f t="shared" si="6"/>
+        <v>9.0226001408111253E-2</v>
+      </c>
+      <c r="AF29" s="42">
         <v>7.1890000000000001</v>
       </c>
-      <c r="AF29" s="54">
-        <f>((AG29+SQRT(M29^2-4))/2)^2</f>
+      <c r="AG29" s="49">
+        <f t="shared" si="13"/>
         <v>5.1503096326316014</v>
       </c>
-      <c r="AG29" s="47">
-        <f>3*B29*(AE29-1)/C29</f>
+      <c r="AH29" s="44">
+        <f t="shared" si="14"/>
         <v>3.1215768749999997</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>152</v>
       </c>
@@ -34188,19 +34301,19 @@
         <v>5.7610000000000001</v>
       </c>
       <c r="H30" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.9360689915208353</v>
       </c>
       <c r="J30" s="38" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="L30" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.2970982658959542</v>
       </c>
       <c r="N30" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.7667988439306359</v>
       </c>
       <c r="P30" s="11" t="s">
@@ -34218,7 +34331,7 @@
       <c r="T30" s="27">
         <v>4.83</v>
       </c>
-      <c r="V30" s="49">
+      <c r="V30" s="10">
         <v>3.44129</v>
       </c>
       <c r="X30" s="26">
@@ -34230,30 +34343,34 @@
       <c r="Z30">
         <v>0.25900000000000001</v>
       </c>
-      <c r="AA30" s="46">
+      <c r="AA30" s="43">
         <v>7.37</v>
       </c>
-      <c r="AB30" s="51">
-        <f>((AC30+SQRT(L30^2-4))/2)^2</f>
+      <c r="AB30" s="46">
+        <f t="shared" si="11"/>
         <v>3.0516420540178606</v>
       </c>
-      <c r="AC30" s="47">
-        <f>3*B30*(AA30-1)/C30</f>
+      <c r="AC30" s="52">
+        <f t="shared" si="12"/>
         <v>2.3638959537572255</v>
       </c>
-      <c r="AE30" s="45">
+      <c r="AD30" s="44">
+        <f t="shared" si="6"/>
+        <v>5.3223205723795651E-2</v>
+      </c>
+      <c r="AF30" s="42">
         <v>7.6390000000000002</v>
       </c>
-      <c r="AF30" s="54" t="e">
-        <f>((AG30+SQRT(M30^2-4))/2)^2</f>
+      <c r="AG30" s="49" t="e">
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG30" s="47">
-        <f>3*B30*(AE30-1)/C30</f>
+      <c r="AH30" s="44">
+        <f t="shared" si="14"/>
         <v>2.4637213872832371</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>153</v>
       </c>
@@ -34270,19 +34387,19 @@
         <v>6.077</v>
       </c>
       <c r="H31" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.9556677328143444</v>
       </c>
       <c r="J31" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.7317199902806895</v>
       </c>
       <c r="L31" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.3008695652173912</v>
       </c>
       <c r="N31" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.9799782608695655</v>
       </c>
       <c r="P31" s="11" t="s">
@@ -34300,7 +34417,7 @@
       <c r="T31" s="27">
         <v>3.8929999999999998</v>
       </c>
-      <c r="V31" s="44"/>
+      <c r="V31" s="10"/>
       <c r="X31" s="26">
         <v>-2.7240000000000002</v>
       </c>
@@ -34310,30 +34427,34 @@
       <c r="Z31">
         <v>0.221</v>
       </c>
-      <c r="AA31" s="46">
+      <c r="AA31" s="43">
         <v>6.2380000000000004</v>
       </c>
-      <c r="AB31" s="51">
-        <f>((AC31+SQRT(L31^2-4))/2)^2</f>
+      <c r="AB31" s="46">
+        <f t="shared" si="11"/>
         <v>4.4352777015791904</v>
       </c>
-      <c r="AC31" s="47">
-        <f>3*B31*(AA31-1)/C31</f>
+      <c r="AC31" s="52">
+        <f t="shared" si="12"/>
         <v>3.0744782608695655</v>
       </c>
-      <c r="AE31" s="45">
+      <c r="AD31" s="44">
+        <f t="shared" si="6"/>
+        <v>9.6806912757654739E-2</v>
+      </c>
+      <c r="AF31" s="42">
         <v>6.62</v>
       </c>
-      <c r="AF31" s="54" t="e">
-        <f>((AG31+SQRT(M31^2-4))/2)^2</f>
+      <c r="AG31" s="49" t="e">
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG31" s="47">
-        <f>3*B31*(AE31-1)/C31</f>
+      <c r="AH31" s="44">
+        <f t="shared" si="14"/>
         <v>3.298695652173913</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>154</v>
       </c>
@@ -34353,7 +34474,7 @@
         <v>3.298</v>
       </c>
       <c r="H32" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.9638915653203752</v>
       </c>
       <c r="I32" s="37">
@@ -34361,11 +34482,11 @@
         <v>2.2060303174784361</v>
       </c>
       <c r="J32" s="38" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="L32" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.3024521330198189</v>
       </c>
       <c r="M32" s="37">
@@ -34373,7 +34494,7 @@
         <v>2.1585488747060801</v>
       </c>
       <c r="N32" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.6534484380248571</v>
       </c>
       <c r="P32" s="11" t="s">
@@ -34391,7 +34512,7 @@
       <c r="T32" s="27">
         <v>2.29</v>
       </c>
-      <c r="V32" s="44"/>
+      <c r="V32" s="10"/>
       <c r="X32" s="26">
         <v>-0.85299999999999998</v>
       </c>
@@ -34401,30 +34522,34 @@
       <c r="Z32">
         <v>1.2E-2</v>
       </c>
-      <c r="AA32" s="46">
+      <c r="AA32" s="43">
         <v>4.4539999999999997</v>
       </c>
-      <c r="AB32" s="51">
-        <f>((AC32+SQRT(L32^2-4))/2)^2</f>
+      <c r="AB32" s="46">
+        <f t="shared" si="11"/>
         <v>3.2868755011955084</v>
       </c>
-      <c r="AC32" s="47">
-        <f>3*B32*(AA32-1)/C32</f>
+      <c r="AC32" s="52">
+        <f t="shared" si="12"/>
         <v>2.4852092710782667</v>
       </c>
-      <c r="AE32" s="45">
+      <c r="AD32" s="44">
+        <f t="shared" si="6"/>
+        <v>6.0759006546835824E-2</v>
+      </c>
+      <c r="AF32" s="42">
         <v>5.1980000000000004</v>
       </c>
-      <c r="AF32" s="54">
-        <f>((AG32+SQRT(M32^2-4))/2)^2</f>
+      <c r="AG32" s="49">
+        <f t="shared" si="13"/>
         <v>3.6720576939757157</v>
       </c>
-      <c r="AG32" s="47">
-        <f>3*B32*(AE32-1)/C32</f>
+      <c r="AH32" s="44">
+        <f t="shared" si="14"/>
         <v>3.0205293920053751</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>155</v>
       </c>
@@ -34441,19 +34566,19 @@
         <v>2.9289999999999998</v>
       </c>
       <c r="H33" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.9514024161532255</v>
       </c>
       <c r="J33" s="38" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
       <c r="L33" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.3000487804878049</v>
       </c>
       <c r="N33" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.3126609756097563</v>
       </c>
       <c r="P33" s="11" t="s">
@@ -34471,7 +34596,7 @@
       <c r="T33" s="27">
         <v>1.897</v>
       </c>
-      <c r="V33" s="44"/>
+      <c r="V33" s="10"/>
       <c r="X33" s="26">
         <v>-1.923</v>
       </c>
@@ -34481,30 +34606,34 @@
       <c r="Z33">
         <v>5.5E-2</v>
       </c>
-      <c r="AA33" s="46">
+      <c r="AA33" s="43">
         <v>4.0209999999999999</v>
       </c>
-      <c r="AB33" s="51">
-        <f>((AC33+SQRT(L33^2-4))/2)^2</f>
+      <c r="AB33" s="46">
+        <f t="shared" si="11"/>
         <v>2.5466320678353944</v>
       </c>
-      <c r="AC33" s="47">
-        <f>3*B33*(AA33-1)/C33</f>
+      <c r="AC33" s="52">
+        <f t="shared" si="12"/>
         <v>2.0557536585365854</v>
       </c>
-      <c r="AE33" s="45">
+      <c r="AD33" s="44">
+        <f t="shared" si="6"/>
+        <v>3.7075883305830969E-2</v>
+      </c>
+      <c r="AF33" s="42">
         <v>4.8159999999999998</v>
       </c>
-      <c r="AF33" s="54" t="e">
-        <f>((AG33+SQRT(M33^2-4))/2)^2</f>
+      <c r="AG33" s="49" t="e">
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG33" s="47">
-        <f>3*B33*(AE33-1)/C33</f>
+      <c r="AH33" s="44">
+        <f t="shared" si="14"/>
         <v>2.5967414634146344</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>156</v>
       </c>
@@ -34518,12 +34647,12 @@
         <v>3.39</v>
       </c>
       <c r="H34" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.9515605376693688</v>
       </c>
       <c r="J34" s="38"/>
       <c r="L34" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.3000792079207919</v>
       </c>
       <c r="N34" s="38"/>
@@ -34542,7 +34671,7 @@
       <c r="T34" s="27">
         <v>3.3029999999999999</v>
       </c>
-      <c r="V34" s="44"/>
+      <c r="V34" s="10"/>
       <c r="X34" s="26">
         <v>-5.9340000000000002</v>
       </c>
@@ -34552,30 +34681,34 @@
       <c r="Z34">
         <v>0.252</v>
       </c>
-      <c r="AA34" s="46">
+      <c r="AA34" s="43">
         <v>5.593</v>
       </c>
-      <c r="AB34" s="51">
-        <f>((AC34+SQRT(L34^2-4))/2)^2</f>
+      <c r="AB34" s="46">
+        <f t="shared" si="11"/>
         <v>7.7176621431587549</v>
       </c>
-      <c r="AC34" s="47">
-        <f>3*B34*(AA34-1)/C34</f>
+      <c r="AC34" s="52">
+        <f t="shared" si="12"/>
         <v>4.4201940594059401</v>
       </c>
-      <c r="AE34" s="45">
+      <c r="AD34" s="44">
+        <f t="shared" si="6"/>
+        <v>0.18967174048518606</v>
+      </c>
+      <c r="AF34" s="42">
         <v>6.1660000000000004</v>
       </c>
-      <c r="AF34" s="54" t="e">
-        <f>((AG34+SQRT(M34^2-4))/2)^2</f>
+      <c r="AG34" s="49" t="e">
+        <f t="shared" si="13"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG34" s="47">
-        <f>3*B34*(AE34-1)/C34</f>
+      <c r="AH34" s="44">
+        <f t="shared" si="14"/>
         <v>4.9716356435643565</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>174</v>
       </c>
@@ -34601,7 +34734,7 @@
       <c r="T35" s="27">
         <v>1.94</v>
       </c>
-      <c r="V35" s="49">
+      <c r="V35" s="10">
         <v>3.6671</v>
       </c>
       <c r="X35" s="26">
@@ -34613,18 +34746,19 @@
       <c r="Z35">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AA35" s="46">
+      <c r="AA35" s="43">
         <v>4.0730000000000004</v>
       </c>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="47"/>
-      <c r="AE35" s="45">
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="44"/>
+      <c r="AF35" s="42">
         <v>4.8719999999999999</v>
       </c>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="47"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="44"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>157</v>
       </c>
@@ -34638,12 +34772,12 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="H36" s="36">
-        <f t="shared" ref="H36:H49" si="6">((L36+SQRT(L36^2-4))/2)^2</f>
+        <f t="shared" ref="H36:H49" si="15">((L36+SQRT(L36^2-4))/2)^2</f>
         <v>2.9483101851292712</v>
       </c>
       <c r="J36" s="38"/>
       <c r="L36" s="36">
-        <f t="shared" ref="L36:L49" si="7">3*B36*(D36-1)/C36</f>
+        <f t="shared" ref="L36:L49" si="16">3*B36*(D36-1)/C36</f>
         <v>2.2994537444933916</v>
       </c>
       <c r="N36" s="38"/>
@@ -34662,7 +34796,7 @@
       <c r="T36" s="27">
         <v>2.0790000000000002</v>
       </c>
-      <c r="V36" s="49">
+      <c r="V36" s="10">
         <v>4.0095700000000001</v>
       </c>
       <c r="X36" s="26">
@@ -34674,30 +34808,34 @@
       <c r="Z36">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="AA36" s="46">
+      <c r="AA36" s="43">
         <v>4.2279999999999998</v>
       </c>
-      <c r="AB36" s="51">
+      <c r="AB36" s="46">
         <f>((AC36+SQRT(L36^2-4))/2)^2</f>
         <v>2.5183483751194671</v>
       </c>
-      <c r="AC36" s="47">
+      <c r="AC36" s="52">
         <f>3*B36*(AA36-1)/C36</f>
         <v>2.0391859030837001</v>
       </c>
-      <c r="AE36" s="45">
+      <c r="AD36" s="44">
+        <f t="shared" si="6"/>
+        <v>3.6179635336216785E-2</v>
+      </c>
+      <c r="AF36" s="42">
         <v>5.0229999999999997</v>
       </c>
-      <c r="AF36" s="54" t="e">
-        <f>((AG36+SQRT(M36^2-4))/2)^2</f>
+      <c r="AG36" s="49" t="e">
+        <f>((AH36+SQRT(M36^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG36" s="47">
-        <f>3*B36*(AE36-1)/C36</f>
+      <c r="AH36" s="44">
+        <f>3*B36*(AF36-1)/C36</f>
         <v>2.5414017621145373</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>158</v>
       </c>
@@ -34711,12 +34849,12 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="H37" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9622993492241645</v>
       </c>
       <c r="J37" s="38"/>
       <c r="L37" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.3021457286432154</v>
       </c>
       <c r="N37" s="38"/>
@@ -34735,7 +34873,7 @@
       <c r="T37" s="27">
         <v>1.9410000000000001</v>
       </c>
-      <c r="V37" s="49">
+      <c r="V37" s="10">
         <v>3.56047</v>
       </c>
       <c r="X37" s="26">
@@ -34747,30 +34885,34 @@
       <c r="Z37">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AA37" s="46">
+      <c r="AA37" s="43">
         <v>4.08</v>
       </c>
-      <c r="AB37" s="51">
+      <c r="AB37" s="46">
         <f>((AC37+SQRT(L37^2-4))/2)^2</f>
         <v>2.7365471945985838</v>
       </c>
-      <c r="AC37" s="47">
+      <c r="AC37" s="52">
         <f>3*B37*(AA37-1)/C37</f>
         <v>2.1683819095477386</v>
       </c>
-      <c r="AE37" s="45">
+      <c r="AD37" s="44">
+        <f t="shared" si="6"/>
+        <v>4.3125724000226372E-2</v>
+      </c>
+      <c r="AF37" s="42">
         <v>4.9059999999999997</v>
       </c>
-      <c r="AF37" s="54" t="e">
-        <f>((AG37+SQRT(M37^2-4))/2)^2</f>
+      <c r="AG37" s="49" t="e">
+        <f>((AH37+SQRT(M37^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG37" s="47">
-        <f>3*B37*(AE37-1)/C37</f>
+      <c r="AH37" s="44">
+        <f>3*B37*(AF37-1)/C37</f>
         <v>2.749902512562814</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>159</v>
       </c>
@@ -34784,24 +34926,25 @@
         <v>4.72</v>
       </c>
       <c r="H38" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9528457897395812</v>
       </c>
       <c r="J38" s="38"/>
       <c r="L38" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.3003265306122453</v>
       </c>
       <c r="N38" s="38"/>
-      <c r="V38" s="44"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="47"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="54"/>
-      <c r="AG38" s="47"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="V38" s="10"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="44"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="49"/>
+      <c r="AH38" s="44"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>160</v>
       </c>
@@ -34815,12 +34958,12 @@
         <v>4.79</v>
       </c>
       <c r="H39" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9683188551159074</v>
       </c>
       <c r="J39" s="38"/>
       <c r="L39" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.3033041237113405</v>
       </c>
       <c r="N39" s="38"/>
@@ -34839,7 +34982,7 @@
       <c r="T39" s="27">
         <v>2.036</v>
       </c>
-      <c r="V39" s="49">
+      <c r="V39" s="10">
         <v>3.46096</v>
       </c>
       <c r="X39" s="26">
@@ -34851,30 +34994,34 @@
       <c r="Z39">
         <v>0.27200000000000002</v>
       </c>
-      <c r="AA39" s="46">
+      <c r="AA39" s="43">
         <v>4.1749999999999998</v>
       </c>
-      <c r="AB39" s="51">
+      <c r="AB39" s="46">
         <f>((AC39+SQRT(L39^2-4))/2)^2</f>
         <v>2.3593064386655263</v>
       </c>
-      <c r="AC39" s="47">
+      <c r="AC39" s="52">
         <f>3*B39*(AA39-1)/C39</f>
         <v>1.929548969072165</v>
       </c>
-      <c r="AE39" s="45">
+      <c r="AD39" s="44">
+        <f t="shared" si="6"/>
+        <v>3.1173937401554792E-2</v>
+      </c>
+      <c r="AF39" s="42">
         <v>4.9720000000000004</v>
       </c>
-      <c r="AF39" s="54" t="e">
-        <f>((AG39+SQRT(M39^2-4))/2)^2</f>
+      <c r="AG39" s="49" t="e">
+        <f>((AH39+SQRT(M39^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG39" s="47">
-        <f>3*B39*(AE39-1)/C39</f>
+      <c r="AH39" s="44">
+        <f>3*B39*(AF39-1)/C39</f>
         <v>2.413911340206186</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>161</v>
       </c>
@@ -34891,30 +35038,31 @@
         <v>4.4610000000000003</v>
       </c>
       <c r="H40" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9703681369217274</v>
       </c>
       <c r="J40" s="38">
-        <f t="shared" ref="J40:J49" si="8">((N40+SQRT(N40^2-4))/2)^2</f>
+        <f t="shared" ref="J40:J49" si="17">((N40+SQRT(N40^2-4))/2)^2</f>
         <v>4.7600432310165832</v>
       </c>
       <c r="L40" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.3036984924623112</v>
       </c>
       <c r="N40" s="38">
-        <f t="shared" ref="N40:N49" si="9">3*B40*(F40-1)/C40</f>
+        <f t="shared" ref="N40:N49" si="18">3*B40*(F40-1)/C40</f>
         <v>2.6400994974874377</v>
       </c>
-      <c r="V40" s="44"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="47"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="54"/>
-      <c r="AG40" s="47"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="V40" s="10"/>
+      <c r="AA40" s="43"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="44"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="49"/>
+      <c r="AH40" s="44"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>162</v>
       </c>
@@ -34931,19 +35079,19 @@
         <v>4.609</v>
       </c>
       <c r="H41" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9297338776369064</v>
       </c>
       <c r="J41" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.0600666550100843</v>
       </c>
       <c r="L41" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.2958793103448278</v>
       </c>
       <c r="N41" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.3209603448275864</v>
       </c>
       <c r="P41" s="11" t="s">
@@ -34961,7 +35109,7 @@
       <c r="T41" s="27">
         <v>2.3410000000000002</v>
       </c>
-      <c r="V41" s="49">
+      <c r="V41" s="10">
         <v>3.1383899999999998</v>
       </c>
       <c r="X41" s="26">
@@ -34973,30 +35121,34 @@
       <c r="Z41">
         <v>0.67600000000000005</v>
       </c>
-      <c r="AA41" s="46">
+      <c r="AA41" s="43">
         <v>4.5090000000000003</v>
       </c>
-      <c r="AB41" s="51">
-        <f>((AC41+SQRT(L41^2-4))/2)^2</f>
+      <c r="AB41" s="46">
+        <f t="shared" ref="AB41:AB49" si="19">((AC41+SQRT(L41^2-4))/2)^2</f>
         <v>2.8629718990190747</v>
       </c>
-      <c r="AC41" s="47">
-        <f>3*B41*(AA41-1)/C41</f>
+      <c r="AC41" s="52">
+        <f t="shared" ref="AC41:AC49" si="20">3*B41*(AA41-1)/C41</f>
         <v>2.2566500000000005</v>
       </c>
-      <c r="AE41" s="45">
+      <c r="AD41" s="44">
+        <f t="shared" si="6"/>
+        <v>4.7172882677300722E-2</v>
+      </c>
+      <c r="AF41" s="42">
         <v>5.2450000000000001</v>
       </c>
-      <c r="AF41" s="54" t="e">
-        <f>((AG41+SQRT(M41^2-4))/2)^2</f>
+      <c r="AG41" s="49" t="e">
+        <f t="shared" ref="AG41:AG49" si="21">((AH41+SQRT(M41^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG41" s="47">
-        <f>3*B41*(AE41-1)/C41</f>
+      <c r="AH41" s="44">
+        <f t="shared" ref="AH41:AH49" si="22">3*B41*(AF41-1)/C41</f>
         <v>2.7299741379310345</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>163</v>
       </c>
@@ -35013,19 +35165,19 @@
         <v>3.944</v>
       </c>
       <c r="H42" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9713575013500662</v>
       </c>
       <c r="J42" s="38" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="L42" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.3038888888888884</v>
       </c>
       <c r="N42" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.7991111111111109</v>
       </c>
       <c r="P42" s="11" t="s">
@@ -35043,7 +35195,7 @@
       <c r="T42" s="27">
         <v>2.3410000000000002</v>
       </c>
-      <c r="V42" s="44"/>
+      <c r="V42" s="10"/>
       <c r="X42" s="26">
         <v>-11.853999999999999</v>
       </c>
@@ -35053,30 +35205,34 @@
       <c r="Z42">
         <v>1.22</v>
       </c>
-      <c r="AA42" s="46">
+      <c r="AA42" s="43">
         <v>4.8849999999999998</v>
       </c>
-      <c r="AB42" s="51">
-        <f>((AC42+SQRT(L42^2-4))/2)^2</f>
+      <c r="AB42" s="46">
+        <f t="shared" si="19"/>
         <v>3.0937344478107565</v>
       </c>
-      <c r="AC42" s="47">
-        <f>3*B42*(AA42-1)/C42</f>
+      <c r="AC42" s="52">
+        <f t="shared" si="20"/>
         <v>2.3741666666666665</v>
       </c>
-      <c r="AE42" s="45">
+      <c r="AD42" s="44">
+        <f t="shared" si="6"/>
+        <v>5.4573026928268265E-2</v>
+      </c>
+      <c r="AF42" s="42">
         <v>5.5529999999999999</v>
       </c>
-      <c r="AF42" s="54" t="e">
-        <f>((AG42+SQRT(M42^2-4))/2)^2</f>
+      <c r="AG42" s="49" t="e">
+        <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG42" s="47">
-        <f>3*B42*(AE42-1)/C42</f>
+      <c r="AH42" s="44">
+        <f t="shared" si="22"/>
         <v>2.7823888888888884</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>164</v>
       </c>
@@ -35093,19 +35249,19 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="H43" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9375571636289326</v>
       </c>
       <c r="J43" s="38" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="L43" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.2973846153846158</v>
       </c>
       <c r="N43" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.7704615384615385</v>
       </c>
       <c r="P43" s="11" t="s">
@@ -35123,7 +35279,7 @@
       <c r="T43" s="27">
         <v>3.11</v>
       </c>
-      <c r="V43" s="44"/>
+      <c r="V43" s="10"/>
       <c r="X43" s="26">
         <v>-12.961</v>
       </c>
@@ -35133,30 +35289,34 @@
       <c r="Z43">
         <v>1.8919999999999999</v>
       </c>
-      <c r="AA43" s="46">
+      <c r="AA43" s="43">
         <v>5.3609999999999998</v>
       </c>
-      <c r="AB43" s="51">
-        <f>((AC43+SQRT(L43^2-4))/2)^2</f>
+      <c r="AB43" s="46">
+        <f t="shared" si="19"/>
         <v>2.9384603424821143</v>
       </c>
-      <c r="AC43" s="47">
-        <f>3*B43*(AA43-1)/C43</f>
+      <c r="AC43" s="52">
+        <f t="shared" si="20"/>
         <v>2.2979115384615385</v>
       </c>
-      <c r="AE43" s="45">
+      <c r="AD43" s="44">
+        <f t="shared" si="6"/>
+        <v>4.959306723640481E-2</v>
+      </c>
+      <c r="AF43" s="42">
         <v>5.9530000000000003</v>
       </c>
-      <c r="AF43" s="54" t="e">
-        <f>((AG43+SQRT(M43^2-4))/2)^2</f>
+      <c r="AG43" s="49" t="e">
+        <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG43" s="47">
-        <f>3*B43*(AE43-1)/C43</f>
+      <c r="AH43" s="44">
+        <f t="shared" si="22"/>
         <v>2.6098500000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
@@ -35173,19 +35333,19 @@
         <v>4.798</v>
       </c>
       <c r="H44" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9563455478498613</v>
       </c>
       <c r="J44" s="38" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="L44" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.3009999999999997</v>
       </c>
       <c r="N44" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.8515250000000001</v>
       </c>
       <c r="P44" s="11" t="s">
@@ -35203,7 +35363,7 @@
       <c r="T44" s="27">
         <v>3.359</v>
       </c>
-      <c r="V44" s="49">
+      <c r="V44" s="10">
         <v>2.7629899999999998</v>
       </c>
       <c r="X44" s="26">
@@ -35215,30 +35375,34 @@
       <c r="Z44">
         <v>2.258</v>
       </c>
-      <c r="AA44" s="46">
+      <c r="AA44" s="43">
         <v>5.6379999999999999</v>
       </c>
-      <c r="AB44" s="51">
-        <f>((AC44+SQRT(L44^2-4))/2)^2</f>
+      <c r="AB44" s="46">
+        <f t="shared" si="19"/>
         <v>2.8880119262002446</v>
       </c>
-      <c r="AC44" s="47">
-        <f>3*B44*(AA44-1)/C44</f>
+      <c r="AC44" s="52">
+        <f t="shared" si="20"/>
         <v>2.2610249999999996</v>
       </c>
-      <c r="AE44" s="45">
+      <c r="AD44" s="44">
+        <f t="shared" si="6"/>
+        <v>4.7975483044584211E-2</v>
+      </c>
+      <c r="AF44" s="42">
         <v>6.1740000000000004</v>
       </c>
-      <c r="AF44" s="54" t="e">
-        <f>((AG44+SQRT(M44^2-4))/2)^2</f>
+      <c r="AG44" s="49" t="e">
+        <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG44" s="47">
-        <f>3*B44*(AE44-1)/C44</f>
+      <c r="AH44" s="44">
+        <f t="shared" si="22"/>
         <v>2.5223249999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>166</v>
       </c>
@@ -35255,19 +35419,19 @@
         <v>5.3940000000000001</v>
       </c>
       <c r="H45" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9511489195340639</v>
       </c>
       <c r="J45" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.3380611226779187</v>
       </c>
       <c r="L45" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="N45" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.0212400000000001</v>
       </c>
       <c r="P45" s="11" t="s">
@@ -35294,30 +35458,34 @@
       <c r="Z45">
         <v>2.1309999999999998</v>
       </c>
-      <c r="AA45" s="46">
+      <c r="AA45" s="43">
         <v>6.2380000000000004</v>
       </c>
-      <c r="AB45" s="51">
-        <f>((AC45+SQRT(L45^2-4))/2)^2</f>
+      <c r="AB45" s="46">
+        <f t="shared" si="19"/>
         <v>3.1422200757038854</v>
       </c>
-      <c r="AC45" s="47">
-        <f>3*B45*(AA45-1)/C45</f>
+      <c r="AC45" s="52">
+        <f t="shared" si="20"/>
         <v>2.4094800000000003</v>
       </c>
-      <c r="AE45" s="45">
+      <c r="AD45" s="44">
+        <f t="shared" si="6"/>
+        <v>5.6127348016529854E-2</v>
+      </c>
+      <c r="AF45" s="42">
         <v>6.6609999999999996</v>
       </c>
-      <c r="AF45" s="54" t="e">
-        <f>((AG45+SQRT(M45^2-4))/2)^2</f>
+      <c r="AG45" s="49" t="e">
+        <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG45" s="47">
-        <f>3*B45*(AE45-1)/C45</f>
+      <c r="AH45" s="44">
+        <f t="shared" si="22"/>
         <v>2.60406</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>167</v>
       </c>
@@ -35334,19 +35502,19 @@
         <v>6.226</v>
       </c>
       <c r="H46" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9768255037695663</v>
       </c>
       <c r="J46" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3.621760579090187</v>
       </c>
       <c r="L46" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.3049411764705883</v>
       </c>
       <c r="N46" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.4285529411764704</v>
       </c>
       <c r="P46" s="11" t="s">
@@ -35373,30 +35541,34 @@
       <c r="Z46">
         <v>1.51</v>
       </c>
-      <c r="AA46" s="46">
+      <c r="AA46" s="43">
         <v>6.6459999999999999</v>
       </c>
-      <c r="AB46" s="51">
-        <f>((AC46+SQRT(L46^2-4))/2)^2</f>
+      <c r="AB46" s="46">
+        <f t="shared" si="19"/>
         <v>3.5522526126201148</v>
       </c>
-      <c r="AC46" s="47">
-        <f>3*B46*(AA46-1)/C46</f>
+      <c r="AC46" s="52">
+        <f t="shared" si="20"/>
         <v>2.6237294117647054</v>
       </c>
-      <c r="AE46" s="45">
+      <c r="AD46" s="44">
+        <f t="shared" si="6"/>
+        <v>6.9219773014774402E-2</v>
+      </c>
+      <c r="AF46" s="42">
         <v>6.96</v>
       </c>
-      <c r="AF46" s="54" t="e">
-        <f>((AG46+SQRT(M46^2-4))/2)^2</f>
+      <c r="AG46" s="49" t="e">
+        <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG46" s="47">
-        <f>3*B46*(AE46-1)/C46</f>
+      <c r="AH46" s="44">
+        <f t="shared" si="22"/>
         <v>2.7696470588235291</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>168</v>
       </c>
@@ -35416,7 +35588,7 @@
         <v>5.4329999999999998</v>
       </c>
       <c r="H47" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9852686604388676</v>
       </c>
       <c r="I47" s="37">
@@ -35424,11 +35596,11 @@
         <v>2.3317714840903077</v>
       </c>
       <c r="J47" s="38" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>#NUM!</v>
       </c>
       <c r="L47" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.3065660377358488</v>
       </c>
       <c r="M47" s="37">
@@ -35436,7 +35608,7 @@
         <v>2.1818867924528305</v>
       </c>
       <c r="N47" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1.9739396226415091</v>
       </c>
       <c r="P47" s="11" t="s">
@@ -35463,30 +35635,34 @@
       <c r="Z47">
         <v>0.83</v>
       </c>
-      <c r="AA47" s="46">
+      <c r="AA47" s="43">
         <v>7.0629999999999997</v>
       </c>
-      <c r="AB47" s="51">
-        <f>((AC47+SQRT(L47^2-4))/2)^2</f>
+      <c r="AB47" s="46">
+        <f t="shared" si="19"/>
         <v>3.7032593817454766</v>
       </c>
-      <c r="AC47" s="47">
-        <f>3*B47*(AA47-1)/C47</f>
+      <c r="AC47" s="52">
+        <f t="shared" si="20"/>
         <v>2.6997509433962263</v>
       </c>
-      <c r="AE47" s="45">
+      <c r="AD47" s="44">
+        <f t="shared" si="6"/>
+        <v>7.4005311500508819E-2</v>
+      </c>
+      <c r="AF47" s="42">
         <v>7.258</v>
       </c>
-      <c r="AF47" s="54">
-        <f>((AG47+SQRT(M47^2-4))/2)^2</f>
+      <c r="AG47" s="49">
+        <f t="shared" si="21"/>
         <v>3.3465619636311086</v>
       </c>
-      <c r="AG47" s="47">
-        <f>3*B47*(AE47-1)/C47</f>
+      <c r="AH47" s="44">
+        <f t="shared" si="22"/>
         <v>2.7865811320754719</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>169</v>
       </c>
@@ -35503,19 +35679,19 @@
         <v>5.7960000000000003</v>
       </c>
       <c r="H48" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9489608319659562</v>
       </c>
       <c r="J48" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.0349111144183709</v>
       </c>
       <c r="L48" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.2995789473684218</v>
       </c>
       <c r="N48" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.5065410526315794</v>
       </c>
       <c r="P48" s="11" t="s">
@@ -35542,30 +35718,34 @@
       <c r="Z48">
         <v>0.16500000000000001</v>
       </c>
-      <c r="AA48" s="46">
+      <c r="AA48" s="43">
         <v>6.5419999999999998</v>
       </c>
-      <c r="AB48" s="51">
-        <f>((AC48+SQRT(L48^2-4))/2)^2</f>
+      <c r="AB48" s="46">
+        <f t="shared" si="19"/>
         <v>4.0629517331192586</v>
       </c>
-      <c r="AC48" s="47">
-        <f>3*B48*(AA48-1)/C48</f>
+      <c r="AC48" s="52">
+        <f t="shared" si="20"/>
         <v>2.896424210526316</v>
       </c>
-      <c r="AE48" s="45">
+      <c r="AD48" s="44">
+        <f t="shared" si="6"/>
+        <v>8.529797525293592E-2</v>
+      </c>
+      <c r="AF48" s="42">
         <v>6.88</v>
       </c>
-      <c r="AF48" s="54" t="e">
-        <f>((AG48+SQRT(M48^2-4))/2)^2</f>
+      <c r="AG48" s="49" t="e">
+        <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG48" s="47">
-        <f>3*B48*(AE48-1)/C48</f>
+      <c r="AH48" s="44">
+        <f t="shared" si="22"/>
         <v>3.0730736842105264</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>170</v>
       </c>
@@ -35582,19 +35762,19 @@
         <v>5.5</v>
       </c>
       <c r="H49" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9428556121160234</v>
       </c>
       <c r="J49" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.989292447907552</v>
       </c>
       <c r="L49" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.2984041450777206</v>
       </c>
       <c r="N49" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2.1194300518134717</v>
       </c>
       <c r="P49" s="11" t="s">
@@ -35621,30 +35801,34 @@
       <c r="Z49">
         <v>0.248</v>
       </c>
-      <c r="AA49" s="46">
+      <c r="AA49" s="43">
         <v>5.92</v>
       </c>
-      <c r="AB49" s="51">
-        <f>((AC49+SQRT(L49^2-4))/2)^2</f>
+      <c r="AB49" s="46">
+        <f t="shared" si="19"/>
         <v>2.9752628312830272</v>
       </c>
-      <c r="AC49" s="47">
-        <f>3*B49*(AA49-1)/C49</f>
+      <c r="AC49" s="52">
+        <f t="shared" si="20"/>
         <v>2.3172435233160624</v>
       </c>
-      <c r="AE49" s="45">
+      <c r="AD49" s="44">
+        <f t="shared" si="6"/>
+        <v>5.0773407883473544E-2</v>
+      </c>
+      <c r="AF49" s="42">
         <v>6.3490000000000002</v>
       </c>
-      <c r="AF49" s="54" t="e">
-        <f>((AG49+SQRT(M49^2-4))/2)^2</f>
+      <c r="AG49" s="49" t="e">
+        <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
-      <c r="AG49" s="47">
-        <f>3*B49*(AE49-1)/C49</f>
+      <c r="AH49" s="44">
+        <f t="shared" si="22"/>
         <v>2.5192958549222797</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>175</v>
       </c>
@@ -35658,14 +35842,15 @@
       <c r="J50" s="38"/>
       <c r="L50" s="36"/>
       <c r="N50" s="38"/>
-      <c r="AA50" s="46"/>
-      <c r="AB50" s="51"/>
-      <c r="AC50" s="47"/>
-      <c r="AE50" s="45"/>
-      <c r="AF50" s="54"/>
-      <c r="AG50" s="47"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="AA50" s="43"/>
+      <c r="AB50" s="46"/>
+      <c r="AC50" s="52"/>
+      <c r="AD50" s="44"/>
+      <c r="AF50" s="42"/>
+      <c r="AG50" s="49"/>
+      <c r="AH50" s="44"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>171</v>
       </c>
@@ -35721,26 +35906,30 @@
       <c r="Z51">
         <v>0.35699999999999998</v>
       </c>
-      <c r="AA51" s="46">
+      <c r="AA51" s="43">
         <v>4.4610000000000003</v>
       </c>
-      <c r="AB51" s="51">
+      <c r="AB51" s="46">
         <f>((AC51+SQRT(L51^2-4))/2)^2</f>
         <v>3.3447798793433638</v>
       </c>
-      <c r="AC51" s="47">
+      <c r="AC51" s="52">
         <f>3*B51*(AA51-1)/C51</f>
         <v>2.5200949748743717</v>
       </c>
-      <c r="AE51" s="45">
+      <c r="AD51" s="44">
+        <f t="shared" si="6"/>
+        <v>6.2609746741461539E-2</v>
+      </c>
+      <c r="AF51" s="42">
         <v>5.1589999999999998</v>
       </c>
-      <c r="AF51" s="54" t="e">
-        <f>((AG51+SQRT(M51^2-4))/2)^2</f>
+      <c r="AG51" s="49" t="e">
+        <f>((AH51+SQRT(M51^2-4))/2)^2</f>
         <v>#NUM!</v>
       </c>
-      <c r="AG51" s="47">
-        <f>3*B51*(AE51-1)/C51</f>
+      <c r="AH51" s="44">
+        <f>3*B51*(AF51-1)/C51</f>
         <v>3.0283371859296477</v>
       </c>
     </row>

--- a/potentials/smatb/Rose_function.xlsx
+++ b/potentials/smatb/Rose_function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32554783-36F6-4821-9F39-07B748000160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99793306-67ED-4A1D-99DD-6734166911DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="570" windowWidth="20070" windowHeight="14730" activeTab="1" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
+    <workbookView xWindow="450" yWindow="570" windowWidth="20730" windowHeight="14730" xr2:uid="{B1CE91EC-0DE3-4F38-BC70-60547E21D489}"/>
   </bookViews>
   <sheets>
     <sheet name="fit" sheetId="2" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,18 +1255,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14717,8 +14705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC96F8-554A-49E8-A62F-FFDB865EC586}">
   <dimension ref="A2:AA469"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31921,11 +31909,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC3F7D5-43B4-4A9C-BA0C-A78DC6ED6B37}">
   <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE20" sqref="AE20"/>
+      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -31950,7 +31938,6 @@
     <col min="23" max="23" width="3.625" customWidth="1"/>
     <col min="24" max="24" width="9" style="26"/>
     <col min="28" max="28" width="9" style="22"/>
-    <col min="29" max="29" width="9" style="50"/>
     <col min="30" max="30" width="9" style="27"/>
     <col min="32" max="32" width="9" style="26"/>
     <col min="33" max="33" width="9" style="47"/>
@@ -32023,7 +32010,7 @@
         <v>191</v>
       </c>
       <c r="AB2" s="45"/>
-      <c r="AC2" s="51"/>
+      <c r="AC2" s="39"/>
       <c r="AD2" s="41"/>
       <c r="AF2" s="40" t="s">
         <v>192</v>
@@ -32101,10 +32088,10 @@
       <c r="AB3" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="AC3" s="50" t="s">
+      <c r="AC3" t="s">
         <v>176</v>
       </c>
-      <c r="AD3" s="53" t="s">
+      <c r="AD3" s="27" t="s">
         <v>200</v>
       </c>
       <c r="AF3" s="26" t="s">
@@ -32191,7 +32178,7 @@
         <f t="shared" ref="AB4:AB21" si="0">((AC4+SQRT(L4^2-4))/2)^2</f>
         <v>4.9451723832598642</v>
       </c>
-      <c r="AC4" s="52">
+      <c r="AC4" s="43">
         <f t="shared" ref="AC4:AC21" si="1">3*B4*(AA4-1)/C4</f>
         <v>3.3180000000000001</v>
       </c>
@@ -32277,7 +32264,7 @@
         <f t="shared" si="0"/>
         <v>3.3815614990535812</v>
       </c>
-      <c r="AC5" s="52">
+      <c r="AC5" s="43">
         <f t="shared" si="1"/>
         <v>2.5444223999999993</v>
       </c>
@@ -32374,7 +32361,7 @@
         <f t="shared" si="0"/>
         <v>4.4454643673352043</v>
       </c>
-      <c r="AC6" s="52">
+      <c r="AC6" s="43">
         <f t="shared" si="1"/>
         <v>3.0769500000000005</v>
       </c>
@@ -32460,7 +32447,7 @@
         <f t="shared" si="0"/>
         <v>2.7967767376180865</v>
       </c>
-      <c r="AC7" s="52">
+      <c r="AC7" s="43">
         <f t="shared" si="1"/>
         <v>2.213606779661017</v>
       </c>
@@ -32555,7 +32542,7 @@
         <f t="shared" si="0"/>
         <v>4.3137249258194261</v>
       </c>
-      <c r="AC8" s="52">
+      <c r="AC8" s="43">
         <f t="shared" si="1"/>
         <v>3.011878481012658</v>
       </c>
@@ -32630,7 +32617,7 @@
         <f t="shared" si="0"/>
         <v>3.6667209738572977</v>
       </c>
-      <c r="AC9" s="52">
+      <c r="AC9" s="43">
         <f t="shared" si="1"/>
         <v>2.6991714285714288</v>
       </c>
@@ -32725,7 +32712,7 @@
         <f t="shared" si="0"/>
         <v>4.1143973774943801</v>
       </c>
-      <c r="AC10" s="52">
+      <c r="AC10" s="43">
         <f t="shared" si="1"/>
         <v>2.9367108433734939</v>
       </c>
@@ -32811,7 +32798,7 @@
         <f t="shared" si="0"/>
         <v>6.5056223152816992</v>
       </c>
-      <c r="AC11" s="52">
+      <c r="AC11" s="43">
         <f t="shared" si="1"/>
         <v>2.2173688073394495</v>
       </c>
@@ -32897,7 +32884,7 @@
         <f t="shared" si="0"/>
         <v>3.0055825434123959</v>
       </c>
-      <c r="AC12" s="52">
+      <c r="AC12" s="43">
         <f t="shared" si="1"/>
         <v>2.335296296296296</v>
       </c>
@@ -32981,7 +32968,7 @@
         <f t="shared" si="0"/>
         <v>3.2401839130785568</v>
       </c>
-      <c r="AC13" s="52">
+      <c r="AC13" s="43">
         <f t="shared" si="1"/>
         <v>2.4579463087248317</v>
       </c>
@@ -33065,7 +33052,7 @@
         <f t="shared" si="0"/>
         <v>3.041076775252761</v>
       </c>
-      <c r="AC14" s="52">
+      <c r="AC14" s="43">
         <f t="shared" si="1"/>
         <v>2.347711267605634</v>
       </c>
@@ -33140,7 +33127,7 @@
         <f t="shared" si="0"/>
         <v>4.5700243871444197</v>
       </c>
-      <c r="AC15" s="52">
+      <c r="AC15" s="43">
         <f t="shared" si="1"/>
         <v>3.1224340425531922</v>
       </c>
@@ -33226,7 +33213,7 @@
         <f t="shared" si="0"/>
         <v>3.6613956588064531</v>
       </c>
-      <c r="AC16" s="52">
+      <c r="AC16" s="43">
         <f t="shared" si="1"/>
         <v>2.6882330935251799</v>
       </c>
@@ -33301,7 +33288,7 @@
         <f t="shared" si="0"/>
         <v>4.1531299261495995</v>
       </c>
-      <c r="AC17" s="52">
+      <c r="AC17" s="43">
         <f t="shared" si="1"/>
         <v>2.9383043478260875</v>
       </c>
@@ -33396,7 +33383,7 @@
         <f t="shared" si="0"/>
         <v>4.3011591155614735</v>
       </c>
-      <c r="AC18" s="52">
+      <c r="AC18" s="43">
         <f t="shared" si="1"/>
         <v>2.9937361702127663</v>
       </c>
@@ -33482,7 +33469,7 @@
         <f t="shared" si="0"/>
         <v>2.9479431509361413</v>
       </c>
-      <c r="AC19" s="52">
+      <c r="AC19" s="43">
         <f t="shared" si="1"/>
         <v>2.2993831168831171</v>
       </c>
@@ -33557,7 +33544,7 @@
         <f t="shared" si="0"/>
         <v>3.9911402800693385</v>
       </c>
-      <c r="AC20" s="52">
+      <c r="AC20" s="43">
         <f t="shared" si="1"/>
         <v>2.9054045454545454</v>
       </c>
@@ -33652,7 +33639,7 @@
         <f t="shared" si="0"/>
         <v>3.7950983782779653</v>
       </c>
-      <c r="AC21" s="52">
+      <c r="AC21" s="43">
         <f t="shared" si="1"/>
         <v>2.7664712727272733</v>
       </c>
@@ -33718,7 +33705,7 @@
         <v>4.1689999999999996</v>
       </c>
       <c r="AB22" s="46"/>
-      <c r="AC22" s="52"/>
+      <c r="AC22" s="43"/>
       <c r="AD22" s="44"/>
       <c r="AF22" s="42">
         <v>4.9640000000000004</v>
@@ -33798,7 +33785,7 @@
         <f>((AC23+SQRT(L23^2-4))/2)^2</f>
         <v>2.9667043539457598</v>
       </c>
-      <c r="AC23" s="52">
+      <c r="AC23" s="43">
         <f>3*B23*(AA23-1)/C23</f>
         <v>2.316440677966102</v>
       </c>
@@ -33873,7 +33860,7 @@
         <f>((AC24+SQRT(L24^2-4))/2)^2</f>
         <v>3.2141479703883951</v>
       </c>
-      <c r="AC24" s="52">
+      <c r="AC24" s="43">
         <f>3*B24*(AA24-1)/C24</f>
         <v>2.4488834355828222</v>
       </c>
@@ -33957,7 +33944,7 @@
         <f>((AC25+SQRT(L25^2-4))/2)^2</f>
         <v>2.9364441619402366</v>
       </c>
-      <c r="AC25" s="52">
+      <c r="AC25" s="43">
         <f>3*B25*(AA25-1)/C25</f>
         <v>2.2854967741935486</v>
       </c>
@@ -34034,7 +34021,7 @@
         <f>((AC26+SQRT(L26^2-4))/2)^2</f>
         <v>3.3059621164546451</v>
       </c>
-      <c r="AC26" s="52">
+      <c r="AC26" s="43">
         <f>3*B26*(AA26-1)/C26</f>
         <v>2.5019797297297299</v>
       </c>
@@ -34097,7 +34084,7 @@
         <v>6.3380000000000001</v>
       </c>
       <c r="AB27" s="46"/>
-      <c r="AC27" s="52"/>
+      <c r="AC27" s="43"/>
       <c r="AD27" s="44"/>
       <c r="AF27" s="42">
         <v>6.7279999999999998</v>
@@ -34169,7 +34156,7 @@
         <f t="shared" ref="AB28:AB34" si="11">((AC28+SQRT(L28^2-4))/2)^2</f>
         <v>3.5649038577368226</v>
       </c>
-      <c r="AC28" s="52">
+      <c r="AC28" s="43">
         <f t="shared" ref="AC28:AC34" si="12">3*B28*(AA28-1)/C28</f>
         <v>2.647071710526316</v>
       </c>
@@ -34264,7 +34251,7 @@
         <f t="shared" si="11"/>
         <v>4.2216141417231317</v>
       </c>
-      <c r="AC29" s="52">
+      <c r="AC29" s="43">
         <f t="shared" si="12"/>
         <v>2.9838825</v>
       </c>
@@ -34350,7 +34337,7 @@
         <f t="shared" si="11"/>
         <v>3.0516420540178606</v>
       </c>
-      <c r="AC30" s="52">
+      <c r="AC30" s="43">
         <f t="shared" si="12"/>
         <v>2.3638959537572255</v>
       </c>
@@ -34434,7 +34421,7 @@
         <f t="shared" si="11"/>
         <v>4.4352777015791904</v>
       </c>
-      <c r="AC31" s="52">
+      <c r="AC31" s="43">
         <f t="shared" si="12"/>
         <v>3.0744782608695655</v>
       </c>
@@ -34529,7 +34516,7 @@
         <f t="shared" si="11"/>
         <v>3.2868755011955084</v>
       </c>
-      <c r="AC32" s="52">
+      <c r="AC32" s="43">
         <f t="shared" si="12"/>
         <v>2.4852092710782667</v>
       </c>
@@ -34613,7 +34600,7 @@
         <f t="shared" si="11"/>
         <v>2.5466320678353944</v>
       </c>
-      <c r="AC33" s="52">
+      <c r="AC33" s="43">
         <f t="shared" si="12"/>
         <v>2.0557536585365854</v>
       </c>
@@ -34688,7 +34675,7 @@
         <f t="shared" si="11"/>
         <v>7.7176621431587549</v>
       </c>
-      <c r="AC34" s="52">
+      <c r="AC34" s="43">
         <f t="shared" si="12"/>
         <v>4.4201940594059401</v>
       </c>
@@ -34750,7 +34737,7 @@
         <v>4.0730000000000004</v>
       </c>
       <c r="AB35" s="46"/>
-      <c r="AC35" s="52"/>
+      <c r="AC35" s="43"/>
       <c r="AD35" s="44"/>
       <c r="AF35" s="42">
         <v>4.8719999999999999</v>
@@ -34815,7 +34802,7 @@
         <f>((AC36+SQRT(L36^2-4))/2)^2</f>
         <v>2.5183483751194671</v>
       </c>
-      <c r="AC36" s="52">
+      <c r="AC36" s="43">
         <f>3*B36*(AA36-1)/C36</f>
         <v>2.0391859030837001</v>
       </c>
@@ -34892,7 +34879,7 @@
         <f>((AC37+SQRT(L37^2-4))/2)^2</f>
         <v>2.7365471945985838</v>
       </c>
-      <c r="AC37" s="52">
+      <c r="AC37" s="43">
         <f>3*B37*(AA37-1)/C37</f>
         <v>2.1683819095477386</v>
       </c>
@@ -34938,7 +34925,7 @@
       <c r="V38" s="10"/>
       <c r="AA38" s="43"/>
       <c r="AB38" s="46"/>
-      <c r="AC38" s="52"/>
+      <c r="AC38" s="43"/>
       <c r="AD38" s="44"/>
       <c r="AF38" s="42"/>
       <c r="AG38" s="49"/>
@@ -35001,7 +34988,7 @@
         <f>((AC39+SQRT(L39^2-4))/2)^2</f>
         <v>2.3593064386655263</v>
       </c>
-      <c r="AC39" s="52">
+      <c r="AC39" s="43">
         <f>3*B39*(AA39-1)/C39</f>
         <v>1.929548969072165</v>
       </c>
@@ -35056,7 +35043,7 @@
       <c r="V40" s="10"/>
       <c r="AA40" s="43"/>
       <c r="AB40" s="46"/>
-      <c r="AC40" s="52"/>
+      <c r="AC40" s="43"/>
       <c r="AD40" s="44"/>
       <c r="AF40" s="42"/>
       <c r="AG40" s="49"/>
@@ -35128,7 +35115,7 @@
         <f t="shared" ref="AB41:AB49" si="19">((AC41+SQRT(L41^2-4))/2)^2</f>
         <v>2.8629718990190747</v>
       </c>
-      <c r="AC41" s="52">
+      <c r="AC41" s="43">
         <f t="shared" ref="AC41:AC49" si="20">3*B41*(AA41-1)/C41</f>
         <v>2.2566500000000005</v>
       </c>
@@ -35212,7 +35199,7 @@
         <f t="shared" si="19"/>
         <v>3.0937344478107565</v>
       </c>
-      <c r="AC42" s="52">
+      <c r="AC42" s="43">
         <f t="shared" si="20"/>
         <v>2.3741666666666665</v>
       </c>
@@ -35296,7 +35283,7 @@
         <f t="shared" si="19"/>
         <v>2.9384603424821143</v>
       </c>
-      <c r="AC43" s="52">
+      <c r="AC43" s="43">
         <f t="shared" si="20"/>
         <v>2.2979115384615385</v>
       </c>
@@ -35382,7 +35369,7 @@
         <f t="shared" si="19"/>
         <v>2.8880119262002446</v>
       </c>
-      <c r="AC44" s="52">
+      <c r="AC44" s="43">
         <f t="shared" si="20"/>
         <v>2.2610249999999996</v>
       </c>
@@ -35465,7 +35452,7 @@
         <f t="shared" si="19"/>
         <v>3.1422200757038854</v>
       </c>
-      <c r="AC45" s="52">
+      <c r="AC45" s="43">
         <f t="shared" si="20"/>
         <v>2.4094800000000003</v>
       </c>
@@ -35548,7 +35535,7 @@
         <f t="shared" si="19"/>
         <v>3.5522526126201148</v>
       </c>
-      <c r="AC46" s="52">
+      <c r="AC46" s="43">
         <f t="shared" si="20"/>
         <v>2.6237294117647054</v>
       </c>
@@ -35642,7 +35629,7 @@
         <f t="shared" si="19"/>
         <v>3.7032593817454766</v>
       </c>
-      <c r="AC47" s="52">
+      <c r="AC47" s="43">
         <f t="shared" si="20"/>
         <v>2.6997509433962263</v>
       </c>
@@ -35725,7 +35712,7 @@
         <f t="shared" si="19"/>
         <v>4.0629517331192586</v>
       </c>
-      <c r="AC48" s="52">
+      <c r="AC48" s="43">
         <f t="shared" si="20"/>
         <v>2.896424210526316</v>
       </c>
@@ -35808,7 +35795,7 @@
         <f t="shared" si="19"/>
         <v>2.9752628312830272</v>
       </c>
-      <c r="AC49" s="52">
+      <c r="AC49" s="43">
         <f t="shared" si="20"/>
         <v>2.3172435233160624</v>
       </c>
@@ -35844,7 +35831,7 @@
       <c r="N50" s="38"/>
       <c r="AA50" s="43"/>
       <c r="AB50" s="46"/>
-      <c r="AC50" s="52"/>
+      <c r="AC50" s="43"/>
       <c r="AD50" s="44"/>
       <c r="AF50" s="42"/>
       <c r="AG50" s="49"/>
@@ -35913,7 +35900,7 @@
         <f>((AC51+SQRT(L51^2-4))/2)^2</f>
         <v>3.3447798793433638</v>
       </c>
-      <c r="AC51" s="52">
+      <c r="AC51" s="43">
         <f>3*B51*(AA51-1)/C51</f>
         <v>2.5200949748743717</v>
       </c>
